--- a/Literature_Screening_List.xlsx
+++ b/Literature_Screening_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1216">
   <si>
     <t>Select? (Y/N)</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Association of bilateral salpingo-oophorectomy with all cause and cause specific mortality: population based cohort study.</t>
   </si>
   <si>
-    <t>Associations of habitual fish oil supplementation with cardiovascular outcomes and all cause mortality: evidence from a large population based cohort study.</t>
-  </si>
-  <si>
     <t>Red meat intake and risk of coronary heart disease among US men: prospective cohort study.</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>A Lay Health Worker-Led Symptom Intervention and Acute Care Use in Older Adults With Cancer: A Randomized Clinical Trial.</t>
   </si>
   <si>
-    <t>Arsenic Exposure Reduction and Chronic Disease Mortality.</t>
-  </si>
-  <si>
     <t>Risk-Based vs Annual Breast Cancer Screening: The WISDOM Randomized Clinical Trial.</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>Tumor-Infiltrating Lymphocytes in Triple-Negative Breast Cancer.</t>
   </si>
   <si>
-    <t>Vibration-Controlled Transient Elastography Scores to Predict Liver-Related Events in Steatotic Liver Disease.</t>
-  </si>
-  <si>
     <t>Germline Genetic Testing After Cancer Diagnosis.</t>
   </si>
   <si>
@@ -196,18 +187,12 @@
     <t>Association of Participation in the Oncology Care Model With Medicare Payments, Utilization, Care Delivery, and Quality Outcomes.</t>
   </si>
   <si>
-    <t>Association of Bariatric Surgery With Major Adverse Liver and Cardiovascular Outcomes in Patients With Biopsy-Proven Nonalcoholic Steatohepatitis.</t>
-  </si>
-  <si>
     <t>Colorectal Cancer Screening: An Updated Modeling Study for the US Preventive Services Task Force.</t>
   </si>
   <si>
     <t>Evaluation of the Benefits and Harms of Lung Cancer Screening With Low-Dose Computed Tomography: Modeling Study for the US Preventive Services Task Force.</t>
   </si>
   <si>
-    <t>Association of Race and Ethnicity and Medicare Program Type With Ambulatory Care Access and Quality Measures.</t>
-  </si>
-  <si>
     <t>Lifetime Prevalence of Cervical Cancer Screening in 55 Low- and Middle-Income Countries.</t>
   </si>
   <si>
@@ -220,9 +205,6 @@
     <t>Detection of Pathogenic Variants With Germline Genetic Testing Using Deep Learning vs Standard Methods in Patients With Prostate Cancer and Melanoma.</t>
   </si>
   <si>
-    <t>Association of Daily Step Count and Step Intensity With Mortality Among US Adults.</t>
-  </si>
-  <si>
     <t>Public Attitudes Regarding Hospitals and Physicians Encouraging Donations From Grateful Patients.</t>
   </si>
   <si>
@@ -247,21 +229,12 @@
     <t>Efficacy and safety of allogeneic CD19 CAR NK-cell therapy in systemic lupus erythematosus: a case series in China.</t>
   </si>
   <si>
-    <t>Global burden of 292 causes of death in 204 countries and territories and 660 subnational locations, 1990-2023: a systematic analysis for the Global Burden of Disease Study 2023.</t>
-  </si>
-  <si>
     <t>The global, regional, and national burden of cancer, 1990-2023, with forecasts to 2050: a systematic analysis for the Global Burden of Disease Study 2023.</t>
   </si>
   <si>
     <t>Global variation in patterns of care and time to initial treatment for breast, cervical, and ovarian cancer from 2015 to 2018 (VENUSCANCER): a secondary analysis of individual records for 275 792 women from 103 population-based cancer registries in 39 countries and territories.</t>
   </si>
   <si>
-    <t>Population-health impact of new drugs recommended by the National Institute for Health and Care Excellence in England during 2000-20: a retrospective analysis.</t>
-  </si>
-  <si>
-    <t>Impact of SARS-CoV-2 spike antibody positivity on infection and hospitalisation rates in immunosuppressed populations during the omicron period: the MELODY study.</t>
-  </si>
-  <si>
     <t>Induced pluripotent stem-cell-derived CD19-directed chimeric antigen receptor natural killer cells in B-cell lymphoma: a phase 1, first-in-human trial.</t>
   </si>
   <si>
@@ -292,9 +265,6 @@
     <t>Cause-specific mortality by county, race, and ethnicity in the USA, 2000-19: a systematic analysis of health disparities.</t>
   </si>
   <si>
-    <t>Development, validation, and prognostic evaluation of a risk score for long-term liver-related outcomes in the general population: a multicohort study.</t>
-  </si>
-  <si>
     <t>Blood-based tests for multicancer early detection (PATHFINDER): a prospective cohort study.</t>
   </si>
   <si>
@@ -307,9 +277,6 @@
     <t>Impact of messaging informed by behavioural science on uptake of targeted lung health checks: a service evaluation.</t>
   </si>
   <si>
-    <t>Estimation of HbA(1c) after weight loss using a beta-regression for an economic evaluation of a behavioural weight management programme from the GLoW trial: a methodological study.</t>
-  </si>
-  <si>
     <t>Development of a framework for action to advocate for a coherent prevention policy for tobacco, alcohol, and foods high in fats, salt, or sugar: a mixed-methods approach.</t>
   </si>
   <si>
@@ -349,9 +316,6 @@
     <t>Impact of the temporary suspension of the Bowel Screening Wales programme on inequalities during the COVID-19 pandemic: a retrospective register-based study.</t>
   </si>
   <si>
-    <t>Life expectancy by county, race, and ethnicity in the USA, 2000-19: a systematic analysis of health disparities.</t>
-  </si>
-  <si>
     <t>Racial disparities in recommendations for surgical resection of primary brain tumours: a registry-based cohort analysis.</t>
   </si>
   <si>
@@ -361,9 +325,6 @@
     <t>Early drug development in solid tumours: analysis of National Cancer Institute-sponsored phase 1 trials.</t>
   </si>
   <si>
-    <t>Pandemic preparedness and COVID-19: an exploratory analysis of infection and fatality rates, and contextual factors associated with preparedness in 177 countries, from Jan 1, 2020, to Sept 30, 2021.</t>
-  </si>
-  <si>
     <t>Pirtobrutinib in relapsed or refractory B-cell malignancies (BRUIN): a phase 1/2 study.</t>
   </si>
   <si>
@@ -412,9 +373,6 @@
     <t>Impact of HPV vaccination and cervical screening on cervical cancer elimination: a comparative modelling analysis in 78 low-income and lower-middle-income countries.</t>
   </si>
   <si>
-    <t>Trajectories of childhood adversity and mortality in early adulthood: a population-based cohort study.</t>
-  </si>
-  <si>
     <t>Medical Imaging and Pediatric and Adolescent Hematologic Cancer Risk.</t>
   </si>
   <si>
@@ -433,9 +391,6 @@
     <t>Tumor-Infiltrating Clonal Hematopoiesis.</t>
   </si>
   <si>
-    <t>Fidanacogene Elaparvovec for Hemophilia B - A Multiyear Follow-up Study.</t>
-  </si>
-  <si>
     <t>Assessment of a Polygenic Risk Score in Screening for Prostate Cancer.</t>
   </si>
   <si>
@@ -547,9 +502,6 @@
     <t>Belzutifan for Renal Cell Carcinoma in von Hippel-Lindau Disease.</t>
   </si>
   <si>
-    <t>100,000 Genomes Pilot on Rare-Disease Diagnosis in Health Care - Preliminary Report.</t>
-  </si>
-  <si>
     <t>Vemurafenib plus Rituximab in Refractory or Relapsed Hairy-Cell Leukemia.</t>
   </si>
   <si>
@@ -613,9 +565,6 @@
     <t>The Effect of Advances in Lung-Cancer Treatment on Population Mortality.</t>
   </si>
   <si>
-    <t>Selumetinib in Children with Inoperable Plexiform Neurofibromas.</t>
-  </si>
-  <si>
     <t>Association between Mental Disorders and Subsequent Medical Conditions.</t>
   </si>
   <si>
@@ -652,9 +601,6 @@
     <t>2021 Dec 8</t>
   </si>
   <si>
-    <t>2020 Mar 4</t>
-  </si>
-  <si>
     <t>2020 Dec 2</t>
   </si>
   <si>
@@ -670,9 +616,6 @@
     <t>2025 Dec 30</t>
   </si>
   <si>
-    <t>2025 Dec 16</t>
-  </si>
-  <si>
     <t>2025 Dec 12</t>
   </si>
   <si>
@@ -709,9 +652,6 @@
     <t>2024 Apr 2</t>
   </si>
   <si>
-    <t>2024 Apr 16</t>
-  </si>
-  <si>
     <t>2023 Jul 3</t>
   </si>
   <si>
@@ -736,18 +676,12 @@
     <t>2021 Nov 9</t>
   </si>
   <si>
-    <t>2021 Nov 23</t>
-  </si>
-  <si>
     <t>2021 May 18</t>
   </si>
   <si>
     <t>2021 Mar 9</t>
   </si>
   <si>
-    <t>2021 Aug 17</t>
-  </si>
-  <si>
     <t>2020 Oct 20</t>
   </si>
   <si>
@@ -760,9 +694,6 @@
     <t>2020 Nov 17</t>
   </si>
   <si>
-    <t>2020 Mar 24</t>
-  </si>
-  <si>
     <t>2020 Jul 21</t>
   </si>
   <si>
@@ -787,21 +718,12 @@
     <t>2026 Dec 20</t>
   </si>
   <si>
-    <t>2025 Oct 18</t>
-  </si>
-  <si>
     <t>2025 Oct 11</t>
   </si>
   <si>
     <t>2025 Nov 15</t>
   </si>
   <si>
-    <t>2025 Jan 4</t>
-  </si>
-  <si>
-    <t>2025 Jan 25</t>
-  </si>
-  <si>
     <t>2025 Jan 11</t>
   </si>
   <si>
@@ -832,9 +754,6 @@
     <t>2023 Sep 23</t>
   </si>
   <si>
-    <t>2023 Sep 16</t>
-  </si>
-  <si>
     <t>2023 Oct 7</t>
   </si>
   <si>
@@ -862,9 +781,6 @@
     <t>2022 Nov</t>
   </si>
   <si>
-    <t>2022 Jul 2</t>
-  </si>
-  <si>
     <t>2022 Dec 10</t>
   </si>
   <si>
@@ -874,9 +790,6 @@
     <t>2022 Aug 13</t>
   </si>
   <si>
-    <t>2022 Apr 16</t>
-  </si>
-  <si>
     <t>2021 Mar 6</t>
   </si>
   <si>
@@ -910,9 +823,6 @@
     <t>2020 Feb 22</t>
   </si>
   <si>
-    <t>2020 Aug 15</t>
-  </si>
-  <si>
     <t>2025 Oct 2</t>
   </si>
   <si>
@@ -928,9 +838,6 @@
     <t>2025 Apr 24</t>
   </si>
   <si>
-    <t>2025 Apr 17</t>
-  </si>
-  <si>
     <t>2025 Apr 10</t>
   </si>
   <si>
@@ -1036,9 +943,6 @@
     <t>2021 Nov 25</t>
   </si>
   <si>
-    <t>2021 Nov 11</t>
-  </si>
-  <si>
     <t>2021 May 13</t>
   </si>
   <si>
@@ -1090,9 +994,6 @@
     <t>2020 Aug 13</t>
   </si>
   <si>
-    <t>2020 Apr 9</t>
-  </si>
-  <si>
     <t>2020 Apr 30</t>
   </si>
   <si>
@@ -1129,9 +1030,6 @@
     <t>10.1136/bmj-2021-067528 e067528</t>
   </si>
   <si>
-    <t>10.1136/bmj.m456 m456</t>
-  </si>
-  <si>
     <t>10.1136/bmj.m4141 m4141</t>
   </si>
   <si>
@@ -1147,9 +1045,6 @@
     <t>10.1001/jama.2025.23403 e2523403</t>
   </si>
   <si>
-    <t>10.1001/jama.2025.19161</t>
-  </si>
-  <si>
     <t>10.1001/jama.2025.24784 e2524784</t>
   </si>
   <si>
@@ -1192,9 +1087,6 @@
     <t>10.1001/jama.2024.3056</t>
   </si>
   <si>
-    <t>10.1001/jama.2024.1447</t>
-  </si>
-  <si>
     <t>10.1001/jama.2023.9526</t>
   </si>
   <si>
@@ -1219,18 +1111,12 @@
     <t>10.1001/jama.2021.17642</t>
   </si>
   <si>
-    <t>10.1001/jama.2021.19569</t>
-  </si>
-  <si>
     <t>10.1001/jama.2021.5746</t>
   </si>
   <si>
     <t>10.1001/jama.2021.1077</t>
   </si>
   <si>
-    <t>10.1001/jama.2021.10413</t>
-  </si>
-  <si>
     <t>10.1001/jama.2020.16244</t>
   </si>
   <si>
@@ -1243,9 +1129,6 @@
     <t>10.1001/jama.2020.20457</t>
   </si>
   <si>
-    <t>10.1001/jama.2020.1382</t>
-  </si>
-  <si>
     <t>10.1001/jama.2020.9442</t>
   </si>
   <si>
@@ -1270,21 +1153,12 @@
     <t>S0140-6736(25)01671-X [pii] 10.1016/S0140-6736(25)01671-X</t>
   </si>
   <si>
-    <t>S0140-6736(25)01917-8 [pii] 10.1016/S0140-6736(25)01917-8</t>
-  </si>
-  <si>
     <t>S0140-6736(25)01635-6 [pii] 10.1016/S0140-6736(25)01635-6</t>
   </si>
   <si>
     <t>S0140-6736(25)01383-2 [pii] 10.1016/S0140-6736(25)01383-2</t>
   </si>
   <si>
-    <t>S0140-6736(24)02352-3 [pii] 10.1016/S0140-6736(24)02352-3</t>
-  </si>
-  <si>
-    <t>S0140-6736(24)02560-1 [pii] 10.1016/S0140-6736(24)02560-1</t>
-  </si>
-  <si>
     <t>S0140-6736(24)02462-0 [pii] 10.1016/S0140-6736(24)02462-0</t>
   </si>
   <si>
@@ -1315,9 +1189,6 @@
     <t>S0140-6736(23)01088-7 [pii] 10.1016/S0140-6736(23)01088-7</t>
   </si>
   <si>
-    <t>S0140-6736(23)01174-1 [pii] 10.1016/S0140-6736(23)01174-1</t>
-  </si>
-  <si>
     <t>S0140-6736(23)01700-2 [pii] 10.1016/S0140-6736(23)01700-2</t>
   </si>
   <si>
@@ -1330,9 +1201,6 @@
     <t>S0140-6736(23)02153-0 [pii] 10.1016/S0140-6736(23)02153-0</t>
   </si>
   <si>
-    <t>S0140-6736(23)02156-6 [pii] 10.1016/S0140-6736(23)02156-6</t>
-  </si>
-  <si>
     <t>S0140-6736(23)02109-8 [pii] 10.1016/S0140-6736(23)02109-8</t>
   </si>
   <si>
@@ -1372,9 +1240,6 @@
     <t>S0140-6736(22)02235-8 [pii] 10.1016/S0140-6736(22)02235-8</t>
   </si>
   <si>
-    <t>S0140-6736(22)00876-5 [pii] 10.1016/S0140-6736(22)00876-5</t>
-  </si>
-  <si>
     <t>S0140-6736(22)00839-X [pii] 10.1016/S0140-6736(22)00839-X</t>
   </si>
   <si>
@@ -1384,9 +1249,6 @@
     <t>S0140-6736(22)01390-3 [pii] 10.1016/S0140-6736(22)01390-3</t>
   </si>
   <si>
-    <t>S0140-6736(22)00172-6 [pii] 10.1016/S0140-6736(22)00172-6</t>
-  </si>
-  <si>
     <t>S0140-6736(21)00224-5 [pii] 10.1016/S0140-6736(21)00224-5</t>
   </si>
   <si>
@@ -1435,9 +1297,6 @@
     <t>S0140-6736(20)30068-4 [pii] 10.1016/S0140-6736(20)30068-4</t>
   </si>
   <si>
-    <t>S0140-6736(20)30621-8 [pii] 10.1016/S0140-6736(20)30621-8</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2502098</t>
   </si>
   <si>
@@ -1456,9 +1315,6 @@
     <t>10.1056/NEJMoa2413361</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2307159</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2407934</t>
   </si>
   <si>
@@ -1570,9 +1426,6 @@
     <t>10.1056/NEJMoa2103425</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2035790</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2031298</t>
   </si>
   <si>
@@ -1636,9 +1489,6 @@
     <t>10.1056/NEJMoa1916623</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa1912735</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa1915784</t>
   </si>
   <si>
@@ -1675,9 +1525,6 @@
     <t>OBJECTIVES: To determine if bilateral salpingo-oophorectomy, compared with ovarian conservation, is associated with all cause or cause specific death in women undergoing hysterectomy for non-malignant disease, and to determine how this association varies with age at surgery. DESIGN: Population based cohort study. SETTING: Ontario, Canada from 1 January 1996 to 31 December 2015, and follow-up to 31 December 2017. PARTICIPANTS: 200 549 women (aged 30-70 years) undergoing non-malignant hysterectomy, stratified into premenopausal (&lt;45 years), menopausal transition (45-49 years), early menopausal (50-54 years), and late menopausal (&gt;/=55 years) groups according to age at surgery; median follow-up was 12 years (interquartile range 7-17). EXPOSURES: Bilateral salpingo-oophorectomy versus ovarian conservation. MAIN OUTCOMES MEASURES: The primary outcome was all cause death. Secondary outcomes were non-cancer and cancer death. Within each age group, overlap propensity score weighted survival models were used to examine the association between bilateral salpingo-oophorectomy and mortality outcomes, while adjusting for demographic characteristics, gynaecological conditions, and comorbidities. To account for comparisons in four age groups, P&lt;0.0125 was considered statistically significant. RESULTS: Bilateral salpingo-oophorectomy was performed in 19%, 41%, 69%, and 81% of women aged &lt;45, 45-49, 50-54, and &gt;/=55 years, respectively. The procedure was associated with increased rates of all cause death in women aged &lt;45 years (hazard ratio 1.31, 95% confidence interval 1.18 to 1.45, P&lt;0.001; number needed to harm 71 at 20 years) and 45-49 years (1.16, 1.04 to 1.30, P=0.007; 152 at 20 years), but not in women aged 50-54 years (0.83, 0.72 to 0.97, P=0.018) or &gt;/=55 years (0.92, 0.82 to 1.03, P=0.16). Findings in women aged &lt;50 years were driven largely by increased non-cancer death. In secondary analyses identifying a possible change in the association between bilateral salpingo-oophorectomy and all cause death with advancing age at surgery, the hazard ratio gradually decreased during the menopausal transition and remained around 1 at all ages thereafter. CONCLUSION: In this observational study, bilateral salpingo-oophorectomy at non-malignant hysterectomy appeared to be associated with increased all cause mortality in women aged &lt;50 years, but not in those aged &gt;/=50 years. While caution is warranted when considering bilateral salpingo-oophorectomy in premenopausal women without indication, this strategy for ovarian cancer risk reduction does not appear to be detrimental to survival in postmenopausal women.</t>
   </si>
   <si>
-    <t>OBJECTIVES: To evaluate the associations of habitual fish oil supplementation with cardiovascular disease (CVD) and mortality in a large prospective cohort. DESIGN: Population based, prospective cohort study. SETTING: UK Biobank. PARTICIPANTS: A total of 427 678 men and women aged between 40 and 69 who had no CVD or cancer at baseline were enrolled between 2006 and 2010 and followed up to the end of 2018. MAIN EXPOSURE: All participants answered questions on the habitual use of supplements, including fish oil. MAIN OUTCOME MEASURES: All cause mortality, CVD mortality, and CVD events. RESULTS: At baseline, 133 438 (31.2%) of the 427 678 participants reported habitual use of fish oil supplements. The multivariable adjusted hazard ratios for habitual users of fish oil versus non-users were 0.87 (95% confidence interval 0.83 to 0.90) for all cause mortality, 0.84 (0.78 to 0.91) for CVD mortality, and 0.93 (0.90 to 0.96) for incident CVD events. For CVD events, the association seemed to be stronger among those with prevalent hypertension (P for interaction=0.005). CONCLUSIONS: Habitual use of fish oil seems to be associated with a lower risk of all cause and CVD mortality and to provide a marginal benefit against CVD events among the general population.</t>
-  </si>
-  <si>
     <t>OBJECTIVES: To study total, processed, and unprocessed red meat in relation to risk of coronary heart disease (CHD) and to estimate the effects of substituting other protein sources for red meat with CHD risk. DESIGN: Prospective cohort study with repeated measures of diet and lifestyle factors. SETTING: Health Professionals Follow-Up Study cohort, United States, 1986-2016. PARTICIPANTS: 43 272 men without cardiovascular disease or cancer at baseline. MAIN OUTCOME MEASURES: The primary outcome was total CHD, comprised of acute non-fatal myocardial infarction or fatal CHD. Cox models were used to estimate hazard ratios and 95% confidence intervals across categories of red meat consumption. Substitution analyses were conducted by comparing coefficients for red meat and the alternative food in models, including red meat and alternative foods as continuous variables. RESULTS: During 1 023 872 person years of follow-up, 4456 incident CHD events were documented of which 1860 were fatal. After multivariate adjustment for dietary and non-dietary risk factors, total, unprocessed, and processed red meat intake were each associated with a modestly higher risk of CHD (hazard ratio for one serving per day increment: 1.12 (95% confidence interval 1.06 to 1.18) for total red meat, 1.11 (1.02 to 1.21) for unprocessed red meat, and 1.15 (1.06 to 1.25) for processed red meat). Compared with red meat, the intake of one serving per day of combined plant protein sources (nuts, legumes, and soy) was associated with a lower risk of CHD (0.86 (0.80 to 0.93) compared with total red meat, 0.87 (0.79 to 0.95) compared with unprocessed red meat, and 0.83 (0.76 to 0.91) compared with processed red meat). Substitutions of whole grains and dairy products for total red meat and eggs for processed red meat were also associated with lower CHD risk. CONCLUSIONS: Substituting high quality plant foods such as legumes, nuts, or soy for red meat might reduce the risk of CHD. Substituting whole grains and dairy products for total red meat, and eggs for processed red meat, might also reduce this risk.</t>
   </si>
   <si>
@@ -1693,9 +1540,6 @@
     <t>IMPORTANCE: Undertreated cancer symptoms are common among older adults, yet effective early identification and intervention remain limited. OBJECTIVE: To determine whether lay health worker-led symptom assessment reduces acute care use among older adults with cancer. DESIGN, SETTING, AND PARTICIPANTS: Multisite randomized clinical trial across 43 oncology clinics in California and Arizona conducted from November 2020 through October 2023 with 12 months of follow-up among Medicare Advantage beneficiaries aged 75 years or older with newly diagnosed, recurrent, or progressive cancer. INTERVENTIONS: Participants were randomized 1:1 into a symptom assessment group (n = 200; usual care with lay health worker-led, telephone-based symptom assessments for 12 months using the Edmonton Symptom Assessment System) or a control group (n = 216; usual care alone), with planned enrollment of 200 in both groups. The lay health workers reviewed assessments with advanced practice practitioners who conducted interventions for symptoms rated 4 or greater or that increased by 2 points or more. MAIN OUTCOMES AND MEASURES: Outcomes were determined a priori. The primary outcome was emergency department (ED) use and hospitalizations. Secondary outcomes were total costs, hospice, and, among decedents, acute care within 30 days of death and facility deaths. RESULTS: Among 416 patients, the median age was 82 (range, 75-99) years; 219 (52.6%) were male; 171 (41.1%) had stage 4 disease; and 27 (6.4%) had recurrent disease. The mean risk adjustment factor score was 2.70 (SD, 1.77). Symptom assessment participants had 53% lower odds of ED use (61 [30.5%] vs 103 [47.7%] had &gt;/=1 ED visit; adjusted odds ratio [OR], 0.47; 95% CI, 0.32-0.71), 68% lower odds of hospitalization (37 [18.5%] vs 86 [39.8%] had &gt;/=1 hospitalization; OR, 0.32; 95% CI, 0.20-0.51), and lower mean total costs by $12 000 per participant (P = .01) than control group participants. Among 142 deceased participants (71 in each group), symptom assessment participants had 68% lower odds of ED use within 30 days of death (OR, 0.32; 95% CI, 0.12-0.88) and 75% lower odds of acute care facility death (OR, 0.25; 95% CI, 0.08-0.77). CONCLUSIONS AND RELEVANCE: A lay health worker-led symptom assessment intervention may be a scalable approach to reduce acute care use. TRIAL REGISTRATION: ClinicalTrials.gov Identifier: NCT04463992.</t>
   </si>
   <si>
-    <t>IMPORTANCE: Chronic exposure to arsenic in drinking water has been associated with increased chronic disease mortality. However, there is limited evidence on associations between reduced exposure and mortality risk. OBJECTIVE: To examine whether reductions in arsenic exposure, measured using urinary arsenic levels, are associated with lower mortality from chronic diseases, including cancer and cardiovascular disease (CVD). DESIGN, SETTING, AND PARTICIPANTS: A prospective cohort of 11 746 adults was enrolled between 2000 and 2002 in Araihazar, Bangladesh, with levels of well-water arsenic ranging from less than 1 microg/L to 864 microg/L (mean, 102 microg/L), exceeding the Bangladesh standard of 50 microg/L. Arsenic levels declined over time as a result of community mitigation. Mortality was tracked through 2022. Analyses included 10 977 participants with calculable changes in urinary arsenic levels. EXPOSURES: Urinary arsenic levels were measured up to 5 times per participant through 2018. Participants were categorized based on changes in urinary arsenic levels. MAIN OUTCOMES AND MEASURES: Adjusted hazard ratios (aHRs) and 95% CIs for mortality from chronic diseases, including cancer and CVD. RESULTS: Among 10 977 participants (57% female; mean age, 37.0 [SD, 10.1] years), mean urinary arsenic levels declined from 283 (SD, 314) to 132 (SD, 161) microg/g creatinine from 2000 to 2018. Each IQR decrease in urinary arsenic (197 microg/g creatinine) was associated with 22% lower chronic disease mortality (aHR, 0.78 [95% CI, 0.75-0.82]), 20% lower cancer mortality (aHR, 0.80 [95% CI, 0.73-0.87]), and 23% lower CVD mortality (aHR, 0.77 [95% CI, 0.73-0.81]). Time-varying Cox and restricted cubic spline analyses showed larger reductions were associated with lower mortality, while increases were linked to higher risk. Compared with participants with consistently high urinary arsenic levels (above the baseline median of 199 microg/g creatinine [n = 1757]), those whose levels declined below the median (n = 3757) had lower mortality from chronic diseases (aHR, 0.46 [95% CI, 0.39-0.53]), including cancer (aHR, 0.51 [95% CI, 0.35-0.73]) and CVD (aHR, 0.43 [95% CI, 0.34-0.53]), similar to those consistently below the median (n = 4959) (aHR, 0.43-0.49). Findings were similar in propensity score-matched analyses. CONCLUSIONS AND RELEVANCE: These findings support an association between reduced arsenic exposure and improved health outcomes in populations exposed to contaminated drinking water.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: Individual breast cancer risk can guide screening initiation, frequency, use of supplemental imaging, and preventive measures to improve breast cancer screening by shifting resources from low-risk women to high-risk women. OBJECTIVE: To determine whether risk-based breast cancer screening is a feasible alternative to annual mammography. DESIGN, SETTING, AND PARTICIPANTS: Parallel-group, pragmatic, multicenter randomized clinical trial comparing risk-based (n = 14 212) with annual (n = 14 160) breast cancer screening. Women aged 40 to 74 years without prior diagnoses of breast cancer or ductal carcinoma in situ, or prophylactic bilateral mastectomy, were recruited from all 50 US states from September 2016 to February 2023, with follow-up through September 5, 2025 (median follow-up, 5.1 years). Statistical analysis was conducted between July and November 2025. All study procedures were conducted via an online platform. Women who declined randomization were enrolled in an observational cohort. INTERVENTIONS: Risk assessment included sequencing of 9 susceptibility genes, polygenic risk score, and the Breast Cancer Surveillance Consortium version 2 model. The risk-based group received 1 of 4 recommendations: (1) highest risk (&gt;/=6% 5-year risk, high-penetrance pathogenic variant): alternating mammography and magnetic resonance imaging (MRI) every 6 months and counseling; (2) elevated risk (top 2.5 risk percentile by age): annual mammography and risk-reduction counseling; (3) average risk: biennial mammography; and (4) low risk (aged 40-49 years and &lt;1.3% 5-year risk): no screening until risk is 1.3% or greater or age 50 years. MAIN OUTCOMES AND MEASURES: The coprimary outcomes included noninferiority for stage &gt;/=IIB cancers and superiority in reducing biopsy rates. Secondary outcomes included identification of stage &gt;/=IIA cancers, mammogram rates, uptake of prevention strategies in higher risk cohorts, preference for screening group in the observational cohort, ductal carcinoma in situ, MRI, and stage-specific cancer rates. RESULTS: A total of 28 372 women were randomized. The mean (SD) age was 54 (9.6) years and the majority were non-Hispanic White (77%). The rate of stage &gt;/=IIB cancers was noninferior in the risk-based compared with the annual group (risk-based: 30.0 [95% CI, 16.3-43.8] vs annual: 48.0 [95% CI, 30.1-65.5] per 100 000 person-years; rate difference, -18.0 per 100 000 person-years [95% CI, -40.2 to 4.1]). The rate of breast biopsies was not lower in the risk-based group (rate difference, 98.7 per 100 000 person-years [95% CI, -17.9 to 215.3]) despite fewer mammograms (rate difference, -3835.9 [95% CI, -4516.8 to -3154.9]). The cumulative incidence of cancer, biopsy, mammogram, and MRI increased as risk category increased. In the observational cohort, 89% of participants (15 980/18 031) chose risk based. CONCLUSIONS: Risk-based breast cancer screening that includes population-based genetic testing safely stratified risk and screening intensity, but did not reduce biopsy rates. TRIAL REGISTRATION: ClinicalTrials.gov Identifier: NCT02620852.</t>
   </si>
   <si>
@@ -1738,9 +1582,6 @@
     <t>IMPORTANCE: The association of tumor-infiltrating lymphocyte (TIL) abundance in breast cancer tissue with cancer recurrence and death in patients with early-stage triple-negative breast cancer (TNBC) who are not treated with adjuvant or neoadjuvant chemotherapy is unclear. OBJECTIVE: To study the association of TIL abundance in breast cancer tissue with survival among patients with early-stage TNBC who were treated with locoregional therapy but no chemotherapy. DESIGN, SETTING, AND PARTICIPANTS: Retrospective pooled analysis of individual patient-level data from 13 participating centers in North America (Rochester, Minnesota; Vancouver, British Columbia, Canada), Europe (Paris, Lyon, and Villejuif, France; Amsterdam and Rotterdam, the Netherlands; Milan, Padova, and Genova, Italy; Gothenburg, Sweden), and Asia (Tokyo, Japan; Seoul, Korea), including 1966 participants diagnosed with TNBC between 1979 and 2017 (with follow-up until September 27, 2021) who received treatment with surgery with or without radiotherapy but no adjuvant or neoadjuvant chemotherapy. EXPOSURE: TIL abundance in breast tissue from resected primary tumors. MAIN OUTCOMES AND MEASURES: The primary outcome was invasive disease-free survival [iDFS]. Secondary outcomes were recurrence-free survival [RFS], survival free of distant recurrence [distant RFS, DRFS], and overall survival. Associations were assessed using a multivariable Cox model stratified by participating center. RESULTS: This study included 1966 patients with TNBC (median age, 56 years [IQR, 39-71]; 55% had stage I TNBC). The median TIL level was 15% (IQR, 5%-40%). Four-hundred seventeen (21%) had a TIL level of 50% or more (median age, 41 years [IQR, 36-63]), and 1300 (66%) had a TIL level of less than 30% (median age, 59 years [IQR, 41-72]). Five-year DRFS for stage I TNBC was 94% (95% CI, 91%-96%) for patients with a TIL level of 50% or more, compared with 78% (95% CI, 75%-80%) for those with a TIL level of less than 30%; 5-year overall survival was 95% (95% CI, 92%-97%) for patients with a TIL level of 50% or more, compared with 82% (95% CI, 79%-84%) for those with a TIL level of less than 30%. At a median follow-up of 18 years, and after adjusting for age, tumor size, nodal status, histological grade, and receipt of radiotherapy, each 10% higher TIL increment was associated independently with improved iDFS (hazard ratio [HR], 0.92 [0.89-0.94]), RFS (HR, 0.90 [0.87-0.92]), DRFS (HR, 0.87 [0.84-0.90]), and overall survival (0.88 [0.85-0.91]) (likelihood ratio test, P &lt; 10e-6). CONCLUSIONS AND RELEVANCE: In patients with early-stage TNBC who did not undergo adjuvant or neoadjuvant chemotherapy, breast cancer tissue with a higher abundance of TIL levels was associated with significantly better survival. These results suggest that breast tissue TIL abundance is a prognostic factor for patients with early-stage TNBC.</t>
   </si>
   <si>
-    <t>IMPORTANCE: Metabolic dysfunction-associated steatotic liver disease (MASLD) is currently the most common chronic liver disease worldwide. It is important to develop noninvasive tests to assess the disease severity and prognosis. OBJECTIVE: To study the prognostic implications of baseline levels and dynamic changes of the vibration-controlled transient elastography (VCTE)-based scores developed for the diagnosis of advanced fibrosis (Agile 3+) and cirrhosis (Agile 4) in patients with MASLD. DESIGN, SETTING, AND PARTICIPANTS: This cohort study included data from a natural history cohort of patients with MASLD who underwent VCTE examination at 16 tertiary referral centers in the US, Europe, and Asia from February 2004 to January 2023, of which the data were collected prospectively at 14 centers. Eligible patients were adults aged at least 18 years with hepatic steatosis diagnosed by histologic methods (steatosis in &gt;/=5% of hepatocytes) or imaging studies (ultrasonography, computed tomography or magnetic resonance imaging, or controlled attenuation parameter &gt;/=248 dB/m by VCTE). MAIN OUTCOMES AND MEASURES: The primary outcome was liver-related events (LREs), defined as hepatocellular carcinoma or hepatic decompensation (ascites, variceal hemorrhage, hepatic encephalopathy, or hepatorenal syndrome), liver transplant, and liver-related deaths. The Agile scores were compared with histologic and 8 other noninvasive tests. RESULTS: A total of 16 603 patients underwent VCTE examination at baseline (mean [SD] age, 52.5 [13.7] years; 9600 [57.8%] were male). At a median follow-up of 51.7 (IQR, 25.2-85.2) months, 316 patients (1.9%) developed LREs. Both Agile 3+ and Agile 4 scores classified fewer patients between the low and high cutoffs than most fibrosis scores and achieved the highest discriminatory power in predicting LREs (integrated area under the time-dependent receiver-operating characteristic curve, 0.89). A total of 10 920 patients (65.8%) had repeated VCTE examination at a median interval of 15 (IQR, 11.3-27.7) months and were included in the serial analysis. A total of 81.9% of patients (7208 of 8810) had stable Agile 3+ scores and 92.6% of patients (8163 of 8810) had stable Agile 4 scores (same risk categories at both assessments). The incidence of LREs was 0.6 per 1000 person-years in patients with persistently low Agile 3+ scores and 30.1 per 1000 person-years in patients with persistently high Agile 3+ scores. In patients with high Agile 3+ score at baseline, a decrease in the score by more than 20% was associated with substantial reduction in the risk of LREs. A similar trend was observed for the Agile 4 score, although it missed more LREs in the low-risk group. CONCLUSIONS AND RELEVANCE: Findings of this study suggest that single or serial Agile scores are highly accurate in predicting LREs in patients with MASLD, making them suitable alternatives to liver biopsy in routine clinical practice and in phase 2b and 3 clinical trials for steatohepatitis.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: Germline genetic testing is recommended by practice guidelines for patients diagnosed with cancer to enable genetically targeted treatment and identify relatives who may benefit from personalized cancer screening and prevention. OBJECTIVE: To describe the prevalence of germline genetic testing among patients diagnosed with cancer in California and Georgia between 2013 and 2019. DESIGN, SETTING, AND PARTICIPANTS: Observational study including patients aged 20 years or older who had been diagnosed with any type of cancer between January 1, 2013, and March 31, 2019, that was reported to statewide Surveillance, Epidemiology, and End Results registries in California and Georgia. These patients were linked to genetic testing results from 4 laboratories that performed most germline testing for California and Georgia. MAIN OUTCOMES AND MEASURES: The primary outcome was germline genetic testing within 2 years of a cancer diagnosis. Testing trends were analyzed with logistic regression modeling. The results of sequencing each gene, including variants associated with increased cancer risk (pathogenic results) and variants whose cancer risk association was unknown (uncertain results), were evaluated. The genes were categorized according to their primary cancer association, including breast or ovarian, gastrointestinal, and other, and whether practice guidelines recommended germline testing. RESULTS: Among 1 369 602 patients diagnosed with cancer between 2013 and 2019 in California and Georgia, 93 052 (6.8%) underwent germline testing through March 31, 2021. The proportion of patients tested varied by cancer type: male breast (50%), ovarian (38.6%), female breast (26%), multiple (7.5%), endometrial (6.4%), pancreatic (5.6%), colorectal (5.6%), prostate (1.1%), and lung (0.3%). In a logistic regression model, compared with the 31% (95% CI, 30%-31%) of non-Hispanic White patients with male breast cancer, female breast cancer, or ovarian cancer who underwent testing, patients of other races and ethnicities underwent testing less often: 22% (95% CI, 21%-22%) of Asian patients, 25% (95% CI, 24%-25%) of Black patients, and 23% (95% CI, 23%-23%) of Hispanic patients (P &lt; .001 using the chi2 test). Of all pathogenic results, 67.5% to 94.9% of variants were identified in genes for which practice guidelines recommend testing and 68.3% to 83.8% of variants were identified in genes associated with the diagnosed cancer type. CONCLUSIONS AND RELEVANCE: Among patients diagnosed with cancer in California and Georgia between 2013 and 2019, only 6.8% underwent germline genetic testing. Compared with non-Hispanic White patients, rates of testing were lower among Asian, Black, and Hispanic patients.</t>
   </si>
   <si>
@@ -1765,18 +1606,12 @@
     <t>IMPORTANCE: In 2016, the US Centers for Medicare &amp; Medicaid Services initiated the Oncology Care Model (OCM), an alternative payment model designed to improve the value of care delivered to Medicare beneficiaries with cancer. OBJECTIVE: To assess the association of the OCM with changes in Medicare spending, utilization, quality, and patient experience during the OCM's first 3 years. DESIGN, SETTING, AND PARTICIPANTS: Exploratory difference-in-differences study comparing care during 6-month chemotherapy episodes in OCM participating practices and propensity-matched comparison practices initiated before (January 2014 through June 2015) and after (July 2016 through December 2018) the start of the OCM. Participants included Medicare fee-for-service beneficiaries with cancer treated at these practices through June 2019. EXPOSURES: OCM participation. MAIN OUTCOMES AND MEASURES: Total episode payments (Medicare spending for Parts A, B, and D, not including monthly payments for enhanced oncology services); utilization and payments for hospitalizations, emergency department (ED) visits, office visits, chemotherapy, supportive care, and imaging; quality (chemotherapy-associated hospitalizations and ED visits, timely chemotherapy, end-of-life care, and survival); and patient experiences. RESULTS: Among Medicare fee-for-service beneficiaries with cancer undergoing chemotherapy, 483 319 beneficiaries (mean age, 73.0 [SD, 8.7] years; 60.1% women; 987 332 episodes) were treated at 201 OCM participating practices, and 557 354 beneficiaries (mean age, 72.9 [SD, 9.0] years; 57.4% women; 1 122 597 episodes) were treated at 534 comparison practices. From the baseline period, total episode payments increased from $28 681 for OCM episodes and $28 421 for comparison episodes to $33 211 for OCM episodes and $33 249 for comparison episodes during the intervention period (difference in differences, -$297; 90% CI, -$504 to -$91), less than the mean $704 Monthly Enhanced Oncology Services payments. Relative decreases in total episode payments were primarily for Part B nonchemotherapy drug payments (difference in differences, -$145; 90% CI, -$218 to -$72), especially supportive care drugs (difference in differences, -$150; 90% CI, -$216 to -$84). The OCM was associated with statistically significant relative reductions in total episode payments among higher-risk episodes (difference in differences, -$503; 90% CI, -$802 to -$204) and statistically significant relative increases in total episode payments among lower-risk episodes (difference in differences, $151; 90% CI, $39-$264). The OCM was not significantly associated with differences in hospitalizations, ED visits, or survival. Of 22 measures of utilization, 10 measures of quality, and 7 measures of care experiences, only 5 were significantly different. CONCLUSIONS AND RELEVANCE: In this exploratory analysis, the OCM was significantly associated with modest payment reductions during 6-month episodes for Medicare beneficiaries receiving chemotherapy for cancer in the first 3 years of the OCM that did not offset the monthly payments for enhanced oncology services. There were no statistically significant differences for most utilization, quality, and patient experience outcomes.</t>
   </si>
   <si>
-    <t>IMPORTANCE: No therapy has been shown to reduce the risk of serious adverse outcomes in patients with nonalcoholic steatohepatitis (NASH). OBJECTIVE: To investigate the long-term relationship between bariatric surgery and incident major adverse liver outcomes and major adverse cardiovascular events (MACE) in patients with obesity and biopsy-proven fibrotic NASH without cirrhosis. DESIGN, SETTING, AND PARTICIPANTS: In the SPLENDOR (Surgical Procedures and Long-term Effectiveness in NASH Disease and Obesity Risk) study, of 25 828 liver biopsies performed at a US health system between 2004 and 2016, 1158 adult patients with obesity were identified who fulfilled enrollment criteria, including confirmed histological diagnosis of NASH and presence of liver fibrosis (histological stages 1-3). Baseline clinical characteristics, histological disease activity, and fibrosis stage of patients who underwent simultaneous liver biopsy at the time of bariatric surgery were balanced with a nonsurgical control group using overlap weighting methods. Follow-up ended in March 2021. EXPOSURES: Bariatric surgery (Roux-en-Y gastric bypass, sleeve gastrectomy) vs nonsurgical care. MAIN OUTCOMES AND MEASURES: The primary outcomes were the incidence of major adverse liver outcomes (progression to clinical or histological cirrhosis, development of hepatocellular carcinoma, liver transplantation, or liver-related mortality) and MACE (a composite of coronary artery events, cerebrovascular events, heart failure, or cardiovascular death), estimated using the Firth penalized method in a multivariable-adjusted Cox regression analysis framework. RESULTS: A total of 1158 patients (740 [63.9%] women; median age, 49.8 years [IQR, 40.9-57.9 years], median body mass index, 44.1 [IQR, 39.4-51.4]), including 650 patients who underwent bariatric surgery and 508 patients in the nonsurgical control group, with a median follow-up of 7 years (IQR, 4-10 years) were analyzed. Distribution of baseline covariates, including histological severity of liver injury, was well-balanced after overlap weighting. At the end of the study period in the unweighted data set, 5 patients in the bariatric surgery group and 40 patients in the nonsurgical control group experienced major adverse liver outcomes, and 39 patients in the bariatric surgery group and 60 patients in the nonsurgical group experienced MACE. Among the patients analyzed with overlap weighting methods, the cumulative incidence of major adverse liver outcomes at 10 years was 2.3% (95% CI, 0%-4.6%) in the bariatric surgery group and 9.6% (95% CI, 6.1%-12.9%) in the nonsurgical group (adjusted absolute risk difference, 12.4% [95% CI, 5.7%-19.7%]; adjusted hazard ratio, 0.12 [95% CI, 0.02-0.63]; P = .01). The cumulative incidence of MACE at 10 years was 8.5% (95% CI, 5.5%-11.4%) in the bariatric surgery group and 15.7% (95% CI, 11.3%-19.8%) in the nonsurgical group (adjusted absolute risk difference, 13.9% [95% CI, 5.9%-21.9%]; adjusted hazard ratio, 0.30 [95% CI, 0.12-0.72]; P = .007). Within the first year after bariatric surgery, 4 patients (0.6%) died from surgical complications, including gastrointestinal leak (n = 2) and respiratory failure (n = 2). CONCLUSIONS AND RELEVANCE: Among patients with NASH and obesity, bariatric surgery, compared with nonsurgical management, was associated with a significantly lower risk of incident major adverse liver outcomes and MACE.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: The US Preventive Services Task Force (USPSTF) is updating its 2016 colorectal cancer screening recommendations. OBJECTIVE: To provide updated model-based estimates of the benefits, burden, and harms of colorectal cancer screening strategies and to identify strategies that may provide an efficient balance of life-years gained (LYG) from screening and colonoscopy burden to inform the USPSTF. DESIGN, SETTING, AND PARTICIPANTS: Comparative modeling study using 3 microsimulation models of colorectal cancer screening in a hypothetical cohort of 40-year-old US individuals at average risk of colorectal cancer. EXPOSURES: Screening from ages 45, 50, or 55 years to ages 70, 75, 80, or 85 years with fecal immunochemical testing (FIT), multitarget stool DNA testing, flexible sigmoidoscopy alone or with FIT, computed tomography colonography, or colonoscopy. All persons with an abnormal noncolonoscopy screening test result were assumed to undergo follow-up colonoscopy. Screening intervals varied by test. Full adherence with all procedures was assumed. MAIN OUTCOME AND MEASURES: Estimated LYG relative to no screening (benefit), lifetime number of colonoscopies (burden), number of complications from screening (harms), and balance of incremental burden and benefit (efficiency ratios). Efficient strategies were those estimated to require fewer additional colonoscopies per additional LYG relative to other strategies. RESULTS: Estimated LYG from screening strategies ranged from 171 to 381 per 1000 40-year-olds. Lifetime colonoscopy burden ranged from 624 to 6817 per 1000 individuals, and screening complications ranged from 5 to 22 per 1000 individuals. Among the 49 strategies that were efficient options with all 3 models, 41 specified screening beginning at age 45. No single age to end screening was predominant among the efficient strategies, although the additional LYG from continuing screening after age 75 were generally small. With the exception of a 5-year interval for computed tomography colonography, no screening interval predominated among the efficient strategies for each modality. Among the strategies highlighted in the 2016 USPSTF recommendation, lowering the age to begin screening from 50 to 45 years was estimated to result in 22 to 27 additional LYG, 161 to 784 additional colonoscopies, and 0.1 to 2 additional complications per 1000 persons (ranges are across screening strategies, based on mean estimates across models). Assuming full adherence, screening outcomes and efficient strategies were similar by sex and race and across 3 scenarios for population risk of colorectal cancer. CONCLUSIONS AND RELEVANCE: This microsimulation modeling analysis suggests that screening for colorectal cancer with stool tests, endoscopic tests, or computed tomography colonography starting at age 45 years provides an efficient balance of colonoscopy burden and life-years gained.</t>
   </si>
   <si>
     <t>IMPORTANCE: The US Preventive Services Task Force (USPSTF) is updating its 2013 lung cancer screening guidelines, which recommend annual screening for adults aged 55 through 80 years who have a smoking history of at least 30 pack-years and currently smoke or have quit within the past 15 years. OBJECTIVE: To inform the USPSTF guidelines by estimating the benefits and harms associated with various low-dose computed tomography (LDCT) screening strategies. DESIGN, SETTING, AND PARTICIPANTS: Comparative simulation modeling with 4 lung cancer natural history models for individuals from the 1950 and 1960 US birth cohorts who were followed up from aged 45 through 90 years. EXPOSURES: Screening with varying starting ages, stopping ages, and screening frequency. Eligibility criteria based on age, cumulative pack-years, and years since quitting smoking (risk factor-based) or on age and individual lung cancer risk estimation using risk prediction models with varying eligibility thresholds (risk model-based). A total of 1092 LDCT screening strategies were modeled. Full uptake and adherence were assumed for all scenarios. MAIN OUTCOMES AND MEASURES: Estimated lung cancer deaths averted and life-years gained (benefits) compared with no screening. Estimated lifetime number of LDCT screenings, false-positive results, biopsies, overdiagnosed cases, and radiation-related lung cancer deaths (harms). RESULTS: Efficient screening programs estimated to yield the most benefits for a given number of screenings were identified. Most of the efficient risk factor-based strategies started screening at aged 50 or 55 years and stopped at aged 80 years. The 2013 USPSTF-recommended criteria were not among the efficient strategies for the 1960 US birth cohort. Annual strategies with a minimum criterion of 20 pack-years of smoking were efficient and, compared with the 2013 USPSTF-recommended criteria, were estimated to increase screening eligibility (20.6%-23.6% vs 14.1% of the population ever eligible), lung cancer deaths averted (469-558 per 100 000 vs 381 per 100 000), and life-years gained (6018-7596 per 100 000 vs 4882 per 100 000). However, these strategies were estimated to result in more false-positive test results (1.9-2.5 per person screened vs 1.9 per person screened with the USPSTF strategy), overdiagnosed lung cancer cases (83-94 per 100 000 vs 69 per 100 000), and radiation-related lung cancer deaths (29.0-42.5 per 100 000 vs 20.6 per 100 000). Risk model-based vs risk factor-based strategies were estimated to be associated with more benefits and fewer radiation-related deaths but more overdiagnosed cases. CONCLUSIONS AND RELEVANCE: Microsimulation modeling studies suggested that LDCT screening for lung cancer compared with no screening may increase lung cancer deaths averted and life-years gained when optimally targeted and implemented. Screening individuals at aged 50 or 55 years through aged 80 years with 20 pack-years or more of smoking exposure was estimated to result in more benefits than the 2013 USPSTF-recommended criteria and less disparity in screening eligibility by sex and race/ethnicity.</t>
   </si>
   <si>
-    <t>IMPORTANCE: There are racial inequities in health care access and quality in the United States. It is unknown whether such differences for racial and ethnic minority beneficiaries differ between Medicare Advantage and traditional Medicare or whether access and quality are better for minority beneficiaries in 1 of the 2 programs. OBJECTIVE: To compare differences in rates of enrollment, ambulatory care access, and ambulatory care quality by race and ethnicity in Medicare Advantage vs traditional Medicare. DESIGN, SETTING, AND PARTICIPANTS: Exploratory observational cohort study of a nationally representative sample of 45 833 person-years (26 887 persons) in the Medicare Current Beneficiary Survey from 2015 to 2018, comparing differences in program enrollment and measures of access and quality by race and ethnicity. EXPOSURES: Minority race and ethnicity (Black, Hispanic, Native American, or Asian/Pacific Islander) vs White or multiracial; Medicare Advantage vs traditional Medicare enrollment. MAIN OUTCOMES AND MEASURES: Six patient-reported measures of ambulatory care access (whether a beneficiary had a usual source of care in the past year, had a primary care clinician usual source of care, or had a specialist visit) and quality (influenza vaccination, pneumonia vaccination, and colon cancer screening). RESULTS: The final sample included 6023 persons (mean age, 68.9 [SD, 12.6] years; 57.3% women) from minority groups and 20 864 persons (mean age, 71.9 [SD, 10.8] years; 54.9% women) from White or multiracial groups, who accounted for 9816 and 36 017 person-years, respectively. Comparing Medicare Advantage vs traditional Medicare among minority beneficiaries, those in Medicare Advantage had significantly better rates of access to a primary care clinician usual source of care (79.1% vs 72.5%; adjusted marginal difference, 4.0%; 95% CI, 1.0%-6.9%), influenza vaccinations (67.3% vs 63.0%; adjusted marginal difference, 5.2%; 95% CI, 1.9%-8.5%), pneumonia vaccinations (70.7% vs 64.6%; adjusted marginal difference, 6.1%; 95% CI, 2.7%-9.4%), and colon cancer screenings (69.4% vs 61.1%; adjusted marginal difference, 7.1%; 95% CI, 3.8%-10.3%). Comparing minority vs White or multiracial beneficiaries across both programs, minority beneficiaries had significantly lower rates of access to a primary care clinician usual source of care (adjusted marginal difference, 4.7%; 95% CI, 2.5%-6.8%), specialist visits (adjusted marginal difference, 10.8%; 95% CI, 8.3%-13.3%), influenza vaccinations (adjusted marginal difference, 4.3%; 95% CI, 1.2%-7.4%), and pneumonia vaccinations (adjusted marginal difference, 6.4%; 95% CI, 3.9%-9.0%). The interaction of race and ethnicity with insurance type was not statistically significant for any of the 6 outcome measures. CONCLUSIONS AND RELEVANCE: In this exploratory study of Medicare beneficiaries in 2015-2018, enrollment in Medicare Advantage vs traditional Medicare was significantly associated with better outcomes for access and quality among minority beneficiaries; however, minority beneficiaries were significantly more likely to experience worse outcomes for most access and quality measures than White or multiracial beneficiaries in both programs.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: The World Health Organization is developing a global strategy to eliminate cervical cancer, with goals for screening prevalence among women aged 30 through 49 years. However, evidence on prevalence levels of cervical cancer screening in low- and middle-income countries (LMICs) is sparse. OBJECTIVE: To determine lifetime cervical cancer screening prevalence in LMICs and its variation across and within world regions and countries. DESIGN, SETTING, AND PARTICIPANTS: Analysis of cross-sectional nationally representative household surveys carried out in 55 LMICs from 2005 through 2018. The median response rate across surveys was 93.8% (range, 64.0%-99.3%). The population-based sample consisted of 1 136 289 women aged 15 years or older, of whom 6885 (0.6%) had missing information for the survey question on cervical cancer screening. EXPOSURES: World region, country; countries' economic, social, and health system characteristics; and individuals' sociodemographic characteristics. MAIN OUTCOMES AND MEASURES: Self-report of having ever had a screening test for cervical cancer. RESULTS: Of the 1 129 404 women included in the analysis, 542 475 were aged 30 through 49 years. A country-level median of 43.6% (interquartile range [IQR], 13.9%-77.3%; range, 0.3%-97.4%) of women aged 30 through 49 years self-reported to have ever been screened, with countries in Latin America and the Caribbean having the highest prevalence (country-level median, 84.6%; IQR, 65.7%-91.1%; range, 11.7%-97.4%) and those in sub-Saharan Africa the lowest prevalence (country-level median, 16.9%; IQR, 3.7%-31.0%; range, 0.9%-50.8%). There was large variation in the self-reported lifetime prevalence of cervical cancer screening among countries within regions and among countries with similar levels of per capita gross domestic product and total health expenditure. Within countries, women who lived in rural areas, had low educational attainment, or had low household wealth were generally least likely to self-report ever having been screened. CONCLUSIONS AND RELEVANCE: In this cross-sectional study of data collected in 55 low- and middle-income countries from 2005 through 2018, there was wide variation between countries in the self-reported lifetime prevalence of cervical cancer screening. However, the median prevalence was only 44%, supporting the need to increase the rate of screening.</t>
   </si>
   <si>
@@ -1789,9 +1624,6 @@
     <t>IMPORTANCE: Less than 10% of patients with cancer have detectable pathogenic germline alterations, which may be partially due to incomplete pathogenic variant detection. OBJECTIVE: To evaluate if deep learning approaches identify more germline pathogenic variants in patients with cancer. DESIGN, SETTING, AND PARTICIPANTS: A cross-sectional study of a standard germline detection method and a deep learning method in 2 convenience cohorts with prostate cancer and melanoma enrolled in the US and Europe between 2010 and 2017. The final date of clinical data collection was December 2017. EXPOSURES: Germline variant detection using standard or deep learning methods. MAIN OUTCOMES AND MEASURES: The primary outcomes included pathogenic variant detection performance in 118 cancer-predisposition genes estimated as sensitivity, specificity, positive predictive value (PPV), and negative predictive value (NPV). The secondary outcomes were pathogenic variant detection performance in 59 genes deemed actionable by the American College of Medical Genetics and Genomics (ACMG) and 5197 clinically relevant mendelian genes. True sensitivity and true specificity could not be calculated due to lack of a criterion reference standard, but were estimated as the proportion of true-positive variants and true-negative variants, respectively, identified by each method in a reference variant set that consisted of all variants judged to be valid from either approach. RESULTS: The prostate cancer cohort included 1072 men (mean [SD] age at diagnosis, 63.7 [7.9] years; 857 [79.9%] with European ancestry) and the melanoma cohort included 1295 patients (mean [SD] age at diagnosis, 59.8 [15.6] years; 488 [37.7%] women; 1060 [81.9%] with European ancestry). The deep learning method identified more patients with pathogenic variants in cancer-predisposition genes than the standard method (prostate cancer: 198 vs 182; melanoma: 93 vs 74); sensitivity (prostate cancer: 94.7% vs 87.1% [difference, 7.6%; 95% CI, 2.2% to 13.1%]; melanoma: 74.4% vs 59.2% [difference, 15.2%; 95% CI, 3.7% to 26.7%]), specificity (prostate cancer: 64.0% vs 36.0% [difference, 28.0%; 95% CI, 1.4% to 54.6%]; melanoma: 63.4% vs 36.6% [difference, 26.8%; 95% CI, 17.6% to 35.9%]), PPV (prostate cancer: 95.7% vs 91.9% [difference, 3.8%; 95% CI, -1.0% to 8.4%]; melanoma: 54.4% vs 35.4% [difference, 19.0%; 95% CI, 9.1% to 28.9%]), and NPV (prostate cancer: 59.3% vs 25.0% [difference, 34.3%; 95% CI, 10.9% to 57.6%]; melanoma: 80.8% vs 60.5% [difference, 20.3%; 95% CI, 10.0% to 30.7%]). For the ACMG genes, the sensitivity of the 2 methods was not significantly different in the prostate cancer cohort (94.9% vs 90.6% [difference, 4.3%; 95% CI, -2.3% to 10.9%]), but the deep learning method had a higher sensitivity in the melanoma cohort (71.6% vs 53.7% [difference, 17.9%; 95% CI, 1.82% to 34.0%]). The deep learning method had higher sensitivity in the mendelian genes (prostate cancer: 99.7% vs 95.1% [difference, 4.6%; 95% CI, 3.0% to 6.3%]; melanoma: 91.7% vs 86.2% [difference, 5.5%; 95% CI, 2.2% to 8.8%]). CONCLUSIONS AND RELEVANCE: Among a convenience sample of 2 independent cohorts of patients with prostate cancer and melanoma, germline genetic testing using deep learning, compared with the current standard genetic testing method, was associated with higher sensitivity and specificity for detection of pathogenic variants. Further research is needed to understand the relevance of these findings with regard to clinical outcomes.</t>
   </si>
   <si>
-    <t>IMPORTANCE: It is unclear whether the number of steps per day and the intensity of stepping are associated with lower mortality. OBJECTIVE: Describe the dose-response relationship between step count and intensity and mortality. DESIGN, SETTING, AND PARTICIPANTS: Representative sample of US adults aged at least 40 years in the National Health and Nutrition Examination Survey who wore an accelerometer for up to 7 days ( from 2003-2006). Mortality was ascertained through December 2015. EXPOSURES: Accelerometer-measured number of steps per day and 3 step intensity measures (extended bout cadence, peak 30-minute cadence, and peak 1-minute cadence [steps/min]). Accelerometer data were based on measurements obtained during a 7-day period at baseline. MAIN OUTCOMES AND MEASURES: The primary outcome was all-cause mortality. Secondary outcomes were cardiovascular disease (CVD) and cancer mortality. Hazard ratios (HRs), mortality rates, and 95% CIs were estimated using cubic splines and quartile classifications adjusting for age; sex; race/ethnicity; education; diet; smoking status; body mass index; self-reported health; mobility limitations; and diagnoses of diabetes, stroke, heart disease, heart failure, cancer, chronic bronchitis, and emphysema. RESULTS: A total of 4840 participants (mean age, 56.8 years; 2435 [54%] women; 1732 [36%] individuals with obesity) wore accelerometers for a mean of 5.7 days for a mean of 14.4 hours per day. The mean number of steps per day was 9124. There were 1165 deaths over a mean 10.1 years of follow-up, including 406 CVD and 283 cancer deaths. The unadjusted incidence density for all-cause mortality was 76.7 per 1000 person-years (419 deaths) for the 655 individuals who took less than 4000 steps per day; 21.4 per 1000 person-years (488 deaths) for the 1727 individuals who took 4000 to 7999 steps per day; 6.9 per 1000 person-years (176 deaths) for the 1539 individuals who took 8000 to 11 999 steps per day; and 4.8 per 1000 person-years (82 deaths) for the 919 individuals who took at least 12 000 steps per day. Compared with taking 4000 steps per day, taking 8000 steps per day was associated with significantly lower all-cause mortality (HR, 0.49 [95% CI, 0.44-0.55]), as was taking 12 000 steps per day (HR, 0.35 [95% CI, 0.28-0.45]). Unadjusted incidence density for all-cause mortality by peak 30 cadence was 32.9 per 1000 person-years (406 deaths) for the 1080 individuals who took 18.5 to 56.0 steps per minute; 12.6 per 1000 person-years (207 deaths) for the 1153 individuals who took 56.1 to 69.2 steps per minute; 6.8 per 1000 person-years (124 deaths) for the 1074 individuals who took 69.3 to 82.8 steps per minute; and 5.3 per 1000 person-years (108 deaths) for the 1037 individuals who took 82.9 to 149.5 steps per minute. Greater step intensity was not significantly associated with lower mortality after adjustment for total steps per day (eg, highest vs lowest quartile of peak 30 cadence: HR, 0.90 [95% CI, 0.65-1.27]; P value for trend = .34). CONCLUSIONS AND RELEVANCE: Based on a representative sample of US adults, a greater number of daily steps was significantly associated with lower all-cause mortality. There was no significant association between step intensity and mortality after adjusting for total steps per day.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: Philanthropy is an increasingly important source of support for health care institutions. There is little empirical evidence to inform ethical guidelines. OBJECTIVE: To assess public attitudes regarding specific practices used by health care institutions to encourage philanthropic donations from grateful patients. DESIGN, SETTING, AND PARTICIPANTS: Using the Ipsos KnowledgePanel, a probability-based sample representative of the US population, a survey solicited opinions from a primary cohort representing the general population and 3 supplemental cohorts (with high income, cancer, and with heart disease, respectively). EXPOSURES: Web-based questionnaire. MAIN OUTCOMES AND MEASURES: Descriptive analyses (with percentages weighted to make the sample demographically representative of the US population) evaluated respondents' attitudes regarding the acceptability of strategies hospitals may use to identify, solicit, and thank donors; perceptions of the effect of physicians discussing donations with their patients; and opinions regarding gift use and stewardship. RESULTS: Of 831 individuals targeted for the general population sample, 513 (62%) completed surveys, of whom 246 (48.0%) were women and 345 (67.3%) non-Hispanic white. In the weighted sample, 47.0% (95% CI, 42.3%-51.7%) responded that physicians giving patient names to hospital fundraising staff after asking patients' permission was definitely or probably acceptable; 8.5% (95% CI, 5.7%-11.2%) endorsed referring without asking permission. Of the participants, 79.5% (95% CI, 75.6%-83.4%) reported it acceptable for physicians to talk to patients about donating if patients have brought it up; 14.2% (95% CI, 10.9%-17.6%) reported it acceptable when patients have not brought it up; 9.9% (95% CI, 7.1%-12.8%) accepted hospital development staff performing wealth screening using publicly available data to identify patients capable of large donations. Of the participants, 83.2% (95% CI, 79.5%-86.9%) agreed that physicians talking with their patients about donating may interfere with the patient-physician relationship. For a hypothetical patient who donated $1 million, 50.1% (95% CI, 45.4%-54.7%) indicated it would be acceptable for the hospital to show thanks by providing nicer hospital rooms, 26.0% (95% CI, 21.9%-30.1%) by providing expedited appointments, and 19.8% (95% CI, 16.1%-23.5%) by providing physicians' cell phone numbers. CONCLUSIONS AND RELEVANCE: In this survey study of participants drawn from the general US population, a substantial proportion did not endorse legally allowable approaches for identifying, engaging, and thanking patient-donors.</t>
   </si>
   <si>
@@ -1816,21 +1648,12 @@
     <t>BACKGROUND: Lately, autologous CD19-targeting chimeric antigen receptor (CAR) T cells have shown excellent efficacy in treatment of autoimmune diseases, but with great safety concerns, such as infections. In this study, we aimed to evaluate the safety, tolerability, and efficacy of allogeneic CD19 CAR natural killer (NK)-cell therapy in patients with relapsed or refractory systemic lupus erythematosus (SLE). METHODS: In this open-label, single-arm, prospective, first-in-human case series, we evaluated allogeneic CD19 CAR NK-cell therapy in adult patients (aged 18-65 years) with relapsed or refractory SLE at one site in China. Patients who had received at least two previous standard systemic therapies and continued to exhibit moderate-to-severe disease activity were eligible for inclusion. This study consisted of schedule escalation and dose escalation, with schedule escalation from 7 days and dose escalation commencing at 0.75 x 10(9) CAR NK cells on day 0. All patients received a lymphodepleting conditioning regimen with fludarabine (25 mg/m(2) per day) and cyclophosphamide (300 mg/m(2) per day) administered daily from days -5 to -3, followed by three CAR NK-cell infusions within a single treatment cycle at identical dose levels and inter-infusion intervals. Dose-limiting adverse events were monitored in patients for 28 days. The primary endpoints of this study were safety and tolerability, including the incidence of dose-limiting toxicities and adverse events according to National Cancer Institute Common Terminology Criteria for Adverse Events version 5.0. This study was registered with ClinicalTrials.gov (NCT06010472) and follow-up is ongoing. FINDINGS: 18 patients with relapsed or refractory SLE with moderate-to-severe disease activity were enrolled between Aug 21, 2023, and June 16, 2024. Of the 18 patients, 17 (94%) were female; the median age was 37.5 years (IQR 32.0-39.8), and the median disease duration was 10.5 years (IQR 4.5-14.8). Patients had received at least two standard systemic therapies, including biological agents (belimumab and telitacicept) in 14 (78%) of 18 patients, and plasmapheresis in one patient. Cytokine release syndrome was reported in one (6%) of 18 patients (grade 1). Neurotoxicity and other CAR NK-cell therapy-related severe adverse events were not observed, and there were no dose-limiting toxicities. Of the nine patients with more than 12 months' follow-up, six (67%) attained DORIS remission and lupus low disease activity state. INTERPRETATION: This study suggests that allogeneic CAR NK-cell therapy is a potent option for treatment of autoimmune diseases and indicates that such a therapy might address limitations of current autologous CAR T-cell therapy, including manufacturing scale and time, access, safety, and cost. FUNDING: Shanghai Municipal Health Commission, Changhai Hospital Affiliated to Naval Medical University, and National Natural Science Foundation of China. TRANSLATION: For the Chinese translation of the abstract see Supplementary Materials section.</t>
   </si>
   <si>
-    <t>BACKGROUND: Timely and comprehensive analyses of causes of death stratified by age, sex, and location are essential for shaping effective health policies aimed at reducing global mortality. The Global Burden of Diseases, Injuries, and Risk Factors Study (GBD) 2023 provides cause-specific mortality estimates measured in counts, rates, and years of life lost (YLLs). GBD 2023 aimed to enhance our understanding of the relationship between age and cause of death by quantifying the probability of dying before age 70 years (70q0) and the mean age at death by cause and sex. This study enables comparisons of the impact of causes of death over time, offering a deeper understanding of how these causes affect global populations. METHODS: GBD 2023 produced estimates for 292 causes of death disaggregated by age-sex-location-year in 204 countries and territories and 660 subnational locations for each year from 1990 until 2023. We used a modelling tool developed for GBD, the Cause of Death Ensemble model (CODEm), to estimate cause-specific death rates for most causes. We computed YLLs as the product of the number of deaths for each cause-age-sex-location-year and the standard life expectancy at each age. Probability of death was calculated as the chance of dying from a given cause in a specific age period, for a specific population. Mean age at death was calculated by first assigning the midpoint age of each age group for every death, followed by computing the mean of all midpoint ages across all deaths attributed to a given cause. We used GBD death estimates to calculate the observed mean age at death and to model the expected mean age across causes, sexes, years, and locations. The expected mean age reflects the expected mean age at death for individuals within a population, based on global mortality rates and the population's age structure. Comparatively, the observed mean age represents the actual mean age at death, influenced by all factors unique to a location-specific population, including its age structure. As part of the modelling process, uncertainty intervals (UIs) were generated using the 2.5th and 97.5th percentiles from a 250-draw distribution for each metric. Findings are reported as counts and age-standardised rates. Methodological improvements for cause-of-death estimates in GBD 2023 include a correction for the misclassification of deaths due to COVID-19, updates to the method used to estimate COVID-19, and updates to the CODEm modelling framework. This analysis used 55 761 data sources, including vital registration and verbal autopsy data as well as data from surveys, censuses, surveillance systems, and cancer registries, among others. For GBD 2023, there were 312 new country-years of vital registration cause-of-death data, 3 country-years of surveillance data, 51 country-years of verbal autopsy data, and 144 country-years of other data types that were added to those used in previous GBD rounds. FINDINGS: The initial years of the COVID-19 pandemic caused shifts in long-standing rankings of the leading causes of global deaths: it ranked as the number one age-standardised cause of death at Level 3 of the GBD cause classification hierarchy in 2021. By 2023, COVID-19 dropped to the 20th place among the leading global causes, returning the rankings of the leading two causes to those typical across the time series (ie, ischaemic heart disease and stroke). While ischaemic heart disease and stroke persist as leading causes of death, there has been progress in reducing their age-standardised mortality rates globally. Four other leading causes have also shown large declines in global age-standardised mortality rates across the study period: diarrhoeal diseases, tuberculosis, stomach cancer, and measles. Other causes of death showed disparate patterns between sexes, notably for deaths from conflict and terrorism in some locations. A large reduction in age-standardised rates of YLLs occurred for neonatal disorders. Despite this, neonatal disorders remained the leading cause of global YLLs over the period studied, except in 2021, when COVID-19 was temporarily the leading cause. Compared to 1990, there has been a considerable reduction in total YLLs in many vaccine-preventable diseases, most notably diphtheria, pertussis, tetanus, and measles. In addition, this study quantified the mean age at death for all-cause mortality and cause-specific mortality and found noticeable variation by sex and location. The global all-cause mean age at death increased from 46.8 years (95% UI 46.6-47.0) in 1990 to 63.4 years (63.1-63.7) in 2023. For males, mean age increased from 45.4 years (45.1-45.7) to 61.2 years (60.7-61.6), and for females it increased from 48.5 years (48.1-48.8) to 65.9 years (65.5-66.3), from 1990 to 2023. The highest all-cause mean age at death in 2023 was found in the high-income super-region, where the mean age for females reached 80.9 years (80.9-81.0) and for males 74.8 years (74.8-74.9). By comparison, the lowest all-cause mean age at death occurred in sub-Saharan Africa, where it was 38.0 years (37.5-38.4) for females and 35.6 years (35.2-35.9) for males in 2023. Lastly, our study found that all-cause 70q0 decreased across each GBD super-region and region from 2000 to 2023, although with large variability between them. For females, we found that 70q0 notably increased from drug use disorders and conflict and terrorism. Leading causes that increased 70q0 for males also included drug use disorders, as well as diabetes. In sub-Saharan Africa, there was an increase in 70q0 for many non-communicable diseases (NCDs). Additionally, the mean age at death from NCDs was lower than the expected mean age at death for this super-region. By comparison, there was an increase in 70q0 for drug use disorders in the high-income super-region, which also had an observed mean age at death lower than the expected value. INTERPRETATION: We examined global mortality patterns over the past three decades, highlighting-with enhanced estimation methods-the impacts of major events such as the COVID-19 pandemic, in addition to broader trends such as increasing NCDs in low-income regions that reflect ongoing shifts in the global epidemiological transition. This study also delves into premature mortality patterns, exploring the interplay between age and causes of death and deepening our understanding of where targeted resources could be applied to further reduce preventable sources of mortality. We provide essential insights into global and regional health disparities, identifying locations in need of targeted interventions to address both communicable and non-communicable diseases. There is an ever-present need for strengthened health-care systems that are resilient to future pandemics and the shifting burden of disease, particularly among ageing populations in regions with high mortality rates. Robust estimates of causes of death are increasingly essential to inform health priorities and guide efforts toward achieving global health equity. The need for global collaboration to reduce preventable mortality is more important than ever, as shifting burdens of disease are affecting all nations, albeit at different paces and scales. FUNDING: Gates Foundation.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Cancer is a leading cause of death globally. Accurate cancer burden information is crucial for policy planning, but many countries do not have up-to-date cancer surveillance data. To inform global cancer-control efforts, we used the Global Burden of Diseases, Injuries, and Risk Factors Study (GBD) 2023 framework to generate and analyse estimates of cancer burden for 47 cancer types or groupings by age, sex, and 204 countries and territories from 1990 to 2023, cancer burden attributable to selected risk factors from 1990 to 2023, and forecasted cancer burden up to 2050. METHODS: Cancer estimation in GBD 2023 used data from population-based cancer registration systems, vital registration systems, and verbal autopsies. Cancer mortality was estimated using ensemble models, with incidence informed by mortality estimates and mortality-to-incidence ratios (MIRs). Prevalence estimates were generated from modelled survival estimates, then multiplied by disability weights to estimate years lived with disability (YLDs). Years of life lost (YLLs) were estimated by multiplying age-specific cancer deaths by the GBD standard life expectancy at the age of death. Disability-adjusted life-years (DALYs) were calculated as the sum of YLLs and YLDs. We used the GBD 2023 comparative risk assessment framework to estimate cancer burden attributable to 44 behavioural, environmental and occupational, and metabolic risk factors. To forecast cancer burden from 2024 to 2050, we used the GBD 2023 forecasting framework, which included forecasts of relevant risk factor exposures and used Socio-demographic Index as a covariate for forecasting the proportion of each cancer not affected by these risk factors. Progress towards the UN Sustainable Development Goal (SDG) target 3.4 aim to reduce non-communicable disease mortality by a third between 2015 and 2030 was estimated for cancer. FINDINGS: In 2023, excluding non-melanoma skin cancers, there were 18.5 million (95% uncertainty interval 16.4 to 20.7) incident cases of cancer and 10.4 million (9.65 to 10.9) deaths, contributing to 271 million (255 to 285) DALYs globally. Of these, 57.9% (56.1 to 59.8) of incident cases and 65.8% (64.3 to 67.6) of cancer deaths occurred in low-income to upper-middle-income countries based on World Bank income group classifications. Cancer was the second leading cause of deaths globally in 2023 after cardiovascular diseases. There were 4.33 million (3.85 to 4.78) risk-attributable cancer deaths globally in 2023, comprising 41.7% (37.8 to 45.4) of all cancer deaths. Risk-attributable cancer deaths increased by 72.3% (57.1 to 86.8) from 1990 to 2023, whereas overall global cancer deaths increased by 74.3% (62.2 to 86.2) over the same period. The reference forecasts (the most likely future) estimate that in 2050 there will be 30.5 million (22.9 to 38.9) cases and 18.6 million (15.6 to 21.5) deaths from cancer globally, 60.7% (41.9 to 80.6) and 74.5% (50.1 to 104.2) increases from 2024, respectively. These forecasted increases in deaths are greater in low-income and middle-income countries (90.6% [61.0 to 127.0]) compared with high-income countries (42.8% [28.3 to 58.6]). Most of these increases are likely due to demographic changes, as age-standardised death rates are forecast to change by -5.6% (-12.8 to 4.6) between 2024 and 2050 globally. Between 2015 and 2030, the probability of dying due to cancer between the ages of 30 years and 70 years was forecasted to have a relative decrease of 6.5% (3.2 to 10.3). INTERPRETATION: Cancer is a major contributor to global disease burden, with increasing numbers of cases and deaths forecasted up to 2050 and a disproportionate growth in burden in countries with scarce resources. The decline in age-standardised mortality rates from cancer is encouraging but insufficient to meet the SDG target set for 2030. Effectively and sustainably addressing cancer burden globally will require comprehensive national and international efforts that consider health systems and context in the development and implementation of cancer-control strategies across the continuum of prevention, diagnosis, and treatment. FUNDING: Gates Foundation, St Jude Children's Research Hospital, and St Baldrick's Foundation.</t>
   </si>
   <si>
     <t>BACKGROUND: Cancers of the breast, cervix, and ovary are a major public health problem worldwide. Evaluating the consistency with clinical guidelines for treatment by use of individual high-resolution data from population-based cancer registries is a powerful tool to help interpretation of global inequalities in cancer survival. The VENUSCANCER project aims to assess the worldwide variation in patterns of care and time to initial treatment for women diagnosed with one of these three common cancers. METHODS: In this secondary analysis of anonymised individual records from population-based cancer registries (VENUSCANCER), 103 registries from 39 countries worldwide contributed high-resolution data for women diagnosed with cancer of the breast, cervix, or ovary for a single year of incidence during 2015-18. High-resolution data included cancer stage at diagnosis; staging procedures; tumour grade; biomarkers (ER, PR, and HER2); and the first course of each treatment modality (surgery, radiotherapy, chemotherapy, endocrine treatment, or anti-HER2 therapy) and related dates. We examined prognostic factors, key indicators of consistency with international clinical guidelines for treatment (ESMO, ASCO, and NCCN), and median time between diagnosis and treatment, by country or territory. We analysed the odds of women receiving treatment consistent with guidelines in high-income countries (HICs) and low-income and middle-income countries (LMICs), controlling for age and tumour subtype. FINDINGS: We received 275 792 anonymised individual records for women diagnosed with a cancer of the breast (214 111 [77.6%]), cervix (44 468 [16.1%], including in situ), or ovary (17 213 [6.2%]). In HICs, early-stage, node-negative cancers comprised over 40% of breast and cervical cancers, but less than 20% of ovarian cancers. By contrast, in LMICs, these proportions were generally below 20% for all three cancers, but higher in Cuba (30% for breast), and Russia (36% for cervix and 27% for ovary). Consistency with main international guidelines was highly variable, particularly for surgery and radiotherapy in early-stage breast cancer (from 13% in Georgia to 82% in France), chemotherapy in advanced cervical cancer (from 18% in Mongolia to 90% in Canada), and surgery plus chemotherapy in metastatic ovarian cancer (from 9% in Cuba to 53% in the USA). Some type of surgery was offered to 78% of women in HICs and 56% of women in LMICs, but initial treatment that is consistent with clinical guidelines for early-stage tumours was followed more uniformly for cervical and ovarian cancer than for breast cancer. Older women (aged 70-99 years) had lower odds of receiving initial treatment consistent with clinical guidelines than women aged 50-69 years in both HICs and LMICs. The median time between diagnosis and treatment for early-stage cancers was less than 1 month in several HICs, but up to 4 months for cervical cancer in Mongolia and ovarian cancer in Ecuador, and up to 1 year for breast cancer in Mongolia. INTERPRETATION: The VENUSCANCER project provides the first global picture of patterns of care for three of the most common cancers in women. These findings offer crucial real-world evidence to support the implementation and monitoring of global initiatives on cancer control such as WHO's Global Breast Cancer Initiative and Cervical Cancer Elimination Initiative. Although guideline-consistent treatment has become more accessible for women diagnosed with early-stage tumours in LMICs, the proportion of these women diagnosed early remains far too low. FUNDING: European Research Council Consolidator Grant.</t>
   </si>
   <si>
-    <t>BACKGROUND: Health systems experience difficult trade-offs when paying for new drugs. In England, funding recommendations by the National Institute for Health and Care Excellence (NICE) for new drugs might generate health gains, but inevitably result in forgone health as the funds cannot be used for alternative treatments and services. We aimed to evaluate the population-health impact of NICE recommendations for new drugs during 2000-20. METHODS: For this retrospective analysis, we identified technology appraisals for new drugs in England published in NICE's publicly available database of appraisals between 2000 and 2020. We excluded products with terminated appraisals, not recommended, or subsequently withdrawn from the market and excluded appraisals in programmes focusing on medical devices, diagnostics, or interventional procedures. We included drugs that underwent NICE appraisal within 5 years of initial regulatory approval. We collected data on drug name, appraised indication, and specific features of both the drug and its appraisal. We noted the value for money offered by new drugs, expressed as the incremental cost-effectiveness ratio (ICER), and data on health benefits, expressed as quality-adjusted life-years (QALYs). We estimated the number of patients receiving new drugs recommended by NICE using proprietary data on the total volumes of new drugs sold in England between Jan 1, 2000, and Dec 31, 2020. We calculated the net health effect of each appraisal using the difference between the incremental QALY gains from implementing the new drug within the National Health Service (NHS) and the estimated QALYs that could hypothetically be obtained by reallocating the same funds to other NHS services or treatments. We obtained forgone QALYs by dividing the incremental cost of the new drug by the health-opportunity cost of NHS expenditure. FINDINGS: NICE appraised 332 unique pharmaceuticals between 2000 and 2020; 276 (83%) had positive recommendations. Of these 276, 207 (75%) had a NICE appraisal within 5 years of regulatory approval. We included 183 (88%) of 207 drugs in this analysis, after excluding drugs that did not meet eligibility criteria. The median QALY gain across all 339 appraisals was 0.49 (IQR 0.15-1.13), equivalent to an additional half a year in full health. Median ICER for recommending new drugs increased from  pound21 545 (IQR 14 175-26 173) per QALY gained for 14 appraisals published between 2000 and 2004 to  pound28 555 (19 556-33 712) for 165 appraisals published between 2015 and 2020 (p=0.014). Median ICER varied by therapeutic area, ranging from  pound6478 (3526-12 912) for 12 appraisals of anti-infective drugs to  pound30 000 (22 395-45 870) for 144 appraisals of oncology drugs (p&lt;0.0001). New drugs generated an estimated 3.75 million additional QALYs across 19.82 million patients who received new drugs recommended by NICE. The use of new drugs resulted in an estimated additional cost to the NHS of  pound75.1 billion. If the resources allocated to new drugs had been spent on existing services in the NHS, an estimated 5.00 million additional QALYs could have been generated during 2000-20. Overall, the cumulative population-health impact of drugs recommended by NICE was negative, with a net loss of approximately 1.25 million QALYs. INTERPRETATION: During 2000-20, NHS coverage of new drugs displaced more population health than it generated. Our results highlight the inherent trade-offs between individuals who directly benefit from new drugs and those who forgo health due to the reallocation of resources towards new drugs. FUNDING: The Commonwealth Fund.</t>
-  </si>
-  <si>
-    <t>BACKGROUND: In the UK, booster COVID-19 vaccinations have been recommended biannually to people considered immune vulnerable. We investigated, at a population level, whether the absence of detectable anti-SARS-CoV-2 spike protein IgG antibody (anti-S Ab) following three or more vaccinations in immunosuppressed individuals was associated with greater risks of infection and severity of infection. METHODS: In this prospective cohort study using UK national disease registers, we recruited participants with solid organ transplants (SOTs), rare autoimmune rheumatic diseases (RAIRDs), and lymphoid malignancies. All participants were tested for anti-S Ab using a lateral flow immunoassay, completed a questionnaire on sociodemographic and clinical characteristics, and were followed up for 6 months using linked data from the National Health Service in England. SARS-CoV-2 infection was primarily defined using UK Health Security Agency data and supplemented with hospitalisation and therapeutics data, and hospitalisation due to SARS-CoV-2 was defined as an admission within 14 days of a positive test. FINDINGS: Between Dec 7, 2021, and June 26, 2022, we recruited 21 575 participants. Anti-S Ab was detected in 6519 (77.0%) of 8466 participants with SOTs, 5594 (85.9%) of 6516 with RAIRDs, and 5227 (79.3%) of 6593 with lymphoid malignancies. COVID-19 infection was recorded in 3907 (18.5%) participants, with 556 requiring a COVID-19-related hospital admission and 17 dying within 28 days of infection. Rates of infection varied by sociodemographic and clinical characteristics but, in adjusted analysis, having detectable anti-S Ab was independently associated with a reduced incidence of infection, with incident rate ratios (IRRs) of 0.69 (95% CI 0.65-0.73) in the SOT cohort, 0.57 (0.49-0.67) in the RAIRD cohort, and 0.62 (0.54-0.71) in the lymphoid malignancy cohort. In adjusted analysis, having detectable anti-S Ab was also associated with a reduced incidence of hospitalisation, with IRRs of 0.40 (0.35-0.46) in the SOT cohort, 0.32 (0.22-0.46) in the RAIRD cohort, and 0.41 (0.29-0.58) in the lymphoid malignancy cohort. INTERPRETATION: All people with immunosuppression require ongoing access to COVID-19 protection strategies. Assessment of anti-S Ab responses, which can be performed at scale, can identify people with immunosuppression who remain most at risk, providing a mechanism to further individualise protection approaches. FUNDING: UK Research and Innovation, Kidney Research UK, Blood Cancer UK, Vasculitis UK, and Cystic Fibrosis Trust.</t>
-  </si>
-  <si>
     <t>BACKGROUND: FT596 is an induced pluripotent stem-cell (iPSC)-derived chimeric antigen receptor (CAR) natural killer (NK) cell therapy with three antitumour modalities: a CD19 CAR; a high-affinity, non-cleavable CD16 Fc receptor; and interleukin-15-interleukin-15 receptor fusion. In this study, we aimed to determine the recommended phase 2 dose (RP2D) and evaluate the safety and tolerability of FT596 as monotherapy and in combination with rituximab. We also aimed to evaluate the antitumour activity and characterise the pharmacokinetics of FT596 as monotherapy and in combination with rituximab. METHODS: In this phase 1, first-in-human trial, we evaluated FT596 in patients with relapsed or refractory B-cell lymphoma at nine sites in the USA. Patients who had received at least one previous systemic therapy and had no curative treatment options were eligible for inclusion. FT596 was administered after conditioning chemotherapy without rituximab (regimen A) or combined with rituximab (regimen B). The study consisted of a dose-escalation phase using a 3 + 3 design, with dose escalation commencing at 3 x 10(7) viable cells as a single dose on day 1 and done independently for individual regimens. A treatment cycle consisted of conditioning chemotherapy with cyclophosphamide (500 mg/m(2)) and fludarabine (30 mg/m(2)) intravenously on days -5 to -3, followed by FT596 administered at various doses and schedules, without (regimen A) or with (regimen B) a single dose of rituximab (375 mg/m(2)) intravenously on day -4. Supportive care was determined by the treating investigator. Patients were observed for dose-limiting adverse events for 28 days. Patients who tolerated therapy and derived clinical benefit could receive subsequent cycles of study treatment, with modification of conditioning chemotherapy dose if clinically indicated. The dose-expansion phase evaluated additional patients at selected doses and dosing schedules that had been found to be tolerable. The primary endpoints of the study were the incidence and nature of dose-limiting toxicities within each dose-escalation cohort to determine the maximum tolerated dose or maximum assessed dose to establish the RP2D and the incidence, nature, and severity of adverse events, with severity determined according to National Cancer Institute Common Toxicity Criteria and Adverse Events version 5.0. The trial was registered with ClinicalTrials.gov, NCT04245722. FINDINGS: Between March 19, 2020, and Jan 12, 2023, 86 patients with B-cell lymphoma received FT596 on regimen A (n=18) or regimen B (n=68). 22 (26%) of 86 patients were female and 72 (84%) of 86 patients were White. Patients had received a median of four previous lines of therapy (range 1-11) and 33 (38%) of 86 patients had received previous CAR T-cell therapy. The maximum tolerated dose was not reached. Cytokine release syndrome was reported in one (6%) of 18 patients (maximum grade 1) on regimen A and nine (13%) of 68 patients on regimen B (six with maximum grade 1 and three with grade 2). Neurotoxicity was not observed. INTERPRETATION: FT596 was well tolerated as monotherapy or with rituximab and induced deep and durable responses in patients with indolent and aggressive lymphomas and the RP2D was preliminarily identified to be 1.8 x 10(9) cells for three doses per cycle. This study supports that cell therapy using iPSC-derived, gene-modified NK cells is a potent platform for cancer treatment and suggests that such a platform might address limitations of currently available immune cell therapies, including manufacturing time, heterogeneity, access, and cost. FUNDING: Fate Therapeutics.</t>
   </si>
   <si>
@@ -1861,9 +1684,6 @@
     <t>BACKGROUND: Large disparities in mortality exist across racial-ethnic groups and by location in the USA, but the extent to which racial-ethnic disparities vary by location, or how these patterns vary by cause of death, is not well understood. We aimed to estimate age-standardised mortality by racial-ethnic group, county, and cause of death and describe the intersection between racial-ethnic and place-based disparities in mortality in the USA, comparing patterns across health conditions. METHODS: We applied small-area estimation models to death certificate data from the US National Vital Statistics system and population data from the US National Center for Health Statistics to estimate mortality by age, sex, county, and racial-ethnic group annually from 2000 to 2019 for 19 broad causes of death. Race and ethnicity were categorised as non-Latino and non-Hispanic American Indian or Alaska Native (AIAN), non-Latino and non-Hispanic Asian or Pacific Islander (Asian), non-Latino and non-Hispanic Black (Black), Latino or Hispanic (Latino), and non-Latino and non-Hispanic White (White). We adjusted these mortality rates to correct for misreporting of race and ethnicity on death certificates and generated age-standardised results using direct standardisation to the 2010 US census population. FINDINGS: From 2000 to 2019, across 3110 US counties, racial-ethnic disparities in age-standardised mortality were noted for all causes of death considered. Mortality was substantially higher in the AIAN population (all-cause mortality 1028.2 [95% uncertainty interval 922.2-1142.3] per 100 000 population in 2019) and Black population (953.5 [947.5-958.8] per 100 000) than in the White population (802.5 [800.3-804.7] per 100 000), but substantially lower in the Asian population (442.3 [429.3-455.0] per 100 000) and Latino population (595.6 [583.7-606.8] per 100 000), and this pattern was found for most causes of death. However, there were exceptions to this pattern, and the exact order among racial-ethnic groups, magnitude of the disparity in both absolute and relative terms, and change over time in this magnitude varied considerably by cause of death. Similarly, substantial geographical variation in mortality was observed for all causes of death, both overall and within each racial-ethnic group. Racial-ethnic disparities observed at the national level reflect widespread disparities at the county level, although the magnitude of these disparities varied widely among counties. Certain patterns of disparity were nearly universal among counties; for example, in 2019, mortality was higher among the AIAN population than the White population in at least 95% of counties for skin and subcutaneous diseases (455 [97.8%] of 465 counties with unmasked estimates) and HIV/AIDS and sexually transmitted infections (458 [98.5%] counties), and mortality was higher among the Black population than the White population in nearly all counties for skin and subcutaneous diseases (1436 [96.6%] of 1486 counties), diabetes and kidney diseases (1473 [99.1%]), maternal and neonatal disorders (1486 [100.0%] counties), and HIV/AIDS and sexually transmitted infections (1486 [100.0%] counties). INTERPRETATION: Disparities in mortality among racial-ethnic groups are ubiquitous, occurring across locations in the USA and for a wide range of health conditions. There is an urgent need to address the shared structural factors driving these widespread disparities. FUNDING: National Institute on Minority Health and Health Disparities; National Heart, Lung, and Blood Institute; National Cancer Institute; National Institute on Aging; National Institute of Arthritis and Musculoskeletal and Skin Diseases; Office of Disease Prevention; and Office of Behavioral and Social Sciences Research, US National Institutes of Health.</t>
   </si>
   <si>
-    <t>BACKGROUND: Liver cirrhosis is a major cause of death worldwide. Cirrhosis develops after a long asymptomatic period of fibrosis progression, with the diagnosis frequently occurring late, when major complications or cancer develop. Few reliable tools exist for timely identification of individuals at risk of cirrhosis to allow for early intervention. We aimed to develop a novel score to identify individuals at risk for future liver-related outcomes. METHODS: We derived the LiverRisk score from an international prospective cohort of individuals from six countries without known liver disease from the general population, who underwent liver fibrosis assessment by transient elastography. The score included age, sex, and six standard laboratory variables. We created four groups: minimal risk, low risk, medium risk, and high risk according to selected cutoff values of the LiverRisk score (6, 10, and 15). The model's discriminatory accuracy and calibration were externally validated in two prospective cohorts from the general population. Moreover, we ascertained the prognostic value of the score in the prediction of liver-related outcomes in participants without known liver disease with median follow-up of 12 years (UK Biobank cohort). FINDINGS: We included 14 726 participants: 6357 (43.2%) in the derivation cohort, 4370 (29.7%) in the first external validation cohort, and 3999 (27.2%) in the second external validation cohort. The score accurately predicted liver stiffness in the development and external validation cohorts, and was superior to conventional serum biomarkers of fibrosis, as measured by area under the receiver-operating characteristics curve (AUC; 0.83 [95% CI [0.78-0.89]) versus the fibrosis-4 index (FIB-4; 0.68 [0.61-0.75] at 10 kPa). The score was effective in identifying individuals at risk of liver-related mortality, liver-related hospitalisation, and liver cancer, thereby allowing stratification to different risk groups for liver-related outcomes. The hazard ratio for liver-related mortality in the high-risk group was 471 (95% CI 347-641) compared with the minimal risk group, and the overall AUC of the score in predicting 10-year liver-related mortality was 0.90 (0.88-0.91) versus 0.84 (0.82-0.86) for FIB-4. INTERPRETATION: The LiverRisk score, based on simple parameters, predicted liver fibrosis and future development of liver-related outcomes in the general population. The score might allow for stratification of individuals according to liver risk and thus guide preventive care. FUNDING: European Commission under the H20/20 programme; Fondo de Investigacion Sanitaria de Salud; Instituto de Salud Carlos III; Spanish Ministry of Economy, Industry, and Competitiveness; the European Regional Development Fund; and the German Ministry of Education and Research (BMBF).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Multicancer early detection (MCED) blood tests can detect a cancer signal from circulating cell-free DNA (cfDNA). PATHFINDER was a prospective cohort study investigating the feasibility of MCED testing for cancer screening. METHODS: In this prospective cohort study done in oncology and primary care outpatient clinics at seven US health networks, a convenience sample of adults aged 50 years or older without signs or symptoms of cancer consented to MCED testing. We collected blood, analysed cfDNA, and returned results to participants' doctors. If a methylation signature indicative of cancer was detected, predicted cancer signal origin(s) informed diagnostic assessment. The primary outcome was time to, and extent of, diagnostic testing required to confirm the presence or absence of cancer. This trial is registered at ClinicalTrials.gov, NCT04241796, and is completed. FINDINGS: Between Dec 12, 2019, and Dec 4, 2020, we recruited 6662 participants. 4204 (63.5%) of 6621 participants with analysable results were women, 2417 (36.5%) were men, and 6071 (91.7%) were White. A cancer signal was detected in 92 (1.4%) of 6621 participants with analysable results. 35 (38%) participants were diagnosed with cancer (true positives) and 57 (62%) had no cancer diagnosis (false positives). Excluding two participants whose diagnostic assessments began before MCED test results were reported, median time to diagnostic resolution was 79 days (IQR 37-219): 57 days (33-143) in true-positive and 162 days (44-248) in false-positive participants. Most participants had both laboratory tests (26 [79%] of 33 with true-positive results and 50 [88%] of 57 with false-positive results) and imaging (30 [91%] of 33 with true-positive results and 53 [93%] of 57 with false-positive results). Fewer procedures were done in participants with false-positive results (17 [30%] of 57) than true-positive results (27 [82%] of 33) and few had surgery (one with a false-positive result and three with a true-positive result). INTERPRETATION: This study supports the feasibility of MCED screening for cancer and underscores the need for further research investigating the test's clinical utility. FUNDING: GRAIL.</t>
   </si>
   <si>
@@ -1876,9 +1696,6 @@
     <t>BACKGROUND: Lung cancer is the most common cause of cancer death in the UK, and incidence is strongly associated with increasing age. Screening can improve survival by detecting cancer earlier. Targeted Lung Health Check (TLHC) programme is a lung cancer screening pilot offered to smokers or ex-smokers aged 55-74 years in certain areas of England. However, uptake remains as low as 20% in London. We did a service evaluation to assess the effect of adding messaging informed by behaviour science to invitation letters on TLHC uptake. METHODS: The intervention involved adding to the standard invitation letter a box with a two-sentence behavioural message targeted at mitigating fatalistic beliefs and low risk perception, as well as promoting clinician endorsement and the value of early detection. Allocation to receive either standard or intervention letters was done at West London GP practice level, with approximate pairing between practices. From Sept 22, 2022, to Nov 28, 2022, 9464 invitations were sent to eligible individuals (4842 standard and 4622 intervention) covering 20 GP practices. The primary outcome (uptake) was a booked appointment date within 4 months of the invitation letter being sent. TIDieR checklist was used for methodology and reporting guidelines. We used chi(2) analysis to test for significant differences in uptake, and mixed-effects logistic regression to control for demographic covariates. FINDINGS: Demographic characteristics were similar in the control and intervention groups, with mean ages of 63.3 and 63.0 years, average index of multiple deprivation (IMD) deciles of 6.33 and 5.53, and percentage of female participants 42.1% (n=2038) and 43.7% (n=2022), respectively. Uptake of TLHC was significantly higher in the intervention group (25.8%, n=1192) than in the control group (20.4%, n=987; chi(2)(1)=38.762, p&lt;0.0001). A logistic regression model estimated likelihood of uptake was 37.5% (95% CI 12.1-63.2) higher in the intervention group (p=0.004). Patients aged 60-64, 65-69 and 70-75 years were 23.5% (10.7-36.3, p=0.0003), 28.3% (14.5-42.0, p&lt;0.0001), and 32.6% (18.3-47.0, p&lt;0.0001) more likely to attend than those aged 55-59 years. The likelihood of attendance decreased on the basis of deprivation (IMD decile; b=0.060, 95% CI 0.035-0.087, p&lt;0.0001), female gender (b=0.156, 0.057-0.254, p=0.002), and for ex-smokers compared with smokers (b=0.580, 0.467-0.693, p&lt;0.0001). INTERPRETATION: This simple, no-cost addition of behavioural messaging to invitation letters can significantly improve screening uptake and is recommended for wider rollout. These findings are consistent with other studies. However, a limitation is that the allocation to study arm was at GP practice level and the study was not randomised. FUNDING: RM Partners, the West London Cancer Alliance.</t>
   </si>
   <si>
-    <t>BACKGROUND: In economic evaluations, average intervention effects are usually applied to a population. However, this fails to reflect the change in the distribution of HbA(1c) due to heterogeneous responses to weight loss. We aimed to investigate whether allowing heterogeneous treatment effects using a beta regression better represented the distribution of HbA(1c) after a weight-loss intervention, and how this affected cost effectiveness. METHODS: The Glucose Lowering through Weight Management (GLoW) trial evaluated the effectiveness of a diabetes education and weight-loss intervention against a standard diabetes education programme. Adults diagnosed with type 2 diabetes within 3 years were recruited from Clinical Commissioning Groups across 159 sites in England from July 20, 2018, to July 22, 2018. Ethics approval (18/ES/0048) and participant informed consent were obtained. Considering the between-treatment-arm difference in HbA(1c) after 12 months, we compared a mean-effect estimated from a mixed-effects regression to a heterogeneous effect estimated from a beta regression performed on 12-month HbA(1c) conditional on baseline HbA(1c), gender, diabetes duration and intervention group. We used the School of Public Health Research (SPHR) Diabetes Treatment model to apply these treatment effects and evaluate the lifetime NHS costs and quality-adjusted life-years (QALYs), discounted at 3.5%. The microsimulation model estimated diabetes-related health outcomes using the UK Prospective Diabetes Study Outcomes Model 2 risk equations and risk factor trajectory equations, alongside estimating diabetes remission, osteoarthritis, and cancer. We calculated the incremental net benefit (INB) of the intervention using a  pound20 000 per QALY valuation, by deterministic analysis. The GLoW trial is registered with the ISRCTN Registry, ISRCTN18399564. FINDINGS: The trial recruited 577 participants (mean age 60 years; 278 [53%] female, 247 [47%] male; 474 [91%] white ethnic background). Applying heterogeneous HbA(1c) changes better reproduced the skewness in post-intervention HbA(1c) than applying a mean-effect (Kolmogorov-Smirnov test p=0.02 compared with p=0.0000007). The beta-regression method suggested the intervention was more cost-effective, estimating an INB of  pound736 per person, compared with  pound584 when applying the mean-effect. INTERPRETATION: Alternative regression specification methods should be considered when evaluating the cost-effectiveness of interventions if the key intervention outcomes are not normally distributed. However, this alternative method requires further investigation to conclude its appropriateness in evaluating cost-effectiveness in different contexts. FUNDING: National Institute for Health and Care Research (NIHR) Programme Grants for Applied Research Programme (Reference Number RP-PG0216-20010).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Tobacco, alcohol, and foods high in fats, salt, or sugar (HFSS) are health harming products. Limited progress in prevention is partly due to health-harming industry lobbying. Action on Smoking and Health (ASH), Alcohol Health Alliance, and Obesity Health Alliance collaborated with the aim of developing a framework for action to address the saturation of these products in our environment. METHODS: We used a mixed-methods approach. Focus groups with academic experts, local government, and national government, recruited through snowball sampling were held in Nov 3, 2022 (14 participants); April 25, 2023 (20 participants); and June 15, 2023 (20 participants). Iteratively, data analysis was presented, and key themes tested. Commissioned economic analysis of national survey datasets quantified consumer spend on tobacco, alcohol, and food products above government recommendations (all tobacco use, &gt;14 units of alcohol, and national dietary guidelines) and industry percentage of revenues (net of tax). Public opinion data from the ASH YouGov Smokefree Survey 2022 on a nationally representative sample of 13 088 adults were descriptively analysed for specific policy options. FINDINGS: The framework for action to achieve a coherent prevention approach across products included three key enablers (secure funding for prevention, a comprehensive strategy, and protecting health policy from industry interference). Five key actions were: regulate advertising to limit harm, regulate product use and environments they can be used in, promote healthy messaging, raise the price of health-harming products, and fund treatment services. Economic analysis identified 100% of tobacco usage, 43.4% of alcohol purchased, and 28.8% of food purchased by households was above government recommendations. Post-tax industry revenue was  pound7.3 billion for tobacco,  pound11.2 billion for alcohol, and  pound34.2 billion for HFSS foods. Strong public support for levies (5%, n=8495) and protecting health policy from industry influence (69%, n=9006) was apparent. INTERPRETATION: A coherent approach to prevention across health-harming products is effective and has public support. Strengths include the iterative process to develop the framework for action among focus groups and use of nationally representative datasets. Limitations include the snowball sampling. The findings were built into a strategy intended to inform future collaborative work in the area. FUNDING: Cancer Research UK (grant PICADV-Feb22\100004).</t>
   </si>
   <si>
@@ -1918,9 +1735,6 @@
     <t>BACKGROUND: Response to the COVID-19 pandemic resulted in the temporary disruption of routine services in the UK National Health Service, including cancer screening. Following the reintroduction of services, we explored the impact on inequalities in uptake of the Bowel Screening Wales (BSW) programme to identify groups who might benefit from tailored intervention. METHODS: BSW records were linked to electronic health record and administrative data within the Secured Anonymised Information Linkage (SAIL) Databank Trusted Research Environment. We examined uptake in the first 3 months (from August to October, 2020) of invitations following the reintroduction of the BSW programme compared with the same period in the preceding 3 years. We analysed inequalities in uptake by sex, age group, income deprivation quintile, urban and rural location, ethnic group, and uptake between different periods using logistic regression models. FINDINGS: Overall uptake remained above the 60% Welsh standard during the COVID-19 pandemic period of 2020-21 but declined compared with the pre-pandemic period of 2019-20 (60.4% vs 62.7%; p&lt;0.001). During the COVID-19 pandemic period of 2020-21, uptake declined for most demographic groups, except for older individuals (70-74 years) and those in the most deprived quintile. Variation by sex, age, income deprivation, and ethnic groups was observed in all periods studied. Among low-uptake groups, including males, younger individuals (60-64 years), those living in most deprived areas, and ethnic minorities, uptake remains below the 60% Welsh standard. INTERPRETATION: Despite the disruption, uptake remained above the Welsh standard and inequalities did not worsen after the programme resumed activities. However, variations associated with sex, age, deprivation, and ethnicity remain. These findings need to be considered in targeting strategies to improve uptake and informed choice in colorectal cancer screening such as co-producing information products with low-uptake groups and upscaling the use of GP-endorsed invitations and reminder letters for bowel screening. FUNDING: Health Data Research UK, UK Medical Research Council, Administrative Data Research UK, and Health and Care Research Wales.</t>
   </si>
   <si>
-    <t>BACKGROUND: There are large and persistent disparities in life expectancy among racial-ethnic groups in the USA, but the extent to which these patterns vary geographically on a local scale is not well understood. This analysis estimated life expectancy for five racial-ethnic groups, in 3110 US counties over 20 years, to describe spatial-temporal variations in life expectancy and disparities between racial-ethnic groups. METHODS: We applied novel small-area estimation models to death registration data from the US National Vital Statistics System and population data from the US National Center for Health Statistics to estimate annual sex-specific and age-specific mortality rates stratified by county and racial-ethnic group (non-Latino and non-Hispanic White [White], non-Latino and non-Hispanic Black [Black], non-Latino and non-Hispanic American Indian or Alaska Native [AIAN], non-Latino and non-Hispanic Asian or Pacific Islander [API], and Latino or Hispanic [Latino]) from 2000 to 2019. We adjusted these mortality rates to correct for misreporting of race and ethnicity on death certificates and then constructed abridged life tables to estimate life expectancy at birth. FINDINGS: Between 2000 and 2019, trends in life expectancy differed among racial-ethnic groups and among counties. Nationally, there was an increase in life expectancy for people who were Black (change 3.9 years [95% uncertainty interval 3.8 to 4.0]; life expectancy in 2019 75.3 years [75.2 to 75.4]), API (2.9 years [2.7 to 3.0]; 85.7 years [85.3 to 86.0]), Latino (2.7 years [2.6 to 2.8]; 82.2 years [82.0 to 82.5]), and White (1.7 years [1.6 to 1.7]; 78.9 years [78.9 to 79.0]), but remained the same for the AIAN population (0.0 years [-0.3 to 0.4]; 73.1 years [71.5 to 74.8]). At the national level, the negative difference in life expectancy for the Black population compared with the White population decreased during this period, whereas the negative difference for the AIAN population compared with the White population increased; in both cases, these patterns were widespread among counties. The positive difference in life expectancy for the API and Latino populations compared with the White population increased at the national level from 2000 to 2019; however, this difference declined in a sizeable minority of counties (615 [42.0%] of 1465 counties) for the Latino population and in most counties (401 [60.2%] of 666 counties) for the API population. For all racial-ethnic groups, improvements in life expectancy were more widespread across counties and larger from 2000 to 2010 than from 2010 to 2019. INTERPRETATION: Disparities in life expectancy among racial-ethnic groups are widespread and enduring. Local-level data are crucial to address the root causes of poor health and early death among disadvantaged groups in the USA, eliminate health disparities, and increase longevity for all. FUNDING: National Institute on Minority Health and Health Disparities; National Heart, Lung, and Blood Institute; National Cancer Institute; National Institute on Aging; National Institute of Arthritis and Musculoskeletal and Skin Diseases; Office of Disease Prevention; and Office of Behavioral and Social Science Research, US National Institutes of Health.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Disparities in treatment and outcomes disproportionately affect minority ethnic and racial populations in many surgical fields. Although substantial research in racial disparities has focused on outcomes, little is known about how surgeon recommendations can be influenced by patient race. The aim of this study was to investigate racial and socioeconomic disparities in the surgical management of primary brain tumors. METHODS: In this registry-based cohort study, we used data from the Surveillance, Epidemiology, and End Results (SEER) database (1975-2016) and the American College of Surgeons National Cancer Database (NCDB) in the USA for independent analysis. Adults (aged &gt;/=20 years) with a new diagnosis of meningioma, glioblastoma, pituitary adenoma, vestibular schwannoma, astrocytoma, and oligodendroglioma, with information on tumour size and surgical recommendation were included in the analysis. The primary outcome of this study was the odds of a surgeon recommending against surgical resection at diagnosis of primary brain neoplasms. This outcome was determined using multivariable logistic regression with clinical, demographic, and socioeconomic factors. FINDINGS: This study included US national data from the SEER (1975-2016) and NCDB (2004-17) databases of adults with a new diagnosis of meningioma (SEER n=63 674; NCDB n=222 673), glioblastoma (n=35 258; n=104 047), pituitary adenoma (n=27 506; n=87 772), vestibular schwannoma (n=11 525; n=30 745), astrocytoma (n=5402; n=10 631), and oligodendroglioma (n=3977; n=9187). Independent of clinical and demographic factors, including insurance status and rural-urban continuum code, Black patients had significantly higher odds of recommendation against surgical resection of meningioma (adjusted odds ratio 1.13, 95% CI 1.06-1.21, p&lt;0.0001), glioblastoma (1.14, 1.01-1.28, p=0.038), pituitary adenoma (1.13, 1.05-1.22, p&lt;0.0001), and vestibular schwannoma (1.48, 1.19-1.84, p&lt;0.0001) when compared with White patients in the SEER dataset. Additionally, patients of unknown race had significantly higher odds of recommendation against surgical resection for pituitary adenoma (1.80, 1.41-2.30, p&lt;0.0001) and vestibular schwannoma (1.49, 1.10-2.04, p=0.011). Performing a validation analysis using the NCDB dataset confirmed these significant results for Black patients with meningioma (1.18, 1.14-1.22, p&lt;0.0001), glioblastoma (1.19, 1.12-1.28, p&lt;0.0001), pituitary adenoma (1.21, 1.16-1.25, p&lt;0.0001), and vestibular schwannoma (1.19, 1.04-1.35, p=0.0085), and indicated and indicated that the findings are independent of patient comorbidities. When further restricted to the most recent decade in SEER, these inequities held true for Black patients, except those with glioblastoma (meningioma [1.18, 1.08-1.28, p&lt;0.0001], pituitary adenoma [1.20, 1.09-1.31, p&lt;0.0001], and vestibular schwannoma [1.54, 1.16-2.04, p=0.0031]). INTERPRETATION: Racial disparities in surgery recommendations in the USA exist for patients with primary brain tumours, independent of potential confounders including clinical, demographic, and select socioeconomic factors. Further studies are needed to understand drivers of this bias and enhance equality in surgical care. FUNDING: None.</t>
   </si>
   <si>
@@ -1930,9 +1744,6 @@
     <t>BACKGROUND: The low expectation of clinical benefit from phase 1 cancer therapeutics trials might negatively affect patient and physician participation, study reimbursement, and slow the progress of oncology research. Advances in cancer drug development, meanwhile, might have favourably improved treatment responses; however, little comprehensive data exist describing the response and toxicity associated with phase 1 trials across solid tumours. The aim of the study is to evaluate the trend of toxicity and response in phase 1 trials for solid tumours over time. METHODS: We analysed patient-level data from the Cancer Therapy Evaluation Program of the National Cancer Institute-sponsored investigator-initiated phase 1 trials for solid tumours, from Jan 1, 2000, to May 31, 2019. We assessed risks of treatment-related death (grade 5 toxicity ratings possibly, probably, or definitely attributable to treatment), all on-treatment deaths (deaths during protocol treatment regardless of attribution), grade 3-4 toxicity, and proportion of overall response (complete response and partial response) and complete response rate in the study periods of 2000-05, 2006-12, and 2013-2019, and evaluated their trends over time. We also analysed cancer type-specific and investigational agent-specific response, and analysed the trend of response in each cancer type over time. Univariate associations of overall response rates with patients' baseline characteristics (age, sex, performance status, BMI, albumin concentration, and haemoglobin concentration), enrolment period, investigational agents, and trial design were assessed using risk ratio based on the modified Poisson regression model. FINDINGS: We analysed 465 protocols that enrolled 13 847 patients using 261 agents. 144 (31%) trials used a monotherapy and 321 (69%) used combination therapies. The overall treatment-related death rate was 0.7% (95% CI 0.5-0.8) across all periods. Risks of treatment-related deaths did not change over time (p=0.52). All on-treatment death risk during the study period was 8.0% (95% CI 7.6-8.5). The most common grade 3-4 adverse events were haematological; grade 3-4 neutropenia occurred in 2336 (16.9%) of 13 847 patients, lymphopenia in 1230 (8.9%), anaemia in 894 (6.5%), and thrombocytopenia in 979 (7.1%). The overall response rate for all trials during the study period was 12.2% (95% CI 11.5-12.8; 1133 of 9325 patients) and complete response rate was 2.7% (2.4-3.0; 249 of 9325). Overall response increased from 9.6% (95% CI 8.7-10.6) in 2000-05 to 18.0% (15.7-20.5) in 2013-19, and complete response rates from 2.5% (2.0-3.0) to 4.3% (3.2-5.7). Overall response rates for combination therapy were substantially higher than for monotherapy (15.8% [15.0-16.8] vs 3.5% [2.8-4.2]). The overall response by class of agents differed across diseases. Anti-angiogenesis agents were associated with higher overall response rate for bladder, colon, kidney and ovarian cancer. DNA repair inhibitors were associated with higher overall response rate in ovarian and pancreatic cancer. The rates of overall response over time differed markedly by disease; there were notable improvements in bladder, breast, and kidney cancer and melanoma, but no change in the low response of pancreatic and colon cancer. INTERPRETATION: During the past 20 years, the response rate in phase 1 trials nearly doubled without an increase in the treatment-related death rate. However, there is significant heterogeneity in overall response by various factors such as cancer type, investigational agent, and trial design. Therefore, informed decision making is crucial for patients before participating in phase 1 trials. This study provides updated encouraging outcomes of modern phase 1 trials in solid tumours. FUNDING: National Cancer Institute.</t>
   </si>
   <si>
-    <t>BACKGROUND: National rates of COVID-19 infection and fatality have varied dramatically since the onset of the pandemic. Understanding the conditions associated with this cross-country variation is essential to guiding investment in more effective preparedness and response for future pandemics. METHODS: Daily SARS-CoV-2 infections and COVID-19 deaths for 177 countries and territories and 181 subnational locations were extracted from the Institute for Health Metrics and Evaluation's modelling database. Cumulative infection rate and infection-fatality ratio (IFR) were estimated and standardised for environmental, demographic, biological, and economic factors. For infections, we included factors associated with environmental seasonality (measured as the relative risk of pneumonia), population density, gross domestic product (GDP) per capita, proportion of the population living below 100 m, and a proxy for previous exposure to other betacoronaviruses. For IFR, factors were age distribution of the population, mean body-mass index (BMI), exposure to air pollution, smoking rates, the proxy for previous exposure to other betacoronaviruses, population density, age-standardised prevalence of chronic obstructive pulmonary disease and cancer, and GDP per capita. These were standardised using indirect age standardisation and multivariate linear models. Standardised national cumulative infection rates and IFRs were tested for associations with 12 pandemic preparedness indices, seven health-care capacity indicators, and ten other demographic, social, and political conditions using linear regression. To investigate pathways by which important factors might affect infections with SARS-CoV-2, we also assessed the relationship between interpersonal and governmental trust and corruption and changes in mobility patterns and COVID-19 vaccination rates. FINDINGS: The factors that explained the most variation in cumulative rates of SARS-CoV-2 infection between Jan 1, 2020, and Sept 30, 2021, included the proportion of the population living below 100 m (5.4% [4.0-7.9] of variation), GDP per capita (4.2% [1.8-6.6] of variation), and the proportion of infections attributable to seasonality (2.1% [95% uncertainty interval 1.7-2.7] of variation). Most cross-country variation in cumulative infection rates could not be explained. The factors that explained the most variation in COVID-19 IFR over the same period were the age profile of the country (46.7% [18.4-67.6] of variation), GDP per capita (3.1% [0.3-8.6] of variation), and national mean BMI (1.1% [0.2-2.6] of variation). 44.4% (29.2-61.7) of cross-national variation in IFR could not be explained. Pandemic-preparedness indices, which aim to measure health security capacity, were not meaningfully associated with standardised infection rates or IFRs. Measures of trust in the government and interpersonal trust, as well as less government corruption, had larger, statistically significant associations with lower standardised infection rates. High levels of government and interpersonal trust, as well as less government corruption, were also associated with higher COVID-19 vaccine coverage among middle-income and high-income countries where vaccine availability was more widespread, and lower corruption was associated with greater reductions in mobility. If these modelled associations were to be causal, an increase in trust of governments such that all countries had societies that attained at least the amount of trust in government or interpersonal trust measured in Denmark, which is in the 75th percentile across these spectrums, might have reduced global infections by 12.9% (5.7-17.8) for government trust and 40.3% (24.3-51.4) for interpersonal trust. Similarly, if all countries had a national BMI equal to or less than that of the 25th percentile, our analysis suggests global standardised IFR would be reduced by 11.1%. INTERPRETATION: Efforts to improve pandemic preparedness and response for the next pandemic might benefit from greater investment in risk communication and community engagement strategies to boost the confidence that individuals have in public health guidance. Our results suggest that increasing health promotion for key modifiable risks is associated with a reduction of fatalities in such a scenario. FUNDING: Bill &amp; Melinda Gates Foundation, J Stanton, T Gillespie, J and E Nordstrom, and Bloomberg Philanthropies.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Covalent Bruton's tyrosine kinase (BTK) inhibitors are efficacious in multiple B-cell malignancies, but patients discontinue these agents due to resistance and intolerance. We evaluated the safety and efficacy of pirtobrutinib (working name; formerly known as LOXO-305), a highly selective, reversible BTK inhibitor, in these patients. METHODS: Patients with previously treated B-cell malignancies were enrolled in a first-in-human, multicentre, open-label, phase 1/2 trial of the BTK inhibitor pirtobrutinib. The primary endpoint was the maximum tolerated dose (phase 1) and overall response rate (ORR; phase 2). This trial is registered with ClinicalTrials.gov, NCT03740529. FINDINGS: 323 patients were treated with pirtobrutinib across seven dose levels (25 mg, 50 mg, 100 mg, 150 mg, 200 mg, 250 mg, and 300 mg once per day) with linear dose-proportional exposures. No dose-limiting toxicities were observed and the maximum tolerated dose was not reached. The recommended phase 2 dose was 200 mg daily. Adverse events in at least 10% of 323 patients were fatigue (65 [20%]), diarrhoea (55 [17%]), and contusion (42 [13%]). The most common adverse event of grade 3 or higher was neutropenia (32 [10%]). There was no correlation between pirtobrutinib exposure and the frequency of grade 3 treatment-related adverse events. Grade 3 atrial fibrillation or flutter was not observed, and grade 3 haemorrhage was observed in one patient in the setting of mechanical trauma. Five (1%) patients discontinued treatment due to a treatment-related adverse event. In 121 efficacy evaluable patients with chronic lymphocytic leukaemia (CLL) or small lymphocytic lymphoma (SLL) treated with a previous covalent BTK inhibitor (median previous lines of treatment 4), the ORR with pirtobrutinib was 62% (95% CI 53-71). The ORR was similar in CLL patients with previous covalent BTK inhibitor resistance (53 [67%] of 79), covalent BTK inhibitor intolerance (22 [52%] of 42), BTK C481-mutant (17 [71%] of 24) and BTK wild-type (43 [66%] of 65) disease. In 52 efficacy evaluable patients with mantle cell lymphoma (MCL) previously treated with covalent BTK inhibitors, the ORR was 52% (95% CI 38-66). Of 117 patients with CLL, SLL, or MCL who responded, all but eight remain progression-free to date. INTERPRETATION: Pirtobrutinib was safe and active in multiple B-cell malignancies, including patients previously treated with covalent BTK inhibitors. Pirtobrutinib might address a growing unmet need for alternative therapies for these patients. FUNDING: Loxo Oncology.</t>
   </si>
   <si>
@@ -1981,9 +1792,6 @@
     <t>BACKGROUND: The WHO Director-General has issued a call for action to eliminate cervical cancer as a public health problem. To help inform global efforts, we modelled potential human papillomavirus (HPV) vaccination and cervical screening scenarios in low-income and lower-middle-income countries (LMICs) to examine the feasibility and timing of elimination at different thresholds, and to estimate the number of cervical cancer cases averted on the path to elimination. METHODS: The WHO Cervical Cancer Elimination Modelling Consortium (CCEMC), which consists of three independent transmission-dynamic models identified by WHO according to predefined criteria, projected reductions in cervical cancer incidence over time in 78 LMICs for three standardised base-case scenarios: girls-only vaccination; girls-only vaccination and once-lifetime screening; and girls-only vaccination and twice-lifetime screening. Girls were vaccinated at age 9 years (with a catch-up to age 14 years), assuming 90% coverage and 100% lifetime protection against HPV types 16, 18, 31, 33, 45, 52, and 58. Cervical screening involved HPV testing once or twice per lifetime at ages 35 years and 45 years, with uptake increasing from 45% (2023) to 90% (2045 onwards). The elimination thresholds examined were an average age-standardised cervical cancer incidence of four or fewer cases per 100 000 women-years and ten or fewer cases per 100 000 women-years, and an 85% or greater reduction in incidence. Sensitivity analyses were done, varying vaccination and screening strategies and assumptions. We summarised results using the median (range) of model predictions. FINDINGS: Girls-only HPV vaccination was predicted to reduce the median age-standardised cervical cancer incidence in LMICs from 19.8 (range 19.4-19.8) to 2.1 (2.0-2.6) cases per 100 000 women-years over the next century (89.4% [86.2-90.1] reduction), and to avert 61.0 million (60.5-63.0) cases during this period. Adding twice-lifetime screening reduced the incidence to 0.7 (0.6-1.6) cases per 100 000 women-years (96.7% [91.3-96.7] reduction) and averted an extra 12.1 million (9.5-13.7) cases. Girls-only vaccination was predicted to result in elimination in 60% (58-65) of LMICs based on the threshold of four or fewer cases per 100 000 women-years, in 99% (89-100) of LMICs based on the threshold of ten or fewer cases per 100 000 women-years, and in 87% (37-99) of LMICs based on the 85% or greater reduction threshold. When adding twice-lifetime screening, 100% (71-100) of LMICs reached elimination for all three thresholds. In regions in which all countries can achieve cervical cancer elimination with girls-only vaccination, elimination could occur between 2059 and 2102, depending on the threshold and region. Introducing twice-lifetime screening accelerated elimination by 11-31 years. Long-term vaccine protection was required for elimination. INTERPRETATION: Predictions were consistent across our three models and suggest that high HPV vaccination coverage of girls can lead to cervical cancer elimination in most LMICs by the end of the century. Screening with high uptake will expedite reductions and will be necessary to eliminate cervical cancer in countries with the highest burden. FUNDING: WHO, UNDP, UN Population Fund, UNICEF-WHO-World Bank Special Program of Research, Development and Research Training in Human Reproduction, Canadian Institute of Health Research, Fonds de recherche du Quebec-Sante, Compute Canada, National Health and Medical Research Council Australia Centre for Research Excellence in Cervical Cancer Control.</t>
   </si>
   <si>
-    <t>BACKGROUND: Childhood is a sensitive period with rapid brain development and physiological growth, and adverse events in childhood might interfere with these processes and have long-lasting effects on health. In this study, we aimed to describe trajectories of adverse childhood experiences and relate these to overall and cause-specific mortality in early adult life. METHODS: For this population-based cohort study, we used unselected annually updated data from Danish nationwide registers covering more than 1 million children born between 1980 and 1998. We distinguished between three different dimensions of childhood adversities: poverty and material deprivation, loss or threat of loss within the family, and aspects of family dynamics such as maternal separation. We used a group-based multi-trajectory clustering model to define the different trajectories of children aged between 0 and 16 years. We assessed the associations between these trajectories and mortality rates between 16 and 34 years of age using a Cox proportional hazards model and an Aalen hazards difference model. FINDINGS: Between Jan 1, 1980 and Dec 31, 2015, 2 223 927 children were included in the Danish Life Course cohort. We excluded 1 064 864 children born after 1998, 50 274 children who emigrated before their 16th birthday, and 11 161 children who died before their 16th birthday, resulting in a final sample of 1 097 628 children. We identified five distinct trajectories of childhood adversities. Compared with children with a low adversity trajectory, those who had early-life material deprivation (hazard ratio 1.38, 95% CI 1.27-1.51), persistent deprivation (1.77, 1.62-1.93), or loss or threat of loss (1.80, 1.61-2.00) had a moderately higher risk of premature mortality. A small proportion of children (36 081 [3%]) had multiple adversities within all dimensions and throughout the entire childhood. This group had a 4.54 times higher all-cause mortality risk (95% CI 4.07-5.06) than that of children with a low adversity trajectory, corresponding to 10.30 (95% CI 9.03-11.60) additional deaths per 10 000 person-years. Accidents, suicides, and cancer were the most common causes of death in this high adversity population. INTERPRETATION: Almost half of Danish children in our study experienced some degree of adversity, and this was associated with a moderately higher risk of mortality in adulthood. Among these, a small group of children had multiple adversities across social, health, and family-related dimensions. This group had a markedly higher mortality risk in early adulthood than that of other children, which requires public health attention. FUNDING: None.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Assessing the risk of radiation-induced hematologic cancer from medical imaging in children and adolescents might support informed decisions on the use of imaging. METHODS: We followed a retrospective cohort of 3,724,623 children born between 1996 and 2016 in six U.S. health care systems and Ontario, Canada, until the earliest of cancer or benign-tumor diagnosis, death, end of health care coverage, an age of 21 years, or December 31, 2017. Radiation doses to active bone marrow from medical imaging were quantified. Associations between hematologic cancers and cumulative radiation exposure (vs. no exposure), with a lag of 6 months, were estimated with the use of continuous-time hazards models. RESULTS: During 35,715,325 person-years of follow-up (mean, 10.1 years per person), 2961 hematologic cancers were diagnosed, primarily lymphoid cancers (2349 [79.3%]), myeloid cancers or acute leukemia (460 [15.5%]), and histiocytic- or dendritic-cell cancers (129 [4.4%]). The mean (+/-SD) exposure among children exposed to at least 1 mGy was 14.0+/-23.1 mGy overall (for comparison, 13.7 mGy was the exposure from one computed tomographic [CT] scan of the head) and 24.5+/-36.4 mGy among children with hematologic cancer. Cancer risk increased with cumulative dose, with a relative risk (vs. no exposure) of 1.41 (95% confidence interval [CI], 1.11 to 1.78) for 1 to less than 5 mGy, 1.82 (95% CI, 1.33 to 2.43) for 15 to less than 20 mGy, and 3.59 (95% CI, 2.22 to 5.44) for 50 to less than 100 mGy. The cumulative radiation dose to bone marrow was associated with an increased risk of all hematologic cancers (excess relative risk per 100 mGy, 2.54 [95% CI, 1.70 to 3.51; P&lt;0.001]; relative risk for 30 vs. 0 mGy, 1.76 [95% CI, 1.51 to 2.05]) and most tumor subtypes. The excess cumulative incidence of hematologic cancers by 21 years of age among children exposed to at least 30 mGy (mean, 57 mGy) was 25.6 per 10,000. We estimated that, in our cohort, 10.1% (95% CI, 5.8 to 14.2) of hematologic cancers may have been attributable to radiation exposure from medical imaging, with higher risks from the higher-dose medical-imaging tests such as CT. CONCLUSIONS: Our study suggests an association between exposure to radiation from medical imaging and a small but significantly increased risk of hematologic cancer among children and adolescents. (Funded by the National Cancer Institute and others.).</t>
   </si>
   <si>
@@ -2002,9 +1810,6 @@
     <t>BACKGROUND: Clonal hematopoiesis of indeterminate potential (CHIP) is an age-related condition associated with increased mortality among patients with cancer. CHIP mutations with high variant-allele frequencies can be detected in tumors, a phenomenon we term tumor-infiltrating clonal hematopoiesis (TI-CH). The frequency of TI-CH and its effect on tumor evolution are unclear. METHODS: We characterized CHIP and TI-CH in 421 patients with early-stage non-small-cell lung cancer (NSCLC) from the TRACERx study and in 49,351 patients from the MSK-IMPACT pan-cancer cohort. We studied the association of TI-CH with survival and disease recurrence and evaluated the functional effect of TET2-mutant CHIP on the biologic features of lung tumors. RESULTS: Among patients with NSCLC, 42% of those with CHIP had TI-CH. TI-CH independently predicted an increased risk of death or recurrence, with an adjusted hazard ratio of 1.80 (95% confidence interval [CI], 1.23 to 2.63) as compared with the absence of CHIP and an adjusted hazard ratio of 1.62 (95% CI, 1.02 to 2.56) as compared with CHIP in the absence of TI-CH. Among patients with solid tumors, 26% of those with CHIP had TI-CH. TI-CH conferred a risk of death from any cause that was 1.17 times (95% CI, 1.06 to 1.29) as high as the risk with CHIP in the absence of TI-CH. TET2 mutations were the strongest genetic predictor of TI-CH; such mutations enhanced monocyte migration to lung tumor cells, fueled a myeloid-rich tumor microenvironment in mice, and resulted in the promotion of tumor organoid growth. CONCLUSIONS: TI-CH increased the risk of disease recurrence or death among patients with NSCLC and the risk of death from any cause among patients with solid tumors. TI-CH remodeled the tumor immune microenvironment and accelerated tumor organoid growth, findings that support a role for an aging-related hematologic clonal proliferation in cancer evolution. (Funded by the Royal Society and others.).</t>
   </si>
   <si>
-    <t>BACKGROUND: Treatment with fidanacogene elaparvovec, a recombinant adeno-associated virus (AAV) vector developed for the treatment of hemophilia B, led to sustained expression of the high-activity factor IX variant (FIX-R338L, or FIX-Padua) in a phase 1-2a study. The long-term safety and efficacy of this treatment are not known. METHODS: In a 12-month study, 15 participants with severe or moderately severe hemophilia B (factor IX coagulant activity, &lt;/=2% of the normal value) received fidanacogene elaparvovec at a dose of 5x10(11) vector genomes (vg) per kilogram of body weight; thereafter, participants could enroll in a 5-year follow-up study. Safety end points included adverse events and changes in laboratory measures. Efficacy end points included the annualized rate of treated bleeding events (annualized bleeding rate) and factor IX activity. RESULTS: A total of 14 participants provided consent and completed at least 3 years of follow-up (median, 5.5; range 3 to 6); participation was ongoing among 8 at the data cutoff. None of the participants reported treatment-related adverse events after year 1. Throughout follow-up, nine serious adverse events were noted in 4 participants; none were thrombotic or treatment-related. No factor IX inhibitors were detected. Throughout follow-up, mean factor IX activity was in the mild hemophilia range; the mean annualized bleeding rate was less than 1, and 10 participants had no treated bleeding episodes. Surveillance liver ultrasounds obtained from year 1 onward showed no evidence of cancer but showed steatosis in 4 participants who had weight gain and elevated aminotransferase levels (maximum alanine aminotransferase level, 77 U per liter). One participant with a history of hepatitis C, hepatitis B, human immunodeficiency virus infection, and an elevated body-mass index had progression of underlying advanced liver fibrosis. A total of 13 surgical procedures were performed in 8 participants; exogenous factor IX was administered for 10 procedures, and no associated unexpected bleeding complications occurred. CONCLUSIONS: Fidanacogene elaparvovec was associated with no or only low-grade adverse effects over a period of 3 to 6 years. Efficacy was maintained in the long term at 5x10(11) vg per kilogram, one of the lowest intravenous doses of AAV used for any indication. (Funded by Pfizer; ClinicalTrials.gov number, NCT03307980.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: The incidence of prostate cancer is increasing. Screening with an assay of prostate-specific antigen (PSA) has a high rate for false positive results. Genomewide association studies have identified common germline variants in persons with prostate cancer, which can be used to calculate a polygenic risk score associated with risk of prostate cancer. METHODS: We recruited persons 55 to 69 years of age from primary care centers in the United Kingdom. Using germline DNA extracted from saliva, we derived polygenic risk scores from 130 variants known to be associated with an increased risk of prostate cancer. Participants with a polygenic risk score in the 90th percentile or higher were invited to undergo prostate cancer screening with multiparametric magnetic resonance imaging (MRI) and transperineal biopsy, irrespective of PSA level. RESULTS: Among 40,292 persons invited to participate, 8953 (22.2%) expressed interest in participating and 6393 had their polygenic risk score calculated; 745 (11.7%) had a polygenic risk score in the 90th percentile or higher and were invited to undergo screening. Of these 745 participants, 468 (62.8%) underwent MRI and prostate biopsy; prostate cancer was detected in 187 participants (40.0%). The median age at diagnosis was 64 years (range, 57 to 73). Of the 187 participants with cancer, 103 (55.1%) had prostate cancer classified as intermediate or higher risk according to the 2024 National Comprehensive Cancer Network (NCCN) criteria, so treatment was indicated; cancer would not have been detected in 74 (71.8%) of these participants according to the prostate cancer diagnostic pathway currently used in the United Kingdom (high PSA level and positive MRI results). In addition, 40 of the participants with cancer (21.4%) had disease classified as unfavorable intermediate risk or as high or very high risk according to NCCN criteria. CONCLUSIONS: In a prostate cancer screening program involving participants in the top decile of risk as determined by a polygenic risk score, the percentage found to have clinically significant disease was higher than the percentage that would have been identified with the use of PSA or MRI. (Funded by the European Research Council Seventh Framework Program and others; BARCODE1 ClinicalTrials.gov number, NCT03857477.).</t>
   </si>
   <si>
@@ -2116,9 +1921,6 @@
     <t>BACKGROUND: Patients with von Hippel-Lindau (VHL) disease have a high incidence of renal cell carcinoma owing to VHL gene inactivation and constitutive activation of the transcription factor hypoxia-inducible factor 2alpha (HIF-2alpha). METHODS: In this phase 2, open-label, single-group trial, we investigated the efficacy and safety of the HIF-2alpha inhibitor belzutifan (MK-6482, previously called PT2977), administered orally at a dose of 120 mg daily, in patients with renal cell carcinoma associated with VHL disease. The primary end point was objective response (complete or partial response) as measured according to the Response Evaluation Criteria in Solid Tumors, version 1.1, by an independent central radiology review committee. We also assessed responses to belzutifan in patients with non-renal cell carcinoma neoplasms and the safety of belzutifan. RESULTS: After a median follow-up of 21.8 months (range, 20.2 to 30.1), the percentage of patients with renal cell carcinoma who had an objective response was 49% (95% confidence interval, 36 to 62). Responses were also observed in patients with pancreatic lesions (47 of 61 patients [77%]) and central nervous system hemangioblastomas (15 of 50 patients [30%]). Among the 16 eyes that could be evaluated in 12 patients with retinal hemangioblastomas at baseline, all (100%) were graded as showing improvement. The most common adverse events were anemia (in 90% of the patients) and fatigue (in 66%). Seven patients discontinued treatment: four patients voluntarily discontinued, one discontinued owing to a treatment-related adverse event (grade 1 dizziness), one discontinued because of disease progression as assessed by the investigator, and one patient died (of acute toxic effects of fentanyl). CONCLUSIONS: Belzutifan was associated with predominantly grade 1 and 2 adverse events and showed activity in patients with renal cell carcinomas and non-renal cell carcinoma neoplasms associated with VHL disease. (Funded by Merck Sharp and Dohme and others; MK-6482-004 ClinicalTrials.gov number, NCT03401788.).</t>
   </si>
   <si>
-    <t>BACKGROUND: The U.K. 100,000 Genomes Project is in the process of investigating the role of genome sequencing in patients with undiagnosed rare diseases after usual care and the alignment of this research with health care implementation in the U.K. National Health Service. Other parts of this project focus on patients with cancer and infection. METHODS: We conducted a pilot study involving 4660 participants from 2183 families, among whom 161 disorders covering a broad spectrum of rare diseases were present. We collected data on clinical features with the use of Human Phenotype Ontology terms, undertook genome sequencing, applied automated variant prioritization on the basis of applied virtual gene panels and phenotypes, and identified novel pathogenic variants through research analysis. RESULTS: Diagnostic yields varied among family structures and were highest in family trios (both parents and a proband) and families with larger pedigrees. Diagnostic yields were much higher for disorders likely to have a monogenic cause (35%) than for disorders likely to have a complex cause (11%). Diagnostic yields for intellectual disability, hearing disorders, and vision disorders ranged from 40 to 55%. We made genetic diagnoses in 25% of the probands. A total of 14% of the diagnoses were made by means of the combination of research and automated approaches, which was critical for cases in which we found etiologic noncoding, structural, and mitochondrial genome variants and coding variants poorly covered by exome sequencing. Cohortwide burden testing across 57,000 genomes enabled the discovery of three new disease genes and 19 new associations. Of the genetic diagnoses that we made, 25% had immediate ramifications for clinical decision making for the patients or their relatives. CONCLUSIONS: Our pilot study of genome sequencing in a national health care system showed an increase in diagnostic yield across a range of rare diseases. (Funded by the National Institute for Health Research and others.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Hairy-cell leukemia (HCL) is a CD20+ indolent B-cell cancer in which a BRAF V600E kinase-activating mutation plays a pathogenetic role. In clinical trials involving patients with refractory or relapsed HCL, the targeting of BRAF V600E with the oral BRAF inhibitor vemurafenib led to a response in 91% of the patients; 35% of the patients had a complete response. However, the median relapse-free survival was only 9 months after treatment was stopped. METHODS: In a phase 2, single-center, academic trial involving patients with refractory or relapsed HCL, we assessed the safety and efficacy of vemurafenib (960 mg, administered twice daily for 8 weeks) plus concurrent and sequential rituximab (375 mg per square meter of body-surface area, administered for 8 doses over a period of 18 weeks). The primary end point was a complete response at the end of planned treatment. RESULTS: Among the 30 enrolled patients with HCL, the median number of previous therapies was 3. A complete response was observed in 26 patients (87%) in the intention-to-treat population. All the patients who had HCL that had been refractory to chemotherapy (10 patients) or rituximab (5) and all those who had previously been treated with BRAF inhibitors (7) had a complete response. Thrombocytopenia resolved after a median of 2 weeks, and neutropenia after a median of 4 weeks. Of the 26 patients with a complete response, 17 (65%) were cleared of minimal residual disease (MRD). Progression-free survival among all 30 patients was 78% at a median follow-up of 37 months; relapse-free survival among the 26 patients with a response was 85% at a median follow-up of 34 months. In post hoc analyses, MRD negativity and no previous BRAF inhibitor treatment correlated with longer relapse-free survival. Toxic effects, mostly of grade 1 or 2, were those that had previously been noted for these agents. CONCLUSIONS: In this small study, a short, chemotherapy-free, nonmyelotoxic regimen of vemurafenib plus rituximab was associated with a durable complete response in most patients with refractory or relapsed HCL. (Funded by the European Research Council and others; HCL-PG03 EudraCT number, 2014-003046-27.).</t>
   </si>
   <si>
@@ -2182,9 +1984,6 @@
     <t>BACKGROUND: Lung cancer is made up of distinct subtypes, including non-small-cell lung cancer (NSCLC) and small-cell lung cancer (SCLC). Although overall mortality from lung cancer has been declining in the United States, little is known about mortality trends according to cancer subtype at the population level because death certificates do not record subtype information. METHODS: Using data from Surveillance, Epidemiology, and End Results (SEER) areas, we assessed lung-cancer mortality and linked deaths from lung cancer to incident cases in SEER cancer registries. This allowed us to evaluate population-level mortality trends attributed to specific subtypes (incidence-based mortality). We also evaluated lung-cancer incidence and survival according to cancer subtype, sex, and calendar year. Joinpoint software was used to assess changes in incidence and trends in incidence-based mortality. RESULTS: Mortality from NSCLC decreased even faster than the incidence of this subtype, and this decrease was associated with a substantial improvement in survival over time that corresponded to the timing of approval of targeted therapy. Among men, incidence-based mortality from NSCLC decreased 6.3% annually from 2013 through 2016, whereas the incidence decreased 3.1% annually from 2008 through 2016. Corresponding lung cancer-specific survival improved from 26% among men with NSCLC that was diagnosed in 2001 to 35% among those in whom it was diagnosed in 2014. This improvement in survival was found across all races and ethnic groups. Similar patterns were found among women with NSCLC. In contrast, mortality from SCLC declined almost entirely as a result of declining incidence, with no improvement in survival. This result correlates with limited treatment advances for SCLC in the time frame we examined. CONCLUSIONS: Population-level mortality from NSCLC in the United States fell sharply from 2013 to 2016, and survival after diagnosis improved substantially. Our analysis suggests that a reduction in incidence along with treatment advances - particularly approvals for and use of targeted therapies - is likely to explain the reduction in mortality observed during this period.</t>
   </si>
   <si>
-    <t>BACKGROUND: No approved therapies exist for inoperable plexiform neurofibromas in patients with neurofibromatosis type 1. METHODS: We conducted an open-label, phase 2 trial of selumetinib to determine the objective response rate among patients with plexiform neurofibromas and to assess clinical benefit. Children with neurofibromatosis type 1 and symptomatic inoperable plexiform neurofibromas received oral selumetinib twice daily at a dose of 25 mg per square meter of body-surface area on a continuous dosing schedule (28-day cycles). Volumetric magnetic resonance imaging and clinical outcome assessments (pain, quality of life, disfigurement, and function) were performed at least every four cycles. Children rated tumor pain intensity on a scale from 0 (no pain) to 10 (worst pain imaginable). RESULTS: A total of 50 children (median age, 10.2 years; range, 3.5 to 17.4) were enrolled from August 2015 through August 2016. The most frequent neurofibroma-related symptoms were disfigurement (44 patients), motor dysfunction (33), and pain (26). A total of 35 patients (70%) had a confirmed partial response as of March 29, 2019, and 28 of these patients had a durable response (lasting &gt;/=1 year). After 1 year of treatment, the mean decrease in child-reported tumor pain-intensity scores was 2 points, considered a clinically meaningful improvement. In addition, clinically meaningful improvements were seen in child-reported and parent-reported interference of pain in daily functioning (38% and 50%, respectively) and overall health-related quality of life (48% and 58%, respectively) as well as in functional outcomes of strength (56% of patients) and range of motion (38% of patients). Five patients discontinued treatment because of toxic effects possibly related to selumetinib, and 6 patients had disease progression. The most frequent toxic effects were nausea, vomiting, or diarrhea; an asymptomatic increase in the creatine phosphokinase level; acneiform rash; and paronychia. CONCLUSIONS: In this phase 2 trial, most children with neurofibromatosis type 1 and inoperable plexiform neurofibromas had durable tumor shrinkage and clinical benefit from selumetinib. (Funded by the Intramural Research Program of the National Institutes of Health and others; ClinicalTrials.gov number, NCT01362803.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Persons with mental disorders are at a higher risk than the general population for the subsequent development of certain medical conditions. METHODS: We used a population-based cohort from Danish national registries that included data on more than 5.9 million persons born in Denmark from 1900 through 2015 and followed them from 2000 through 2016, for a total of 83.9 million person-years. We assessed 10 broad types of mental disorders and 9 broad categories of medical conditions (which encompassed 31 specific conditions). We used Cox regression models to calculate overall hazard ratios and time-dependent hazard ratios for pairs of mental disorders and medical conditions, after adjustment for age, sex, calendar time, and previous mental disorders. Absolute risks were estimated with the use of competing-risks survival analyses. RESULTS: A total of 698,874 of 5,940,299 persons (11.8%) were identified as having a mental disorder. The median age of the total population was 32.1 years at entry into the cohort and 48.7 years at the time of the last follow-up. Persons with a mental disorder had a higher risk than those without such disorders with respect to 76 of 90 pairs of mental disorders and medical conditions. The median hazard ratio for an association between a mental disorder and a medical condition was 1.37. The lowest hazard ratio was 0.82 for organic mental disorders and the broad category of cancer (95% confidence interval [CI], 0.80 to 0.84), and the highest was 3.62 for eating disorders and urogenital conditions (95% CI, 3.11 to 4.22). Several specific pairs showed a reduced risk (e.g., schizophrenia and musculoskeletal conditions). Risks varied according to the time since the diagnosis of a mental disorder. The absolute risk of a medical condition within 15 years after a mental disorder was diagnosed varied from 0.6% for a urogenital condition among persons with a developmental disorder to 54.1% for a circulatory disorder among those with an organic mental disorder. CONCLUSIONS: Most mental disorders were associated with an increased risk of a subsequent medical condition; hazard ratios ranged from 0.82 to 3.62 and varied according to the time since the diagnosis of the mental disorder. (Funded by the Danish National Research Foundation and others; COMO-GMC ClinicalTrials.gov number, NCT03847753.).</t>
   </si>
   <si>
@@ -2221,9 +2020,6 @@
     <t>队列研究显示，非恶性子宫切除术中，双侧输卵管卵巢切除术增加50岁以下女性全因死亡率，但对50岁及以上女性生存无负面影响。</t>
   </si>
   <si>
-    <t>前瞻性队列研究发现，习惯性补充鱼油与全因死亡率和心血管疾病死亡率降低相关，对心血管事件有边际保护作用。</t>
-  </si>
-  <si>
     <t>前瞻性队列研究发现红肉摄入增加冠心病风险，用植物蛋白等替代可降低风险。</t>
   </si>
   <si>
@@ -2239,9 +2035,6 @@
     <t>随机对照试验显示，非专业健康工作者主导的症状评估干预可显著降低老年癌症患者的急诊使用率、住院率和总医疗费用。</t>
   </si>
   <si>
-    <t>前瞻性队列研究发现，砷暴露水平降低与慢性病（包括癌症和心血管疾病）死亡率显著下降相关。</t>
-  </si>
-  <si>
     <t>随机对照试验显示，基于风险的乳腺癌筛查在晚期癌症检出方面不劣于年度筛查，但未降低活检率，为个体化筛查提供了证据。</t>
   </si>
   <si>
@@ -2284,9 +2077,6 @@
     <t>回顾性汇总分析发现，未接受化疗的早期三阴性乳腺癌患者中，肿瘤浸润淋巴细胞丰度越高，生存预后越好。</t>
   </si>
   <si>
-    <t>前瞻性队列研究证实，基于VCTE的Agile评分能准确预测MASLD患者的肝脏相关事件，可作为肝活检的替代方案。</t>
-  </si>
-  <si>
     <t>一项观察性研究显示，2013-2019年美国加州和佐治亚州癌症患者中仅6.8%接受了胚系基因检测，且非西班牙裔白人患者检测率高于亚裔、黑人和西班牙裔患者。</t>
   </si>
   <si>
@@ -2311,18 +2101,12 @@
     <t>探索性双重差分研究显示，肿瘤护理模式在实施前三年与化疗期间医保支付小幅减少相关，但对多数利用、质量和患者体验指标无显著影响。</t>
   </si>
   <si>
-    <t>回顾性队列研究显示，相比非手术治疗，减重手术可显著降低NASH肥胖患者的主要不良肝脏和心血管事件风险。</t>
-  </si>
-  <si>
     <t>建模研究显示，从45岁开始结直肠癌筛查可高效平衡结肠镜负担与生命年获益，为更新筛查指南提供依据。</t>
   </si>
   <si>
     <t>模拟建模研究显示，针对50-80岁、吸烟≥20包年人群的LDCT筛查，相比2013年USPSTF标准，能更有效减少肺癌死亡并降低筛查资格差异。</t>
   </si>
   <si>
-    <t>观察性队列研究发现，少数族裔Medicare Advantage参保者在门诊护理获取和质量指标上优于传统Medicare，但总体上仍低于白人/多种族参保者。</t>
-  </si>
-  <si>
     <t>对55个中低收入国家横断面研究发现，30-49岁女性宫颈癌筛查中位终身患病率仅44%，存在显著地区差异，提示需加强筛查推广。</t>
   </si>
   <si>
@@ -2335,9 +2119,6 @@
     <t>横断面研究显示，在检测癌症易感基因致病性变异方面，深度学习方法比标准方法具有更高的敏感性和特异性。</t>
   </si>
   <si>
-    <t>美国成人队列研究显示，每日步数增加与全因死亡率降低显著相关，步数强度无独立关联。</t>
-  </si>
-  <si>
     <t>一项美国公众横断面调查显示，多数人对医疗机构向感恩患者募捐的某些做法持保留态度，尤其担忧影响医患关系。</t>
   </si>
   <si>
@@ -2362,21 +2143,12 @@
     <t>该首次人体病例系列研究表明，异体CD19 CAR NK细胞疗法治疗难治性系统性红斑狼疮安全有效，为自身免疫病治疗提供了新选择。</t>
   </si>
   <si>
-    <t>本研究为全球疾病负担2023的系统分析，发现胃癌是全球年龄标准化死亡率显著下降的主要死因之一，揭示了全球死亡模式的长期趋势和差异。</t>
-  </si>
-  <si>
     <t>全球疾病负担2023研究系统分析了1990-2023年204个国家47种癌症的负担、归因风险及至2050年预测，为全球癌症防控提供关键数据。</t>
   </si>
   <si>
     <t>全球真实世界研究揭示，高收入与中低收入国家在乳腺癌、宫颈癌和卵巢癌的诊疗模式、指南依从性及治疗延迟方面存在显著差异。</t>
   </si>
   <si>
-    <t>回顾性分析显示，2000-2020年NICE推荐的新药虽带来健康获益，但总体人群健康影响为负，净损失约125万QALYs。</t>
-  </si>
-  <si>
-    <t>前瞻性队列研究发现，免疫抑制人群中可检测到抗S抗体与降低奥密克戎期感染及住院风险显著相关，提示抗体检测可指导个体化防护。</t>
-  </si>
-  <si>
     <t>I期试验显示，iPSC来源的CAR-NK细胞疗法FT596单用或联用利妥昔单抗治疗B细胞淋巴瘤耐受性良好，能诱导深度持久缓解。</t>
   </si>
   <si>
@@ -2407,9 +2179,6 @@
     <t>对美国2000-2019年死亡数据的系统分析显示，不同种族、民族和地区间的死亡率存在普遍且显著的差异。</t>
   </si>
   <si>
-    <t>前瞻性队列研究开发并验证了基于常规指标的LiverRisk评分，能有效预测普通人群的肝纤维化及肝相关不良结局风险，有助于风险分层和早期干预。</t>
-  </si>
-  <si>
     <t>前瞻性队列研究证实多癌种早期检测血液测试可行，但需进一步研究其临床效用。</t>
   </si>
   <si>
@@ -2422,9 +2191,6 @@
     <t>服务评估显示，在邀请函中加入行为科学信息可显著提高肺癌筛查参与率，推荐推广。</t>
   </si>
   <si>
-    <t>方法学研究：使用β回归评估体重管理干预对HbA1c的异质性影响，发现该方法能更好反映HbA1c分布并提高成本效益评估准确性。</t>
-  </si>
-  <si>
     <t>本研究通过混合方法开发了一个跨烟草、酒精及高脂盐糖食品的综合性预防行动框架，包含三大推动因素和五项关键行动，并获得了公众支持。</t>
   </si>
   <si>
@@ -2464,9 +2230,6 @@
     <t>回顾性研究显示，威尔士肠癌筛查项目暂停后恢复期间，总体参与率仍超标准，但部分群体参与率持续偏低，需针对性干预。</t>
   </si>
   <si>
-    <t>一项针对美国2000-2019年县级种族/族裔预期寿命的系统分析，揭示了广泛且持久的健康差异，强调了地方数据对解决健康不平等的重要性。</t>
-  </si>
-  <si>
     <t>基于美国SEER和NCDB数据库的队列分析发现，黑人原发性脑肿瘤患者被建议不进行手术切除的几率显著高于白人患者，提示存在种族差异。</t>
   </si>
   <si>
@@ -2476,9 +2239,6 @@
     <t>回顾性分析显示，近20年实体瘤I期试验总体缓解率翻倍至12.2%，治疗相关死亡率稳定在0.7%，为患者参与决策提供依据。</t>
   </si>
   <si>
-    <t>一项跨国观察性研究发现，国家大流行防备指数与标准化新冠感染率或病死率无显著关联，而政府信任、人际信任和低腐败水平与较低感染率相关。</t>
-  </si>
-  <si>
     <t>一项I/II期研究显示，可逆性BTK抑制剂pirtobrutinib在经治B细胞恶性肿瘤患者中安全有效，总缓解率达52%-62%。</t>
   </si>
   <si>
@@ -2527,9 +2287,6 @@
     <t>建模分析显示，在低收入国家实施女孩HPV疫苗接种结合筛查，可于本世纪末消除宫颈癌，高覆盖率是关键。</t>
   </si>
   <si>
-    <t>丹麦队列研究发现童年逆境轨迹与成年早期死亡率相关，多重逆境者死亡风险显著增高，需公共卫生关注。</t>
-  </si>
-  <si>
     <t>回顾性队列研究显示，儿童及青少年医疗影像辐射暴露与血液系统癌症风险呈剂量依赖性增加，支持临床影像使用决策。</t>
   </si>
   <si>
@@ -2548,9 +2305,6 @@
     <t>回顾性队列研究发现，肿瘤浸润性克隆造血（TI-CH）与非小细胞肺癌患者死亡或复发风险增加相关，并重塑肿瘤免疫微环境。</t>
   </si>
   <si>
-    <t>一项I-IIa期前瞻性队列研究显示，fidanacogene elaparvovec治疗B型血友病3-6年安全有效，长期维持轻度凝血因子IX活性且年出血率低。</t>
-  </si>
-  <si>
     <t>前瞻性队列研究显示，基于多基因风险评分对高危人群进行前列腺癌筛查，相比传统PSA或MRI方法，能更有效地发现具有临床意义的疾病。</t>
   </si>
   <si>
@@ -2662,9 +2416,6 @@
     <t>II期单臂试验显示，HIF-2α抑制剂belzutifan对VHL病相关肾细胞癌有效，客观缓解率达49%，且对胰腺和中枢神经系统病变也有活性。</t>
   </si>
   <si>
-    <t>英国10万基因组计划试点研究显示，全基因组测序可将罕见病诊断率提高至25%，其中14%需结合研究与自动化方法，对临床决策有直接影响。</t>
-  </si>
-  <si>
     <t>一项II期试验显示，维莫非尼联合利妥昔单抗治疗难治/复发毛细胞白血病，87%患者获完全缓解，且缓解持久。</t>
   </si>
   <si>
@@ -2728,9 +2479,6 @@
     <t>真实世界研究显示，2013-2016年美国非小细胞肺癌死亡率大幅下降，生存率显著提高，主要归因于靶向治疗的应用。</t>
   </si>
   <si>
-    <t>一项II期临床试验显示，Selumetinib治疗儿童不可手术丛状神经纤维瘤，70%患者获得部分缓解，并显著改善疼痛和生活质量。</t>
-  </si>
-  <si>
     <t>丹麦全国性回顾性队列研究显示，大多数精神障碍会增加后续罹患特定内科疾病的风险，中位风险比为1.37。</t>
   </si>
   <si>
@@ -2809,102 +2557,99 @@
     <t>多种成人发病癌症</t>
   </si>
   <si>
+    <t>乳腺癌；宫颈癌；卵巢癌</t>
+  </si>
+  <si>
+    <t>B细胞淋巴瘤</t>
+  </si>
+  <si>
+    <t>范可尼贫血</t>
+  </si>
+  <si>
+    <t>早期乳腺癌</t>
+  </si>
+  <si>
+    <t>大B细胞淋巴瘤</t>
+  </si>
+  <si>
+    <t>浸润性宫颈癌</t>
+  </si>
+  <si>
+    <t>13种与体力活动相关的癌症（复合终点）</t>
+  </si>
+  <si>
+    <t>癌症（泛指多种癌症）</t>
+  </si>
+  <si>
+    <t>乳腺癌；结直肠癌；宫颈癌</t>
+  </si>
+  <si>
+    <t>晚期皮肤T细胞淋巴瘤</t>
+  </si>
+  <si>
+    <t>儿童期常见癌症</t>
+  </si>
+  <si>
+    <t>儿童及青少年癌症（包括白血病、恶性上皮肿瘤及黑色素瘤等）</t>
+  </si>
+  <si>
+    <t>脑膜瘤；胶质母细胞瘤；垂体腺瘤；前庭神经鞘瘤；星形细胞瘤；少突胶质细胞瘤</t>
+  </si>
+  <si>
+    <t>实体瘤</t>
+  </si>
+  <si>
+    <t>B细胞恶性肿瘤（包括慢性淋巴细胞白血病、小淋巴细胞淋巴瘤、套细胞淋巴瘤）</t>
+  </si>
+  <si>
+    <t>多发性骨髓瘤</t>
+  </si>
+  <si>
+    <t>儿童癌症（多种类型）</t>
+  </si>
+  <si>
+    <t>乳腺癌；结直肠癌；胃癌</t>
+  </si>
+  <si>
+    <t>B细胞前体急性淋巴细胞白血病</t>
+  </si>
+  <si>
+    <t>多种癌症（包括乳腺癌、前列腺癌等）</t>
+  </si>
+  <si>
+    <t>血液系统癌症（淋巴癌、髓系癌症或急性白血病、组织细胞或树突状细胞癌）</t>
+  </si>
+  <si>
+    <t>遗传性和散发性乳头状肾细胞癌</t>
+  </si>
+  <si>
+    <t>错配修复缺陷实体瘤</t>
+  </si>
+  <si>
+    <t>NRG1融合阳性实体瘤（包括非小细胞肺癌、胰腺癌等）</t>
+  </si>
+  <si>
+    <t>错配修复缺陷结肠癌</t>
+  </si>
+  <si>
+    <t>NF2相关神经鞘瘤病</t>
+  </si>
+  <si>
+    <t>弥漫性大B细胞淋巴瘤</t>
+  </si>
+  <si>
+    <t>CD7阳性白血病或淋巴瘤</t>
+  </si>
+  <si>
+    <t>肺泡软组织肉瘤</t>
+  </si>
+  <si>
+    <t>小细胞肺癌</t>
+  </si>
+  <si>
     <t>胃癌</t>
   </si>
   <si>
-    <t>乳腺癌；宫颈癌；卵巢癌</t>
-  </si>
-  <si>
-    <t>淋巴系统恶性肿瘤</t>
-  </si>
-  <si>
-    <t>B细胞淋巴瘤</t>
-  </si>
-  <si>
-    <t>范可尼贫血</t>
-  </si>
-  <si>
-    <t>早期乳腺癌</t>
-  </si>
-  <si>
-    <t>大B细胞淋巴瘤</t>
-  </si>
-  <si>
-    <t>浸润性宫颈癌</t>
-  </si>
-  <si>
-    <t>13种与体力活动相关的癌症（复合终点）</t>
-  </si>
-  <si>
-    <t>癌症（泛指多种癌症）</t>
-  </si>
-  <si>
-    <t>乳腺癌；结直肠癌；宫颈癌</t>
-  </si>
-  <si>
-    <t>晚期皮肤T细胞淋巴瘤</t>
-  </si>
-  <si>
-    <t>儿童期常见癌症</t>
-  </si>
-  <si>
-    <t>儿童及青少年癌症（包括白血病、恶性上皮肿瘤及黑色素瘤等）</t>
-  </si>
-  <si>
-    <t>脑膜瘤；胶质母细胞瘤；垂体腺瘤；前庭神经鞘瘤；星形细胞瘤；少突胶质细胞瘤</t>
-  </si>
-  <si>
-    <t>实体瘤</t>
-  </si>
-  <si>
-    <t>B细胞恶性肿瘤（包括慢性淋巴细胞白血病、小淋巴细胞淋巴瘤、套细胞淋巴瘤）</t>
-  </si>
-  <si>
-    <t>多发性骨髓瘤</t>
-  </si>
-  <si>
-    <t>儿童癌症（多种类型）</t>
-  </si>
-  <si>
-    <t>乳腺癌；结直肠癌；胃癌</t>
-  </si>
-  <si>
-    <t>B细胞前体急性淋巴细胞白血病</t>
-  </si>
-  <si>
-    <t>多种癌症（包括乳腺癌、前列腺癌等）</t>
-  </si>
-  <si>
-    <t>血液系统癌症（淋巴癌、髓系癌症或急性白血病、组织细胞或树突状细胞癌）</t>
-  </si>
-  <si>
-    <t>遗传性和散发性乳头状肾细胞癌</t>
-  </si>
-  <si>
-    <t>错配修复缺陷实体瘤</t>
-  </si>
-  <si>
-    <t>NRG1融合阳性实体瘤（包括非小细胞肺癌、胰腺癌等）</t>
-  </si>
-  <si>
-    <t>错配修复缺陷结肠癌</t>
-  </si>
-  <si>
-    <t>NF2相关神经鞘瘤病</t>
-  </si>
-  <si>
-    <t>弥漫性大B细胞淋巴瘤</t>
-  </si>
-  <si>
-    <t>CD7阳性白血病或淋巴瘤</t>
-  </si>
-  <si>
-    <t>肺泡软组织肉瘤</t>
-  </si>
-  <si>
-    <t>小细胞肺癌</t>
-  </si>
-  <si>
     <t>结直肠癌；乳腺癌</t>
   </si>
   <si>
@@ -2980,9 +2725,6 @@
     <t>甲状腺髓样癌</t>
   </si>
   <si>
-    <t>神经纤维瘤病1型相关的不可手术丛状神经纤维瘤</t>
-  </si>
-  <si>
     <t>观察性研究</t>
   </si>
   <si>
@@ -3070,66 +2812,57 @@
     <t>开放标签、单臂、前瞻性、首次人体病例系列研究</t>
   </si>
   <si>
+    <t>系统分析/疾病负担研究</t>
+  </si>
+  <si>
+    <t>真实世界研究</t>
+  </si>
+  <si>
+    <t>首次人体试验</t>
+  </si>
+  <si>
+    <t>开放标签、研究者发起的临床试验</t>
+  </si>
+  <si>
+    <t>单中心、开放标签、剂量递增I期试验</t>
+  </si>
+  <si>
+    <t>前瞻性非随机两臂研究</t>
+  </si>
+  <si>
+    <t>系统综述</t>
+  </si>
+  <si>
+    <t>系统分析/观察性研究</t>
+  </si>
+  <si>
+    <t>服务评估</t>
+  </si>
+  <si>
+    <t>混合方法研究</t>
+  </si>
+  <si>
+    <t>定性研究</t>
+  </si>
+  <si>
+    <t>前瞻性匹配对照研究</t>
+  </si>
+  <si>
+    <t>多中心、基于医院的回顾性队列研究</t>
+  </si>
+  <si>
+    <t>社区干预项目评估</t>
+  </si>
+  <si>
+    <t>回顾性登记研究</t>
+  </si>
+  <si>
+    <t>基于注册登记的队列分析</t>
+  </si>
+  <si>
     <t>系统分析</t>
   </si>
   <si>
-    <t>系统分析/疾病负担研究</t>
-  </si>
-  <si>
-    <t>真实世界研究</t>
-  </si>
-  <si>
-    <t>回顾性分析</t>
-  </si>
-  <si>
-    <t>首次人体试验</t>
-  </si>
-  <si>
-    <t>开放标签、研究者发起的临床试验</t>
-  </si>
-  <si>
-    <t>单中心、开放标签、剂量递增I期试验</t>
-  </si>
-  <si>
-    <t>前瞻性非随机两臂研究</t>
-  </si>
-  <si>
-    <t>系统综述</t>
-  </si>
-  <si>
-    <t>系统分析/观察性研究</t>
-  </si>
-  <si>
-    <t>服务评估</t>
-  </si>
-  <si>
-    <t>随机对照试验</t>
-  </si>
-  <si>
-    <t>混合方法研究</t>
-  </si>
-  <si>
-    <t>定性研究</t>
-  </si>
-  <si>
-    <t>前瞻性匹配对照研究</t>
-  </si>
-  <si>
-    <t>多中心、基于医院的回顾性队列研究</t>
-  </si>
-  <si>
-    <t>社区干预项目评估</t>
-  </si>
-  <si>
-    <t>回顾性登记研究</t>
-  </si>
-  <si>
-    <t>观察性研究/系统分析</t>
-  </si>
-  <si>
-    <t>基于注册登记的队列分析</t>
-  </si>
-  <si>
     <t>首次人体、多中心、开放标签临床试验</t>
   </si>
   <si>
@@ -3289,9 +3022,6 @@
     <t>I-II期</t>
   </si>
   <si>
-    <t>I-IIa期</t>
-  </si>
-  <si>
     <t>Ib-II期</t>
   </si>
   <si>
@@ -3334,9 +3064,6 @@
     <t>双侧输卵管卵巢切除术与全因死亡率关联存在年龄差异：&lt;50岁增加风险，≥50岁无负面影响；风险变化主要源于非癌症死亡增加；为绝经前女性手术决策提供重要生存风险证据。</t>
   </si>
   <si>
-    <t>发现习惯性补充鱼油与全因死亡率降低13%相关；发现鱼油补充与心血管疾病死亡率降低16%相关；发现高血压患者中鱼油对心血管事件的保护作用更强</t>
-  </si>
-  <si>
     <t>红肉摄入与冠心病风险呈正相关；植物蛋白替代红肉可降低冠心病风险；替代分析量化了不同食物替代的效果。</t>
   </si>
   <si>
@@ -3352,9 +3079,6 @@
     <t>非专业健康工作者主导的电话症状评估显著降低急诊使用率53%；该干预显著降低住院率68%并减少人均总费用1.2万美元；在死亡患者中，干预组30天内急诊使用率降低68%，在医疗机构死亡比例降低75%</t>
   </si>
   <si>
-    <t>首次在大型前瞻性队列中证实砷暴露减少与慢性病死亡率下降的关联；发现尿砷每降低197μg/g肌酐，慢性病死亡率降低22%；证明从高暴露降至低暴露水平的人群，其死亡率风险与持续低暴露人群相似。</t>
-  </si>
-  <si>
     <t>基于风险（含基因检测）的筛查可安全分层并调整筛查强度；在晚期癌症检出方面非劣效于年度筛查；尽管减少了乳腺X线摄影，但未降低活检率。</t>
   </si>
   <si>
@@ -3397,9 +3121,6 @@
     <t>明确了未化疗早期三阴性乳腺癌患者中TIL丰度与生存的独立关联；量化了TIL每增加10%带来的生存获益（如DRFS风险比0.87）；证实TIL丰度是该人群的预后因素。</t>
   </si>
   <si>
-    <t>Agile评分对肝脏相关事件的预测准确性最高；动态Agile评分变化与风险显著相关；Agile评分在临床实践和试验中具有应用价值。</t>
-  </si>
-  <si>
     <t>首次大规模描述癌症患者胚系基因检测的流行率；发现检测率存在显著的种族和民族差异；证实大多数致病性变异出现在指南推荐检测的基因中。</t>
   </si>
   <si>
@@ -3424,18 +3145,12 @@
     <t>肿瘤护理模式与6个月化疗期间总支付额小幅相对减少相关；支付减少主要见于高风险患者，低风险患者支付反而相对增加；对大多数住院、急诊、生存率等利用和质量指标无显著影响。</t>
   </si>
   <si>
-    <t>首次证实减重手术可降低NASH患者主要不良肝脏结局风险；首次证实减重手术可降低NASH患者主要不良心血管事件风险；研究采用重叠加权法平衡基线特征，增强了结果可靠性。</t>
-  </si>
-  <si>
     <t>首次系统建模比较多种筛查策略的效益与负担；发现45岁开始筛查为高效平衡点；证实筛查获益在不同性别、种族和风险人群中相似</t>
   </si>
   <si>
     <t>识别出高效筛查策略：起始年龄50-55岁、停止80岁、吸烟≥20包年；相比2013年USPSTF标准，新策略可增加获益（避免更多死亡、获得更多生命年）但也会增加部分危害（如假阳性、过度诊断）；基于风险模型的策略可能带来更多获益和更少辐射相关死亡，但过度诊断更多。</t>
   </si>
   <si>
-    <t>比较少数族裔在Medicare Advantage与传统Medicare间的差异；发现少数族裔在Medicare Advantage中多项指标更优；揭示少数族裔在两种计划中均存在护理不平等</t>
-  </si>
-  <si>
     <t>覆盖55个中低收入国家的大规模横断面数据；揭示宫颈癌筛查率存在显著地区差异（拉丁美洲最高84.6%，撒哈拉以南非洲最低16.9%）；发现农村、低教育、低收入女性筛查率普遍较低</t>
   </si>
   <si>
@@ -3448,9 +3163,6 @@
     <t>深度学习方法在癌症易感基因中检测出更多携带致病性变异的患者；深度学习方法在黑色素瘤队列的ACMG基因中敏感性显著更高；深度学习方法在孟德尔基因中敏感性更高。</t>
   </si>
   <si>
-    <t>每日步数≥8000步与全因死亡率降低51%相关；步数强度在调整总步数后与死亡率无显著关联；研究基于加速度计客观测量步数，样本具有全国代表性。</t>
-  </si>
-  <si>
     <t>近半数受访者认为医生在征得患者同意后将其姓名提供给募捐部门是可接受的；超过八成受访者认为医生与患者讨论捐赠可能干扰医患关系；对于大额捐赠者，提供更优病房是相对最被接受的感谢方式。</t>
   </si>
   <si>
@@ -3475,21 +3187,12 @@
     <t>首次评估异体CD19 CAR NK细胞疗法在系统性红斑狼疮患者中的安全性与疗效；未观察到神经毒性等严重不良事件及剂量限制性毒性；在长期随访患者中，67%达到疾病缓解和低疾病活动状态。</t>
   </si>
   <si>
-    <t>1. 提供了1990-2023年204个国家/地区及660个次国家级地点292种死因的全面估计；2. 量化了全因及特定死因的平均死亡年龄和70岁前死亡概率，揭示了显著的性别和地区差异；3. 方法学改进包括对COVID-19死亡误分类的校正和CODEm建模框架的更新，增强了估计的准确性。</t>
-  </si>
-  <si>
     <t>提供了1990-2023年全球癌症发病率、死亡率及DALYs的详细估计，并预测至2050年；评估了44种风险因素导致的癌症死亡负担；揭示了癌症负担增长在低收入和中等收入国家更为显著。</t>
   </si>
   <si>
     <t>首次基于全球39国103个登记处的高分辨率数据，描绘了三种常见女性癌症的诊疗全景；发现高收入国家早期诊断比例更高，但指南依从性在各国间差异巨大，尤其在乳腺癌手术和放疗方面；揭示了中低收入国家治疗延迟可达数月甚至一年，且老年患者接受指南推荐治疗的可能性更低。</t>
   </si>
   <si>
-    <t>评估NICE推荐新药对人群健康的净影响；发现新药覆盖导致健康净损失约125万QALYs；揭示新药资源分配存在个体获益与人群健康损失间的权衡。</t>
-  </si>
-  <si>
-    <t>首次在大型免疫抑制人群中评估抗S抗体与奥密克戎期感染结局的关联；发现抗体阳性可显著降低感染率（IRR 0.57-0.69）和住院率（IRR 0.32-0.46）；提出抗体检测可作为个体化防护策略的实用工具。</t>
-  </si>
-  <si>
     <t>首次在人体试验中评估iPSC来源的CAR-NK细胞疗法；疗法耐受性良好，未观察到神经毒性；初步确定推荐II期剂量为每周期1.8×10^9细胞分三次给药</t>
   </si>
   <si>
@@ -3520,9 +3223,6 @@
     <t>首次在县级层面系统量化了美国多种族、多死因的死亡率差异；揭示了种族健康差异在全国各县普遍存在，但程度因地区和死因而异；发现美洲印第安人/阿拉斯加原住民和黑人群体在所有死因中的死亡率均显著高于白人群体。</t>
   </si>
   <si>
-    <t>开发了基于年龄、性别和6项常规实验室指标的LiverRisk评分；评分在外部验证中预测肝纤维化的AUC达0.83，优于传统FIB-4指数；高风险组肝相关死亡风险比最低风险组高471倍，10年预测AUC达0.90。</t>
-  </si>
-  <si>
     <t>首次大规模前瞻性评估多癌种早期检测血液测试的可行性；检测到癌症信号的参与者中38%确诊为癌症（真阳性）；假阳性结果导致更长的诊断解决时间（中位162天）。</t>
   </si>
   <si>
@@ -3535,9 +3235,6 @@
     <t>行为科学信息显著提高筛查参与率；干预组参与率比对照组高37.5%；年龄、社会经济地位、性别和吸烟状态影响参与可能性</t>
   </si>
   <si>
-    <t>采用β回归模型捕捉HbA1c对体重减轻的异质性响应；异质性效应模型比平均效应模型更准确地再现干预后HbA1c的偏态分布；β回归方法显示干预更具成本效益，增量净效益更高。</t>
-  </si>
-  <si>
     <t>开发了跨健康危害产品的综合性预防行动框架；经济分析量化了超政府建议的消费及行业收入；公众调查显示对征税及政策免受行业影响有强烈支持。</t>
   </si>
   <si>
@@ -3577,9 +3274,6 @@
     <t>项目暂停后恢复期间总体参与率仍高于威尔士60%标准；暂停未加剧参与率不平等现象；男性、年轻者、贫困地区居民及少数族裔参与率持续低于标准</t>
   </si>
   <si>
-    <t>首次在县级层面系统估计了五个种族/族裔群体20年的预期寿命；发现美国印第安人或阿拉斯加原住民群体预期寿命在此期间无改善；揭示了不同种族/族裔群体与白人相比的预期寿命差异在全国与县级层面的变化模式存在差异</t>
-  </si>
-  <si>
     <t>发现黑人患者在多种原发性脑肿瘤（如脑膜瘤、胶质母细胞瘤等）中被建议不手术的几率显著高于白人；研究控制了临床、人口统计学及社会经济等混杂因素；使用两个独立数据库（SEER和NCDB）进行验证，结果一致。</t>
   </si>
   <si>
@@ -3589,9 +3283,6 @@
     <t>总体缓解率从2000-05年的9.6%提升至2013-19年的18.0%；治疗相关死亡率稳定在0.7%未随时间增加；联合疗法缓解率(15.8%)显著高于单药疗法(3.5%)</t>
   </si>
   <si>
-    <t>研究发现国家大流行防备指数与标准化新冠感染率或病死率无显著关联；政府信任、人际信任和低腐败水平与较低感染率显著相关；人口年龄结构和人均GDP是解释新冠病死率跨国差异的主要因素。</t>
-  </si>
-  <si>
     <t>首次评估可逆性BTK抑制剂pirtobrutinib在经治B细胞恶性肿瘤中的疗效；在既往使用共价BTK抑制剂耐药或不耐受的患者中仍显示显著疗效（CLL/SLL总缓解率62%）；安全性良好，未达到最大耐受剂量，推荐II期剂量为200mg/天</t>
   </si>
   <si>
@@ -3640,9 +3331,6 @@
     <t>仅女孩疫苗接种可使89.4%国家宫颈癌发病率降至10/10万以下；结合两次筛查可将发病率进一步降至0.7/10万并额外避免1210万病例；筛查可将消除时间提前11-31年。</t>
   </si>
   <si>
-    <t>识别五种童年逆境轨迹；多重逆境者全因死亡风险增高4.54倍；意外、自杀和癌症是主要死因</t>
-  </si>
-  <si>
     <t>首次大规模量化儿童医疗影像对骨髓的辐射剂量与血液癌风险关联；发现风险随累积剂量增加，如50-100 mGy相对风险达3.59；估计10.1%的血液癌可归因于医疗影像辐射，CT等高风险。</t>
   </si>
   <si>
@@ -3661,9 +3349,6 @@
     <t>TI-CH在NSCLC患者中独立预测死亡或复发风险增加；TET2突变是TI-CH最强的遗传预测因子；TI-CH重塑肿瘤免疫微环境并加速肿瘤生长。</t>
   </si>
   <si>
-    <t>AAV基因治疗B型血友病长期（3-6年）安全性良好，无治疗相关严重不良事件；单次低剂量（5×10¹¹ vg/kg）静脉输注可长期维持轻度凝血因子IX活性；治疗显著降低年出血率，10名参与者无治疗出血事件。</t>
-  </si>
-  <si>
     <t>多基因风险评分用于前列腺癌高危人群筛查；相比传统PSA或MRI方法，能更有效地发现具有临床意义的疾病；研究为前列腺癌精准筛查提供了新策略。</t>
   </si>
   <si>
@@ -3775,9 +3460,6 @@
     <t>HIF-2α抑制剂belzutifan对VHL病相关肾细胞癌客观缓解率达49%；对VHL病相关非肾细胞癌病变（如胰腺、中枢神经系统）也显示出活性；安全性良好，主要为1-2级不良事件。</t>
   </si>
   <si>
-    <t>全基因组测序在医疗系统中提高罕见病诊断率；结合研究与自动化方法可发现非编码、结构等变异；25%诊断结果对患者或亲属临床决策有直接影响</t>
-  </si>
-  <si>
     <t>联合方案在难治/复发患者中实现高完全缓解率（87%）；无化疗、非骨髓毒性方案带来持久缓解；微小残留病阴性与既往未接受BRAF抑制剂治疗者无复发生存期更长。</t>
   </si>
   <si>
@@ -3839,9 +3521,6 @@
   </si>
   <si>
     <t>首次在人群层面评估肺癌亚型死亡率趋势；发现NSCLC死亡率下降快于发病率，与靶向治疗批准时间相符；SCLC死亡率下降仅因发病率降低，生存率无改善。</t>
-  </si>
-  <si>
-    <t>70%患者获得确认的部分缓解，其中28例缓解持续≥1年；治疗后儿童报告的肿瘤疼痛强度平均降低2分，具有临床意义；在疼痛对日常功能的干扰、总体健康相关生活质量及功能结局方面观察到有临床意义的改善</t>
   </si>
   <si>
     <t>首次大规模评估10类精神障碍与9类内科疾病（含31种具体疾病）的关联；发现76/90对组合存在风险升高，中位风险比为1.37；风险随时间变化，绝对风险在0.6%至54.1%之间。</t>
@@ -4340,7 +4019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O183"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4401,34 +4080,34 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G2">
         <v>38749552</v>
       </c>
       <c r="H2" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="I2" t="s">
-        <v>724</v>
+        <v>657</v>
       </c>
       <c r="J2" t="s">
-        <v>906</v>
+        <v>822</v>
       </c>
       <c r="K2" t="s">
-        <v>989</v>
+        <v>903</v>
       </c>
       <c r="M2" t="s">
-        <v>1095</v>
+        <v>1005</v>
       </c>
       <c r="N2" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O2" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4439,34 +4118,34 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="G3">
         <v>38508682</v>
       </c>
       <c r="H3" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="I3" t="s">
-        <v>725</v>
+        <v>658</v>
       </c>
       <c r="J3" t="s">
-        <v>907</v>
+        <v>823</v>
       </c>
       <c r="K3" t="s">
-        <v>990</v>
+        <v>904</v>
       </c>
       <c r="M3" t="s">
-        <v>1096</v>
+        <v>1006</v>
       </c>
       <c r="N3" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O3" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4477,34 +4156,34 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="G4">
         <v>38267073</v>
       </c>
       <c r="H4" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="I4" t="s">
-        <v>726</v>
+        <v>659</v>
       </c>
       <c r="J4" t="s">
-        <v>908</v>
+        <v>824</v>
       </c>
       <c r="K4" t="s">
-        <v>991</v>
+        <v>905</v>
       </c>
       <c r="M4" t="s">
-        <v>1097</v>
+        <v>1007</v>
       </c>
       <c r="N4" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O4" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4515,31 +4194,31 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="G5">
         <v>38418086</v>
       </c>
       <c r="H5" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="I5" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
       <c r="K5" t="s">
-        <v>992</v>
+        <v>906</v>
       </c>
       <c r="M5" t="s">
-        <v>1098</v>
+        <v>1008</v>
       </c>
       <c r="N5" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O5" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4550,31 +4229,31 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="G6">
         <v>37137493</v>
       </c>
       <c r="H6" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="I6" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="K6" t="s">
-        <v>993</v>
+        <v>907</v>
       </c>
       <c r="M6" t="s">
-        <v>1099</v>
+        <v>1009</v>
       </c>
       <c r="N6" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O6" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4585,34 +4264,34 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F7" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="G7">
         <v>37311588</v>
       </c>
       <c r="H7" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="I7" t="s">
-        <v>729</v>
+        <v>662</v>
       </c>
       <c r="J7" t="s">
-        <v>909</v>
+        <v>825</v>
       </c>
       <c r="K7" t="s">
-        <v>994</v>
+        <v>908</v>
       </c>
       <c r="M7" t="s">
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="N7" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O7" t="s">
-        <v>1279</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4623,34 +4302,34 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="G8">
         <v>37532284</v>
       </c>
       <c r="H8" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="I8" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
       <c r="J8" t="s">
-        <v>910</v>
+        <v>826</v>
       </c>
       <c r="K8" t="s">
-        <v>991</v>
+        <v>905</v>
       </c>
       <c r="M8" t="s">
-        <v>1101</v>
+        <v>1011</v>
       </c>
       <c r="N8" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O8" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4661,34 +4340,34 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="G9">
         <v>35640960</v>
       </c>
       <c r="H9" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="I9" t="s">
-        <v>731</v>
+        <v>664</v>
       </c>
       <c r="J9" t="s">
-        <v>906</v>
+        <v>822</v>
       </c>
       <c r="K9" t="s">
-        <v>989</v>
+        <v>903</v>
       </c>
       <c r="M9" t="s">
-        <v>1102</v>
+        <v>1012</v>
       </c>
       <c r="N9" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O9" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4699,34 +4378,34 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F10" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="G10">
         <v>34497044</v>
       </c>
       <c r="H10" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="I10" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
       <c r="J10" t="s">
-        <v>911</v>
+        <v>827</v>
       </c>
       <c r="K10" t="s">
-        <v>995</v>
+        <v>909</v>
       </c>
       <c r="M10" t="s">
-        <v>1103</v>
+        <v>1013</v>
       </c>
       <c r="N10" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O10" t="s">
-        <v>1280</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4737,31 +4416,31 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F11" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="G11">
         <v>34535466</v>
       </c>
       <c r="H11" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="I11" t="s">
-        <v>733</v>
+        <v>666</v>
       </c>
       <c r="K11" t="s">
-        <v>996</v>
+        <v>910</v>
       </c>
       <c r="M11" t="s">
-        <v>1104</v>
+        <v>1014</v>
       </c>
       <c r="N11" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O11" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4772,34 +4451,34 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="G12">
         <v>34880044</v>
       </c>
       <c r="H12" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="I12" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
       <c r="J12" t="s">
-        <v>912</v>
+        <v>828</v>
       </c>
       <c r="K12" t="s">
-        <v>991</v>
+        <v>905</v>
       </c>
       <c r="M12" t="s">
-        <v>1105</v>
+        <v>1015</v>
       </c>
       <c r="N12" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O12" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4810,66 +4489,66 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="G13">
-        <v>32131999</v>
+        <v>33268459</v>
       </c>
       <c r="H13" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="I13" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
       <c r="K13" t="s">
-        <v>996</v>
+        <v>910</v>
       </c>
       <c r="M13" t="s">
-        <v>1106</v>
+        <v>1016</v>
       </c>
       <c r="N13" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O13" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F14" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="G14">
-        <v>33268459</v>
+        <v>40522635</v>
       </c>
       <c r="H14" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="I14" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
       <c r="K14" t="s">
-        <v>996</v>
+        <v>911</v>
       </c>
       <c r="M14" t="s">
-        <v>1107</v>
+        <v>1017</v>
       </c>
       <c r="N14" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O14" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4880,31 +4559,34 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F15" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="G15">
-        <v>40522635</v>
+        <v>40455622</v>
       </c>
       <c r="H15" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="I15" t="s">
-        <v>737</v>
+        <v>670</v>
+      </c>
+      <c r="J15" t="s">
+        <v>829</v>
       </c>
       <c r="K15" t="s">
-        <v>997</v>
+        <v>912</v>
       </c>
       <c r="M15" t="s">
-        <v>1108</v>
+        <v>1018</v>
       </c>
       <c r="N15" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O15" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4915,34 +4597,34 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="G16">
-        <v>40455622</v>
+        <v>39680377</v>
       </c>
       <c r="H16" t="s">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="I16" t="s">
-        <v>738</v>
+        <v>671</v>
       </c>
       <c r="J16" t="s">
-        <v>913</v>
+        <v>829</v>
       </c>
       <c r="K16" t="s">
-        <v>998</v>
+        <v>903</v>
       </c>
       <c r="M16" t="s">
-        <v>1109</v>
+        <v>1019</v>
       </c>
       <c r="N16" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O16" t="s">
-        <v>1278</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="17" spans="3:15">
@@ -4953,34 +4635,34 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F17" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="G17">
-        <v>39680377</v>
+        <v>41468027</v>
       </c>
       <c r="H17" t="s">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="I17" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
       <c r="J17" t="s">
+        <v>830</v>
+      </c>
+      <c r="K17" t="s">
         <v>913</v>
       </c>
-      <c r="K17" t="s">
-        <v>989</v>
-      </c>
       <c r="M17" t="s">
-        <v>1110</v>
+        <v>1020</v>
       </c>
       <c r="N17" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O17" t="s">
-        <v>1281</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="18" spans="3:15">
@@ -4991,34 +4673,34 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F18" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="G18">
-        <v>41468027</v>
+        <v>41385349</v>
       </c>
       <c r="H18" t="s">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="I18" t="s">
-        <v>740</v>
+        <v>673</v>
       </c>
       <c r="J18" t="s">
-        <v>914</v>
+        <v>831</v>
       </c>
       <c r="K18" t="s">
-        <v>999</v>
+        <v>913</v>
       </c>
       <c r="M18" t="s">
-        <v>1111</v>
+        <v>1021</v>
       </c>
       <c r="N18" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O18" t="s">
-        <v>1282</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="19" spans="3:15">
@@ -5029,34 +4711,34 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F19" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="G19">
-        <v>41247717</v>
+        <v>38873722</v>
       </c>
       <c r="H19" t="s">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="I19" t="s">
-        <v>741</v>
+        <v>674</v>
       </c>
       <c r="J19" t="s">
+        <v>832</v>
+      </c>
+      <c r="K19" t="s">
         <v>914</v>
       </c>
-      <c r="K19" t="s">
-        <v>996</v>
-      </c>
       <c r="M19" t="s">
-        <v>1112</v>
+        <v>1022</v>
       </c>
       <c r="N19" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O19" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="20" spans="3:15">
@@ -5067,34 +4749,34 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="G20">
-        <v>41385349</v>
+        <v>39259563</v>
       </c>
       <c r="H20" t="s">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="I20" t="s">
-        <v>742</v>
+        <v>675</v>
       </c>
       <c r="J20" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="K20" t="s">
-        <v>999</v>
+        <v>913</v>
       </c>
       <c r="M20" t="s">
-        <v>1113</v>
+        <v>1023</v>
       </c>
       <c r="N20" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O20" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="21" spans="3:15">
@@ -5105,34 +4787,34 @@
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F21" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="G21">
-        <v>38873722</v>
+        <v>38583175</v>
       </c>
       <c r="H21" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="I21" t="s">
-        <v>743</v>
+        <v>676</v>
       </c>
       <c r="J21" t="s">
-        <v>916</v>
+        <v>827</v>
       </c>
       <c r="K21" t="s">
-        <v>1000</v>
+        <v>915</v>
       </c>
       <c r="M21" t="s">
-        <v>1114</v>
+        <v>1024</v>
       </c>
       <c r="N21" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O21" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="22" spans="3:15">
@@ -5143,34 +4825,34 @@
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="G22">
-        <v>39259563</v>
+        <v>38814624</v>
       </c>
       <c r="H22" t="s">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="I22" t="s">
-        <v>744</v>
+        <v>677</v>
       </c>
       <c r="J22" t="s">
-        <v>917</v>
+        <v>834</v>
       </c>
       <c r="K22" t="s">
-        <v>999</v>
+        <v>910</v>
       </c>
       <c r="M22" t="s">
-        <v>1115</v>
+        <v>1025</v>
       </c>
       <c r="N22" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O22" t="s">
-        <v>1278</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="23" spans="3:15">
@@ -5181,34 +4863,34 @@
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="G23">
-        <v>38583175</v>
+        <v>38687505</v>
       </c>
       <c r="H23" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="I23" t="s">
-        <v>745</v>
+        <v>678</v>
       </c>
       <c r="J23" t="s">
-        <v>911</v>
+        <v>831</v>
       </c>
       <c r="K23" t="s">
-        <v>1001</v>
+        <v>916</v>
       </c>
       <c r="M23" t="s">
-        <v>1116</v>
+        <v>1026</v>
       </c>
       <c r="N23" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O23" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="24" spans="3:15">
@@ -5219,34 +4901,34 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="G24">
-        <v>38814624</v>
+        <v>38583868</v>
       </c>
       <c r="H24" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
       <c r="I24" t="s">
-        <v>746</v>
+        <v>679</v>
       </c>
       <c r="J24" t="s">
-        <v>918</v>
+        <v>835</v>
       </c>
       <c r="K24" t="s">
-        <v>996</v>
+        <v>917</v>
       </c>
       <c r="M24" t="s">
-        <v>1117</v>
+        <v>1027</v>
       </c>
       <c r="N24" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O24" t="s">
-        <v>1283</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="25" spans="3:15">
@@ -5257,34 +4939,34 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="F25" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="G25">
-        <v>38687505</v>
+        <v>38261044</v>
       </c>
       <c r="H25" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="I25" t="s">
-        <v>747</v>
+        <v>680</v>
       </c>
       <c r="J25" t="s">
-        <v>915</v>
+        <v>836</v>
       </c>
       <c r="K25" t="s">
-        <v>1002</v>
+        <v>910</v>
       </c>
       <c r="M25" t="s">
-        <v>1118</v>
+        <v>1028</v>
       </c>
       <c r="N25" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O25" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="26" spans="3:15">
@@ -5295,34 +4977,34 @@
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="G26">
-        <v>38583868</v>
+        <v>38261043</v>
       </c>
       <c r="H26" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="I26" t="s">
-        <v>748</v>
+        <v>681</v>
       </c>
       <c r="J26" t="s">
-        <v>919</v>
+        <v>837</v>
       </c>
       <c r="K26" t="s">
-        <v>1003</v>
+        <v>918</v>
       </c>
       <c r="M26" t="s">
-        <v>1119</v>
+        <v>1029</v>
       </c>
       <c r="N26" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O26" t="s">
-        <v>1284</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -5333,34 +5015,34 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="F27" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G27">
-        <v>38261044</v>
+        <v>38059899</v>
       </c>
       <c r="H27" t="s">
-        <v>567</v>
+        <v>517</v>
       </c>
       <c r="I27" t="s">
-        <v>749</v>
+        <v>682</v>
       </c>
       <c r="J27" t="s">
-        <v>920</v>
+        <v>831</v>
       </c>
       <c r="K27" t="s">
-        <v>996</v>
+        <v>906</v>
       </c>
       <c r="M27" t="s">
-        <v>1120</v>
+        <v>1030</v>
       </c>
       <c r="N27" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O27" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="28" spans="3:15">
@@ -5371,34 +5053,34 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F28" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="G28">
-        <v>38261043</v>
+        <v>38227031</v>
       </c>
       <c r="H28" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
       <c r="I28" t="s">
-        <v>750</v>
+        <v>683</v>
       </c>
       <c r="J28" t="s">
-        <v>921</v>
+        <v>831</v>
       </c>
       <c r="K28" t="s">
-        <v>1004</v>
+        <v>919</v>
       </c>
       <c r="M28" t="s">
-        <v>1121</v>
+        <v>1031</v>
       </c>
       <c r="N28" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O28" t="s">
-        <v>1278</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -5409,34 +5091,31 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F29" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="G29">
-        <v>38059899</v>
+        <v>39418046</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="I29" t="s">
-        <v>751</v>
-      </c>
-      <c r="J29" t="s">
-        <v>915</v>
+        <v>684</v>
       </c>
       <c r="K29" t="s">
-        <v>992</v>
+        <v>906</v>
       </c>
       <c r="M29" t="s">
-        <v>1122</v>
+        <v>1032</v>
       </c>
       <c r="N29" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O29" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="30" spans="3:15">
@@ -5447,34 +5126,34 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F30" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="G30">
-        <v>38227031</v>
+        <v>39018030</v>
       </c>
       <c r="H30" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="I30" t="s">
-        <v>752</v>
+        <v>685</v>
       </c>
       <c r="J30" t="s">
-        <v>915</v>
+        <v>828</v>
       </c>
       <c r="K30" t="s">
-        <v>1005</v>
+        <v>905</v>
       </c>
       <c r="M30" t="s">
-        <v>1123</v>
+        <v>1033</v>
       </c>
       <c r="N30" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O30" t="s">
-        <v>1279</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="31" spans="3:15">
@@ -5485,31 +5164,34 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F31" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="G31">
-        <v>39418046</v>
+        <v>38563834</v>
       </c>
       <c r="H31" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="I31" t="s">
-        <v>753</v>
+        <v>686</v>
+      </c>
+      <c r="J31" t="s">
+        <v>838</v>
       </c>
       <c r="K31" t="s">
-        <v>992</v>
+        <v>920</v>
       </c>
       <c r="M31" t="s">
-        <v>1124</v>
+        <v>1034</v>
       </c>
       <c r="N31" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O31" t="s">
-        <v>1278</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="32" spans="3:15">
@@ -5520,34 +5202,34 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F32" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="G32">
-        <v>39018030</v>
+        <v>37276540</v>
       </c>
       <c r="H32" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="I32" t="s">
-        <v>754</v>
+        <v>687</v>
       </c>
       <c r="J32" t="s">
-        <v>912</v>
+        <v>839</v>
       </c>
       <c r="K32" t="s">
-        <v>991</v>
+        <v>903</v>
       </c>
       <c r="M32" t="s">
-        <v>1125</v>
+        <v>1035</v>
       </c>
       <c r="N32" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O32" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="33" spans="3:15">
@@ -5558,34 +5240,34 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F33" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="G33">
-        <v>38563834</v>
+        <v>37552302</v>
       </c>
       <c r="H33" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="I33" t="s">
-        <v>755</v>
+        <v>688</v>
       </c>
       <c r="J33" t="s">
-        <v>922</v>
+        <v>840</v>
       </c>
       <c r="K33" t="s">
-        <v>1006</v>
+        <v>910</v>
       </c>
       <c r="M33" t="s">
-        <v>1126</v>
+        <v>1036</v>
       </c>
       <c r="N33" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O33" t="s">
-        <v>1285</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="34" spans="3:15">
@@ -5596,34 +5278,34 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F34" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="G34">
-        <v>38512249</v>
+        <v>35670788</v>
       </c>
       <c r="H34" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
       <c r="I34" t="s">
-        <v>756</v>
+        <v>689</v>
       </c>
       <c r="J34" t="s">
-        <v>910</v>
+        <v>829</v>
       </c>
       <c r="K34" t="s">
-        <v>996</v>
+        <v>906</v>
       </c>
       <c r="M34" t="s">
-        <v>1127</v>
+        <v>1037</v>
       </c>
       <c r="N34" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O34" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="35" spans="3:15">
@@ -5634,34 +5316,34 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="G35">
-        <v>37276540</v>
+        <v>35657620</v>
       </c>
       <c r="H35" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="I35" t="s">
-        <v>757</v>
+        <v>690</v>
       </c>
       <c r="J35" t="s">
-        <v>923</v>
+        <v>841</v>
       </c>
       <c r="K35" t="s">
-        <v>989</v>
+        <v>921</v>
       </c>
       <c r="M35" t="s">
-        <v>1128</v>
+        <v>1038</v>
       </c>
       <c r="N35" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O35" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="36" spans="3:15">
@@ -5672,34 +5354,34 @@
         <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F36" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="G36">
-        <v>37552302</v>
+        <v>35699706</v>
       </c>
       <c r="H36" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="I36" t="s">
-        <v>758</v>
+        <v>691</v>
       </c>
       <c r="J36" t="s">
-        <v>924</v>
+        <v>831</v>
       </c>
       <c r="K36" t="s">
-        <v>996</v>
+        <v>915</v>
       </c>
       <c r="M36" t="s">
-        <v>1129</v>
+        <v>1039</v>
       </c>
       <c r="N36" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O36" t="s">
-        <v>1278</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="37" spans="3:15">
@@ -5710,34 +5392,34 @@
         <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="G37">
-        <v>35670788</v>
+        <v>34982120</v>
       </c>
       <c r="H37" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="I37" t="s">
-        <v>759</v>
+        <v>692</v>
       </c>
       <c r="J37" t="s">
-        <v>913</v>
+        <v>842</v>
       </c>
       <c r="K37" t="s">
-        <v>992</v>
+        <v>922</v>
       </c>
       <c r="M37" t="s">
-        <v>1130</v>
+        <v>1040</v>
       </c>
       <c r="N37" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O37" t="s">
-        <v>1278</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="38" spans="3:15">
@@ -5748,34 +5430,34 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="F38" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="G38">
-        <v>35657620</v>
+        <v>35471506</v>
       </c>
       <c r="H38" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="I38" t="s">
-        <v>760</v>
+        <v>693</v>
       </c>
       <c r="J38" t="s">
-        <v>925</v>
+        <v>829</v>
       </c>
       <c r="K38" t="s">
-        <v>1007</v>
+        <v>923</v>
       </c>
       <c r="M38" t="s">
-        <v>1131</v>
+        <v>1041</v>
       </c>
       <c r="N38" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O38" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="39" spans="3:15">
@@ -5786,34 +5468,34 @@
         <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="G39">
-        <v>35699706</v>
+        <v>34751709</v>
       </c>
       <c r="H39" t="s">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="I39" t="s">
-        <v>761</v>
+        <v>694</v>
       </c>
       <c r="J39" t="s">
-        <v>915</v>
+        <v>830</v>
       </c>
       <c r="K39" t="s">
-        <v>1001</v>
+        <v>924</v>
       </c>
       <c r="M39" t="s">
-        <v>1132</v>
+        <v>1042</v>
       </c>
       <c r="N39" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O39" t="s">
-        <v>1286</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="40" spans="3:15">
@@ -5824,34 +5506,34 @@
         <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F40" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="G40">
-        <v>34982120</v>
+        <v>34003219</v>
       </c>
       <c r="H40" t="s">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="I40" t="s">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="J40" t="s">
-        <v>926</v>
+        <v>829</v>
       </c>
       <c r="K40" t="s">
-        <v>1008</v>
+        <v>925</v>
       </c>
       <c r="M40" t="s">
-        <v>1133</v>
+        <v>1043</v>
       </c>
       <c r="N40" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O40" t="s">
-        <v>1287</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="41" spans="3:15">
@@ -5862,34 +5544,34 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="F41" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="G41">
-        <v>35471506</v>
+        <v>33687469</v>
       </c>
       <c r="H41" t="s">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="I41" t="s">
-        <v>763</v>
+        <v>696</v>
       </c>
       <c r="J41" t="s">
-        <v>913</v>
+        <v>843</v>
       </c>
       <c r="K41" t="s">
-        <v>1009</v>
+        <v>926</v>
       </c>
       <c r="M41" t="s">
-        <v>1134</v>
+        <v>1044</v>
       </c>
       <c r="N41" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O41" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="42" spans="3:15">
@@ -5900,34 +5582,34 @@
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F42" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="G42">
-        <v>34751709</v>
+        <v>33079153</v>
       </c>
       <c r="H42" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="I42" t="s">
-        <v>764</v>
+        <v>697</v>
       </c>
       <c r="J42" t="s">
-        <v>914</v>
+        <v>822</v>
       </c>
       <c r="K42" t="s">
-        <v>1010</v>
+        <v>927</v>
       </c>
       <c r="M42" t="s">
-        <v>1135</v>
+        <v>1045</v>
       </c>
       <c r="N42" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O42" t="s">
-        <v>1288</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="43" spans="3:15">
@@ -5938,34 +5620,34 @@
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F43" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="G43">
-        <v>34762106</v>
+        <v>33141207</v>
       </c>
       <c r="H43" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="I43" t="s">
-        <v>765</v>
+        <v>698</v>
       </c>
       <c r="J43" t="s">
-        <v>910</v>
+        <v>834</v>
       </c>
       <c r="K43" t="s">
-        <v>992</v>
+        <v>906</v>
       </c>
       <c r="M43" t="s">
-        <v>1136</v>
+        <v>1046</v>
       </c>
       <c r="N43" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O43" t="s">
-        <v>1278</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="44" spans="3:15">
@@ -5976,34 +5658,34 @@
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F44" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="G44">
-        <v>34003219</v>
+        <v>33231665</v>
       </c>
       <c r="H44" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="I44" t="s">
-        <v>766</v>
+        <v>699</v>
       </c>
       <c r="J44" t="s">
-        <v>913</v>
+        <v>844</v>
       </c>
       <c r="K44" t="s">
-        <v>1011</v>
+        <v>915</v>
       </c>
       <c r="M44" t="s">
-        <v>1137</v>
+        <v>1047</v>
       </c>
       <c r="N44" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O44" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="45" spans="3:15">
@@ -6014,34 +5696,34 @@
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F45" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="G45">
-        <v>33687469</v>
+        <v>33201204</v>
       </c>
       <c r="H45" t="s">
-        <v>585</v>
+        <v>535</v>
       </c>
       <c r="I45" t="s">
-        <v>767</v>
+        <v>700</v>
       </c>
       <c r="J45" t="s">
+        <v>845</v>
+      </c>
+      <c r="K45" t="s">
         <v>927</v>
       </c>
-      <c r="K45" t="s">
-        <v>1012</v>
-      </c>
       <c r="M45" t="s">
-        <v>1138</v>
+        <v>1048</v>
       </c>
       <c r="N45" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O45" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="46" spans="3:15">
@@ -6052,34 +5734,31 @@
         <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F46" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="G46">
-        <v>34402828</v>
+        <v>32692387</v>
       </c>
       <c r="H46" t="s">
-        <v>586</v>
+        <v>536</v>
       </c>
       <c r="I46" t="s">
-        <v>768</v>
-      </c>
-      <c r="J46" t="s">
-        <v>913</v>
+        <v>701</v>
       </c>
       <c r="K46" t="s">
-        <v>1004</v>
+        <v>928</v>
       </c>
       <c r="M46" t="s">
-        <v>1139</v>
+        <v>1049</v>
       </c>
       <c r="N46" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O46" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="47" spans="3:15">
@@ -6090,34 +5769,34 @@
         <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="F47" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="G47">
-        <v>33079153</v>
+        <v>31910280</v>
       </c>
       <c r="H47" t="s">
-        <v>587</v>
+        <v>537</v>
       </c>
       <c r="I47" t="s">
-        <v>769</v>
+        <v>702</v>
       </c>
       <c r="J47" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="K47" t="s">
-        <v>1013</v>
+        <v>910</v>
       </c>
       <c r="M47" t="s">
-        <v>1140</v>
+        <v>1050</v>
       </c>
       <c r="N47" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O47" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="48" spans="3:15">
@@ -6128,34 +5807,31 @@
         <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="G48">
-        <v>33141207</v>
+        <v>31990314</v>
       </c>
       <c r="H48" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="I48" t="s">
-        <v>770</v>
-      </c>
-      <c r="J48" t="s">
-        <v>918</v>
+        <v>703</v>
       </c>
       <c r="K48" t="s">
-        <v>992</v>
+        <v>929</v>
       </c>
       <c r="M48" t="s">
-        <v>1141</v>
+        <v>1051</v>
       </c>
       <c r="N48" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O48" t="s">
-        <v>1289</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="49" spans="3:15">
@@ -6166,34 +5842,34 @@
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F49" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="G49">
-        <v>33231665</v>
+        <v>31935027</v>
       </c>
       <c r="H49" t="s">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="I49" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="J49" t="s">
-        <v>928</v>
+        <v>834</v>
       </c>
       <c r="K49" t="s">
-        <v>1001</v>
+        <v>910</v>
       </c>
       <c r="M49" t="s">
-        <v>1142</v>
+        <v>1052</v>
       </c>
       <c r="N49" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O49" t="s">
-        <v>1278</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="50" spans="3:15">
@@ -6204,34 +5880,34 @@
         <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F50" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="G50">
-        <v>33201204</v>
+        <v>33351041</v>
       </c>
       <c r="H50" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="I50" t="s">
-        <v>772</v>
+        <v>705</v>
       </c>
       <c r="J50" t="s">
-        <v>929</v>
+        <v>846</v>
       </c>
       <c r="K50" t="s">
-        <v>1013</v>
+        <v>906</v>
       </c>
       <c r="M50" t="s">
-        <v>1143</v>
+        <v>1053</v>
       </c>
       <c r="N50" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O50" t="s">
-        <v>1278</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="51" spans="3:15">
@@ -6242,31 +5918,31 @@
         <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="G51">
-        <v>32207799</v>
+        <v>32259229</v>
       </c>
       <c r="H51" t="s">
-        <v>591</v>
+        <v>541</v>
       </c>
       <c r="I51" t="s">
-        <v>773</v>
+        <v>706</v>
       </c>
       <c r="K51" t="s">
-        <v>996</v>
+        <v>906</v>
       </c>
       <c r="M51" t="s">
-        <v>1144</v>
+        <v>1054</v>
       </c>
       <c r="N51" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O51" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="52" spans="3:15">
@@ -6277,250 +5953,259 @@
         <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="G52">
-        <v>32692387</v>
+        <v>32315058</v>
       </c>
       <c r="H52" t="s">
-        <v>592</v>
+        <v>542</v>
       </c>
       <c r="I52" t="s">
-        <v>774</v>
+        <v>707</v>
       </c>
       <c r="K52" t="s">
-        <v>1014</v>
+        <v>930</v>
       </c>
       <c r="M52" t="s">
-        <v>1145</v>
+        <v>1055</v>
       </c>
       <c r="N52" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O52" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="53" spans="3:15">
       <c r="C53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
         <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F53" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="G53">
-        <v>31910280</v>
+        <v>41240964</v>
       </c>
       <c r="H53" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="I53" t="s">
-        <v>775</v>
-      </c>
-      <c r="J53" t="s">
-        <v>912</v>
+        <v>708</v>
       </c>
       <c r="K53" t="s">
-        <v>996</v>
+        <v>931</v>
+      </c>
+      <c r="L53" t="s">
+        <v>997</v>
       </c>
       <c r="M53" t="s">
-        <v>1146</v>
+        <v>1056</v>
       </c>
       <c r="N53" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O53" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="54" spans="3:15">
       <c r="C54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
         <v>71</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F54" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="G54">
-        <v>31990314</v>
+        <v>41015051</v>
       </c>
       <c r="H54" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="I54" t="s">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="K54" t="s">
-        <v>1015</v>
+        <v>932</v>
       </c>
       <c r="M54" t="s">
-        <v>1147</v>
+        <v>1057</v>
       </c>
       <c r="N54" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O54" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="55" spans="3:15">
       <c r="C55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F55" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="G55">
-        <v>31935027</v>
+        <v>41138738</v>
       </c>
       <c r="H55" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="I55" t="s">
-        <v>777</v>
+        <v>710</v>
       </c>
       <c r="J55" t="s">
-        <v>918</v>
+        <v>847</v>
       </c>
       <c r="K55" t="s">
-        <v>996</v>
+        <v>933</v>
       </c>
       <c r="M55" t="s">
-        <v>1148</v>
+        <v>1058</v>
       </c>
       <c r="N55" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O55" t="s">
-        <v>1290</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="56" spans="3:15">
       <c r="C56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
         <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F56" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="G56">
-        <v>33351041</v>
+        <v>39798981</v>
       </c>
       <c r="H56" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="I56" t="s">
-        <v>778</v>
+        <v>711</v>
       </c>
       <c r="J56" t="s">
-        <v>930</v>
+        <v>848</v>
       </c>
       <c r="K56" t="s">
-        <v>992</v>
+        <v>934</v>
+      </c>
+      <c r="L56" t="s">
+        <v>997</v>
       </c>
       <c r="M56" t="s">
-        <v>1149</v>
+        <v>1059</v>
       </c>
       <c r="N56" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O56" t="s">
-        <v>1291</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="57" spans="3:15">
       <c r="C57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="G57">
-        <v>32259229</v>
+        <v>39642902</v>
       </c>
       <c r="H57" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="I57" t="s">
-        <v>779</v>
+        <v>712</v>
+      </c>
+      <c r="J57" t="s">
+        <v>849</v>
       </c>
       <c r="K57" t="s">
-        <v>992</v>
+        <v>935</v>
+      </c>
+      <c r="L57" t="s">
+        <v>998</v>
       </c>
       <c r="M57" t="s">
-        <v>1150</v>
+        <v>1060</v>
       </c>
       <c r="N57" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O57" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="58" spans="3:15">
       <c r="C58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F58" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="G58">
-        <v>32315058</v>
+        <v>41429130</v>
       </c>
       <c r="H58" t="s">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="I58" t="s">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="K58" t="s">
-        <v>1016</v>
+        <v>910</v>
       </c>
       <c r="M58" t="s">
-        <v>1151</v>
+        <v>1061</v>
       </c>
       <c r="N58" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O58" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="59" spans="3:15">
@@ -6531,34 +6216,34 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F59" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="G59">
-        <v>41240964</v>
+        <v>40783288</v>
       </c>
       <c r="H59" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="I59" t="s">
-        <v>781</v>
+        <v>714</v>
+      </c>
+      <c r="J59" t="s">
+        <v>850</v>
       </c>
       <c r="K59" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L59" t="s">
-        <v>1086</v>
+        <v>913</v>
       </c>
       <c r="M59" t="s">
-        <v>1152</v>
+        <v>1062</v>
       </c>
       <c r="N59" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O59" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="60" spans="3:15">
@@ -6569,34 +6254,34 @@
         <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="G60">
-        <v>41092928</v>
+        <v>39396348</v>
       </c>
       <c r="H60" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="I60" t="s">
-        <v>782</v>
+        <v>715</v>
       </c>
       <c r="J60" t="s">
-        <v>931</v>
+        <v>850</v>
       </c>
       <c r="K60" t="s">
-        <v>1018</v>
+        <v>913</v>
       </c>
       <c r="M60" t="s">
-        <v>1153</v>
+        <v>1063</v>
       </c>
       <c r="N60" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O60" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="61" spans="3:15">
@@ -6607,31 +6292,37 @@
         <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="G61">
-        <v>41015051</v>
+        <v>38996463</v>
       </c>
       <c r="H61" t="s">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="I61" t="s">
-        <v>783</v>
+        <v>716</v>
+      </c>
+      <c r="J61" t="s">
+        <v>851</v>
       </c>
       <c r="K61" t="s">
-        <v>1019</v>
+        <v>936</v>
+      </c>
+      <c r="L61" t="s">
+        <v>997</v>
       </c>
       <c r="M61" t="s">
-        <v>1154</v>
+        <v>1064</v>
       </c>
       <c r="N61" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O61" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="62" spans="3:15">
@@ -6642,34 +6333,34 @@
         <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="G62">
-        <v>41138738</v>
+        <v>38065194</v>
       </c>
       <c r="H62" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="I62" t="s">
-        <v>784</v>
+        <v>717</v>
       </c>
       <c r="J62" t="s">
-        <v>932</v>
+        <v>850</v>
       </c>
       <c r="K62" t="s">
-        <v>1020</v>
+        <v>937</v>
       </c>
       <c r="M62" t="s">
-        <v>1155</v>
+        <v>1065</v>
       </c>
       <c r="N62" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O62" t="s">
-        <v>1292</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="63" spans="3:15">
@@ -6680,31 +6371,34 @@
         <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F63" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="G63">
-        <v>39675371</v>
+        <v>39097395</v>
       </c>
       <c r="H63" t="s">
-        <v>603</v>
+        <v>553</v>
       </c>
       <c r="I63" t="s">
-        <v>785</v>
+        <v>718</v>
+      </c>
+      <c r="J63" t="s">
+        <v>852</v>
       </c>
       <c r="K63" t="s">
-        <v>1021</v>
+        <v>938</v>
       </c>
       <c r="M63" t="s">
-        <v>1156</v>
+        <v>1066</v>
       </c>
       <c r="N63" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O63" t="s">
-        <v>1278</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="64" spans="3:15">
@@ -6715,34 +6409,31 @@
         <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F64" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="G64">
-        <v>39863371</v>
+        <v>39068950</v>
       </c>
       <c r="H64" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="I64" t="s">
-        <v>786</v>
-      </c>
-      <c r="J64" t="s">
-        <v>933</v>
+        <v>719</v>
       </c>
       <c r="K64" t="s">
-        <v>996</v>
+        <v>910</v>
       </c>
       <c r="M64" t="s">
-        <v>1157</v>
+        <v>1067</v>
       </c>
       <c r="N64" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O64" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="65" spans="3:15">
@@ -6753,37 +6444,31 @@
         <v>82</v>
       </c>
       <c r="E65" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F65" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="G65">
-        <v>39798981</v>
+        <v>37544309</v>
       </c>
       <c r="H65" t="s">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="I65" t="s">
-        <v>787</v>
-      </c>
-      <c r="J65" t="s">
-        <v>934</v>
+        <v>720</v>
       </c>
       <c r="K65" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L65" t="s">
-        <v>1086</v>
+        <v>939</v>
       </c>
       <c r="M65" t="s">
-        <v>1158</v>
+        <v>1068</v>
       </c>
       <c r="N65" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O65" t="s">
-        <v>1293</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="66" spans="3:15">
@@ -6794,37 +6479,34 @@
         <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F66" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="G66">
-        <v>39642902</v>
+        <v>37805216</v>
       </c>
       <c r="H66" t="s">
-        <v>606</v>
+        <v>556</v>
       </c>
       <c r="I66" t="s">
-        <v>788</v>
+        <v>721</v>
       </c>
       <c r="J66" t="s">
-        <v>935</v>
+        <v>827</v>
       </c>
       <c r="K66" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L66" t="s">
-        <v>1087</v>
+        <v>910</v>
       </c>
       <c r="M66" t="s">
-        <v>1159</v>
+        <v>1069</v>
       </c>
       <c r="N66" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O66" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="67" spans="3:15">
@@ -6835,31 +6517,34 @@
         <v>84</v>
       </c>
       <c r="E67" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F67" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="G67">
-        <v>41429130</v>
+        <v>37931633</v>
       </c>
       <c r="H67" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="I67" t="s">
-        <v>789</v>
+        <v>722</v>
+      </c>
+      <c r="J67" t="s">
+        <v>850</v>
       </c>
       <c r="K67" t="s">
-        <v>996</v>
+        <v>913</v>
       </c>
       <c r="M67" t="s">
-        <v>1160</v>
+        <v>1070</v>
       </c>
       <c r="N67" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O67" t="s">
-        <v>1278</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="68" spans="3:15">
@@ -6870,34 +6555,34 @@
         <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F68" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="G68">
-        <v>40783288</v>
+        <v>37997129</v>
       </c>
       <c r="H68" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="I68" t="s">
-        <v>790</v>
+        <v>723</v>
       </c>
       <c r="J68" t="s">
-        <v>936</v>
+        <v>853</v>
       </c>
       <c r="K68" t="s">
-        <v>999</v>
+        <v>910</v>
       </c>
       <c r="M68" t="s">
-        <v>1161</v>
+        <v>1071</v>
       </c>
       <c r="N68" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O68" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="69" spans="3:15">
@@ -6908,34 +6593,34 @@
         <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="F69" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="G69">
-        <v>39396348</v>
+        <v>37997128</v>
       </c>
       <c r="H69" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="I69" t="s">
-        <v>791</v>
+        <v>724</v>
       </c>
       <c r="J69" t="s">
-        <v>936</v>
+        <v>843</v>
       </c>
       <c r="K69" t="s">
-        <v>999</v>
+        <v>940</v>
       </c>
       <c r="M69" t="s">
-        <v>1162</v>
+        <v>1072</v>
       </c>
       <c r="N69" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O69" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="70" spans="3:15">
@@ -6946,37 +6631,31 @@
         <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="F70" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="G70">
-        <v>38996463</v>
+        <v>37997100</v>
       </c>
       <c r="H70" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="I70" t="s">
-        <v>792</v>
-      </c>
-      <c r="J70" t="s">
-        <v>937</v>
+        <v>725</v>
       </c>
       <c r="K70" t="s">
-        <v>1024</v>
-      </c>
-      <c r="L70" t="s">
-        <v>1086</v>
+        <v>941</v>
       </c>
       <c r="M70" t="s">
-        <v>1163</v>
+        <v>1073</v>
       </c>
       <c r="N70" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O70" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="71" spans="3:15">
@@ -6987,34 +6666,34 @@
         <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F71" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="G71">
-        <v>38065194</v>
+        <v>37997099</v>
       </c>
       <c r="H71" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="I71" t="s">
-        <v>793</v>
+        <v>726</v>
       </c>
       <c r="J71" t="s">
-        <v>936</v>
+        <v>854</v>
       </c>
       <c r="K71" t="s">
-        <v>1025</v>
+        <v>942</v>
       </c>
       <c r="M71" t="s">
-        <v>1164</v>
+        <v>1074</v>
       </c>
       <c r="N71" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O71" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="72" spans="3:15">
@@ -7025,34 +6704,34 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="F72" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="G72">
-        <v>39097395</v>
+        <v>37997098</v>
       </c>
       <c r="H72" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="I72" t="s">
-        <v>794</v>
+        <v>727</v>
       </c>
       <c r="J72" t="s">
-        <v>938</v>
+        <v>830</v>
       </c>
       <c r="K72" t="s">
-        <v>1026</v>
+        <v>927</v>
       </c>
       <c r="M72" t="s">
-        <v>1165</v>
+        <v>1075</v>
       </c>
       <c r="N72" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O72" t="s">
-        <v>1294</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="73" spans="3:15">
@@ -7063,31 +6742,34 @@
         <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="F73" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="G73">
-        <v>39068950</v>
+        <v>37997097</v>
       </c>
       <c r="H73" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="I73" t="s">
-        <v>795</v>
+        <v>728</v>
+      </c>
+      <c r="J73" t="s">
+        <v>831</v>
       </c>
       <c r="K73" t="s">
-        <v>996</v>
+        <v>923</v>
       </c>
       <c r="M73" t="s">
-        <v>1166</v>
+        <v>1076</v>
       </c>
       <c r="N73" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O73" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="74" spans="3:15">
@@ -7098,31 +6780,34 @@
         <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="F74" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="G74">
-        <v>37544309</v>
+        <v>37997076</v>
       </c>
       <c r="H74" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="I74" t="s">
-        <v>796</v>
+        <v>729</v>
+      </c>
+      <c r="J74" t="s">
+        <v>822</v>
       </c>
       <c r="K74" t="s">
-        <v>1027</v>
+        <v>941</v>
       </c>
       <c r="M74" t="s">
-        <v>1167</v>
+        <v>1077</v>
       </c>
       <c r="N74" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O74" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="75" spans="3:15">
@@ -7133,34 +6818,34 @@
         <v>92</v>
       </c>
       <c r="E75" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="F75" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="G75">
-        <v>37572680</v>
+        <v>37997051</v>
       </c>
       <c r="H75" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="I75" t="s">
-        <v>797</v>
+        <v>730</v>
       </c>
       <c r="J75" t="s">
-        <v>924</v>
+        <v>855</v>
       </c>
       <c r="K75" t="s">
-        <v>996</v>
+        <v>942</v>
       </c>
       <c r="M75" t="s">
-        <v>1168</v>
+        <v>1078</v>
       </c>
       <c r="N75" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O75" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="76" spans="3:15">
@@ -7171,34 +6856,34 @@
         <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F76" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="G76">
-        <v>37805216</v>
+        <v>37105210</v>
       </c>
       <c r="H76" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="I76" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
       <c r="J76" t="s">
-        <v>911</v>
+        <v>856</v>
       </c>
       <c r="K76" t="s">
-        <v>996</v>
+        <v>943</v>
       </c>
       <c r="M76" t="s">
-        <v>1169</v>
+        <v>1079</v>
       </c>
       <c r="N76" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O76" t="s">
-        <v>1278</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="77" spans="3:15">
@@ -7209,34 +6894,34 @@
         <v>94</v>
       </c>
       <c r="E77" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="F77" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="G77">
-        <v>37931633</v>
+        <v>37030315</v>
       </c>
       <c r="H77" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="I77" t="s">
-        <v>799</v>
+        <v>732</v>
       </c>
       <c r="J77" t="s">
-        <v>936</v>
+        <v>857</v>
       </c>
       <c r="K77" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="M77" t="s">
-        <v>1170</v>
+        <v>1080</v>
       </c>
       <c r="N77" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O77" t="s">
-        <v>1295</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="78" spans="3:15">
@@ -7247,34 +6932,34 @@
         <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="F78" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="G78">
-        <v>37997129</v>
+        <v>37061269</v>
       </c>
       <c r="H78" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="I78" t="s">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="J78" t="s">
-        <v>939</v>
+        <v>850</v>
       </c>
       <c r="K78" t="s">
-        <v>996</v>
+        <v>913</v>
       </c>
       <c r="M78" t="s">
-        <v>1171</v>
+        <v>1081</v>
       </c>
       <c r="N78" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O78" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="79" spans="3:15">
@@ -7285,34 +6970,34 @@
         <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="F79" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="G79">
-        <v>37997128</v>
+        <v>36154677</v>
       </c>
       <c r="H79" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="I79" t="s">
-        <v>801</v>
+        <v>734</v>
       </c>
       <c r="J79" t="s">
+        <v>858</v>
+      </c>
+      <c r="K79" t="s">
         <v>927</v>
       </c>
-      <c r="K79" t="s">
-        <v>1028</v>
-      </c>
       <c r="M79" t="s">
-        <v>1172</v>
+        <v>1082</v>
       </c>
       <c r="N79" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O79" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="80" spans="3:15">
@@ -7323,31 +7008,31 @@
         <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="F80" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="G80">
-        <v>37997120</v>
+        <v>36328042</v>
       </c>
       <c r="H80" t="s">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="I80" t="s">
-        <v>802</v>
+        <v>735</v>
       </c>
       <c r="K80" t="s">
-        <v>1029</v>
+        <v>927</v>
       </c>
       <c r="M80" t="s">
-        <v>1173</v>
+        <v>1083</v>
       </c>
       <c r="N80" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O80" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="81" spans="3:15">
@@ -7358,31 +7043,34 @@
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="F81" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="G81">
-        <v>37997100</v>
+        <v>36930014</v>
       </c>
       <c r="H81" t="s">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="I81" t="s">
-        <v>803</v>
+        <v>736</v>
+      </c>
+      <c r="J81" t="s">
+        <v>830</v>
       </c>
       <c r="K81" t="s">
-        <v>1030</v>
+        <v>945</v>
       </c>
       <c r="M81" t="s">
-        <v>1174</v>
+        <v>1084</v>
       </c>
       <c r="N81" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O81" t="s">
-        <v>1278</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="82" spans="3:15">
@@ -7393,34 +7081,34 @@
         <v>99</v>
       </c>
       <c r="E82" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="F82" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="G82">
-        <v>37997099</v>
+        <v>36929968</v>
       </c>
       <c r="H82" t="s">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="I82" t="s">
-        <v>804</v>
+        <v>737</v>
       </c>
       <c r="J82" t="s">
-        <v>940</v>
+        <v>829</v>
       </c>
       <c r="K82" t="s">
-        <v>1031</v>
+        <v>946</v>
       </c>
       <c r="M82" t="s">
-        <v>1175</v>
+        <v>1085</v>
       </c>
       <c r="N82" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O82" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="83" spans="3:15">
@@ -7431,34 +7119,34 @@
         <v>100</v>
       </c>
       <c r="E83" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="F83" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="G83">
-        <v>37997098</v>
+        <v>36502844</v>
       </c>
       <c r="H83" t="s">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="I83" t="s">
-        <v>805</v>
+        <v>738</v>
       </c>
       <c r="J83" t="s">
-        <v>914</v>
+        <v>859</v>
       </c>
       <c r="K83" t="s">
-        <v>1013</v>
+        <v>947</v>
       </c>
       <c r="M83" t="s">
-        <v>1176</v>
+        <v>1086</v>
       </c>
       <c r="N83" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O83" t="s">
-        <v>1296</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="84" spans="3:15">
@@ -7469,34 +7157,31 @@
         <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="F84" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="G84">
-        <v>37997097</v>
+        <v>35988567</v>
       </c>
       <c r="H84" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="I84" t="s">
-        <v>806</v>
-      </c>
-      <c r="J84" t="s">
-        <v>915</v>
+        <v>739</v>
       </c>
       <c r="K84" t="s">
-        <v>1009</v>
+        <v>948</v>
       </c>
       <c r="M84" t="s">
-        <v>1177</v>
+        <v>1087</v>
       </c>
       <c r="N84" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O84" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="85" spans="3:15">
@@ -7507,34 +7192,37 @@
         <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="F85" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="G85">
-        <v>37997076</v>
+        <v>35964611</v>
       </c>
       <c r="H85" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="I85" t="s">
-        <v>807</v>
+        <v>740</v>
       </c>
       <c r="J85" t="s">
+        <v>860</v>
+      </c>
+      <c r="K85" t="s">
         <v>906</v>
       </c>
-      <c r="K85" t="s">
-        <v>1030</v>
+      <c r="L85" t="s">
+        <v>997</v>
       </c>
       <c r="M85" t="s">
-        <v>1178</v>
+        <v>1088</v>
       </c>
       <c r="N85" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O85" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="86" spans="3:15">
@@ -7545,34 +7233,37 @@
         <v>103</v>
       </c>
       <c r="E86" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F86" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="G86">
-        <v>37997051</v>
+        <v>33676628</v>
       </c>
       <c r="H86" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="I86" t="s">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="J86" t="s">
-        <v>941</v>
+        <v>861</v>
       </c>
       <c r="K86" t="s">
-        <v>1031</v>
+        <v>949</v>
+      </c>
+      <c r="L86" t="s">
+        <v>998</v>
       </c>
       <c r="M86" t="s">
-        <v>1179</v>
+        <v>1089</v>
       </c>
       <c r="N86" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O86" t="s">
-        <v>1278</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="87" spans="3:15">
@@ -7583,34 +7274,37 @@
         <v>104</v>
       </c>
       <c r="E87" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F87" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="G87">
-        <v>37105210</v>
+        <v>34175021</v>
       </c>
       <c r="H87" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="I87" t="s">
-        <v>809</v>
+        <v>742</v>
       </c>
       <c r="J87" t="s">
-        <v>942</v>
+        <v>862</v>
       </c>
       <c r="K87" t="s">
-        <v>1032</v>
+        <v>950</v>
+      </c>
+      <c r="L87" t="s">
+        <v>999</v>
       </c>
       <c r="M87" t="s">
-        <v>1180</v>
+        <v>1090</v>
       </c>
       <c r="N87" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O87" t="s">
-        <v>1297</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="88" spans="3:15">
@@ -7621,34 +7315,34 @@
         <v>105</v>
       </c>
       <c r="E88" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F88" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="G88">
-        <v>37030315</v>
+        <v>34227971</v>
       </c>
       <c r="H88" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="I88" t="s">
-        <v>810</v>
+        <v>743</v>
       </c>
       <c r="J88" t="s">
-        <v>943</v>
+        <v>831</v>
       </c>
       <c r="K88" t="s">
-        <v>1033</v>
+        <v>951</v>
       </c>
       <c r="M88" t="s">
-        <v>1181</v>
+        <v>1091</v>
       </c>
       <c r="N88" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O88" t="s">
-        <v>1278</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="89" spans="3:15">
@@ -7659,34 +7353,34 @@
         <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="F89" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="G89">
-        <v>37061269</v>
+        <v>34227952</v>
       </c>
       <c r="H89" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="I89" t="s">
-        <v>811</v>
+        <v>744</v>
       </c>
       <c r="J89" t="s">
-        <v>936</v>
+        <v>827</v>
       </c>
       <c r="K89" t="s">
-        <v>999</v>
+        <v>906</v>
       </c>
       <c r="M89" t="s">
-        <v>1182</v>
+        <v>1092</v>
       </c>
       <c r="N89" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O89" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="90" spans="3:15">
@@ -7697,34 +7391,34 @@
         <v>107</v>
       </c>
       <c r="E90" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F90" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="G90">
-        <v>36154677</v>
+        <v>34227947</v>
       </c>
       <c r="H90" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="I90" t="s">
-        <v>812</v>
+        <v>745</v>
       </c>
       <c r="J90" t="s">
-        <v>944</v>
+        <v>863</v>
       </c>
       <c r="K90" t="s">
-        <v>1013</v>
+        <v>942</v>
       </c>
       <c r="M90" t="s">
-        <v>1183</v>
+        <v>1093</v>
       </c>
       <c r="N90" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O90" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="91" spans="3:15">
@@ -7735,31 +7429,34 @@
         <v>108</v>
       </c>
       <c r="E91" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="F91" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="G91">
-        <v>36328042</v>
+        <v>34227942</v>
       </c>
       <c r="H91" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="I91" t="s">
-        <v>813</v>
+        <v>746</v>
+      </c>
+      <c r="J91" t="s">
+        <v>830</v>
       </c>
       <c r="K91" t="s">
-        <v>1013</v>
+        <v>927</v>
       </c>
       <c r="M91" t="s">
-        <v>1184</v>
+        <v>1094</v>
       </c>
       <c r="N91" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O91" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="92" spans="3:15">
@@ -7770,34 +7467,34 @@
         <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="F92" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="G92">
-        <v>36930014</v>
+        <v>33485461</v>
       </c>
       <c r="H92" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="I92" t="s">
-        <v>814</v>
+        <v>747</v>
       </c>
       <c r="J92" t="s">
-        <v>914</v>
+        <v>864</v>
       </c>
       <c r="K92" t="s">
-        <v>1034</v>
+        <v>952</v>
       </c>
       <c r="M92" t="s">
-        <v>1185</v>
+        <v>1095</v>
       </c>
       <c r="N92" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O92" t="s">
-        <v>1298</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="93" spans="3:15">
@@ -7808,34 +7505,34 @@
         <v>110</v>
       </c>
       <c r="E93" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="F93" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="G93">
-        <v>36929968</v>
+        <v>34741816</v>
       </c>
       <c r="H93" t="s">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="I93" t="s">
-        <v>815</v>
+        <v>748</v>
       </c>
       <c r="J93" t="s">
-        <v>913</v>
+        <v>822</v>
       </c>
       <c r="K93" t="s">
-        <v>1035</v>
+        <v>903</v>
       </c>
       <c r="M93" t="s">
-        <v>1186</v>
+        <v>1096</v>
       </c>
       <c r="N93" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O93" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="94" spans="3:15">
@@ -7846,31 +7543,37 @@
         <v>111</v>
       </c>
       <c r="E94" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="F94" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="G94">
-        <v>35717994</v>
+        <v>34097852</v>
       </c>
       <c r="H94" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="I94" t="s">
-        <v>816</v>
+        <v>749</v>
+      </c>
+      <c r="J94" t="s">
+        <v>865</v>
       </c>
       <c r="K94" t="s">
-        <v>1036</v>
+        <v>953</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1000</v>
       </c>
       <c r="M94" t="s">
-        <v>1187</v>
+        <v>1097</v>
       </c>
       <c r="N94" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O94" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="95" spans="3:15">
@@ -7881,34 +7584,37 @@
         <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="F95" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="G95">
-        <v>36502844</v>
+        <v>32888407</v>
       </c>
       <c r="H95" t="s">
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="I95" t="s">
-        <v>817</v>
+        <v>750</v>
       </c>
       <c r="J95" t="s">
-        <v>945</v>
+        <v>851</v>
       </c>
       <c r="K95" t="s">
-        <v>1037</v>
+        <v>954</v>
+      </c>
+      <c r="L95" t="s">
+        <v>998</v>
       </c>
       <c r="M95" t="s">
-        <v>1188</v>
+        <v>1098</v>
       </c>
       <c r="N95" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O95" t="s">
-        <v>1299</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="96" spans="3:15">
@@ -7919,31 +7625,34 @@
         <v>113</v>
       </c>
       <c r="E96" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="F96" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="G96">
-        <v>35988567</v>
+        <v>33002431</v>
       </c>
       <c r="H96" t="s">
-        <v>636</v>
+        <v>586</v>
       </c>
       <c r="I96" t="s">
-        <v>818</v>
+        <v>751</v>
+      </c>
+      <c r="J96" t="s">
+        <v>834</v>
       </c>
       <c r="K96" t="s">
-        <v>1018</v>
+        <v>913</v>
       </c>
       <c r="M96" t="s">
-        <v>1189</v>
+        <v>1099</v>
       </c>
       <c r="N96" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O96" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="97" spans="3:15">
@@ -7954,37 +7663,34 @@
         <v>114</v>
       </c>
       <c r="E97" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="F97" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="G97">
-        <v>35964611</v>
+        <v>32473682</v>
       </c>
       <c r="H97" t="s">
-        <v>637</v>
+        <v>587</v>
       </c>
       <c r="I97" t="s">
-        <v>819</v>
+        <v>752</v>
       </c>
       <c r="J97" t="s">
-        <v>946</v>
+        <v>830</v>
       </c>
       <c r="K97" t="s">
-        <v>992</v>
-      </c>
-      <c r="L97" t="s">
-        <v>1086</v>
+        <v>910</v>
       </c>
       <c r="M97" t="s">
-        <v>1190</v>
+        <v>1100</v>
       </c>
       <c r="N97" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O97" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="98" spans="3:15">
@@ -7995,31 +7701,34 @@
         <v>115</v>
       </c>
       <c r="E98" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="F98" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="G98">
-        <v>35120592</v>
+        <v>32473681</v>
       </c>
       <c r="H98" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="I98" t="s">
-        <v>820</v>
+        <v>753</v>
+      </c>
+      <c r="J98" t="s">
+        <v>866</v>
       </c>
       <c r="K98" t="s">
-        <v>989</v>
+        <v>915</v>
       </c>
       <c r="M98" t="s">
-        <v>1191</v>
+        <v>1101</v>
       </c>
       <c r="N98" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O98" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="99" spans="3:15">
@@ -8030,37 +7739,34 @@
         <v>116</v>
       </c>
       <c r="E99" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="F99" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="G99">
-        <v>33676628</v>
+        <v>31929014</v>
       </c>
       <c r="H99" t="s">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="I99" t="s">
-        <v>821</v>
+        <v>754</v>
       </c>
       <c r="J99" t="s">
-        <v>947</v>
+        <v>829</v>
       </c>
       <c r="K99" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L99" t="s">
-        <v>1087</v>
+        <v>905</v>
       </c>
       <c r="M99" t="s">
-        <v>1192</v>
+        <v>1102</v>
       </c>
       <c r="N99" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O99" t="s">
-        <v>1300</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="100" spans="3:15">
@@ -8071,37 +7777,34 @@
         <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="F100" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="G100">
-        <v>34175021</v>
+        <v>32007142</v>
       </c>
       <c r="H100" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="I100" t="s">
+        <v>755</v>
+      </c>
+      <c r="J100" t="s">
         <v>822</v>
       </c>
-      <c r="J100" t="s">
-        <v>948</v>
-      </c>
       <c r="K100" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1088</v>
+        <v>955</v>
       </c>
       <c r="M100" t="s">
-        <v>1193</v>
+        <v>1103</v>
       </c>
       <c r="N100" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O100" t="s">
-        <v>1301</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="101" spans="3:15">
@@ -8112,572 +7815,590 @@
         <v>118</v>
       </c>
       <c r="E101" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F101" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="G101">
-        <v>34227971</v>
+        <v>32007141</v>
       </c>
       <c r="H101" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="I101" t="s">
-        <v>823</v>
+        <v>756</v>
       </c>
       <c r="J101" t="s">
-        <v>915</v>
+        <v>822</v>
       </c>
       <c r="K101" t="s">
-        <v>1040</v>
+        <v>955</v>
       </c>
       <c r="M101" t="s">
-        <v>1194</v>
+        <v>1104</v>
       </c>
       <c r="N101" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O101" t="s">
-        <v>1302</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="102" spans="3:15">
       <c r="C102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
         <v>119</v>
       </c>
       <c r="E102" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="F102" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="G102">
-        <v>34227952</v>
+        <v>40961449</v>
       </c>
       <c r="H102" t="s">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="I102" t="s">
-        <v>824</v>
+        <v>757</v>
       </c>
       <c r="J102" t="s">
-        <v>911</v>
+        <v>867</v>
       </c>
       <c r="K102" t="s">
-        <v>992</v>
+        <v>906</v>
       </c>
       <c r="M102" t="s">
-        <v>1195</v>
+        <v>1105</v>
       </c>
       <c r="N102" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O102" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="103" spans="3:15">
       <c r="C103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
         <v>120</v>
       </c>
       <c r="E103" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="F103" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="G103">
-        <v>34227947</v>
+        <v>41104928</v>
       </c>
       <c r="H103" t="s">
-        <v>643</v>
+        <v>593</v>
       </c>
       <c r="I103" t="s">
-        <v>825</v>
+        <v>758</v>
       </c>
       <c r="J103" t="s">
-        <v>949</v>
+        <v>833</v>
       </c>
       <c r="K103" t="s">
-        <v>1031</v>
+        <v>956</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1001</v>
       </c>
       <c r="M103" t="s">
-        <v>1196</v>
+        <v>1106</v>
       </c>
       <c r="N103" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O103" t="s">
-        <v>1278</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="104" spans="3:15">
       <c r="C104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
         <v>121</v>
       </c>
       <c r="E104" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="F104" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="G104">
-        <v>34227942</v>
+        <v>40532152</v>
       </c>
       <c r="H104" t="s">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="I104" t="s">
-        <v>826</v>
+        <v>759</v>
       </c>
       <c r="J104" t="s">
-        <v>914</v>
+        <v>868</v>
       </c>
       <c r="K104" t="s">
-        <v>1013</v>
+        <v>957</v>
+      </c>
+      <c r="L104" t="s">
+        <v>1000</v>
       </c>
       <c r="M104" t="s">
-        <v>1197</v>
+        <v>1107</v>
       </c>
       <c r="N104" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O104" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="105" spans="3:15">
       <c r="C105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D105" t="s">
         <v>122</v>
       </c>
       <c r="E105" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="F105" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="G105">
-        <v>33485461</v>
+        <v>40293177</v>
       </c>
       <c r="H105" t="s">
-        <v>645</v>
+        <v>595</v>
       </c>
       <c r="I105" t="s">
-        <v>827</v>
+        <v>760</v>
       </c>
       <c r="J105" t="s">
-        <v>950</v>
+        <v>869</v>
       </c>
       <c r="K105" t="s">
-        <v>1041</v>
+        <v>958</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1000</v>
       </c>
       <c r="M105" t="s">
-        <v>1198</v>
+        <v>1108</v>
       </c>
       <c r="N105" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O105" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="106" spans="3:15">
       <c r="C106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
         <v>123</v>
       </c>
       <c r="E106" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="F106" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="G106">
-        <v>34741816</v>
+        <v>39908431</v>
       </c>
       <c r="H106" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
       <c r="I106" t="s">
-        <v>828</v>
+        <v>761</v>
       </c>
       <c r="J106" t="s">
-        <v>906</v>
+        <v>870</v>
       </c>
       <c r="K106" t="s">
-        <v>989</v>
+        <v>959</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1000</v>
       </c>
       <c r="M106" t="s">
-        <v>1199</v>
+        <v>1109</v>
       </c>
       <c r="N106" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O106" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="107" spans="3:15">
       <c r="C107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
         <v>124</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F107" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="G107">
-        <v>34097852</v>
+        <v>40267425</v>
       </c>
       <c r="H107" t="s">
-        <v>647</v>
+        <v>597</v>
       </c>
       <c r="I107" t="s">
-        <v>829</v>
+        <v>762</v>
       </c>
       <c r="J107" t="s">
-        <v>951</v>
+        <v>833</v>
       </c>
       <c r="K107" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L107" t="s">
-        <v>1089</v>
+        <v>960</v>
       </c>
       <c r="M107" t="s">
-        <v>1200</v>
+        <v>1110</v>
       </c>
       <c r="N107" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O107" t="s">
-        <v>1278</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="108" spans="3:15">
       <c r="C108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
         <v>125</v>
       </c>
       <c r="E108" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="F108" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="G108">
-        <v>32888407</v>
+        <v>40214032</v>
       </c>
       <c r="H108" t="s">
-        <v>648</v>
+        <v>598</v>
       </c>
       <c r="I108" t="s">
-        <v>830</v>
+        <v>763</v>
       </c>
       <c r="J108" t="s">
-        <v>937</v>
+        <v>834</v>
       </c>
       <c r="K108" t="s">
-        <v>1043</v>
-      </c>
-      <c r="L108" t="s">
-        <v>1087</v>
+        <v>910</v>
       </c>
       <c r="M108" t="s">
-        <v>1201</v>
+        <v>1111</v>
       </c>
       <c r="N108" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O108" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="109" spans="3:15">
       <c r="C109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
         <v>126</v>
       </c>
       <c r="E109" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="F109" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="G109">
-        <v>33002431</v>
+        <v>38477986</v>
       </c>
       <c r="H109" t="s">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="I109" t="s">
-        <v>831</v>
+        <v>764</v>
       </c>
       <c r="J109" t="s">
-        <v>918</v>
+        <v>829</v>
       </c>
       <c r="K109" t="s">
-        <v>999</v>
+        <v>961</v>
       </c>
       <c r="M109" t="s">
-        <v>1202</v>
+        <v>1112</v>
       </c>
       <c r="N109" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O109" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="110" spans="3:15">
       <c r="C110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
         <v>127</v>
       </c>
       <c r="E110" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="F110" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="G110">
-        <v>32473682</v>
+        <v>38477985</v>
       </c>
       <c r="H110" t="s">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="I110" t="s">
-        <v>832</v>
+        <v>765</v>
       </c>
       <c r="J110" t="s">
-        <v>914</v>
+        <v>829</v>
       </c>
       <c r="K110" t="s">
-        <v>996</v>
+        <v>962</v>
       </c>
       <c r="M110" t="s">
-        <v>1203</v>
+        <v>1113</v>
       </c>
       <c r="N110" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O110" t="s">
-        <v>1278</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="111" spans="3:15">
       <c r="C111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
         <v>128</v>
       </c>
       <c r="E111" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F111" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="G111">
-        <v>32473681</v>
+        <v>38838311</v>
       </c>
       <c r="H111" t="s">
-        <v>651</v>
+        <v>601</v>
       </c>
       <c r="I111" t="s">
-        <v>833</v>
+        <v>766</v>
       </c>
       <c r="J111" t="s">
-        <v>952</v>
+        <v>871</v>
       </c>
       <c r="K111" t="s">
-        <v>1001</v>
+        <v>963</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1000</v>
       </c>
       <c r="M111" t="s">
-        <v>1204</v>
+        <v>1114</v>
       </c>
       <c r="N111" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O111" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="112" spans="3:15">
       <c r="C112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" t="s">
         <v>129</v>
       </c>
       <c r="E112" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="F112" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="G112">
-        <v>31929014</v>
+        <v>38904277</v>
       </c>
       <c r="H112" t="s">
-        <v>652</v>
+        <v>602</v>
       </c>
       <c r="I112" t="s">
-        <v>834</v>
+        <v>767</v>
       </c>
       <c r="J112" t="s">
-        <v>913</v>
+        <v>872</v>
       </c>
       <c r="K112" t="s">
-        <v>991</v>
+        <v>964</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1000</v>
       </c>
       <c r="M112" t="s">
-        <v>1205</v>
+        <v>1115</v>
       </c>
       <c r="N112" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O112" t="s">
-        <v>1278</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="113" spans="3:15">
       <c r="C113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
         <v>130</v>
       </c>
       <c r="E113" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="F113" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="G113">
-        <v>32007142</v>
+        <v>38899693</v>
       </c>
       <c r="H113" t="s">
-        <v>653</v>
+        <v>603</v>
       </c>
       <c r="I113" t="s">
-        <v>835</v>
+        <v>768</v>
       </c>
       <c r="J113" t="s">
-        <v>906</v>
+        <v>873</v>
       </c>
       <c r="K113" t="s">
-        <v>1044</v>
+        <v>965</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1002</v>
       </c>
       <c r="M113" t="s">
-        <v>1206</v>
+        <v>1116</v>
       </c>
       <c r="N113" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O113" t="s">
-        <v>1278</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="114" spans="3:15">
       <c r="C114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
         <v>131</v>
       </c>
       <c r="E114" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="F114" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="G114">
-        <v>32007141</v>
+        <v>38865660</v>
       </c>
       <c r="H114" t="s">
-        <v>654</v>
+        <v>604</v>
       </c>
       <c r="I114" t="s">
-        <v>836</v>
+        <v>769</v>
       </c>
       <c r="J114" t="s">
+        <v>873</v>
+      </c>
+      <c r="K114" t="s">
         <v>906</v>
       </c>
-      <c r="K114" t="s">
-        <v>1044</v>
-      </c>
       <c r="M114" t="s">
-        <v>1207</v>
+        <v>1117</v>
       </c>
       <c r="N114" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O114" t="s">
-        <v>1303</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="115" spans="3:15">
       <c r="C115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
         <v>132</v>
       </c>
       <c r="E115" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="F115" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="G115">
-        <v>32798491</v>
+        <v>38197815</v>
       </c>
       <c r="H115" t="s">
-        <v>655</v>
+        <v>605</v>
       </c>
       <c r="I115" t="s">
-        <v>837</v>
+        <v>770</v>
       </c>
       <c r="J115" t="s">
-        <v>914</v>
+        <v>833</v>
       </c>
       <c r="K115" t="s">
-        <v>991</v>
+        <v>966</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1001</v>
       </c>
       <c r="M115" t="s">
-        <v>1208</v>
+        <v>1118</v>
       </c>
       <c r="N115" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O115" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="116" spans="3:15">
@@ -8688,34 +8409,34 @@
         <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="F116" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="G116">
-        <v>40961449</v>
+        <v>39774314</v>
       </c>
       <c r="H116" t="s">
-        <v>656</v>
+        <v>606</v>
       </c>
       <c r="I116" t="s">
-        <v>838</v>
+        <v>771</v>
       </c>
       <c r="J116" t="s">
-        <v>953</v>
+        <v>830</v>
       </c>
       <c r="K116" t="s">
-        <v>992</v>
+        <v>910</v>
       </c>
       <c r="M116" t="s">
-        <v>1209</v>
+        <v>1119</v>
       </c>
       <c r="N116" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O116" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="117" spans="3:15">
@@ -8726,37 +8447,37 @@
         <v>134</v>
       </c>
       <c r="E117" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F117" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="G117">
-        <v>41104928</v>
+        <v>38657244</v>
       </c>
       <c r="H117" t="s">
-        <v>657</v>
+        <v>607</v>
       </c>
       <c r="I117" t="s">
-        <v>839</v>
+        <v>772</v>
       </c>
       <c r="J117" t="s">
-        <v>917</v>
+        <v>874</v>
       </c>
       <c r="K117" t="s">
-        <v>1045</v>
+        <v>967</v>
       </c>
       <c r="L117" t="s">
-        <v>1090</v>
+        <v>998</v>
       </c>
       <c r="M117" t="s">
-        <v>1210</v>
+        <v>1120</v>
       </c>
       <c r="N117" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O117" t="s">
-        <v>1304</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="118" spans="3:15">
@@ -8767,37 +8488,37 @@
         <v>135</v>
       </c>
       <c r="E118" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="F118" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="G118">
-        <v>40532152</v>
+        <v>37672694</v>
       </c>
       <c r="H118" t="s">
-        <v>658</v>
+        <v>608</v>
       </c>
       <c r="I118" t="s">
-        <v>840</v>
+        <v>773</v>
       </c>
       <c r="J118" t="s">
-        <v>954</v>
+        <v>875</v>
       </c>
       <c r="K118" t="s">
-        <v>1046</v>
+        <v>968</v>
       </c>
       <c r="L118" t="s">
-        <v>1089</v>
+        <v>1000</v>
       </c>
       <c r="M118" t="s">
-        <v>1211</v>
+        <v>1121</v>
       </c>
       <c r="N118" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O118" t="s">
-        <v>1278</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="119" spans="3:15">
@@ -8808,37 +8529,34 @@
         <v>136</v>
       </c>
       <c r="E119" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F119" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="G119">
-        <v>40293177</v>
+        <v>37937776</v>
       </c>
       <c r="H119" t="s">
-        <v>659</v>
+        <v>609</v>
       </c>
       <c r="I119" t="s">
-        <v>841</v>
+        <v>774</v>
       </c>
       <c r="J119" t="s">
-        <v>955</v>
+        <v>830</v>
       </c>
       <c r="K119" t="s">
-        <v>1047</v>
-      </c>
-      <c r="L119" t="s">
-        <v>1089</v>
+        <v>918</v>
       </c>
       <c r="M119" t="s">
-        <v>1212</v>
+        <v>1122</v>
       </c>
       <c r="N119" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O119" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="120" spans="3:15">
@@ -8849,37 +8567,37 @@
         <v>137</v>
       </c>
       <c r="E120" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="F120" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="G120">
-        <v>39908431</v>
+        <v>37861218</v>
       </c>
       <c r="H120" t="s">
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="I120" t="s">
-        <v>842</v>
+        <v>775</v>
       </c>
       <c r="J120" t="s">
-        <v>956</v>
+        <v>876</v>
       </c>
       <c r="K120" t="s">
-        <v>1048</v>
+        <v>958</v>
       </c>
       <c r="L120" t="s">
-        <v>1089</v>
+        <v>1000</v>
       </c>
       <c r="M120" t="s">
-        <v>1213</v>
+        <v>1123</v>
       </c>
       <c r="N120" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O120" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="121" spans="3:15">
@@ -8890,34 +8608,34 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F121" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="G121">
-        <v>40267425</v>
+        <v>37133584</v>
       </c>
       <c r="H121" t="s">
-        <v>661</v>
+        <v>611</v>
       </c>
       <c r="I121" t="s">
-        <v>843</v>
+        <v>776</v>
       </c>
       <c r="J121" t="s">
-        <v>917</v>
+        <v>831</v>
       </c>
       <c r="K121" t="s">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="M121" t="s">
-        <v>1214</v>
+        <v>1124</v>
       </c>
       <c r="N121" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O121" t="s">
-        <v>1305</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="122" spans="3:15">
@@ -8928,34 +8646,34 @@
         <v>139</v>
       </c>
       <c r="E122" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F122" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="G122">
-        <v>40239068</v>
+        <v>36988593</v>
       </c>
       <c r="H122" t="s">
-        <v>662</v>
+        <v>612</v>
       </c>
       <c r="I122" t="s">
-        <v>844</v>
+        <v>777</v>
+      </c>
+      <c r="J122" t="s">
+        <v>877</v>
       </c>
       <c r="K122" t="s">
-        <v>996</v>
-      </c>
-      <c r="L122" t="s">
-        <v>1091</v>
+        <v>906</v>
       </c>
       <c r="M122" t="s">
-        <v>1215</v>
+        <v>1125</v>
       </c>
       <c r="N122" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O122" t="s">
-        <v>1278</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="123" spans="3:15">
@@ -8966,34 +8684,34 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F123" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="G123">
-        <v>40214032</v>
+        <v>36856618</v>
       </c>
       <c r="H123" t="s">
-        <v>663</v>
+        <v>613</v>
       </c>
       <c r="I123" t="s">
-        <v>845</v>
+        <v>778</v>
       </c>
       <c r="J123" t="s">
-        <v>918</v>
+        <v>878</v>
       </c>
       <c r="K123" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
       <c r="M123" t="s">
-        <v>1216</v>
+        <v>1126</v>
       </c>
       <c r="N123" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O123" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="124" spans="3:15">
@@ -9004,34 +8722,34 @@
         <v>141</v>
       </c>
       <c r="E124" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F124" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="G124">
-        <v>38477986</v>
+        <v>37140166</v>
       </c>
       <c r="H124" t="s">
-        <v>664</v>
+        <v>614</v>
       </c>
       <c r="I124" t="s">
-        <v>846</v>
+        <v>779</v>
       </c>
       <c r="J124" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
       <c r="K124" t="s">
-        <v>1050</v>
+        <v>918</v>
       </c>
       <c r="M124" t="s">
-        <v>1217</v>
+        <v>1127</v>
       </c>
       <c r="N124" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O124" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="125" spans="3:15">
@@ -9042,34 +8760,37 @@
         <v>142</v>
       </c>
       <c r="E125" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F125" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="G125">
-        <v>38477985</v>
+        <v>37407001</v>
       </c>
       <c r="H125" t="s">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="I125" t="s">
-        <v>847</v>
+        <v>780</v>
       </c>
       <c r="J125" t="s">
-        <v>913</v>
+        <v>880</v>
       </c>
       <c r="K125" t="s">
-        <v>1051</v>
+        <v>971</v>
+      </c>
+      <c r="L125" t="s">
+        <v>1001</v>
       </c>
       <c r="M125" t="s">
-        <v>1218</v>
+        <v>1128</v>
       </c>
       <c r="N125" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O125" t="s">
-        <v>1306</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="126" spans="3:15">
@@ -9080,37 +8801,37 @@
         <v>143</v>
       </c>
       <c r="E126" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F126" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="G126">
-        <v>38838311</v>
+        <v>37437144</v>
       </c>
       <c r="H126" t="s">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="I126" t="s">
-        <v>848</v>
+        <v>781</v>
       </c>
       <c r="J126" t="s">
-        <v>957</v>
+        <v>881</v>
       </c>
       <c r="K126" t="s">
-        <v>1052</v>
+        <v>972</v>
       </c>
       <c r="L126" t="s">
-        <v>1089</v>
+        <v>1000</v>
       </c>
       <c r="M126" t="s">
-        <v>1219</v>
+        <v>1129</v>
       </c>
       <c r="N126" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O126" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="127" spans="3:15">
@@ -9121,37 +8842,37 @@
         <v>144</v>
       </c>
       <c r="E127" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="F127" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G127">
-        <v>38904277</v>
+        <v>36546659</v>
       </c>
       <c r="H127" t="s">
-        <v>667</v>
+        <v>617</v>
       </c>
       <c r="I127" t="s">
-        <v>849</v>
+        <v>782</v>
       </c>
       <c r="J127" t="s">
-        <v>958</v>
+        <v>829</v>
       </c>
       <c r="K127" t="s">
-        <v>1053</v>
+        <v>973</v>
       </c>
       <c r="L127" t="s">
-        <v>1089</v>
+        <v>1001</v>
       </c>
       <c r="M127" t="s">
-        <v>1220</v>
+        <v>1130</v>
       </c>
       <c r="N127" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O127" t="s">
-        <v>1307</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="128" spans="3:15">
@@ -9162,37 +8883,37 @@
         <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F128" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="G128">
-        <v>38899693</v>
+        <v>36546651</v>
       </c>
       <c r="H128" t="s">
-        <v>668</v>
+        <v>618</v>
       </c>
       <c r="I128" t="s">
-        <v>850</v>
+        <v>783</v>
       </c>
       <c r="J128" t="s">
-        <v>959</v>
+        <v>882</v>
       </c>
       <c r="K128" t="s">
-        <v>1054</v>
+        <v>974</v>
       </c>
       <c r="L128" t="s">
-        <v>1092</v>
+        <v>1001</v>
       </c>
       <c r="M128" t="s">
-        <v>1221</v>
+        <v>1131</v>
       </c>
       <c r="N128" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O128" t="s">
-        <v>1308</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="129" spans="3:15">
@@ -9203,34 +8924,37 @@
         <v>146</v>
       </c>
       <c r="E129" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="F129" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="G129">
-        <v>38865660</v>
+        <v>36652354</v>
       </c>
       <c r="H129" t="s">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="I129" t="s">
-        <v>851</v>
+        <v>784</v>
       </c>
       <c r="J129" t="s">
-        <v>959</v>
+        <v>883</v>
       </c>
       <c r="K129" t="s">
-        <v>992</v>
+        <v>953</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1000</v>
       </c>
       <c r="M129" t="s">
-        <v>1222</v>
+        <v>1132</v>
       </c>
       <c r="N129" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O129" t="s">
-        <v>1278</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="130" spans="3:15">
@@ -9241,37 +8965,34 @@
         <v>147</v>
       </c>
       <c r="E130" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F130" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="G130">
-        <v>38197815</v>
+        <v>37646678</v>
       </c>
       <c r="H130" t="s">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="I130" t="s">
-        <v>852</v>
+        <v>785</v>
       </c>
       <c r="J130" t="s">
-        <v>917</v>
+        <v>884</v>
       </c>
       <c r="K130" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L130" t="s">
-        <v>1090</v>
+        <v>975</v>
       </c>
       <c r="M130" t="s">
-        <v>1223</v>
+        <v>1133</v>
       </c>
       <c r="N130" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O130" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="131" spans="3:15">
@@ -9282,34 +9003,34 @@
         <v>148</v>
       </c>
       <c r="E131" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="F131" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="G131">
-        <v>39774314</v>
+        <v>37530823</v>
       </c>
       <c r="H131" t="s">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="I131" t="s">
-        <v>853</v>
+        <v>786</v>
       </c>
       <c r="J131" t="s">
-        <v>914</v>
+        <v>830</v>
       </c>
       <c r="K131" t="s">
-        <v>996</v>
+        <v>906</v>
       </c>
       <c r="M131" t="s">
-        <v>1224</v>
+        <v>1134</v>
       </c>
       <c r="N131" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O131" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="132" spans="3:15">
@@ -9320,37 +9041,37 @@
         <v>149</v>
       </c>
       <c r="E132" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F132" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="G132">
-        <v>38657244</v>
+        <v>37611121</v>
       </c>
       <c r="H132" t="s">
-        <v>672</v>
+        <v>622</v>
       </c>
       <c r="I132" t="s">
-        <v>854</v>
+        <v>787</v>
       </c>
       <c r="J132" t="s">
-        <v>960</v>
+        <v>885</v>
       </c>
       <c r="K132" t="s">
-        <v>1056</v>
+        <v>976</v>
       </c>
       <c r="L132" t="s">
-        <v>1087</v>
+        <v>997</v>
       </c>
       <c r="M132" t="s">
-        <v>1225</v>
+        <v>1135</v>
       </c>
       <c r="N132" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O132" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="133" spans="3:15">
@@ -9361,37 +9082,34 @@
         <v>150</v>
       </c>
       <c r="E133" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F133" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="G133">
-        <v>37672694</v>
+        <v>37585627</v>
       </c>
       <c r="H133" t="s">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="I133" t="s">
-        <v>855</v>
+        <v>788</v>
       </c>
       <c r="J133" t="s">
-        <v>961</v>
+        <v>831</v>
       </c>
       <c r="K133" t="s">
-        <v>1057</v>
-      </c>
-      <c r="L133" t="s">
-        <v>1089</v>
+        <v>910</v>
       </c>
       <c r="M133" t="s">
-        <v>1226</v>
+        <v>1136</v>
       </c>
       <c r="N133" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O133" t="s">
-        <v>1309</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="134" spans="3:15">
@@ -9402,34 +9120,37 @@
         <v>151</v>
       </c>
       <c r="E134" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="F134" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="G134">
-        <v>37937776</v>
+        <v>37018492</v>
       </c>
       <c r="H134" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="I134" t="s">
-        <v>856</v>
+        <v>789</v>
       </c>
       <c r="J134" t="s">
-        <v>914</v>
+        <v>886</v>
       </c>
       <c r="K134" t="s">
-        <v>1004</v>
+        <v>977</v>
+      </c>
+      <c r="L134" t="s">
+        <v>1003</v>
       </c>
       <c r="M134" t="s">
-        <v>1227</v>
+        <v>1137</v>
       </c>
       <c r="N134" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O134" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="135" spans="3:15">
@@ -9440,37 +9161,37 @@
         <v>152</v>
       </c>
       <c r="E135" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F135" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="G135">
-        <v>37861218</v>
+        <v>36094839</v>
       </c>
       <c r="H135" t="s">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="I135" t="s">
-        <v>857</v>
+        <v>790</v>
       </c>
       <c r="J135" t="s">
-        <v>962</v>
+        <v>887</v>
       </c>
       <c r="K135" t="s">
-        <v>1047</v>
+        <v>978</v>
       </c>
       <c r="L135" t="s">
-        <v>1089</v>
+        <v>1000</v>
       </c>
       <c r="M135" t="s">
-        <v>1228</v>
+        <v>1138</v>
       </c>
       <c r="N135" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O135" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="136" spans="3:15">
@@ -9481,34 +9202,34 @@
         <v>153</v>
       </c>
       <c r="E136" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F136" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="G136">
-        <v>37133584</v>
+        <v>35613022</v>
       </c>
       <c r="H136" t="s">
-        <v>676</v>
+        <v>626</v>
       </c>
       <c r="I136" t="s">
-        <v>858</v>
+        <v>791</v>
       </c>
       <c r="J136" t="s">
+        <v>888</v>
+      </c>
+      <c r="K136" t="s">
         <v>915</v>
       </c>
-      <c r="K136" t="s">
-        <v>1058</v>
-      </c>
       <c r="M136" t="s">
-        <v>1229</v>
+        <v>1139</v>
       </c>
       <c r="N136" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O136" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="137" spans="3:15">
@@ -9519,34 +9240,37 @@
         <v>154</v>
       </c>
       <c r="E137" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F137" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="G137">
-        <v>36988593</v>
+        <v>35767439</v>
       </c>
       <c r="H137" t="s">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="I137" t="s">
-        <v>859</v>
+        <v>792</v>
       </c>
       <c r="J137" t="s">
-        <v>931</v>
+        <v>889</v>
       </c>
       <c r="K137" t="s">
-        <v>992</v>
+        <v>979</v>
+      </c>
+      <c r="L137" t="s">
+        <v>997</v>
       </c>
       <c r="M137" t="s">
-        <v>1230</v>
+        <v>1140</v>
       </c>
       <c r="N137" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O137" t="s">
-        <v>1310</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="138" spans="3:15">
@@ -9557,34 +9281,37 @@
         <v>155</v>
       </c>
       <c r="E138" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="F138" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="G138">
-        <v>36856618</v>
+        <v>35660797</v>
       </c>
       <c r="H138" t="s">
-        <v>678</v>
+        <v>628</v>
       </c>
       <c r="I138" t="s">
-        <v>860</v>
+        <v>793</v>
       </c>
       <c r="J138" t="s">
-        <v>963</v>
+        <v>890</v>
       </c>
       <c r="K138" t="s">
-        <v>1059</v>
+        <v>980</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1000</v>
       </c>
       <c r="M138" t="s">
-        <v>1231</v>
+        <v>1141</v>
       </c>
       <c r="N138" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O138" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="139" spans="3:15">
@@ -9595,34 +9322,37 @@
         <v>156</v>
       </c>
       <c r="E139" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F139" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="G139">
-        <v>37140166</v>
+        <v>35658005</v>
       </c>
       <c r="H139" t="s">
-        <v>679</v>
+        <v>629</v>
       </c>
       <c r="I139" t="s">
-        <v>861</v>
+        <v>794</v>
       </c>
       <c r="J139" t="s">
-        <v>964</v>
+        <v>833</v>
       </c>
       <c r="K139" t="s">
-        <v>1004</v>
+        <v>981</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1000</v>
       </c>
       <c r="M139" t="s">
-        <v>1232</v>
+        <v>1142</v>
       </c>
       <c r="N139" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O139" t="s">
-        <v>1278</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="140" spans="3:15">
@@ -9633,37 +9363,37 @@
         <v>157</v>
       </c>
       <c r="E140" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="F140" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="G140">
-        <v>37407001</v>
+        <v>34534430</v>
       </c>
       <c r="H140" t="s">
-        <v>680</v>
+        <v>630</v>
       </c>
       <c r="I140" t="s">
-        <v>862</v>
+        <v>795</v>
       </c>
       <c r="J140" t="s">
-        <v>965</v>
+        <v>833</v>
       </c>
       <c r="K140" t="s">
-        <v>1060</v>
+        <v>982</v>
       </c>
       <c r="L140" t="s">
-        <v>1090</v>
+        <v>1000</v>
       </c>
       <c r="M140" t="s">
-        <v>1233</v>
+        <v>1143</v>
       </c>
       <c r="N140" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O140" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="141" spans="3:15">
@@ -9674,37 +9404,37 @@
         <v>158</v>
       </c>
       <c r="E141" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="F141" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="G141">
-        <v>37437144</v>
+        <v>34898139</v>
       </c>
       <c r="H141" t="s">
-        <v>681</v>
+        <v>631</v>
       </c>
       <c r="I141" t="s">
-        <v>863</v>
+        <v>796</v>
       </c>
       <c r="J141" t="s">
-        <v>966</v>
+        <v>891</v>
       </c>
       <c r="K141" t="s">
-        <v>1061</v>
+        <v>983</v>
       </c>
       <c r="L141" t="s">
-        <v>1089</v>
+        <v>1001</v>
       </c>
       <c r="M141" t="s">
-        <v>1234</v>
+        <v>1144</v>
       </c>
       <c r="N141" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O141" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="142" spans="3:15">
@@ -9715,37 +9445,37 @@
         <v>159</v>
       </c>
       <c r="E142" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="F142" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="G142">
-        <v>36546659</v>
+        <v>36507690</v>
       </c>
       <c r="H142" t="s">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="I142" t="s">
-        <v>864</v>
+        <v>797</v>
       </c>
       <c r="J142" t="s">
-        <v>913</v>
+        <v>873</v>
       </c>
       <c r="K142" t="s">
-        <v>1062</v>
+        <v>984</v>
       </c>
       <c r="L142" t="s">
-        <v>1090</v>
+        <v>1000</v>
       </c>
       <c r="M142" t="s">
-        <v>1235</v>
+        <v>1145</v>
       </c>
       <c r="N142" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O142" t="s">
-        <v>1311</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="143" spans="3:15">
@@ -9756,37 +9486,34 @@
         <v>160</v>
       </c>
       <c r="E143" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F143" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="G143">
-        <v>36546651</v>
+        <v>34496175</v>
       </c>
       <c r="H143" t="s">
-        <v>683</v>
+        <v>633</v>
       </c>
       <c r="I143" t="s">
-        <v>865</v>
+        <v>798</v>
       </c>
       <c r="J143" t="s">
-        <v>967</v>
+        <v>892</v>
       </c>
       <c r="K143" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L143" t="s">
-        <v>1090</v>
+        <v>985</v>
       </c>
       <c r="M143" t="s">
-        <v>1236</v>
+        <v>1146</v>
       </c>
       <c r="N143" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O143" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="144" spans="3:15">
@@ -9797,37 +9524,37 @@
         <v>161</v>
       </c>
       <c r="E144" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="F144" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="G144">
-        <v>36652354</v>
+        <v>34818478</v>
       </c>
       <c r="H144" t="s">
-        <v>684</v>
+        <v>634</v>
       </c>
       <c r="I144" t="s">
-        <v>866</v>
+        <v>799</v>
       </c>
       <c r="J144" t="s">
-        <v>968</v>
+        <v>893</v>
       </c>
       <c r="K144" t="s">
-        <v>1042</v>
+        <v>974</v>
       </c>
       <c r="L144" t="s">
-        <v>1089</v>
+        <v>1000</v>
       </c>
       <c r="M144" t="s">
-        <v>1237</v>
+        <v>1147</v>
       </c>
       <c r="N144" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O144" t="s">
-        <v>1312</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="145" spans="3:15">
@@ -9838,34 +9565,37 @@
         <v>162</v>
       </c>
       <c r="E145" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F145" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="G145">
-        <v>37646678</v>
+        <v>33979489</v>
       </c>
       <c r="H145" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
       <c r="I145" t="s">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="J145" t="s">
-        <v>969</v>
+        <v>894</v>
       </c>
       <c r="K145" t="s">
-        <v>1064</v>
+        <v>986</v>
+      </c>
+      <c r="L145" t="s">
+        <v>1000</v>
       </c>
       <c r="M145" t="s">
-        <v>1238</v>
+        <v>1148</v>
       </c>
       <c r="N145" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O145" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="146" spans="3:15">
@@ -9876,34 +9606,34 @@
         <v>163</v>
       </c>
       <c r="E146" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="F146" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="G146">
-        <v>37530823</v>
+        <v>33704937</v>
       </c>
       <c r="H146" t="s">
-        <v>686</v>
+        <v>636</v>
       </c>
       <c r="I146" t="s">
-        <v>868</v>
+        <v>801</v>
       </c>
       <c r="J146" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
       <c r="K146" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="M146" t="s">
-        <v>1239</v>
+        <v>1149</v>
       </c>
       <c r="N146" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O146" t="s">
-        <v>1313</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="147" spans="3:15">
@@ -9914,37 +9644,34 @@
         <v>164</v>
       </c>
       <c r="E147" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F147" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="G147">
-        <v>37611121</v>
+        <v>34161704</v>
       </c>
       <c r="H147" t="s">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="I147" t="s">
-        <v>869</v>
+        <v>802</v>
       </c>
       <c r="J147" t="s">
-        <v>970</v>
+        <v>896</v>
       </c>
       <c r="K147" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L147" t="s">
-        <v>1086</v>
+        <v>906</v>
       </c>
       <c r="M147" t="s">
-        <v>1240</v>
+        <v>1150</v>
       </c>
       <c r="N147" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O147" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="148" spans="3:15">
@@ -9955,34 +9682,37 @@
         <v>165</v>
       </c>
       <c r="E148" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="F148" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="G148">
-        <v>37585627</v>
+        <v>34096690</v>
       </c>
       <c r="H148" t="s">
-        <v>688</v>
+        <v>638</v>
       </c>
       <c r="I148" t="s">
-        <v>870</v>
+        <v>803</v>
       </c>
       <c r="J148" t="s">
-        <v>915</v>
+        <v>833</v>
       </c>
       <c r="K148" t="s">
-        <v>996</v>
+        <v>974</v>
+      </c>
+      <c r="L148" t="s">
+        <v>1000</v>
       </c>
       <c r="M148" t="s">
-        <v>1241</v>
+        <v>1151</v>
       </c>
       <c r="N148" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O148" t="s">
-        <v>1278</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="149" spans="3:15">
@@ -9993,37 +9723,37 @@
         <v>166</v>
       </c>
       <c r="E149" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="F149" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="G149">
-        <v>37018492</v>
+        <v>33406328</v>
       </c>
       <c r="H149" t="s">
-        <v>689</v>
+        <v>639</v>
       </c>
       <c r="I149" t="s">
-        <v>871</v>
+        <v>804</v>
       </c>
       <c r="J149" t="s">
-        <v>971</v>
+        <v>897</v>
       </c>
       <c r="K149" t="s">
-        <v>1066</v>
+        <v>988</v>
       </c>
       <c r="L149" t="s">
-        <v>1093</v>
+        <v>1000</v>
       </c>
       <c r="M149" t="s">
-        <v>1242</v>
+        <v>1152</v>
       </c>
       <c r="N149" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O149" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="150" spans="3:15">
@@ -10034,37 +9764,34 @@
         <v>167</v>
       </c>
       <c r="E150" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="F150" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="G150">
-        <v>36094839</v>
+        <v>33471991</v>
       </c>
       <c r="H150" t="s">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="I150" t="s">
-        <v>872</v>
+        <v>805</v>
       </c>
       <c r="J150" t="s">
-        <v>972</v>
+        <v>831</v>
       </c>
       <c r="K150" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L150" t="s">
-        <v>1089</v>
+        <v>989</v>
       </c>
       <c r="M150" t="s">
-        <v>1243</v>
+        <v>1153</v>
       </c>
       <c r="N150" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O150" t="s">
-        <v>1278</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="151" spans="3:15">
@@ -10075,34 +9802,34 @@
         <v>168</v>
       </c>
       <c r="E151" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="F151" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="G151">
-        <v>35613022</v>
+        <v>33471974</v>
       </c>
       <c r="H151" t="s">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="I151" t="s">
-        <v>873</v>
+        <v>806</v>
       </c>
       <c r="J151" t="s">
-        <v>973</v>
+        <v>831</v>
       </c>
       <c r="K151" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="M151" t="s">
-        <v>1244</v>
+        <v>1154</v>
       </c>
       <c r="N151" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O151" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="152" spans="3:15">
@@ -10113,37 +9840,37 @@
         <v>169</v>
       </c>
       <c r="E152" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F152" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="G152">
-        <v>35767439</v>
+        <v>33838625</v>
       </c>
       <c r="H152" t="s">
-        <v>692</v>
+        <v>642</v>
       </c>
       <c r="I152" t="s">
-        <v>874</v>
+        <v>807</v>
       </c>
       <c r="J152" t="s">
-        <v>974</v>
+        <v>898</v>
       </c>
       <c r="K152" t="s">
-        <v>1068</v>
+        <v>991</v>
       </c>
       <c r="L152" t="s">
-        <v>1086</v>
+        <v>997</v>
       </c>
       <c r="M152" t="s">
-        <v>1245</v>
+        <v>1155</v>
       </c>
       <c r="N152" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O152" t="s">
-        <v>1314</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="153" spans="3:15">
@@ -10154,37 +9881,37 @@
         <v>170</v>
       </c>
       <c r="E153" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="F153" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="G153">
-        <v>35660797</v>
+        <v>32877583</v>
       </c>
       <c r="H153" t="s">
-        <v>693</v>
+        <v>643</v>
       </c>
       <c r="I153" t="s">
-        <v>875</v>
+        <v>808</v>
       </c>
       <c r="J153" t="s">
-        <v>975</v>
+        <v>833</v>
       </c>
       <c r="K153" t="s">
-        <v>1069</v>
+        <v>992</v>
       </c>
       <c r="L153" t="s">
-        <v>1089</v>
+        <v>1000</v>
       </c>
       <c r="M153" t="s">
-        <v>1246</v>
+        <v>1156</v>
       </c>
       <c r="N153" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O153" t="s">
-        <v>1278</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="154" spans="3:15">
@@ -10195,37 +9922,37 @@
         <v>171</v>
       </c>
       <c r="E154" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="F154" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="G154">
-        <v>35658005</v>
+        <v>32469185</v>
       </c>
       <c r="H154" t="s">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="I154" t="s">
-        <v>876</v>
+        <v>809</v>
       </c>
       <c r="J154" t="s">
-        <v>917</v>
+        <v>833</v>
       </c>
       <c r="K154" t="s">
-        <v>1070</v>
+        <v>957</v>
       </c>
       <c r="L154" t="s">
-        <v>1089</v>
+        <v>1000</v>
       </c>
       <c r="M154" t="s">
-        <v>1247</v>
+        <v>1157</v>
       </c>
       <c r="N154" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O154" t="s">
-        <v>1315</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="155" spans="3:15">
@@ -10236,37 +9963,37 @@
         <v>172</v>
       </c>
       <c r="E155" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="F155" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="G155">
-        <v>34534430</v>
+        <v>32955176</v>
       </c>
       <c r="H155" t="s">
-        <v>695</v>
+        <v>645</v>
       </c>
       <c r="I155" t="s">
-        <v>877</v>
+        <v>810</v>
       </c>
       <c r="J155" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="K155" t="s">
-        <v>1071</v>
+        <v>993</v>
       </c>
       <c r="L155" t="s">
-        <v>1089</v>
+        <v>997</v>
       </c>
       <c r="M155" t="s">
-        <v>1248</v>
+        <v>1158</v>
       </c>
       <c r="N155" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O155" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="156" spans="3:15">
@@ -10277,37 +10004,34 @@
         <v>173</v>
       </c>
       <c r="E156" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="F156" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="G156">
-        <v>34898139</v>
+        <v>32997908</v>
       </c>
       <c r="H156" t="s">
-        <v>696</v>
+        <v>646</v>
       </c>
       <c r="I156" t="s">
-        <v>878</v>
+        <v>811</v>
       </c>
       <c r="J156" t="s">
-        <v>976</v>
+        <v>822</v>
       </c>
       <c r="K156" t="s">
-        <v>1072</v>
-      </c>
-      <c r="L156" t="s">
-        <v>1090</v>
+        <v>933</v>
       </c>
       <c r="M156" t="s">
-        <v>1249</v>
+        <v>1159</v>
       </c>
       <c r="N156" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O156" t="s">
-        <v>1278</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="157" spans="3:15">
@@ -10318,37 +10042,34 @@
         <v>174</v>
       </c>
       <c r="E157" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="F157" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="G157">
-        <v>36507690</v>
+        <v>32459922</v>
       </c>
       <c r="H157" t="s">
-        <v>697</v>
+        <v>647</v>
       </c>
       <c r="I157" t="s">
-        <v>879</v>
+        <v>812</v>
       </c>
       <c r="J157" t="s">
-        <v>959</v>
+        <v>900</v>
       </c>
       <c r="K157" t="s">
-        <v>1073</v>
-      </c>
-      <c r="L157" t="s">
-        <v>1089</v>
+        <v>910</v>
       </c>
       <c r="M157" t="s">
-        <v>1250</v>
+        <v>1160</v>
       </c>
       <c r="N157" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O157" t="s">
-        <v>1316</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="158" spans="3:15">
@@ -10359,34 +10080,34 @@
         <v>175</v>
       </c>
       <c r="E158" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F158" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="G158">
-        <v>34496175</v>
+        <v>32130814</v>
       </c>
       <c r="H158" t="s">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="I158" t="s">
-        <v>880</v>
+        <v>813</v>
       </c>
       <c r="J158" t="s">
-        <v>977</v>
+        <v>834</v>
       </c>
       <c r="K158" t="s">
-        <v>1074</v>
+        <v>994</v>
       </c>
       <c r="M158" t="s">
-        <v>1251</v>
+        <v>1161</v>
       </c>
       <c r="N158" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O158" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="159" spans="3:15">
@@ -10397,37 +10118,34 @@
         <v>176</v>
       </c>
       <c r="E159" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="F159" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="G159">
-        <v>34818478</v>
+        <v>32160663</v>
       </c>
       <c r="H159" t="s">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="I159" t="s">
-        <v>881</v>
+        <v>814</v>
       </c>
       <c r="J159" t="s">
-        <v>978</v>
+        <v>826</v>
       </c>
       <c r="K159" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L159" t="s">
-        <v>1089</v>
+        <v>906</v>
       </c>
       <c r="M159" t="s">
-        <v>1252</v>
+        <v>1162</v>
       </c>
       <c r="N159" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O159" t="s">
-        <v>1278</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="160" spans="3:15">
@@ -10438,31 +10156,37 @@
         <v>177</v>
       </c>
       <c r="E160" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="F160" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="G160">
-        <v>34758253</v>
+        <v>32023374</v>
       </c>
       <c r="H160" t="s">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="I160" t="s">
-        <v>882</v>
+        <v>815</v>
+      </c>
+      <c r="J160" t="s">
+        <v>901</v>
       </c>
       <c r="K160" t="s">
-        <v>996</v>
+        <v>971</v>
+      </c>
+      <c r="L160" t="s">
+        <v>1004</v>
       </c>
       <c r="M160" t="s">
-        <v>1253</v>
+        <v>1163</v>
       </c>
       <c r="N160" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O160" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="161" spans="3:15">
@@ -10473,37 +10197,34 @@
         <v>178</v>
       </c>
       <c r="E161" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="F161" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="G161">
-        <v>33979489</v>
+        <v>32101664</v>
       </c>
       <c r="H161" t="s">
-        <v>701</v>
+        <v>651</v>
       </c>
       <c r="I161" t="s">
-        <v>883</v>
+        <v>816</v>
       </c>
       <c r="J161" t="s">
-        <v>979</v>
+        <v>897</v>
       </c>
       <c r="K161" t="s">
-        <v>1075</v>
-      </c>
-      <c r="L161" t="s">
-        <v>1089</v>
+        <v>995</v>
       </c>
       <c r="M161" t="s">
-        <v>1254</v>
+        <v>1164</v>
       </c>
       <c r="N161" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O161" t="s">
-        <v>1278</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="162" spans="3:15">
@@ -10514,34 +10235,31 @@
         <v>179</v>
       </c>
       <c r="E162" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="F162" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="G162">
-        <v>33704937</v>
+        <v>31860793</v>
       </c>
       <c r="H162" t="s">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="I162" t="s">
-        <v>884</v>
-      </c>
-      <c r="J162" t="s">
-        <v>980</v>
+        <v>817</v>
       </c>
       <c r="K162" t="s">
-        <v>1076</v>
+        <v>989</v>
       </c>
       <c r="M162" t="s">
-        <v>1255</v>
+        <v>1165</v>
       </c>
       <c r="N162" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O162" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="163" spans="3:15">
@@ -10552,34 +10270,37 @@
         <v>180</v>
       </c>
       <c r="E163" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="F163" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="G163">
-        <v>34161704</v>
+        <v>32846061</v>
       </c>
       <c r="H163" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
       <c r="I163" t="s">
-        <v>885</v>
+        <v>818</v>
       </c>
       <c r="J163" t="s">
-        <v>981</v>
+        <v>902</v>
       </c>
       <c r="K163" t="s">
-        <v>992</v>
+        <v>996</v>
+      </c>
+      <c r="L163" t="s">
+        <v>1001</v>
       </c>
       <c r="M163" t="s">
-        <v>1256</v>
+        <v>1166</v>
       </c>
       <c r="N163" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O163" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="164" spans="3:15">
@@ -10590,37 +10311,37 @@
         <v>181</v>
       </c>
       <c r="E164" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="F164" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="G164">
-        <v>34096690</v>
+        <v>32846060</v>
       </c>
       <c r="H164" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="I164" t="s">
-        <v>886</v>
+        <v>819</v>
       </c>
       <c r="J164" t="s">
-        <v>917</v>
+        <v>833</v>
       </c>
       <c r="K164" t="s">
-        <v>1063</v>
+        <v>993</v>
       </c>
       <c r="L164" t="s">
-        <v>1089</v>
+        <v>1001</v>
       </c>
       <c r="M164" t="s">
-        <v>1257</v>
+        <v>1167</v>
       </c>
       <c r="N164" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O164" t="s">
-        <v>1315</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="165" spans="3:15">
@@ -10631,37 +10352,34 @@
         <v>182</v>
       </c>
       <c r="E165" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="G165">
-        <v>33406328</v>
+        <v>32786189</v>
       </c>
       <c r="H165" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="I165" t="s">
-        <v>887</v>
+        <v>820</v>
       </c>
       <c r="J165" t="s">
-        <v>982</v>
+        <v>833</v>
       </c>
       <c r="K165" t="s">
-        <v>1077</v>
-      </c>
-      <c r="L165" t="s">
-        <v>1089</v>
+        <v>933</v>
       </c>
       <c r="M165" t="s">
-        <v>1258</v>
+        <v>1168</v>
       </c>
       <c r="N165" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O165" t="s">
-        <v>1278</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="166" spans="3:15">
@@ -10672,698 +10390,31 @@
         <v>183</v>
       </c>
       <c r="E166" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="G166">
-        <v>33471991</v>
+        <v>32348643</v>
       </c>
       <c r="H166" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="I166" t="s">
-        <v>888</v>
-      </c>
-      <c r="J166" t="s">
-        <v>915</v>
+        <v>821</v>
       </c>
       <c r="K166" t="s">
-        <v>1078</v>
+        <v>906</v>
       </c>
       <c r="M166" t="s">
-        <v>1259</v>
+        <v>1169</v>
       </c>
       <c r="N166" t="s">
-        <v>1277</v>
+        <v>1170</v>
       </c>
       <c r="O166" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="167" spans="3:15">
-      <c r="C167" t="s">
-        <v>18</v>
-      </c>
-      <c r="D167" t="s">
-        <v>184</v>
-      </c>
-      <c r="E167" t="s">
-        <v>345</v>
-      </c>
-      <c r="F167" t="s">
-        <v>525</v>
-      </c>
-      <c r="G167">
-        <v>33471974</v>
-      </c>
-      <c r="H167" t="s">
-        <v>707</v>
-      </c>
-      <c r="I167" t="s">
-        <v>889</v>
-      </c>
-      <c r="J167" t="s">
-        <v>915</v>
-      </c>
-      <c r="K167" t="s">
-        <v>1079</v>
-      </c>
-      <c r="M167" t="s">
-        <v>1260</v>
-      </c>
-      <c r="N167" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O167" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="168" spans="3:15">
-      <c r="C168" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" t="s">
-        <v>185</v>
-      </c>
-      <c r="E168" t="s">
-        <v>346</v>
-      </c>
-      <c r="F168" t="s">
-        <v>526</v>
-      </c>
-      <c r="G168">
-        <v>33838625</v>
-      </c>
-      <c r="H168" t="s">
-        <v>708</v>
-      </c>
-      <c r="I168" t="s">
-        <v>890</v>
-      </c>
-      <c r="J168" t="s">
-        <v>983</v>
-      </c>
-      <c r="K168" t="s">
-        <v>1080</v>
-      </c>
-      <c r="L168" t="s">
-        <v>1086</v>
-      </c>
-      <c r="M168" t="s">
-        <v>1261</v>
-      </c>
-      <c r="N168" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O168" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="169" spans="3:15">
-      <c r="C169" t="s">
-        <v>18</v>
-      </c>
-      <c r="D169" t="s">
-        <v>186</v>
-      </c>
-      <c r="E169" t="s">
-        <v>347</v>
-      </c>
-      <c r="F169" t="s">
-        <v>527</v>
-      </c>
-      <c r="G169">
-        <v>32877583</v>
-      </c>
-      <c r="H169" t="s">
-        <v>709</v>
-      </c>
-      <c r="I169" t="s">
-        <v>891</v>
-      </c>
-      <c r="J169" t="s">
-        <v>917</v>
-      </c>
-      <c r="K169" t="s">
-        <v>1081</v>
-      </c>
-      <c r="L169" t="s">
-        <v>1089</v>
-      </c>
-      <c r="M169" t="s">
-        <v>1262</v>
-      </c>
-      <c r="N169" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O169" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="170" spans="3:15">
-      <c r="C170" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" t="s">
-        <v>187</v>
-      </c>
-      <c r="E170" t="s">
-        <v>347</v>
-      </c>
-      <c r="F170" t="s">
-        <v>528</v>
-      </c>
-      <c r="G170">
-        <v>32469185</v>
-      </c>
-      <c r="H170" t="s">
-        <v>710</v>
-      </c>
-      <c r="I170" t="s">
-        <v>892</v>
-      </c>
-      <c r="J170" t="s">
-        <v>917</v>
-      </c>
-      <c r="K170" t="s">
-        <v>1046</v>
-      </c>
-      <c r="L170" t="s">
-        <v>1089</v>
-      </c>
-      <c r="M170" t="s">
-        <v>1263</v>
-      </c>
-      <c r="N170" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O170" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="171" spans="3:15">
-      <c r="C171" t="s">
-        <v>18</v>
-      </c>
-      <c r="D171" t="s">
-        <v>188</v>
-      </c>
-      <c r="E171" t="s">
-        <v>348</v>
-      </c>
-      <c r="F171" t="s">
-        <v>529</v>
-      </c>
-      <c r="G171">
-        <v>32955176</v>
-      </c>
-      <c r="H171" t="s">
-        <v>711</v>
-      </c>
-      <c r="I171" t="s">
-        <v>893</v>
-      </c>
-      <c r="J171" t="s">
-        <v>984</v>
-      </c>
-      <c r="K171" t="s">
-        <v>1082</v>
-      </c>
-      <c r="L171" t="s">
-        <v>1086</v>
-      </c>
-      <c r="M171" t="s">
-        <v>1264</v>
-      </c>
-      <c r="N171" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O171" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="172" spans="3:15">
-      <c r="C172" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" t="s">
-        <v>189</v>
-      </c>
-      <c r="E172" t="s">
-        <v>349</v>
-      </c>
-      <c r="F172" t="s">
-        <v>530</v>
-      </c>
-      <c r="G172">
-        <v>32997908</v>
-      </c>
-      <c r="H172" t="s">
-        <v>712</v>
-      </c>
-      <c r="I172" t="s">
-        <v>894</v>
-      </c>
-      <c r="J172" t="s">
-        <v>906</v>
-      </c>
-      <c r="K172" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M172" t="s">
-        <v>1265</v>
-      </c>
-      <c r="N172" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O172" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="173" spans="3:15">
-      <c r="C173" t="s">
-        <v>18</v>
-      </c>
-      <c r="D173" t="s">
-        <v>190</v>
-      </c>
-      <c r="E173" t="s">
-        <v>350</v>
-      </c>
-      <c r="F173" t="s">
-        <v>531</v>
-      </c>
-      <c r="G173">
-        <v>32459922</v>
-      </c>
-      <c r="H173" t="s">
-        <v>713</v>
-      </c>
-      <c r="I173" t="s">
-        <v>895</v>
-      </c>
-      <c r="J173" t="s">
-        <v>985</v>
-      </c>
-      <c r="K173" t="s">
-        <v>996</v>
-      </c>
-      <c r="M173" t="s">
-        <v>1266</v>
-      </c>
-      <c r="N173" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O173" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="174" spans="3:15">
-      <c r="C174" t="s">
-        <v>18</v>
-      </c>
-      <c r="D174" t="s">
-        <v>191</v>
-      </c>
-      <c r="E174" t="s">
-        <v>351</v>
-      </c>
-      <c r="F174" t="s">
-        <v>532</v>
-      </c>
-      <c r="G174">
-        <v>32130814</v>
-      </c>
-      <c r="H174" t="s">
-        <v>714</v>
-      </c>
-      <c r="I174" t="s">
-        <v>896</v>
-      </c>
-      <c r="J174" t="s">
-        <v>918</v>
-      </c>
-      <c r="K174" t="s">
-        <v>1083</v>
-      </c>
-      <c r="M174" t="s">
-        <v>1267</v>
-      </c>
-      <c r="N174" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O174" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="175" spans="3:15">
-      <c r="C175" t="s">
-        <v>18</v>
-      </c>
-      <c r="D175" t="s">
-        <v>192</v>
-      </c>
-      <c r="E175" t="s">
-        <v>352</v>
-      </c>
-      <c r="F175" t="s">
-        <v>533</v>
-      </c>
-      <c r="G175">
-        <v>32160663</v>
-      </c>
-      <c r="H175" t="s">
-        <v>715</v>
-      </c>
-      <c r="I175" t="s">
-        <v>897</v>
-      </c>
-      <c r="J175" t="s">
-        <v>910</v>
-      </c>
-      <c r="K175" t="s">
-        <v>992</v>
-      </c>
-      <c r="M175" t="s">
-        <v>1268</v>
-      </c>
-      <c r="N175" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O175" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="176" spans="3:15">
-      <c r="C176" t="s">
-        <v>18</v>
-      </c>
-      <c r="D176" t="s">
-        <v>193</v>
-      </c>
-      <c r="E176" t="s">
-        <v>353</v>
-      </c>
-      <c r="F176" t="s">
-        <v>534</v>
-      </c>
-      <c r="G176">
-        <v>32023374</v>
-      </c>
-      <c r="H176" t="s">
-        <v>716</v>
-      </c>
-      <c r="I176" t="s">
-        <v>898</v>
-      </c>
-      <c r="J176" t="s">
-        <v>986</v>
-      </c>
-      <c r="K176" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L176" t="s">
-        <v>1094</v>
-      </c>
-      <c r="M176" t="s">
-        <v>1269</v>
-      </c>
-      <c r="N176" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O176" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="177" spans="3:15">
-      <c r="C177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D177" t="s">
-        <v>194</v>
-      </c>
-      <c r="E177" t="s">
-        <v>354</v>
-      </c>
-      <c r="F177" t="s">
-        <v>535</v>
-      </c>
-      <c r="G177">
-        <v>32101664</v>
-      </c>
-      <c r="H177" t="s">
-        <v>717</v>
-      </c>
-      <c r="I177" t="s">
-        <v>899</v>
-      </c>
-      <c r="J177" t="s">
-        <v>982</v>
-      </c>
-      <c r="K177" t="s">
-        <v>1084</v>
-      </c>
-      <c r="M177" t="s">
-        <v>1270</v>
-      </c>
-      <c r="N177" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O177" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="178" spans="3:15">
-      <c r="C178" t="s">
-        <v>18</v>
-      </c>
-      <c r="D178" t="s">
-        <v>195</v>
-      </c>
-      <c r="E178" t="s">
-        <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>536</v>
-      </c>
-      <c r="G178">
-        <v>31860793</v>
-      </c>
-      <c r="H178" t="s">
-        <v>718</v>
-      </c>
-      <c r="I178" t="s">
-        <v>900</v>
-      </c>
-      <c r="K178" t="s">
-        <v>1078</v>
-      </c>
-      <c r="M178" t="s">
-        <v>1271</v>
-      </c>
-      <c r="N178" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O178" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="179" spans="3:15">
-      <c r="C179" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" t="s">
-        <v>196</v>
-      </c>
-      <c r="E179" t="s">
-        <v>356</v>
-      </c>
-      <c r="F179" t="s">
-        <v>537</v>
-      </c>
-      <c r="G179">
-        <v>32846061</v>
-      </c>
-      <c r="H179" t="s">
-        <v>719</v>
-      </c>
-      <c r="I179" t="s">
-        <v>901</v>
-      </c>
-      <c r="J179" t="s">
-        <v>987</v>
-      </c>
-      <c r="K179" t="s">
-        <v>1085</v>
-      </c>
-      <c r="L179" t="s">
-        <v>1090</v>
-      </c>
-      <c r="M179" t="s">
-        <v>1272</v>
-      </c>
-      <c r="N179" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O179" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="180" spans="3:15">
-      <c r="C180" t="s">
-        <v>18</v>
-      </c>
-      <c r="D180" t="s">
-        <v>197</v>
-      </c>
-      <c r="E180" t="s">
-        <v>356</v>
-      </c>
-      <c r="F180" t="s">
-        <v>538</v>
-      </c>
-      <c r="G180">
-        <v>32846060</v>
-      </c>
-      <c r="H180" t="s">
-        <v>720</v>
-      </c>
-      <c r="I180" t="s">
-        <v>902</v>
-      </c>
-      <c r="J180" t="s">
-        <v>917</v>
-      </c>
-      <c r="K180" t="s">
-        <v>1082</v>
-      </c>
-      <c r="L180" t="s">
-        <v>1090</v>
-      </c>
-      <c r="M180" t="s">
-        <v>1273</v>
-      </c>
-      <c r="N180" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O180" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="181" spans="3:15">
-      <c r="C181" t="s">
-        <v>18</v>
-      </c>
-      <c r="D181" t="s">
-        <v>198</v>
-      </c>
-      <c r="E181" t="s">
-        <v>357</v>
-      </c>
-      <c r="F181" t="s">
-        <v>539</v>
-      </c>
-      <c r="G181">
-        <v>32786189</v>
-      </c>
-      <c r="H181" t="s">
-        <v>721</v>
-      </c>
-      <c r="I181" t="s">
-        <v>903</v>
-      </c>
-      <c r="J181" t="s">
-        <v>917</v>
-      </c>
-      <c r="K181" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M181" t="s">
-        <v>1274</v>
-      </c>
-      <c r="N181" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O181" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="182" spans="3:15">
-      <c r="C182" t="s">
-        <v>18</v>
-      </c>
-      <c r="D182" t="s">
-        <v>199</v>
-      </c>
-      <c r="E182" t="s">
-        <v>358</v>
-      </c>
-      <c r="F182" t="s">
-        <v>540</v>
-      </c>
-      <c r="G182">
-        <v>32187457</v>
-      </c>
-      <c r="H182" t="s">
-        <v>722</v>
-      </c>
-      <c r="I182" t="s">
-        <v>904</v>
-      </c>
-      <c r="J182" t="s">
-        <v>988</v>
-      </c>
-      <c r="K182" t="s">
-        <v>1046</v>
-      </c>
-      <c r="L182" t="s">
-        <v>1089</v>
-      </c>
-      <c r="M182" t="s">
-        <v>1275</v>
-      </c>
-      <c r="N182" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O182" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="183" spans="3:15">
-      <c r="C183" t="s">
-        <v>18</v>
-      </c>
-      <c r="D183" t="s">
-        <v>200</v>
-      </c>
-      <c r="E183" t="s">
-        <v>359</v>
-      </c>
-      <c r="F183" t="s">
-        <v>541</v>
-      </c>
-      <c r="G183">
-        <v>32348643</v>
-      </c>
-      <c r="H183" t="s">
-        <v>723</v>
-      </c>
-      <c r="I183" t="s">
-        <v>905</v>
-      </c>
-      <c r="K183" t="s">
-        <v>992</v>
-      </c>
-      <c r="M183" t="s">
-        <v>1276</v>
-      </c>
-      <c r="N183" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O183" t="s">
-        <v>1278</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>

--- a/Literature_Screening_List.xlsx
+++ b/Literature_Screening_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1138">
   <si>
     <t>Select? (Y/N)</t>
   </si>
@@ -85,27 +85,15 @@
     <t>Added benefit and revenues of oncology drugs approved by the European Medicines Agency between 1995 and 2020: retrospective cohort study.</t>
   </si>
   <si>
-    <t>Association between SARS-CoV-2 vaccination and healthcare contacts for menstrual disturbance and bleeding in women before and after menopause: nationwide, register based cohort study.</t>
-  </si>
-  <si>
     <t>Breast cancer mortality in 500 000 women with early invasive breast cancer diagnosed in England, 1993-2015: population based observational cohort study.</t>
   </si>
   <si>
-    <t>Mortality rates among patients successfully treated for hepatitis C in the era of interferon-free antivirals: population based cohort study.</t>
-  </si>
-  <si>
     <t>Extension of cervical screening intervals with primary human papillomavirus testing: observational study of English screening pilot data.</t>
   </si>
   <si>
     <t>Regulatory and clinical consequences of negative confirmatory trials of accelerated approval cancer drugs: retrospective observational study.</t>
   </si>
   <si>
-    <t>Risk prediction of covid-19 related death and hospital admission in adults after covid-19 vaccination: national prospective cohort study.</t>
-  </si>
-  <si>
-    <t>Association of bilateral salpingo-oophorectomy with all cause and cause specific mortality: population based cohort study.</t>
-  </si>
-  <si>
     <t>Red meat intake and risk of coronary heart disease among US men: prospective cohort study.</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>Association Between Maternal Hormonal Contraception Use and Central Nervous System Tumors in Children.</t>
   </si>
   <si>
-    <t>Aspirin Use to Prevent Cardiovascular Disease and Colorectal Cancer: Updated Modeling Study for the US Preventive Services Task Force.</t>
-  </si>
-  <si>
     <t>Association of Participation in the Oncology Care Model With Medicare Payments, Utilization, Care Delivery, and Quality Outcomes.</t>
   </si>
   <si>
@@ -211,9 +196,6 @@
     <t>Association of Powder Use in the Genital Area With Risk of Ovarian Cancer.</t>
   </si>
   <si>
-    <t>Association of Isolated Diastolic Hypertension as Defined by the 2017 ACC/AHA Blood Pressure Guideline With Incident Cardiovascular Outcomes.</t>
-  </si>
-  <si>
     <t>Patient-Reported Outcomes Through 5 Years for Active Surveillance, Surgery, Brachytherapy, or External Beam Radiation With or Without Androgen Deprivation Therapy for Localized Prostate Cancer.</t>
   </si>
   <si>
@@ -226,9 +208,6 @@
     <t>Prevalence of Continuous Pulse Oximetry Monitoring in Hospitalized Children With Bronchiolitis Not Requiring Supplemental Oxygen.</t>
   </si>
   <si>
-    <t>Efficacy and safety of allogeneic CD19 CAR NK-cell therapy in systemic lupus erythematosus: a case series in China.</t>
-  </si>
-  <si>
     <t>The global, regional, and national burden of cancer, 1990-2023, with forecasts to 2050: a systematic analysis for the Global Burden of Disease Study 2023.</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>Causal attribution of human papillomavirus genotypes to invasive cervical cancer worldwide: a systematic analysis of the global literature.</t>
   </si>
   <si>
-    <t>Activity limitations, use of assistive devices, and mortality and clinical events in 25 high-income, middle-income, and low-income countries: an analysis of the PURE study.</t>
-  </si>
-  <si>
     <t>Cause-specific mortality by county, race, and ethnicity in the USA, 2000-19: a systematic analysis of health disparities.</t>
   </si>
   <si>
@@ -277,9 +253,6 @@
     <t>Impact of messaging informed by behavioural science on uptake of targeted lung health checks: a service evaluation.</t>
   </si>
   <si>
-    <t>Development of a framework for action to advocate for a coherent prevention policy for tobacco, alcohol, and foods high in fats, salt, or sugar: a mixed-methods approach.</t>
-  </si>
-  <si>
     <t>Potential impact of health communications to raise awareness of the relative risk of age and cancer: a qualitative study.</t>
   </si>
   <si>
@@ -490,15 +463,9 @@
     <t>Trastuzumab Deruxtecan in HER2-Mutant Non-Small-Cell Lung Cancer.</t>
   </si>
   <si>
-    <t>Biologic and Clinical Efficacy of LentiGlobin for Sickle Cell Disease.</t>
-  </si>
-  <si>
     <t>Glofitamab for Relapsed or Refractory Diffuse Large B-Cell Lymphoma.</t>
   </si>
   <si>
-    <t>Somatic PIK3CA Mutations in Sporadic Cerebral Cavernous Malformations.</t>
-  </si>
-  <si>
     <t>Belzutifan for Renal Cell Carcinoma in von Hippel-Lindau Disease.</t>
   </si>
   <si>
@@ -553,9 +520,6 @@
     <t>Microbiota as Predictor of Mortality in Allogeneic Hematopoietic-Cell Transplantation.</t>
   </si>
   <si>
-    <t>Vitamin E Acetate in Bronchoalveolar-Lavage Fluid Associated with EVALI.</t>
-  </si>
-  <si>
     <t>Efficacy of Selpercatinib in RET-Altered Thyroid Cancers.</t>
   </si>
   <si>
@@ -580,27 +544,15 @@
     <t>2024 Feb 28</t>
   </si>
   <si>
-    <t>2023 May 3</t>
-  </si>
-  <si>
     <t>2023 Jun 13</t>
   </si>
   <si>
-    <t>2023 Aug 2</t>
-  </si>
-  <si>
     <t>2022 May 31</t>
   </si>
   <si>
     <t>2021 Sep 8</t>
   </si>
   <si>
-    <t>2021 Sep 17</t>
-  </si>
-  <si>
-    <t>2021 Dec 8</t>
-  </si>
-  <si>
     <t>2020 Dec 2</t>
   </si>
   <si>
@@ -670,9 +622,6 @@
     <t>2022 Jan 4</t>
   </si>
   <si>
-    <t>2022 Apr 26</t>
-  </si>
-  <si>
     <t>2021 Nov 9</t>
   </si>
   <si>
@@ -700,9 +649,6 @@
     <t>2020 Jan 7</t>
   </si>
   <si>
-    <t>2020 Jan 28</t>
-  </si>
-  <si>
     <t>2020 Jan 14</t>
   </si>
   <si>
@@ -715,9 +661,6 @@
     <t>2020 Apr 21</t>
   </si>
   <si>
-    <t>2026 Dec 20</t>
-  </si>
-  <si>
     <t>2025 Oct 11</t>
   </si>
   <si>
@@ -748,9 +691,6 @@
     <t>2024 Aug 3</t>
   </si>
   <si>
-    <t>2024 Aug 10</t>
-  </si>
-  <si>
     <t>2023 Sep 23</t>
   </si>
   <si>
@@ -931,15 +871,9 @@
     <t>2022 Jan 20</t>
   </si>
   <si>
-    <t>2022 Feb 17</t>
-  </si>
-  <si>
     <t>2022 Dec 15</t>
   </si>
   <si>
-    <t>2021 Sep 9</t>
-  </si>
-  <si>
     <t>2021 Nov 25</t>
   </si>
   <si>
@@ -985,9 +919,6 @@
     <t>2020 Feb 27</t>
   </si>
   <si>
-    <t>2020 Feb 20</t>
-  </si>
-  <si>
     <t>2020 Aug 27</t>
   </si>
   <si>
@@ -1009,27 +940,15 @@
     <t>10.1136/bmj-2023-077391 e077391</t>
   </si>
   <si>
-    <t>10.1136/bmj-2023-074778 e074778</t>
-  </si>
-  <si>
     <t>10.1136/bmj-2022-074684 e074684</t>
   </si>
   <si>
-    <t>10.1136/bmj-2022-074001 e074001</t>
-  </si>
-  <si>
     <t>10.1136/bmj-2021-068776 e068776</t>
   </si>
   <si>
     <t>10.1136/bmj.n1959 n1959</t>
   </si>
   <si>
-    <t>10.1136/bmj.n2244 n2244</t>
-  </si>
-  <si>
-    <t>10.1136/bmj-2021-067528 e067528</t>
-  </si>
-  <si>
     <t>10.1136/bmj.m4141 m4141</t>
   </si>
   <si>
@@ -1105,9 +1024,6 @@
     <t>10.1001/jama.2021.22482</t>
   </si>
   <si>
-    <t>10.1001/jama.2022.3385</t>
-  </si>
-  <si>
     <t>10.1001/jama.2021.17642</t>
   </si>
   <si>
@@ -1135,9 +1051,6 @@
     <t>10.1001/jama.2019.20079</t>
   </si>
   <si>
-    <t>10.1001/jama.2019.21402</t>
-  </si>
-  <si>
     <t>10.1001/jama.2019.20675</t>
   </si>
   <si>
@@ -1150,9 +1063,6 @@
     <t>10.1001/jama.2020.2998</t>
   </si>
   <si>
-    <t>S0140-6736(25)01671-X [pii] 10.1016/S0140-6736(25)01671-X</t>
-  </si>
-  <si>
     <t>S0140-6736(25)01635-6 [pii] 10.1016/S0140-6736(25)01635-6</t>
   </si>
   <si>
@@ -1183,9 +1093,6 @@
     <t>S0140-6736(24)01097-3 [pii] 10.1016/S0140-6736(24)01097-3</t>
   </si>
   <si>
-    <t>S0140-6736(24)01050-X [pii] 10.1016/S0140-6736(24)01050-X</t>
-  </si>
-  <si>
     <t>S0140-6736(23)01088-7 [pii] 10.1016/S0140-6736(23)01088-7</t>
   </si>
   <si>
@@ -1201,9 +1108,6 @@
     <t>S0140-6736(23)02153-0 [pii] 10.1016/S0140-6736(23)02153-0</t>
   </si>
   <si>
-    <t>S0140-6736(23)02109-8 [pii] 10.1016/S0140-6736(23)02109-8</t>
-  </si>
-  <si>
     <t>S0140-6736(23)02087-1 [pii] 10.1016/S0140-6736(23)02087-1</t>
   </si>
   <si>
@@ -1414,15 +1318,9 @@
     <t>10.1056/NEJMoa2112431</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2117175</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2206913</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2100440</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2103425</t>
   </si>
   <si>
@@ -1477,9 +1375,6 @@
     <t>10.1056/NEJMoa1900623</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa1916433</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2005651</t>
   </si>
   <si>
@@ -1504,27 +1399,15 @@
     <t>OBJECTIVES: To evaluate the added benefit and revenues of oncology drugs, explore their association, and investigate potential discrepancies between added benefit and revenues across different approval pathways of the European Medicines Agency (EMA). DESIGN: Retrospective cohort study. SETTING: Oncology drugs and their indications approved by the EMA between 1995 and 2020. MAIN OUTCOME MEASURES: Added benefit was evaluated using ratings published by seven organisations: health technology assessment agencies from the United States, France, Germany, and Italy, two medical oncology societies, and a drug bulletin. All retrieved ratings were recategorised using a four point ranking scale to indicate negative or non-quantifiable, minor, substantial, or major added benefit. Revenue data were extracted from publicly available financial reports and compared with published estimates of research and development (R&amp;D) costs. Finally, the association between added benefit and revenue was evaluated. All analyses were performed within the overall study cohort, and within subgroups based on the EMA approval pathway: standard marketing authorisation, conditional marketing authorisation, and authorisation under exceptional circumstances. RESULTS: 131 oncology drugs with 166 indications were evaluated for their added benefit by at least one organisation within the required timeframe, yielding a total of 458 added benefit ratings; 189 (41%) were negative or non-quantifiable. The median time to offset the median R&amp;D costs ($684m,  pound535m, euro602m, adjusted to 2020 values) was three years; 50 of 55 (91%) drugs recovered these costs within eight years. Drugs with higher added benefit ratings generally had greater revenues. Negative or non-quantifiable added benefit ratings were more frequent for conditional marketing authorisations and authorisations under exceptional circumstances than for standard marketing authorisations (relative risk 1.53, 95% confidence interval 1.23 to 1.89). Conditional marketing authorisations generated lower revenues and took longer to offset R&amp;D costs than standard marketing authorisations (four years compared with three years). CONCLUSIONS: While revenues seem to align with added benefit, most oncology drugs recover R&amp;D costs within a few years despite providing little added benefit. This is particularly true for drugs approved through conditional marketing authorisations, which inherently appear to lack comprehensive evidence. Policy makers should evaluate whether current regulatory and reimbursement incentives effectively promote development of the most effective drugs for patients with the greatest needs.</t>
   </si>
   <si>
-    <t>OBJECTIVES: To evaluate the risks of any menstrual disturbance and bleeding following SARS-CoV-2 vaccination in women who are premenopausal or postmenopausal. DESIGN: A nationwide, register based cohort study. SETTING: All inpatient and specialised outpatient care in Sweden from 27 December 2020 to 28 February 2022. A subset covering primary care for 40% of the Swedish female population was also included. PARTICIPANTS: 2 946 448 Swedish women aged 12-74 years were included. Pregnant women, women living in nursing homes, and women with history of any menstruation or bleeding disorders, breast cancer, cancer of female genital organs, or who underwent a hysterectomy between 1 January 2015 and 26 December 2020 were excluded. INTERVENTIONS: SARS-CoV-2 vaccination, by vaccine product (BNT162b2, mRNA-1273, or ChAdOx1 nCoV-19 (AZD1222)) and dose (unvaccinated and first, second, and third dose) over two time windows (one to seven days, considered the control period, and 8-90 days). MAIN OUTCOME MEASURES: Healthcare contact (admission to hospital or visit) for menstrual disturbance or bleeding before or after menopause (diagnosed with the International Statistical Classification of Diseases and Related Health Problems, Tenth Revision codes N91, N92, N93, N95). RESULTS: 2 580 007 (87.6%) of 2 946 448 women received at least one SARS-CoV-2 vaccination and 1 652 472 (64.0%) 2 580 007 of vaccinated women received three doses before the end of follow-up. The highest risks for bleeding in women who were postmenopausal were observed after the third dose, in the one to seven days risk window (hazard ratio 1.28 (95% confidence interval 1.01 to 1.62)) and in the 8-90 days risk window (1.25 (1.04 to 1.50)). The impact of adjustment for covariates was modest. Risk of postmenopausal bleeding suggested a 23-33% increased risk after 8-90 days with BNT162b2 and mRNA-1273 after the third dose, but the association with ChAdOx1 nCoV-19 was less clear. For menstrual disturbance or bleeding in women who were premenopausal, adjustment for covariates almost completely removed the weak associations noted in the crude analyses. CONCLUSIONS: Weak and inconsistent associations were observed between SARS-CoV-2 vaccination and healthcare contacts for bleeding in women who are postmenopausal, and even less evidence was recorded of an association for menstrual disturbance or bleeding in women who were premenopausal. These findings do not provide substantial support for a causal association between SARS-CoV-2 vaccination and healthcare contacts related to menstrual or bleeding disorders.</t>
-  </si>
-  <si>
     <t>OBJECTIVES: To describe long term breast cancer mortality among women with a diagnosis of breast cancer in the past and estimate absolute breast cancer mortality risks for groups of patients with a recent diagnosis. DESIGN: Population based observational cohort study. SETTING: Routinely collected data from the National Cancer Registration and Analysis Service. PARTICIPANTS: All 512 447 women registered with early invasive breast cancer (involving only breast and possibly axillary nodes) in England during January 1993 to December 2015, with follow-up to December 2020. MAIN OUTCOME MEASURES: Annual breast cancer mortality rates and cumulative risks by time since diagnosis, calendar period of diagnosis, and nine characteristics of patients and tumours. RESULTS: For women with a diagnosis made within each of the calendar periods 1993-99, 2000-04, 2005-09, and 2010-15, the crude annual breast cancer mortality rate was highest during the five years after diagnosis and then declined. For any given time since diagnosis, crude annual breast cancer mortality rates and risks decreased with increasing calendar period. Crude five year breast cancer mortality risk was 14.4% (95% confidence interval 14.2% to 14.6%) for women with a diagnosis made during 1993-99 and 4.9% (4.8% to 5.0%) for women with a diagnosis made during 2010-15. Adjusted annual breast cancer mortality rates also decreased with increasing calendar period in nearly every patient group, by a factor of about three in oestrogen receptor positive disease and about two in oestrogen receptor negative disease. Considering just the women with a diagnosis made during 2010-15, cumulative five year breast cancer mortality risk varied substantially between women with different characteristics: it was &lt;3% for 62.8% (96 085/153 006) of women but &gt;/=20% for 4.6% (6962/153 006) of women. CONCLUSIONS: These five year breast cancer mortality risks for patients with a recent diagnosis may be used to estimate breast cancer mortality risks for patients today. The prognosis for women with early invasive breast cancer has improved substantially since the 1990s. Most can expect to become long term cancer survivors, although for a few the risk remains appreciable.</t>
   </si>
   <si>
-    <t>OBJECTIVES: To quantify mortality rates for patients successfully treated for hepatitis C in the era of interferon-free, direct acting antivirals and compare these rates with those of the general population. DESIGN: Population based cohort study. SETTING: British Columbia, Scotland, and England (England cohort consists of patients with cirrhosis only). PARTICIPANTS: 21 790 people who were successfully treated for hepatitis C in the era of interferon-free antivirals (2014-19). Participants were divided into three liver disease severity groups: people without cirrhosis (pre-cirrhosis), those with compensated cirrhosis, and those with end stage liver disease. Follow-up started 12 weeks after antiviral treatment completion and ended on date of death or 31 December 2019. MAIN OUTCOME MEASURES: Crude and age-sex standardised mortality rates, and standardised mortality ratio comparing the number of deaths with that of the general population, adjusting for age, sex, and year. Poisson regression was used to identify factors associated with all cause mortality rates. RESULTS: 1572 (7%) participants died during follow-up. The leading causes of death were drug related mortality (n=383, 24%), liver failure (n=286, 18%), and liver cancer (n=250, 16%). Crude all cause mortality rates (deaths per 1000 person years) were 31.4 (95% confidence interval 29.3 to 33.7), 22.7 (20.7 to 25.0), and 39.6 (35.4 to 44.3) for cohorts from British Columbia, Scotland, and England, respectively. All cause mortality was considerably higher than the rate for the general population across all disease severity groups and settings; for example, all cause mortality was three times higher among people without cirrhosis in British Columbia (standardised mortality ratio 2.96, 95% confidence interval 2.71 to 3.23; P&lt;0.001) and more than 10 times higher for patients with end stage liver disease in British Columbia (13.61, 11.94 to 15.49; P&lt;0.001). In regression analyses, older age, recent substance misuse, alcohol misuse, and comorbidities were associated with higher mortality rates. CONCLUSION: Mortality rates among people successfully treated for hepatitis C in the era of interferon-free, direct acting antivirals are high compared with the general population. Drug and liver related causes of death were the main drivers of excess mortality. These findings highlight the need for continued support and follow-up after successful treatment for hepatitis C to maximise the impact of direct acting antivirals.</t>
-  </si>
-  <si>
     <t>OBJECTIVES: To provide updated evidence about the risk of cervical intraepithelial neoplasia grade 3 or higher (CIN3+) and cervical cancer after a negative human papillomavirus (HPV) test in primary cervical screening, by age group and test assay. DESIGN: Observational study. SETTING: Real world data from the English HPV screening pilot's first and second rounds (2013-16, follow-up to end of 2019). PARTICIPANTS: 1 341 584 women. INTERVENTIONS: Cervical screening with HPV testing or liquid based cytological testing (cytology or smear tests). Women screened with cytology were referred to colposcopy after high grade cytological abnormalities or after borderline or low grade abnormalities combined with a positive HPV triage test. Women screened with HPV testing who were positive were referred at baseline if their cytology triage test showed at least borderline abnormalities or after a retest (early recall) at 12 and 24 months if they had persistent abnormalities. MAIN OUTCOME MEASURES: Detection of CIN3+ and cervical cancer after a negative HPV test. RESULTS: For women younger than 50 years, second round detection of CIN3+ in this study was significantly lower after a negative HPV screen in the first round than after cytology testing (1.21/1000 v 4.52/1000 women screened, adjusted odds ratio 0.26, 95% confidence interval 0.23 to 0.30), as was the risk of interval cervical cancer (1.31/100 000 v 2.90/100 000 woman years, adjusted hazard ratio 0.44, 0.23 to 0.84). Risk of an incident CIN3+ detected at the second screening round in the pilot five years after a negative HPV test was even lower in women older than 50 years, than in three years in women younger than 50 years (0.57/1000 v 1.21/1000 women screened, adjusted odds ratio 0.46, 0.27 to 0.79). Women with negative HPV tests at early recall after a positive HPV screening test without cytological abnormalities had a higher detection rate of CIN3+ at the second routine recall than women who initially tested HPV negative (5.39/1000 v 1.21/1000 women screened, adjusted odds ratio 3.27, 95% confidence interval 2.21 to 4.84). Detection after a negative result on a clinically validated APTIMA mRNA HPV test was similar to that after clinically validated cobas and RealTime DNA tests (for CIN3+ at the second round 1.32/1000 v 1.14/1000 women screened, adjusted odds ratio 1.05, 0.73 to 1.50). CONCLUSIONS: These data support an extension of the screening intervals, regardless of the test assay used: to five years after a negative HPV test in women aged 25-49 years, and even longer for women aged 50 years and older. The screening interval for HPV positive women who have negative HPV tests at early recall should be kept at three years.</t>
   </si>
   <si>
     <t>OBJECTIVES: To investigate the regulatory handling of cancer drugs that were granted accelerated approval by the US Food and Drug Administration (FDA) but failed to improve the primary endpoint in post-approval trials and to evaluate the extent to which negative post-approval trials changed the recommendations in treatment guidelines. DESIGN: Retrospective observational study. SETTING: FDA and National Comprehensive Cancer Network (NCCN) reports. INCLUDED DRUGS: Cancer drugs that received accelerated approval from the FDA and had negative post-approval trials. MAIN OUTCOME MEASURES: Regulatory outcomes, including withdrawal, conversion to regular approval, and no action. RESULTS: 18 indications for 10 cancer drugs that received accelerated approval but failed to improve the primary endpoint in post-approval trials were identified. Of these, 11 (61%) were voluntarily withdrawn by the manufacturer and one (bevacizumab for breast cancer) was revoked by the FDA. Of the 11 withdrawals, six occurred in 2021 alone. The remaining six (33%) indications remain on the label. The NCCN guidelines provide a high level of endorsement (category 1 endorsement for one and category 2A endorsement for seven) for accelerated approval drugs that have failed post-approval trials, sometimes even after the approval has been withdrawn or revoked. CONCLUSION: Cancer drug indications that received accelerated approval often remained on formal FDA approved drug labelling and continued to be recommended in clinical guidelines several years after statutorily required post-approval trials showed no improvement in the primary efficacy endpoint. Clinical guidelines should better align with the results of post-approval trials of cancer drugs that received accelerated approval.</t>
   </si>
   <si>
-    <t>OBJECTIVES: To derive and validate risk prediction algorithms to estimate the risk of covid-19 related mortality and hospital admission in UK adults after one or two doses of covid-19 vaccination. DESIGN: Prospective, population based cohort study using the QResearch database linked to data on covid-19 vaccination, SARS-CoV-2 results, hospital admissions, systemic anticancer treatment, radiotherapy, and the national death and cancer registries. SETTINGS: Adults aged 19-100 years with one or two doses of covid-19 vaccination between 8 December 2020 and 15 June 2021. MAIN OUTCOME MEASURES: Primary outcome was covid-19 related death. Secondary outcome was covid-19 related hospital admission. Outcomes were assessed from 14 days after each vaccination dose. Models were fitted in the derivation cohort to derive risk equations using a range of predictor variables. Performance was evaluated in a separate validation cohort of general practices. RESULTS: Of 6 952 440 vaccinated patients in the derivation cohort, 5 150 310 (74.1%) had two vaccine doses. Of 2031 covid-19 deaths and 1929 covid-19 hospital admissions, 81 deaths (4.0%) and 71 admissions (3.7%) occurred 14 days or more after the second vaccine dose. The risk algorithms included age, sex, ethnic origin, deprivation, body mass index, a range of comorbidities, and SARS-CoV-2 infection rate. Incidence of covid-19 mortality increased with age and deprivation, male sex, and Indian and Pakistani ethnic origin. Cause specific hazard ratios were highest for patients with Down's syndrome (12.7-fold increase), kidney transplantation (8.1-fold), sickle cell disease (7.7-fold), care home residency (4.1-fold), chemotherapy (4.3-fold), HIV/AIDS (3.3-fold), liver cirrhosis (3.0-fold), neurological conditions (2.6-fold), recent bone marrow transplantation or a solid organ transplantation ever (2.5-fold), dementia (2.2-fold), and Parkinson's disease (2.2-fold). Other conditions with increased risk (ranging from 1.2-fold to 2.0-fold increases) included chronic kidney disease, blood cancer, epilepsy, chronic obstructive pulmonary disease, coronary heart disease, stroke, atrial fibrillation, heart failure, thromboembolism, peripheral vascular disease, and type 2 diabetes. A similar pattern of associations was seen for covid-19 related hospital admissions. No evidence indicated that associations differed after the second dose, although absolute risks were reduced. The risk algorithm explained 74.1% (95% confidence interval 71.1% to 77.0%) of the variation in time to covid-19 death in the validation cohort. Discrimination was high, with a D statistic of 3.46 (95% confidence interval 3.19 to 3.73) and C statistic of 92.5. Performance was similar after each vaccine dose. In the top 5% of patients with the highest predicted covid-19 mortality risk, sensitivity for identifying covid-19 deaths within 70 days was 78.7%. CONCLUSION: This population based risk algorithm performed well showing high levels of discrimination for identifying those patients at highest risk of covid-19 related death and hospital admission after vaccination.</t>
-  </si>
-  <si>
-    <t>OBJECTIVES: To determine if bilateral salpingo-oophorectomy, compared with ovarian conservation, is associated with all cause or cause specific death in women undergoing hysterectomy for non-malignant disease, and to determine how this association varies with age at surgery. DESIGN: Population based cohort study. SETTING: Ontario, Canada from 1 January 1996 to 31 December 2015, and follow-up to 31 December 2017. PARTICIPANTS: 200 549 women (aged 30-70 years) undergoing non-malignant hysterectomy, stratified into premenopausal (&lt;45 years), menopausal transition (45-49 years), early menopausal (50-54 years), and late menopausal (&gt;/=55 years) groups according to age at surgery; median follow-up was 12 years (interquartile range 7-17). EXPOSURES: Bilateral salpingo-oophorectomy versus ovarian conservation. MAIN OUTCOMES MEASURES: The primary outcome was all cause death. Secondary outcomes were non-cancer and cancer death. Within each age group, overlap propensity score weighted survival models were used to examine the association between bilateral salpingo-oophorectomy and mortality outcomes, while adjusting for demographic characteristics, gynaecological conditions, and comorbidities. To account for comparisons in four age groups, P&lt;0.0125 was considered statistically significant. RESULTS: Bilateral salpingo-oophorectomy was performed in 19%, 41%, 69%, and 81% of women aged &lt;45, 45-49, 50-54, and &gt;/=55 years, respectively. The procedure was associated with increased rates of all cause death in women aged &lt;45 years (hazard ratio 1.31, 95% confidence interval 1.18 to 1.45, P&lt;0.001; number needed to harm 71 at 20 years) and 45-49 years (1.16, 1.04 to 1.30, P=0.007; 152 at 20 years), but not in women aged 50-54 years (0.83, 0.72 to 0.97, P=0.018) or &gt;/=55 years (0.92, 0.82 to 1.03, P=0.16). Findings in women aged &lt;50 years were driven largely by increased non-cancer death. In secondary analyses identifying a possible change in the association between bilateral salpingo-oophorectomy and all cause death with advancing age at surgery, the hazard ratio gradually decreased during the menopausal transition and remained around 1 at all ages thereafter. CONCLUSION: In this observational study, bilateral salpingo-oophorectomy at non-malignant hysterectomy appeared to be associated with increased all cause mortality in women aged &lt;50 years, but not in those aged &gt;/=50 years. While caution is warranted when considering bilateral salpingo-oophorectomy in premenopausal women without indication, this strategy for ovarian cancer risk reduction does not appear to be detrimental to survival in postmenopausal women.</t>
-  </si>
-  <si>
     <t>OBJECTIVES: To study total, processed, and unprocessed red meat in relation to risk of coronary heart disease (CHD) and to estimate the effects of substituting other protein sources for red meat with CHD risk. DESIGN: Prospective cohort study with repeated measures of diet and lifestyle factors. SETTING: Health Professionals Follow-Up Study cohort, United States, 1986-2016. PARTICIPANTS: 43 272 men without cardiovascular disease or cancer at baseline. MAIN OUTCOME MEASURES: The primary outcome was total CHD, comprised of acute non-fatal myocardial infarction or fatal CHD. Cox models were used to estimate hazard ratios and 95% confidence intervals across categories of red meat consumption. Substitution analyses were conducted by comparing coefficients for red meat and the alternative food in models, including red meat and alternative foods as continuous variables. RESULTS: During 1 023 872 person years of follow-up, 4456 incident CHD events were documented of which 1860 were fatal. After multivariate adjustment for dietary and non-dietary risk factors, total, unprocessed, and processed red meat intake were each associated with a modestly higher risk of CHD (hazard ratio for one serving per day increment: 1.12 (95% confidence interval 1.06 to 1.18) for total red meat, 1.11 (1.02 to 1.21) for unprocessed red meat, and 1.15 (1.06 to 1.25) for processed red meat). Compared with red meat, the intake of one serving per day of combined plant protein sources (nuts, legumes, and soy) was associated with a lower risk of CHD (0.86 (0.80 to 0.93) compared with total red meat, 0.87 (0.79 to 0.95) compared with unprocessed red meat, and 0.83 (0.76 to 0.91) compared with processed red meat). Substitutions of whole grains and dairy products for total red meat and eggs for processed red meat were also associated with lower CHD risk. CONCLUSIONS: Substituting high quality plant foods such as legumes, nuts, or soy for red meat might reduce the risk of CHD. Substituting whole grains and dairy products for total red meat, and eggs for processed red meat, might also reduce this risk.</t>
   </si>
   <si>
@@ -1600,9 +1483,6 @@
     <t>IMPORTANCE: The incidence of central nervous system (CNS) tumors in children appears to be increasing, yet few risk factors are established. There is limited information regarding whether maternal hormonal contraception use increases this risk. OBJECTIVE: To examine the association between maternal hormonal contraception use and CNS tumors in children (&lt;20 years). DESIGN, SETTING, AND PARTICIPANTS: In this nationwide cohort study based on population-based registry data, 1 185 063 children born in Denmark between January 1, 1996, and December 31, 2014, were followed up for a diagnosis of a CNS tumor (final follow-up on December 31, 2018). EXPOSURES: Maternal hormonal contraception use was analyzed according to any use, regimen (combined/progestin only), and route of administration (oral/nonoral), categorized as recent use (&lt;/=3 months before start and during pregnancy), previous use (&gt;3 months before start of pregnancy), and no use. For injections, implants, and intrauterine devices that are used for a different time period, the categorization was appropriately altered. MAIN OUTCOMES AND MEASURES: Hazard ratio (HR) and incidence rate difference (IRD) of CNS tumors diagnosed at younger than 20 years. RESULTS: After 15 335 990 person-years of follow-up (mean follow-up, 12.9 years), 725 children were diagnosed with a CNS tumor. The mean age at diagnosis was 7 years, and 342 (47.2%) of the diagnosed children were female. The adjusted incidence rate of CNS tumors per 100 000 person-years was 5.0 for children born to mothers with recent hormonal contraception use (n = 136 022), 4.5 for children born to mothers with previous use (n = 778 843), and 5.3 for children born to mothers with no use (n = 270 198). The corresponding HRs were 0.95 ([95% CI, 0.74-1.23]; 84 children with CNS tumors; IRD, -0.3 [95% CI, -1.6 to 1.0]) for recent use and 0.86 ([95% CI, 0.72-1.02]; 421 children with CNS tumors; IRD, -0.8 [95% CI, -1.7 to 0.0]) for previous use, compared with no use. No statistically significant associations were found for recent or previous use of oral combined, nonoral combined, oral progestin only, or nonoral products compared with no use of hormonal contraception. CONCLUSIONS AND RELEVANCE: Among Danish children, there was no statistically significant association between any maternal hormonal contraception use and CNS tumor risk.</t>
   </si>
   <si>
-    <t>IMPORTANCE: The US Preventive Services Task Force (USPSTF) is updating its 2016 recommendation on the use of aspirin for the primary prevention of cardiovascular disease (CVD) and colorectal cancer (CRC). OBJECTIVE: To provide updated model-based estimates of the net balance in benefits and harms from routine use of low-dose aspirin for primary prevention. DESIGN, SETTING, AND PARTICIPANTS: Microsimulation modeling was used to estimate long-term benefits and harms for hypothetical US cohorts of men and women aged 40 to 79 years with up to 20% 10-year risk for an atherosclerotic CVD event and without prior history of CVD or elevated bleeding risks. EXPOSURES: Low-dose (&lt;/=100 mg/d) aspirin for lifetime use, unless contraindicated by a bleeding event, and with stopping ages in 5-year intervals from age 65 to 85 years. MAIN OUTCOMES AND MEASURES: Primary outcomes were lifetime net benefits measured in quality-adjusted life-years (QALYs) and life-years. Benefits included reduced nonfatal myocardial infarction and ischemic stroke. Harms included increased nonfatal major gastrointestinal bleeding and intracranial hemorrhage. Reduced CRC incidence was considered in sensitivity analysis. RESULTS: Estimated lifetime net QALYs were positive for both men and women at 5% or greater 10-year CVD risk when starting between ages 40 and 59 years and at 10% or greater 10-year CVD risk when starting between ages 60 and 69 years. These estimates ranged from 2.3 (95% CI, -2.7 to 7.4) to 66.2 (95% CI, 58.2 to 74.1) QALYs per 1000 persons. Lifetime net life-years were positive for men at 5% or greater and women at 10% or greater 10-year CVD risk starting aspirin at ages 40 to 49 years and for men at 7.5% or greater and women at 15% or greater 10-year CVD risk at ages 50 to 59 years. These estimates ranged from 0.4 (95% CI, -6.1 to 6.9) to 52.4 (95% CI, 43.9 to 60.9) life-years per 1000 persons. Lifetime net life-years were negative in most cases for persons starting aspirin between ages 60 and 79 years, as were lifetime net QALYs for persons aged 70 to 79 years. Stopping aspirin between ages 65 and 85 years generally showed little advantage compared with lifetime use. Sensitivity analyses showed lifetime net benefits may be higher if aspirin reduced CRC incidence or CVD mortality and lower if aspirin increased fatal major gastrointestinal bleeding or reduced quality of life with routine use. CONCLUSIONS AND RELEVANCE: This microsimulation study suggested that several population groups may benefit from taking aspirin for the primary prevention of CVD, primarily in persons starting at younger ages with higher 10-year CVD risk.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: In 2016, the US Centers for Medicare &amp; Medicaid Services initiated the Oncology Care Model (OCM), an alternative payment model designed to improve the value of care delivered to Medicare beneficiaries with cancer. OBJECTIVE: To assess the association of the OCM with changes in Medicare spending, utilization, quality, and patient experience during the OCM's first 3 years. DESIGN, SETTING, AND PARTICIPANTS: Exploratory difference-in-differences study comparing care during 6-month chemotherapy episodes in OCM participating practices and propensity-matched comparison practices initiated before (January 2014 through June 2015) and after (July 2016 through December 2018) the start of the OCM. Participants included Medicare fee-for-service beneficiaries with cancer treated at these practices through June 2019. EXPOSURES: OCM participation. MAIN OUTCOMES AND MEASURES: Total episode payments (Medicare spending for Parts A, B, and D, not including monthly payments for enhanced oncology services); utilization and payments for hospitalizations, emergency department (ED) visits, office visits, chemotherapy, supportive care, and imaging; quality (chemotherapy-associated hospitalizations and ED visits, timely chemotherapy, end-of-life care, and survival); and patient experiences. RESULTS: Among Medicare fee-for-service beneficiaries with cancer undergoing chemotherapy, 483 319 beneficiaries (mean age, 73.0 [SD, 8.7] years; 60.1% women; 987 332 episodes) were treated at 201 OCM participating practices, and 557 354 beneficiaries (mean age, 72.9 [SD, 9.0] years; 57.4% women; 1 122 597 episodes) were treated at 534 comparison practices. From the baseline period, total episode payments increased from $28 681 for OCM episodes and $28 421 for comparison episodes to $33 211 for OCM episodes and $33 249 for comparison episodes during the intervention period (difference in differences, -$297; 90% CI, -$504 to -$91), less than the mean $704 Monthly Enhanced Oncology Services payments. Relative decreases in total episode payments were primarily for Part B nonchemotherapy drug payments (difference in differences, -$145; 90% CI, -$218 to -$72), especially supportive care drugs (difference in differences, -$150; 90% CI, -$216 to -$84). The OCM was associated with statistically significant relative reductions in total episode payments among higher-risk episodes (difference in differences, -$503; 90% CI, -$802 to -$204) and statistically significant relative increases in total episode payments among lower-risk episodes (difference in differences, $151; 90% CI, $39-$264). The OCM was not significantly associated with differences in hospitalizations, ED visits, or survival. Of 22 measures of utilization, 10 measures of quality, and 7 measures of care experiences, only 5 were significantly different. CONCLUSIONS AND RELEVANCE: In this exploratory analysis, the OCM was significantly associated with modest payment reductions during 6-month episodes for Medicare beneficiaries receiving chemotherapy for cancer in the first 3 years of the OCM that did not offset the monthly payments for enhanced oncology services. There were no statistically significant differences for most utilization, quality, and patient experience outcomes.</t>
   </si>
   <si>
@@ -1630,9 +1510,6 @@
     <t>IMPORTANCE: The relationship between use of powder in the genital area and ovarian cancer is not established. Positive associations reported in case-control studies have not been confirmed in cohort studies. OBJECTIVE: To estimate the association between use of powder in the genital area and ovarian cancer using prospective observational data. DESIGN, SETTING, AND PARTICIPANTS: Data were pooled from 4 large, US-based cohorts: Nurses' Health Study (enrollment 1976; follow-up 1982-2016; n = 81 869), Nurses' Health Study II (enrollment 1989; follow-up 2013-2017; n = 61 261), Sister Study (enrollment 2003-2009; follow-up 2003-2017; n = 40 647), and Women's Health Initiative Observational Study (enrollment 1993-1998; follow-up 1993-2017; n = 73 267). EXPOSURES: Ever, long-term (&gt;/=20 years), and frequent (&gt;/=1/week) use of powder in the genital area. MAIN OUTCOMES AND MEASURES: The primary analysis examined the association between ever use of powder in the genital area and self-reported incident ovarian cancer. Covariate-adjusted hazard ratios (HRs) and 95% CIs were estimated using Cox proportional hazards models. RESULTS: The pooled sample included 252 745 women (median age at baseline, 57 years) with 38% self-reporting use of powder in the genital area. Ten percent reported long-term use, and 22% reported frequent use. During a median of 11.2 years of follow-up (3.8 million person-years at risk), 2168 women developed ovarian cancer (58 cases/100 000 person-years). Ovarian cancer incidence was 61 cases/100 000 person-years among ever users and 55 cases/100 000 person-years among never users (estimated risk difference at age 70 years, 0.09% [95% CI, -0.02% to 0.19%]; estimated HR, 1.08 [95% CI, 0.99 to 1.17]). The estimated HR for frequent vs never use was 1.09 (95% CI, 0.97 to 1.23) and for long-term vs never use, the HR was 1.01 (95% CI, 0.82 to 1.25). Subgroup analyses were conducted for 10 variables; the tests for heterogeneity were not statistically significant for any of these comparisons. While the estimated HR for the association between ever use of powder in the genital area and ovarian cancer risk among women with a patent reproductive tract was 1.13 (95% CI, 1.01 to 1.26), the P value for interaction comparing women with vs without patent reproductive tracts was .15. CONCLUSIONS AND RELEVANCE: In this analysis of pooled data from women in 4 US cohorts, there was not a statistically significant association between use of powder in the genital area and incident ovarian cancer. However, the study may have been underpowered to identify a small increase in risk.</t>
   </si>
   <si>
-    <t>IMPORTANCE: In the 2017 American College of Cardiology (ACC)/American Heart Association (AHA) guideline, the definition of hypertension was lowered from a blood pressure (BP) of greater than or equal to 140/90 to greater than or equal to 130/80 mm Hg. The new diastolic BP threshold of 80 mm Hg was recommended based on expert opinion and changes the definition of isolated diastolic hypertension (IDH). OBJECTIVE: To compare the prevalence of IDH in the United States, by 2017 ACC/AHA and 2003 Joint National Committee (JNC7) definitions, and to characterize cross-sectional and longitudinal associations of IDH with outcomes. DESIGN, SETTING, AND PARTICIPANTS: Cross-sectional analyses of the National Health and Nutrition Examination Survey (NHANES 2013-2016) and longitudinal analyses of the Atherosclerosis Risk in Communities (ARIC) Study (baseline 1990-1992, with follow-up through December 31, 2017). Longitudinal results were validated in 2 external cohorts: (1) the NHANES III (1988-1994) and NHANES 1999-2014 and (2) the Give Us a Clue to Cancer and Heart Disease (CLUE) II cohort (baseline 1989). EXPOSURES: IDH, by 2017 ACC/AHA (systolic BP &lt;130 mm Hg, diastolic BP &gt;/=80 mm Hg) and by JNC7 (systolic BP &lt;140 mm Hg, diastolic BP &gt;/=90 mm Hg) definitions. MAIN OUTCOMES AND MEASURES: Weighted estimates for prevalence of IDH in US adults and prevalence of US adults recommended BP pharmacotherapy by the 2017 ACC/AHA guideline based solely on the presence of IDH. Risk of incident atherosclerotic cardiovascular disease (ASCVD), heart failure (HF), and chronic kidney disease (CKD) in the ARIC Study. RESULTS: The study population included 9590 adults from the NHANES (mean [SD] baseline age, 49.6 [17.6] years; 5016 women [52.3%]) and 8703 adults from the ARIC Study (mean [SD] baseline age, 56.0 [5.6] years; 4977 women [57.2%]). The estimated prevalence of IDH in the NHANES was 6.5% by the 2017 ACC/AHA definition and 1.3% by the JNC7 definition (absolute difference, 5.2% [95% CI, 4.7%-5.7%]). Among those newly classified as having IDH, an estimated 0.6% (95% CI, 0.5%-0.6%) also met the guideline threshold for antihypertensive therapy. Compared with normotensive ARIC participants, IDH by the 2017 ACC/AHA definition was not significantly associated with incident ASCVD (n = 1386 events; median follow-up, 25.2 years; hazard ratio [HR], 1.06 [95% CI, 0.89-1.26]), HF (n = 1396 events; HR, 0.91 [95% CI, 0.76-1.09]), or CKD (n = 2433 events; HR, 0.98 [95% CI, 0.65-1.11]). Results were also null for cardiovascular mortality in the 2 external cohorts (eg, HRs of IDH by the 2017 ACC/AHA definition were 1.17 [95% CI, 0.87-1.56] in the NHANES [n = 1012 events] and 1.02 [95% CI, 0.92-1.14] in CLUE II [n = 1497 events]). CONCLUSIONS AND RELEVANCE: In this analysis of US adults, the estimated prevalence of IDH was more common when defined by the 2017 ACC/AHA BP guideline compared with the JNC7 guideline. However, IDH was not significantly associated with increased risk for cardiovascular outcomes.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: Understanding adverse effects of contemporary treatment approaches for men with favorable-risk and unfavorable-risk localized prostate cancer could inform treatment selection. OBJECTIVE: To compare functional outcomes associated with prostate cancer treatments over 5 years after treatment. DESIGN, SETTING, AND PARTICIPANTS: Prospective, population-based cohort study of 1386 men with favorable-risk (clinical stage cT1 to cT2bN0M0, prostate-specific antigen [PSA] &lt;/=20 ng/mL, and Grade Group 1-2) prostate cancer and 619 men with unfavorable-risk (clinical stage cT2cN0M0, PSA of 20-50 ng/mL, or Grade Group 3-5) prostate cancer diagnosed in 2011 through 2012, accrued from 5 Surveillance, Epidemiology and End Results Program sites and a US prostate cancer registry, with surveys through September 2017. EXPOSURES: Treatment with active surveillance (n = 363), nerve-sparing prostatectomy (n = 675), external beam radiation therapy (EBRT; n = 261), or low-dose-rate brachytherapy (n = 87) for men with favorable-risk disease and treatment with prostatectomy (n = 402) or EBRT with androgen deprivation therapy (n = 217) for men with unfavorable-risk disease. MAIN OUTCOMES AND MEASURES: Patient-reported function, based on the 26-item Expanded Prostate Index Composite (range, 0-100), 5 years after treatment. Regression models were adjusted for baseline function and patient and tumor characteristics. Minimum clinically important difference was 10 to 12 for sexual function, 6 to 9 for urinary incontinence, 5 to 7 for urinary irritative symptoms, and 4 to 6 for bowel and hormonal function. RESULTS: A total of 2005 men met inclusion criteria and completed the baseline and at least 1 postbaseline survey (median [interquartile range] age, 64 [59-70] years; 1529 of 1993 participants [77%] were non-Hispanic white). For men with favorable-risk prostate cancer, nerve-sparing prostatectomy was associated with worse urinary incontinence at 5 years (adjusted mean difference, -10.9 [95% CI, -14.2 to -7.6]) and sexual function at 3 years (adjusted mean difference, -15.2 [95% CI, -18.8 to -11.5]) compared with active surveillance. Low-dose-rate brachytherapy was associated with worse urinary irritative (adjusted mean difference, -7.0 [95% CI, -10.1 to -3.9]), sexual (adjusted mean difference, -10.1 [95% CI, -14.6 to -5.7]), and bowel (adjusted mean difference, -5.0 [95% CI, -7.6 to -2.4]) function at 1 year compared with active surveillance. EBRT was associated with urinary, sexual, and bowel function changes not clinically different from active surveillance at any time point through 5 years. For men with unfavorable-risk disease, EBRT with ADT was associated with lower hormonal function at 6 months (adjusted mean difference, -5.3 [95% CI, -8.2 to -2.4]) and bowel function at 1 year (adjusted mean difference, -4.1 [95% CI, -6.3 to -1.9]), but better sexual function at 5 years (adjusted mean difference, 12.5 [95% CI, 6.2-18.7]) and incontinence at each time point through 5 years (adjusted mean difference, 23.2 [95% CI, 17.7-28.7]), than prostatectomy. CONCLUSIONS AND RELEVANCE: In this cohort of men with localized prostate cancer, most functional differences associated with contemporary management options attenuated by 5 years. However, men undergoing prostatectomy reported clinically meaningful worse incontinence through 5 years compared with all other options, and men undergoing prostatectomy for unfavorable-risk disease reported worse sexual function at 5 years compared with men who underwent EBRT with ADT.</t>
   </si>
   <si>
@@ -1645,9 +1522,6 @@
     <t>IMPORTANCE: US national guidelines discourage the use of continuous pulse oximetry monitoring in hospitalized children with bronchiolitis who do not require supplemental oxygen. OBJECTIVE: Measure continuous pulse oximetry use in children with bronchiolitis. DESIGN, SETTING, AND PARTICIPANTS: A multicenter cross-sectional study was performed in pediatric wards in 56 US and Canadian hospitals in the Pediatric Research in Inpatient Settings Network from December 1, 2018, through March 31, 2019. Participants included a convenience sample of patients aged 8 weeks through 23 months with bronchiolitis who were not receiving active supplemental oxygen administration. Patients with extreme prematurity, cyanotic congenital heart disease, pulmonary hypertension, home respiratory support, neuromuscular disease, immunodeficiency, or cancer were excluded. EXPOSURES: Hospitalization with bronchiolitis without active supplemental oxygen administration. MAIN OUTCOMES AND MEASURES: The primary outcome, receipt of continuous pulse oximetry, was measured using direct observation. Continuous pulse oximetry use percentages were risk standardized using the following variables: nighttime (11 pm to 7 am), age combined with preterm birth, time after weaning from supplemental oxygen or flow, apnea or cyanosis during the present illness, neurologic impairment, and presence of an enteral feeding tube. RESULTS: The sample included 3612 patient observations in 33 freestanding children's hospitals, 14 children's hospitals within hospitals, and 9 community hospitals. In the sample, 59% were male, 56% were white, and 15% were black; 48% were aged 8 weeks through 5 months, 28% were aged 6 through 11 months, 16% were aged 12 through 17 months, and 9% were aged 18 through 23 months. The overall continuous pulse oximetry monitoring use percentage in these patients, none of whom were receiving any supplemental oxygen or nasal cannula flow, was 46% (95% CI, 40%-53%). Hospital-level unadjusted continuous pulse oximetry use ranged from 2% to 92%. After risk standardization, use ranged from 6% to 82%. Intraclass correlation coefficient suggested that 27% (95% CI, 19%-36%) of observed variation was attributable to unmeasured hospital-level factors. CONCLUSIONS AND RELEVANCE: In a convenience sample of children hospitalized with bronchiolitis who were not receiving active supplemental oxygen administration, monitoring with continuous pulse oximetry was frequent and varied widely among hospitals. Because of the apparent absence of a guideline- or evidence-based indication for continuous monitoring in this population, this practice may represent overuse.</t>
   </si>
   <si>
-    <t>BACKGROUND: Lately, autologous CD19-targeting chimeric antigen receptor (CAR) T cells have shown excellent efficacy in treatment of autoimmune diseases, but with great safety concerns, such as infections. In this study, we aimed to evaluate the safety, tolerability, and efficacy of allogeneic CD19 CAR natural killer (NK)-cell therapy in patients with relapsed or refractory systemic lupus erythematosus (SLE). METHODS: In this open-label, single-arm, prospective, first-in-human case series, we evaluated allogeneic CD19 CAR NK-cell therapy in adult patients (aged 18-65 years) with relapsed or refractory SLE at one site in China. Patients who had received at least two previous standard systemic therapies and continued to exhibit moderate-to-severe disease activity were eligible for inclusion. This study consisted of schedule escalation and dose escalation, with schedule escalation from 7 days and dose escalation commencing at 0.75 x 10(9) CAR NK cells on day 0. All patients received a lymphodepleting conditioning regimen with fludarabine (25 mg/m(2) per day) and cyclophosphamide (300 mg/m(2) per day) administered daily from days -5 to -3, followed by three CAR NK-cell infusions within a single treatment cycle at identical dose levels and inter-infusion intervals. Dose-limiting adverse events were monitored in patients for 28 days. The primary endpoints of this study were safety and tolerability, including the incidence of dose-limiting toxicities and adverse events according to National Cancer Institute Common Terminology Criteria for Adverse Events version 5.0. This study was registered with ClinicalTrials.gov (NCT06010472) and follow-up is ongoing. FINDINGS: 18 patients with relapsed or refractory SLE with moderate-to-severe disease activity were enrolled between Aug 21, 2023, and June 16, 2024. Of the 18 patients, 17 (94%) were female; the median age was 37.5 years (IQR 32.0-39.8), and the median disease duration was 10.5 years (IQR 4.5-14.8). Patients had received at least two standard systemic therapies, including biological agents (belimumab and telitacicept) in 14 (78%) of 18 patients, and plasmapheresis in one patient. Cytokine release syndrome was reported in one (6%) of 18 patients (grade 1). Neurotoxicity and other CAR NK-cell therapy-related severe adverse events were not observed, and there were no dose-limiting toxicities. Of the nine patients with more than 12 months' follow-up, six (67%) attained DORIS remission and lupus low disease activity state. INTERPRETATION: This study suggests that allogeneic CAR NK-cell therapy is a potent option for treatment of autoimmune diseases and indicates that such a therapy might address limitations of current autologous CAR T-cell therapy, including manufacturing scale and time, access, safety, and cost. FUNDING: Shanghai Municipal Health Commission, Changhai Hospital Affiliated to Naval Medical University, and National Natural Science Foundation of China. TRANSLATION: For the Chinese translation of the abstract see Supplementary Materials section.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Cancer is a leading cause of death globally. Accurate cancer burden information is crucial for policy planning, but many countries do not have up-to-date cancer surveillance data. To inform global cancer-control efforts, we used the Global Burden of Diseases, Injuries, and Risk Factors Study (GBD) 2023 framework to generate and analyse estimates of cancer burden for 47 cancer types or groupings by age, sex, and 204 countries and territories from 1990 to 2023, cancer burden attributable to selected risk factors from 1990 to 2023, and forecasted cancer burden up to 2050. METHODS: Cancer estimation in GBD 2023 used data from population-based cancer registration systems, vital registration systems, and verbal autopsies. Cancer mortality was estimated using ensemble models, with incidence informed by mortality estimates and mortality-to-incidence ratios (MIRs). Prevalence estimates were generated from modelled survival estimates, then multiplied by disability weights to estimate years lived with disability (YLDs). Years of life lost (YLLs) were estimated by multiplying age-specific cancer deaths by the GBD standard life expectancy at the age of death. Disability-adjusted life-years (DALYs) were calculated as the sum of YLLs and YLDs. We used the GBD 2023 comparative risk assessment framework to estimate cancer burden attributable to 44 behavioural, environmental and occupational, and metabolic risk factors. To forecast cancer burden from 2024 to 2050, we used the GBD 2023 forecasting framework, which included forecasts of relevant risk factor exposures and used Socio-demographic Index as a covariate for forecasting the proportion of each cancer not affected by these risk factors. Progress towards the UN Sustainable Development Goal (SDG) target 3.4 aim to reduce non-communicable disease mortality by a third between 2015 and 2030 was estimated for cancer. FINDINGS: In 2023, excluding non-melanoma skin cancers, there were 18.5 million (95% uncertainty interval 16.4 to 20.7) incident cases of cancer and 10.4 million (9.65 to 10.9) deaths, contributing to 271 million (255 to 285) DALYs globally. Of these, 57.9% (56.1 to 59.8) of incident cases and 65.8% (64.3 to 67.6) of cancer deaths occurred in low-income to upper-middle-income countries based on World Bank income group classifications. Cancer was the second leading cause of deaths globally in 2023 after cardiovascular diseases. There were 4.33 million (3.85 to 4.78) risk-attributable cancer deaths globally in 2023, comprising 41.7% (37.8 to 45.4) of all cancer deaths. Risk-attributable cancer deaths increased by 72.3% (57.1 to 86.8) from 1990 to 2023, whereas overall global cancer deaths increased by 74.3% (62.2 to 86.2) over the same period. The reference forecasts (the most likely future) estimate that in 2050 there will be 30.5 million (22.9 to 38.9) cases and 18.6 million (15.6 to 21.5) deaths from cancer globally, 60.7% (41.9 to 80.6) and 74.5% (50.1 to 104.2) increases from 2024, respectively. These forecasted increases in deaths are greater in low-income and middle-income countries (90.6% [61.0 to 127.0]) compared with high-income countries (42.8% [28.3 to 58.6]). Most of these increases are likely due to demographic changes, as age-standardised death rates are forecast to change by -5.6% (-12.8 to 4.6) between 2024 and 2050 globally. Between 2015 and 2030, the probability of dying due to cancer between the ages of 30 years and 70 years was forecasted to have a relative decrease of 6.5% (3.2 to 10.3). INTERPRETATION: Cancer is a major contributor to global disease burden, with increasing numbers of cases and deaths forecasted up to 2050 and a disproportionate growth in burden in countries with scarce resources. The decline in age-standardised mortality rates from cancer is encouraging but insufficient to meet the SDG target set for 2030. Effectively and sustainably addressing cancer burden globally will require comprehensive national and international efforts that consider health systems and context in the development and implementation of cancer-control strategies across the continuum of prevention, diagnosis, and treatment. FUNDING: Gates Foundation, St Jude Children's Research Hospital, and St Baldrick's Foundation.</t>
   </si>
   <si>
@@ -1678,9 +1552,6 @@
     <t>BACKGROUND: Understanding the proportion of invasive cervical cancer (ICC) caused by different human papillomavirus (HPV) genotypes can inform primary (ie, vaccination) and secondary (ie, screening) prevention efforts that target specific HPV genotypes. However, using the global literature to estimate population attributable fractions (AFs) requires a methodological framework to address HPV genotype-specific causality from aggregated data. We aimed to estimate the proportion of ICC caused by different HPV genotypes at the global, regional, and national level. METHODS: This systematic review identified studies reporting HPV genotype-specific prevalence in ICC or people with normal cervical cytology. We searched PubMed, Embase, Scopus, and Web of Science up to Feb 29, 2024, using the search terms "cervix" and "HPV", with no language restrictions. Odds ratios (ORs) were estimated by comparing HPV genotype-specific prevalence between HPV-positive ICC and normal cervical cytology with logistic regression models, adjusting for region, year of paper publication, and HPV primer or test. HPV genotypes with a lower bound to the 95% CI of the OR greater than 1.0 were judged as causal to ICC. Corresponding regional genotype-specific AFs were calculated as regional HPV prevalence in ICC multiplied by (1 - [1 / OR]) and were proportionally adjusted to total 100%. Global AFs were calculated from regional AFs weighted by number of regional ICC cases in 2022 (GLOBOCAN). FINDINGS: The systematic review identified 1174 studies with 111 902 cases of HPV-positive ICC and 2 755 734 of normal cervical cytology. 17 HPV genotypes were considered causal to ICC, with ORs ranging widely from 48.3 (95% CI 45.7-50.9) for HPV16 to 1.4 (1.2-1.7) for HPV51. HPV16 had the highest global AF (61.7%), followed by HPV18 (15.3%), HPV45 (4.8%), HPV33 (3.8%), HPV58 (3.5%), HPV31 (2.8%), and HPV52 (2.8%). Remaining causal genotypes (HPV35, 59, 39, 56, 51, 68, 73, 26, 69, and 82) had a combined global AF of 5.3%. AFs for HPV16 and 18 and HPV16, 18, 31, 33, 45, 52, and 58 combined were lowest in Africa (71.9% and 92.1%, respectively) and highest in central, western, and southern Asia (83.2% and 95.9%, respectively). HPV35 had a higher AF in Africa (3.6%) than other regions (0.6-1.6%). INTERPRETATION: This study provides a comprehensive global picture of HPV genotype-specific AFs in ICC, before the influence of HPV vaccination. These data can inform HPV genotype-specific vaccination and screening strategies to reduce the burden of ICC. FUNDING: EU Horizon 2020 Research and Innovation Programme.</t>
   </si>
   <si>
-    <t>BACKGROUND: The focus of most epidemiological studies has been mortality or clinical events, with less information on activity limitations related to basic daily functions and their consequences. Standardised data from multiple countries at different economic levels in different regions of the world on activity limitations and their associations with clinical outcomes are sparse. We aimed to quantify the prevalence of activity limitations and use of assistive devices and the association of limitations with adverse outcomes in 25 countries grouped by different economic levels. METHODS: In this analysis, we obtained data from individuals in 25 high-income, middle-income, and low-income countries from the Prospective Urban Rural Epidemiological (PURE) study (175 660 participants). In the PURE study, individuals aged 35-70 years who intended to continue living in their current home for a further 4 years were invited to complete a questionnaire on activity limitations. Participant follow-up was planned once every 3 years either by telephone or in person. The activity limitation screen consisted of questions on self-reported difficulty with walking, grasping, bending, seeing close, seeing far, speaking, hearing, and use of assistive devices (gait, vision, and hearing aids). We estimated crude prevalence of self-reported activity limitations and use of assistive devices, and prevalence standardised by age and sex. We used logistic regression to additionally adjust prevalence for education and socioeconomic factors and to estimate the probability of activity limitations and assistive devices by age, sex, and country income. We used Cox frailty models to evaluate the association between each activity limitation with mortality and clinical events (cardiovascular disease, heart failure, pneumonia, falls, and cancer). The PURE study is registered with ClinicalTrials.gov, NCT03225586. FINDINGS: Between Jan 12, 2001, and May 6, 2019, 175 584 individuals completed at least one question on the activity limitation questionnaire (mean age 50.6 years [SD 9.8]; 103 625 [59%] women). Of the individuals who completed all questions, mean follow-up was 10.7 years (SD 4.4). The most common self-reported activity limitations were difficulty with bending (23 921 [13.6%] of 175 515 participants), seeing close (22 532 [13.4%] of 167 801 participants), and walking (22 805 [13.0%] of 175 554 participants); prevalence of limitations was higher with older age and among women. The prevalence of all limitations standardised by age and sex, with the exception of hearing, was highest in low-income countries and middle-income countries, and this remained consistent after adjustment for socioeconomic factors. The use of gait, visual, and hearing aids was lowest in low-income countries and middle-income countries, particularly among women. The prevalence of seeing close limitation was four times higher (6257 [16.5%] of 37 926 participants vs 717 [4.0%] of 18 039 participants) and the prevalence of seeing far limitation was five times higher (4003 [10.6%] of 37 923 participants vs 391 [2.2%] of 18 038 participants) in low-income countries than in high-income countries, but the prevalence of glasses use in low-income countries was half that in high-income countries. Walking limitation was most strongly associated with mortality (adjusted hazard ratio 1.32 [95% CI 1.25-1.39]) and most consistently associated with other clinical events, with other notable associations observed between seeing far limitation and mortality, grasping limitation and cardiovascular disease, bending limitation and falls, and between speaking limitation and stroke. INTERPRETATION: The global prevalence of activity limitations is substantially higher in women than men and in low-income countries and middle-income countries compared with high-income countries, coupled with a much lower use of gait, visual, and hearing aids. Strategies are needed to prevent and mitigate activity limitations globally, with particular emphasis on low-income countries and women. FUNDING: Funding sources are listed at the end of the Article.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Large disparities in mortality exist across racial-ethnic groups and by location in the USA, but the extent to which racial-ethnic disparities vary by location, or how these patterns vary by cause of death, is not well understood. We aimed to estimate age-standardised mortality by racial-ethnic group, county, and cause of death and describe the intersection between racial-ethnic and place-based disparities in mortality in the USA, comparing patterns across health conditions. METHODS: We applied small-area estimation models to death certificate data from the US National Vital Statistics system and population data from the US National Center for Health Statistics to estimate mortality by age, sex, county, and racial-ethnic group annually from 2000 to 2019 for 19 broad causes of death. Race and ethnicity were categorised as non-Latino and non-Hispanic American Indian or Alaska Native (AIAN), non-Latino and non-Hispanic Asian or Pacific Islander (Asian), non-Latino and non-Hispanic Black (Black), Latino or Hispanic (Latino), and non-Latino and non-Hispanic White (White). We adjusted these mortality rates to correct for misreporting of race and ethnicity on death certificates and generated age-standardised results using direct standardisation to the 2010 US census population. FINDINGS: From 2000 to 2019, across 3110 US counties, racial-ethnic disparities in age-standardised mortality were noted for all causes of death considered. Mortality was substantially higher in the AIAN population (all-cause mortality 1028.2 [95% uncertainty interval 922.2-1142.3] per 100 000 population in 2019) and Black population (953.5 [947.5-958.8] per 100 000) than in the White population (802.5 [800.3-804.7] per 100 000), but substantially lower in the Asian population (442.3 [429.3-455.0] per 100 000) and Latino population (595.6 [583.7-606.8] per 100 000), and this pattern was found for most causes of death. However, there were exceptions to this pattern, and the exact order among racial-ethnic groups, magnitude of the disparity in both absolute and relative terms, and change over time in this magnitude varied considerably by cause of death. Similarly, substantial geographical variation in mortality was observed for all causes of death, both overall and within each racial-ethnic group. Racial-ethnic disparities observed at the national level reflect widespread disparities at the county level, although the magnitude of these disparities varied widely among counties. Certain patterns of disparity were nearly universal among counties; for example, in 2019, mortality was higher among the AIAN population than the White population in at least 95% of counties for skin and subcutaneous diseases (455 [97.8%] of 465 counties with unmasked estimates) and HIV/AIDS and sexually transmitted infections (458 [98.5%] counties), and mortality was higher among the Black population than the White population in nearly all counties for skin and subcutaneous diseases (1436 [96.6%] of 1486 counties), diabetes and kidney diseases (1473 [99.1%]), maternal and neonatal disorders (1486 [100.0%] counties), and HIV/AIDS and sexually transmitted infections (1486 [100.0%] counties). INTERPRETATION: Disparities in mortality among racial-ethnic groups are ubiquitous, occurring across locations in the USA and for a wide range of health conditions. There is an urgent need to address the shared structural factors driving these widespread disparities. FUNDING: National Institute on Minority Health and Health Disparities; National Heart, Lung, and Blood Institute; National Cancer Institute; National Institute on Aging; National Institute of Arthritis and Musculoskeletal and Skin Diseases; Office of Disease Prevention; and Office of Behavioral and Social Sciences Research, US National Institutes of Health.</t>
   </si>
   <si>
@@ -1696,9 +1567,6 @@
     <t>BACKGROUND: Lung cancer is the most common cause of cancer death in the UK, and incidence is strongly associated with increasing age. Screening can improve survival by detecting cancer earlier. Targeted Lung Health Check (TLHC) programme is a lung cancer screening pilot offered to smokers or ex-smokers aged 55-74 years in certain areas of England. However, uptake remains as low as 20% in London. We did a service evaluation to assess the effect of adding messaging informed by behaviour science to invitation letters on TLHC uptake. METHODS: The intervention involved adding to the standard invitation letter a box with a two-sentence behavioural message targeted at mitigating fatalistic beliefs and low risk perception, as well as promoting clinician endorsement and the value of early detection. Allocation to receive either standard or intervention letters was done at West London GP practice level, with approximate pairing between practices. From Sept 22, 2022, to Nov 28, 2022, 9464 invitations were sent to eligible individuals (4842 standard and 4622 intervention) covering 20 GP practices. The primary outcome (uptake) was a booked appointment date within 4 months of the invitation letter being sent. TIDieR checklist was used for methodology and reporting guidelines. We used chi(2) analysis to test for significant differences in uptake, and mixed-effects logistic regression to control for demographic covariates. FINDINGS: Demographic characteristics were similar in the control and intervention groups, with mean ages of 63.3 and 63.0 years, average index of multiple deprivation (IMD) deciles of 6.33 and 5.53, and percentage of female participants 42.1% (n=2038) and 43.7% (n=2022), respectively. Uptake of TLHC was significantly higher in the intervention group (25.8%, n=1192) than in the control group (20.4%, n=987; chi(2)(1)=38.762, p&lt;0.0001). A logistic regression model estimated likelihood of uptake was 37.5% (95% CI 12.1-63.2) higher in the intervention group (p=0.004). Patients aged 60-64, 65-69 and 70-75 years were 23.5% (10.7-36.3, p=0.0003), 28.3% (14.5-42.0, p&lt;0.0001), and 32.6% (18.3-47.0, p&lt;0.0001) more likely to attend than those aged 55-59 years. The likelihood of attendance decreased on the basis of deprivation (IMD decile; b=0.060, 95% CI 0.035-0.087, p&lt;0.0001), female gender (b=0.156, 0.057-0.254, p=0.002), and for ex-smokers compared with smokers (b=0.580, 0.467-0.693, p&lt;0.0001). INTERPRETATION: This simple, no-cost addition of behavioural messaging to invitation letters can significantly improve screening uptake and is recommended for wider rollout. These findings are consistent with other studies. However, a limitation is that the allocation to study arm was at GP practice level and the study was not randomised. FUNDING: RM Partners, the West London Cancer Alliance.</t>
   </si>
   <si>
-    <t>BACKGROUND: Tobacco, alcohol, and foods high in fats, salt, or sugar (HFSS) are health harming products. Limited progress in prevention is partly due to health-harming industry lobbying. Action on Smoking and Health (ASH), Alcohol Health Alliance, and Obesity Health Alliance collaborated with the aim of developing a framework for action to address the saturation of these products in our environment. METHODS: We used a mixed-methods approach. Focus groups with academic experts, local government, and national government, recruited through snowball sampling were held in Nov 3, 2022 (14 participants); April 25, 2023 (20 participants); and June 15, 2023 (20 participants). Iteratively, data analysis was presented, and key themes tested. Commissioned economic analysis of national survey datasets quantified consumer spend on tobacco, alcohol, and food products above government recommendations (all tobacco use, &gt;14 units of alcohol, and national dietary guidelines) and industry percentage of revenues (net of tax). Public opinion data from the ASH YouGov Smokefree Survey 2022 on a nationally representative sample of 13 088 adults were descriptively analysed for specific policy options. FINDINGS: The framework for action to achieve a coherent prevention approach across products included three key enablers (secure funding for prevention, a comprehensive strategy, and protecting health policy from industry interference). Five key actions were: regulate advertising to limit harm, regulate product use and environments they can be used in, promote healthy messaging, raise the price of health-harming products, and fund treatment services. Economic analysis identified 100% of tobacco usage, 43.4% of alcohol purchased, and 28.8% of food purchased by households was above government recommendations. Post-tax industry revenue was  pound7.3 billion for tobacco,  pound11.2 billion for alcohol, and  pound34.2 billion for HFSS foods. Strong public support for levies (5%, n=8495) and protecting health policy from industry influence (69%, n=9006) was apparent. INTERPRETATION: A coherent approach to prevention across health-harming products is effective and has public support. Strengths include the iterative process to develop the framework for action among focus groups and use of nationally representative datasets. Limitations include the snowball sampling. The findings were built into a strategy intended to inform future collaborative work in the area. FUNDING: Cancer Research UK (grant PICADV-Feb22\100004).</t>
-  </si>
-  <si>
     <t>BACKGROUND: The Cancer Research UK Cancer Awareness Measure Survey (2022) found older age as a risk factor for cancer to be low (around 2-4% across UK nations). However, 89 in 100 cancers are in those aged 50 years and older, and the majority of health-communications are targeted to these higher risk groups. This research aimed to understand the potential impact on health behaviours of communicating messages on relative increased risk of cancer with older age on participant's capability, motivation, and opportunity (COM-B model) in relation to positive early diagnosis health behaviours (body vigilance, intention to take part in cancer screening, preventative measures). METHODS: In this qualitative study, we conducted 60 min semi-structured paired-depth interviews of people aged 25-74 years from across the UK (20 pairs; n=40; age: mean 58.5 years, range 25-74; 19 [47%] men and 21 [53%] women; 27 [67%] White and 13 [33%] from Black or Asian minority ethnic groups). Participants were recruited via a recruitment agency and provided with an incentive of  pound60 for their time. To assess potential longer-term impact, participants filled a survey 2 weeks later on their views on the messages tested, and on self-reported actions taken as a result of the messages tested. The three different messages tested were rotated. Data were analysed using rapid thematic techniques, two moderators reviewed the data, and a framework analysis style assessed themes against capability, opportunity, and motivation (COM-B model). FINDINGS: Message 2 was the most preferred, as it was clear and easy to understand. Results suggested that including this messaging in health campaigns could encourage some positive early diagnosis heath behaviours. The post survey identified self-reported behaviour changes in nine (23%) of the 40 participants and sustained intentions in 29 (73%). Results overlayed with COM-B, identified messaging could support behaviour change by increasing awareness (psychological capability), providing a social cue (social opportunity), and encouraging emotions related to not wanting to get cancer or that they should be doing specific behaviours (reflective motivation). INTERPRETATION: Findings suggest communicating this message might have a positive effect on help-seeking behaviours in older adults (age &gt;/=50 years). However, considerations include ensuring that the message is clear and understandable and that it doesn't induce fear. Although this study design allowed for more in-depth exploration, results are limited due to the small sample size. FUNDING: Cancer Research UK.</t>
   </si>
   <si>
@@ -1909,15 +1777,9 @@
     <t>BACKGROUND: Human epidermal growth factor receptor 2 (HER2)-targeted therapies have not been approved for patients with non-small-cell lung cancer (NSCLC). The efficacy and safety of trastuzumab deruxtecan (formerly DS-8201), a HER2 antibody-drug conjugate, in patients with HER2-mutant NSCLC have not been investigated extensively. METHODS: We conducted a multicenter, international, phase 2 study in which trastuzumab deruxtecan (6.4 mg per kilogram of body weight) was administered to patients who had metastatic HER2-mutant NSCLC that was refractory to standard treatment. The primary outcome was objective response as assessed by independent central review. Secondary outcomes included the duration of response, progression-free survival, overall survival, and safety. Biomarkers of HER2 alterations were assessed. RESULTS: A total of 91 patients were enrolled. The median duration of follow-up was 13.1 months (range, 0.7 to 29.1). Centrally confirmed objective response occurred in 55% of the patients (95% confidence interval [CI], 44 to 65). The median duration of response was 9.3 months (95% CI, 5.7 to 14.7). Median progression-free survival was 8.2 months (95% CI, 6.0 to 11.9), and median overall survival was 17.8 months (95% CI, 13.8 to 22.1). The safety profile was generally consistent with those from previous studies; grade 3 or higher drug-related adverse events occurred in 46% of patients, the most common event being neutropenia (in 19%). Adjudicated drug-related interstitial lung disease occurred in 26% of patients and resulted in death in 2 patients. Responses were observed across different HER2 mutation subtypes, as well as in patients with no detectable HER2 expression or HER2 amplification. CONCLUSIONS: Trastuzumab deruxtecan showed durable anticancer activity in patients with previously treated HER2-mutant NSCLC. The safety profile included interstitial lung disease that was fatal in two cases. Observed toxic effects were generally consistent with those in previously reported studies. (Funded by Daiichi Sankyo and AstraZeneca; DESTINY-Lung01 ClinicalTrials.gov number, NCT03505710.).</t>
   </si>
   <si>
-    <t>BACKGROUND: Sickle cell disease is characterized by the painful recurrence of vaso-occlusive events. Gene therapy with the use of LentiGlobin for sickle cell disease (bb1111; lovotibeglogene autotemcel) consists of autologous transplantation of hematopoietic stem and progenitor cells transduced with the BB305 lentiviral vector encoding a modified beta-globin gene, which produces an antisickling hemoglobin, HbA(T87Q). METHODS: In this ongoing phase 1-2 study, we optimized the treatment process in the initial 7 patients in Group A and 2 patients in Group B with sickle cell disease. Group C was established for the pivotal evaluation of LentiGlobin for sickle cell disease, and we adopted a more stringent inclusion criterion that required a minimum of four severe vaso-occlusive events in the 24 months before enrollment. In this unprespecified interim analysis, we evaluated the safety and efficacy of LentiGlobin in 35 patients enrolled in Group C. Included in this analysis was the number of severe vaso-occlusive events after LentiGlobin infusion among patients with at least four vaso-occlusive events in the 24 months before enrollment and with at least 6 months of follow-up. RESULTS: As of February 2021, cell collection had been initiated in 43 patients in Group C; 35 received a LentiGlobin infusion, with a median follow-up of 17.3 months (range, 3.7 to 37.6). Engraftment occurred in all 35 patients. The median total hemoglobin level increased from 8.5 g per deciliter at baseline to 11 g or more per deciliter from 6 months through 36 months after infusion. HbA(T87Q) contributed at least 40% of total hemoglobin and was distributed across a mean (+/-SD) of 85+/-8% of red cells. Hemolysis markers were reduced. Among the 25 patients who could be evaluated, all had resolution of severe vaso-occlusive events, as compared with a median of 3.5 events per year (range, 2.0 to 13.5) in the 24 months before enrollment. Three patients had a nonserious adverse event related or possibly related to LentiGlobin that resolved within 1 week after onset. No cases of hematologic cancer were observed during up to 37.6 months of follow-up. CONCLUSIONS: One-time treatment with LentiGlobin resulted in sustained production of HbA(T87Q) in most red cells, leading to reduced hemolysis and complete resolution of severe vaso-occlusive events. (Funded by Bluebird Bio; HGB-206 ClinicalTrials.gov number, NCT02140554.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: The prognosis for patients with relapsed or refractory diffuse large B-cell lymphoma (DLBCL) is poor. Glofitamab is a bispecific antibody that recruits T cells to tumor cells. METHODS: In the phase 2 part of a phase 1-2 study, we enrolled patients with relapsed or refractory DLBCL who had received at least two lines of therapy previously. Patients received pretreatment with obinutuzumab to mitigate cytokine release syndrome, followed by fixed-duration glofitamab monotherapy (12 cycles total). The primary end point was complete response according to assessment by an independent review committee. Key secondary end points included duration of response, survival, and safety. RESULTS: Of the 155 patients who were enrolled, 154 received at least one dose of any study treatment (obinutuzumab or glofitamab). At a median follow-up of 12.6 months, 39% (95% confidence interval [CI], 32 to 48) of the patients had a complete response according to independent review. Results were consistent among the 52 patients who had previously received chimeric antigen receptor T-cell therapy (35% of whom had a complete response). The median time to a complete response was 42 days (95% CI, 42 to 44). The majority (78%) of complete responses were ongoing at 12 months. The 12-month progression-free survival was 37% (95% CI, 28 to 46). Discontinuation of glofitamab due to adverse events occurred in 9% of the patients. The most common adverse event was cytokine release syndrome (in 63% of the patients). Adverse events of grade 3 or higher occurred in 62% of the patients, with grade 3 or higher cytokine release syndrome in 4% and grade 3 or higher neurologic events in 3%. CONCLUSIONS: Glofitamab therapy was effective for DLBCL. More than half the patients had an adverse event of grade 3 or 4. (Funded by F. Hoffmann-La Roche; ClinicalTrials.gov number, NCT03075696.).</t>
   </si>
   <si>
-    <t>BACKGROUND: Cerebral cavernous malformations (CCMs) are common sporadic and inherited vascular malformations of the central nervous system. Although familial CCMs are linked to loss-of-function mutations in KRIT1 (CCM1), CCM2, or PDCD10 (CCM3), the genetic cause of sporadic CCMs, representing 80% of cases, remains incompletely understood. METHODS: We developed two mouse models harboring mutations identified in human meningiomas with the use of the prostaglandin D2 synthase (PGDS) promoter. We performed targeted DNA sequencing of surgically resected CCMs from patients and confirmed our findings by droplet digital polymerase-chain-reaction analysis. RESULTS: We found that in mice expressing one of two common genetic drivers of meningioma - Pik3ca (H1047R) or AKT1 (E17K) - in PGDS-positive cells, a spectrum of typical CCMs develops (in 22% and 11% of the mice, respectively) instead of meningiomas, which prompted us to analyze tissue samples from sporadic CCMs from 88 patients. We detected somatic activating PIK3CA and AKT1 mutations in 39% and 1%, respectively, of lesion tissue from the patients. Only 10% of lesions harbored mutations in the CCM genes. We analyzed lesions induced by the activating mutations Pik3ca (H1074R) and AKT1 (E17K) in mice and identified the PGDS-expressing pericyte as the probable cell of origin. CONCLUSIONS: In tissue samples from sporadic CCMs, mutations in PIK3CA were represented to a greater extent than mutations in any other gene. The contribution of somatic mutations in the genes that cause familial CCMs was comparatively small. (Funded by the Fondation ARC pour la Recherche contre le Cancer and others.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Patients with von Hippel-Lindau (VHL) disease have a high incidence of renal cell carcinoma owing to VHL gene inactivation and constitutive activation of the transcription factor hypoxia-inducible factor 2alpha (HIF-2alpha). METHODS: In this phase 2, open-label, single-group trial, we investigated the efficacy and safety of the HIF-2alpha inhibitor belzutifan (MK-6482, previously called PT2977), administered orally at a dose of 120 mg daily, in patients with renal cell carcinoma associated with VHL disease. The primary end point was objective response (complete or partial response) as measured according to the Response Evaluation Criteria in Solid Tumors, version 1.1, by an independent central radiology review committee. We also assessed responses to belzutifan in patients with non-renal cell carcinoma neoplasms and the safety of belzutifan. RESULTS: After a median follow-up of 21.8 months (range, 20.2 to 30.1), the percentage of patients with renal cell carcinoma who had an objective response was 49% (95% confidence interval, 36 to 62). Responses were also observed in patients with pancreatic lesions (47 of 61 patients [77%]) and central nervous system hemangioblastomas (15 of 50 patients [30%]). Among the 16 eyes that could be evaluated in 12 patients with retinal hemangioblastomas at baseline, all (100%) were graded as showing improvement. The most common adverse events were anemia (in 90% of the patients) and fatigue (in 66%). Seven patients discontinued treatment: four patients voluntarily discontinued, one discontinued owing to a treatment-related adverse event (grade 1 dizziness), one discontinued because of disease progression as assessed by the investigator, and one patient died (of acute toxic effects of fentanyl). CONCLUSIONS: Belzutifan was associated with predominantly grade 1 and 2 adverse events and showed activity in patients with renal cell carcinomas and non-renal cell carcinoma neoplasms associated with VHL disease. (Funded by Merck Sharp and Dohme and others; MK-6482-004 ClinicalTrials.gov number, NCT03401788.).</t>
   </si>
   <si>
@@ -1972,9 +1834,6 @@
     <t>BACKGROUND: Relationships between microbiota composition and clinical outcomes after allogeneic hematopoietic-cell transplantation have been described in single-center studies. Geographic variations in the composition of human microbial communities and differences in clinical practices across institutions raise the question of whether these associations are generalizable. METHODS: The microbiota composition of fecal samples obtained from patients who were undergoing allogeneic hematopoietic-cell transplantation at four centers was profiled by means of 16S ribosomal RNA gene sequencing. In an observational study, we examined associations between microbiota diversity and mortality using Cox proportional-hazards analysis. For stratification of the cohorts into higher- and lower-diversity groups, the median diversity value that was observed at the study center in New York was used. In the analysis of independent cohorts, the New York center was cohort 1, and three centers in Germany, Japan, and North Carolina composed cohort 2. Cohort 1 and subgroups within it were analyzed for additional outcomes, including transplantation-related death. RESULTS: We profiled 8767 fecal samples obtained from 1362 patients undergoing allogeneic hematopoietic-cell transplantation at the four centers. We observed patterns of microbiota disruption characterized by loss of diversity and domination by single taxa. Higher diversity of intestinal microbiota was associated with a lower risk of death in independent cohorts (cohort 1: 104 deaths among 354 patients in the higher-diversity group vs. 136 deaths among 350 patients in the lower-diversity group; adjusted hazard ratio, 0.71; 95% confidence interval [CI], 0.55 to 0.92; cohort 2: 18 deaths among 87 patients in the higher-diversity group vs. 35 deaths among 92 patients in the lower-diversity group; adjusted hazard ratio, 0.49; 95% CI, 0.27 to 0.90). Subgroup analyses identified an association between lower intestinal diversity and higher risks of transplantation-related death and death attributable to graft-versus-host disease. Baseline samples obtained before transplantation already showed evidence of microbiome disruption, and lower diversity before transplantation was associated with poor survival. CONCLUSIONS: Patterns of microbiota disruption during allogeneic hematopoietic-cell transplantation were similar across transplantation centers and geographic locations; patterns were characterized by loss of diversity and domination by single taxa. Higher diversity of intestinal microbiota at the time of neutrophil engraftment was associated with lower mortality. (Funded by the National Cancer Institute and others.).</t>
   </si>
   <si>
-    <t>BACKGROUND: The causative agents for the current national outbreak of electronic-cigarette, or vaping, product use-associated lung injury (EVALI) have not been established. Detection of toxicants in bronchoalveolar-lavage (BAL) fluid from patients with EVALI can provide direct information on exposure within the lung. METHODS: BAL fluids were collected from 51 patients with EVALI in 16 states and from 99 healthy participants who were part of an ongoing study of smoking involving nonsmokers, exclusive users of e-cigarettes or vaping products, and exclusive cigarette smokers that was initiated in 2015. Using the BAL fluid, we performed isotope dilution mass spectrometry to measure several priority toxicants: vitamin E acetate, plant oils, medium-chain triglyceride oil, coconut oil, petroleum distillates, and diluent terpenes. RESULTS: State and local health departments assigned EVALI case status as confirmed for 25 patients and as probable for 26 patients. Vitamin E acetate was identified in BAL fluid obtained from 48 of 51 case patients (94%) in 16 states but not in such fluid obtained from the healthy comparator group. No other priority toxicants were found in BAL fluid from the case patients or the comparator group, except for coconut oil and limonene, which were found in 1 patient each. Among the case patients for whom laboratory or epidemiologic data were available, 47 of 50 (94%) had detectable tetrahydrocannabinol (THC) or its metabolites in BAL fluid or had reported vaping THC products in the 90 days before the onset of illness. Nicotine or its metabolites were detected in 30 of 47 of the case patients (64%). CONCLUSIONS: Vitamin E acetate was associated with EVALI in a convenience sample of 51 patients in 16 states across the United States. (Funded by the National Cancer Institute and others.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: RET mutations occur in 70% of medullary thyroid cancers, and RET fusions occur rarely in other thyroid cancers. In patients with RET-altered thyroid cancers, the efficacy and safety of selective RET inhibition are unknown. METHODS: We enrolled patients with RET-mutant medullary thyroid cancer with or without previous vandetanib or cabozantinib treatment, as well as those with previously treated RET fusion-positive thyroid cancer, in a phase 1-2 trial of selpercatinib. The primary end point was an objective response (a complete or partial response), as determined by an independent review committee. Secondary end points included the duration of response, progression-free survival, and safety. RESULTS: In the first 55 consecutively enrolled patients with RET-mutant medullary thyroid cancer who had previously received vandetanib, cabozantinib, or both, the percentage who had a response was 69% (95% confidence interval [CI], 55 to 81), and 1-year progression-free survival was 82% (95% CI, 69 to 90). In 88 patients with RET-mutant medullary thyroid cancer who had not previously received vandetanib or cabozantinib, the percentage who had a response was 73% (95% CI, 62 to 82), and 1-year progression-free survival was 92% (95% CI, 82 to 97). In 19 patients with previously treated RET fusion-positive thyroid cancer, the percentage who had a response was 79% (95% CI, 54 to 94), and 1-year progression-free survival was 64% (95% CI, 37 to 82). The most common adverse events of grade 3 or higher were hypertension (in 21% of the patients), increased alanine aminotransferase level (in 11%), increased aspartate aminotransferase level (in 9%), hyponatremia (in 8%), and diarrhea (in 6%). Of all 531 patients treated, 12 (2%) discontinued selpercatinib owing to drug-related adverse events. CONCLUSIONS: In this phase 1-2 trial, selpercatinib showed durable efficacy with mainly low-grade toxic effects in patients with medullary thyroid cancer with and without previous vandetanib or cabozantinib treatment. (Funded by Loxo Oncology and others; LIBRETTO-001 ClinicalTrials.gov number, NCT03157128.).</t>
   </si>
   <si>
@@ -1999,27 +1858,15 @@
     <t>回顾性队列研究显示，欧洲EMA批准的肿瘤药物中，多数在几年内收回研发成本，但许多药物临床获益有限，尤其是有条件批准药物。</t>
   </si>
   <si>
-    <t>全国性队列研究显示，新冠疫苗接种与绝经后女性出血风险存在微弱关联，与绝经前女性月经紊乱或出血无明显关联。</t>
-  </si>
-  <si>
     <t>英国1993-2015年队列研究显示，早期浸润性乳腺癌患者5年死亡率从14.4%降至4.9%，预后显著改善。</t>
   </si>
   <si>
-    <t>队列研究显示，无干扰素抗病毒治疗成功的丙肝患者死亡率仍显著高于普通人群，需加强治疗后随访支持。</t>
-  </si>
-  <si>
     <t>真实世界观察性研究显示，HPV初筛阴性后宫颈癌风险显著降低，支持将筛查间隔延长至5年及以上。</t>
   </si>
   <si>
     <t>回顾性研究显示，FDA加速批准的癌症药物在验证性试验失败后，多数仍保留在标签和指南中，提示临床指南需与验证性试验结果更好对齐。</t>
   </si>
   <si>
-    <t>前瞻性队列研究开发并验证了新冠疫苗接种后死亡与住院风险预测模型，可高精度识别高危人群。</t>
-  </si>
-  <si>
-    <t>队列研究显示，非恶性子宫切除术中，双侧输卵管卵巢切除术增加50岁以下女性全因死亡率，但对50岁及以上女性生存无负面影响。</t>
-  </si>
-  <si>
     <t>前瞻性队列研究发现红肉摄入增加冠心病风险，用植物蛋白等替代可降低风险。</t>
   </si>
   <si>
@@ -2095,9 +1942,6 @@
     <t>丹麦全国队列研究显示，母亲使用激素避孕药与儿童中枢神经系统肿瘤风险无显著关联。</t>
   </si>
   <si>
-    <t>建模研究显示，40-59岁且10年心血管风险≥5%的人群长期服用低剂量阿司匹林，用于心血管疾病和结直肠癌的一级预防可能获益。</t>
-  </si>
-  <si>
     <t>探索性双重差分研究显示，肿瘤护理模式在实施前三年与化疗期间医保支付小幅减少相关，但对多数利用、质量和患者体验指标无显著影响。</t>
   </si>
   <si>
@@ -2125,9 +1969,6 @@
     <t>基于4个美国队列的汇总分析显示，生殖区使用爽身粉与卵巢癌风险无显著统计学关联，但可能不足以检测微小风险增加。</t>
   </si>
   <si>
-    <t>队列研究显示，2017 ACC/AHA指南定义的单纯舒张期高血压患病率更高，但与心血管事件风险无显著关联。</t>
-  </si>
-  <si>
     <t>前瞻性队列研究比较了局限性前列腺癌不同治疗方案5年后的功能结局，发现多数差异随时间减弱，但前列腺切除术的尿失禁风险持续较高。</t>
   </si>
   <si>
@@ -2140,9 +1981,6 @@
     <t>一项多中心横断面研究发现，46%未吸氧的毛细支气管炎住院患儿接受了不必要的持续脉搏血氧监测，存在过度医疗现象。</t>
   </si>
   <si>
-    <t>该首次人体病例系列研究表明，异体CD19 CAR NK细胞疗法治疗难治性系统性红斑狼疮安全有效，为自身免疫病治疗提供了新选择。</t>
-  </si>
-  <si>
     <t>全球疾病负担2023研究系统分析了1990-2023年204个国家47种癌症的负担、归因风险及至2050年预测，为全球癌症防控提供关键数据。</t>
   </si>
   <si>
@@ -2173,9 +2011,6 @@
     <t>全球系统综述估算17种HPV基因型对浸润性宫颈癌的归因分数，为疫苗和筛查策略提供依据。</t>
   </si>
   <si>
-    <t>一项在25个国家开展的前瞻性队列研究发现，活动受限在低收入国家和女性中更普遍，且与死亡及多种临床事件风险增加相关。</t>
-  </si>
-  <si>
     <t>对美国2000-2019年死亡数据的系统分析显示，不同种族、民族和地区间的死亡率存在普遍且显著的差异。</t>
   </si>
   <si>
@@ -2191,9 +2026,6 @@
     <t>服务评估显示，在邀请函中加入行为科学信息可显著提高肺癌筛查参与率，推荐推广。</t>
   </si>
   <si>
-    <t>本研究通过混合方法开发了一个跨烟草、酒精及高脂盐糖食品的综合性预防行动框架，包含三大推动因素和五项关键行动，并获得了公众支持。</t>
-  </si>
-  <si>
     <t>定性研究发现，通过健康传播提高公众对年龄与癌症相对风险的认识，可能促进中老年人的早期诊断健康行为。</t>
   </si>
   <si>
@@ -2404,15 +2236,9 @@
     <t>一项II期研究显示，曲妥珠单抗德鲁替康在既往治疗过的HER2突变非小细胞肺癌患者中显示出持久的抗癌活性，客观缓解率达55%。</t>
   </si>
   <si>
-    <t>I-II期研究显示，LentiGlobin基因疗法可持久产生抗镰变血红蛋白，完全消除严重血管闭塞事件。</t>
-  </si>
-  <si>
     <t>II期研究显示，Glofitamab治疗复发/难治性DLBCL的完全缓解率达39%，12个月持续缓解率78%，但3级以上不良事件发生率高。</t>
   </si>
   <si>
-    <t>基础研究发现散发性脑海绵状血管畸形主要由体细胞PIK3CA突变驱动，而非家族性CCM基因突变，揭示了新的致病机制。</t>
-  </si>
-  <si>
     <t>II期单臂试验显示，HIF-2α抑制剂belzutifan对VHL病相关肾细胞癌有效，客观缓解率达49%，且对胰腺和中枢神经系统病变也有活性。</t>
   </si>
   <si>
@@ -2467,9 +2293,6 @@
     <t>多中心观察性研究证实，异基因造血干细胞移植患者肠道菌群多样性越高，其总死亡及移植相关死亡风险越低。</t>
   </si>
   <si>
-    <t>病例对照研究发现，94%的EVALI患者BAL液中检出维生素E醋酸酯，提示其可能是导致电子烟相关肺损伤的关键毒物。</t>
-  </si>
-  <si>
     <t>I-II期试验显示，Selpercatinib在RET突变甲状腺髓样癌和RET融合阳性甲状腺癌患者中均表现出持久疗效和可控毒性。</t>
   </si>
   <si>
@@ -2494,231 +2317,225 @@
     <t>早期浸润性乳腺癌</t>
   </si>
   <si>
+    <t>多种癌症</t>
+  </si>
+  <si>
+    <t>结直肠癌</t>
+  </si>
+  <si>
+    <t>未指定具体癌肿</t>
+  </si>
+  <si>
+    <t>乳腺癌</t>
+  </si>
+  <si>
+    <t>遗传性弥漫性胃癌；小叶性乳腺癌</t>
+  </si>
+  <si>
+    <t>非小细胞肺癌</t>
+  </si>
+  <si>
+    <t>前列腺癌</t>
+  </si>
+  <si>
+    <t>乳腺癌；结直肠癌；肺癌；卵巢癌；前列腺癌；其他癌症</t>
+  </si>
+  <si>
+    <t>上消化道癌（食管癌、胃癌、肝癌、胆道癌、胰腺癌）</t>
+  </si>
+  <si>
+    <t>局限性前列腺癌</t>
+  </si>
+  <si>
+    <t>卵巢癌</t>
+  </si>
+  <si>
+    <t>三阴性乳腺癌</t>
+  </si>
+  <si>
+    <t>多种癌症（包括男性乳腺癌、卵巢癌、女性乳腺癌、多发性癌症、子宫内膜癌、胰腺癌、结直肠癌、前列腺癌、肺癌等）</t>
+  </si>
+  <si>
+    <t>肝癌</t>
+  </si>
+  <si>
+    <t>肥胖相关癌症（13种类型）</t>
+  </si>
+  <si>
+    <t>儿童中枢神经系统肿瘤</t>
+  </si>
+  <si>
+    <t>肺癌</t>
+  </si>
+  <si>
+    <t>原发性肝癌</t>
+  </si>
+  <si>
+    <t>前列腺癌；黑色素瘤</t>
+  </si>
+  <si>
+    <t>多种成人发病癌症</t>
+  </si>
+  <si>
+    <t>乳腺癌；宫颈癌；卵巢癌</t>
+  </si>
+  <si>
+    <t>B细胞淋巴瘤</t>
+  </si>
+  <si>
+    <t>范可尼贫血</t>
+  </si>
+  <si>
+    <t>早期乳腺癌</t>
+  </si>
+  <si>
+    <t>大B细胞淋巴瘤</t>
+  </si>
+  <si>
+    <t>浸润性宫颈癌</t>
+  </si>
+  <si>
+    <t>13种与体力活动相关的癌症（复合终点）</t>
+  </si>
+  <si>
+    <t>癌症（泛指多种癌症）</t>
+  </si>
+  <si>
+    <t>乳腺癌；结直肠癌；宫颈癌</t>
+  </si>
+  <si>
+    <t>晚期皮肤T细胞淋巴瘤</t>
+  </si>
+  <si>
+    <t>儿童期常见癌症</t>
+  </si>
+  <si>
+    <t>儿童及青少年癌症（包括白血病、恶性上皮肿瘤及黑色素瘤等）</t>
+  </si>
+  <si>
+    <t>脑膜瘤；胶质母细胞瘤；垂体腺瘤；前庭神经鞘瘤；星形细胞瘤；少突胶质细胞瘤</t>
+  </si>
+  <si>
+    <t>实体瘤</t>
+  </si>
+  <si>
+    <t>B细胞恶性肿瘤（包括慢性淋巴细胞白血病、小淋巴细胞淋巴瘤、套细胞淋巴瘤）</t>
+  </si>
+  <si>
+    <t>多发性骨髓瘤</t>
+  </si>
+  <si>
+    <t>儿童癌症（多种类型）</t>
+  </si>
+  <si>
+    <t>乳腺癌；结直肠癌；胃癌</t>
+  </si>
+  <si>
+    <t>B细胞前体急性淋巴细胞白血病</t>
+  </si>
+  <si>
+    <t>多种癌症（包括乳腺癌、前列腺癌等）</t>
+  </si>
+  <si>
+    <t>血液系统癌症（淋巴癌、髓系癌症或急性白血病、组织细胞或树突状细胞癌）</t>
+  </si>
+  <si>
+    <t>遗传性和散发性乳头状肾细胞癌</t>
+  </si>
+  <si>
+    <t>错配修复缺陷实体瘤</t>
+  </si>
+  <si>
+    <t>NRG1融合阳性实体瘤（包括非小细胞肺癌、胰腺癌等）</t>
+  </si>
+  <si>
+    <t>错配修复缺陷结肠癌</t>
+  </si>
+  <si>
+    <t>NF2相关神经鞘瘤病</t>
+  </si>
+  <si>
+    <t>弥漫性大B细胞淋巴瘤</t>
+  </si>
+  <si>
+    <t>CD7阳性白血病或淋巴瘤</t>
+  </si>
+  <si>
+    <t>肺泡软组织肉瘤</t>
+  </si>
+  <si>
+    <t>小细胞肺癌</t>
+  </si>
+  <si>
+    <t>胃癌</t>
+  </si>
+  <si>
+    <t>结直肠癌；乳腺癌</t>
+  </si>
+  <si>
+    <t>B细胞和T细胞淋巴瘤；髓系癌症；上皮、间质和神经组织良性及恶性肿瘤</t>
+  </si>
+  <si>
+    <t>慢性淋巴细胞白血病/小淋巴细胞淋巴瘤</t>
+  </si>
+  <si>
+    <t>乳头状颅咽管瘤</t>
+  </si>
+  <si>
+    <t>胰腺癌</t>
+  </si>
+  <si>
+    <t>肝内胆管癌</t>
+  </si>
+  <si>
+    <t>鼻咽癌</t>
+  </si>
+  <si>
+    <t>非小细胞肺癌；结直肠癌；其他实体瘤</t>
+  </si>
+  <si>
+    <t>高危神经母细胞瘤</t>
+  </si>
+  <si>
+    <t>皮肤鳞状细胞癌</t>
+  </si>
+  <si>
+    <t>骨髓增生异常综合征</t>
+  </si>
+  <si>
+    <t>儿童弥漫内生型脑桥胶质瘤</t>
+  </si>
+  <si>
+    <t>局部晚期直肠癌</t>
+  </si>
+  <si>
+    <t>肾细胞癌</t>
+  </si>
+  <si>
+    <t>毛细胞白血病</t>
+  </si>
+  <si>
+    <t>急性髓系白血病或骨髓增生异常综合征</t>
+  </si>
+  <si>
+    <t>非小细胞肺癌；结直肠癌；阑尾癌</t>
+  </si>
+  <si>
+    <t>血液系统恶性肿瘤（接受异基因造血干细胞移植）</t>
+  </si>
+  <si>
+    <t>儿童高级别胶质瘤</t>
+  </si>
+  <si>
+    <t>非小细胞肺癌；结直肠癌；胰腺癌；子宫内膜癌；阑尾癌；黑色素瘤</t>
+  </si>
+  <si>
+    <t>多种癌症（包括结肠癌等PTEN相关癌症）</t>
+  </si>
+  <si>
     <t>肝细胞癌</t>
   </si>
   <si>
-    <t>多种癌症</t>
-  </si>
-  <si>
-    <t>卵巢癌</t>
-  </si>
-  <si>
-    <t>结直肠癌</t>
-  </si>
-  <si>
-    <t>未指定具体癌肿</t>
-  </si>
-  <si>
-    <t>乳腺癌</t>
-  </si>
-  <si>
-    <t>遗传性弥漫性胃癌；小叶性乳腺癌</t>
-  </si>
-  <si>
-    <t>非小细胞肺癌</t>
-  </si>
-  <si>
-    <t>前列腺癌</t>
-  </si>
-  <si>
-    <t>乳腺癌；结直肠癌；肺癌；卵巢癌；前列腺癌；其他癌症</t>
-  </si>
-  <si>
-    <t>上消化道癌（食管癌、胃癌、肝癌、胆道癌、胰腺癌）</t>
-  </si>
-  <si>
-    <t>局限性前列腺癌</t>
-  </si>
-  <si>
-    <t>三阴性乳腺癌</t>
-  </si>
-  <si>
-    <t>多种癌症（包括男性乳腺癌、卵巢癌、女性乳腺癌、多发性癌症、子宫内膜癌、胰腺癌、结直肠癌、前列腺癌、肺癌等）</t>
-  </si>
-  <si>
-    <t>肝癌</t>
-  </si>
-  <si>
-    <t>肥胖相关癌症（13种类型）</t>
-  </si>
-  <si>
-    <t>儿童中枢神经系统肿瘤</t>
-  </si>
-  <si>
-    <t>肺癌</t>
-  </si>
-  <si>
-    <t>原发性肝癌</t>
-  </si>
-  <si>
-    <t>前列腺癌；黑色素瘤</t>
-  </si>
-  <si>
-    <t>多种成人发病癌症</t>
-  </si>
-  <si>
-    <t>乳腺癌；宫颈癌；卵巢癌</t>
-  </si>
-  <si>
-    <t>B细胞淋巴瘤</t>
-  </si>
-  <si>
-    <t>范可尼贫血</t>
-  </si>
-  <si>
-    <t>早期乳腺癌</t>
-  </si>
-  <si>
-    <t>大B细胞淋巴瘤</t>
-  </si>
-  <si>
-    <t>浸润性宫颈癌</t>
-  </si>
-  <si>
-    <t>13种与体力活动相关的癌症（复合终点）</t>
-  </si>
-  <si>
-    <t>癌症（泛指多种癌症）</t>
-  </si>
-  <si>
-    <t>乳腺癌；结直肠癌；宫颈癌</t>
-  </si>
-  <si>
-    <t>晚期皮肤T细胞淋巴瘤</t>
-  </si>
-  <si>
-    <t>儿童期常见癌症</t>
-  </si>
-  <si>
-    <t>儿童及青少年癌症（包括白血病、恶性上皮肿瘤及黑色素瘤等）</t>
-  </si>
-  <si>
-    <t>脑膜瘤；胶质母细胞瘤；垂体腺瘤；前庭神经鞘瘤；星形细胞瘤；少突胶质细胞瘤</t>
-  </si>
-  <si>
-    <t>实体瘤</t>
-  </si>
-  <si>
-    <t>B细胞恶性肿瘤（包括慢性淋巴细胞白血病、小淋巴细胞淋巴瘤、套细胞淋巴瘤）</t>
-  </si>
-  <si>
-    <t>多发性骨髓瘤</t>
-  </si>
-  <si>
-    <t>儿童癌症（多种类型）</t>
-  </si>
-  <si>
-    <t>乳腺癌；结直肠癌；胃癌</t>
-  </si>
-  <si>
-    <t>B细胞前体急性淋巴细胞白血病</t>
-  </si>
-  <si>
-    <t>多种癌症（包括乳腺癌、前列腺癌等）</t>
-  </si>
-  <si>
-    <t>血液系统癌症（淋巴癌、髓系癌症或急性白血病、组织细胞或树突状细胞癌）</t>
-  </si>
-  <si>
-    <t>遗传性和散发性乳头状肾细胞癌</t>
-  </si>
-  <si>
-    <t>错配修复缺陷实体瘤</t>
-  </si>
-  <si>
-    <t>NRG1融合阳性实体瘤（包括非小细胞肺癌、胰腺癌等）</t>
-  </si>
-  <si>
-    <t>错配修复缺陷结肠癌</t>
-  </si>
-  <si>
-    <t>NF2相关神经鞘瘤病</t>
-  </si>
-  <si>
-    <t>弥漫性大B细胞淋巴瘤</t>
-  </si>
-  <si>
-    <t>CD7阳性白血病或淋巴瘤</t>
-  </si>
-  <si>
-    <t>肺泡软组织肉瘤</t>
-  </si>
-  <si>
-    <t>小细胞肺癌</t>
-  </si>
-  <si>
-    <t>胃癌</t>
-  </si>
-  <si>
-    <t>结直肠癌；乳腺癌</t>
-  </si>
-  <si>
-    <t>B细胞和T细胞淋巴瘤；髓系癌症；上皮、间质和神经组织良性及恶性肿瘤</t>
-  </si>
-  <si>
-    <t>慢性淋巴细胞白血病/小淋巴细胞淋巴瘤</t>
-  </si>
-  <si>
-    <t>乳头状颅咽管瘤</t>
-  </si>
-  <si>
-    <t>胰腺癌</t>
-  </si>
-  <si>
-    <t>肝内胆管癌</t>
-  </si>
-  <si>
-    <t>鼻咽癌</t>
-  </si>
-  <si>
-    <t>非小细胞肺癌；结直肠癌；其他实体瘤</t>
-  </si>
-  <si>
-    <t>高危神经母细胞瘤</t>
-  </si>
-  <si>
-    <t>皮肤鳞状细胞癌</t>
-  </si>
-  <si>
-    <t>骨髓增生异常综合征</t>
-  </si>
-  <si>
-    <t>儿童弥漫内生型脑桥胶质瘤</t>
-  </si>
-  <si>
-    <t>局部晚期直肠癌</t>
-  </si>
-  <si>
-    <t>镰状细胞病</t>
-  </si>
-  <si>
-    <t>脑膜瘤</t>
-  </si>
-  <si>
-    <t>肾细胞癌</t>
-  </si>
-  <si>
-    <t>毛细胞白血病</t>
-  </si>
-  <si>
-    <t>急性髓系白血病或骨髓增生异常综合征</t>
-  </si>
-  <si>
-    <t>非小细胞肺癌；结直肠癌；阑尾癌</t>
-  </si>
-  <si>
-    <t>血液系统恶性肿瘤（接受异基因造血干细胞移植）</t>
-  </si>
-  <si>
-    <t>儿童高级别胶质瘤</t>
-  </si>
-  <si>
-    <t>非小细胞肺癌；结直肠癌；胰腺癌；子宫内膜癌；阑尾癌；黑色素瘤</t>
-  </si>
-  <si>
-    <t>多种癌症（包括结肠癌等PTEN相关癌症）</t>
-  </si>
-  <si>
     <t>非霍奇金淋巴瘤；慢性淋巴细胞白血病</t>
   </si>
   <si>
@@ -2737,9 +2554,6 @@
     <t>回顾性队列研究</t>
   </si>
   <si>
-    <t>全国性登记队列研究</t>
-  </si>
-  <si>
     <t>基于人群的观察性队列研究</t>
   </si>
   <si>
@@ -2785,66 +2599,60 @@
     <t>全国性队列研究</t>
   </si>
   <si>
+    <t>探索性双重差分研究</t>
+  </si>
+  <si>
+    <t>比较建模研究</t>
+  </si>
+  <si>
+    <t>模拟建模研究</t>
+  </si>
+  <si>
+    <t>横断面研究</t>
+  </si>
+  <si>
+    <t>横断面调查</t>
+  </si>
+  <si>
+    <t>多中心横断面研究</t>
+  </si>
+  <si>
+    <t>系统分析/疾病负担研究</t>
+  </si>
+  <si>
+    <t>真实世界研究</t>
+  </si>
+  <si>
+    <t>首次人体试验</t>
+  </si>
+  <si>
+    <t>开放标签、研究者发起的临床试验</t>
+  </si>
+  <si>
+    <t>单中心、开放标签、剂量递增I期试验</t>
+  </si>
+  <si>
+    <t>前瞻性非随机两臂研究</t>
+  </si>
+  <si>
+    <t>系统综述</t>
+  </si>
+  <si>
+    <t>系统分析/观察性研究</t>
+  </si>
+  <si>
+    <t>服务评估</t>
+  </si>
+  <si>
+    <t>定性研究</t>
+  </si>
+  <si>
     <t>建模研究</t>
   </si>
   <si>
-    <t>探索性双重差分研究</t>
-  </si>
-  <si>
-    <t>比较建模研究</t>
-  </si>
-  <si>
-    <t>模拟建模研究</t>
-  </si>
-  <si>
-    <t>横断面研究</t>
-  </si>
-  <si>
-    <t>横断面调查</t>
-  </si>
-  <si>
-    <t>横断面与纵向队列研究</t>
-  </si>
-  <si>
-    <t>多中心横断面研究</t>
-  </si>
-  <si>
-    <t>开放标签、单臂、前瞻性、首次人体病例系列研究</t>
-  </si>
-  <si>
-    <t>系统分析/疾病负担研究</t>
-  </si>
-  <si>
-    <t>真实世界研究</t>
-  </si>
-  <si>
-    <t>首次人体试验</t>
-  </si>
-  <si>
-    <t>开放标签、研究者发起的临床试验</t>
-  </si>
-  <si>
-    <t>单中心、开放标签、剂量递增I期试验</t>
-  </si>
-  <si>
-    <t>前瞻性非随机两臂研究</t>
-  </si>
-  <si>
-    <t>系统综述</t>
-  </si>
-  <si>
-    <t>系统分析/观察性研究</t>
-  </si>
-  <si>
-    <t>服务评估</t>
-  </si>
-  <si>
     <t>混合方法研究</t>
   </si>
   <si>
-    <t>定性研究</t>
-  </si>
-  <si>
     <t>前瞻性匹配对照研究</t>
   </si>
   <si>
@@ -2965,15 +2773,9 @@
     <t>多中心国际II期临床试验</t>
   </si>
   <si>
-    <t>单臂干预性研究</t>
-  </si>
-  <si>
     <t>单臂II期临床试验</t>
   </si>
   <si>
-    <t>基础研究</t>
-  </si>
-  <si>
     <t>单中心学术试验</t>
   </si>
   <si>
@@ -3043,27 +2845,15 @@
     <t>多数肿瘤药物在3年内收回中位研发成本；临床获益评级与收入正相关；有条件批准药物获益评级较低且收回成本时间更长</t>
   </si>
   <si>
-    <t>评估了新冠疫苗接种与女性月经紊乱及出血风险的关联；发现绝经后女性接种第三剂后出血风险略有增加；调整协变量后绝经前女性的微弱关联基本消失</t>
-  </si>
-  <si>
     <t>乳腺癌死亡率随时间推移显著下降；雌激素受体阳性疾病死亡率降幅更大；不同特征患者预后差异显著</t>
   </si>
   <si>
-    <t>首次量化无干扰素时代丙肝治愈后死亡率；发现药物相关和肝脏相关死亡是主要死因；证实各疾病阶段死亡率均高于普通人群</t>
-  </si>
-  <si>
     <t>HPV初筛阴性后CIN3+及宫颈癌风险显著低于细胞学筛查；50岁以上女性风险更低，支持更长筛查间隔；不同HPV检测方法（APTIMA mRNA与cobas/RealTime DNA）效果相似。</t>
   </si>
   <si>
     <t>61%的加速批准药物在验证性试验失败后被自愿撤回；33%的适应症在验证性试验失败后仍保留在标签中；临床指南对验证性试验失败的药物仍提供高级别推荐</t>
   </si>
   <si>
-    <t>开发了首个针对新冠疫苗接种后死亡与住院风险的前瞻性预测模型；模型识别出唐氏综合征、肾移植、镰状细胞病等为最高风险因素；模型在验证队列中表现出高区分度（C统计量92.5），对识别高危人群具有重要临床价值。</t>
-  </si>
-  <si>
-    <t>双侧输卵管卵巢切除术与全因死亡率关联存在年龄差异：&lt;50岁增加风险，≥50岁无负面影响；风险变化主要源于非癌症死亡增加；为绝经前女性手术决策提供重要生存风险证据。</t>
-  </si>
-  <si>
     <t>红肉摄入与冠心病风险呈正相关；植物蛋白替代红肉可降低冠心病风险；替代分析量化了不同食物替代的效果。</t>
   </si>
   <si>
@@ -3139,9 +2929,6 @@
     <t>首次大规模评估母亲激素避孕药使用与儿童CNS肿瘤的关联；发现近期或既往使用均未显著增加风险；研究基于全国登记数据，随访超过1500万人年。</t>
   </si>
   <si>
-    <t>通过微模拟模型量化阿司匹林一级预防的净获益；明确了不同年龄和心血管风险人群的获益阈值；发现对70-79岁人群启动阿司匹林预防的净获益多为负值。</t>
-  </si>
-  <si>
     <t>肿瘤护理模式与6个月化疗期间总支付额小幅相对减少相关；支付减少主要见于高风险患者，低风险患者支付反而相对增加；对大多数住院、急诊、生存率等利用和质量指标无显著影响。</t>
   </si>
   <si>
@@ -3169,9 +2956,6 @@
     <t>汇总4个大型前瞻性队列数据，样本量达252,745名女性；发现生殖区使用爽身粉与卵巢癌风险无显著关联（HR 1.08，95% CI 0.99-1.17）；研究提示可能统计效能不足，无法排除微小风险增加。</t>
   </si>
   <si>
-    <t>比较新旧指南定义的单纯舒张期高血压患病率差异；评估单纯舒张期高血压与心血管结局的纵向关联；在多个外部队列中验证了结果的稳健性</t>
-  </si>
-  <si>
     <t>1. 比较了主动监测、手术、放疗等多种治疗方案对局限性前列腺癌患者5年功能结局的影响；2. 发现前列腺切除术与持续5年的临床显著尿失禁风险相关；3. 对于高风险患者，放疗联合ADT在5年时性功能优于前列腺切除术。</t>
   </si>
   <si>
@@ -3184,9 +2968,6 @@
     <t>发现46%未吸氧患儿接受持续脉搏血氧监测，存在过度医疗；监测使用率在2%-92%间，医院间差异显著；27%的变异归因于医院因素，而非临床指征。</t>
   </si>
   <si>
-    <t>首次评估异体CD19 CAR NK细胞疗法在系统性红斑狼疮患者中的安全性与疗效；未观察到神经毒性等严重不良事件及剂量限制性毒性；在长期随访患者中，67%达到疾病缓解和低疾病活动状态。</t>
-  </si>
-  <si>
     <t>提供了1990-2023年全球癌症发病率、死亡率及DALYs的详细估计，并预测至2050年；评估了44种风险因素导致的癌症死亡负担；揭示了癌症负担增长在低收入和中等收入国家更为显著。</t>
   </si>
   <si>
@@ -3217,9 +2998,6 @@
     <t>首次系统估算全球/区域/国家层面HPV基因型对宫颈癌的归因分数；鉴定17种致癌HPV基因型，HPV16归因最高（61.7%）；发现HPV35在非洲归因分数显著高于其他地区。</t>
   </si>
   <si>
-    <t>首次在25个不同收入水平国家中系统评估活动受限的全球流行情况及其与临床结局的关联；发现活动受限（尤其是行走困难）与全因死亡及多种临床事件风险增加显著相关；揭示了低收入国家活动受限高发与辅助设备使用率低的巨大反差。</t>
-  </si>
-  <si>
     <t>首次在县级层面系统量化了美国多种族、多死因的死亡率差异；揭示了种族健康差异在全国各县普遍存在，但程度因地区和死因而异；发现美洲印第安人/阿拉斯加原住民和黑人群体在所有死因中的死亡率均显著高于白人群体。</t>
   </si>
   <si>
@@ -3235,9 +3013,6 @@
     <t>行为科学信息显著提高筛查参与率；干预组参与率比对照组高37.5%；年龄、社会经济地位、性别和吸烟状态影响参与可能性</t>
   </si>
   <si>
-    <t>开发了跨健康危害产品的综合性预防行动框架；经济分析量化了超政府建议的消费及行业收入；公众调查显示对征税及政策免受行业影响有强烈支持。</t>
-  </si>
-  <si>
     <t>发现年龄作为癌症风险因素在公众中认知度低（仅2-4%）；测试的健康信息（Message 2）最受青睐，可能通过提升认知、提供社会线索和激发反思动机来促进行为改变；23%的参与者报告了行为改变，73%保持了持续意向。</t>
   </si>
   <si>
@@ -3448,15 +3223,9 @@
     <t>首次在HER2突变非小细胞肺癌中证实曲妥珠单抗德鲁替康的疗效；客观缓解率达55%，中位缓解持续9.3个月；疗效在不同HER2突变亚型及无HER2表达/扩增患者中均观察到</t>
   </si>
   <si>
-    <t>基因疗法实现持久HbA(T87Q)表达；完全消除严重血管闭塞事件；安全性良好，无血液癌症发生</t>
-  </si>
-  <si>
     <t>双特异性抗体Glofitamab治疗复发/难治DLBCL的完全缓解率达39%；78%的完全缓解在12个月时仍持续；63%患者出现细胞因子释放综合征，但3级以上仅4%。</t>
   </si>
   <si>
-    <t>发现散发性脑海绵状血管畸形中PIK3CA突变比例最高（39%）；证实PIK3CA和AKT1突变在小鼠模型中可诱导CCM形成；鉴定PGDS阳性周细胞为可能的起源细胞</t>
-  </si>
-  <si>
     <t>HIF-2α抑制剂belzutifan对VHL病相关肾细胞癌客观缓解率达49%；对VHL病相关非肾细胞癌病变（如胰腺、中枢神经系统）也显示出活性；安全性良好，主要为1-2级不良事件。</t>
   </si>
   <si>
@@ -3509,9 +3278,6 @@
   </si>
   <si>
     <t>首次在多中心、跨地域队列中验证肠道菌群多样性是异基因造血干细胞移植患者死亡风险的独立预测因子；发现移植前菌群多样性已与生存结局相关；明确了菌群紊乱（多样性丧失和单一菌群优势）是跨中心的共同特征。</t>
-  </si>
-  <si>
-    <t>首次在94%的EVALI患者BAL液中检出维生素E醋酸酯；在健康对照组中未检出该物质；发现EVALI与THC产品使用高度相关（94%患者有THC暴露）</t>
   </si>
   <si>
     <t>在既往接受过vandetanib/cabozantinib治疗的RET突变甲状腺髓样癌患者中，客观缓解率达69%；在未接受过上述治疗的RET突变甲状腺髓样癌患者中，客观缓解率达73%；在既往治疗过的RET融合阳性甲状腺癌患者中，客观缓解率达79%</t>
@@ -4019,7 +3785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O166"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4080,34 +3846,34 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="G2">
         <v>38749552</v>
       </c>
       <c r="H2" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="I2" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="J2" t="s">
-        <v>822</v>
+        <v>763</v>
       </c>
       <c r="K2" t="s">
-        <v>903</v>
+        <v>842</v>
       </c>
       <c r="M2" t="s">
-        <v>1005</v>
+        <v>939</v>
       </c>
       <c r="N2" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O2" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4118,34 +3884,34 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="G3">
         <v>38508682</v>
       </c>
       <c r="H3" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="I3" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="J3" t="s">
-        <v>823</v>
+        <v>764</v>
       </c>
       <c r="K3" t="s">
-        <v>904</v>
+        <v>843</v>
       </c>
       <c r="M3" t="s">
-        <v>1006</v>
+        <v>940</v>
       </c>
       <c r="N3" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O3" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4156,34 +3922,34 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="G4">
         <v>38267073</v>
       </c>
       <c r="H4" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="I4" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="J4" t="s">
-        <v>824</v>
+        <v>765</v>
       </c>
       <c r="K4" t="s">
-        <v>905</v>
+        <v>844</v>
       </c>
       <c r="M4" t="s">
-        <v>1007</v>
+        <v>941</v>
       </c>
       <c r="N4" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O4" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4194,31 +3960,31 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="G5">
         <v>38418086</v>
       </c>
       <c r="H5" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="I5" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="K5" t="s">
-        <v>906</v>
+        <v>845</v>
       </c>
       <c r="M5" t="s">
-        <v>1008</v>
+        <v>942</v>
       </c>
       <c r="N5" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O5" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4229,31 +3995,34 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="G6">
-        <v>37137493</v>
+        <v>37311588</v>
       </c>
       <c r="H6" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="I6" t="s">
-        <v>661</v>
+        <v>614</v>
+      </c>
+      <c r="J6" t="s">
+        <v>766</v>
       </c>
       <c r="K6" t="s">
-        <v>907</v>
+        <v>846</v>
       </c>
       <c r="M6" t="s">
-        <v>1009</v>
+        <v>943</v>
       </c>
       <c r="N6" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O6" t="s">
-        <v>1171</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4264,34 +4033,34 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="G7">
-        <v>37311588</v>
+        <v>35640960</v>
       </c>
       <c r="H7" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="I7" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="J7" t="s">
-        <v>825</v>
+        <v>763</v>
       </c>
       <c r="K7" t="s">
-        <v>908</v>
+        <v>842</v>
       </c>
       <c r="M7" t="s">
-        <v>1010</v>
+        <v>944</v>
       </c>
       <c r="N7" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O7" t="s">
-        <v>1172</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4302,34 +4071,34 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="G8">
-        <v>37532284</v>
+        <v>34497044</v>
       </c>
       <c r="H8" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="I8" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="J8" t="s">
-        <v>826</v>
+        <v>767</v>
       </c>
       <c r="K8" t="s">
-        <v>905</v>
+        <v>847</v>
       </c>
       <c r="M8" t="s">
-        <v>1011</v>
+        <v>945</v>
       </c>
       <c r="N8" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O8" t="s">
-        <v>1171</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4340,180 +4109,180 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="G9">
-        <v>35640960</v>
+        <v>33268459</v>
       </c>
       <c r="H9" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="I9" t="s">
-        <v>664</v>
-      </c>
-      <c r="J9" t="s">
-        <v>822</v>
+        <v>617</v>
       </c>
       <c r="K9" t="s">
-        <v>903</v>
+        <v>848</v>
       </c>
       <c r="M9" t="s">
-        <v>1012</v>
+        <v>946</v>
       </c>
       <c r="N9" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O9" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="G10">
-        <v>34497044</v>
+        <v>40522635</v>
       </c>
       <c r="H10" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="I10" t="s">
-        <v>665</v>
-      </c>
-      <c r="J10" t="s">
-        <v>827</v>
+        <v>618</v>
       </c>
       <c r="K10" t="s">
-        <v>909</v>
+        <v>849</v>
       </c>
       <c r="M10" t="s">
-        <v>1013</v>
+        <v>947</v>
       </c>
       <c r="N10" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O10" t="s">
-        <v>1173</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="G11">
-        <v>34535466</v>
+        <v>40455622</v>
       </c>
       <c r="H11" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="I11" t="s">
-        <v>666</v>
+        <v>619</v>
+      </c>
+      <c r="J11" t="s">
+        <v>768</v>
       </c>
       <c r="K11" t="s">
-        <v>910</v>
+        <v>850</v>
       </c>
       <c r="M11" t="s">
-        <v>1014</v>
+        <v>948</v>
       </c>
       <c r="N11" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O11" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F12" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="G12">
-        <v>34880044</v>
+        <v>39680377</v>
       </c>
       <c r="H12" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="I12" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="J12" t="s">
-        <v>828</v>
+        <v>768</v>
       </c>
       <c r="K12" t="s">
-        <v>905</v>
+        <v>842</v>
       </c>
       <c r="M12" t="s">
-        <v>1015</v>
+        <v>949</v>
       </c>
       <c r="N12" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O12" t="s">
-        <v>1171</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="G13">
-        <v>33268459</v>
+        <v>41468027</v>
       </c>
       <c r="H13" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="I13" t="s">
-        <v>668</v>
+        <v>621</v>
+      </c>
+      <c r="J13" t="s">
+        <v>769</v>
       </c>
       <c r="K13" t="s">
-        <v>910</v>
+        <v>851</v>
       </c>
       <c r="M13" t="s">
-        <v>1016</v>
+        <v>950</v>
       </c>
       <c r="N13" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O13" t="s">
-        <v>1171</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4524,31 +4293,34 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="G14">
-        <v>40522635</v>
+        <v>41385349</v>
       </c>
       <c r="H14" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="I14" t="s">
-        <v>669</v>
+        <v>622</v>
+      </c>
+      <c r="J14" t="s">
+        <v>770</v>
       </c>
       <c r="K14" t="s">
-        <v>911</v>
+        <v>851</v>
       </c>
       <c r="M14" t="s">
-        <v>1017</v>
+        <v>951</v>
       </c>
       <c r="N14" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O14" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4559,34 +4331,34 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F15" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="G15">
-        <v>40455622</v>
+        <v>38873722</v>
       </c>
       <c r="H15" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="I15" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="J15" t="s">
-        <v>829</v>
+        <v>771</v>
       </c>
       <c r="K15" t="s">
-        <v>912</v>
+        <v>852</v>
       </c>
       <c r="M15" t="s">
-        <v>1018</v>
+        <v>952</v>
       </c>
       <c r="N15" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O15" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4597,34 +4369,34 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F16" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="G16">
-        <v>39680377</v>
+        <v>39259563</v>
       </c>
       <c r="H16" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="I16" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="J16" t="s">
-        <v>829</v>
+        <v>772</v>
       </c>
       <c r="K16" t="s">
-        <v>903</v>
+        <v>851</v>
       </c>
       <c r="M16" t="s">
-        <v>1019</v>
+        <v>953</v>
       </c>
       <c r="N16" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O16" t="s">
-        <v>1174</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="17" spans="3:15">
@@ -4635,34 +4407,34 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="G17">
-        <v>41468027</v>
+        <v>38583175</v>
       </c>
       <c r="H17" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="I17" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="J17" t="s">
-        <v>830</v>
+        <v>767</v>
       </c>
       <c r="K17" t="s">
-        <v>913</v>
+        <v>853</v>
       </c>
       <c r="M17" t="s">
-        <v>1020</v>
+        <v>954</v>
       </c>
       <c r="N17" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O17" t="s">
-        <v>1175</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="18" spans="3:15">
@@ -4673,34 +4445,34 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F18" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="G18">
-        <v>41385349</v>
+        <v>38814624</v>
       </c>
       <c r="H18" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="I18" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="J18" t="s">
-        <v>831</v>
+        <v>773</v>
       </c>
       <c r="K18" t="s">
-        <v>913</v>
+        <v>848</v>
       </c>
       <c r="M18" t="s">
-        <v>1021</v>
+        <v>955</v>
       </c>
       <c r="N18" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O18" t="s">
-        <v>1171</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="19" spans="3:15">
@@ -4711,34 +4483,34 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F19" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="G19">
-        <v>38873722</v>
+        <v>38687505</v>
       </c>
       <c r="H19" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="I19" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="J19" t="s">
-        <v>832</v>
+        <v>770</v>
       </c>
       <c r="K19" t="s">
-        <v>914</v>
+        <v>854</v>
       </c>
       <c r="M19" t="s">
-        <v>1022</v>
+        <v>956</v>
       </c>
       <c r="N19" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O19" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="20" spans="3:15">
@@ -4749,34 +4521,34 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F20" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="G20">
-        <v>39259563</v>
+        <v>38583868</v>
       </c>
       <c r="H20" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="I20" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="J20" t="s">
-        <v>833</v>
+        <v>774</v>
       </c>
       <c r="K20" t="s">
-        <v>913</v>
+        <v>855</v>
       </c>
       <c r="M20" t="s">
-        <v>1023</v>
+        <v>957</v>
       </c>
       <c r="N20" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O20" t="s">
-        <v>1171</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="21" spans="3:15">
@@ -4787,34 +4559,34 @@
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="G21">
-        <v>38583175</v>
+        <v>38261044</v>
       </c>
       <c r="H21" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="I21" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="J21" t="s">
-        <v>827</v>
+        <v>775</v>
       </c>
       <c r="K21" t="s">
-        <v>915</v>
+        <v>848</v>
       </c>
       <c r="M21" t="s">
-        <v>1024</v>
+        <v>958</v>
       </c>
       <c r="N21" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O21" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="22" spans="3:15">
@@ -4825,34 +4597,34 @@
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F22" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="G22">
-        <v>38814624</v>
+        <v>38261043</v>
       </c>
       <c r="H22" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="I22" t="s">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="J22" t="s">
-        <v>834</v>
+        <v>776</v>
       </c>
       <c r="K22" t="s">
-        <v>910</v>
+        <v>856</v>
       </c>
       <c r="M22" t="s">
-        <v>1025</v>
+        <v>959</v>
       </c>
       <c r="N22" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O22" t="s">
-        <v>1176</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="23" spans="3:15">
@@ -4863,34 +4635,34 @@
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="G23">
-        <v>38687505</v>
+        <v>38059899</v>
       </c>
       <c r="H23" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="I23" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="J23" t="s">
-        <v>831</v>
+        <v>770</v>
       </c>
       <c r="K23" t="s">
-        <v>916</v>
+        <v>845</v>
       </c>
       <c r="M23" t="s">
-        <v>1026</v>
+        <v>960</v>
       </c>
       <c r="N23" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O23" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="24" spans="3:15">
@@ -4901,34 +4673,34 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F24" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="G24">
-        <v>38583868</v>
+        <v>38227031</v>
       </c>
       <c r="H24" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="I24" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="J24" t="s">
-        <v>835</v>
+        <v>770</v>
       </c>
       <c r="K24" t="s">
-        <v>917</v>
+        <v>857</v>
       </c>
       <c r="M24" t="s">
-        <v>1027</v>
+        <v>961</v>
       </c>
       <c r="N24" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O24" t="s">
-        <v>1177</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="25" spans="3:15">
@@ -4939,34 +4711,31 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="G25">
-        <v>38261044</v>
+        <v>39418046</v>
       </c>
       <c r="H25" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="I25" t="s">
-        <v>680</v>
-      </c>
-      <c r="J25" t="s">
-        <v>836</v>
+        <v>633</v>
       </c>
       <c r="K25" t="s">
-        <v>910</v>
+        <v>845</v>
       </c>
       <c r="M25" t="s">
-        <v>1028</v>
+        <v>962</v>
       </c>
       <c r="N25" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O25" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="26" spans="3:15">
@@ -4977,34 +4746,34 @@
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="G26">
-        <v>38261043</v>
+        <v>39018030</v>
       </c>
       <c r="H26" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="I26" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="J26" t="s">
-        <v>837</v>
+        <v>777</v>
       </c>
       <c r="K26" t="s">
-        <v>918</v>
+        <v>844</v>
       </c>
       <c r="M26" t="s">
-        <v>1029</v>
+        <v>963</v>
       </c>
       <c r="N26" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O26" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -5015,34 +4784,34 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="G27">
-        <v>38059899</v>
+        <v>38563834</v>
       </c>
       <c r="H27" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="I27" t="s">
-        <v>682</v>
+        <v>635</v>
       </c>
       <c r="J27" t="s">
-        <v>831</v>
+        <v>778</v>
       </c>
       <c r="K27" t="s">
-        <v>906</v>
+        <v>858</v>
       </c>
       <c r="M27" t="s">
-        <v>1030</v>
+        <v>964</v>
       </c>
       <c r="N27" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O27" t="s">
-        <v>1171</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="28" spans="3:15">
@@ -5053,34 +4822,34 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F28" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="G28">
-        <v>38227031</v>
+        <v>37276540</v>
       </c>
       <c r="H28" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="I28" t="s">
-        <v>683</v>
+        <v>636</v>
       </c>
       <c r="J28" t="s">
-        <v>831</v>
+        <v>779</v>
       </c>
       <c r="K28" t="s">
-        <v>919</v>
+        <v>842</v>
       </c>
       <c r="M28" t="s">
-        <v>1031</v>
+        <v>965</v>
       </c>
       <c r="N28" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O28" t="s">
-        <v>1172</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -5091,31 +4860,34 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="G29">
-        <v>39418046</v>
+        <v>37552302</v>
       </c>
       <c r="H29" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="I29" t="s">
-        <v>684</v>
+        <v>637</v>
+      </c>
+      <c r="J29" t="s">
+        <v>780</v>
       </c>
       <c r="K29" t="s">
-        <v>906</v>
+        <v>848</v>
       </c>
       <c r="M29" t="s">
-        <v>1032</v>
+        <v>966</v>
       </c>
       <c r="N29" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O29" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="30" spans="3:15">
@@ -5126,34 +4898,34 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F30" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="G30">
-        <v>39018030</v>
+        <v>35670788</v>
       </c>
       <c r="H30" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="I30" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="J30" t="s">
-        <v>828</v>
+        <v>768</v>
       </c>
       <c r="K30" t="s">
-        <v>905</v>
+        <v>845</v>
       </c>
       <c r="M30" t="s">
-        <v>1033</v>
+        <v>967</v>
       </c>
       <c r="N30" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O30" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="31" spans="3:15">
@@ -5164,34 +4936,34 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F31" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="G31">
-        <v>38563834</v>
+        <v>35657620</v>
       </c>
       <c r="H31" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="I31" t="s">
-        <v>686</v>
+        <v>639</v>
       </c>
       <c r="J31" t="s">
-        <v>838</v>
+        <v>781</v>
       </c>
       <c r="K31" t="s">
-        <v>920</v>
+        <v>859</v>
       </c>
       <c r="M31" t="s">
-        <v>1034</v>
+        <v>968</v>
       </c>
       <c r="N31" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O31" t="s">
-        <v>1178</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="32" spans="3:15">
@@ -5202,34 +4974,34 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F32" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="G32">
-        <v>37276540</v>
+        <v>35699706</v>
       </c>
       <c r="H32" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="I32" t="s">
-        <v>687</v>
+        <v>640</v>
       </c>
       <c r="J32" t="s">
-        <v>839</v>
+        <v>770</v>
       </c>
       <c r="K32" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="M32" t="s">
-        <v>1035</v>
+        <v>969</v>
       </c>
       <c r="N32" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O32" t="s">
-        <v>1171</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="33" spans="3:15">
@@ -5240,34 +5012,34 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="G33">
-        <v>37552302</v>
+        <v>34982120</v>
       </c>
       <c r="H33" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="I33" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="J33" t="s">
-        <v>840</v>
+        <v>782</v>
       </c>
       <c r="K33" t="s">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="M33" t="s">
-        <v>1036</v>
+        <v>970</v>
       </c>
       <c r="N33" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O33" t="s">
-        <v>1171</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="34" spans="3:15">
@@ -5278,34 +5050,34 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="G34">
-        <v>35670788</v>
+        <v>34751709</v>
       </c>
       <c r="H34" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="I34" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="J34" t="s">
-        <v>829</v>
+        <v>769</v>
       </c>
       <c r="K34" t="s">
-        <v>906</v>
+        <v>861</v>
       </c>
       <c r="M34" t="s">
-        <v>1037</v>
+        <v>971</v>
       </c>
       <c r="N34" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O34" t="s">
-        <v>1171</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="35" spans="3:15">
@@ -5316,34 +5088,34 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F35" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="G35">
-        <v>35657620</v>
+        <v>34003219</v>
       </c>
       <c r="H35" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="I35" t="s">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="J35" t="s">
-        <v>841</v>
+        <v>768</v>
       </c>
       <c r="K35" t="s">
-        <v>921</v>
+        <v>862</v>
       </c>
       <c r="M35" t="s">
-        <v>1038</v>
+        <v>972</v>
       </c>
       <c r="N35" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O35" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="36" spans="3:15">
@@ -5354,34 +5126,34 @@
         <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F36" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="G36">
-        <v>35699706</v>
+        <v>33687469</v>
       </c>
       <c r="H36" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="I36" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="J36" t="s">
-        <v>831</v>
+        <v>783</v>
       </c>
       <c r="K36" t="s">
-        <v>915</v>
+        <v>863</v>
       </c>
       <c r="M36" t="s">
-        <v>1039</v>
+        <v>973</v>
       </c>
       <c r="N36" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O36" t="s">
-        <v>1179</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="37" spans="3:15">
@@ -5392,34 +5164,34 @@
         <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="G37">
-        <v>34982120</v>
+        <v>33079153</v>
       </c>
       <c r="H37" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="I37" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="J37" t="s">
-        <v>842</v>
+        <v>763</v>
       </c>
       <c r="K37" t="s">
-        <v>922</v>
+        <v>864</v>
       </c>
       <c r="M37" t="s">
-        <v>1040</v>
+        <v>974</v>
       </c>
       <c r="N37" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O37" t="s">
-        <v>1180</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="38" spans="3:15">
@@ -5430,34 +5202,34 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F38" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="G38">
-        <v>35471506</v>
+        <v>33141207</v>
       </c>
       <c r="H38" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="I38" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="J38" t="s">
-        <v>829</v>
+        <v>773</v>
       </c>
       <c r="K38" t="s">
-        <v>923</v>
+        <v>845</v>
       </c>
       <c r="M38" t="s">
-        <v>1041</v>
+        <v>975</v>
       </c>
       <c r="N38" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O38" t="s">
-        <v>1171</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="39" spans="3:15">
@@ -5468,34 +5240,34 @@
         <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="G39">
-        <v>34751709</v>
+        <v>33231665</v>
       </c>
       <c r="H39" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="I39" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="J39" t="s">
-        <v>830</v>
+        <v>784</v>
       </c>
       <c r="K39" t="s">
-        <v>924</v>
+        <v>853</v>
       </c>
       <c r="M39" t="s">
-        <v>1042</v>
+        <v>976</v>
       </c>
       <c r="N39" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O39" t="s">
-        <v>1181</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="40" spans="3:15">
@@ -5506,34 +5278,34 @@
         <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F40" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="G40">
-        <v>34003219</v>
+        <v>33201204</v>
       </c>
       <c r="H40" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="I40" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="J40" t="s">
-        <v>829</v>
+        <v>785</v>
       </c>
       <c r="K40" t="s">
-        <v>925</v>
+        <v>864</v>
       </c>
       <c r="M40" t="s">
-        <v>1043</v>
+        <v>977</v>
       </c>
       <c r="N40" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O40" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="41" spans="3:15">
@@ -5544,34 +5316,31 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="G41">
-        <v>33687469</v>
+        <v>32692387</v>
       </c>
       <c r="H41" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="I41" t="s">
-        <v>696</v>
-      </c>
-      <c r="J41" t="s">
-        <v>843</v>
+        <v>649</v>
       </c>
       <c r="K41" t="s">
-        <v>926</v>
+        <v>865</v>
       </c>
       <c r="M41" t="s">
-        <v>1044</v>
+        <v>978</v>
       </c>
       <c r="N41" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O41" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="42" spans="3:15">
@@ -5582,34 +5351,34 @@
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="G42">
-        <v>33079153</v>
+        <v>31910280</v>
       </c>
       <c r="H42" t="s">
-        <v>532</v>
+        <v>497</v>
       </c>
       <c r="I42" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="J42" t="s">
-        <v>822</v>
+        <v>777</v>
       </c>
       <c r="K42" t="s">
-        <v>927</v>
+        <v>848</v>
       </c>
       <c r="M42" t="s">
-        <v>1045</v>
+        <v>979</v>
       </c>
       <c r="N42" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O42" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="43" spans="3:15">
@@ -5620,34 +5389,34 @@
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="G43">
-        <v>33141207</v>
+        <v>31935027</v>
       </c>
       <c r="H43" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="I43" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="J43" t="s">
-        <v>834</v>
+        <v>773</v>
       </c>
       <c r="K43" t="s">
-        <v>906</v>
+        <v>848</v>
       </c>
       <c r="M43" t="s">
-        <v>1046</v>
+        <v>980</v>
       </c>
       <c r="N43" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O43" t="s">
-        <v>1182</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="44" spans="3:15">
@@ -5658,34 +5427,34 @@
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="G44">
-        <v>33231665</v>
+        <v>33351041</v>
       </c>
       <c r="H44" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="I44" t="s">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="J44" t="s">
-        <v>844</v>
+        <v>786</v>
       </c>
       <c r="K44" t="s">
-        <v>915</v>
+        <v>845</v>
       </c>
       <c r="M44" t="s">
-        <v>1047</v>
+        <v>981</v>
       </c>
       <c r="N44" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O44" t="s">
-        <v>1171</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="45" spans="3:15">
@@ -5696,34 +5465,31 @@
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="G45">
-        <v>33201204</v>
+        <v>32259229</v>
       </c>
       <c r="H45" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="I45" t="s">
-        <v>700</v>
-      </c>
-      <c r="J45" t="s">
+        <v>653</v>
+      </c>
+      <c r="K45" t="s">
         <v>845</v>
       </c>
-      <c r="K45" t="s">
-        <v>927</v>
-      </c>
       <c r="M45" t="s">
-        <v>1048</v>
+        <v>982</v>
       </c>
       <c r="N45" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O45" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="46" spans="3:15">
@@ -5734,250 +5500,259 @@
         <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F46" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="G46">
-        <v>32692387</v>
+        <v>32315058</v>
       </c>
       <c r="H46" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="I46" t="s">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="K46" t="s">
-        <v>928</v>
+        <v>866</v>
       </c>
       <c r="M46" t="s">
-        <v>1049</v>
+        <v>983</v>
       </c>
       <c r="N46" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O46" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="47" spans="3:15">
       <c r="C47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="G47">
-        <v>31910280</v>
+        <v>41015051</v>
       </c>
       <c r="H47" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="I47" t="s">
-        <v>702</v>
-      </c>
-      <c r="J47" t="s">
-        <v>828</v>
+        <v>655</v>
       </c>
       <c r="K47" t="s">
-        <v>910</v>
+        <v>867</v>
       </c>
       <c r="M47" t="s">
-        <v>1050</v>
+        <v>984</v>
       </c>
       <c r="N47" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O47" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="48" spans="3:15">
       <c r="C48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="G48">
-        <v>31990314</v>
+        <v>41138738</v>
       </c>
       <c r="H48" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="I48" t="s">
-        <v>703</v>
+        <v>656</v>
+      </c>
+      <c r="J48" t="s">
+        <v>787</v>
       </c>
       <c r="K48" t="s">
-        <v>929</v>
+        <v>868</v>
       </c>
       <c r="M48" t="s">
-        <v>1051</v>
+        <v>985</v>
       </c>
       <c r="N48" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O48" t="s">
-        <v>1171</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="49" spans="3:15">
       <c r="C49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F49" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="G49">
-        <v>31935027</v>
+        <v>39798981</v>
       </c>
       <c r="H49" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="I49" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="J49" t="s">
-        <v>834</v>
+        <v>788</v>
       </c>
       <c r="K49" t="s">
-        <v>910</v>
+        <v>869</v>
+      </c>
+      <c r="L49" t="s">
+        <v>931</v>
       </c>
       <c r="M49" t="s">
-        <v>1052</v>
+        <v>986</v>
       </c>
       <c r="N49" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O49" t="s">
-        <v>1183</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="50" spans="3:15">
       <c r="C50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="G50">
-        <v>33351041</v>
+        <v>39642902</v>
       </c>
       <c r="H50" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="I50" t="s">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="J50" t="s">
-        <v>846</v>
+        <v>789</v>
       </c>
       <c r="K50" t="s">
-        <v>906</v>
+        <v>870</v>
+      </c>
+      <c r="L50" t="s">
+        <v>932</v>
       </c>
       <c r="M50" t="s">
-        <v>1053</v>
+        <v>987</v>
       </c>
       <c r="N50" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O50" t="s">
-        <v>1184</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="51" spans="3:15">
       <c r="C51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F51" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="G51">
-        <v>32259229</v>
+        <v>41429130</v>
       </c>
       <c r="H51" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="I51" t="s">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="K51" t="s">
-        <v>906</v>
+        <v>848</v>
       </c>
       <c r="M51" t="s">
-        <v>1054</v>
+        <v>988</v>
       </c>
       <c r="N51" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O51" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="52" spans="3:15">
       <c r="C52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
         <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F52" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="G52">
-        <v>32315058</v>
+        <v>40783288</v>
       </c>
       <c r="H52" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="I52" t="s">
-        <v>707</v>
+        <v>660</v>
+      </c>
+      <c r="J52" t="s">
+        <v>790</v>
       </c>
       <c r="K52" t="s">
-        <v>930</v>
+        <v>851</v>
       </c>
       <c r="M52" t="s">
-        <v>1055</v>
+        <v>989</v>
       </c>
       <c r="N52" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O52" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="53" spans="3:15">
@@ -5988,34 +5763,34 @@
         <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F53" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="G53">
-        <v>41240964</v>
+        <v>39396348</v>
       </c>
       <c r="H53" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="I53" t="s">
-        <v>708</v>
+        <v>661</v>
+      </c>
+      <c r="J53" t="s">
+        <v>790</v>
       </c>
       <c r="K53" t="s">
-        <v>931</v>
-      </c>
-      <c r="L53" t="s">
-        <v>997</v>
+        <v>851</v>
       </c>
       <c r="M53" t="s">
-        <v>1056</v>
+        <v>990</v>
       </c>
       <c r="N53" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O53" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="54" spans="3:15">
@@ -6026,31 +5801,37 @@
         <v>71</v>
       </c>
       <c r="E54" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F54" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="G54">
-        <v>41015051</v>
+        <v>38996463</v>
       </c>
       <c r="H54" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="I54" t="s">
-        <v>709</v>
+        <v>662</v>
+      </c>
+      <c r="J54" t="s">
+        <v>791</v>
       </c>
       <c r="K54" t="s">
-        <v>932</v>
+        <v>871</v>
+      </c>
+      <c r="L54" t="s">
+        <v>931</v>
       </c>
       <c r="M54" t="s">
-        <v>1057</v>
+        <v>991</v>
       </c>
       <c r="N54" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O54" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="55" spans="3:15">
@@ -6061,34 +5842,34 @@
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F55" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="G55">
-        <v>41138738</v>
+        <v>38065194</v>
       </c>
       <c r="H55" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="I55" t="s">
-        <v>710</v>
+        <v>663</v>
       </c>
       <c r="J55" t="s">
-        <v>847</v>
+        <v>790</v>
       </c>
       <c r="K55" t="s">
-        <v>933</v>
+        <v>872</v>
       </c>
       <c r="M55" t="s">
-        <v>1058</v>
+        <v>992</v>
       </c>
       <c r="N55" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O55" t="s">
-        <v>1185</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="56" spans="3:15">
@@ -6099,37 +5880,34 @@
         <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F56" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="G56">
-        <v>39798981</v>
+        <v>39097395</v>
       </c>
       <c r="H56" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="I56" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
       <c r="J56" t="s">
-        <v>848</v>
+        <v>792</v>
       </c>
       <c r="K56" t="s">
-        <v>934</v>
-      </c>
-      <c r="L56" t="s">
-        <v>997</v>
+        <v>873</v>
       </c>
       <c r="M56" t="s">
-        <v>1059</v>
+        <v>993</v>
       </c>
       <c r="N56" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O56" t="s">
-        <v>1186</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="57" spans="3:15">
@@ -6140,37 +5918,31 @@
         <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F57" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="G57">
-        <v>39642902</v>
+        <v>37544309</v>
       </c>
       <c r="H57" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="I57" t="s">
-        <v>712</v>
-      </c>
-      <c r="J57" t="s">
-        <v>849</v>
+        <v>665</v>
       </c>
       <c r="K57" t="s">
-        <v>935</v>
-      </c>
-      <c r="L57" t="s">
-        <v>998</v>
+        <v>874</v>
       </c>
       <c r="M57" t="s">
-        <v>1060</v>
+        <v>994</v>
       </c>
       <c r="N57" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O57" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="58" spans="3:15">
@@ -6181,31 +5953,34 @@
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F58" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="G58">
-        <v>41429130</v>
+        <v>37805216</v>
       </c>
       <c r="H58" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="I58" t="s">
-        <v>713</v>
+        <v>666</v>
+      </c>
+      <c r="J58" t="s">
+        <v>767</v>
       </c>
       <c r="K58" t="s">
-        <v>910</v>
+        <v>848</v>
       </c>
       <c r="M58" t="s">
-        <v>1061</v>
+        <v>995</v>
       </c>
       <c r="N58" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O58" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="59" spans="3:15">
@@ -6216,34 +5991,34 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F59" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="G59">
-        <v>40783288</v>
+        <v>37931633</v>
       </c>
       <c r="H59" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="I59" t="s">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="J59" t="s">
-        <v>850</v>
+        <v>790</v>
       </c>
       <c r="K59" t="s">
-        <v>913</v>
+        <v>851</v>
       </c>
       <c r="M59" t="s">
-        <v>1062</v>
+        <v>996</v>
       </c>
       <c r="N59" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O59" t="s">
-        <v>1171</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="60" spans="3:15">
@@ -6254,34 +6029,34 @@
         <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F60" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="G60">
-        <v>39396348</v>
+        <v>37997129</v>
       </c>
       <c r="H60" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="I60" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="J60" t="s">
-        <v>850</v>
+        <v>793</v>
       </c>
       <c r="K60" t="s">
-        <v>913</v>
+        <v>848</v>
       </c>
       <c r="M60" t="s">
-        <v>1063</v>
+        <v>997</v>
       </c>
       <c r="N60" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O60" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="61" spans="3:15">
@@ -6292,37 +6067,34 @@
         <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F61" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="G61">
-        <v>38996463</v>
+        <v>37997128</v>
       </c>
       <c r="H61" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="I61" t="s">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="J61" t="s">
-        <v>851</v>
+        <v>783</v>
       </c>
       <c r="K61" t="s">
-        <v>936</v>
-      </c>
-      <c r="L61" t="s">
-        <v>997</v>
+        <v>875</v>
       </c>
       <c r="M61" t="s">
-        <v>1064</v>
+        <v>998</v>
       </c>
       <c r="N61" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O61" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="62" spans="3:15">
@@ -6333,34 +6105,34 @@
         <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F62" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="G62">
-        <v>38065194</v>
+        <v>37997099</v>
       </c>
       <c r="H62" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="I62" t="s">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="J62" t="s">
-        <v>850</v>
+        <v>794</v>
       </c>
       <c r="K62" t="s">
-        <v>937</v>
+        <v>876</v>
       </c>
       <c r="M62" t="s">
-        <v>1065</v>
+        <v>999</v>
       </c>
       <c r="N62" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O62" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="63" spans="3:15">
@@ -6371,34 +6143,34 @@
         <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F63" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="G63">
-        <v>39097395</v>
+        <v>37997098</v>
       </c>
       <c r="H63" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="I63" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="J63" t="s">
-        <v>852</v>
+        <v>769</v>
       </c>
       <c r="K63" t="s">
-        <v>938</v>
+        <v>864</v>
       </c>
       <c r="M63" t="s">
-        <v>1066</v>
+        <v>1000</v>
       </c>
       <c r="N63" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O63" t="s">
-        <v>1187</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="64" spans="3:15">
@@ -6409,31 +6181,34 @@
         <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F64" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="G64">
-        <v>39068950</v>
+        <v>37997097</v>
       </c>
       <c r="H64" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="I64" t="s">
-        <v>719</v>
+        <v>672</v>
+      </c>
+      <c r="J64" t="s">
+        <v>770</v>
       </c>
       <c r="K64" t="s">
-        <v>910</v>
+        <v>877</v>
       </c>
       <c r="M64" t="s">
-        <v>1067</v>
+        <v>1001</v>
       </c>
       <c r="N64" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O64" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="65" spans="3:15">
@@ -6444,31 +6219,34 @@
         <v>82</v>
       </c>
       <c r="E65" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F65" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="G65">
-        <v>37544309</v>
+        <v>37997076</v>
       </c>
       <c r="H65" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="I65" t="s">
-        <v>720</v>
+        <v>673</v>
+      </c>
+      <c r="J65" t="s">
+        <v>763</v>
       </c>
       <c r="K65" t="s">
-        <v>939</v>
+        <v>878</v>
       </c>
       <c r="M65" t="s">
-        <v>1068</v>
+        <v>1002</v>
       </c>
       <c r="N65" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O65" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="66" spans="3:15">
@@ -6479,34 +6257,34 @@
         <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F66" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="G66">
-        <v>37805216</v>
+        <v>37997051</v>
       </c>
       <c r="H66" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="I66" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="J66" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="K66" t="s">
-        <v>910</v>
+        <v>876</v>
       </c>
       <c r="M66" t="s">
-        <v>1069</v>
+        <v>1003</v>
       </c>
       <c r="N66" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O66" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="67" spans="3:15">
@@ -6517,34 +6295,34 @@
         <v>84</v>
       </c>
       <c r="E67" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F67" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G67">
-        <v>37931633</v>
+        <v>37105210</v>
       </c>
       <c r="H67" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="I67" t="s">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="J67" t="s">
-        <v>850</v>
+        <v>796</v>
       </c>
       <c r="K67" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
       <c r="M67" t="s">
-        <v>1070</v>
+        <v>1004</v>
       </c>
       <c r="N67" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O67" t="s">
-        <v>1188</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="68" spans="3:15">
@@ -6555,34 +6333,34 @@
         <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F68" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="G68">
-        <v>37997129</v>
+        <v>37030315</v>
       </c>
       <c r="H68" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="I68" t="s">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="J68" t="s">
-        <v>853</v>
+        <v>797</v>
       </c>
       <c r="K68" t="s">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="M68" t="s">
-        <v>1071</v>
+        <v>1005</v>
       </c>
       <c r="N68" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O68" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="69" spans="3:15">
@@ -6593,34 +6371,34 @@
         <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F69" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="G69">
-        <v>37997128</v>
+        <v>37061269</v>
       </c>
       <c r="H69" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="I69" t="s">
-        <v>724</v>
+        <v>677</v>
       </c>
       <c r="J69" t="s">
-        <v>843</v>
+        <v>790</v>
       </c>
       <c r="K69" t="s">
-        <v>940</v>
+        <v>851</v>
       </c>
       <c r="M69" t="s">
-        <v>1072</v>
+        <v>1006</v>
       </c>
       <c r="N69" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O69" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="70" spans="3:15">
@@ -6631,31 +6409,34 @@
         <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F70" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="G70">
-        <v>37997100</v>
+        <v>36154677</v>
       </c>
       <c r="H70" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="I70" t="s">
-        <v>725</v>
+        <v>678</v>
+      </c>
+      <c r="J70" t="s">
+        <v>798</v>
       </c>
       <c r="K70" t="s">
-        <v>941</v>
+        <v>864</v>
       </c>
       <c r="M70" t="s">
-        <v>1073</v>
+        <v>1007</v>
       </c>
       <c r="N70" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O70" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="71" spans="3:15">
@@ -6666,34 +6447,31 @@
         <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F71" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="G71">
-        <v>37997099</v>
+        <v>36328042</v>
       </c>
       <c r="H71" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="I71" t="s">
-        <v>726</v>
-      </c>
-      <c r="J71" t="s">
-        <v>854</v>
+        <v>679</v>
       </c>
       <c r="K71" t="s">
-        <v>942</v>
+        <v>864</v>
       </c>
       <c r="M71" t="s">
-        <v>1074</v>
+        <v>1008</v>
       </c>
       <c r="N71" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O71" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="72" spans="3:15">
@@ -6704,34 +6482,34 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F72" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="G72">
-        <v>37997098</v>
+        <v>36930014</v>
       </c>
       <c r="H72" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="I72" t="s">
-        <v>727</v>
+        <v>680</v>
       </c>
       <c r="J72" t="s">
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="K72" t="s">
-        <v>927</v>
+        <v>881</v>
       </c>
       <c r="M72" t="s">
-        <v>1075</v>
+        <v>1009</v>
       </c>
       <c r="N72" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O72" t="s">
-        <v>1189</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="73" spans="3:15">
@@ -6742,34 +6520,34 @@
         <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F73" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="G73">
-        <v>37997097</v>
+        <v>36929968</v>
       </c>
       <c r="H73" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="I73" t="s">
-        <v>728</v>
+        <v>681</v>
       </c>
       <c r="J73" t="s">
-        <v>831</v>
+        <v>768</v>
       </c>
       <c r="K73" t="s">
-        <v>923</v>
+        <v>882</v>
       </c>
       <c r="M73" t="s">
-        <v>1076</v>
+        <v>1010</v>
       </c>
       <c r="N73" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O73" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="74" spans="3:15">
@@ -6780,34 +6558,34 @@
         <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F74" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="G74">
-        <v>37997076</v>
+        <v>36502844</v>
       </c>
       <c r="H74" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="I74" t="s">
-        <v>729</v>
+        <v>682</v>
       </c>
       <c r="J74" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="K74" t="s">
-        <v>941</v>
+        <v>883</v>
       </c>
       <c r="M74" t="s">
-        <v>1077</v>
+        <v>1011</v>
       </c>
       <c r="N74" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O74" t="s">
-        <v>1171</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="75" spans="3:15">
@@ -6818,34 +6596,31 @@
         <v>92</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F75" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="G75">
-        <v>37997051</v>
+        <v>35988567</v>
       </c>
       <c r="H75" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="I75" t="s">
-        <v>730</v>
-      </c>
-      <c r="J75" t="s">
-        <v>855</v>
+        <v>683</v>
       </c>
       <c r="K75" t="s">
-        <v>942</v>
+        <v>884</v>
       </c>
       <c r="M75" t="s">
-        <v>1078</v>
+        <v>1012</v>
       </c>
       <c r="N75" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O75" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="76" spans="3:15">
@@ -6856,34 +6631,37 @@
         <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F76" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="G76">
-        <v>37105210</v>
+        <v>35964611</v>
       </c>
       <c r="H76" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="I76" t="s">
-        <v>731</v>
+        <v>684</v>
       </c>
       <c r="J76" t="s">
-        <v>856</v>
+        <v>800</v>
       </c>
       <c r="K76" t="s">
-        <v>943</v>
+        <v>845</v>
+      </c>
+      <c r="L76" t="s">
+        <v>931</v>
       </c>
       <c r="M76" t="s">
-        <v>1079</v>
+        <v>1013</v>
       </c>
       <c r="N76" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O76" t="s">
-        <v>1190</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="77" spans="3:15">
@@ -6894,34 +6672,37 @@
         <v>94</v>
       </c>
       <c r="E77" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F77" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="G77">
-        <v>37030315</v>
+        <v>33676628</v>
       </c>
       <c r="H77" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="I77" t="s">
-        <v>732</v>
+        <v>685</v>
       </c>
       <c r="J77" t="s">
-        <v>857</v>
+        <v>801</v>
       </c>
       <c r="K77" t="s">
-        <v>944</v>
+        <v>885</v>
+      </c>
+      <c r="L77" t="s">
+        <v>932</v>
       </c>
       <c r="M77" t="s">
-        <v>1080</v>
+        <v>1014</v>
       </c>
       <c r="N77" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O77" t="s">
-        <v>1171</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="78" spans="3:15">
@@ -6932,34 +6713,37 @@
         <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F78" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="G78">
-        <v>37061269</v>
+        <v>34175021</v>
       </c>
       <c r="H78" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="I78" t="s">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="J78" t="s">
-        <v>850</v>
+        <v>802</v>
       </c>
       <c r="K78" t="s">
-        <v>913</v>
+        <v>886</v>
+      </c>
+      <c r="L78" t="s">
+        <v>933</v>
       </c>
       <c r="M78" t="s">
-        <v>1081</v>
+        <v>1015</v>
       </c>
       <c r="N78" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O78" t="s">
-        <v>1171</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="79" spans="3:15">
@@ -6970,34 +6754,34 @@
         <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="G79">
-        <v>36154677</v>
+        <v>34227971</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="I79" t="s">
-        <v>734</v>
+        <v>687</v>
       </c>
       <c r="J79" t="s">
-        <v>858</v>
+        <v>770</v>
       </c>
       <c r="K79" t="s">
-        <v>927</v>
+        <v>887</v>
       </c>
       <c r="M79" t="s">
-        <v>1082</v>
+        <v>1016</v>
       </c>
       <c r="N79" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O79" t="s">
-        <v>1171</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="80" spans="3:15">
@@ -7008,31 +6792,34 @@
         <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F80" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="G80">
-        <v>36328042</v>
+        <v>34227952</v>
       </c>
       <c r="H80" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="I80" t="s">
-        <v>735</v>
+        <v>688</v>
+      </c>
+      <c r="J80" t="s">
+        <v>767</v>
       </c>
       <c r="K80" t="s">
-        <v>927</v>
+        <v>845</v>
       </c>
       <c r="M80" t="s">
-        <v>1083</v>
+        <v>1017</v>
       </c>
       <c r="N80" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O80" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="81" spans="3:15">
@@ -7043,34 +6830,34 @@
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F81" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="G81">
-        <v>36930014</v>
+        <v>34227947</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="I81" t="s">
-        <v>736</v>
+        <v>689</v>
       </c>
       <c r="J81" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
       <c r="K81" t="s">
-        <v>945</v>
+        <v>876</v>
       </c>
       <c r="M81" t="s">
-        <v>1084</v>
+        <v>1018</v>
       </c>
       <c r="N81" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O81" t="s">
-        <v>1191</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="82" spans="3:15">
@@ -7081,34 +6868,34 @@
         <v>99</v>
       </c>
       <c r="E82" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F82" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="G82">
-        <v>36929968</v>
+        <v>34227942</v>
       </c>
       <c r="H82" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="I82" t="s">
-        <v>737</v>
+        <v>690</v>
       </c>
       <c r="J82" t="s">
-        <v>829</v>
+        <v>769</v>
       </c>
       <c r="K82" t="s">
-        <v>946</v>
+        <v>864</v>
       </c>
       <c r="M82" t="s">
-        <v>1085</v>
+        <v>1019</v>
       </c>
       <c r="N82" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O82" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="83" spans="3:15">
@@ -7119,34 +6906,34 @@
         <v>100</v>
       </c>
       <c r="E83" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F83" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="G83">
-        <v>36502844</v>
+        <v>33485461</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="I83" t="s">
-        <v>738</v>
+        <v>691</v>
       </c>
       <c r="J83" t="s">
-        <v>859</v>
+        <v>804</v>
       </c>
       <c r="K83" t="s">
-        <v>947</v>
+        <v>888</v>
       </c>
       <c r="M83" t="s">
-        <v>1086</v>
+        <v>1020</v>
       </c>
       <c r="N83" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O83" t="s">
-        <v>1192</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="84" spans="3:15">
@@ -7157,31 +6944,34 @@
         <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F84" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="G84">
-        <v>35988567</v>
+        <v>34741816</v>
       </c>
       <c r="H84" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="I84" t="s">
-        <v>739</v>
+        <v>692</v>
+      </c>
+      <c r="J84" t="s">
+        <v>763</v>
       </c>
       <c r="K84" t="s">
-        <v>948</v>
+        <v>842</v>
       </c>
       <c r="M84" t="s">
-        <v>1087</v>
+        <v>1021</v>
       </c>
       <c r="N84" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O84" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="85" spans="3:15">
@@ -7192,37 +6982,37 @@
         <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F85" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="G85">
-        <v>35964611</v>
+        <v>34097852</v>
       </c>
       <c r="H85" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="I85" t="s">
-        <v>740</v>
+        <v>693</v>
       </c>
       <c r="J85" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="K85" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="L85" t="s">
-        <v>997</v>
+        <v>934</v>
       </c>
       <c r="M85" t="s">
-        <v>1088</v>
+        <v>1022</v>
       </c>
       <c r="N85" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O85" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="86" spans="3:15">
@@ -7233,37 +7023,37 @@
         <v>103</v>
       </c>
       <c r="E86" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F86" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="G86">
-        <v>33676628</v>
+        <v>32888407</v>
       </c>
       <c r="H86" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="I86" t="s">
-        <v>741</v>
+        <v>694</v>
       </c>
       <c r="J86" t="s">
-        <v>861</v>
+        <v>791</v>
       </c>
       <c r="K86" t="s">
-        <v>949</v>
+        <v>890</v>
       </c>
       <c r="L86" t="s">
-        <v>998</v>
+        <v>932</v>
       </c>
       <c r="M86" t="s">
-        <v>1089</v>
+        <v>1023</v>
       </c>
       <c r="N86" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O86" t="s">
-        <v>1193</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="87" spans="3:15">
@@ -7274,37 +7064,34 @@
         <v>104</v>
       </c>
       <c r="E87" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F87" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="G87">
-        <v>34175021</v>
+        <v>33002431</v>
       </c>
       <c r="H87" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="I87" t="s">
-        <v>742</v>
+        <v>695</v>
       </c>
       <c r="J87" t="s">
-        <v>862</v>
+        <v>773</v>
       </c>
       <c r="K87" t="s">
-        <v>950</v>
-      </c>
-      <c r="L87" t="s">
-        <v>999</v>
+        <v>851</v>
       </c>
       <c r="M87" t="s">
-        <v>1090</v>
+        <v>1024</v>
       </c>
       <c r="N87" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O87" t="s">
-        <v>1194</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="88" spans="3:15">
@@ -7315,34 +7102,34 @@
         <v>105</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F88" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="G88">
-        <v>34227971</v>
+        <v>32473682</v>
       </c>
       <c r="H88" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="I88" t="s">
-        <v>743</v>
+        <v>696</v>
       </c>
       <c r="J88" t="s">
-        <v>831</v>
+        <v>769</v>
       </c>
       <c r="K88" t="s">
-        <v>951</v>
+        <v>848</v>
       </c>
       <c r="M88" t="s">
-        <v>1091</v>
+        <v>1025</v>
       </c>
       <c r="N88" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O88" t="s">
-        <v>1195</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="89" spans="3:15">
@@ -7353,34 +7140,34 @@
         <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F89" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="G89">
-        <v>34227952</v>
+        <v>32473681</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="I89" t="s">
-        <v>744</v>
+        <v>697</v>
       </c>
       <c r="J89" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="K89" t="s">
-        <v>906</v>
+        <v>853</v>
       </c>
       <c r="M89" t="s">
-        <v>1092</v>
+        <v>1026</v>
       </c>
       <c r="N89" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O89" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="90" spans="3:15">
@@ -7391,34 +7178,34 @@
         <v>107</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F90" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="G90">
-        <v>34227947</v>
+        <v>31929014</v>
       </c>
       <c r="H90" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="I90" t="s">
-        <v>745</v>
+        <v>698</v>
       </c>
       <c r="J90" t="s">
-        <v>863</v>
+        <v>768</v>
       </c>
       <c r="K90" t="s">
-        <v>942</v>
+        <v>844</v>
       </c>
       <c r="M90" t="s">
-        <v>1093</v>
+        <v>1027</v>
       </c>
       <c r="N90" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O90" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="91" spans="3:15">
@@ -7429,34 +7216,34 @@
         <v>108</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F91" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="G91">
-        <v>34227942</v>
+        <v>32007142</v>
       </c>
       <c r="H91" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="I91" t="s">
-        <v>746</v>
+        <v>699</v>
       </c>
       <c r="J91" t="s">
-        <v>830</v>
+        <v>763</v>
       </c>
       <c r="K91" t="s">
-        <v>927</v>
+        <v>891</v>
       </c>
       <c r="M91" t="s">
-        <v>1094</v>
+        <v>1028</v>
       </c>
       <c r="N91" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O91" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="92" spans="3:15">
@@ -7467,382 +7254,388 @@
         <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F92" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="G92">
-        <v>33485461</v>
+        <v>32007141</v>
       </c>
       <c r="H92" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="I92" t="s">
-        <v>747</v>
+        <v>700</v>
       </c>
       <c r="J92" t="s">
-        <v>864</v>
+        <v>763</v>
       </c>
       <c r="K92" t="s">
-        <v>952</v>
+        <v>891</v>
       </c>
       <c r="M92" t="s">
-        <v>1095</v>
+        <v>1029</v>
       </c>
       <c r="N92" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O92" t="s">
-        <v>1171</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="93" spans="3:15">
       <c r="C93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
         <v>110</v>
       </c>
       <c r="E93" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F93" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="G93">
-        <v>34741816</v>
+        <v>40961449</v>
       </c>
       <c r="H93" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="I93" t="s">
-        <v>748</v>
+        <v>701</v>
       </c>
       <c r="J93" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="K93" t="s">
-        <v>903</v>
+        <v>845</v>
       </c>
       <c r="M93" t="s">
-        <v>1096</v>
+        <v>1030</v>
       </c>
       <c r="N93" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O93" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="94" spans="3:15">
       <c r="C94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
         <v>111</v>
       </c>
       <c r="E94" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F94" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="G94">
-        <v>34097852</v>
+        <v>41104928</v>
       </c>
       <c r="H94" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="I94" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
       <c r="J94" t="s">
-        <v>865</v>
+        <v>772</v>
       </c>
       <c r="K94" t="s">
-        <v>953</v>
+        <v>892</v>
       </c>
       <c r="L94" t="s">
-        <v>1000</v>
+        <v>935</v>
       </c>
       <c r="M94" t="s">
-        <v>1097</v>
+        <v>1031</v>
       </c>
       <c r="N94" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O94" t="s">
-        <v>1171</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="95" spans="3:15">
       <c r="C95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
         <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F95" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="G95">
-        <v>32888407</v>
+        <v>40532152</v>
       </c>
       <c r="H95" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="I95" t="s">
-        <v>750</v>
+        <v>703</v>
       </c>
       <c r="J95" t="s">
-        <v>851</v>
+        <v>808</v>
       </c>
       <c r="K95" t="s">
-        <v>954</v>
+        <v>893</v>
       </c>
       <c r="L95" t="s">
-        <v>998</v>
+        <v>934</v>
       </c>
       <c r="M95" t="s">
-        <v>1098</v>
+        <v>1032</v>
       </c>
       <c r="N95" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O95" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="96" spans="3:15">
       <c r="C96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
         <v>113</v>
       </c>
       <c r="E96" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F96" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="G96">
-        <v>33002431</v>
+        <v>40293177</v>
       </c>
       <c r="H96" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="I96" t="s">
-        <v>751</v>
+        <v>704</v>
       </c>
       <c r="J96" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K96" t="s">
-        <v>913</v>
+        <v>894</v>
+      </c>
+      <c r="L96" t="s">
+        <v>934</v>
       </c>
       <c r="M96" t="s">
-        <v>1099</v>
+        <v>1033</v>
       </c>
       <c r="N96" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O96" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="97" spans="3:15">
       <c r="C97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
         <v>114</v>
       </c>
       <c r="E97" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F97" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="G97">
-        <v>32473682</v>
+        <v>39908431</v>
       </c>
       <c r="H97" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="I97" t="s">
-        <v>752</v>
+        <v>705</v>
       </c>
       <c r="J97" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="K97" t="s">
-        <v>910</v>
+        <v>895</v>
+      </c>
+      <c r="L97" t="s">
+        <v>934</v>
       </c>
       <c r="M97" t="s">
-        <v>1100</v>
+        <v>1034</v>
       </c>
       <c r="N97" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O97" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="98" spans="3:15">
       <c r="C98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
         <v>115</v>
       </c>
       <c r="E98" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F98" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="G98">
-        <v>32473681</v>
+        <v>40267425</v>
       </c>
       <c r="H98" t="s">
-        <v>588</v>
+        <v>553</v>
       </c>
       <c r="I98" t="s">
-        <v>753</v>
+        <v>706</v>
       </c>
       <c r="J98" t="s">
-        <v>866</v>
+        <v>772</v>
       </c>
       <c r="K98" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="M98" t="s">
-        <v>1101</v>
+        <v>1035</v>
       </c>
       <c r="N98" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O98" t="s">
-        <v>1171</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="99" spans="3:15">
       <c r="C99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
         <v>116</v>
       </c>
       <c r="E99" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F99" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="G99">
-        <v>31929014</v>
+        <v>40214032</v>
       </c>
       <c r="H99" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="I99" t="s">
-        <v>754</v>
+        <v>707</v>
       </c>
       <c r="J99" t="s">
-        <v>829</v>
+        <v>773</v>
       </c>
       <c r="K99" t="s">
-        <v>905</v>
+        <v>848</v>
       </c>
       <c r="M99" t="s">
-        <v>1102</v>
+        <v>1036</v>
       </c>
       <c r="N99" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O99" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="100" spans="3:15">
       <c r="C100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
         <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F100" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="G100">
-        <v>32007142</v>
+        <v>38477986</v>
       </c>
       <c r="H100" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="I100" t="s">
-        <v>755</v>
+        <v>708</v>
       </c>
       <c r="J100" t="s">
-        <v>822</v>
+        <v>768</v>
       </c>
       <c r="K100" t="s">
-        <v>955</v>
+        <v>897</v>
       </c>
       <c r="M100" t="s">
-        <v>1103</v>
+        <v>1037</v>
       </c>
       <c r="N100" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O100" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="101" spans="3:15">
       <c r="C101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
         <v>118</v>
       </c>
       <c r="E101" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F101" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="G101">
-        <v>32007141</v>
+        <v>38477985</v>
       </c>
       <c r="H101" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="I101" t="s">
-        <v>756</v>
+        <v>709</v>
       </c>
       <c r="J101" t="s">
-        <v>822</v>
+        <v>768</v>
       </c>
       <c r="K101" t="s">
-        <v>955</v>
+        <v>898</v>
       </c>
       <c r="M101" t="s">
-        <v>1104</v>
+        <v>1038</v>
       </c>
       <c r="N101" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O101" t="s">
-        <v>1196</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="102" spans="3:15">
@@ -7853,34 +7646,37 @@
         <v>119</v>
       </c>
       <c r="E102" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F102" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="G102">
-        <v>40961449</v>
+        <v>38838311</v>
       </c>
       <c r="H102" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="I102" t="s">
-        <v>757</v>
+        <v>710</v>
       </c>
       <c r="J102" t="s">
-        <v>867</v>
+        <v>811</v>
       </c>
       <c r="K102" t="s">
-        <v>906</v>
+        <v>899</v>
+      </c>
+      <c r="L102" t="s">
+        <v>934</v>
       </c>
       <c r="M102" t="s">
-        <v>1105</v>
+        <v>1039</v>
       </c>
       <c r="N102" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O102" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="103" spans="3:15">
@@ -7891,37 +7687,37 @@
         <v>120</v>
       </c>
       <c r="E103" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F103" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="G103">
-        <v>41104928</v>
+        <v>38904277</v>
       </c>
       <c r="H103" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="I103" t="s">
-        <v>758</v>
+        <v>711</v>
       </c>
       <c r="J103" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="K103" t="s">
-        <v>956</v>
+        <v>900</v>
       </c>
       <c r="L103" t="s">
-        <v>1001</v>
+        <v>934</v>
       </c>
       <c r="M103" t="s">
-        <v>1106</v>
+        <v>1040</v>
       </c>
       <c r="N103" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O103" t="s">
-        <v>1197</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="104" spans="3:15">
@@ -7932,37 +7728,37 @@
         <v>121</v>
       </c>
       <c r="E104" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F104" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="G104">
-        <v>40532152</v>
+        <v>38899693</v>
       </c>
       <c r="H104" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="I104" t="s">
-        <v>759</v>
+        <v>712</v>
       </c>
       <c r="J104" t="s">
-        <v>868</v>
+        <v>813</v>
       </c>
       <c r="K104" t="s">
-        <v>957</v>
+        <v>901</v>
       </c>
       <c r="L104" t="s">
-        <v>1000</v>
+        <v>936</v>
       </c>
       <c r="M104" t="s">
-        <v>1107</v>
+        <v>1041</v>
       </c>
       <c r="N104" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O104" t="s">
-        <v>1171</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="105" spans="3:15">
@@ -7973,37 +7769,34 @@
         <v>122</v>
       </c>
       <c r="E105" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F105" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="G105">
-        <v>40293177</v>
+        <v>38865660</v>
       </c>
       <c r="H105" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="I105" t="s">
-        <v>760</v>
+        <v>713</v>
       </c>
       <c r="J105" t="s">
-        <v>869</v>
+        <v>813</v>
       </c>
       <c r="K105" t="s">
-        <v>958</v>
-      </c>
-      <c r="L105" t="s">
-        <v>1000</v>
+        <v>845</v>
       </c>
       <c r="M105" t="s">
-        <v>1108</v>
+        <v>1042</v>
       </c>
       <c r="N105" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O105" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="106" spans="3:15">
@@ -8014,37 +7807,37 @@
         <v>123</v>
       </c>
       <c r="E106" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F106" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="G106">
-        <v>39908431</v>
+        <v>38197815</v>
       </c>
       <c r="H106" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
       <c r="I106" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
       <c r="J106" t="s">
-        <v>870</v>
+        <v>772</v>
       </c>
       <c r="K106" t="s">
-        <v>959</v>
+        <v>902</v>
       </c>
       <c r="L106" t="s">
-        <v>1000</v>
+        <v>935</v>
       </c>
       <c r="M106" t="s">
-        <v>1109</v>
+        <v>1043</v>
       </c>
       <c r="N106" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O106" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="107" spans="3:15">
@@ -8055,34 +7848,34 @@
         <v>124</v>
       </c>
       <c r="E107" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F107" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="G107">
-        <v>40267425</v>
+        <v>39774314</v>
       </c>
       <c r="H107" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="I107" t="s">
-        <v>762</v>
+        <v>715</v>
       </c>
       <c r="J107" t="s">
-        <v>833</v>
+        <v>769</v>
       </c>
       <c r="K107" t="s">
-        <v>960</v>
+        <v>848</v>
       </c>
       <c r="M107" t="s">
-        <v>1110</v>
+        <v>1044</v>
       </c>
       <c r="N107" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O107" t="s">
-        <v>1198</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="108" spans="3:15">
@@ -8093,34 +7886,37 @@
         <v>125</v>
       </c>
       <c r="E108" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F108" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="G108">
-        <v>40214032</v>
+        <v>38657244</v>
       </c>
       <c r="H108" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="I108" t="s">
-        <v>763</v>
+        <v>716</v>
       </c>
       <c r="J108" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="K108" t="s">
-        <v>910</v>
+        <v>903</v>
+      </c>
+      <c r="L108" t="s">
+        <v>932</v>
       </c>
       <c r="M108" t="s">
-        <v>1111</v>
+        <v>1045</v>
       </c>
       <c r="N108" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O108" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="109" spans="3:15">
@@ -8131,34 +7927,37 @@
         <v>126</v>
       </c>
       <c r="E109" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F109" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="G109">
-        <v>38477986</v>
+        <v>37672694</v>
       </c>
       <c r="H109" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="I109" t="s">
-        <v>764</v>
+        <v>717</v>
       </c>
       <c r="J109" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="K109" t="s">
-        <v>961</v>
+        <v>904</v>
+      </c>
+      <c r="L109" t="s">
+        <v>934</v>
       </c>
       <c r="M109" t="s">
-        <v>1112</v>
+        <v>1046</v>
       </c>
       <c r="N109" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O109" t="s">
-        <v>1171</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="110" spans="3:15">
@@ -8169,34 +7968,34 @@
         <v>127</v>
       </c>
       <c r="E110" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F110" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="G110">
-        <v>38477985</v>
+        <v>37937776</v>
       </c>
       <c r="H110" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="I110" t="s">
-        <v>765</v>
+        <v>718</v>
       </c>
       <c r="J110" t="s">
-        <v>829</v>
+        <v>769</v>
       </c>
       <c r="K110" t="s">
-        <v>962</v>
+        <v>856</v>
       </c>
       <c r="M110" t="s">
-        <v>1113</v>
+        <v>1047</v>
       </c>
       <c r="N110" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O110" t="s">
-        <v>1199</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="111" spans="3:15">
@@ -8207,37 +8006,37 @@
         <v>128</v>
       </c>
       <c r="E111" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F111" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="G111">
-        <v>38838311</v>
+        <v>37861218</v>
       </c>
       <c r="H111" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="I111" t="s">
-        <v>766</v>
+        <v>719</v>
       </c>
       <c r="J111" t="s">
-        <v>871</v>
+        <v>816</v>
       </c>
       <c r="K111" t="s">
-        <v>963</v>
+        <v>894</v>
       </c>
       <c r="L111" t="s">
-        <v>1000</v>
+        <v>934</v>
       </c>
       <c r="M111" t="s">
-        <v>1114</v>
+        <v>1048</v>
       </c>
       <c r="N111" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O111" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="112" spans="3:15">
@@ -8248,37 +8047,34 @@
         <v>129</v>
       </c>
       <c r="E112" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F112" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="G112">
-        <v>38904277</v>
+        <v>37133584</v>
       </c>
       <c r="H112" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
       <c r="I112" t="s">
-        <v>767</v>
+        <v>720</v>
       </c>
       <c r="J112" t="s">
-        <v>872</v>
+        <v>770</v>
       </c>
       <c r="K112" t="s">
-        <v>964</v>
-      </c>
-      <c r="L112" t="s">
-        <v>1000</v>
+        <v>905</v>
       </c>
       <c r="M112" t="s">
-        <v>1115</v>
+        <v>1049</v>
       </c>
       <c r="N112" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O112" t="s">
-        <v>1200</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="113" spans="3:15">
@@ -8289,37 +8085,34 @@
         <v>130</v>
       </c>
       <c r="E113" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F113" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="G113">
-        <v>38899693</v>
+        <v>36988593</v>
       </c>
       <c r="H113" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="I113" t="s">
-        <v>768</v>
+        <v>721</v>
       </c>
       <c r="J113" t="s">
-        <v>873</v>
+        <v>817</v>
       </c>
       <c r="K113" t="s">
-        <v>965</v>
-      </c>
-      <c r="L113" t="s">
-        <v>1002</v>
+        <v>845</v>
       </c>
       <c r="M113" t="s">
-        <v>1116</v>
+        <v>1050</v>
       </c>
       <c r="N113" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O113" t="s">
-        <v>1201</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="114" spans="3:15">
@@ -8330,34 +8123,34 @@
         <v>131</v>
       </c>
       <c r="E114" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F114" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="G114">
-        <v>38865660</v>
+        <v>36856618</v>
       </c>
       <c r="H114" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="I114" t="s">
-        <v>769</v>
+        <v>722</v>
       </c>
       <c r="J114" t="s">
-        <v>873</v>
+        <v>818</v>
       </c>
       <c r="K114" t="s">
         <v>906</v>
       </c>
       <c r="M114" t="s">
-        <v>1117</v>
+        <v>1051</v>
       </c>
       <c r="N114" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O114" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="115" spans="3:15">
@@ -8368,37 +8161,34 @@
         <v>132</v>
       </c>
       <c r="E115" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F115" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="G115">
-        <v>38197815</v>
+        <v>37140166</v>
       </c>
       <c r="H115" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="I115" t="s">
-        <v>770</v>
+        <v>723</v>
       </c>
       <c r="J115" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="K115" t="s">
-        <v>966</v>
-      </c>
-      <c r="L115" t="s">
-        <v>1001</v>
+        <v>856</v>
       </c>
       <c r="M115" t="s">
-        <v>1118</v>
+        <v>1052</v>
       </c>
       <c r="N115" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O115" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="116" spans="3:15">
@@ -8409,34 +8199,37 @@
         <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F116" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="G116">
-        <v>39774314</v>
+        <v>37407001</v>
       </c>
       <c r="H116" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="I116" t="s">
-        <v>771</v>
+        <v>724</v>
       </c>
       <c r="J116" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="K116" t="s">
-        <v>910</v>
+        <v>907</v>
+      </c>
+      <c r="L116" t="s">
+        <v>935</v>
       </c>
       <c r="M116" t="s">
-        <v>1119</v>
+        <v>1053</v>
       </c>
       <c r="N116" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O116" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="117" spans="3:15">
@@ -8447,37 +8240,37 @@
         <v>134</v>
       </c>
       <c r="E117" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F117" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="G117">
-        <v>38657244</v>
+        <v>37437144</v>
       </c>
       <c r="H117" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="I117" t="s">
-        <v>772</v>
+        <v>725</v>
       </c>
       <c r="J117" t="s">
-        <v>874</v>
+        <v>821</v>
       </c>
       <c r="K117" t="s">
-        <v>967</v>
+        <v>908</v>
       </c>
       <c r="L117" t="s">
-        <v>998</v>
+        <v>934</v>
       </c>
       <c r="M117" t="s">
-        <v>1120</v>
+        <v>1054</v>
       </c>
       <c r="N117" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O117" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="118" spans="3:15">
@@ -8488,37 +8281,37 @@
         <v>135</v>
       </c>
       <c r="E118" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F118" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="G118">
-        <v>37672694</v>
+        <v>36546659</v>
       </c>
       <c r="H118" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="I118" t="s">
-        <v>773</v>
+        <v>726</v>
       </c>
       <c r="J118" t="s">
-        <v>875</v>
+        <v>768</v>
       </c>
       <c r="K118" t="s">
-        <v>968</v>
+        <v>909</v>
       </c>
       <c r="L118" t="s">
-        <v>1000</v>
+        <v>935</v>
       </c>
       <c r="M118" t="s">
-        <v>1121</v>
+        <v>1055</v>
       </c>
       <c r="N118" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O118" t="s">
-        <v>1202</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="119" spans="3:15">
@@ -8529,34 +8322,37 @@
         <v>136</v>
       </c>
       <c r="E119" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F119" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="G119">
-        <v>37937776</v>
+        <v>36546651</v>
       </c>
       <c r="H119" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
       <c r="I119" t="s">
-        <v>774</v>
+        <v>727</v>
       </c>
       <c r="J119" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="K119" t="s">
-        <v>918</v>
+        <v>910</v>
+      </c>
+      <c r="L119" t="s">
+        <v>935</v>
       </c>
       <c r="M119" t="s">
-        <v>1122</v>
+        <v>1056</v>
       </c>
       <c r="N119" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O119" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="120" spans="3:15">
@@ -8567,37 +8363,37 @@
         <v>137</v>
       </c>
       <c r="E120" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F120" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="G120">
-        <v>37861218</v>
+        <v>36652354</v>
       </c>
       <c r="H120" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="I120" t="s">
-        <v>775</v>
+        <v>728</v>
       </c>
       <c r="J120" t="s">
-        <v>876</v>
+        <v>823</v>
       </c>
       <c r="K120" t="s">
-        <v>958</v>
+        <v>889</v>
       </c>
       <c r="L120" t="s">
-        <v>1000</v>
+        <v>934</v>
       </c>
       <c r="M120" t="s">
-        <v>1123</v>
+        <v>1057</v>
       </c>
       <c r="N120" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O120" t="s">
-        <v>1171</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="121" spans="3:15">
@@ -8608,34 +8404,34 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F121" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G121">
-        <v>37133584</v>
+        <v>37646678</v>
       </c>
       <c r="H121" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="I121" t="s">
-        <v>776</v>
+        <v>729</v>
       </c>
       <c r="J121" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="K121" t="s">
-        <v>969</v>
+        <v>911</v>
       </c>
       <c r="M121" t="s">
-        <v>1124</v>
+        <v>1058</v>
       </c>
       <c r="N121" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O121" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="122" spans="3:15">
@@ -8646,34 +8442,34 @@
         <v>139</v>
       </c>
       <c r="E122" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F122" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="G122">
-        <v>36988593</v>
+        <v>37530823</v>
       </c>
       <c r="H122" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="I122" t="s">
-        <v>777</v>
+        <v>730</v>
       </c>
       <c r="J122" t="s">
-        <v>877</v>
+        <v>769</v>
       </c>
       <c r="K122" t="s">
-        <v>906</v>
+        <v>845</v>
       </c>
       <c r="M122" t="s">
-        <v>1125</v>
+        <v>1059</v>
       </c>
       <c r="N122" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O122" t="s">
-        <v>1203</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="123" spans="3:15">
@@ -8684,34 +8480,37 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F123" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="G123">
-        <v>36856618</v>
+        <v>37611121</v>
       </c>
       <c r="H123" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
       <c r="I123" t="s">
-        <v>778</v>
+        <v>731</v>
       </c>
       <c r="J123" t="s">
-        <v>878</v>
+        <v>825</v>
       </c>
       <c r="K123" t="s">
-        <v>970</v>
+        <v>912</v>
+      </c>
+      <c r="L123" t="s">
+        <v>931</v>
       </c>
       <c r="M123" t="s">
-        <v>1126</v>
+        <v>1060</v>
       </c>
       <c r="N123" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O123" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="124" spans="3:15">
@@ -8722,34 +8521,34 @@
         <v>141</v>
       </c>
       <c r="E124" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F124" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="G124">
-        <v>37140166</v>
+        <v>37585627</v>
       </c>
       <c r="H124" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="I124" t="s">
-        <v>779</v>
+        <v>732</v>
       </c>
       <c r="J124" t="s">
-        <v>879</v>
+        <v>770</v>
       </c>
       <c r="K124" t="s">
-        <v>918</v>
+        <v>848</v>
       </c>
       <c r="M124" t="s">
-        <v>1127</v>
+        <v>1061</v>
       </c>
       <c r="N124" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O124" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="125" spans="3:15">
@@ -8760,37 +8559,37 @@
         <v>142</v>
       </c>
       <c r="E125" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F125" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="G125">
-        <v>37407001</v>
+        <v>37018492</v>
       </c>
       <c r="H125" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="I125" t="s">
-        <v>780</v>
+        <v>733</v>
       </c>
       <c r="J125" t="s">
-        <v>880</v>
+        <v>826</v>
       </c>
       <c r="K125" t="s">
-        <v>971</v>
+        <v>913</v>
       </c>
       <c r="L125" t="s">
-        <v>1001</v>
+        <v>937</v>
       </c>
       <c r="M125" t="s">
-        <v>1128</v>
+        <v>1062</v>
       </c>
       <c r="N125" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O125" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="126" spans="3:15">
@@ -8801,37 +8600,37 @@
         <v>143</v>
       </c>
       <c r="E126" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F126" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="G126">
-        <v>37437144</v>
+        <v>36094839</v>
       </c>
       <c r="H126" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
       <c r="I126" t="s">
-        <v>781</v>
+        <v>734</v>
       </c>
       <c r="J126" t="s">
-        <v>881</v>
+        <v>827</v>
       </c>
       <c r="K126" t="s">
-        <v>972</v>
+        <v>914</v>
       </c>
       <c r="L126" t="s">
-        <v>1000</v>
+        <v>934</v>
       </c>
       <c r="M126" t="s">
-        <v>1129</v>
+        <v>1063</v>
       </c>
       <c r="N126" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O126" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="127" spans="3:15">
@@ -8842,37 +8641,34 @@
         <v>144</v>
       </c>
       <c r="E127" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F127" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="G127">
-        <v>36546659</v>
+        <v>35613022</v>
       </c>
       <c r="H127" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="I127" t="s">
-        <v>782</v>
+        <v>735</v>
       </c>
       <c r="J127" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K127" t="s">
-        <v>973</v>
-      </c>
-      <c r="L127" t="s">
-        <v>1001</v>
+        <v>853</v>
       </c>
       <c r="M127" t="s">
-        <v>1130</v>
+        <v>1064</v>
       </c>
       <c r="N127" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O127" t="s">
-        <v>1204</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="128" spans="3:15">
@@ -8883,37 +8679,37 @@
         <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F128" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="G128">
-        <v>36546651</v>
+        <v>35767439</v>
       </c>
       <c r="H128" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="I128" t="s">
-        <v>783</v>
+        <v>736</v>
       </c>
       <c r="J128" t="s">
-        <v>882</v>
+        <v>829</v>
       </c>
       <c r="K128" t="s">
-        <v>974</v>
+        <v>915</v>
       </c>
       <c r="L128" t="s">
-        <v>1001</v>
+        <v>931</v>
       </c>
       <c r="M128" t="s">
-        <v>1131</v>
+        <v>1065</v>
       </c>
       <c r="N128" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O128" t="s">
-        <v>1171</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="129" spans="3:15">
@@ -8924,37 +8720,37 @@
         <v>146</v>
       </c>
       <c r="E129" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F129" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="G129">
-        <v>36652354</v>
+        <v>35660797</v>
       </c>
       <c r="H129" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="I129" t="s">
-        <v>784</v>
+        <v>737</v>
       </c>
       <c r="J129" t="s">
-        <v>883</v>
+        <v>830</v>
       </c>
       <c r="K129" t="s">
-        <v>953</v>
+        <v>916</v>
       </c>
       <c r="L129" t="s">
-        <v>1000</v>
+        <v>934</v>
       </c>
       <c r="M129" t="s">
-        <v>1132</v>
+        <v>1066</v>
       </c>
       <c r="N129" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O129" t="s">
-        <v>1205</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="130" spans="3:15">
@@ -8965,34 +8761,37 @@
         <v>147</v>
       </c>
       <c r="E130" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F130" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="G130">
-        <v>37646678</v>
+        <v>35658005</v>
       </c>
       <c r="H130" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="I130" t="s">
-        <v>785</v>
+        <v>738</v>
       </c>
       <c r="J130" t="s">
-        <v>884</v>
+        <v>772</v>
       </c>
       <c r="K130" t="s">
-        <v>975</v>
+        <v>917</v>
+      </c>
+      <c r="L130" t="s">
+        <v>934</v>
       </c>
       <c r="M130" t="s">
-        <v>1133</v>
+        <v>1067</v>
       </c>
       <c r="N130" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O130" t="s">
-        <v>1171</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="131" spans="3:15">
@@ -9003,34 +8802,37 @@
         <v>148</v>
       </c>
       <c r="E131" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F131" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="G131">
-        <v>37530823</v>
+        <v>34534430</v>
       </c>
       <c r="H131" t="s">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="I131" t="s">
-        <v>786</v>
+        <v>739</v>
       </c>
       <c r="J131" t="s">
-        <v>830</v>
+        <v>772</v>
       </c>
       <c r="K131" t="s">
-        <v>906</v>
+        <v>918</v>
+      </c>
+      <c r="L131" t="s">
+        <v>934</v>
       </c>
       <c r="M131" t="s">
-        <v>1134</v>
+        <v>1068</v>
       </c>
       <c r="N131" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O131" t="s">
-        <v>1206</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="132" spans="3:15">
@@ -9041,37 +8843,37 @@
         <v>149</v>
       </c>
       <c r="E132" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F132" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="G132">
-        <v>37611121</v>
+        <v>36507690</v>
       </c>
       <c r="H132" t="s">
-        <v>622</v>
+        <v>587</v>
       </c>
       <c r="I132" t="s">
-        <v>787</v>
+        <v>740</v>
       </c>
       <c r="J132" t="s">
-        <v>885</v>
+        <v>813</v>
       </c>
       <c r="K132" t="s">
-        <v>976</v>
+        <v>919</v>
       </c>
       <c r="L132" t="s">
-        <v>997</v>
+        <v>934</v>
       </c>
       <c r="M132" t="s">
-        <v>1135</v>
+        <v>1069</v>
       </c>
       <c r="N132" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O132" t="s">
-        <v>1171</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="133" spans="3:15">
@@ -9082,19 +8884,19 @@
         <v>150</v>
       </c>
       <c r="E133" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F133" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="G133">
-        <v>37585627</v>
+        <v>34818478</v>
       </c>
       <c r="H133" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
       <c r="I133" t="s">
-        <v>788</v>
+        <v>741</v>
       </c>
       <c r="J133" t="s">
         <v>831</v>
@@ -9102,14 +8904,17 @@
       <c r="K133" t="s">
         <v>910</v>
       </c>
+      <c r="L133" t="s">
+        <v>934</v>
+      </c>
       <c r="M133" t="s">
-        <v>1136</v>
+        <v>1070</v>
       </c>
       <c r="N133" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O133" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="134" spans="3:15">
@@ -9120,37 +8925,37 @@
         <v>151</v>
       </c>
       <c r="E134" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F134" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="G134">
-        <v>37018492</v>
+        <v>33979489</v>
       </c>
       <c r="H134" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
       <c r="I134" t="s">
-        <v>789</v>
+        <v>742</v>
       </c>
       <c r="J134" t="s">
-        <v>886</v>
+        <v>832</v>
       </c>
       <c r="K134" t="s">
-        <v>977</v>
+        <v>920</v>
       </c>
       <c r="L134" t="s">
-        <v>1003</v>
+        <v>934</v>
       </c>
       <c r="M134" t="s">
-        <v>1137</v>
+        <v>1071</v>
       </c>
       <c r="N134" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O134" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="135" spans="3:15">
@@ -9161,37 +8966,34 @@
         <v>152</v>
       </c>
       <c r="E135" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F135" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="G135">
-        <v>36094839</v>
+        <v>33704937</v>
       </c>
       <c r="H135" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="I135" t="s">
-        <v>790</v>
+        <v>743</v>
       </c>
       <c r="J135" t="s">
-        <v>887</v>
+        <v>833</v>
       </c>
       <c r="K135" t="s">
-        <v>978</v>
-      </c>
-      <c r="L135" t="s">
-        <v>1000</v>
+        <v>921</v>
       </c>
       <c r="M135" t="s">
-        <v>1138</v>
+        <v>1072</v>
       </c>
       <c r="N135" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O135" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="136" spans="3:15">
@@ -9202,34 +9004,34 @@
         <v>153</v>
       </c>
       <c r="E136" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F136" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="G136">
-        <v>35613022</v>
+        <v>34161704</v>
       </c>
       <c r="H136" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
       <c r="I136" t="s">
-        <v>791</v>
+        <v>744</v>
       </c>
       <c r="J136" t="s">
-        <v>888</v>
+        <v>834</v>
       </c>
       <c r="K136" t="s">
-        <v>915</v>
+        <v>845</v>
       </c>
       <c r="M136" t="s">
-        <v>1139</v>
+        <v>1073</v>
       </c>
       <c r="N136" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O136" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="137" spans="3:15">
@@ -9240,37 +9042,37 @@
         <v>154</v>
       </c>
       <c r="E137" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F137" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="G137">
-        <v>35767439</v>
+        <v>34096690</v>
       </c>
       <c r="H137" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="I137" t="s">
-        <v>792</v>
+        <v>745</v>
       </c>
       <c r="J137" t="s">
-        <v>889</v>
+        <v>772</v>
       </c>
       <c r="K137" t="s">
-        <v>979</v>
+        <v>910</v>
       </c>
       <c r="L137" t="s">
-        <v>997</v>
+        <v>934</v>
       </c>
       <c r="M137" t="s">
-        <v>1140</v>
+        <v>1074</v>
       </c>
       <c r="N137" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O137" t="s">
-        <v>1207</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="138" spans="3:15">
@@ -9281,37 +9083,37 @@
         <v>155</v>
       </c>
       <c r="E138" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F138" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="G138">
-        <v>35660797</v>
+        <v>33406328</v>
       </c>
       <c r="H138" t="s">
-        <v>628</v>
+        <v>593</v>
       </c>
       <c r="I138" t="s">
-        <v>793</v>
+        <v>746</v>
       </c>
       <c r="J138" t="s">
-        <v>890</v>
+        <v>835</v>
       </c>
       <c r="K138" t="s">
-        <v>980</v>
+        <v>922</v>
       </c>
       <c r="L138" t="s">
-        <v>1000</v>
+        <v>934</v>
       </c>
       <c r="M138" t="s">
-        <v>1141</v>
+        <v>1075</v>
       </c>
       <c r="N138" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O138" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="139" spans="3:15">
@@ -9322,37 +9124,34 @@
         <v>156</v>
       </c>
       <c r="E139" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F139" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="G139">
-        <v>35658005</v>
+        <v>33471991</v>
       </c>
       <c r="H139" t="s">
-        <v>629</v>
+        <v>594</v>
       </c>
       <c r="I139" t="s">
-        <v>794</v>
+        <v>747</v>
       </c>
       <c r="J139" t="s">
-        <v>833</v>
+        <v>770</v>
       </c>
       <c r="K139" t="s">
-        <v>981</v>
-      </c>
-      <c r="L139" t="s">
-        <v>1000</v>
+        <v>923</v>
       </c>
       <c r="M139" t="s">
-        <v>1142</v>
+        <v>1076</v>
       </c>
       <c r="N139" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O139" t="s">
-        <v>1208</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="140" spans="3:15">
@@ -9363,37 +9162,34 @@
         <v>157</v>
       </c>
       <c r="E140" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F140" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="G140">
-        <v>34534430</v>
+        <v>33471974</v>
       </c>
       <c r="H140" t="s">
-        <v>630</v>
+        <v>595</v>
       </c>
       <c r="I140" t="s">
-        <v>795</v>
+        <v>748</v>
       </c>
       <c r="J140" t="s">
-        <v>833</v>
+        <v>770</v>
       </c>
       <c r="K140" t="s">
-        <v>982</v>
-      </c>
-      <c r="L140" t="s">
-        <v>1000</v>
+        <v>924</v>
       </c>
       <c r="M140" t="s">
-        <v>1143</v>
+        <v>1077</v>
       </c>
       <c r="N140" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O140" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="141" spans="3:15">
@@ -9404,37 +9200,37 @@
         <v>158</v>
       </c>
       <c r="E141" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F141" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="G141">
-        <v>34898139</v>
+        <v>33838625</v>
       </c>
       <c r="H141" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
       <c r="I141" t="s">
-        <v>796</v>
+        <v>749</v>
       </c>
       <c r="J141" t="s">
-        <v>891</v>
+        <v>836</v>
       </c>
       <c r="K141" t="s">
-        <v>983</v>
+        <v>925</v>
       </c>
       <c r="L141" t="s">
-        <v>1001</v>
+        <v>931</v>
       </c>
       <c r="M141" t="s">
-        <v>1144</v>
+        <v>1078</v>
       </c>
       <c r="N141" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O141" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="142" spans="3:15">
@@ -9445,37 +9241,37 @@
         <v>159</v>
       </c>
       <c r="E142" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F142" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="G142">
-        <v>36507690</v>
+        <v>32877583</v>
       </c>
       <c r="H142" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="I142" t="s">
-        <v>797</v>
+        <v>750</v>
       </c>
       <c r="J142" t="s">
-        <v>873</v>
+        <v>772</v>
       </c>
       <c r="K142" t="s">
-        <v>984</v>
+        <v>926</v>
       </c>
       <c r="L142" t="s">
-        <v>1000</v>
+        <v>934</v>
       </c>
       <c r="M142" t="s">
-        <v>1145</v>
+        <v>1079</v>
       </c>
       <c r="N142" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O142" t="s">
-        <v>1209</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="143" spans="3:15">
@@ -9486,34 +9282,37 @@
         <v>160</v>
       </c>
       <c r="E143" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="F143" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="G143">
-        <v>34496175</v>
+        <v>32469185</v>
       </c>
       <c r="H143" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="I143" t="s">
-        <v>798</v>
+        <v>751</v>
       </c>
       <c r="J143" t="s">
-        <v>892</v>
+        <v>772</v>
       </c>
       <c r="K143" t="s">
-        <v>985</v>
+        <v>893</v>
+      </c>
+      <c r="L143" t="s">
+        <v>934</v>
       </c>
       <c r="M143" t="s">
-        <v>1146</v>
+        <v>1080</v>
       </c>
       <c r="N143" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O143" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="144" spans="3:15">
@@ -9524,37 +9323,37 @@
         <v>161</v>
       </c>
       <c r="E144" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F144" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="G144">
-        <v>34818478</v>
+        <v>32955176</v>
       </c>
       <c r="H144" t="s">
-        <v>634</v>
+        <v>599</v>
       </c>
       <c r="I144" t="s">
-        <v>799</v>
+        <v>752</v>
       </c>
       <c r="J144" t="s">
-        <v>893</v>
+        <v>837</v>
       </c>
       <c r="K144" t="s">
-        <v>974</v>
+        <v>927</v>
       </c>
       <c r="L144" t="s">
-        <v>1000</v>
+        <v>931</v>
       </c>
       <c r="M144" t="s">
-        <v>1147</v>
+        <v>1081</v>
       </c>
       <c r="N144" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O144" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="145" spans="3:15">
@@ -9565,37 +9364,34 @@
         <v>162</v>
       </c>
       <c r="E145" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F145" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="G145">
-        <v>33979489</v>
+        <v>32997908</v>
       </c>
       <c r="H145" t="s">
-        <v>635</v>
+        <v>600</v>
       </c>
       <c r="I145" t="s">
-        <v>800</v>
+        <v>753</v>
       </c>
       <c r="J145" t="s">
-        <v>894</v>
+        <v>763</v>
       </c>
       <c r="K145" t="s">
-        <v>986</v>
-      </c>
-      <c r="L145" t="s">
-        <v>1000</v>
+        <v>868</v>
       </c>
       <c r="M145" t="s">
-        <v>1148</v>
+        <v>1082</v>
       </c>
       <c r="N145" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O145" t="s">
-        <v>1171</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="146" spans="3:15">
@@ -9606,34 +9402,34 @@
         <v>163</v>
       </c>
       <c r="E146" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F146" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="G146">
-        <v>33704937</v>
+        <v>32459922</v>
       </c>
       <c r="H146" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="I146" t="s">
-        <v>801</v>
+        <v>754</v>
       </c>
       <c r="J146" t="s">
-        <v>895</v>
+        <v>838</v>
       </c>
       <c r="K146" t="s">
-        <v>987</v>
+        <v>848</v>
       </c>
       <c r="M146" t="s">
-        <v>1149</v>
+        <v>1083</v>
       </c>
       <c r="N146" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O146" t="s">
-        <v>1171</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="147" spans="3:15">
@@ -9644,34 +9440,34 @@
         <v>164</v>
       </c>
       <c r="E147" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F147" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="G147">
-        <v>34161704</v>
+        <v>32130814</v>
       </c>
       <c r="H147" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="I147" t="s">
-        <v>802</v>
+        <v>755</v>
       </c>
       <c r="J147" t="s">
-        <v>896</v>
+        <v>773</v>
       </c>
       <c r="K147" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
       <c r="M147" t="s">
-        <v>1150</v>
+        <v>1084</v>
       </c>
       <c r="N147" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O147" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="148" spans="3:15">
@@ -9682,37 +9478,34 @@
         <v>165</v>
       </c>
       <c r="E148" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F148" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="G148">
-        <v>34096690</v>
+        <v>32160663</v>
       </c>
       <c r="H148" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="I148" t="s">
-        <v>803</v>
+        <v>756</v>
       </c>
       <c r="J148" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="K148" t="s">
-        <v>974</v>
-      </c>
-      <c r="L148" t="s">
-        <v>1000</v>
+        <v>845</v>
       </c>
       <c r="M148" t="s">
-        <v>1151</v>
+        <v>1085</v>
       </c>
       <c r="N148" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O148" t="s">
-        <v>1208</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="149" spans="3:15">
@@ -9723,37 +9516,37 @@
         <v>166</v>
       </c>
       <c r="E149" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F149" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="G149">
-        <v>33406328</v>
+        <v>32023374</v>
       </c>
       <c r="H149" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
       <c r="I149" t="s">
-        <v>804</v>
+        <v>757</v>
       </c>
       <c r="J149" t="s">
-        <v>897</v>
+        <v>840</v>
       </c>
       <c r="K149" t="s">
-        <v>988</v>
+        <v>907</v>
       </c>
       <c r="L149" t="s">
-        <v>1000</v>
+        <v>938</v>
       </c>
       <c r="M149" t="s">
-        <v>1152</v>
+        <v>1086</v>
       </c>
       <c r="N149" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O149" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="150" spans="3:15">
@@ -9764,34 +9557,34 @@
         <v>167</v>
       </c>
       <c r="E150" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F150" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="G150">
-        <v>33471991</v>
+        <v>32101664</v>
       </c>
       <c r="H150" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
       <c r="I150" t="s">
-        <v>805</v>
+        <v>758</v>
       </c>
       <c r="J150" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K150" t="s">
-        <v>989</v>
+        <v>929</v>
       </c>
       <c r="M150" t="s">
-        <v>1153</v>
+        <v>1087</v>
       </c>
       <c r="N150" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O150" t="s">
-        <v>1210</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="151" spans="3:15">
@@ -9802,34 +9595,37 @@
         <v>168</v>
       </c>
       <c r="E151" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F151" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="G151">
-        <v>33471974</v>
+        <v>32846061</v>
       </c>
       <c r="H151" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="I151" t="s">
-        <v>806</v>
+        <v>759</v>
       </c>
       <c r="J151" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="K151" t="s">
-        <v>990</v>
+        <v>930</v>
+      </c>
+      <c r="L151" t="s">
+        <v>935</v>
       </c>
       <c r="M151" t="s">
-        <v>1154</v>
+        <v>1088</v>
       </c>
       <c r="N151" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O151" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="152" spans="3:15">
@@ -9840,37 +9636,37 @@
         <v>169</v>
       </c>
       <c r="E152" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F152" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="G152">
-        <v>33838625</v>
+        <v>32846060</v>
       </c>
       <c r="H152" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="I152" t="s">
-        <v>807</v>
+        <v>760</v>
       </c>
       <c r="J152" t="s">
-        <v>898</v>
+        <v>772</v>
       </c>
       <c r="K152" t="s">
-        <v>991</v>
+        <v>927</v>
       </c>
       <c r="L152" t="s">
-        <v>997</v>
+        <v>935</v>
       </c>
       <c r="M152" t="s">
-        <v>1155</v>
+        <v>1089</v>
       </c>
       <c r="N152" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O152" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="153" spans="3:15">
@@ -9881,37 +9677,34 @@
         <v>170</v>
       </c>
       <c r="E153" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F153" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="G153">
-        <v>32877583</v>
+        <v>32786189</v>
       </c>
       <c r="H153" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="I153" t="s">
-        <v>808</v>
+        <v>761</v>
       </c>
       <c r="J153" t="s">
-        <v>833</v>
+        <v>772</v>
       </c>
       <c r="K153" t="s">
-        <v>992</v>
-      </c>
-      <c r="L153" t="s">
-        <v>1000</v>
+        <v>868</v>
       </c>
       <c r="M153" t="s">
-        <v>1156</v>
+        <v>1090</v>
       </c>
       <c r="N153" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O153" t="s">
-        <v>1208</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="154" spans="3:15">
@@ -9922,499 +9715,31 @@
         <v>171</v>
       </c>
       <c r="E154" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="G154">
-        <v>32469185</v>
+        <v>32348643</v>
       </c>
       <c r="H154" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="I154" t="s">
-        <v>809</v>
-      </c>
-      <c r="J154" t="s">
-        <v>833</v>
+        <v>762</v>
       </c>
       <c r="K154" t="s">
-        <v>957</v>
-      </c>
-      <c r="L154" t="s">
-        <v>1000</v>
+        <v>845</v>
       </c>
       <c r="M154" t="s">
-        <v>1157</v>
+        <v>1091</v>
       </c>
       <c r="N154" t="s">
-        <v>1170</v>
+        <v>1092</v>
       </c>
       <c r="O154" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="155" spans="3:15">
-      <c r="C155" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" t="s">
-        <v>172</v>
-      </c>
-      <c r="E155" t="s">
-        <v>316</v>
-      </c>
-      <c r="F155" t="s">
-        <v>480</v>
-      </c>
-      <c r="G155">
-        <v>32955176</v>
-      </c>
-      <c r="H155" t="s">
-        <v>645</v>
-      </c>
-      <c r="I155" t="s">
-        <v>810</v>
-      </c>
-      <c r="J155" t="s">
-        <v>899</v>
-      </c>
-      <c r="K155" t="s">
-        <v>993</v>
-      </c>
-      <c r="L155" t="s">
-        <v>997</v>
-      </c>
-      <c r="M155" t="s">
-        <v>1158</v>
-      </c>
-      <c r="N155" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O155" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="156" spans="3:15">
-      <c r="C156" t="s">
-        <v>18</v>
-      </c>
-      <c r="D156" t="s">
-        <v>173</v>
-      </c>
-      <c r="E156" t="s">
-        <v>317</v>
-      </c>
-      <c r="F156" t="s">
-        <v>481</v>
-      </c>
-      <c r="G156">
-        <v>32997908</v>
-      </c>
-      <c r="H156" t="s">
-        <v>646</v>
-      </c>
-      <c r="I156" t="s">
-        <v>811</v>
-      </c>
-      <c r="J156" t="s">
-        <v>822</v>
-      </c>
-      <c r="K156" t="s">
-        <v>933</v>
-      </c>
-      <c r="M156" t="s">
-        <v>1159</v>
-      </c>
-      <c r="N156" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O156" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="157" spans="3:15">
-      <c r="C157" t="s">
-        <v>18</v>
-      </c>
-      <c r="D157" t="s">
-        <v>174</v>
-      </c>
-      <c r="E157" t="s">
-        <v>318</v>
-      </c>
-      <c r="F157" t="s">
-        <v>482</v>
-      </c>
-      <c r="G157">
-        <v>32459922</v>
-      </c>
-      <c r="H157" t="s">
-        <v>647</v>
-      </c>
-      <c r="I157" t="s">
-        <v>812</v>
-      </c>
-      <c r="J157" t="s">
-        <v>900</v>
-      </c>
-      <c r="K157" t="s">
-        <v>910</v>
-      </c>
-      <c r="M157" t="s">
-        <v>1160</v>
-      </c>
-      <c r="N157" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O157" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="158" spans="3:15">
-      <c r="C158" t="s">
-        <v>18</v>
-      </c>
-      <c r="D158" t="s">
-        <v>175</v>
-      </c>
-      <c r="E158" t="s">
-        <v>319</v>
-      </c>
-      <c r="F158" t="s">
-        <v>483</v>
-      </c>
-      <c r="G158">
-        <v>32130814</v>
-      </c>
-      <c r="H158" t="s">
-        <v>648</v>
-      </c>
-      <c r="I158" t="s">
-        <v>813</v>
-      </c>
-      <c r="J158" t="s">
-        <v>834</v>
-      </c>
-      <c r="K158" t="s">
-        <v>994</v>
-      </c>
-      <c r="M158" t="s">
-        <v>1161</v>
-      </c>
-      <c r="N158" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O158" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="159" spans="3:15">
-      <c r="C159" t="s">
-        <v>18</v>
-      </c>
-      <c r="D159" t="s">
-        <v>176</v>
-      </c>
-      <c r="E159" t="s">
-        <v>320</v>
-      </c>
-      <c r="F159" t="s">
-        <v>484</v>
-      </c>
-      <c r="G159">
-        <v>32160663</v>
-      </c>
-      <c r="H159" t="s">
-        <v>649</v>
-      </c>
-      <c r="I159" t="s">
-        <v>814</v>
-      </c>
-      <c r="J159" t="s">
-        <v>826</v>
-      </c>
-      <c r="K159" t="s">
-        <v>906</v>
-      </c>
-      <c r="M159" t="s">
-        <v>1162</v>
-      </c>
-      <c r="N159" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O159" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="160" spans="3:15">
-      <c r="C160" t="s">
-        <v>18</v>
-      </c>
-      <c r="D160" t="s">
-        <v>177</v>
-      </c>
-      <c r="E160" t="s">
-        <v>321</v>
-      </c>
-      <c r="F160" t="s">
-        <v>485</v>
-      </c>
-      <c r="G160">
-        <v>32023374</v>
-      </c>
-      <c r="H160" t="s">
-        <v>650</v>
-      </c>
-      <c r="I160" t="s">
-        <v>815</v>
-      </c>
-      <c r="J160" t="s">
-        <v>901</v>
-      </c>
-      <c r="K160" t="s">
-        <v>971</v>
-      </c>
-      <c r="L160" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M160" t="s">
-        <v>1163</v>
-      </c>
-      <c r="N160" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O160" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="161" spans="3:15">
-      <c r="C161" t="s">
-        <v>18</v>
-      </c>
-      <c r="D161" t="s">
-        <v>178</v>
-      </c>
-      <c r="E161" t="s">
-        <v>322</v>
-      </c>
-      <c r="F161" t="s">
-        <v>486</v>
-      </c>
-      <c r="G161">
-        <v>32101664</v>
-      </c>
-      <c r="H161" t="s">
-        <v>651</v>
-      </c>
-      <c r="I161" t="s">
-        <v>816</v>
-      </c>
-      <c r="J161" t="s">
-        <v>897</v>
-      </c>
-      <c r="K161" t="s">
-        <v>995</v>
-      </c>
-      <c r="M161" t="s">
-        <v>1164</v>
-      </c>
-      <c r="N161" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O161" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="162" spans="3:15">
-      <c r="C162" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" t="s">
-        <v>179</v>
-      </c>
-      <c r="E162" t="s">
-        <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>487</v>
-      </c>
-      <c r="G162">
-        <v>31860793</v>
-      </c>
-      <c r="H162" t="s">
-        <v>652</v>
-      </c>
-      <c r="I162" t="s">
-        <v>817</v>
-      </c>
-      <c r="K162" t="s">
-        <v>989</v>
-      </c>
-      <c r="M162" t="s">
-        <v>1165</v>
-      </c>
-      <c r="N162" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O162" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="163" spans="3:15">
-      <c r="C163" t="s">
-        <v>18</v>
-      </c>
-      <c r="D163" t="s">
-        <v>180</v>
-      </c>
-      <c r="E163" t="s">
-        <v>324</v>
-      </c>
-      <c r="F163" t="s">
-        <v>488</v>
-      </c>
-      <c r="G163">
-        <v>32846061</v>
-      </c>
-      <c r="H163" t="s">
-        <v>653</v>
-      </c>
-      <c r="I163" t="s">
-        <v>818</v>
-      </c>
-      <c r="J163" t="s">
-        <v>902</v>
-      </c>
-      <c r="K163" t="s">
-        <v>996</v>
-      </c>
-      <c r="L163" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M163" t="s">
-        <v>1166</v>
-      </c>
-      <c r="N163" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O163" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="164" spans="3:15">
-      <c r="C164" t="s">
-        <v>18</v>
-      </c>
-      <c r="D164" t="s">
-        <v>181</v>
-      </c>
-      <c r="E164" t="s">
-        <v>324</v>
-      </c>
-      <c r="F164" t="s">
-        <v>489</v>
-      </c>
-      <c r="G164">
-        <v>32846060</v>
-      </c>
-      <c r="H164" t="s">
-        <v>654</v>
-      </c>
-      <c r="I164" t="s">
-        <v>819</v>
-      </c>
-      <c r="J164" t="s">
-        <v>833</v>
-      </c>
-      <c r="K164" t="s">
-        <v>993</v>
-      </c>
-      <c r="L164" t="s">
-        <v>1001</v>
-      </c>
-      <c r="M164" t="s">
-        <v>1167</v>
-      </c>
-      <c r="N164" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O164" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="165" spans="3:15">
-      <c r="C165" t="s">
-        <v>18</v>
-      </c>
-      <c r="D165" t="s">
-        <v>182</v>
-      </c>
-      <c r="E165" t="s">
-        <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>490</v>
-      </c>
-      <c r="G165">
-        <v>32786189</v>
-      </c>
-      <c r="H165" t="s">
-        <v>655</v>
-      </c>
-      <c r="I165" t="s">
-        <v>820</v>
-      </c>
-      <c r="J165" t="s">
-        <v>833</v>
-      </c>
-      <c r="K165" t="s">
-        <v>933</v>
-      </c>
-      <c r="M165" t="s">
-        <v>1168</v>
-      </c>
-      <c r="N165" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O165" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="166" spans="3:15">
-      <c r="C166" t="s">
-        <v>18</v>
-      </c>
-      <c r="D166" t="s">
-        <v>183</v>
-      </c>
-      <c r="E166" t="s">
-        <v>326</v>
-      </c>
-      <c r="F166" t="s">
-        <v>491</v>
-      </c>
-      <c r="G166">
-        <v>32348643</v>
-      </c>
-      <c r="H166" t="s">
-        <v>656</v>
-      </c>
-      <c r="I166" t="s">
-        <v>821</v>
-      </c>
-      <c r="K166" t="s">
-        <v>906</v>
-      </c>
-      <c r="M166" t="s">
-        <v>1169</v>
-      </c>
-      <c r="N166" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O166" t="s">
-        <v>1171</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>

--- a/Literature_Screening_List.xlsx
+++ b/Literature_Screening_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="968">
   <si>
     <t>Select? (Y/N)</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Effect of the HPV vaccination programme on incidence of cervical cancer and grade 3 cervical intraepithelial neoplasia by socioeconomic deprivation in England: population based observational study.</t>
   </si>
   <si>
-    <t>Current safeguards, risk mitigation, and transparency measures of large language models against the generation of health disinformation: repeated cross sectional analysis.</t>
-  </si>
-  <si>
     <t>Invasive breast cancer and breast cancer death after non-screen detected ductal carcinoma in situ from 1990 to 2018 in England: population based cohort study.</t>
   </si>
   <si>
@@ -88,18 +85,9 @@
     <t>Breast cancer mortality in 500 000 women with early invasive breast cancer diagnosed in England, 1993-2015: population based observational cohort study.</t>
   </si>
   <si>
-    <t>Extension of cervical screening intervals with primary human papillomavirus testing: observational study of English screening pilot data.</t>
-  </si>
-  <si>
     <t>Regulatory and clinical consequences of negative confirmatory trials of accelerated approval cancer drugs: retrospective observational study.</t>
   </si>
   <si>
-    <t>Red meat intake and risk of coronary heart disease among US men: prospective cohort study.</t>
-  </si>
-  <si>
-    <t>Life Expectancy of American Indian and Alaska Native Persons and Underreporting of Mortality in Vital Statistics.</t>
-  </si>
-  <si>
     <t>Clinical Validation of a Circulating Tumor DNA-Based Blood Test to Screen for Colorectal Cancer.</t>
   </si>
   <si>
@@ -142,9 +130,6 @@
     <t>Analysis of Breast Cancer Mortality in the US-1975 to 2019.</t>
   </si>
   <si>
-    <t>Buprenorphine/Naloxone vs Methadone for the Treatment of Opioid Use Disorder.</t>
-  </si>
-  <si>
     <t>Endometriosis Typology and Ovarian Cancer Risk.</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>Detection of Pathogenic Variants With Germline Genetic Testing Using Deep Learning vs Standard Methods in Patients With Prostate Cancer and Melanoma.</t>
   </si>
   <si>
-    <t>Public Attitudes Regarding Hospitals and Physicians Encouraging Donations From Grateful Patients.</t>
-  </si>
-  <si>
     <t>Association of Powder Use in the Genital Area With Risk of Ovarian Cancer.</t>
   </si>
   <si>
@@ -202,12 +184,6 @@
     <t>Association of First Primary Cancer With Risk of Subsequent Primary Cancer Among Survivors of Adult-Onset Cancers in the United States.</t>
   </si>
   <si>
-    <t>Association Between Celiac Disease and Mortality Risk in a Swedish Population.</t>
-  </si>
-  <si>
-    <t>Prevalence of Continuous Pulse Oximetry Monitoring in Hospitalized Children With Bronchiolitis Not Requiring Supplemental Oxygen.</t>
-  </si>
-  <si>
     <t>The global, regional, and national burden of cancer, 1990-2023, with forecasts to 2050: a systematic analysis for the Global Burden of Disease Study 2023.</t>
   </si>
   <si>
@@ -217,12 +193,6 @@
     <t>Induced pluripotent stem-cell-derived CD19-directed chimeric antigen receptor natural killer cells in B-cell lymphoma: a phase 1, first-in-human trial.</t>
   </si>
   <si>
-    <t>Haematopoietic gene therapy of non-conditioned patients with Fanconi anaemia-A: results from open-label phase 1/2 (FANCOLEN-1) and long-term clinical trials.</t>
-  </si>
-  <si>
-    <t>Maternal and neonatal outcomes after infection with monkeypox virus clade I during pregnancy in DR Congo: a pooled, prospective cohort study.</t>
-  </si>
-  <si>
     <t>Extending the duration of endocrine treatment for early breast cancer: patient-level meta-analysis of 12 randomised trials of aromatase inhibitors in 22 031 postmenopausal women already treated with at least 5 years of endocrine therapy.</t>
   </si>
   <si>
@@ -238,9 +208,6 @@
     <t>Causal attribution of human papillomavirus genotypes to invasive cervical cancer worldwide: a systematic analysis of the global literature.</t>
   </si>
   <si>
-    <t>Cause-specific mortality by county, race, and ethnicity in the USA, 2000-19: a systematic analysis of health disparities.</t>
-  </si>
-  <si>
     <t>Blood-based tests for multicancer early detection (PATHFINDER): a prospective cohort study.</t>
   </si>
   <si>
@@ -250,9 +217,6 @@
     <t>Dose-response of accelerometer-measured physical activity, step count, and cancer risk in the UK Biobank: a prospective cohort analysis.</t>
   </si>
   <si>
-    <t>Impact of messaging informed by behavioural science on uptake of targeted lung health checks: a service evaluation.</t>
-  </si>
-  <si>
     <t>Potential impact of health communications to raise awareness of the relative risk of age and cancer: a qualitative study.</t>
   </si>
   <si>
@@ -262,9 +226,6 @@
     <t>The impact of risk stratification by polygenic risk and age on breast cancer screening in women aged 40-49 years: a modelling study.</t>
   </si>
   <si>
-    <t>Developing and piloting an intervention to reduce colposcopy non-attendance and corresponding inequalities: a mixed-methods study.</t>
-  </si>
-  <si>
     <t>Using a participatory approach to encourage uptake of breast, colorectal, and cervical cancer screening for Scottish Muslim women: a pilot qualitative study.</t>
   </si>
   <si>
@@ -280,15 +241,9 @@
     <t>Socioeconomic inequalities in cancer incidence and access to health services among children and adolescents in China: a cross-sectional study.</t>
   </si>
   <si>
-    <t>Elective surgery system strengthening: development, measurement, and validation of the surgical preparedness index across 1632 hospitals in 119 countries.</t>
-  </si>
-  <si>
     <t>Evaluation of community outreach feasibility programmes on improving cancer-related, preventive, health behaviour.</t>
   </si>
   <si>
-    <t>Impact of the temporary suspension of the Bowel Screening Wales programme on inequalities during the COVID-19 pandemic: a retrospective register-based study.</t>
-  </si>
-  <si>
     <t>Racial disparities in recommendations for surgical resection of primary brain tumours: a registry-based cohort analysis.</t>
   </si>
   <si>
@@ -322,9 +277,6 @@
     <t>The effects of the national HPV vaccination programme in England, UK, on cervical cancer and grade 3 cervical intraepithelial neoplasia incidence: a register-based observational study.</t>
   </si>
   <si>
-    <t>KTE-X19 for relapsed or refractory adult B-cell acute lymphoblastic leukaemia: phase 2 results of the single-arm, open-label, multicentre ZUMA-3 study.</t>
-  </si>
-  <si>
     <t>Lisocabtagene maraleucel for patients with relapsed or refractory large B-cell lymphomas (TRANSCEND NHL 001): a multicentre seamless design study.</t>
   </si>
   <si>
@@ -391,15 +343,9 @@
     <t>Prenatal cfDNA Sequencing and Incidental Detection of Maternal Cancer.</t>
   </si>
   <si>
-    <t>Sequential CD7 CAR T-Cell Therapy and Allogeneic HSCT without GVHD Prophylaxis.</t>
-  </si>
-  <si>
     <t>Atezolizumab for Advanced Alveolar Soft Part Sarcoma.</t>
   </si>
   <si>
-    <t>Actionable Genotypes and Their Association with Life Span in Iceland.</t>
-  </si>
-  <si>
     <t>Tarlatamab for Patients with Previously Treated Small-Cell Lung Cancer.</t>
   </si>
   <si>
@@ -412,15 +358,9 @@
     <t>Cancer Screening after the Adoption of Paid-Sick-Leave Mandates.</t>
   </si>
   <si>
-    <t>Familial Clonal Hematopoiesis in a Long Telomere Syndrome.</t>
-  </si>
-  <si>
     <t>Pirtobrutinib after a Covalent BTK Inhibitor in Chronic Lymphocytic Leukemia.</t>
   </si>
   <si>
-    <t>BRAF-MEK Inhibition in Newly Diagnosed Papillary Craniopharyngiomas.</t>
-  </si>
-  <si>
     <t>Adagrasib with or without Cetuximab in Colorectal Cancer with Mutated KRAS G12C.</t>
   </si>
   <si>
@@ -433,9 +373,6 @@
     <t>Anti-Epstein-Barr Virus BNLF2b for Mass Screening for Nasopharyngeal Cancer.</t>
   </si>
   <si>
-    <t>Health Consequences of Thymus Removal in Adults.</t>
-  </si>
-  <si>
     <t>Single-Agent Divarasib (GDC-6036) in Solid Tumors with a KRAS G12C Mutation.</t>
   </si>
   <si>
@@ -448,9 +385,6 @@
     <t>Neoadjuvant Cemiplimab for Stage II to IV Cutaneous Squamous-Cell Carcinoma.</t>
   </si>
   <si>
-    <t>Demethylation and Up-Regulation of an Oncogene after Hypomethylating Therapy.</t>
-  </si>
-  <si>
     <t>Oncolytic DNX-2401 Virus for Pediatric Diffuse Intrinsic Pontine Glioma.</t>
   </si>
   <si>
@@ -481,9 +415,6 @@
     <t>Sotorasib for Lung Cancers with KRAS p.G12C Mutation.</t>
   </si>
   <si>
-    <t>Dipeptidyl Peptidase 4 Inhibition for Prophylaxis of Acute Graft-versus-Host Disease.</t>
-  </si>
-  <si>
     <t>Breast Cancer Risk Genes - Association Analysis in More than 113,000 Women.</t>
   </si>
   <si>
@@ -517,9 +448,6 @@
     <t>Use of CAR-Transduced Natural Killer Cells in CD19-Positive Lymphoid Tumors.</t>
   </si>
   <si>
-    <t>Microbiota as Predictor of Mortality in Allogeneic Hematopoietic-Cell Transplantation.</t>
-  </si>
-  <si>
     <t>Efficacy of Selpercatinib in RET-Altered Thyroid Cancers.</t>
   </si>
   <si>
@@ -529,15 +457,9 @@
     <t>The Effect of Advances in Lung-Cancer Treatment on Population Mortality.</t>
   </si>
   <si>
-    <t>Association between Mental Disorders and Subsequent Medical Conditions.</t>
-  </si>
-  <si>
     <t>2024 May 15</t>
   </si>
   <si>
-    <t>2024 Mar 20</t>
-  </si>
-  <si>
     <t>2024 Jan 24</t>
   </si>
   <si>
@@ -547,18 +469,9 @@
     <t>2023 Jun 13</t>
   </si>
   <si>
-    <t>2022 May 31</t>
-  </si>
-  <si>
     <t>2021 Sep 8</t>
   </si>
   <si>
-    <t>2020 Dec 2</t>
-  </si>
-  <si>
-    <t>2025 Jul 15</t>
-  </si>
-  <si>
     <t>2025 Jul 1</t>
   </si>
   <si>
@@ -595,9 +508,6 @@
     <t>2024 Jan 16</t>
   </si>
   <si>
-    <t>2024 Dec 3</t>
-  </si>
-  <si>
     <t>2024 Aug 13</t>
   </si>
   <si>
@@ -643,9 +553,6 @@
     <t>2020 Nov 17</t>
   </si>
   <si>
-    <t>2020 Jul 21</t>
-  </si>
-  <si>
     <t>2020 Jan 7</t>
   </si>
   <si>
@@ -655,12 +562,6 @@
     <t>2020 Dec 22</t>
   </si>
   <si>
-    <t>2020 Apr 7</t>
-  </si>
-  <si>
-    <t>2020 Apr 21</t>
-  </si>
-  <si>
     <t>2025 Oct 11</t>
   </si>
   <si>
@@ -670,12 +571,6 @@
     <t>2025 Jan 11</t>
   </si>
   <si>
-    <t>2025 Dec 21</t>
-  </si>
-  <si>
-    <t>2025 Dec 19</t>
-  </si>
-  <si>
     <t>2025 Aug 9</t>
   </si>
   <si>
@@ -691,9 +586,6 @@
     <t>2024 Aug 3</t>
   </si>
   <si>
-    <t>2023 Sep 23</t>
-  </si>
-  <si>
     <t>2023 Oct 7</t>
   </si>
   <si>
@@ -715,9 +607,6 @@
     <t>2022 Sep 24</t>
   </si>
   <si>
-    <t>2022 Nov 5</t>
-  </si>
-  <si>
     <t>2022 Nov</t>
   </si>
   <si>
@@ -745,9 +634,6 @@
     <t>2021 Dec 4</t>
   </si>
   <si>
-    <t>2021 Aug 7</t>
-  </si>
-  <si>
     <t>2020 Sep 19</t>
   </si>
   <si>
@@ -802,15 +688,9 @@
     <t>2024 Dec 5</t>
   </si>
   <si>
-    <t>2024 Apr 25</t>
-  </si>
-  <si>
     <t>2023 Sep 7</t>
   </si>
   <si>
-    <t>2023 Nov 9</t>
-  </si>
-  <si>
     <t>2023 Nov 30</t>
   </si>
   <si>
@@ -823,15 +703,9 @@
     <t>2023 Mar 2</t>
   </si>
   <si>
-    <t>2023 Jun 29</t>
-  </si>
-  <si>
     <t>2023 Jul 6</t>
   </si>
   <si>
-    <t>2023 Jul 13</t>
-  </si>
-  <si>
     <t>2023 Jan 5</t>
   </si>
   <si>
@@ -841,9 +715,6 @@
     <t>2023 Aug 31</t>
   </si>
   <si>
-    <t>2023 Aug 3</t>
-  </si>
-  <si>
     <t>2023 Aug 24</t>
   </si>
   <si>
@@ -856,9 +727,6 @@
     <t>2022 Oct 27</t>
   </si>
   <si>
-    <t>2022 May 26</t>
-  </si>
-  <si>
     <t>2022 Jun 30</t>
   </si>
   <si>
@@ -886,9 +754,6 @@
     <t>2021 Jun 24</t>
   </si>
   <si>
-    <t>2021 Jan 7</t>
-  </si>
-  <si>
     <t>2021 Feb 4</t>
   </si>
   <si>
@@ -916,24 +781,15 @@
     <t>2020 Feb 6</t>
   </si>
   <si>
-    <t>2020 Feb 27</t>
-  </si>
-  <si>
     <t>2020 Aug 27</t>
   </si>
   <si>
     <t>2020 Aug 13</t>
   </si>
   <si>
-    <t>2020 Apr 30</t>
-  </si>
-  <si>
     <t>10.1136/bmj-2023-077341 e077341</t>
   </si>
   <si>
-    <t>10.1136/bmj-2023-078538 e078538</t>
-  </si>
-  <si>
     <t>10.1136/bmj-2023-075498 e075498</t>
   </si>
   <si>
@@ -943,18 +799,9 @@
     <t>10.1136/bmj-2022-074684 e074684</t>
   </si>
   <si>
-    <t>10.1136/bmj-2021-068776 e068776</t>
-  </si>
-  <si>
     <t>10.1136/bmj.n1959 n1959</t>
   </si>
   <si>
-    <t>10.1136/bmj.m4141 m4141</t>
-  </si>
-  <si>
-    <t>10.1001/jama.2025.8126</t>
-  </si>
-  <si>
     <t>10.1001/jama.2025.7515</t>
   </si>
   <si>
@@ -997,9 +844,6 @@
     <t>10.1001/jama.2023.25881</t>
   </si>
   <si>
-    <t>10.1001/jama.2024.16954</t>
-  </si>
-  <si>
     <t>10.1001/jama.2024.9210</t>
   </si>
   <si>
@@ -1045,9 +889,6 @@
     <t>10.1001/jama.2020.20457</t>
   </si>
   <si>
-    <t>10.1001/jama.2020.9442</t>
-  </si>
-  <si>
     <t>10.1001/jama.2019.20079</t>
   </si>
   <si>
@@ -1057,12 +898,6 @@
     <t>10.1001/jama.2020.23130</t>
   </si>
   <si>
-    <t>10.1001/jama.2020.1943</t>
-  </si>
-  <si>
-    <t>10.1001/jama.2020.2998</t>
-  </si>
-  <si>
     <t>S0140-6736(25)01635-6 [pii] 10.1016/S0140-6736(25)01635-6</t>
   </si>
   <si>
@@ -1072,12 +907,6 @@
     <t>S0140-6736(24)02462-0 [pii] 10.1016/S0140-6736(24)02462-0</t>
   </si>
   <si>
-    <t>S0140-6736(24)01880-4 [pii] 10.1016/S0140-6736(24)01880-4</t>
-  </si>
-  <si>
-    <t>S0140-6736(25)02309-8 [pii] 10.1016/S0140-6736(25)02309-8</t>
-  </si>
-  <si>
     <t>S0140-6736(25)01013-X [pii] 10.1016/S0140-6736(25)01013-X</t>
   </si>
   <si>
@@ -1093,9 +922,6 @@
     <t>S0140-6736(24)01097-3 [pii] 10.1016/S0140-6736(24)01097-3</t>
   </si>
   <si>
-    <t>S0140-6736(23)01088-7 [pii] 10.1016/S0140-6736(23)01088-7</t>
-  </si>
-  <si>
     <t>S0140-6736(23)01700-2 [pii] 10.1016/S0140-6736(23)01700-2</t>
   </si>
   <si>
@@ -1105,9 +931,6 @@
     <t>S0140-6736(23)02147-5 [pii] 10.1016/S0140-6736(23)02147-5</t>
   </si>
   <si>
-    <t>S0140-6736(23)02153-0 [pii] 10.1016/S0140-6736(23)02153-0</t>
-  </si>
-  <si>
     <t>S0140-6736(23)02087-1 [pii] 10.1016/S0140-6736(23)02087-1</t>
   </si>
   <si>
@@ -1117,9 +940,6 @@
     <t>S0140-6736(23)02103-7 [pii] 10.1016/S0140-6736(23)02103-7</t>
   </si>
   <si>
-    <t>S0140-6736(23)02090-1 [pii] 10.1016/S0140-6736(23)02090-1</t>
-  </si>
-  <si>
     <t>S0140-6736(23)02063-9 [pii] 10.1016/S0140-6736(23)02063-9</t>
   </si>
   <si>
@@ -1135,15 +955,9 @@
     <t>S0140-6736(22)01541-0 [pii] 10.1016/S0140-6736(22)01541-0</t>
   </si>
   <si>
-    <t>S0140-6736(22)01846-3 [pii] 10.1016/S0140-6736(22)01846-3</t>
-  </si>
-  <si>
     <t>S0140-6736(22)02277-2 [pii] 10.1016/S0140-6736(22)02277-2</t>
   </si>
   <si>
-    <t>S0140-6736(22)02235-8 [pii] 10.1016/S0140-6736(22)02235-8</t>
-  </si>
-  <si>
     <t>S0140-6736(22)00839-X [pii] 10.1016/S0140-6736(22)00839-X</t>
   </si>
   <si>
@@ -1177,9 +991,6 @@
     <t>S0140-6736(21)02178-4 [pii] 10.1016/S0140-6736(21)02178-4</t>
   </si>
   <si>
-    <t>S0140-6736(21)01222-8 [pii] 10.1016/S0140-6736(21)01222-8</t>
-  </si>
-  <si>
     <t>S0140-6736(20)31366-0 [pii] 10.1016/S0140-6736(20)31366-0</t>
   </si>
   <si>
@@ -1246,15 +1057,9 @@
     <t>10.1056/NEJMoa2401029</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2313812</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2303383</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2300792</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2307980</t>
   </si>
   <si>
@@ -1267,15 +1072,9 @@
     <t>10.1056/NEJMsa2209197</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2300503</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2300696</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2213329</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2212419</t>
   </si>
   <si>
@@ -1288,9 +1087,6 @@
     <t>10.1056/NEJMoa2301496</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2302892</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2303810</t>
   </si>
   <si>
@@ -1303,9 +1099,6 @@
     <t>10.1056/NEJMoa2209813</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2119771</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2202028</t>
   </si>
   <si>
@@ -1336,9 +1129,6 @@
     <t>10.1056/NEJMoa2103695</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa2027372</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa1913948</t>
   </si>
   <si>
@@ -1372,9 +1162,6 @@
     <t>10.1056/NEJMoa1910607</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa1900623</t>
-  </si>
-  <si>
     <t>10.1056/NEJMoa2005651</t>
   </si>
   <si>
@@ -1384,15 +1171,9 @@
     <t>10.1056/NEJMoa1916623</t>
   </si>
   <si>
-    <t>10.1056/NEJMoa1915784</t>
-  </si>
-  <si>
     <t>OBJECTIVES: To replicate previous analyses on the effectiveness of the English human papillomavirus (HPV) vaccination programme on incidence of cervical cancer and grade 3 cervical intraepithelial neoplasia (CIN3) using 12 additional months of follow-up, and to investigate effectiveness across levels of socioeconomic deprivation. DESIGN: Observational study. SETTING: England, UK. PARTICIPANTS: Women aged 20-64 years resident in England between January 2006 and June 2020 including 29 968 with a diagnosis of cervical cancer and 335 228 with a diagnosis of CIN3. In England, HPV vaccination was introduced nationally in 2008 and was offered routinely to girls aged 12-13 years, with catch-up campaigns during 2008-10 targeting older teenagers aged &lt;19 years. MAIN OUTCOME MEASURES: Incidence of invasive cervical cancer and CIN3. RESULTS: In England, 29 968 women aged 20-64 years received a diagnosis of cervical cancer and 335 228 a diagnosis of CIN3 between 1 January 2006 and 30 June 2020. In the birth cohort of women offered vaccination routinely at age 12-13 years, adjusted age standardised incidence rates of cervical cancer and CIN3 in the additional 12 months of follow-up (1 July 2019 to 30 June 2020) were, respectively, 83.9% (95% confidence interval (CI) 63.8% to 92.8%) and 94.3% (92.6% to 95.7%) lower than in the reference cohort of women who were never offered HPV vaccination. By mid-2020, HPV vaccination had prevented an estimated 687 (95% CI 556 to 819) cervical cancers and 23 192 (22 163 to 24 220) CIN3s. The highest rates remained among women living in the most deprived areas, but the HPV vaccination programme had a large effect in all five levels of deprivation. In women offered catch-up vaccination, CIN3 rates decreased more in those from the least deprived areas than from the most deprived areas (reductions of 40.6% v 29.6% and 72.8% v 67.7% for women offered vaccination at age 16-18 and 14-16, respectively). The strong downward gradient in cervical cancer incidence from high to low deprivation in the reference unvaccinated group was no longer present among those offered the vaccine. CONCLUSIONS: The high effectiveness of the national HPV vaccination programme previously seen in England continued during the additional 12 months of follow-up. HPV vaccination was associated with a substantially reduced incidence of cervical cancer and CIN3 across all five deprivation groups, especially in women offered routine vaccination.</t>
   </si>
   <si>
-    <t>OBJECTIVES: To evaluate the effectiveness of safeguards to prevent large language models (LLMs) from being misused to generate health disinformation, and to evaluate the transparency of artificial intelligence (AI) developers regarding their risk mitigation processes against observed vulnerabilities. DESIGN: Repeated cross sectional analysis. SETTING: Publicly accessible LLMs. METHODS: In a repeated cross sectional analysis, four LLMs (via chatbots/assistant interfaces) were evaluated: OpenAI's GPT-4 (via ChatGPT and Microsoft's Copilot), Google's PaLM 2 and newly released Gemini Pro (via Bard), Anthropic's Claude 2 (via Poe), and Meta's Llama 2 (via HuggingChat). In September 2023, these LLMs were prompted to generate health disinformation on two topics: sunscreen as a cause of skin cancer and the alkaline diet as a cancer cure. Jailbreaking techniques (ie, attempts to bypass safeguards) were evaluated if required. For LLMs with observed safeguarding vulnerabilities, the processes for reporting outputs of concern were audited. 12 weeks after initial investigations, the disinformation generation capabilities of the LLMs were re-evaluated to assess any subsequent improvements in safeguards. MAIN OUTCOME MEASURES: The main outcome measures were whether safeguards prevented the generation of health disinformation, and the transparency of risk mitigation processes against health disinformation. RESULTS: Claude 2 (via Poe) declined 130 prompts submitted across the two study timepoints requesting the generation of content claiming that sunscreen causes skin cancer or that the alkaline diet is a cure for cancer, even with jailbreaking attempts. GPT-4 (via Copilot) initially refused to generate health disinformation, even with jailbreaking attempts-although this was not the case at 12 weeks. In contrast, GPT-4 (via ChatGPT), PaLM 2/Gemini Pro (via Bard), and Llama 2 (via HuggingChat) consistently generated health disinformation blogs. In September 2023 evaluations, these LLMs facilitated the generation of 113 unique cancer disinformation blogs, totalling more than 40 000 words, without requiring jailbreaking attempts. The refusal rate across the evaluation timepoints for these LLMs was only 5% (7 of 150), and as prompted the LLM generated blogs incorporated attention grabbing titles, authentic looking (fake or fictional) references, fabricated testimonials from patients and clinicians, and they targeted diverse demographic groups. Although each LLM evaluated had mechanisms to report observed outputs of concern, the developers did not respond when observations of vulnerabilities were reported. CONCLUSIONS: This study found that although effective safeguards are feasible to prevent LLMs from being misused to generate health disinformation, they were inconsistently implemented. Furthermore, effective processes for reporting safeguard problems were lacking. Enhanced regulation, transparency, and routine auditing are required to help prevent LLMs from contributing to the mass generation of health disinformation.</t>
-  </si>
-  <si>
     <t>OBJECTIVES: To evaluate the long term risks of invasive breast cancer and death related to breast cancer after non-screen detected ductal carcinoma in situ. Risks for women in the general population and for women diagnosed with ductal carcinoma in situ via the screening programme were compared. DESIGN: Population based cohort study. SETTING: Data from the National Disease Registration Service. PARTICIPANTS: All 27 543 women in England who were diagnosed with ductal carcinoma in situ, outside the NHS breast screening programme, during 1990 to 2018. MAIN OUTCOME MEASURES: Incident invasive breast cancer and death caused by breast cancer. RESULTS: By 31 December 2018, 3651 women with non-screen detected ductal carcinoma in situ had developed invasive breast cancer, more than four times higher than expected from national cancer incidence rates (ratio of observed to expected rate was 4.21 (95% conference interval 4.07 to 4.35)). The ratio of observed to expected rate of developing invasive breast cancer remained increased throughout follow-up among women aged &lt;45-70 years. The 25 year cumulative risks of invasive breast cancer by age at diagnosis of ductal carcinoma in situ were 27.3% for &lt;45 years, 25.2% for 45-49 years, 21.7% for 50-59 years, and 20.8% for 60-70 years. 908 women died of breast cancer, almost four times higher than that expected from breast cancer death rates in the general population (ratio of observed to expected rate 3.83 (3.59 to 4.09)). The ratio of observed to expected rate of mortality attributed to breast cancer remained increased throughout follow-up. The 25 year cumulative risks of breast cancer death by age at ductal carcinoma in situ diagnosis were 7.6% for &lt;45 years, 5.8% for 45-49 years, 5.9% for 50-59 years, and 6.2% for 60-70 years. Among women aged 50-64 years, and therefore eligible for breast screening by the NHS, the ratio of observed to expected rate of invasive breast cancer in women with non-screen detected compared with screen detected ductal carcinoma in situ was 1.26 (95% conference interval 1.17 to 1.35), while the ratio for mortality from breast cancer was 1.37 (1.17 to 1.60). Among 22 753 women with unilateral ductal carcinoma in situ undergoing surgery, those who had mastectomy rather than breast conserving surgery had a lower 25 year cumulative rate of ipsilateral invasive breast cancer (mastectomy 8.2% (95% conference interval 7.0% to 9.4%), breast conserving surgery with radiotherapy 19.8% (16.2% to 23.4%), and breast conserving surgery with no radiotherapy recorded 20.6% (18.7% to 22.4%)). However, reductions did not translate into a lower 25 year cumulative rate of deaths attributable to breast cancer (mastectomy 6.5% (4.9% to 10.9%), breast conserving surgery with radiotherapy 8.6% (5.9% to 15.5%), breast conserving surgery with no radiotherapy recorded 7.8% (6.3% to 11.5%)). CONCLUSIONS: For at least 25 years after their diagnosis, women with non-screen detected ductal carcinoma in situ had higher long term risks of invasive breast cancer and breast cancer death than women in the general population. Additionally, they had higher long term risks than women with screen detected ductal carcinoma in situ. Mastectomy was associated with lower risks of invasive breast cancer than breast conserving surgery, even when accompanied by radiotherapy. However, risks of breast cancer death appeared similar for mastectomy, breast conserving surgery with radiotherapy, and breast conserving surgery with no radiotherapy recorded.</t>
   </si>
   <si>
@@ -1402,18 +1183,9 @@
     <t>OBJECTIVES: To describe long term breast cancer mortality among women with a diagnosis of breast cancer in the past and estimate absolute breast cancer mortality risks for groups of patients with a recent diagnosis. DESIGN: Population based observational cohort study. SETTING: Routinely collected data from the National Cancer Registration and Analysis Service. PARTICIPANTS: All 512 447 women registered with early invasive breast cancer (involving only breast and possibly axillary nodes) in England during January 1993 to December 2015, with follow-up to December 2020. MAIN OUTCOME MEASURES: Annual breast cancer mortality rates and cumulative risks by time since diagnosis, calendar period of diagnosis, and nine characteristics of patients and tumours. RESULTS: For women with a diagnosis made within each of the calendar periods 1993-99, 2000-04, 2005-09, and 2010-15, the crude annual breast cancer mortality rate was highest during the five years after diagnosis and then declined. For any given time since diagnosis, crude annual breast cancer mortality rates and risks decreased with increasing calendar period. Crude five year breast cancer mortality risk was 14.4% (95% confidence interval 14.2% to 14.6%) for women with a diagnosis made during 1993-99 and 4.9% (4.8% to 5.0%) for women with a diagnosis made during 2010-15. Adjusted annual breast cancer mortality rates also decreased with increasing calendar period in nearly every patient group, by a factor of about three in oestrogen receptor positive disease and about two in oestrogen receptor negative disease. Considering just the women with a diagnosis made during 2010-15, cumulative five year breast cancer mortality risk varied substantially between women with different characteristics: it was &lt;3% for 62.8% (96 085/153 006) of women but &gt;/=20% for 4.6% (6962/153 006) of women. CONCLUSIONS: These five year breast cancer mortality risks for patients with a recent diagnosis may be used to estimate breast cancer mortality risks for patients today. The prognosis for women with early invasive breast cancer has improved substantially since the 1990s. Most can expect to become long term cancer survivors, although for a few the risk remains appreciable.</t>
   </si>
   <si>
-    <t>OBJECTIVES: To provide updated evidence about the risk of cervical intraepithelial neoplasia grade 3 or higher (CIN3+) and cervical cancer after a negative human papillomavirus (HPV) test in primary cervical screening, by age group and test assay. DESIGN: Observational study. SETTING: Real world data from the English HPV screening pilot's first and second rounds (2013-16, follow-up to end of 2019). PARTICIPANTS: 1 341 584 women. INTERVENTIONS: Cervical screening with HPV testing or liquid based cytological testing (cytology or smear tests). Women screened with cytology were referred to colposcopy after high grade cytological abnormalities or after borderline or low grade abnormalities combined with a positive HPV triage test. Women screened with HPV testing who were positive were referred at baseline if their cytology triage test showed at least borderline abnormalities or after a retest (early recall) at 12 and 24 months if they had persistent abnormalities. MAIN OUTCOME MEASURES: Detection of CIN3+ and cervical cancer after a negative HPV test. RESULTS: For women younger than 50 years, second round detection of CIN3+ in this study was significantly lower after a negative HPV screen in the first round than after cytology testing (1.21/1000 v 4.52/1000 women screened, adjusted odds ratio 0.26, 95% confidence interval 0.23 to 0.30), as was the risk of interval cervical cancer (1.31/100 000 v 2.90/100 000 woman years, adjusted hazard ratio 0.44, 0.23 to 0.84). Risk of an incident CIN3+ detected at the second screening round in the pilot five years after a negative HPV test was even lower in women older than 50 years, than in three years in women younger than 50 years (0.57/1000 v 1.21/1000 women screened, adjusted odds ratio 0.46, 0.27 to 0.79). Women with negative HPV tests at early recall after a positive HPV screening test without cytological abnormalities had a higher detection rate of CIN3+ at the second routine recall than women who initially tested HPV negative (5.39/1000 v 1.21/1000 women screened, adjusted odds ratio 3.27, 95% confidence interval 2.21 to 4.84). Detection after a negative result on a clinically validated APTIMA mRNA HPV test was similar to that after clinically validated cobas and RealTime DNA tests (for CIN3+ at the second round 1.32/1000 v 1.14/1000 women screened, adjusted odds ratio 1.05, 0.73 to 1.50). CONCLUSIONS: These data support an extension of the screening intervals, regardless of the test assay used: to five years after a negative HPV test in women aged 25-49 years, and even longer for women aged 50 years and older. The screening interval for HPV positive women who have negative HPV tests at early recall should be kept at three years.</t>
-  </si>
-  <si>
     <t>OBJECTIVES: To investigate the regulatory handling of cancer drugs that were granted accelerated approval by the US Food and Drug Administration (FDA) but failed to improve the primary endpoint in post-approval trials and to evaluate the extent to which negative post-approval trials changed the recommendations in treatment guidelines. DESIGN: Retrospective observational study. SETTING: FDA and National Comprehensive Cancer Network (NCCN) reports. INCLUDED DRUGS: Cancer drugs that received accelerated approval from the FDA and had negative post-approval trials. MAIN OUTCOME MEASURES: Regulatory outcomes, including withdrawal, conversion to regular approval, and no action. RESULTS: 18 indications for 10 cancer drugs that received accelerated approval but failed to improve the primary endpoint in post-approval trials were identified. Of these, 11 (61%) were voluntarily withdrawn by the manufacturer and one (bevacizumab for breast cancer) was revoked by the FDA. Of the 11 withdrawals, six occurred in 2021 alone. The remaining six (33%) indications remain on the label. The NCCN guidelines provide a high level of endorsement (category 1 endorsement for one and category 2A endorsement for seven) for accelerated approval drugs that have failed post-approval trials, sometimes even after the approval has been withdrawn or revoked. CONCLUSION: Cancer drug indications that received accelerated approval often remained on formal FDA approved drug labelling and continued to be recommended in clinical guidelines several years after statutorily required post-approval trials showed no improvement in the primary efficacy endpoint. Clinical guidelines should better align with the results of post-approval trials of cancer drugs that received accelerated approval.</t>
   </si>
   <si>
-    <t>OBJECTIVES: To study total, processed, and unprocessed red meat in relation to risk of coronary heart disease (CHD) and to estimate the effects of substituting other protein sources for red meat with CHD risk. DESIGN: Prospective cohort study with repeated measures of diet and lifestyle factors. SETTING: Health Professionals Follow-Up Study cohort, United States, 1986-2016. PARTICIPANTS: 43 272 men without cardiovascular disease or cancer at baseline. MAIN OUTCOME MEASURES: The primary outcome was total CHD, comprised of acute non-fatal myocardial infarction or fatal CHD. Cox models were used to estimate hazard ratios and 95% confidence intervals across categories of red meat consumption. Substitution analyses were conducted by comparing coefficients for red meat and the alternative food in models, including red meat and alternative foods as continuous variables. RESULTS: During 1 023 872 person years of follow-up, 4456 incident CHD events were documented of which 1860 were fatal. After multivariate adjustment for dietary and non-dietary risk factors, total, unprocessed, and processed red meat intake were each associated with a modestly higher risk of CHD (hazard ratio for one serving per day increment: 1.12 (95% confidence interval 1.06 to 1.18) for total red meat, 1.11 (1.02 to 1.21) for unprocessed red meat, and 1.15 (1.06 to 1.25) for processed red meat). Compared with red meat, the intake of one serving per day of combined plant protein sources (nuts, legumes, and soy) was associated with a lower risk of CHD (0.86 (0.80 to 0.93) compared with total red meat, 0.87 (0.79 to 0.95) compared with unprocessed red meat, and 0.83 (0.76 to 0.91) compared with processed red meat). Substitutions of whole grains and dairy products for total red meat and eggs for processed red meat were also associated with lower CHD risk. CONCLUSIONS: Substituting high quality plant foods such as legumes, nuts, or soy for red meat might reduce the risk of CHD. Substituting whole grains and dairy products for total red meat, and eggs for processed red meat, might also reduce this risk.</t>
-  </si>
-  <si>
-    <t>IMPORTANCE: Mortality of American Indian and Alaska Native (AI/AN) persons is known to be high but may be underreported in routine vital statistics. OBJECTIVE: To estimate age-specific mortality rates and life expectancy for non-Hispanic AI/AN individuals and other racial and ethnic groups, using self-identified race and ethnicity data in a national cohort, circumventing errors due to racial misclassification on death certificates. DESIGN, SETTING, AND PARTICIPANTS: This longitudinal cohort study used data from the Mortality Disparities in American Communities (MDAC) study, a nationally representative cohort created through the US Census Bureau's linkage of the 2008 American Community Survey (ACS) with death records from the National Vital Statistics System through 2019. The cohort included 4 135 000 ACS respondents, including 30 500 who self-identified as AI/AN (alone) and 58 000 who self-identified as AI/AN alone or in combination with another race (AI/AN-AiC). EXPOSURE: Self-identified race and ethnicity. MAIN OUTCOMES AND MEASURES: Age-specific mortality rates and life expectancy, estimated using continuous time, nonparametric period survival curves by self-identified race and ethnicity; comparisons to estimates from the US Centers for Disease Control and Prevention (CDC) WONDER database based on race and ethnicity reported on death certificates; and classification ratios for self-reported vs death certificate-recorded AI/AN race among decedents in the MDAC. Analyses were stratified by time period, sociodemographic factors, and cause of death. RESULTS: Life expectancy of self-identified AI/AN individuals was 72.7 years (73.9 for AI/AN-AiC individuals), 6.5 years less than the US-wide average of 79.2 years. The AI/AN vs US average life expectancy gap widened from 4.1 years in 2008 to 2010 to 8.0 years in 2017 to 2019. Among self-identified AI/AN and AI/AN-AiC decedents, only 59.0% and 39.8% had AI/AN race reported on their death certificates, yielding classification ratios of 1.26 and 1.81, respectively. AI/AN race was most frequently underreported for heart disease and cancer deaths and less frequently for deaths from violence, drugs, and alcohol. In CDC WONDER data (based on race and ethnicity from death certificates), age-standardized mortality was 5% higher for AI/AN individuals than the US average (1067 vs 1016 deaths per 100 000). In MDAC data, mortality for self-identified AI/AN individuals was 42% higher (1420 vs 999 deaths per 100 000). The AI/AN life expectancy gap was 2.9 times larger in the MDAC than in unadjusted official statistics. CONCLUSIONS AND RELEVANCE: This longitudinal cohort study found that large life expectancy differences between AI/AN individuals and other US residents have been underestimated due to racial misclassification on death certificates, resulting in the statistical erasure of Indigenous people in routine vital statistics.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: Colorectal cancer screening is widely recommended but underused. Blood-based screening offers the potential for higher adherence compared with endoscopy or stool-based testing but must first be clinically validated in a screening population. OBJECTIVE: To evaluate the clinical performance of an investigational blood-based circulating tumor DNA test for colorectal cancer detection in an average-risk population using colonoscopy with histopathology as the reference method. DESIGN, SETTING, AND PARTICIPANTS: Prospective, multicenter, cross-sectional observational study enrolling participants between May 2020 and April 2022 who were asymptomatic adults aged 45 to 85 years, at average risk of colorectal cancer, and willing to undergo a standard-of-care screening colonoscopy. Participants, staff, and pathologists were blinded to blood test results, and laboratory testing was performed blinded to colonoscopy findings. The study was conducted at 201 centers across 49 US states and the United Arab Emirates. Site-based and mobile phlebotomy were used for blood collection. EXPOSURES: Participants were required to complete a screening colonoscopy after blood collection. MAIN OUTCOMES AND MEASURES: The primary end points were sensitivity for colorectal cancer, specificity for advanced colorectal neoplasia (colorectal cancer or advanced precancerous lesions), negative predictive value for advanced colorectal neoplasia, and positive predictive value for advanced colorectal neoplasia. The secondary end point was sensitivity for advanced precancerous lesions. RESULTS: The median age of participants in the evaluable cohort (n = 27 010) was 57.0 years, and 55.8% were women. Sensitivity for colorectal cancer was 79.2% (57/72; 95% CI, 68.4%-86.9%) and specificity for advanced colorectal neoplasia was 91.5% (22 306/24 371; 95% CI, 91.2%-91.9%). The negative predictive value for advanced colorectal neoplasia was 90.8% (22 306/24 567; 95% CI, 90.7%-90.9%) and the positive predictive value for advanced colorectal neoplasia was 15.5% (378/2443; 95% CI, 14.2%-16.8%). All primary end points met prespecified acceptance criteria. The sensitivity for advanced precancerous lesions was 12.5% (321/2567; 95% CI, 11.3%-13.8%), which did not meet the prespecified acceptance criterion. CONCLUSIONS AND RELEVANCE: In an average-risk colorectal cancer screening population, a blood-based test demonstrated acceptable accuracy for colorectal cancer detection, but detection of advanced precancerous lesions remains a challenge, and ongoing efforts are needed to improve test sensitivity. TRIAL REGISTRATION: ClinicalTrials.gov Identifier: NCT04369053.</t>
   </si>
   <si>
@@ -1456,9 +1228,6 @@
     <t>IMPORTANCE: Breast cancer mortality in the US declined between 1975 and 2019. The association of changes in metastatic breast cancer treatment with improved breast cancer mortality is unclear. OBJECTIVE: To simulate the relative associations of breast cancer screening, treatment of stage I to III breast cancer, and treatment of metastatic breast cancer with improved breast cancer mortality. DESIGN, SETTING, AND PARTICIPANTS: Using aggregated observational and clinical trial data on the dissemination and effects of screening and treatment, 4 Cancer Intervention and Surveillance Modeling Network (CISNET) models simulated US breast cancer mortality rates. Death due to breast cancer, overall and by estrogen receptor and ERBB2 (formerly HER2) status, among women aged 30 to 79 years in the US from 1975 to 2019 was simulated. EXPOSURES: Screening mammography, treatment of stage I to III breast cancer, and treatment of metastatic breast cancer. MAIN OUTCOMES AND MEASURES: Model-estimated age-adjusted breast cancer mortality rate associated with screening, stage I to III treatment, and metastatic treatment relative to the absence of these exposures was assessed, as was model-estimated median survival after breast cancer metastatic recurrence. RESULTS: The breast cancer mortality rate in the US (age adjusted) was 48/100 000 women in 1975 and 27/100 000 women in 2019. In 2019, the combination of screening, stage I to III treatment, and metastatic treatment was associated with a 58% reduction (model range, 55%-61%) in breast cancer mortality. Of this reduction, 29% (model range, 19%-33%) was associated with treatment of metastatic breast cancer, 47% (model range, 35%-60%) with treatment of stage I to III breast cancer, and 25% (model range, 21%-33%) with mammography screening. Based on simulations, the greatest change in survival after metastatic recurrence occurred between 2000 and 2019, from 1.9 years (model range, 1.0-2.7 years) to 3.2 years (model range, 2.0-4.9 years). Median survival for estrogen receptor (ER)-positive/ERBB2-positive breast cancer improved by 2.5 years (model range, 2.0-3.4 years), whereas median survival for ER-/ERBB2- breast cancer improved by 0.5 years (model range, 0.3-0.8 years). CONCLUSIONS AND RELEVANCE: According to 4 simulation models, breast cancer screening and treatment in 2019 were associated with a 58% reduction in US breast cancer mortality compared with interventions in 1975. Simulations suggested that treatment for stage I to III breast cancer was associated with approximately 47% of the mortality reduction, whereas treatment for metastatic breast cancer was associated with 29% of the reduction and screening with 25% of the reduction.</t>
   </si>
   <si>
-    <t>IMPORTANCE: Previous studies on the comparative effectiveness between buprenorphine and methadone provided limited evidence on differences in treatment effects across key subgroups and were drawn from populations who use primarily heroin or prescription opioids, although fentanyl use is increasing across North America. OBJECTIVE: To assess the risk of treatment discontinuation and mortality among individuals receiving buprenorphine/naloxone vs methadone for the treatment of opioid use disorder. DESIGN, SETTING, AND PARTICIPANTS: Population-based retrospective cohort study using linked health administrative databases in British Columbia, Canada. The study included treatment recipients between January 1, 2010, and March 17, 2020, who were 18 years or older and not incarcerated, pregnant, or receiving palliative cancer care at initiation. EXPOSURES: Receipt of buprenorphine/naloxone or methadone among incident (first-time) users and prevalent new users (including first and subsequent treatment attempts). MAIN OUTCOMES AND MEASURES: Hazard ratios (HRs) with 95% compatibility (confidence) intervals were estimated for treatment discontinuation (lasting &gt;/=5 days for methadone and &gt;/=6 days for buprenorphine/naloxone) and all-cause mortality within 24 months using discrete-time survival models for comparisons of medications as assigned at initiation regardless of treatment adherence ("initiator") and received according to dosing guidelines (approximating per-protocol analysis). RESULTS: A total of 30 891 incident users (39% receiving buprenorphine/naloxone; 66% male; median age, 33 [25th-75th, 26-43] years) were included in the initiator analysis and 25 614 in the per-protocol analysis. Incident users of buprenorphine/naloxone had a higher risk of treatment discontinuation compared with methadone in initiator analyses (88.8% vs 81.5% discontinued at 24 months; adjusted HR, 1.58 [95% CI, 1.53-1.63]), with limited change in estimates when evaluated at optimal dose in per-protocol analysis (42.1% vs 30.7%; adjusted HR, 1.67 [95% CI, 1.58-1.76]). Per-protocol analyses of mortality while receiving treatment exhibited ambiguous results among incident users (0.08% vs 0.13% mortality at 24 months; adjusted HR, 0.57 [95% CI, 0.24-1.35]) and among prevalent users (0.08% vs 0.09%; adjusted HR, 0.97 [95% CI, 0.54-1.73]). Results were consistent after the introduction of fentanyl and across patient subgroups and sensitivity analyses. CONCLUSIONS AND RELEVANCE: Receipt of methadone was associated with a lower risk of treatment discontinuation compared with buprenorphine/naloxone. The risk of mortality while receiving treatment was similar for buprenorphine/naloxone and methadone, although the CI estimate for the hazard ratio was wide.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: Endometriosis has been associated with an increased risk of ovarian cancer; however, the associations between endometriosis subtypes and ovarian cancer histotypes have not been well-described. OBJECTIVE: To evaluate the associations of endometriosis subtypes with incidence of ovarian cancer, both overall and by histotype. DESIGN, SETTING, AND PARTICIPANTS: Population-based cohort study using data from the Utah Population Database. The cohort was assembled by matching 78 893 women with endometriosis in a 1:5 ratio to women without endometriosis. EXPOSURES: Endometriosis cases were identified via electronic health records and categorized as superficial endometriosis, ovarian endometriomas, deep infiltrating endometriosis, or other. MAIN OUTCOMES AND MEASURES: Estimated adjusted hazard ratios (aHRs), adjusted risk differences (aRDs) per 10 000 women, and 95% CIs for overall ovarian cancer, type I ovarian cancer, and type II ovarian cancer comparing women with each type of endometriosis with women without endometriosis. Models accounted for sociodemographic factors, reproductive history, and past gynecologic operations. RESULTS: In this Utah-based cohort, the mean (SD) age at first endometriosis diagnosis was 36 (10) years. There were 597 women with ovarian cancer. Ovarian cancer risk was higher among women with endometriosis compared with women without endometriosis (aHR, 4.20 [95% CI, 3.59-4.91]; aRD, 9.90 [95% CI, 7.22-12.57]), and risk of type I ovarian cancer was especially high (aHR, 7.48 [95% CI, 5.80-9.65]; aRD, 7.53 [95% CI, 5.46-9.61]). Ovarian cancer risk was highest in women with deep infiltrating endometriosis and/or ovarian endometriomas for all ovarian cancers (aHR, 9.66 [95% CI, 7.77-12.00]; aRD, 26.71 [95% CI, 20.01-33.41]), type I ovarian cancer (aHR, 18.96 [95% CI, 13.78-26.08]; aRD, 19.57 [95% CI, 13.80-25.35]), and type II ovarian cancer (aHR, 3.72 [95% CI, 2.31-5.98]; aRD, 2.42 [95% CI, -0.01 to 4.85]). CONCLUSIONS AND RELEVANCE: Ovarian cancer risk was markedly increased among women with ovarian endometriomas and/or deep infiltrating endometriosis. This population may benefit from counseling regarding ovarian cancer risk and prevention and could be an important population for targeted screening and prevention studies.</t>
   </si>
   <si>
@@ -1504,9 +1273,6 @@
     <t>IMPORTANCE: Less than 10% of patients with cancer have detectable pathogenic germline alterations, which may be partially due to incomplete pathogenic variant detection. OBJECTIVE: To evaluate if deep learning approaches identify more germline pathogenic variants in patients with cancer. DESIGN, SETTING, AND PARTICIPANTS: A cross-sectional study of a standard germline detection method and a deep learning method in 2 convenience cohorts with prostate cancer and melanoma enrolled in the US and Europe between 2010 and 2017. The final date of clinical data collection was December 2017. EXPOSURES: Germline variant detection using standard or deep learning methods. MAIN OUTCOMES AND MEASURES: The primary outcomes included pathogenic variant detection performance in 118 cancer-predisposition genes estimated as sensitivity, specificity, positive predictive value (PPV), and negative predictive value (NPV). The secondary outcomes were pathogenic variant detection performance in 59 genes deemed actionable by the American College of Medical Genetics and Genomics (ACMG) and 5197 clinically relevant mendelian genes. True sensitivity and true specificity could not be calculated due to lack of a criterion reference standard, but were estimated as the proportion of true-positive variants and true-negative variants, respectively, identified by each method in a reference variant set that consisted of all variants judged to be valid from either approach. RESULTS: The prostate cancer cohort included 1072 men (mean [SD] age at diagnosis, 63.7 [7.9] years; 857 [79.9%] with European ancestry) and the melanoma cohort included 1295 patients (mean [SD] age at diagnosis, 59.8 [15.6] years; 488 [37.7%] women; 1060 [81.9%] with European ancestry). The deep learning method identified more patients with pathogenic variants in cancer-predisposition genes than the standard method (prostate cancer: 198 vs 182; melanoma: 93 vs 74); sensitivity (prostate cancer: 94.7% vs 87.1% [difference, 7.6%; 95% CI, 2.2% to 13.1%]; melanoma: 74.4% vs 59.2% [difference, 15.2%; 95% CI, 3.7% to 26.7%]), specificity (prostate cancer: 64.0% vs 36.0% [difference, 28.0%; 95% CI, 1.4% to 54.6%]; melanoma: 63.4% vs 36.6% [difference, 26.8%; 95% CI, 17.6% to 35.9%]), PPV (prostate cancer: 95.7% vs 91.9% [difference, 3.8%; 95% CI, -1.0% to 8.4%]; melanoma: 54.4% vs 35.4% [difference, 19.0%; 95% CI, 9.1% to 28.9%]), and NPV (prostate cancer: 59.3% vs 25.0% [difference, 34.3%; 95% CI, 10.9% to 57.6%]; melanoma: 80.8% vs 60.5% [difference, 20.3%; 95% CI, 10.0% to 30.7%]). For the ACMG genes, the sensitivity of the 2 methods was not significantly different in the prostate cancer cohort (94.9% vs 90.6% [difference, 4.3%; 95% CI, -2.3% to 10.9%]), but the deep learning method had a higher sensitivity in the melanoma cohort (71.6% vs 53.7% [difference, 17.9%; 95% CI, 1.82% to 34.0%]). The deep learning method had higher sensitivity in the mendelian genes (prostate cancer: 99.7% vs 95.1% [difference, 4.6%; 95% CI, 3.0% to 6.3%]; melanoma: 91.7% vs 86.2% [difference, 5.5%; 95% CI, 2.2% to 8.8%]). CONCLUSIONS AND RELEVANCE: Among a convenience sample of 2 independent cohorts of patients with prostate cancer and melanoma, germline genetic testing using deep learning, compared with the current standard genetic testing method, was associated with higher sensitivity and specificity for detection of pathogenic variants. Further research is needed to understand the relevance of these findings with regard to clinical outcomes.</t>
   </si>
   <si>
-    <t>IMPORTANCE: Philanthropy is an increasingly important source of support for health care institutions. There is little empirical evidence to inform ethical guidelines. OBJECTIVE: To assess public attitudes regarding specific practices used by health care institutions to encourage philanthropic donations from grateful patients. DESIGN, SETTING, AND PARTICIPANTS: Using the Ipsos KnowledgePanel, a probability-based sample representative of the US population, a survey solicited opinions from a primary cohort representing the general population and 3 supplemental cohorts (with high income, cancer, and with heart disease, respectively). EXPOSURES: Web-based questionnaire. MAIN OUTCOMES AND MEASURES: Descriptive analyses (with percentages weighted to make the sample demographically representative of the US population) evaluated respondents' attitudes regarding the acceptability of strategies hospitals may use to identify, solicit, and thank donors; perceptions of the effect of physicians discussing donations with their patients; and opinions regarding gift use and stewardship. RESULTS: Of 831 individuals targeted for the general population sample, 513 (62%) completed surveys, of whom 246 (48.0%) were women and 345 (67.3%) non-Hispanic white. In the weighted sample, 47.0% (95% CI, 42.3%-51.7%) responded that physicians giving patient names to hospital fundraising staff after asking patients' permission was definitely or probably acceptable; 8.5% (95% CI, 5.7%-11.2%) endorsed referring without asking permission. Of the participants, 79.5% (95% CI, 75.6%-83.4%) reported it acceptable for physicians to talk to patients about donating if patients have brought it up; 14.2% (95% CI, 10.9%-17.6%) reported it acceptable when patients have not brought it up; 9.9% (95% CI, 7.1%-12.8%) accepted hospital development staff performing wealth screening using publicly available data to identify patients capable of large donations. Of the participants, 83.2% (95% CI, 79.5%-86.9%) agreed that physicians talking with their patients about donating may interfere with the patient-physician relationship. For a hypothetical patient who donated $1 million, 50.1% (95% CI, 45.4%-54.7%) indicated it would be acceptable for the hospital to show thanks by providing nicer hospital rooms, 26.0% (95% CI, 21.9%-30.1%) by providing expedited appointments, and 19.8% (95% CI, 16.1%-23.5%) by providing physicians' cell phone numbers. CONCLUSIONS AND RELEVANCE: In this survey study of participants drawn from the general US population, a substantial proportion did not endorse legally allowable approaches for identifying, engaging, and thanking patient-donors.</t>
-  </si>
-  <si>
     <t>IMPORTANCE: The relationship between use of powder in the genital area and ovarian cancer is not established. Positive associations reported in case-control studies have not been confirmed in cohort studies. OBJECTIVE: To estimate the association between use of powder in the genital area and ovarian cancer using prospective observational data. DESIGN, SETTING, AND PARTICIPANTS: Data were pooled from 4 large, US-based cohorts: Nurses' Health Study (enrollment 1976; follow-up 1982-2016; n = 81 869), Nurses' Health Study II (enrollment 1989; follow-up 2013-2017; n = 61 261), Sister Study (enrollment 2003-2009; follow-up 2003-2017; n = 40 647), and Women's Health Initiative Observational Study (enrollment 1993-1998; follow-up 1993-2017; n = 73 267). EXPOSURES: Ever, long-term (&gt;/=20 years), and frequent (&gt;/=1/week) use of powder in the genital area. MAIN OUTCOMES AND MEASURES: The primary analysis examined the association between ever use of powder in the genital area and self-reported incident ovarian cancer. Covariate-adjusted hazard ratios (HRs) and 95% CIs were estimated using Cox proportional hazards models. RESULTS: The pooled sample included 252 745 women (median age at baseline, 57 years) with 38% self-reporting use of powder in the genital area. Ten percent reported long-term use, and 22% reported frequent use. During a median of 11.2 years of follow-up (3.8 million person-years at risk), 2168 women developed ovarian cancer (58 cases/100 000 person-years). Ovarian cancer incidence was 61 cases/100 000 person-years among ever users and 55 cases/100 000 person-years among never users (estimated risk difference at age 70 years, 0.09% [95% CI, -0.02% to 0.19%]; estimated HR, 1.08 [95% CI, 0.99 to 1.17]). The estimated HR for frequent vs never use was 1.09 (95% CI, 0.97 to 1.23) and for long-term vs never use, the HR was 1.01 (95% CI, 0.82 to 1.25). Subgroup analyses were conducted for 10 variables; the tests for heterogeneity were not statistically significant for any of these comparisons. While the estimated HR for the association between ever use of powder in the genital area and ovarian cancer risk among women with a patent reproductive tract was 1.13 (95% CI, 1.01 to 1.26), the P value for interaction comparing women with vs without patent reproductive tracts was .15. CONCLUSIONS AND RELEVANCE: In this analysis of pooled data from women in 4 US cohorts, there was not a statistically significant association between use of powder in the genital area and incident ovarian cancer. However, the study may have been underpowered to identify a small increase in risk.</t>
   </si>
   <si>
@@ -1516,12 +1282,6 @@
     <t>IMPORTANCE: The number of cancer survivors who develop new cancers is projected to increase, but comprehensive data on the risk of subsequent primary cancers (SPCs) among survivors of adult-onset cancers are limited. OBJECTIVE: To quantify the overall and cancer type-specific risks of SPCs among adult-onset cancer survivors by first primary cancer (FPC) types and sex. DESIGN, SETTING, AND PARTICIPANTS: A retrospective cohort study from 12 Surveillance, Epidemiology, and End Results registries in the United States, that included 1 537 101 persons aged 20 to 84 years diagnosed with FPCs from 1992-2011 (followed up until December 31, 2017) and who survived at least 5 years. EXPOSURES: First primary cancer. MAIN OUTCOMES AND MEASURES: Incidence and mortality of SPCs per 10 000 person-years; standardized incidence ratio (SIR) and standardized mortality ratio (SMR) compared with those expected in the general population. RESULTS: Among 1 537 101 survivors (mean age, 60.4 years; 48.8% women), 156 442 SPC cases and 88 818 SPC deaths occurred during 11 197 890 person-years of follow-up (mean, 7.3 years). Among men, the overall risk of developing any SPCs was statistically significantly higher for 18 of the 30 FPC types, and risk of dying from any SPCs was statistically significantly higher for 27 of 30 FPC types as compared with risks in the general population. Among women, the overall risk of developing any SPCs was statistically significantly higher for 21 of the 31 FPC types, and risk of dying from any SPCs was statistically significantly higher for 28 of 31 FPC types as compared with risks in the general population. The highest overall SIR and SMR were estimated among survivors of laryngeal cancer (SIR, 1.75 [95% CI, 1.68-1.83]; incidence, 373 per 10 000 person-years) and gallbladder cancer (SMR, 3.82 [95% CI, 3.31-4.39]; mortality, 341 per 10 000 person-years) among men, and among survivors of laryngeal cancer (SIR, 2.48 [95% CI, 2.27-2.72]; incidence, 336 per 10 000 person-years; SMR, 4.56 [95% CI, 4.11-5.06]; mortality, 268 per 10 000 person-years) among women. Substantial variation existed in the associations of specific types of FPCs with specific types of SPC risk; however, only a few smoking- or obesity-associated SPCs, such as lung, urinary bladder, oral cavity/pharynx, colorectal, pancreatic, uterine corpus, and liver cancers constituted considerable proportions of the total incidence and mortality, with lung cancer alone accounting for 31% to 33% of mortality from all SPCs. CONCLUSIONS AND RELEVANCE: Among survivors of adult-onset cancers in the United States, several types of primary cancer were significantly associated with greater risk of developing and dying from an SPC, compared with the general population. Cancers associated with smoking or obesity comprised substantial proportions of overall SPC incidence and mortality among all survivors and highlight the importance of ongoing surveillance and efforts to prevent new cancers among survivors.</t>
   </si>
   <si>
-    <t>IMPORTANCE: Celiac disease may be associated with a modest but persistent increased long-term mortality risk. It is uncertain whether this risk has changed in the era of wider diagnosis rates, less severe clinical disease, and more widespread availability of gluten-free food. OBJECTIVE: To evaluate the association between celiac disease and mortality risk in a population-based cohort in Sweden. DESIGN, SETTING, AND PARTICIPANTS: All individuals in Sweden with celiac disease diagnosed between 1969 and 2017 were identified through the Epidemiology Strengthened by histoPathology Reports in Sweden (ESPRESSO) cohort. Participants (n = 49 829) were observed starting on the day of the biopsy. The final date of follow-up was December 31, 2017. EXPOSURES: Celiac disease was defined by the presence of small intestinal villus atrophy on histopathology specimens during the years 1969-2017 from Sweden's 28 pathology departments. Each individual was matched with as many as 5 control participants in the general population by age, sex, county, and calendar period. MAIN OUTCOMES AND MEASURES: The primary outcome was all-cause mortality, and the secondary outcome was cause-specific mortality. Patients with celiac disease were compared with controls using stratified Cox proportional modeling, stratifying by year of diagnosis. RESULTS: There were 49 829 patients with celiac disease, including 24% who were diagnosed between the years 2010 and 2017. The mean (SD) age at diagnosis was 32.2 (25.2) years and 62.4% were women. During a median follow-up time of 12.5 years, 13.2% (n = 6596) died. Compared with controls (n = 246 426), overall mortality was increased in those with celiac disease (9.7 vs 8.6 deaths per 1000 person-years; absolute difference, 1.2 per 1000 person-years; hazard ratio [HR], 1.21 [95% CI, 1.17-1.25]). The relative increase in mortality risk was present in all age groups and was greatest in those diagnosed in the age range of 18 to 39 years (1.9 vs 1.1 per 1000 person-years; HR, 1.69 [95% CI, 1.47-1.94]; P values for heterogeneity comparing 18-39 years with 40-59 years and with &gt;/=60 years were both &lt;.001). Individuals with celiac disease were at increased risk of death from cardiovascular disease (3.5 vs 3.4 per 1000 person-years; HR, 1.08 [95% CI, 1.02-1.13]), cancer (2.7 vs 2.2 per 1000 person-years; HR, 1.29 [95% CI, 1.22-1.36]), and respiratory disease (0.6 vs 0.5 per 1000 person-years; HR, 1.21 [95% CI, 1.08-1.37]). When compared with controls, the overall mortality risk was greatest in the first year after diagnosis (15.3 vs 6.5 per 1000 person-years; HR, 2.34 [95% CI, 2.14-2.55]) but persisted beyond 10 years after diagnosis (10.5 vs 10.1 per 1000 person-years; HR, 1.15 [95% CI, 1.10-1.20]). The mortality risk was likewise present for patients diagnosed during the years 2010-2017 (7.5 vs 5.5 per 1000 person-years; HR, 1.35 [95% CI, 1.21-1.51]). CONCLUSIONS AND RELEVANCE: In a Swedish population studied between 1969 and 2017, a diagnosis of celiac disease compared with the general population was associated with a small but statistically significant increased mortality risk.</t>
-  </si>
-  <si>
-    <t>IMPORTANCE: US national guidelines discourage the use of continuous pulse oximetry monitoring in hospitalized children with bronchiolitis who do not require supplemental oxygen. OBJECTIVE: Measure continuous pulse oximetry use in children with bronchiolitis. DESIGN, SETTING, AND PARTICIPANTS: A multicenter cross-sectional study was performed in pediatric wards in 56 US and Canadian hospitals in the Pediatric Research in Inpatient Settings Network from December 1, 2018, through March 31, 2019. Participants included a convenience sample of patients aged 8 weeks through 23 months with bronchiolitis who were not receiving active supplemental oxygen administration. Patients with extreme prematurity, cyanotic congenital heart disease, pulmonary hypertension, home respiratory support, neuromuscular disease, immunodeficiency, or cancer were excluded. EXPOSURES: Hospitalization with bronchiolitis without active supplemental oxygen administration. MAIN OUTCOMES AND MEASURES: The primary outcome, receipt of continuous pulse oximetry, was measured using direct observation. Continuous pulse oximetry use percentages were risk standardized using the following variables: nighttime (11 pm to 7 am), age combined with preterm birth, time after weaning from supplemental oxygen or flow, apnea or cyanosis during the present illness, neurologic impairment, and presence of an enteral feeding tube. RESULTS: The sample included 3612 patient observations in 33 freestanding children's hospitals, 14 children's hospitals within hospitals, and 9 community hospitals. In the sample, 59% were male, 56% were white, and 15% were black; 48% were aged 8 weeks through 5 months, 28% were aged 6 through 11 months, 16% were aged 12 through 17 months, and 9% were aged 18 through 23 months. The overall continuous pulse oximetry monitoring use percentage in these patients, none of whom were receiving any supplemental oxygen or nasal cannula flow, was 46% (95% CI, 40%-53%). Hospital-level unadjusted continuous pulse oximetry use ranged from 2% to 92%. After risk standardization, use ranged from 6% to 82%. Intraclass correlation coefficient suggested that 27% (95% CI, 19%-36%) of observed variation was attributable to unmeasured hospital-level factors. CONCLUSIONS AND RELEVANCE: In a convenience sample of children hospitalized with bronchiolitis who were not receiving active supplemental oxygen administration, monitoring with continuous pulse oximetry was frequent and varied widely among hospitals. Because of the apparent absence of a guideline- or evidence-based indication for continuous monitoring in this population, this practice may represent overuse.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Cancer is a leading cause of death globally. Accurate cancer burden information is crucial for policy planning, but many countries do not have up-to-date cancer surveillance data. To inform global cancer-control efforts, we used the Global Burden of Diseases, Injuries, and Risk Factors Study (GBD) 2023 framework to generate and analyse estimates of cancer burden for 47 cancer types or groupings by age, sex, and 204 countries and territories from 1990 to 2023, cancer burden attributable to selected risk factors from 1990 to 2023, and forecasted cancer burden up to 2050. METHODS: Cancer estimation in GBD 2023 used data from population-based cancer registration systems, vital registration systems, and verbal autopsies. Cancer mortality was estimated using ensemble models, with incidence informed by mortality estimates and mortality-to-incidence ratios (MIRs). Prevalence estimates were generated from modelled survival estimates, then multiplied by disability weights to estimate years lived with disability (YLDs). Years of life lost (YLLs) were estimated by multiplying age-specific cancer deaths by the GBD standard life expectancy at the age of death. Disability-adjusted life-years (DALYs) were calculated as the sum of YLLs and YLDs. We used the GBD 2023 comparative risk assessment framework to estimate cancer burden attributable to 44 behavioural, environmental and occupational, and metabolic risk factors. To forecast cancer burden from 2024 to 2050, we used the GBD 2023 forecasting framework, which included forecasts of relevant risk factor exposures and used Socio-demographic Index as a covariate for forecasting the proportion of each cancer not affected by these risk factors. Progress towards the UN Sustainable Development Goal (SDG) target 3.4 aim to reduce non-communicable disease mortality by a third between 2015 and 2030 was estimated for cancer. FINDINGS: In 2023, excluding non-melanoma skin cancers, there were 18.5 million (95% uncertainty interval 16.4 to 20.7) incident cases of cancer and 10.4 million (9.65 to 10.9) deaths, contributing to 271 million (255 to 285) DALYs globally. Of these, 57.9% (56.1 to 59.8) of incident cases and 65.8% (64.3 to 67.6) of cancer deaths occurred in low-income to upper-middle-income countries based on World Bank income group classifications. Cancer was the second leading cause of deaths globally in 2023 after cardiovascular diseases. There were 4.33 million (3.85 to 4.78) risk-attributable cancer deaths globally in 2023, comprising 41.7% (37.8 to 45.4) of all cancer deaths. Risk-attributable cancer deaths increased by 72.3% (57.1 to 86.8) from 1990 to 2023, whereas overall global cancer deaths increased by 74.3% (62.2 to 86.2) over the same period. The reference forecasts (the most likely future) estimate that in 2050 there will be 30.5 million (22.9 to 38.9) cases and 18.6 million (15.6 to 21.5) deaths from cancer globally, 60.7% (41.9 to 80.6) and 74.5% (50.1 to 104.2) increases from 2024, respectively. These forecasted increases in deaths are greater in low-income and middle-income countries (90.6% [61.0 to 127.0]) compared with high-income countries (42.8% [28.3 to 58.6]). Most of these increases are likely due to demographic changes, as age-standardised death rates are forecast to change by -5.6% (-12.8 to 4.6) between 2024 and 2050 globally. Between 2015 and 2030, the probability of dying due to cancer between the ages of 30 years and 70 years was forecasted to have a relative decrease of 6.5% (3.2 to 10.3). INTERPRETATION: Cancer is a major contributor to global disease burden, with increasing numbers of cases and deaths forecasted up to 2050 and a disproportionate growth in burden in countries with scarce resources. The decline in age-standardised mortality rates from cancer is encouraging but insufficient to meet the SDG target set for 2030. Effectively and sustainably addressing cancer burden globally will require comprehensive national and international efforts that consider health systems and context in the development and implementation of cancer-control strategies across the continuum of prevention, diagnosis, and treatment. FUNDING: Gates Foundation, St Jude Children's Research Hospital, and St Baldrick's Foundation.</t>
   </si>
   <si>
@@ -1531,12 +1291,6 @@
     <t>BACKGROUND: FT596 is an induced pluripotent stem-cell (iPSC)-derived chimeric antigen receptor (CAR) natural killer (NK) cell therapy with three antitumour modalities: a CD19 CAR; a high-affinity, non-cleavable CD16 Fc receptor; and interleukin-15-interleukin-15 receptor fusion. In this study, we aimed to determine the recommended phase 2 dose (RP2D) and evaluate the safety and tolerability of FT596 as monotherapy and in combination with rituximab. We also aimed to evaluate the antitumour activity and characterise the pharmacokinetics of FT596 as monotherapy and in combination with rituximab. METHODS: In this phase 1, first-in-human trial, we evaluated FT596 in patients with relapsed or refractory B-cell lymphoma at nine sites in the USA. Patients who had received at least one previous systemic therapy and had no curative treatment options were eligible for inclusion. FT596 was administered after conditioning chemotherapy without rituximab (regimen A) or combined with rituximab (regimen B). The study consisted of a dose-escalation phase using a 3 + 3 design, with dose escalation commencing at 3 x 10(7) viable cells as a single dose on day 1 and done independently for individual regimens. A treatment cycle consisted of conditioning chemotherapy with cyclophosphamide (500 mg/m(2)) and fludarabine (30 mg/m(2)) intravenously on days -5 to -3, followed by FT596 administered at various doses and schedules, without (regimen A) or with (regimen B) a single dose of rituximab (375 mg/m(2)) intravenously on day -4. Supportive care was determined by the treating investigator. Patients were observed for dose-limiting adverse events for 28 days. Patients who tolerated therapy and derived clinical benefit could receive subsequent cycles of study treatment, with modification of conditioning chemotherapy dose if clinically indicated. The dose-expansion phase evaluated additional patients at selected doses and dosing schedules that had been found to be tolerable. The primary endpoints of the study were the incidence and nature of dose-limiting toxicities within each dose-escalation cohort to determine the maximum tolerated dose or maximum assessed dose to establish the RP2D and the incidence, nature, and severity of adverse events, with severity determined according to National Cancer Institute Common Toxicity Criteria and Adverse Events version 5.0. The trial was registered with ClinicalTrials.gov, NCT04245722. FINDINGS: Between March 19, 2020, and Jan 12, 2023, 86 patients with B-cell lymphoma received FT596 on regimen A (n=18) or regimen B (n=68). 22 (26%) of 86 patients were female and 72 (84%) of 86 patients were White. Patients had received a median of four previous lines of therapy (range 1-11) and 33 (38%) of 86 patients had received previous CAR T-cell therapy. The maximum tolerated dose was not reached. Cytokine release syndrome was reported in one (6%) of 18 patients (maximum grade 1) on regimen A and nine (13%) of 68 patients on regimen B (six with maximum grade 1 and three with grade 2). Neurotoxicity was not observed. INTERPRETATION: FT596 was well tolerated as monotherapy or with rituximab and induced deep and durable responses in patients with indolent and aggressive lymphomas and the RP2D was preliminarily identified to be 1.8 x 10(9) cells for three doses per cycle. This study supports that cell therapy using iPSC-derived, gene-modified NK cells is a potent platform for cancer treatment and suggests that such a platform might address limitations of currently available immune cell therapies, including manufacturing time, heterogeneity, access, and cost. FUNDING: Fate Therapeutics.</t>
   </si>
   <si>
-    <t>BACKGROUND: Allogeneic haematopoietic stem-cell transplantation is the standard treatment for bone marrow failure (BMF) in patients with Fanconi anaemia, but transplantation-associated complications such as an increased incidence of subsequent cancer are frequent. The aim of this study was to evaluate the safety and efficacy of the infusion of autologous gene-corrected haematopoietic stem cells as an alternative therapy for these patients. METHODS: This was an open-label, investigator-initiated phase 1/2 clinical trial (FANCOLEN-1) and long-term follow-up trial (up to 7 years post-treatment) in Spain. Mobilised peripheral blood (PB) CD34(+) cells from nine patients with Fanconi anaemia-A in the early stages of BMF were transduced with a therapeutic FANCA-encoding lentiviral vector and re-infused without any cytotoxic conditioning treatment. The primary efficacy endpoint of FANCOLEN-1 was the engraftment of transduced cells, as defined by the detection of at least 0.1 therapeutic vector copies per nucleated cell of patient bone marrow (BM) or PB at the second year post-infusion, without this percentage having declined substantially over the previous year. The safety coprimary endpoint was adverse events during the 3 years after infusion. The completed open-label phase 1/2 and the ongoing long-term clinical trials are registered with ClinicalTrials.gov, NCT03157804; EudraCT, 2011-006100-12; and NCT04437771, respectively. FINDINGS: There were eight evaluable treated patients with Fanconi anaemia-A. Patients were recruited between Jan 7, 2016 and April 3, 2019. The primary endpoint was met in five of the eight evaluable patients (62.50%). The median number of therapeutic vector copies per nucleated cell of patient BM and PB at the second year post-infusion was 0.18 (IQR 0.01-0.20) and 0.06 (0.01-0.19), respectively. No genotoxic events related to the gene therapy were observed. Most treatment-emergent adverse events (TEAEs) were non-serious and assessed as not related to therapeutic FANCA-encoding lentiviral vector. Nine serious adverse events (grade 3-4) were reported in six patients, one was considered related to medicinal product infusion, and all resolved without sequelae. Cytopenias and viral infections (common childhood illnesses) were the most frequently reported TEAEs. INTERPRETATION: These results show for the first time that haematopoietic gene therapy without genotoxic conditioning enables sustained engraftment and reversal of BMF progression in patients with Fanconi anaemia. FUNDING: European Commission, Instituto de Salud Carlos III, and Rocket Pharmaceuticals.</t>
-  </si>
-  <si>
-    <t>BACKGROUND: Monkeypox virus (MPXV) has been linked to vertical transmission, but systematic data are scarce. We aimed to describe the sociodemographic, clinical, and virological characteristics and assess the frequency and determinants of adverse outcomes in pregnant women with MPXV clade I infection. METHODS: In this prospective cohort study, we pooled data from three cohort studies (MBOTE-SK, PREGMPOX, and Uvira mpox) and one randomised controlled trial (PALM007) conducted in the South Kivu, Maniema, and Sankuru provinces of DR Congo between Dec 29, 2022, and June 20, 2025. Pregnant women and adolescent girls with a PCR-confirmed diagnosis of mpox were followed up throughout hospitalisation for mpox, delivery, and until discharge during the postpartum period. We extracted data on sociodemographic characteristics, MPXV exposure, clinical and obstetric presentation, and laboratory results. In a univariable analysis, we examined factors associated with the following adverse outcomes: spontaneous or missed abortion (&lt;20 weeks of gestation), stillbirth (&gt;/=20 weeks of gestation), preterm birth (&lt;37 weeks of gestation), live birth of a neonate with macroscopic mpox-like lesions, early (first 7 days) neonatal death, congenital anomaly, or maternal death (during pregnancy or discharge postpartum). FINDINGS: We collected data from 89 pregnant women in the first (25 [28%]), second (31 [35%]), and third (33 [37%]) trimesters across all four studies: MBOTE-SK (36 [40%]), PREGMPOX (24 [27%]), PALM007 (25 [28%]), and Uvira mpox (four [4%]). All participants recovered from mpox; no maternal deaths were reported. During hospitalisation for mpox, fetal loss was reported in 17 (19%) women. Final pregnancy outcomes were known for 69 (78%) participants; adverse outcomes were reported in 35 (51%) women (95% CI 38-63), including fetal loss in 31 (45%; 95% CI 33-57; 16 [52%] spontaneous abortions, four [13%] missed abortions, and 11 [35%] stillbirths). Of the 38 live births, four neonates had congenital mpox-like lesions; one infant died a few hours after birth. No preterm births or congenital abnormalities were recorded. MPXV infection during the first trimester was associated with a higher risk of adverse pregnancy outcomes than during the second (risk ratio [RR] 0.6 [95% CI 0.4-0.9]) and third (0.2 [0.1-0.4]) trimesters (p=0.0008). Adverse outcomes were also associated with high viral load in skin lesions (PCR cycle threshold &lt;/=30; RR 3.5 [95% CI 1.0-12.3]; p=0.045), direct sexual contact with the index case (1.6 [1.1-2.4]; p=0.026), positive HIV status (2.0 [1.4-2.9]; p=0.0002), and the presence of genital lesions (1.9 [1.1-3.2]; p=0.025). INTERPRETATION: MPXV clade I infection in pregnancy is associated with a high risk of fetal loss and congenital infection, particularly during the first trimester. Targeted preventive and clinical strategies are urgently needed to protect pregnant women and their infants in settings that are endemic and epidemic for mpox. FUNDING: The European and Developing Countries Clinical Trials Partnership, the Belgian Directorate-General Development Cooperation and Humanitarian Aid, the Swiss National Science Foundation, the Research Foundation-Flanders, the Gates Foundation, the Intramural Research Program of the National Institutes of Health, and the National Cancer Institute.</t>
-  </si>
-  <si>
     <t>BACKGROUND: In postmenopausal women with oestrogen receptor-positive early breast cancer, 5 years of adjuvant tamoxifen substantially reduces 15-year recurrence and mortality; aromatase inhibitor treatment (AIT) is even more effective. We assess the effects of further AIT among women recurrence-free after at least 5 years of endocrine therapy. METHODS: We conducted individual patient data meta-analyses of 12 randomised trials, including 22 031 women who had completed at least 5 years of tamoxifen, AIT, or tamoxifen then AIT, comparing subsequent AIT versus no further adjuvant therapy. Primary outcomes were recurrence of invasive breast cancer (local, distant, or new contralateral), breast cancer mortality, mortality from other causes, and all-cause mortality. Intention-to-treat analyses (irrespective of allocation adherence and stratified by age, nodal status, and trial, and censored at death from unrelated causes) yielded event rate ratios (RRs). FINDINGS: Allocation to AIT versus no further treatment reduced recurrence rates by 27% (RR 0.73 [95% CI 0.67-0.80], p&lt;0.0001). This reduction was greater after previous tamoxifen alone than after some previous AIT, and greater in trials of 5 years of AIT versus no further AIT than in trials of 2-3 years of AIT versus no further AIT. After some previous AIT, allocation to 5 further years of AIT (with median 8.1 years [IQR 6.0-10.0] follow-up after trial treatments diverged) reduced both recurrence (RR 0.71 [0.61-0.81], p&lt;0.0001; risk from year 5 to year 15 after diagnosis 11.6% vs 15.2%) and distant recurrence (RR 0.73 [0.61-0.88], p=0.0010; 6.6% vs 8.6%); breast cancer mortality was reduced non-significantly (RR 0.90 [0.70-1.15], p=0.40; 4.4% vs 5.0%). Tumour characteristics had no definite effects on the proportional recurrence reductions from year 5 to year 15, so the absolute recurrence reduction with 10 years vs 5 years AIT was greater for node-positive (risk 16.3% vs 20.1%) than for node-negative disease (9.1% vs 11.8%). Allocation to 5 further years of AIT increased 5-year bone fracture risk (RR 1.35 [1.13-1.61], p=0.0009; 4.6% vs 3.4%). Non-adherence to allocated treatment was widespread (39.0% further AIT vs 37.6% placebo in the placebo-controlled trials). INTERPRETATION: Allocation to 5 further years of AIT reduced subsequent distant recurrence rates by about a quarter despite substantial non-adherence. Longer follow-up would have been needed to help assess directly any effects on mortality. FUNDING: Cancer Research UK and Breast Cancer Research Foundation.</t>
   </si>
   <si>
@@ -1552,9 +1306,6 @@
     <t>BACKGROUND: Understanding the proportion of invasive cervical cancer (ICC) caused by different human papillomavirus (HPV) genotypes can inform primary (ie, vaccination) and secondary (ie, screening) prevention efforts that target specific HPV genotypes. However, using the global literature to estimate population attributable fractions (AFs) requires a methodological framework to address HPV genotype-specific causality from aggregated data. We aimed to estimate the proportion of ICC caused by different HPV genotypes at the global, regional, and national level. METHODS: This systematic review identified studies reporting HPV genotype-specific prevalence in ICC or people with normal cervical cytology. We searched PubMed, Embase, Scopus, and Web of Science up to Feb 29, 2024, using the search terms "cervix" and "HPV", with no language restrictions. Odds ratios (ORs) were estimated by comparing HPV genotype-specific prevalence between HPV-positive ICC and normal cervical cytology with logistic regression models, adjusting for region, year of paper publication, and HPV primer or test. HPV genotypes with a lower bound to the 95% CI of the OR greater than 1.0 were judged as causal to ICC. Corresponding regional genotype-specific AFs were calculated as regional HPV prevalence in ICC multiplied by (1 - [1 / OR]) and were proportionally adjusted to total 100%. Global AFs were calculated from regional AFs weighted by number of regional ICC cases in 2022 (GLOBOCAN). FINDINGS: The systematic review identified 1174 studies with 111 902 cases of HPV-positive ICC and 2 755 734 of normal cervical cytology. 17 HPV genotypes were considered causal to ICC, with ORs ranging widely from 48.3 (95% CI 45.7-50.9) for HPV16 to 1.4 (1.2-1.7) for HPV51. HPV16 had the highest global AF (61.7%), followed by HPV18 (15.3%), HPV45 (4.8%), HPV33 (3.8%), HPV58 (3.5%), HPV31 (2.8%), and HPV52 (2.8%). Remaining causal genotypes (HPV35, 59, 39, 56, 51, 68, 73, 26, 69, and 82) had a combined global AF of 5.3%. AFs for HPV16 and 18 and HPV16, 18, 31, 33, 45, 52, and 58 combined were lowest in Africa (71.9% and 92.1%, respectively) and highest in central, western, and southern Asia (83.2% and 95.9%, respectively). HPV35 had a higher AF in Africa (3.6%) than other regions (0.6-1.6%). INTERPRETATION: This study provides a comprehensive global picture of HPV genotype-specific AFs in ICC, before the influence of HPV vaccination. These data can inform HPV genotype-specific vaccination and screening strategies to reduce the burden of ICC. FUNDING: EU Horizon 2020 Research and Innovation Programme.</t>
   </si>
   <si>
-    <t>BACKGROUND: Large disparities in mortality exist across racial-ethnic groups and by location in the USA, but the extent to which racial-ethnic disparities vary by location, or how these patterns vary by cause of death, is not well understood. We aimed to estimate age-standardised mortality by racial-ethnic group, county, and cause of death and describe the intersection between racial-ethnic and place-based disparities in mortality in the USA, comparing patterns across health conditions. METHODS: We applied small-area estimation models to death certificate data from the US National Vital Statistics system and population data from the US National Center for Health Statistics to estimate mortality by age, sex, county, and racial-ethnic group annually from 2000 to 2019 for 19 broad causes of death. Race and ethnicity were categorised as non-Latino and non-Hispanic American Indian or Alaska Native (AIAN), non-Latino and non-Hispanic Asian or Pacific Islander (Asian), non-Latino and non-Hispanic Black (Black), Latino or Hispanic (Latino), and non-Latino and non-Hispanic White (White). We adjusted these mortality rates to correct for misreporting of race and ethnicity on death certificates and generated age-standardised results using direct standardisation to the 2010 US census population. FINDINGS: From 2000 to 2019, across 3110 US counties, racial-ethnic disparities in age-standardised mortality were noted for all causes of death considered. Mortality was substantially higher in the AIAN population (all-cause mortality 1028.2 [95% uncertainty interval 922.2-1142.3] per 100 000 population in 2019) and Black population (953.5 [947.5-958.8] per 100 000) than in the White population (802.5 [800.3-804.7] per 100 000), but substantially lower in the Asian population (442.3 [429.3-455.0] per 100 000) and Latino population (595.6 [583.7-606.8] per 100 000), and this pattern was found for most causes of death. However, there were exceptions to this pattern, and the exact order among racial-ethnic groups, magnitude of the disparity in both absolute and relative terms, and change over time in this magnitude varied considerably by cause of death. Similarly, substantial geographical variation in mortality was observed for all causes of death, both overall and within each racial-ethnic group. Racial-ethnic disparities observed at the national level reflect widespread disparities at the county level, although the magnitude of these disparities varied widely among counties. Certain patterns of disparity were nearly universal among counties; for example, in 2019, mortality was higher among the AIAN population than the White population in at least 95% of counties for skin and subcutaneous diseases (455 [97.8%] of 465 counties with unmasked estimates) and HIV/AIDS and sexually transmitted infections (458 [98.5%] counties), and mortality was higher among the Black population than the White population in nearly all counties for skin and subcutaneous diseases (1436 [96.6%] of 1486 counties), diabetes and kidney diseases (1473 [99.1%]), maternal and neonatal disorders (1486 [100.0%] counties), and HIV/AIDS and sexually transmitted infections (1486 [100.0%] counties). INTERPRETATION: Disparities in mortality among racial-ethnic groups are ubiquitous, occurring across locations in the USA and for a wide range of health conditions. There is an urgent need to address the shared structural factors driving these widespread disparities. FUNDING: National Institute on Minority Health and Health Disparities; National Heart, Lung, and Blood Institute; National Cancer Institute; National Institute on Aging; National Institute of Arthritis and Musculoskeletal and Skin Diseases; Office of Disease Prevention; and Office of Behavioral and Social Sciences Research, US National Institutes of Health.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Multicancer early detection (MCED) blood tests can detect a cancer signal from circulating cell-free DNA (cfDNA). PATHFINDER was a prospective cohort study investigating the feasibility of MCED testing for cancer screening. METHODS: In this prospective cohort study done in oncology and primary care outpatient clinics at seven US health networks, a convenience sample of adults aged 50 years or older without signs or symptoms of cancer consented to MCED testing. We collected blood, analysed cfDNA, and returned results to participants' doctors. If a methylation signature indicative of cancer was detected, predicted cancer signal origin(s) informed diagnostic assessment. The primary outcome was time to, and extent of, diagnostic testing required to confirm the presence or absence of cancer. This trial is registered at ClinicalTrials.gov, NCT04241796, and is completed. FINDINGS: Between Dec 12, 2019, and Dec 4, 2020, we recruited 6662 participants. 4204 (63.5%) of 6621 participants with analysable results were women, 2417 (36.5%) were men, and 6071 (91.7%) were White. A cancer signal was detected in 92 (1.4%) of 6621 participants with analysable results. 35 (38%) participants were diagnosed with cancer (true positives) and 57 (62%) had no cancer diagnosis (false positives). Excluding two participants whose diagnostic assessments began before MCED test results were reported, median time to diagnostic resolution was 79 days (IQR 37-219): 57 days (33-143) in true-positive and 162 days (44-248) in false-positive participants. Most participants had both laboratory tests (26 [79%] of 33 with true-positive results and 50 [88%] of 57 with false-positive results) and imaging (30 [91%] of 33 with true-positive results and 53 [93%] of 57 with false-positive results). Fewer procedures were done in participants with false-positive results (17 [30%] of 57) than true-positive results (27 [82%] of 33) and few had surgery (one with a false-positive result and three with a true-positive result). INTERPRETATION: This study supports the feasibility of MCED screening for cancer and underscores the need for further research investigating the test's clinical utility. FUNDING: GRAIL.</t>
   </si>
   <si>
@@ -1564,9 +1315,6 @@
     <t>BACKGROUND: Cancer is an age-related condition, but changes to modifiable lifestyle-related behaviours, including physical activity, could impact risk. While step count is an accessible metric of activity for older adults, its association with cancer risk remains poorly understood. We investigated the association between accelerometer-measured total activity, step count, and cancer risk. METHODS: We analysed data from a prospective UK Biobank cohort of consenting participants who wore wrist-based Axivity AX3 accelerometer devices for 7 days between June 1, 2013 and Dec 23, 2015, had valid accelerometer data, and no previous cancer diagnosis at baseline. Machine learning models estimated total physical activity (vector magnitude) and step count. The primary outcome, a composite of 13 cancers previously associated with physical activity, was obtained from national registries. Hazard ratios (HR) and were calculated using Cox proportional hazard models, with attained age as the underlying timescale and adjustment for sex, ethnicity, smoking status, alcohol consumption, education, and Townsend Deprivation Index. The impact of reallocating time between behaviours was evaluated using compositional data analyses. Dose-response associations were assessed with restricted cubic splines. FINDINGS: We analysed data from 86 556 participants, who were followed up during an average of 6.1 years (age range 43-78; 48 478 [56%] female and 38 078 [44%] male; 83 830 [97%] white). 5577 incident malignant cancers occurred among these 86 556 participants. Greater total physical activity was associated with a lower risk of physical-activity-related cancer (HR per 1 SD [+8.33 milligravity per day] 0.85, 95% CI 0.81-0.89). Reallocating 30 min/day from other activities to moderate-to-vigorous physical activity behaviour was associated with lower cancer risk (HR 0.96, 0.94-0.98), as was reallocating 1 h/day to light intensity activity (HR 0.94, 0.92-0.96), compared with the mean behaviour composition among included participants. Compared with taking 5000 steps per day, taking 10 000 daily steps was associated with a significantly lower risk of physical-activity-related cancer (HR 0.81, 0.73-0.90). INTERPRETATION: In this sample from the UK Biobank, higher total physical activity and daily step count were associated with lower risk of physical-activity-related cancers. Findings suggest additional physical activity time, irrespective of intensity, may be beneficial. Increasing low intensity activity time and increasing daily step counts could be practical public health interventions to lower cancer risk, especially for aging adults. FUNDING: National Institute of Health Oxford Cambridge Scholars Program, Wellcome Trust, Swiss Re, Health Data Research UK, and Cancer Research UK.</t>
   </si>
   <si>
-    <t>BACKGROUND: Lung cancer is the most common cause of cancer death in the UK, and incidence is strongly associated with increasing age. Screening can improve survival by detecting cancer earlier. Targeted Lung Health Check (TLHC) programme is a lung cancer screening pilot offered to smokers or ex-smokers aged 55-74 years in certain areas of England. However, uptake remains as low as 20% in London. We did a service evaluation to assess the effect of adding messaging informed by behaviour science to invitation letters on TLHC uptake. METHODS: The intervention involved adding to the standard invitation letter a box with a two-sentence behavioural message targeted at mitigating fatalistic beliefs and low risk perception, as well as promoting clinician endorsement and the value of early detection. Allocation to receive either standard or intervention letters was done at West London GP practice level, with approximate pairing between practices. From Sept 22, 2022, to Nov 28, 2022, 9464 invitations were sent to eligible individuals (4842 standard and 4622 intervention) covering 20 GP practices. The primary outcome (uptake) was a booked appointment date within 4 months of the invitation letter being sent. TIDieR checklist was used for methodology and reporting guidelines. We used chi(2) analysis to test for significant differences in uptake, and mixed-effects logistic regression to control for demographic covariates. FINDINGS: Demographic characteristics were similar in the control and intervention groups, with mean ages of 63.3 and 63.0 years, average index of multiple deprivation (IMD) deciles of 6.33 and 5.53, and percentage of female participants 42.1% (n=2038) and 43.7% (n=2022), respectively. Uptake of TLHC was significantly higher in the intervention group (25.8%, n=1192) than in the control group (20.4%, n=987; chi(2)(1)=38.762, p&lt;0.0001). A logistic regression model estimated likelihood of uptake was 37.5% (95% CI 12.1-63.2) higher in the intervention group (p=0.004). Patients aged 60-64, 65-69 and 70-75 years were 23.5% (10.7-36.3, p=0.0003), 28.3% (14.5-42.0, p&lt;0.0001), and 32.6% (18.3-47.0, p&lt;0.0001) more likely to attend than those aged 55-59 years. The likelihood of attendance decreased on the basis of deprivation (IMD decile; b=0.060, 95% CI 0.035-0.087, p&lt;0.0001), female gender (b=0.156, 0.057-0.254, p=0.002), and for ex-smokers compared with smokers (b=0.580, 0.467-0.693, p&lt;0.0001). INTERPRETATION: This simple, no-cost addition of behavioural messaging to invitation letters can significantly improve screening uptake and is recommended for wider rollout. These findings are consistent with other studies. However, a limitation is that the allocation to study arm was at GP practice level and the study was not randomised. FUNDING: RM Partners, the West London Cancer Alliance.</t>
-  </si>
-  <si>
     <t>BACKGROUND: The Cancer Research UK Cancer Awareness Measure Survey (2022) found older age as a risk factor for cancer to be low (around 2-4% across UK nations). However, 89 in 100 cancers are in those aged 50 years and older, and the majority of health-communications are targeted to these higher risk groups. This research aimed to understand the potential impact on health behaviours of communicating messages on relative increased risk of cancer with older age on participant's capability, motivation, and opportunity (COM-B model) in relation to positive early diagnosis health behaviours (body vigilance, intention to take part in cancer screening, preventative measures). METHODS: In this qualitative study, we conducted 60 min semi-structured paired-depth interviews of people aged 25-74 years from across the UK (20 pairs; n=40; age: mean 58.5 years, range 25-74; 19 [47%] men and 21 [53%] women; 27 [67%] White and 13 [33%] from Black or Asian minority ethnic groups). Participants were recruited via a recruitment agency and provided with an incentive of  pound60 for their time. To assess potential longer-term impact, participants filled a survey 2 weeks later on their views on the messages tested, and on self-reported actions taken as a result of the messages tested. The three different messages tested were rotated. Data were analysed using rapid thematic techniques, two moderators reviewed the data, and a framework analysis style assessed themes against capability, opportunity, and motivation (COM-B model). FINDINGS: Message 2 was the most preferred, as it was clear and easy to understand. Results suggested that including this messaging in health campaigns could encourage some positive early diagnosis heath behaviours. The post survey identified self-reported behaviour changes in nine (23%) of the 40 participants and sustained intentions in 29 (73%). Results overlayed with COM-B, identified messaging could support behaviour change by increasing awareness (psychological capability), providing a social cue (social opportunity), and encouraging emotions related to not wanting to get cancer or that they should be doing specific behaviours (reflective motivation). INTERPRETATION: Findings suggest communicating this message might have a positive effect on help-seeking behaviours in older adults (age &gt;/=50 years). However, considerations include ensuring that the message is clear and understandable and that it doesn't induce fear. Although this study design allowed for more in-depth exploration, results are limited due to the small sample size. FUNDING: Cancer Research UK.</t>
   </si>
   <si>
@@ -1576,9 +1324,6 @@
     <t>BACKGROUND: Polygenic Risk Scores (PRSs) have been proposed as a mechanism for risk-stratification of screening, increasing efficiency and enabling extension of existing programmes to improve survival in our aging population. We sought to model the impact of three hypothetical programmes of annual breast cancer screening in women aged 40-49 years: screening the PRS-defined high-risk quintile, screening the oldest quintile, and screening the full population. METHODS: In this UK-based modelling study, we used the published estimate of the area under the curve (AUC) of a currently available breast cancer PRS (0.64) to calculate the proportion of cancers captured by the PRS-defined high-risk quintile. We used population size estimates from the Office for National Statistics alongside age-stratified incidence rates of breast cancer, and age or stage-specific survival data from the National Cancer Registry, to build our model. We used stage-specific route-to-diagnosis data to reassign stage-specific survival for screen-detected cancers. Ethics approval was not required. FINDINGS: The PRS-defined high-risk quintile, oldest quintile, and full population capture 37% (n=2811), 29% (n=2198), and 100% (n=7533) of breast cancers occurring in women aged 40-49 each year. Annual screening of each group using digital mammography (sensitivity 70%, specificity 92%) would identify 1968, 1538, and 5273 breast cancers per year, respectively. This corresponds to an improvement in survival of 1.4% (102 deaths averted), 1.1% (80 deaths averted) and 3.6% (274 deaths averted) compared with baseline (no screening). Full population screening would require 4 369 703 mammograms and 354 246 confirmatory tests (breast biopsies) every year, while screening the oldest quintile would require 937 850 mammograms and 76 390 biopsies. Screening the PRS-defined high-risk quintile would require 873 941 mammograms and 71 658 biopsies, in addition to a PRS for all women in the age group (4 369 703). INTERPRETATION: Under favourable assumptions, stratifying screening by PRS rather than age results in modest gains in survival but increases overdiagnoses, logistical complexity, and economic costs. Our study is limited by our modelling parameters (anticipated to maximise survival estimates), including complete uptake of PRS profiling and cancer screening, no interval cancers, and application of screening tools superior to those currently available in the UK. Only with randomised controlled trials, can the uptake, clinical impact, costs, and harms of PRS-stratified screening be definitively assessed. FUNDING: The Wellcome Trust.</t>
   </si>
   <si>
-    <t>BACKGROUND: Cervical cancer incidence and mortality is higher in lower income populations. Non-attendance for colposcopy following cervical screening is higher in deprived areas and younger patients. Diagnostic delays reduce the benefits of screening, increasing risk of pre-cancerous cells being undetected or treated later. We aimed to better understand drivers of colposcopy non-attendance and pilot a targeted intervention. Women and people with a cervix (referred to as patients in this paper) access colposcopy services. METHODS: For the service improvement audit, we collected qualitative data from Jan 24 to April 22, 2022, via telephone calls and interviews. The sample included patients who cancelled or did not attend their appointment and patients who attended their appointment. Interviews explored attendance barriers and enablers. Data were analysed thematically and reported, aligning with Consolidated Criteria for reporting Qualitative Studies' principles. The analysis informed development of a pilot intervention, implemented from Aug 8 to Oct 6, 2022, for all scheduled appointments. Patients were contacted by telephone pre-appointment as both a reminder and opportunity to identify and address attendance barriers. Barrier-specific pathways were developed to support attendance (eg, transport assistance). We compared descriptive non-attendance rates during the intervention period and pre-intervention. Audit permission was granted by Northumbria Clinical Audit Team and Caldicott approval obtained. FINDINGS: Data were collected from 20 of the 36 patients who did not attend between Jan 24, and April 22, 2022. Further data were gathered from 88 patients cancelling appointments and four colposcopy attendees. During the audit, ethnicity and gender identity were not routinely collected. Themes identified were administrative, forgetting, anxiety, work, childcare, and transport. During the pilot, 383 (65%) of all 595 patients with an appointment were successfully contacted. The overall non-attendance in 2022 pre-telephone intervention was 10% (195 of 1736 appointments). During the intervention, non-attendance was 8% (45 of 539 appointments). Non-attendance during the intervention was 12% (10 of 87 appointments) for patients aged 25-39 years in the 20% most deprived areas was, compared with 20% (64 of 319 appointments) before the intervention. INTERPRETATION: Identifying and addressing attendance barriers might improve non-attendance, particularly in younger and more deprived populations. This offers the prospect of improving the effectiveness of screening programmes alongside reducing inequalities in health-care access. The findings of this small-scale study are limited to NHS trust colposcopy service in the northeast of England, thus further formalised research is necessary. FUNDING: None.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Muslim women use cancer screening less often than the general female population, which puts them at risk of delayed detection. We used an asset-based approach to co-design a faith-based intervention to increase uptake of breast, colorectal, and cervical screening in Scottish Muslim women. METHODS: In this pilot qualitative study, we recruited Muslim women (n=28) of Asian and Arab ethnicity, aged 25-74 years, through snowball sampling from community organisations in Glasgow and Edinburgh. Ten of these women participated in four online workshops in February, 2021, with the aim to codesign the intervention, underpinned by the socio-ecological model and the behaviour change wheel. The final intervention included health education delivered by doctors, testimonials by Muslim women sharing experiences of cancer or screening, and the perspective on cancer screening from a female religious scholar. The intervention was delivered to two groups of eight and ten Muslim women respectively, in March 2021. A week later, the 18 women participated in two focus groups to qualitatively evaluate the intervention. Analyses were conducted thematically. FINDINGS: Themes included barriers to screening, acceptability of content and delivery, attitudinal change, and intervention improvement. Participants believed that lack of awareness was an important barrier to screening. They found the intervention informative. They particularly liked the combination of multiple components, including spirituality, culture, and health education. They valued the faith-based element and highlighted how Islam could facilitate overcoming cultural barriers including social stigma, embarrassment, and modesty, although this could vary with different levels of religiosity. Participants also emphasised that faith-based approaches in isolation would not be enough. They appreciated input of trusted sources such as doctors and religious scholars and were especially drawn to personal narratives. Participants expressed preference for face-to-face delivery and advised using translators to overcome language barriers. INTERPRETATION: Barriers to screening are complex. Using faith as an asset, integrated with the socio-ecological model and behaviour change wheel, resulted in a holistic intervention tackling multiple barriers, which appealed to participants. Collaborating with communities and faith leaders can help to develop culturally sensitive interventions that harness positive aspects of faith for better health outcomes. Intervention effectiveness needs more robust investigation, which we are undertaking in a feasibility study with 200 Muslim women in northeast England and Scotland. FUNDING: Scottish Inequalities Fund, the Scottish Government.</t>
   </si>
   <si>
@@ -1594,15 +1339,9 @@
     <t>BACKGROUND: Despite the substantial burden caused by childhood cancer globally, childhood cancer incidence obtained in a nationwide childhood cancer registry and the accessibility of relevant health services are still unknown in China. We comprehensively assessed the most up-to-date cancer incidence in Chinese children and adolescents, nationally, regionally, and in specific population subgroups, and also examined the association between cancer incidence and socioeconomic inequality in access to health services. METHODS: In this national cross-sectional study, we used data from the National Center for Pediatric Cancer Surveillance, the nationwide Hospital Quality Monitoring System, and public databases to cover 31 provinces, autonomous regions, and municipalities in mainland China. We estimated the incidence of cancer among children (aged 0-14 years) and adolescents (aged 15-19 years) in China through stratified proportional estimation. We classified regions by socioeconomic status using the human development index (HDI). Incidence rates of 12 main groups, 47 subgroups, and 81 subtypes of cancer were reported and compared by sex, age, and socioeconomic status, according to the third edition of the International Classification of Childhood Cancer. We also quantified the geographical and population density of paediatric oncologists, pathology workforce, diagnoses and treatment institutions of paediatric cancer, and paediatric beds. We used the Gini coefficient to assess equality in access to these four health service indicators. We also calculated the proportions of cross-regional patients among new cases in our surveillance system. FINDINGS: We estimated the incidence of cancer among children (aged 0-14 years) and adolescents (aged 15-19 years) in China from Jan 1, 2018, to Dec 31, 2020. An estimated 121 145 cancer cases were diagnosed among children and adolescents in China between 2018 and 2020, with world standard age-standardised incidence rates of 122.86 (95% CI 121.70-124.02) per million for children and 137.64 (136.08-139.20) per million for adolescents. Boys had a higher incidence rate of childhood cancer (133.18 for boys vs 111.21 for girls per million) but a lower incidence of adolescent cancer (133.92 for boys vs 141.79 for girls per million) than girls. Leukaemias (42.33 per million) were the most common cancer group in children, whereas malignant epithelial tumours and melanomas (30.39 per million) surpassed leukaemias (30.08 per million) in adolescents as the cancer with the highest incidence. The overall incidence rates ranged from 101.60 (100.67-102.51) per million in very low HDI regions to 138.21 (137.14-139.29) per million in high HDI regions, indicating a significant positive association between the incidence of childhood and adolescent cancer and regional socioeconomic status (p&lt;0.0001). The incidence in girls showed larger variation (48.45% from the lowest to the highest) than boys (36.71% from lowest to highest) in different socioeconomic regions. The population and geographical densities of most health services also showed a significant positive correlation with HDI levels. In particular, the geographical density distribution (Gini coefficients of 0.32-0.47) had higher inequalities than population density distribution (Gini coefficients of 0.05-0.19). The overall proportion of cross-regional patients of childhood and adolescent cancer was 22.16%, and the highest proportion occurred in retinoblastoma (56.54%) and in low HDI regions (35.14%). INTERPRETATION: Our study showed that the burden of cancer in children and adolescents in China is much higher than previously nationally reported from 2000 to 2015. The distribution of the accessibility of health services, as a social determinant of health, might have a notable role in the socioeconomic inequalities in cancer incidence among Chinese children and adolescents. With regards to achieving the Sustainable Development Goals, policy approaches should prioritise increasing the accessibility of health services for early diagnosis to improve outcomes and subsequently reduce disease burdens, as well as narrowing the socioeconomic inequalities of childhood and adolescent cancer. FUNDING: National Major Science and Technology Projects of China, National Natural Science Foundation of China, Chinese Academy of Engineering Consulting Research Project, Wu Jieping Medical Foundation, Beijing Municipal Administration of Hospitals Incubating Program.</t>
   </si>
   <si>
-    <t>BACKGROUND: The 2015 Lancet Commission on global surgery identified surgery and anaesthesia as indispensable parts of holistic health-care systems. However, COVID-19 exposed the fragility of planned surgical services around the world, which have also been neglected in pandemic recovery planning. This study aimed to develop and validate a novel index to support local elective surgical system strengthening and address growing backlogs. METHODS: First, we performed an international consultation through a four-stage consensus process to develop a multidomain index for hospital-level assessment (surgical preparedness index; SPI). Second, we measured surgical preparedness across a global network of hospitals in high-income countries (HICs), middle-income countries (MICs), and low-income countries (LICs) to explore the distribution of the SPI at national, subnational, and hospital levels. Finally, using COVID-19 as an example of an external system shock, we compared hospitals' SPI to their planned surgical volume ratio (SVR; ie, operations for which the decision for surgery was made before hospital admission), calculated as the ratio of the observed surgical volume over a 1-month assessment period between June 6 and Aug 5, 2021, against the expected surgical volume based on hospital administrative data from the same period in 2019 (ie, a pre-pandemic baseline). A linear mixed-effects regression model was used to determine the effect of increasing SPI score. FINDINGS: In the first phase, from a longlist of 103 candidate indicators, 23 were prioritised as core indicators of elective surgical system preparedness by 69 clinicians (23 [33%] women; 46 [67%] men; 41 from HICs, 22 from MICs, and six from LICs) from 32 countries. The multidomain SPI included 11 indicators on facilities and consumables, two on staffing, two on prioritisation, and eight on systems. Hospitals were scored from 23 (least prepared) to 115 points (most prepared). In the second phase, surgical preparedness was measured in 1632 hospitals by 4714 clinicians from 119 countries. 745 (45.6%) of 1632 hospitals were in MICs or LICs. The mean SPI score was 84.5 (95% CI 84.1-84.9), which varied between HIC (88.5 [89.0-88.0]), MIC (81.8 [82.5-81.1]), and LIC (66.8 [64.9-68.7]) settings. In the third phase, 1217 (74.6%) hospitals did not maintain their expected SVR during the COVID-19 pandemic, of which 625 (51.4%) were from HIC, 538 (44.2%) from MIC, and 54 (4.4%) from LIC settings. In the mixed-effects model, a 10-point increase in SPI corresponded to a 3.6% (95% CI 3.0-4.1; p&lt;0.0001) increase in SVR. This was consistent in HIC (4.8% [4.1-5.5]; p&lt;0.0001), MIC (2.8 [2.0-3.7]; p&lt;0.0001), and LIC (3.8 [1.3-6.7%]; p&lt;0.0001) settings. INTERPRETATION: The SPI contains 23 indicators that are globally applicable, relevant across different system stressors, vary at a subnational level, and are collectable by front-line teams. In the case study of COVID-19, a higher SPI was associated with an increased planned surgical volume ratio independent of country income status, COVID-19 burden, and hospital type. Hospitals should perform annual self-assessment of their surgical preparedness to identify areas that can be improved, create resilience in local surgical systems, and upscale capacity to address elective surgery backlogs. FUNDING: National Institute for Health Research (NIHR) Global Health Research Unit on Global Surgery, NIHR Academy, Association of Coloproctology of Great Britain and Ireland, Bowel Research UK, British Association of Surgical Oncology, British Gynaecological Cancer Society, and Medtronic.</t>
-  </si>
-  <si>
     <t>BACKGROUND: The COVID-19 pandemic had a negative impact on cancer services and will have likely led to delayed early detection and diagnosis. In response, the Irish Cancer Society (ICS) planned and delivered seven cancer roadshow events run on 15 days across seven shopping centres in four deprived areas based on Trinity National Deprivation Index, 2016, in Limerick, Cork, Waterford and Dublin regions in Ireland to educate and promote awareness about cancer signs and symptoms, importance of screening, positive lifestyle changes, and encourage medical care-seeking behaviour. METHODS: ICS nurses and trained ICS volunteers conducted health checks such as blood pressure, BMI, and CO(2), monitoring (one health check per person maximum), provided health information and conducted motivational interviews in aforementioned regions. Data were collected via an anonymous questionnaire from participants and volunteers. SPSS was used for descriptive and pre-post event comparative analysis. FINDINGS: 98 people, all adults (54 men and 44 women) participated; 88% (n=86) found the information provided useful, 85% (n=83) approved of the health check and 73% (n=71) stated that they would probably make changes to their current lifestyle to reduce their cancer risk. Moderate or high understanding of cancer signs and symptoms (from 62% to 82%; p&lt;0.0001) and moderate or high awareness of cancer risk factors (from 49% to 61%; p&lt;0.0001) both rose after the events. If symptomatic for cancer, 78% (n=76) of participants would probably visit their general practitioner and 74% (n=72) would probably contact ICS. Younger people (aged &lt;/=40 years) were more likely to consider consulting a health-care professional if symptomatic (p=0.0270) and to contact the ICS (p=0.0070) for more information. High numbers of participants (99%; n=97) and volunteers (95%; n=42) recommended a nationwide roll out. INTERPRETATION: With moderate to high levels of public engagement, volunteers reported people discussed cancer screening, information on making lifestyle changes, and ICS services. Such community outreach programmes to promote cancer-related health are feasible and acceptable and might lead to improved knowledge of cancer prevention, early detection, and improved intention to seek help for health concerns. Determination of effectiveness in preventive behaviour, early diagnosis, and cost effectiveness would require longer term follow up. FUNDING: Irish Cancer Society.</t>
   </si>
   <si>
-    <t>BACKGROUND: Response to the COVID-19 pandemic resulted in the temporary disruption of routine services in the UK National Health Service, including cancer screening. Following the reintroduction of services, we explored the impact on inequalities in uptake of the Bowel Screening Wales (BSW) programme to identify groups who might benefit from tailored intervention. METHODS: BSW records were linked to electronic health record and administrative data within the Secured Anonymised Information Linkage (SAIL) Databank Trusted Research Environment. We examined uptake in the first 3 months (from August to October, 2020) of invitations following the reintroduction of the BSW programme compared with the same period in the preceding 3 years. We analysed inequalities in uptake by sex, age group, income deprivation quintile, urban and rural location, ethnic group, and uptake between different periods using logistic regression models. FINDINGS: Overall uptake remained above the 60% Welsh standard during the COVID-19 pandemic period of 2020-21 but declined compared with the pre-pandemic period of 2019-20 (60.4% vs 62.7%; p&lt;0.001). During the COVID-19 pandemic period of 2020-21, uptake declined for most demographic groups, except for older individuals (70-74 years) and those in the most deprived quintile. Variation by sex, age, income deprivation, and ethnic groups was observed in all periods studied. Among low-uptake groups, including males, younger individuals (60-64 years), those living in most deprived areas, and ethnic minorities, uptake remains below the 60% Welsh standard. INTERPRETATION: Despite the disruption, uptake remained above the Welsh standard and inequalities did not worsen after the programme resumed activities. However, variations associated with sex, age, deprivation, and ethnicity remain. These findings need to be considered in targeting strategies to improve uptake and informed choice in colorectal cancer screening such as co-producing information products with low-uptake groups and upscaling the use of GP-endorsed invitations and reminder letters for bowel screening. FUNDING: Health Data Research UK, UK Medical Research Council, Administrative Data Research UK, and Health and Care Research Wales.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Disparities in treatment and outcomes disproportionately affect minority ethnic and racial populations in many surgical fields. Although substantial research in racial disparities has focused on outcomes, little is known about how surgeon recommendations can be influenced by patient race. The aim of this study was to investigate racial and socioeconomic disparities in the surgical management of primary brain tumors. METHODS: In this registry-based cohort study, we used data from the Surveillance, Epidemiology, and End Results (SEER) database (1975-2016) and the American College of Surgeons National Cancer Database (NCDB) in the USA for independent analysis. Adults (aged &gt;/=20 years) with a new diagnosis of meningioma, glioblastoma, pituitary adenoma, vestibular schwannoma, astrocytoma, and oligodendroglioma, with information on tumour size and surgical recommendation were included in the analysis. The primary outcome of this study was the odds of a surgeon recommending against surgical resection at diagnosis of primary brain neoplasms. This outcome was determined using multivariable logistic regression with clinical, demographic, and socioeconomic factors. FINDINGS: This study included US national data from the SEER (1975-2016) and NCDB (2004-17) databases of adults with a new diagnosis of meningioma (SEER n=63 674; NCDB n=222 673), glioblastoma (n=35 258; n=104 047), pituitary adenoma (n=27 506; n=87 772), vestibular schwannoma (n=11 525; n=30 745), astrocytoma (n=5402; n=10 631), and oligodendroglioma (n=3977; n=9187). Independent of clinical and demographic factors, including insurance status and rural-urban continuum code, Black patients had significantly higher odds of recommendation against surgical resection of meningioma (adjusted odds ratio 1.13, 95% CI 1.06-1.21, p&lt;0.0001), glioblastoma (1.14, 1.01-1.28, p=0.038), pituitary adenoma (1.13, 1.05-1.22, p&lt;0.0001), and vestibular schwannoma (1.48, 1.19-1.84, p&lt;0.0001) when compared with White patients in the SEER dataset. Additionally, patients of unknown race had significantly higher odds of recommendation against surgical resection for pituitary adenoma (1.80, 1.41-2.30, p&lt;0.0001) and vestibular schwannoma (1.49, 1.10-2.04, p=0.011). Performing a validation analysis using the NCDB dataset confirmed these significant results for Black patients with meningioma (1.18, 1.14-1.22, p&lt;0.0001), glioblastoma (1.19, 1.12-1.28, p&lt;0.0001), pituitary adenoma (1.21, 1.16-1.25, p&lt;0.0001), and vestibular schwannoma (1.19, 1.04-1.35, p=0.0085), and indicated and indicated that the findings are independent of patient comorbidities. When further restricted to the most recent decade in SEER, these inequities held true for Black patients, except those with glioblastoma (meningioma [1.18, 1.08-1.28, p&lt;0.0001], pituitary adenoma [1.20, 1.09-1.31, p&lt;0.0001], and vestibular schwannoma [1.54, 1.16-2.04, p=0.0031]). INTERPRETATION: Racial disparities in surgery recommendations in the USA exist for patients with primary brain tumours, independent of potential confounders including clinical, demographic, and select socioeconomic factors. Further studies are needed to understand drivers of this bias and enhance equality in surgical care. FUNDING: None.</t>
   </si>
   <si>
@@ -1636,9 +1375,6 @@
     <t>BACKGROUND: Human papillomavirus (HPV) immunisation with a bivalent vaccine (Cervarix) was introduced in England, UK, in Sept 1, 2008: routine vaccination was offered to girls aged 12-13 years with a catch-up programme for females aged 14-18 years in 2008-10. We quantified the early effect of this immunisation programme on cervical cancer and cervical carcinoma in situ, namely grade 3 cervical intraepithelial neoplasia (CIN3), registrations. METHODS: In this observational study, we used an extension of the age-period-cohort Poisson model to estimate the relative risk of cervical cancer in three vaccinated cohorts compared with earlier cohorts that were not eligible for HPV vaccination. Data from a population-based cancer registry were extracted on Jan 26, 2021, and were assessed for diagnoses of cervical cancer and CIN3 from Jan 1, 2006 to June 30, 2019 in women aged 20-64 years and who were a resident in England. We used three vaccinated cohorts to account for differences in the school year in which the vaccine was offered and its national coverage. Adjustment for confounding was made using information on changes in cervical screening policy and historical events that affected cervical cancer incidence. Results were compared across models with different adjustments for confounders. FINDINGS: We used data from a total of 13.7 million-years of follow-up of women aged 20 years to younger than 30 years. The estimated relative reduction in cervical cancer rates by age at vaccine offer were 34% (95% CI 25-41) for age 16-18 years (school year 12-13), 62% (52-71) for age 14-16 years (school year 10-11), and 87% (72-94) for age 12-13 years (school year 8), compared with the reference unvaccinated cohort. The corresponding risk reductions for CIN3 were 39% (95% CI 36-41) for those offered at age 16-18 years, 75% (72-77) for age 14-16 years, and 97% (96-98) for age 12-13 years. These results remained similar across models. We estimated that by June 30, 2019 there had been 448 (339-556) fewer than expected cervical cancers and 17 235 (15 919-18 552) fewer than expected cases of CIN3 in vaccinated cohorts in England. INTERPRETATION: We observed a substantial reduction in cervical cancer and incidence of CIN3 in young women after the introduction of the HPV immunisation programme in England, especially in individuals who were offered the vaccine at age 12-13 years. The HPV immunisation programme has successfully almost eliminated cervical cancer in women born since Sept 1, 1995. FUNDING: Cancer Research UK.</t>
   </si>
   <si>
-    <t>BACKGROUND: Despite treatment with novel therapies and allogeneic stem-cell transplant (allo-SCT) consolidation, outcomes in adult patients with relapsed or refractory B-precursor acute lymphoblastic leukaemia remain poor, underlining the need for more effective therapies. METHODS: We report the pivotal phase 2 results of ZUMA-3, an international, multicentre, single-arm, open-label study evaluating the efficacy and safety of the autologous anti-CD19 chimeric antigen receptor (CAR) T-cell therapy KTE-X19 in adult patients with relapsed or refractory B-precursor acute lymphoblastic leukaemia. Patients were enrolled at 25 sites in the USA, Canada, and Europe. Eligible patients were aged 18 years or older, with Eastern Cooperative Oncology Group performance status of 0-1, and morphological disease in the bone marrow (&gt;5% blasts). After leukapheresis and conditioning chemotherapy, patients received a single KTE-X19 infusion (1 x 10(6) CAR T cells per kg bodyweight). The primary endpoint was the rate of overall complete remission or complete remission with incomplete haematological recovery by central assessment. Duration of remission and relapse-free survival, overall survival, minimal residual disease (MRD) negativity rate, and allo-SCT rate were assessed as secondary endpoints. Efficacy and safety analyses were done in the treated population (all patients who received a dose of KTE-X19). This study is registered with ClinicalTrials.gov, NCT02614066. FINDINGS: Between Oct 1, 2018, and Oct 9, 2019, 71 patients were enrolled and underwent leukapheresis. KTE-X19 was successfully manufactured for 65 (92%) patients and administered to 55 (77%). The median age of treated patients was 40 years (IQR 28-52). At the median follow-up of 16.4 months (13.8-19.6), 39 patients (71%; 95% CI 57-82, p&lt;0.0001) had complete remission or complete remission with incomplete haematological recovery, with 31 (56%) patients reaching complete remission. Median duration of remission was 12.8 months (95% CI 8.7-not estimable), median relapse-free survival was 11.6 months (2.7-15.5), and median overall survival was 18.2 months (15.9-not estimable). Among responders, the median overall survival was not reached, and 38 (97%) patients had MRD negativity. Ten (18%) patients received allo-SCT consolidation after KTE-X19 infusion. The most common adverse events of grade 3 or higher were anaemia (27 [49%] patients) and pyrexia (20 [36%] patients). 14 (25%) patients had infections of grade 3 or higher. Two grade 5 KTE-X19-related events occurred (brain herniation and septic shock). Cytokine release syndrome of grade 3 or higher occurred in 13 (24%) patients and neurological events of grade 3 or higher occurred in 14 (25%) patients. INTERPRETATION: KTE-X19 showed a high rate of complete remission or complete remission with incomplete haematological recovery in adult patients with relapsed or refractory B-precursor acute lymphoblastic leukaemia, with the median overall survival not reached in responding patients, and a manageable safety profile. These findings indicate that KTE-X19 has the potential to confer long-term clinical benefit to these patients. FUNDING: Kite, a Gilead Company.</t>
-  </si>
-  <si>
     <t>BACKGROUND: Lisocabtagene maraleucel (liso-cel) is an autologous, CD19-directed, chimeric antigen receptor (CAR) T-cell product. We aimed to assess the activity and safety of liso-cel in patients with relapsed or refractory large B-cell lymphomas. METHODS: We did a seamless design study at 14 cancer centres in the USA. We enrolled adult patients (aged &gt;/=18 years) with relapsed or refractory large B-cell lymphomas. Eligible histological subgroups included diffuse large B-cell lymphoma, high-grade B-cell lymphoma with rearrangements of MYC and either BCL2, BCL6, or both (double-hit or triple-hit lymphoma), diffuse large B-cell lymphoma transformed from any indolent lymphoma, primary mediastinal B-cell lymphoma, and follicular lymphoma grade 3B. Patients were assigned to one of three target dose levels of liso-cel as they were sequentially tested in the trial (50 x 10(6) CAR(+) T cells [one or two doses], 100 x 10(6) CAR(+) T cells, and 150 x 10(6) CAR(+) T cells), which were administered as a sequential infusion of two components (CD8(+) and CD4(+) CAR(+) T cells) at equal target doses. Primary endpoints were adverse events, dose-limiting toxicities, and the objective response rate (assessed per Lugano criteria); endpoints were assessed by an independent review committee in the efficacy-evaluable set (comprising all patients who had confirmed PET-positive disease and received at least one dose of liso-cel). This trial is registered with ClinicalTrials.gov, NCT02631044. FINDINGS: Between Jan 11, 2016, and July 5, 2019, 344 patients underwent leukapheresis for manufacture of CAR(+) T cells (liso-cel), of whom 269 patients received at least one dose of liso-cel. Patients had received a median of three (range 1-8) previous lines of systemic treatment, with 260 (97%) patients having had at least two lines. 112 (42%) patients were aged 65 years or older, 181 (67%) had chemotherapy-refractory disease, and seven (3%) had secondary CNS involvement. Median follow-up for overall survival for all 344 patients who had leukapheresis was 18.8 months (95% CI 15.0-19.3). Overall safety and activity of liso-cel did not differ by dose level. The recommended target dose was 100 x 10(6) CAR(+) T cells (50 x 10(6) CD8(+) and 50 x 10(6) CD4(+) CAR(+) T cells). Of 256 patients included in the efficacy-evaluable set, an objective response was achieved by 186 (73%, 95% CI 66.8-78.0) patients and a complete response by 136 (53%, 46.8-59.4). The most common grade 3 or worse adverse events were neutropenia in 161 (60%) patients, anaemia in 101 (37%), and thrombocytopenia in 72 (27%). Cytokine release syndrome and neurological events occurred in 113 (42%) and 80 (30%) patients, respectively; grade 3 or worse cytokine release syndrome and neurological events occurred in six (2%) and 27 (10%) patients, respectively. Nine (6%) patients had a dose-limiting toxicity, including one patient who died from diffuse alveolar damage following a dose of 50 x 10(6) CAR(+) T cells. INTERPRETATION: Use of liso-cel resulted in a high objective response rate, with a low incidence of grade 3 or worse cytokine release syndrome and neurological events in patients with relapsed or refractory large B-cell lymphomas, including those with diverse histological subtypes and high-risk features. Liso-cel is under further evaluation at first relapse in large B-cell lymphomas and as a treatment for other relapsed or refractory B-cell malignancies. FUNDING: Juno Therapeutics, a Bristol-Myers Squibb Company.</t>
   </si>
   <si>
@@ -1705,15 +1441,9 @@
     <t>BACKGROUND: Cell-free DNA (cfDNA) sequence analysis to screen for fetal aneuploidy can incidentally detect maternal cancer. Additional data are needed to identify DNA-sequencing patterns and other biomarkers that can identify pregnant persons who are most likely to have cancer and to determine the best approach for follow-up. METHODS: In this ongoing study we performed cancer screening in pregnant or postpartum persons who did not perceive signs or symptoms of cancer but received unusual clinical cfDNA-sequencing results or results that were nonreportable (i.e., the fetal aneuploidy status could not be assessed) from one of 12 different commercial laboratories in North America. We used a uniform cancer-screening protocol including rapid whole-body magnetic resonance imaging (MRI), laboratory tests, and standardized cfDNA sequencing for research purposes with the use of a genomewide platform. The primary outcome was the presence of cancer in participants after the initial cancer-screening evaluation. Secondary analyses included test performance. RESULTS: Cancer was present in 52 of the 107 participants in the initial cohort (48.6%). The sensitivity and specificity of whole-body MRI in detecting occult cancer were 98.0% and 88.5%, respectively. Physical examination and laboratory tests were of limited use in identifying participants with cancer. Research sequencing showed that 49 participants had a combination of copy-number gains and losses across multiple (&gt;/=3) chromosomes; cancer was present in 47 of the participants (95.9%) with this sequencing pattern. Sequencing patterns of cfDNA in which there were only chromosomal gains (multiple trisomies) or only chromosomal losses (one or more monosomies) were found in participants with nonmalignant conditions, such as fibroids. CONCLUSIONS: In this study, 48.6% of participants who received unusual or nonreportable clinical cfDNA-sequencing results had an occult cancer. Further study of DNA-sequencing patterns that are suggestive of occult cancer during prenatal screening is warranted. (Funded by the NIH Intramural Research Programs; ClinicalTrials.gov number, NCT04049604.).</t>
   </si>
   <si>
-    <t>BACKGROUND: Patients with relapsed or refractory hematologic cancers have a poor prognosis. Chimeric antigen receptor (CAR) T-cell therapy as a bridge to allogeneic hematopoietic stem-cell transplantation (HSCT) has the potential for long-term tumor elimination. However, pre-HSCT myeloablation and graft-versus-host disease (GVHD) prophylaxis agents have toxic effects and could eradicate residual CAR T cells and compromise antitumor effects. Whether the integration of CAR T-cell therapy and allogeneic HSCT can preserve CAR T-cell function and improve tumor control is unclear. METHODS: We tested a novel "all-in-one" strategy consisting of sequential CD7 CAR T-cell therapy and haploidentical HSCT in 10 patients with relapsed or refractory CD7-positive leukemia or lymphoma. After CAR T-cell therapy led to complete remission with incomplete hematologic recovery, patients received haploidentical HSCT without pharmacologic myeloablation or GVHD prophylaxis drugs. Toxic effects and efficacy were closely monitored. RESULTS: After CAR T-cell therapy, all 10 patients had complete remission with incomplete hematologic recovery and grade 4 pancytopenia. After haploidentical HSCT, 1 patient died on day 13 of septic shock and encephalitis, 8 patients had full donor chimerism, and 1 patient had autologous hematopoiesis. Three patients had grade 2 HSCT-associated acute GVHD. The median follow-up was 15.1 months (range, 3.1 to 24.0) after CAR T-cell therapy. Six patients remained in minimal residual disease-negative complete remission, 2 had a relapse of CD7-negative leukemia, and 1 died of septic shock at 3.7 months. The estimated 1-year overall survival was 68% (95% confidence interval [CI], 43 to 100), and the estimated 1-year disease-free survival was 54% (95% CI, 29 to 100). CONCLUSIONS: Our findings suggest that sequential CD7 CAR T-cell therapy and haploidentical HSCT is safe and effective, with remission and serious but reversible adverse events. This strategy offers a feasible approach for patients with CD7-positive tumors who are ineligible for conventional allogeneic HSCT. (Funded by the National Natural Science Foundation of China and the Key Project of Science and Technology Department of Zhejiang Province; ClinicalTrials.gov numbers, NCT04599556 and NCT04538599.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Alveolar soft part sarcoma (ASPS) is a rare soft-tissue sarcoma with a poor prognosis and no established therapy. Recently, encouraging responses to immune checkpoint inhibitors have been reported. METHODS: We conducted an investigator-initiated, multicenter, single-group, phase 2 study of the anti-programmed death ligand 1 (PD-L1) agent atezolizumab in adult and pediatric patients with advanced ASPS. Atezolizumab was administered intravenously at a dose of 1200 mg (in patients &gt;/=18 years of age) or 15 mg per kilogram of body weight with a 1200-mg cap (in patients &lt;18 years of age) once every 21 days. Study end points included objective response, duration of response, and progression-free survival according to Response Evaluation Criteria in Solid Tumors (RECIST), version 1.1, as well as pharmacodynamic biomarkers of multistep drug action. RESULTS: A total of 52 patients were evaluated. An objective response was observed in 19 of 52 patients (37%), with 1 complete response and 18 partial responses. The median time to response was 3.6 months (range, 2.1 to 19.1), the median duration of response was 24.7 months (range, 4.1 to 55.8), and the median progression-free survival was 20.8 months. Seven patients took a treatment break after 2 years of treatment, and their responses were maintained through the data-cutoff date. No treatment-related grade 4 or 5 adverse events were recorded. Responses were noted despite variable baseline expression of programmed death 1 and PD-L1. CONCLUSIONS: Atezolizumab was effective at inducing sustained responses in approximately one third of patients with advanced ASPS. (Funded by the National Cancer Institute and others; ClinicalTrials.gov number, NCT03141684.).</t>
   </si>
   <si>
-    <t>BACKGROUND: In 2021, the American College of Medical Genetics and Genomics (ACMG) recommended reporting actionable genotypes in 73 genes associated with diseases for which preventive or therapeutic measures are available. Evaluations of the association of actionable genotypes in these genes with life span are currently lacking. METHODS: We assessed the prevalence of coding and splice variants in genes on the ACMG Secondary Findings, version 3.0 (ACMG SF v3.0), list in the genomes of 57,933 Icelanders. We assigned pathogenicity to all reviewed variants using reported evidence in the ClinVar database, the frequency of variants, and their associations with disease to create a manually curated set of actionable genotypes (variants). We assessed the relationship between these genotypes and life span and further examined the specific causes of death among carriers. RESULTS: Through manual curation of 4405 sequence variants in the ACMG SF v3.0 genes, we identified 235 actionable genotypes in 53 genes. Of the 57,933 participants, 2306 (4.0%) carried at least one actionable genotype. We found shorter median survival among persons carrying actionable genotypes than among noncarriers. Specifically, we found that carrying an actionable genotype in a cancer gene was associated with survival that was 3 years shorter than that among noncarriers, with causes of death among carriers attributed primarily to cancer-related conditions. Furthermore, we found evidence of association between carrying an actionable genotype in certain genes in the cardiovascular disease group and a reduced life span. CONCLUSIONS: On the basis of the ACMG SF v3.0 guidelines, we found that approximately 1 in 25 Icelanders carried an actionable genotype and that carrying such a genotype was associated with a reduced life span. (Funded by deCODE Genetics-Amgen.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Tarlatamab, a bispecific T-cell engager immunotherapy targeting delta-like ligand 3 and CD3, showed promising antitumor activity in a phase 1 trial in patients with previously treated small-cell lung cancer. METHODS: In this phase 2 trial, we evaluated the antitumor activity and safety of tarlatamab, administered intravenously every 2 weeks at a dose of 10 mg or 100 mg, in patients with previously treated small-cell lung cancer. The primary end point was objective response (complete or partial response), as assessed by blinded independent central review according to the Response Evaluation Criteria in Solid Tumors, version 1.1. RESULTS: Overall, 220 patients received tarlatamab; patients had previously received a median of two lines of treatment. Among patients evaluated for antitumor activity and survival, the median follow-up was 10.6 months in the 10-mg group and 10.3 months in the 100-mg group. An objective response occurred in 40% (97.5% confidence interval [CI], 29 to 52) of the patients in the 10-mg group and in 32% (97.5% CI, 21 to 44) of those in the 100-mg group. Among patients with an objective response, the duration of response was at least 6 months in 59% (40 of 68 patients). Objective responses at the time of data cutoff were ongoing in 22 of 40 patients (55%) in the 10-mg group and in 16 of 28 patients (57%) in the 100-mg group. The median progression-free survival was 4.9 months (95% CI, 2.9 to 6.7) in the 10-mg group and 3.9 months (95% CI, 2.6 to 4.4) in the 100-mg group; the estimates of overall survival at 9 months were 68% and 66% of patients, respectively. The most common adverse events were cytokine-release syndrome (in 51% of the patients in the 10-mg group and in 61% of those in the 100-mg group), decreased appetite (in 29% and 44%, respectively), and pyrexia (in 35% and 33%). Cytokine-release syndrome occurred primarily during treatment cycle 1, and events in most of the patients were grade 1 or 2 in severity. Grade 3 cytokine-release syndrome occurred less frequently in the 10-mg group (in 1% of the patients) than in the 100-mg group (in 6%). A low percentage of patients (3%) discontinued tarlatamab because of treatment-related adverse events. CONCLUSIONS: Tarlatamab, administered as a 10-mg dose every 2 weeks, showed antitumor activity with durable objective responses and promising survival outcomes in patients with previously treated small-cell lung cancer. No new safety signals were identified. (Funded by Amgen; DeLLphi-301 ClinicalTrials.gov number, NCT05060016.).</t>
   </si>
   <si>
@@ -1726,15 +1456,9 @@
     <t>BACKGROUND: By the end of 2022, nearly 20 million workers in the United States have gained paid-sick-leave coverage from mandates that require employers to provide benefits to qualified workers, including paid time off for the use of preventive services. Although the lack of paid-sick-leave coverage may hinder access to preventive care, current evidence is insufficient to draw meaningful conclusions about its relationship to cancer screening. METHODS: We examined the association between paid-sick-leave mandates and screening for breast and colorectal cancers by comparing changes in 12- and 24-month rates of colorectal-cancer screening and mammography between workers residing in metropolitan statistical areas (MSAs) that have been affected by paid-sick-leave mandates (exposed MSAs) and workers residing in unexposed MSAs. The comparisons were conducted with the use of administrative medical-claims data for approximately 2 million private-sector employees from 2012 through 2019. RESULTS: Paid-sick-leave mandates were present in 61 MSAs in our sample. Screening rates were similar in the exposed and unexposed MSAs before mandate adoption. In the adjusted analysis, cancer-screening rates were higher among workers residing in exposed MSAs than among those in unexposed MSAs by 1.31 percentage points (95% confidence interval [CI], 0.28 to 2.34) for 12-month colorectal cancer screening, 1.56 percentage points (95% CI, 0.33 to 2.79) for 24-month colorectal cancer screening, 1.22 percentage points (95% CI, -0.20 to 2.64) for 12-month mammography, and 2.07 percentage points (95% CI, 0.15 to 3.99) for 24-month mammography. CONCLUSIONS: In a sample of private-sector workers in the United States, cancer-screening rates were higher among those residing in MSAs exposed to paid-sick-leave mandates than among those residing in unexposed MSAs. Our results suggest that a lack of paid-sick-leave coverage presents a barrier to cancer screening. (Funded by the National Cancer Institute.).</t>
   </si>
   <si>
-    <t>BACKGROUND: Telomere shortening is a well-characterized cellular aging mechanism, and short telomere syndromes cause age-related disease. However, whether long telomere length is advantageous is poorly understood. METHODS: We examined the clinical and molecular features of aging and cancer in persons carrying heterozygous loss-of-function mutations in the telomere-related gene POT1 and noncarrier relatives. RESULTS: A total of 17 POT1 mutation carriers and 21 noncarrier relatives were initially included in the study, and a validation cohort of 6 additional mutation carriers was subsequently recruited. A majority of the POT1 mutation carriers with telomere length evaluated (9 of 13) had long telomeres (&gt;99th percentile). POT1 mutation carriers had a range of benign and malignant neoplasms involving epithelial, mesenchymal, and neuronal tissues in addition to B- and T-cell lymphoma and myeloid cancers. Five of 18 POT1 mutation carriers (28%) had T-cell clonality, and 8 of 12 (67%) had clonal hematopoiesis of indeterminate potential. A predisposition to clonal hematopoiesis had an autosomal dominant pattern of inheritance, as well as penetrance that increased with age; somatic DNMT3A and JAK2 hotspot mutations were common. These and other somatic driver mutations probably arose in the first decades of life, and their lineages secondarily accumulated a higher mutation burden characterized by a clocklike signature. Successive generations showed genetic anticipation (i.e., an increasingly early onset of disease). In contrast to noncarrier relatives, who had the typical telomere shortening with age, POT1 mutation carriers maintained telomere length over the course of 2 years. CONCLUSIONS: POT1 mutations associated with long telomere length conferred a predisposition to a familial clonal hematopoiesis syndrome that was associated with a range of benign and malignant solid neoplasms. The risk of these phenotypes was mediated by extended cellular longevity and by the capacity to maintain telomeres over time. (Funded by the National Institutes of Health and others.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Patients with chronic lymphocytic leukemia (CLL) or small lymphocytic lymphoma (SLL) have poor outcomes after the failure of covalent Bruton's tyrosine kinase (BTK) inhibitor treatment, and new therapeutic options are needed. Pirtobrutinib, a highly selective, noncovalent (reversible) BTK inhibitor, was designed to reestablish BTK inhibition. METHODS: We conducted a phase 1-2 trial in which patients with relapsed or refractory B-cell cancers received pirtobrutinib. Here, we report efficacy results among patients with CLL or SLL who had previously received a BTK inhibitor as well as safety results among all the patients with CLL or SLL. The primary end point was an overall response (partial response or better) as assessed by independent review. Secondary end points included progression-free survival and safety. RESULTS: A total of 317 patients with CLL or SLL received pirtobrutinib, including 247 who had previously received a BTK inhibitor. Among these 247 patients, the median number of previous lines of therapy was 3 (range, 1 to 11), and 100 patients (40.5%) had also received a B-cell lymphoma 2 (BCL2) inhibitor such as venetoclax. The percentage of patients with an overall response to pirtobrutinib was 73.3% (95% confidence interval [CI], 67.3 to 78.7), and the percentage was 82.2% (95% CI, 76.8 to 86.7) when partial response with lymphocytosis was included. The median progression-free survival was 19.6 months (95% CI, 16.9 to 22.1). Among all 317 patients with CLL or SLL who received pirtobrutinib, the most common adverse events were infections (in 71.0%), bleeding (in 42.6%), and neutropenia (in 32.5%). At a median duration of treatment of 16.5 months (range, 0.2 to 39.9), some adverse events that are typically associated with BTK inhibitors occurred relatively infrequently, including hypertension (in 14.2% of patients), atrial fibrillation or flutter (in 3.8%), and major hemorrhage (in 2.2%). Only 9 of 317 patients (2.8%) discontinued pirtobrutinib owing to a treatment-related adverse event. CONCLUSIONS: In this trial, pirtobrutinib showed efficacy in patients with heavily pretreated CLL or SLL who had received a covalent BTK inhibitor. The most common adverse events were infections, bleeding, and neutropenia. (Funded by Loxo Oncology; BRUIN ClinicalTrials.gov number, NCT03740529.).</t>
   </si>
   <si>
-    <t>BACKGROUND: Craniopharyngiomas, primary brain tumors of the pituitary-hypothalamic axis, can cause clinically significant sequelae. Treatment with the use of surgery, radiation, or both is often associated with substantial morbidity related to vision loss, neuroendocrine dysfunction, and memory loss. Genotyping has shown that more than 90% of papillary craniopharyngiomas carry BRAF V600E mutations, but data are lacking with regard to the safety and efficacy of BRAF-MEK inhibition in patients with papillary craniopharyngiomas who have not undergone previous radiation therapy. METHODS: Eligible patients who had papillary craniopharyngiomas that tested positive for BRAF mutations, had not undergone radiation therapy previously, and had measurable disease received the BRAF-MEK inhibitor combination vemurafenib-cobimetinib in 28-day cycles. The primary end point of this single-group, phase 2 study was objective response at 4 months as determined with the use of centrally determined volumetric data. RESULTS: Of the 16 patients in the study, 15 (94%; 95% confidence interval [CI], 70 to 100) had a durable objective partial response or better to therapy. The median reduction in the volume of the tumor was 91% (range, 68 to 99). The median follow-up was 22 months (95% CI, 19 to 30) and the median number of treatment cycles was 8. Progression-free survival was 87% (95% CI, 57 to 98) at 12 months and 58% (95% CI, 10 to 89) at 24 months. Three patients had disease progression during follow-up after therapy had been discontinued; none have died. The sole patient who did not have a response stopped treatment after 8 days owing to toxic effects. Grade 3 adverse events that were at least possibly related to treatment occurred in 12 patients, including rash in 6 patients. In 2 patients, grade 4 adverse events (hyperglycemia in 1 patient and increased creatine kinase levels in 1 patient) were reported; 3 patients discontinued treatment owing to adverse events. CONCLUSIONS: In this small, single-group study involving patients with papillary craniopharyngiomas, 15 of 16 patients had a partial response or better to the BRAF-MEK inhibitor combination vemurafenib-cobimetinib. (Funded by the National Cancer Institute and others; ClinicalTrials.gov number, NCT03224767.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Adagrasib, an oral small-molecule inhibitor of mutant KRAS G12C protein, has shown clinical activity in pretreated patients with several tumor types, including colorectal cancer. Preclinical studies suggest that combining a KRAS G12C inhibitor with an epidermal growth factor receptor antibody could be an effective clinical strategy. METHODS: In this phase 1-2, open-label, nonrandomized clinical trial, we assigned heavily pretreated patients with metastatic colorectal cancer with mutant KRAS G12C to receive adagrasib monotherapy (600 mg orally twice daily) or adagrasib (at the same dose) in combination with intravenous cetuximab once a week (with an initial loading dose of 400 mg per square meter of body-surface area, followed by a dose of 250 mg per square meter) or every 2 weeks (with a dose of 500 mg per square meter). The primary end points were objective response (complete or partial response) and safety. RESULTS: As of June 16, 2022, a total of 44 patients had received adagrasib, and 32 had received combination therapy with adagrasib and cetuximab, with a median follow-up of 20.1 months and 17.5 months, respectively. In the monotherapy group (43 evaluable patients), a response was reported in 19% of the patients (95% confidence interval [CI], 8 to 33). The median response duration was 4.3 months (95% CI, 2.3 to 8.3), and the median progression-free survival was 5.6 months (95% CI, 4.1 to 8.3). In the combination-therapy group (28 evaluable patients), the response was 46% (95% CI, 28 to 66). The median response duration was 7.6 months (95% CI, 5.7 to not estimable), and the median progression-free survival was 6.9 months (95% CI, 5.4 to 8.1). The percentage of grade 3 or 4 treatment-related adverse events was 34% in the monotherapy group and 16% in the combination-therapy group. No grade 5 adverse events were observed. CONCLUSIONS: Adagrasib had antitumor activity in heavily pretreated patients with metastatic colorectal cancer with mutant KRAS G12C, both as oral monotherapy and in combination with cetuximab. The median response duration was more than 6 months in the combination-therapy group. Reversible adverse events were common in the two groups. (Funded by Mirati Therapeutics; KRYSTAL-1 ClinicalTrials.gov number, NCT03785249.).</t>
   </si>
   <si>
@@ -1747,9 +1471,6 @@
     <t>BACKGROUND: Population screening of asymptomatic persons with Epstein-Barr virus (EBV) DNA or antibodies has improved the diagnosis of nasopharyngeal carcinoma and survival among affected persons. However, the positive predictive value of current screening strategies is unsatisfactory even in areas where nasopharyngeal carcinoma is endemic. METHODS: We designed a peptide library representing highly ranked B-cell epitopes of EBV coding sequences to identify novel serologic biomarkers for nasopharyngeal carcinoma. After a retrospective case-control study, the performance of the novel biomarker anti-BNLF2b total antibody (P85-Ab) was validated through a large-scale prospective screening program and compared with that of the standard two-antibody-based screening method (EBV nuclear antigen 1 [EBNA1]-IgA and EBV-specific viral capsid antigen [VCA]-IgA). RESULTS: P85-Ab was the most promising biomarker for nasopharyngeal carcinoma screening, with high sensitivity (94.4%; 95% confidence interval [CI], 86.4 to 97.8) and specificity (99.6%; 95% CI, 97.8 to 99.9) in the retrospective case-control study. Among the 24,852 eligible participants in the prospective cohort, 47 cases of nasopharyngeal carcinoma (38 at an early stage) were identified. P85-Ab showed higher sensitivity than the two-antibody method (97.9% vs. 72.3%; ratio, 1.4 [95% CI, 1.1 to 1.6]), higher specificity (98.3% vs. 97.0%; ratio, 1.01 [95% CI, 1.01 to 1.02]), and a higher positive predictive value (10.0% vs. 4.3%; ratio, 2.3 [95% CI, 1.8 to 2.8]). The combination of P85-Ab and the two-antibody method markedly increased the positive predictive value to 44.6% (95% CI, 33.8 to 55.9), with sensitivity of 70.2% (95% CI, 56.0 to 81.4). CONCLUSIONS: Our results suggest that P85-Ab is a promising novel biomarker for nasopharyngeal carcinoma screening, with higher sensitivity, specificity, and positive predictive value than the standard two-antibody method. (Funded by the National Key Research and Development Program of China and others; ClinicalTrials.gov number, NCT04085900.).</t>
   </si>
   <si>
-    <t>BACKGROUND: The function of the thymus in human adults is unclear, and routine removal of the thymus is performed in a variety of surgical procedures. We hypothesized that the adult thymus is needed to sustain immune competence and overall health. METHODS: We evaluated the risk of death, cancer, and autoimmune disease among adult patients who had undergone thymectomy as compared with demographically matched controls who had undergone similar cardiothoracic surgery without thymectomy. T-cell production and plasma cytokine levels were also compared in a subgroup of patients. RESULTS: After exclusions, 1420 patients who had undergone thymectomy and 6021 controls were included in the study; 1146 of the patients who had undergone thymectomy had a matched control and were included in the primary cohort. At 5 years after surgery, all-cause mortality was higher in the thymectomy group than in the control group (8.1% vs. 2.8%; relative risk, 2.9; 95% confidence interval [CI], 1.7 to 4.8), as was the risk of cancer (7.4% vs. 3.7%; relative risk, 2.0; 95% CI, 1.3 to 3.2). Although the risk of autoimmune disease did not differ substantially between the groups in the overall primary cohort (relative risk, 1.1; 95% CI, 0.8 to 1.4), a difference was found when patients with preoperative infection, cancer, or autoimmune disease were excluded from the analysis (12.3% vs. 7.9%; relative risk, 1.5; 95% CI, 1.02 to 2.2). In an analysis involving all patients with more than 5 years of follow-up (with or without a matched control), all-cause mortality was higher in the thymectomy group than in the general U.S. population (9.0% vs. 5.2%), as was mortality due to cancer (2.3% vs. 1.5%). In the subgroup of patients in whom T-cell production and plasma cytokine levels were measured (22 in the thymectomy group and 19 in the control group; mean follow-up, 14.2 postoperative years), those who had undergone thymectomy had less new production of CD4+ and CD8+ lymphocytes than controls (mean CD4+ signal joint T-cell receptor excision circle [sjTREC] count, 1451 vs. 526 per microgram of DNA [P = 0.009]; mean CD8+ sjTREC count, 1466 vs. 447 per microgram of DNA [P&lt;0.001]) and higher levels of proinflammatory cytokines in the blood. CONCLUSIONS: In this study, all-cause mortality and the risk of cancer were higher among patients who had undergone thymectomy than among controls. Thymectomy also appeared be associated with an increased risk of autoimmune disease when patients with preoperative infection, cancer, or autoimmune disease were excluded from the analysis. (Funded by the Tracey and Craig A. Huff Harvard Stem Cell Institute Research Support Fund and others.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Divarasib (GDC-6036) is a covalent KRAS G12C inhibitor that was designed to have high potency and selectivity. METHODS: In a phase 1 study, we evaluated divarasib administered orally once daily (at doses ranging from 50 to 400 mg) in patients who had advanced or metastatic solid tumors that harbor a KRAS G12C mutation. The primary objective was an assessment of safety; pharmacokinetics, investigator-evaluated antitumor activity, and biomarkers of response and resistance were also assessed. RESULTS: A total of 137 patients (60 with non-small-cell lung cancer [NSCLC], 55 with colorectal cancer, and 22 with other solid tumors) received divarasib. No dose-limiting toxic effects or treatment-related deaths were reported. Treatment-related adverse events occurred in 127 patients (93%); grade 3 events occurred in 15 patients (11%) and a grade 4 event in 1 patient (1%). Treatment-related adverse events resulted in a dose reduction in 19 patients (14%) and discontinuation of treatment in 4 patients (3%). Among patients with NSCLC, a confirmed response was observed in 53.4% of patients (95% confidence interval [CI], 39.9 to 66.7), and the median progression-free survival was 13.1 months (95% CI, 8.8 to could not be estimated). Among patients with colorectal cancer, a confirmed response was observed in 29.1% of patients (95% CI, 17.6 to 42.9), and the median progression-free survival was 5.6 months (95% CI, 4.1 to 8.2). Responses were also observed in patients with other solid tumors. Serial assessment of circulating tumor DNA showed declines in KRAS G12C variant allele frequency associated with response and identified genomic alterations that may confer resistance to divarasib. CONCLUSIONS: Treatment with divarasib resulted in durable clinical responses across KRAS G12C-positive tumors, with mostly low-grade adverse events. (Funded by Genentech; ClinicalTrials.gov number, NCT04449874.).</t>
   </si>
   <si>
@@ -1762,9 +1483,6 @@
     <t>BACKGROUND: In a pilot study involving patients with cutaneous squamous-cell carcinoma, a high percentage of patients had a pathological complete response with the use of two doses of neoadjuvant cemiplimab before surgery. Data from a phase 2 study are needed to confirm these findings. METHODS: We conducted a phase 2, confirmatory, multicenter, nonrandomized study to evaluate cemiplimab as neoadjuvant therapy in patients with resectable stage II, III, or IV (M0) cutaneous squamous-cell carcinoma. Patients received cemiplimab, administered at a dose of 350 mg every 3 weeks for up to four doses, before undergoing surgery with curative intent. The primary end point was a pathological complete response (the absence of viable tumor cells in the surgical specimen) on independent review at a central laboratory, with a null hypothesis that a pathological complete response would be observed in 25% of patients. Key secondary end points included a pathological major response (the presence of viable tumor cells that constitute &lt;/=10% of the surgical specimen) on independent review, a pathological complete response and a pathological major response on investigator assessment at a local laboratory, an objective response on imaging, and adverse events. RESULTS: A total of 79 patients were enrolled and received neoadjuvant cemiplimab. On independent review, a pathological complete response was observed in 40 patients (51%; 95% confidence interval [CI], 39 to 62) and a pathological major response in 10 patients (13%; 95% CI, 6 to 22). These results were consistent with the pathological responses determined on investigator assessment. An objective response on imaging was observed in 54 patients (68%; 95% CI, 57 to 78). Adverse events of any grade that occurred during the study period, regardless of whether they were attributed to the study treatment, were observed in 69 patients (87%). Grade 3 or higher adverse events that occurred during the study period were observed in 14 patients (18%). CONCLUSIONS: Neoadjuvant therapy with cemiplimab was associated with a pathological complete response in a high percentage of patients with resectable cutaneous squamous-cell carcinoma. (Funded by Regeneron Pharmaceuticals and Sanofi; ClinicalTrials.gov number, NCT04154943.).</t>
   </si>
   <si>
-    <t>BACKGROUND: Although hypomethylating agents are currently used to treat patients with cancer, whether they can also reactivate and up-regulate oncogenes is not well elucidated. METHODS: We examined the effect of hypomethylating agents on SALL4, a known oncogene that plays an important role in myelodysplastic syndrome and other cancers. Paired bone marrow samples that were obtained from two cohorts of patients with myelodysplastic syndrome before and after treatment with a hypomethylating agent were used to explore the relationships among changes in SALL4 expression, treatment response, and clinical outcome. Leukemic cell lines with low or undetectable SALL4 expression were used to study the relationship between SALL4 methylation and expression. A locus-specific demethylation technology, CRISPR-DNMT1-interacting RNA (CRISPR-DiR), was used to identify the CpG island that is critical for SALL4 expression. RESULTS: SALL4 up-regulation after treatment with hypomethylating agents was observed in 10 of 25 patients (40%) in cohort 1 and in 13 of 43 patients (30%) in cohort 2 and was associated with a worse outcome. Using CRISPR-DiR, we discovered that demethylation of a CpG island within the 5' untranslated region was critical for SALL4 expression. In cell lines and patients, we confirmed that treatment with a hypomethylating agent led to demethylation of the same CpG region and up-regulation of SALL4 expression. CONCLUSIONS: By combining analysis of patient samples with CRISPR-DiR technology, we found that demethylation and up-regulation of an oncogene after treatment with a hypomethylating agent can indeed occur and should be further studied. (Funded by Associazione Italiana per la Ricerca sul Cancro and others.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Pediatric patients with diffuse intrinsic pontine glioma (DIPG) have a poor prognosis, with a median survival of less than 1 year. Oncolytic viral therapy has been evaluated in patients with pediatric gliomas elsewhere in the brain, but data regarding oncolytic viral therapy in patients with DIPG are lacking. METHODS: We conducted a single-center, dose-escalation study of DNX-2401, an oncolytic adenovirus that selectively replicates in tumor cells, in patients with newly diagnosed DIPG. The patients received a single virus infusion through a catheter placed in the cerebellar peduncle, followed by radiotherapy. The primary objective was to assess the safety and adverse-event profile of DNX-2401. The secondary objectives were to evaluate the effect of DNX-2401 on overall survival and quality of life, to determine the percentage of patients who have an objective response, and to collect tumor-biopsy and peripheral-blood samples for correlative studies of the molecular features of DIPG and antitumor immune responses. RESULTS: A total of 12 patients, 3 to 18 years of age, with newly diagnosed DIPG received 1x10(10) (the first 4 patients) or 5x10(10) (the subsequent 8 patients) viral particles of DNX-2401, and 11 received subsequent radiotherapy. Adverse events among the patients included headache, nausea, vomiting, and fatigue. Hemiparesis and tetraparesis developed in 1 patient each. Over a median follow-up of 17.8 months (range, 5.9 to 33.5), a reduction in tumor size, as assessed on magnetic resonance imaging, was reported in 9 patients, a partial response in 3 patients, and stable disease in 8 patients. The median survival was 17.8 months. Two patients were alive at the time of preparation of the current report, 1 of whom was free of tumor progression at 38 months. Examination of a tumor sample obtained during autopsy from 1 patient and peripheral-blood studies revealed alteration of the tumor microenvironment and T-cell repertoire. CONCLUSIONS: Intratumoral infusion of oncolytic virus DNX-2401 followed by radiotherapy in pediatric patients with DIPG resulted in changes in T-cell activity and a reduction in or stabilization of tumor size in some patients but was associated with adverse events. (Funded by the European Research Council under the European Union's Horizon 2020 Research and Innovation Program and others; EudraCT number, 2016-001577-33; ClinicalTrials.gov number, NCT03178032.).</t>
   </si>
   <si>
@@ -1795,9 +1513,6 @@
     <t>BACKGROUND: Sotorasib showed anticancer activity in patients with KRAS p.G12C-mutated advanced solid tumors in a phase 1 study, and particularly promising anticancer activity was observed in a subgroup of patients with non-small-cell lung cancer (NSCLC). METHODS: In a single-group, phase 2 trial, we investigated the activity of sotorasib, administered orally at a dose of 960 mg once daily, in patients with KRAS p.G12C-mutated advanced NSCLC previously treated with standard therapies. The primary end point was objective response (complete or partial response) according to independent central review. Key secondary end points included duration of response, disease control (defined as complete response, partial response, or stable disease), progression-free survival, overall survival, and safety. Exploratory biomarkers were evaluated for their association with response to sotorasib therapy. RESULTS: Among the 126 enrolled patients, the majority (81.0%) had previously received both platinum-based chemotherapy and inhibitors of programmed death 1 (PD-1) or programmed death ligand 1 (PD-L1). According to central review, 124 patients had measurable disease at baseline and were evaluated for response. An objective response was observed in 46 patients (37.1%; 95% confidence interval [CI], 28.6 to 46.2), including in 4 (3.2%) who had a complete response and in 42 (33.9%) who had a partial response. The median duration of response was 11.1 months (95% CI, 6.9 to could not be evaluated). Disease control occurred in 100 patients (80.6%; 95% CI, 72.6 to 87.2). The median progression-free survival was 6.8 months (95% CI, 5.1 to 8.2), and the median overall survival was 12.5 months (95% CI, 10.0 to could not be evaluated). Treatment-related adverse events occurred in 88 of 126 patients (69.8%), including grade 3 events in 25 patients (19.8%) and a grade 4 event in 1 (0.8%). Responses were observed in subgroups defined according to PD-L1 expression, tumor mutational burden, and co-occurring mutations in STK11, KEAP1, or TP53. CONCLUSIONS: In this phase 2 trial, sotorasib therapy led to a durable clinical benefit without new safety signals in patients with previously treated KRAS p.G12C-mutated NSCLC. (Funded by Amgen and the National Institutes of Health; CodeBreaK100 ClinicalTrials.gov number, NCT03600883.).</t>
   </si>
   <si>
-    <t>BACKGROUND: Dipeptidyl peptidase 4 (DPP-4; also known as CD26), a transmembrane receptor expressed on T cells, has a costimulatory function in activating T cells. In a mouse model, down-regulation of CD26 prevented graft-versus-host disease (GVHD) but preserved graft-versus-tumor effects. Whether inhibition of DPP-4 with sitagliptin may prevent acute GVHD after allogeneic stem-cell transplantation is not known. METHODS: We conducted a two-stage, phase 2 clinical trial to test whether sitagliptin plus tacrolimus and sirolimus would reduce the incidence of grade II to IV acute GVHD from 30% to no more than 15% by day 100. Patients received myeloablative conditioning followed by mobilized peripheral-blood stem-cell transplants. Sitagliptin was given orally at a dose of 600 mg every 12 hours starting the day before transplantation until day 14 after transplantation. RESULTS: A total of 36 patients who could be evaluated, with a median age of 46 years (range, 20 to 59), received transplants from matched related or unrelated donors. Acute GVHD occurred in 2 of 36 patients by day 100; the incidence of grade II to IV GVHD was 5% (95% confidence interval [CI], 1 to 16), and the incidence of grade III or IV GVHD was 3% (95% CI, 0 to 12). Nonrelapse mortality was zero at 1 year. The 1-year cumulative incidences of relapse and chronic GVHD were 26% (95% CI, 13 to 41) and 37% (95% CI, 22 to 53), respectively. GVHD-free, relapse-free survival was 46% (95% CI, 29 to 62) at 1 year. Toxic effects were similar to those seen in patients undergoing allogeneic stem-cell transplantation. CONCLUSIONS: In this nonrandomized trial, sitagliptin in combination with tacrolimus and sirolimus resulted in a low incidence of grade II to IV acute GVHD by day 100 after myeloablative allogeneic hematopoietic stem-cell transplantation. (Funded by the National Heart, Lung, and Blood Institute; ClinicalTrials.gov number, NCT02683525.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: Genetic testing for breast cancer susceptibility is widely used, but for many genes, evidence of an association with breast cancer is weak, underlying risk estimates are imprecise, and reliable subtype-specific risk estimates are lacking. METHODS: We used a panel of 34 putative susceptibility genes to perform sequencing on samples from 60,466 women with breast cancer and 53,461 controls. In separate analyses for protein-truncating variants and rare missense variants in these genes, we estimated odds ratios for breast cancer overall and tumor subtypes. We evaluated missense-variant associations according to domain and classification of pathogenicity. RESULTS: Protein-truncating variants in 5 genes (ATM, BRCA1, BRCA2, CHEK2, and PALB2) were associated with a risk of breast cancer overall with a P value of less than 0.0001. Protein-truncating variants in 4 other genes (BARD1, RAD51C, RAD51D, and TP53) were associated with a risk of breast cancer overall with a P value of less than 0.05 and a Bayesian false-discovery probability of less than 0.05. For protein-truncating variants in 19 of the remaining 25 genes, the upper limit of the 95% confidence interval of the odds ratio for breast cancer overall was less than 2.0. For protein-truncating variants in ATM and CHEK2, odds ratios were higher for estrogen receptor (ER)-positive disease than for ER-negative disease; for protein-truncating variants in BARD1, BRCA1, BRCA2, PALB2, RAD51C, and RAD51D, odds ratios were higher for ER-negative disease than for ER-positive disease. Rare missense variants (in aggregate) in ATM, CHEK2, and TP53 were associated with a risk of breast cancer overall with a P value of less than 0.001. For BRCA1, BRCA2, and TP53, missense variants (in aggregate) that would be classified as pathogenic according to standard criteria were associated with a risk of breast cancer overall, with the risk being similar to that of protein-truncating variants. CONCLUSIONS: The results of this study define the genes that are most clinically useful for inclusion on panels for the prediction of breast cancer risk, as well as provide estimates of the risks associated with protein-truncating variants, to guide genetic counseling. (Funded by European Union Horizon 2020 programs and others.).</t>
   </si>
   <si>
@@ -1831,9 +1546,6 @@
     <t>BACKGROUND: Anti-CD19 chimeric antigen receptor (CAR) T-cell therapy has shown remarkable clinical efficacy in B-cell cancers. However, CAR T cells can induce substantial toxic effects, and the manufacture of the cells is complex. Natural killer (NK) cells that have been modified to express an anti-CD19 CAR have the potential to overcome these limitations. METHODS: In this phase 1 and 2 trial, we administered HLA-mismatched anti-CD19 CAR-NK cells derived from cord blood to 11 patients with relapsed or refractory CD19-positive cancers (non-Hodgkin's lymphoma or chronic lymphocytic leukemia [CLL]). NK cells were transduced with a retroviral vector expressing genes that encode anti-CD19 CAR, interleukin-15, and inducible caspase 9 as a safety switch. The cells were expanded ex vivo and administered in a single infusion at one of three doses (1x10(5), 1x10(6), or 1x10(7) CAR-NK cells per kilogram of body weight) after lymphodepleting chemotherapy. RESULTS: The administration of CAR-NK cells was not associated with the development of cytokine release syndrome, neurotoxicity, or graft-versus-host disease, and there was no increase in the levels of inflammatory cytokines, including interleukin-6, over baseline. The maximum tolerated dose was not reached. Of the 11 patients who were treated, 8 (73%) had a response; of these patients, 7 (4 with lymphoma and 3 with CLL) had a complete remission, and 1 had remission of the Richter's transformation component but had persistent CLL. Responses were rapid and seen within 30 days after infusion at all dose levels. The infused CAR-NK cells expanded and persisted at low levels for at least 12 months. CONCLUSIONS: Among 11 patients with relapsed or refractory CD19-positive cancers, a majority had a response to treatment with CAR-NK cells without the development of major toxic effects. (Funded by the M.D. Anderson Cancer Center CLL and Lymphoma Moonshot and the National Institutes of Health; ClinicalTrials.gov number, NCT03056339.).</t>
   </si>
   <si>
-    <t>BACKGROUND: Relationships between microbiota composition and clinical outcomes after allogeneic hematopoietic-cell transplantation have been described in single-center studies. Geographic variations in the composition of human microbial communities and differences in clinical practices across institutions raise the question of whether these associations are generalizable. METHODS: The microbiota composition of fecal samples obtained from patients who were undergoing allogeneic hematopoietic-cell transplantation at four centers was profiled by means of 16S ribosomal RNA gene sequencing. In an observational study, we examined associations between microbiota diversity and mortality using Cox proportional-hazards analysis. For stratification of the cohorts into higher- and lower-diversity groups, the median diversity value that was observed at the study center in New York was used. In the analysis of independent cohorts, the New York center was cohort 1, and three centers in Germany, Japan, and North Carolina composed cohort 2. Cohort 1 and subgroups within it were analyzed for additional outcomes, including transplantation-related death. RESULTS: We profiled 8767 fecal samples obtained from 1362 patients undergoing allogeneic hematopoietic-cell transplantation at the four centers. We observed patterns of microbiota disruption characterized by loss of diversity and domination by single taxa. Higher diversity of intestinal microbiota was associated with a lower risk of death in independent cohorts (cohort 1: 104 deaths among 354 patients in the higher-diversity group vs. 136 deaths among 350 patients in the lower-diversity group; adjusted hazard ratio, 0.71; 95% confidence interval [CI], 0.55 to 0.92; cohort 2: 18 deaths among 87 patients in the higher-diversity group vs. 35 deaths among 92 patients in the lower-diversity group; adjusted hazard ratio, 0.49; 95% CI, 0.27 to 0.90). Subgroup analyses identified an association between lower intestinal diversity and higher risks of transplantation-related death and death attributable to graft-versus-host disease. Baseline samples obtained before transplantation already showed evidence of microbiome disruption, and lower diversity before transplantation was associated with poor survival. CONCLUSIONS: Patterns of microbiota disruption during allogeneic hematopoietic-cell transplantation were similar across transplantation centers and geographic locations; patterns were characterized by loss of diversity and domination by single taxa. Higher diversity of intestinal microbiota at the time of neutrophil engraftment was associated with lower mortality. (Funded by the National Cancer Institute and others.).</t>
-  </si>
-  <si>
     <t>BACKGROUND: RET mutations occur in 70% of medullary thyroid cancers, and RET fusions occur rarely in other thyroid cancers. In patients with RET-altered thyroid cancers, the efficacy and safety of selective RET inhibition are unknown. METHODS: We enrolled patients with RET-mutant medullary thyroid cancer with or without previous vandetanib or cabozantinib treatment, as well as those with previously treated RET fusion-positive thyroid cancer, in a phase 1-2 trial of selpercatinib. The primary end point was an objective response (a complete or partial response), as determined by an independent review committee. Secondary end points included the duration of response, progression-free survival, and safety. RESULTS: In the first 55 consecutively enrolled patients with RET-mutant medullary thyroid cancer who had previously received vandetanib, cabozantinib, or both, the percentage who had a response was 69% (95% confidence interval [CI], 55 to 81), and 1-year progression-free survival was 82% (95% CI, 69 to 90). In 88 patients with RET-mutant medullary thyroid cancer who had not previously received vandetanib or cabozantinib, the percentage who had a response was 73% (95% CI, 62 to 82), and 1-year progression-free survival was 92% (95% CI, 82 to 97). In 19 patients with previously treated RET fusion-positive thyroid cancer, the percentage who had a response was 79% (95% CI, 54 to 94), and 1-year progression-free survival was 64% (95% CI, 37 to 82). The most common adverse events of grade 3 or higher were hypertension (in 21% of the patients), increased alanine aminotransferase level (in 11%), increased aspartate aminotransferase level (in 9%), hyponatremia (in 8%), and diarrhea (in 6%). Of all 531 patients treated, 12 (2%) discontinued selpercatinib owing to drug-related adverse events. CONCLUSIONS: In this phase 1-2 trial, selpercatinib showed durable efficacy with mainly low-grade toxic effects in patients with medullary thyroid cancer with and without previous vandetanib or cabozantinib treatment. (Funded by Loxo Oncology and others; LIBRETTO-001 ClinicalTrials.gov number, NCT03157128.).</t>
   </si>
   <si>
@@ -1843,15 +1555,9 @@
     <t>BACKGROUND: Lung cancer is made up of distinct subtypes, including non-small-cell lung cancer (NSCLC) and small-cell lung cancer (SCLC). Although overall mortality from lung cancer has been declining in the United States, little is known about mortality trends according to cancer subtype at the population level because death certificates do not record subtype information. METHODS: Using data from Surveillance, Epidemiology, and End Results (SEER) areas, we assessed lung-cancer mortality and linked deaths from lung cancer to incident cases in SEER cancer registries. This allowed us to evaluate population-level mortality trends attributed to specific subtypes (incidence-based mortality). We also evaluated lung-cancer incidence and survival according to cancer subtype, sex, and calendar year. Joinpoint software was used to assess changes in incidence and trends in incidence-based mortality. RESULTS: Mortality from NSCLC decreased even faster than the incidence of this subtype, and this decrease was associated with a substantial improvement in survival over time that corresponded to the timing of approval of targeted therapy. Among men, incidence-based mortality from NSCLC decreased 6.3% annually from 2013 through 2016, whereas the incidence decreased 3.1% annually from 2008 through 2016. Corresponding lung cancer-specific survival improved from 26% among men with NSCLC that was diagnosed in 2001 to 35% among those in whom it was diagnosed in 2014. This improvement in survival was found across all races and ethnic groups. Similar patterns were found among women with NSCLC. In contrast, mortality from SCLC declined almost entirely as a result of declining incidence, with no improvement in survival. This result correlates with limited treatment advances for SCLC in the time frame we examined. CONCLUSIONS: Population-level mortality from NSCLC in the United States fell sharply from 2013 to 2016, and survival after diagnosis improved substantially. Our analysis suggests that a reduction in incidence along with treatment advances - particularly approvals for and use of targeted therapies - is likely to explain the reduction in mortality observed during this period.</t>
   </si>
   <si>
-    <t>BACKGROUND: Persons with mental disorders are at a higher risk than the general population for the subsequent development of certain medical conditions. METHODS: We used a population-based cohort from Danish national registries that included data on more than 5.9 million persons born in Denmark from 1900 through 2015 and followed them from 2000 through 2016, for a total of 83.9 million person-years. We assessed 10 broad types of mental disorders and 9 broad categories of medical conditions (which encompassed 31 specific conditions). We used Cox regression models to calculate overall hazard ratios and time-dependent hazard ratios for pairs of mental disorders and medical conditions, after adjustment for age, sex, calendar time, and previous mental disorders. Absolute risks were estimated with the use of competing-risks survival analyses. RESULTS: A total of 698,874 of 5,940,299 persons (11.8%) were identified as having a mental disorder. The median age of the total population was 32.1 years at entry into the cohort and 48.7 years at the time of the last follow-up. Persons with a mental disorder had a higher risk than those without such disorders with respect to 76 of 90 pairs of mental disorders and medical conditions. The median hazard ratio for an association between a mental disorder and a medical condition was 1.37. The lowest hazard ratio was 0.82 for organic mental disorders and the broad category of cancer (95% confidence interval [CI], 0.80 to 0.84), and the highest was 3.62 for eating disorders and urogenital conditions (95% CI, 3.11 to 4.22). Several specific pairs showed a reduced risk (e.g., schizophrenia and musculoskeletal conditions). Risks varied according to the time since the diagnosis of a mental disorder. The absolute risk of a medical condition within 15 years after a mental disorder was diagnosed varied from 0.6% for a urogenital condition among persons with a developmental disorder to 54.1% for a circulatory disorder among those with an organic mental disorder. CONCLUSIONS: Most mental disorders were associated with an increased risk of a subsequent medical condition; hazard ratios ranged from 0.82 to 3.62 and varied according to the time since the diagnosis of the mental disorder. (Funded by the Danish National Research Foundation and others; COMO-GMC ClinicalTrials.gov number, NCT03847753.).</t>
-  </si>
-  <si>
     <t>英格兰HPV疫苗接种观察性研究显示，该计划显著降低了宫颈癌和CIN3发病率，且在不同社会经济剥夺水平群体中均有效。</t>
   </si>
   <si>
-    <t>重复横断面分析评估大语言模型生成健康虚假信息的能力，发现防护措施实施不一致且报告机制缺失，需加强监管和审计。</t>
-  </si>
-  <si>
     <t>队列研究显示，非筛查检出的乳腺导管原位癌患者长期发生浸润性乳腺癌和乳腺癌死亡的风险显著高于普通人群及筛查检出患者。</t>
   </si>
   <si>
@@ -1861,18 +1567,9 @@
     <t>英国1993-2015年队列研究显示，早期浸润性乳腺癌患者5年死亡率从14.4%降至4.9%，预后显著改善。</t>
   </si>
   <si>
-    <t>真实世界观察性研究显示，HPV初筛阴性后宫颈癌风险显著降低，支持将筛查间隔延长至5年及以上。</t>
-  </si>
-  <si>
     <t>回顾性研究显示，FDA加速批准的癌症药物在验证性试验失败后，多数仍保留在标签和指南中，提示临床指南需与验证性试验结果更好对齐。</t>
   </si>
   <si>
-    <t>前瞻性队列研究发现红肉摄入增加冠心病风险，用植物蛋白等替代可降低风险。</t>
-  </si>
-  <si>
-    <t>纵向队列研究发现，美国印第安人和阿拉斯加原住民因死亡证明种族误分类导致预期寿命差距被低估，常规生命统计存在统计性抹除。</t>
-  </si>
-  <si>
     <t>一项前瞻性研究验证了基于血液ctDNA的检测在平均风险人群中筛查结直肠癌的临床性能，结果显示其对癌症检测具有可接受的准确性，但对癌前病变的敏感性较低。</t>
   </si>
   <si>
@@ -1915,9 +1612,6 @@
     <t>模拟研究显示，2019年美国乳腺癌死亡率较1975年下降58%，主要归因于I-III期治疗（47%）、转移性治疗（29%）和筛查（25%）的贡献。</t>
   </si>
   <si>
-    <t>一项基于人群的回顾性队列研究表明，与丁丙诺啡/纳洛酮相比，美沙酮治疗阿片类药物使用障碍的停药风险更低，而治疗期间的死亡风险相似。</t>
-  </si>
-  <si>
     <t>基于人群的队列研究发现，卵巢子宫内膜异位囊肿和/或深部浸润型子宫内膜异位症显著增加卵巢癌风险，尤其I型卵巢癌，提示该人群需加强风险咨询与筛查。</t>
   </si>
   <si>
@@ -1963,9 +1657,6 @@
     <t>横断面研究显示，在检测癌症易感基因致病性变异方面，深度学习方法比标准方法具有更高的敏感性和特异性。</t>
   </si>
   <si>
-    <t>一项美国公众横断面调查显示，多数人对医疗机构向感恩患者募捐的某些做法持保留态度，尤其担忧影响医患关系。</t>
-  </si>
-  <si>
     <t>基于4个美国队列的汇总分析显示，生殖区使用爽身粉与卵巢癌风险无显著统计学关联，但可能不足以检测微小风险增加。</t>
   </si>
   <si>
@@ -1975,12 +1666,6 @@
     <t>美国回顾性队列研究显示，多种成人首发癌症的5年幸存者，其继发新原发癌及死亡风险显著高于普通人群，强调持续监测与预防的重要性。</t>
   </si>
   <si>
-    <t>瑞典回顾性队列研究显示，乳糜泻患者全因死亡风险较普通人群小幅但显著增加，风险在诊断后持续存在。</t>
-  </si>
-  <si>
-    <t>一项多中心横断面研究发现，46%未吸氧的毛细支气管炎住院患儿接受了不必要的持续脉搏血氧监测，存在过度医疗现象。</t>
-  </si>
-  <si>
     <t>全球疾病负担2023研究系统分析了1990-2023年204个国家47种癌症的负担、归因风险及至2050年预测，为全球癌症防控提供关键数据。</t>
   </si>
   <si>
@@ -1990,12 +1675,6 @@
     <t>I期试验显示，iPSC来源的CAR-NK细胞疗法FT596单用或联用利妥昔单抗治疗B细胞淋巴瘤耐受性良好，能诱导深度持久缓解。</t>
   </si>
   <si>
-    <t>针对范可尼贫血A型患者的非清髓基因治疗I/II期研究显示，自体基因矫正造血干细胞输注可实现持续植入并逆转骨髓衰竭进展。</t>
-  </si>
-  <si>
-    <t>前瞻性队列研究显示，妊娠期感染猴痘病毒I分支与高胎儿丢失和先天性感染风险相关，尤以孕早期风险最高。</t>
-  </si>
-  <si>
     <t>对已完成至少5年内分泌治疗的绝经后早期乳腺癌患者，延长5年芳香化酶抑制剂治疗可显著降低复发风险，但需权衡骨折风险增加。</t>
   </si>
   <si>
@@ -2011,9 +1690,6 @@
     <t>全球系统综述估算17种HPV基因型对浸润性宫颈癌的归因分数，为疫苗和筛查策略提供依据。</t>
   </si>
   <si>
-    <t>对美国2000-2019年死亡数据的系统分析显示，不同种族、民族和地区间的死亡率存在普遍且显著的差异。</t>
-  </si>
-  <si>
     <t>前瞻性队列研究证实多癌种早期检测血液测试可行，但需进一步研究其临床效用。</t>
   </si>
   <si>
@@ -2023,9 +1699,6 @@
     <t>前瞻性队列研究显示，更高的总体力活动和每日步数与更低的体力活动相关癌症风险显著相关，增加低强度活动时间或步数是可行的公共卫生干预措施。</t>
   </si>
   <si>
-    <t>服务评估显示，在邀请函中加入行为科学信息可显著提高肺癌筛查参与率，推荐推广。</t>
-  </si>
-  <si>
     <t>定性研究发现，通过健康传播提高公众对年龄与癌症相对风险的认识，可能促进中老年人的早期诊断健康行为。</t>
   </si>
   <si>
@@ -2035,9 +1708,6 @@
     <t>建模研究显示，对40-49岁女性基于多基因风险评分进行乳腺癌筛查，相比年龄分层或全民筛查，生存获益有限且增加成本与过度诊断。</t>
   </si>
   <si>
-    <t>混合方法研究显示，通过电话干预识别并解决就诊障碍，可将阴道镜失约率从10%降至8%，尤其改善了年轻和贫困人群的就诊情况。</t>
-  </si>
-  <si>
     <t>定性研究显示，基于信仰的综合性干预能提高苏格兰穆斯林女性对乳腺癌、结直肠癌和宫颈癌筛查的接受度，具有文化敏感性。</t>
   </si>
   <si>
@@ -2053,15 +1723,9 @@
     <t>中国儿童及青少年癌症发病率存在显著社会经济不平等，且卫生服务可及性分布不均可能影响发病率差异。</t>
   </si>
   <si>
-    <t>本研究开发并验证了包含23个指标的全球医院择期手术准备指数，发现该指数每提高10分，计划手术量比增加3.6%，有助于提升手术系统韧性。</t>
-  </si>
-  <si>
     <t>社区癌症路演项目评估显示，该干预能有效提升公众对癌症症状、风险因素的认知及就医意愿，具有推广可行性。</t>
   </si>
   <si>
-    <t>回顾性研究显示，威尔士肠癌筛查项目暂停后恢复期间，总体参与率仍超标准，但部分群体参与率持续偏低，需针对性干预。</t>
-  </si>
-  <si>
     <t>基于美国SEER和NCDB数据库的队列分析发现，黑人原发性脑肿瘤患者被建议不进行手术切除的几率显著高于白人患者，提示存在种族差异。</t>
   </si>
   <si>
@@ -2095,9 +1759,6 @@
     <t>英国HPV疫苗接种观察性研究显示，该计划显著降低了年轻女性宫颈癌及CIN3发病率，尤其在12-13岁接种人群中效果最显著。</t>
   </si>
   <si>
-    <t>ZUMA-3 II期研究显示，KTE-X19 CAR-T疗法在复发/难治性成人B细胞前体急性淋巴细胞白血病患者中诱导了高缓解率，且安全性可控，具有长期临床获益潜力。</t>
-  </si>
-  <si>
     <t>多中心I/II期研究显示，liso-cel治疗复发/难治性大B细胞淋巴瘤客观缓解率达73%，且3级以上细胞因子释放综合征发生率低。</t>
   </si>
   <si>
@@ -2164,15 +1825,9 @@
     <t>前瞻性队列研究发现，48.6%产前cfDNA筛查结果异常孕妇存在隐匿性癌症，全身体部MRI检测灵敏度达98.0%。</t>
   </si>
   <si>
-    <t>研究探索序贯CD7 CAR-T与单倍体相合HSCT免GVHD预防方案，在10例患者中显示68%一年总生存率，为CD7阳性肿瘤提供新治疗选择。</t>
-  </si>
-  <si>
     <t>一项多中心II期研究显示，阿特珠单抗治疗晚期肺泡软组织肉瘤的客观缓解率达37%，中位无进展生存期20.8个月，为罕见肉瘤提供了新治疗选择。</t>
   </si>
   <si>
-    <t>冰岛队列研究发现，携带ACMG推荐报告的可操作基因型（尤其癌症相关基因）与中位生存期缩短3年相关，提示基因筛查对风险评估的价值。</t>
-  </si>
-  <si>
     <t>II期研究显示，Tarlatamab在经治小细胞肺癌患者中显示出抗肿瘤活性，客观缓解率达40%，且安全性可控。</t>
   </si>
   <si>
@@ -2185,15 +1840,9 @@
     <t>观察性研究发现，带薪病假政策与结直肠癌和乳腺癌筛查率小幅但显著提高相关，提示该政策可能有助于减少筛查障碍。</t>
   </si>
   <si>
-    <t>研究发现POT1基因突变导致端粒延长，与家族性克隆性造血综合征及多种良恶性肿瘤风险增加相关。</t>
-  </si>
-  <si>
     <t>I-II期试验显示，非共价BTK抑制剂Pirtobrutinib对既往接受过共价BTK抑制剂治疗的CLL/SLL患者有效，总体缓解率达73.3%，中位无进展生存期19.6个月。</t>
   </si>
   <si>
-    <t>一项II期单臂研究显示，BRAF-MEK抑制剂联合治疗在未放疗的乳头状颅咽管瘤患者中客观缓解率达94%，肿瘤体积中位减少91%。</t>
-  </si>
-  <si>
     <t>一项I-II期非随机试验显示，Adagrasib联合西妥昔单抗治疗KRAS G12C突变转移性结直肠癌的客观缓解率达46%，优于单药治疗。</t>
   </si>
   <si>
@@ -2206,9 +1855,6 @@
     <t>前瞻性队列研究发现新型生物标志物P85-Ab在鼻咽癌筛查中比标准方法具有更高的敏感性、特异性和阳性预测值。</t>
   </si>
   <si>
-    <t>回顾性队列研究发现，成人胸腺切除术后全因死亡率和癌症风险显著升高，提示胸腺对维持成人免疫健康至关重要。</t>
-  </si>
-  <si>
     <t>I期研究显示Divarasib在KRAS G12C突变实体瘤中安全有效，尤其在非小细胞肺癌中客观缓解率达53.4%，中位无进展生存期13.1个月。</t>
   </si>
   <si>
@@ -2221,9 +1867,6 @@
     <t>II期研究显示，新辅助cemiplimab治疗可切除皮肤鳞癌患者，病理完全缓解率达51%，疗效显著。</t>
   </si>
   <si>
-    <t>队列研究结合CRISPR-DiR技术发现，低甲基化药物治疗可导致癌基因SALL4去甲基化并上调表达，与患者不良预后相关。</t>
-  </si>
-  <si>
     <t>单中心I期研究显示，溶瘤病毒DNX-2401联合放疗可改变DIPG患儿T细胞活性，部分患者肿瘤缩小或稳定，中位生存期达17.8个月。</t>
   </si>
   <si>
@@ -2254,9 +1897,6 @@
     <t>II期单臂试验显示，Sotorasib在经治KRAS p.G12C突变晚期非小细胞肺癌患者中具有持久临床获益且安全性可控。</t>
   </si>
   <si>
-    <t>一项II期临床试验显示，西格列汀联合他克莫司和西罗莫司可将异基因造血干细胞移植后100天内II-IV级急性移植物抗宿主病发生率降至5%。</t>
-  </si>
-  <si>
     <t>一项大型病例对照研究通过分析34个基因，明确了ATM、BRCA1等9个基因的截短变异与乳腺癌风险显著相关，为临床基因检测和遗传咨询提供了关键依据。</t>
   </si>
   <si>
@@ -2290,9 +1930,6 @@
     <t>I/II期试验显示，CAR-NK细胞治疗复发/难治性CD19阳性淋巴瘤和CLL患者有效且安全性良好，无严重毒性反应。</t>
   </si>
   <si>
-    <t>多中心观察性研究证实，异基因造血干细胞移植患者肠道菌群多样性越高，其总死亡及移植相关死亡风险越低。</t>
-  </si>
-  <si>
     <t>I-II期试验显示，Selpercatinib在RET突变甲状腺髓样癌和RET融合阳性甲状腺癌患者中均表现出持久疗效和可控毒性。</t>
   </si>
   <si>
@@ -2302,15 +1939,9 @@
     <t>真实世界研究显示，2013-2016年美国非小细胞肺癌死亡率大幅下降，生存率显著提高，主要归因于靶向治疗的应用。</t>
   </si>
   <si>
-    <t>丹麦全国性回顾性队列研究显示，大多数精神障碍会增加后续罹患特定内科疾病的风险，中位风险比为1.37。</t>
-  </si>
-  <si>
     <t>宫颈癌</t>
   </si>
   <si>
-    <t>皮肤癌</t>
-  </si>
-  <si>
     <t>乳腺导管原位癌</t>
   </si>
   <si>
@@ -2383,9 +2014,6 @@
     <t>B细胞淋巴瘤</t>
   </si>
   <si>
-    <t>范可尼贫血</t>
-  </si>
-  <si>
     <t>早期乳腺癌</t>
   </si>
   <si>
@@ -2431,9 +2059,6 @@
     <t>乳腺癌；结直肠癌；胃癌</t>
   </si>
   <si>
-    <t>B细胞前体急性淋巴细胞白血病</t>
-  </si>
-  <si>
     <t>多种癌症（包括乳腺癌、前列腺癌等）</t>
   </si>
   <si>
@@ -2458,9 +2083,6 @@
     <t>弥漫性大B细胞淋巴瘤</t>
   </si>
   <si>
-    <t>CD7阳性白血病或淋巴瘤</t>
-  </si>
-  <si>
     <t>肺泡软组织肉瘤</t>
   </si>
   <si>
@@ -2473,15 +2095,9 @@
     <t>结直肠癌；乳腺癌</t>
   </si>
   <si>
-    <t>B细胞和T细胞淋巴瘤；髓系癌症；上皮、间质和神经组织良性及恶性肿瘤</t>
-  </si>
-  <si>
     <t>慢性淋巴细胞白血病/小淋巴细胞淋巴瘤</t>
   </si>
   <si>
-    <t>乳头状颅咽管瘤</t>
-  </si>
-  <si>
     <t>胰腺癌</t>
   </si>
   <si>
@@ -2500,9 +2116,6 @@
     <t>皮肤鳞状细胞癌</t>
   </si>
   <si>
-    <t>骨髓增生异常综合征</t>
-  </si>
-  <si>
     <t>儿童弥漫内生型脑桥胶质瘤</t>
   </si>
   <si>
@@ -2521,9 +2134,6 @@
     <t>非小细胞肺癌；结直肠癌；阑尾癌</t>
   </si>
   <si>
-    <t>血液系统恶性肿瘤（接受异基因造血干细胞移植）</t>
-  </si>
-  <si>
     <t>儿童高级别胶质瘤</t>
   </si>
   <si>
@@ -2545,9 +2155,6 @@
     <t>观察性研究</t>
   </si>
   <si>
-    <t>重复横断面分析</t>
-  </si>
-  <si>
     <t>基于人群的队列研究</t>
   </si>
   <si>
@@ -2560,24 +2167,21 @@
     <t>回顾性观察性研究</t>
   </si>
   <si>
+    <t>前瞻性、多中心、横断面观察性研究</t>
+  </si>
+  <si>
+    <t>Pooled Analysis</t>
+  </si>
+  <si>
+    <t>多中心回顾性队列与建模研究</t>
+  </si>
+  <si>
+    <t>队列研究</t>
+  </si>
+  <si>
     <t>前瞻性队列研究</t>
   </si>
   <si>
-    <t>纵向队列研究</t>
-  </si>
-  <si>
-    <t>前瞻性、多中心、横断面观察性研究</t>
-  </si>
-  <si>
-    <t>Pooled Analysis</t>
-  </si>
-  <si>
-    <t>多中心回顾性队列与建模研究</t>
-  </si>
-  <si>
-    <t>队列研究</t>
-  </si>
-  <si>
     <t>决策分析/建模研究</t>
   </si>
   <si>
@@ -2611,12 +2215,6 @@
     <t>横断面研究</t>
   </si>
   <si>
-    <t>横断面调查</t>
-  </si>
-  <si>
-    <t>多中心横断面研究</t>
-  </si>
-  <si>
     <t>系统分析/疾病负担研究</t>
   </si>
   <si>
@@ -2626,9 +2224,6 @@
     <t>首次人体试验</t>
   </si>
   <si>
-    <t>开放标签、研究者发起的临床试验</t>
-  </si>
-  <si>
     <t>单中心、开放标签、剂量递增I期试验</t>
   </si>
   <si>
@@ -2638,21 +2233,12 @@
     <t>系统综述</t>
   </si>
   <si>
-    <t>系统分析/观察性研究</t>
-  </si>
-  <si>
-    <t>服务评估</t>
-  </si>
-  <si>
     <t>定性研究</t>
   </si>
   <si>
     <t>建模研究</t>
   </si>
   <si>
-    <t>混合方法研究</t>
-  </si>
-  <si>
     <t>前瞻性匹配对照研究</t>
   </si>
   <si>
@@ -2662,9 +2248,6 @@
     <t>社区干预项目评估</t>
   </si>
   <si>
-    <t>回顾性登记研究</t>
-  </si>
-  <si>
     <t>基于注册登记的队列分析</t>
   </si>
   <si>
@@ -2683,72 +2266,66 @@
     <t>多中心国际前瞻性队列研究</t>
   </si>
   <si>
+    <t>多中心无缝设计研究</t>
+  </si>
+  <si>
+    <t>比较建模分析</t>
+  </si>
+  <si>
+    <t>开放标签、多中心、多队列研究</t>
+  </si>
+  <si>
+    <t>开放标签、单臂、II期临床试验</t>
+  </si>
+  <si>
+    <t>II期临床试验</t>
+  </si>
+  <si>
+    <t>注册性II期临床试验</t>
+  </si>
+  <si>
+    <t>回顾性队列</t>
+  </si>
+  <si>
+    <t>前瞻性研究</t>
+  </si>
+  <si>
+    <t>临床验证队列研究</t>
+  </si>
+  <si>
+    <t>前瞻性单臂研究</t>
+  </si>
+  <si>
+    <t>II期平台试验（篮子设计）</t>
+  </si>
+  <si>
+    <t>单中心、Ib-II期临床试验</t>
+  </si>
+  <si>
+    <t>注册性I-II期临床试验</t>
+  </si>
+  <si>
+    <t>多中心单臂II期研究</t>
+  </si>
+  <si>
+    <t>单组试验</t>
+  </si>
+  <si>
+    <t>观察性研究（基于行政医疗索赔数据的比较分析）</t>
+  </si>
+  <si>
+    <t>干预性临床试验</t>
+  </si>
+  <si>
+    <t>非随机对照试验</t>
+  </si>
+  <si>
+    <t>单臂试验</t>
+  </si>
+  <si>
     <t>单臂、开放标签、多中心研究</t>
   </si>
   <si>
-    <t>多中心无缝设计研究</t>
-  </si>
-  <si>
-    <t>比较建模分析</t>
-  </si>
-  <si>
-    <t>开放标签、多中心、多队列研究</t>
-  </si>
-  <si>
-    <t>开放标签、单臂、II期临床试验</t>
-  </si>
-  <si>
-    <t>II期临床试验</t>
-  </si>
-  <si>
-    <t>注册性II期临床试验</t>
-  </si>
-  <si>
-    <t>回顾性队列</t>
-  </si>
-  <si>
-    <t>前瞻性研究</t>
-  </si>
-  <si>
-    <t>临床验证队列研究</t>
-  </si>
-  <si>
-    <t>前瞻性单臂研究</t>
-  </si>
-  <si>
-    <t>II期平台试验（篮子设计）</t>
-  </si>
-  <si>
-    <t>单中心、Ib-II期临床试验</t>
-  </si>
-  <si>
-    <t>注册性I-II期临床试验</t>
-  </si>
-  <si>
-    <t>单臂前瞻性研究</t>
-  </si>
-  <si>
-    <t>多中心单臂II期研究</t>
-  </si>
-  <si>
-    <t>单组试验</t>
-  </si>
-  <si>
-    <t>观察性研究（基于行政医疗索赔数据的比较分析）</t>
-  </si>
-  <si>
-    <t>干预性临床试验</t>
-  </si>
-  <si>
-    <t>单臂研究</t>
-  </si>
-  <si>
-    <t>非随机对照试验</t>
-  </si>
-  <si>
-    <t>单臂试验</t>
-  </si>
-  <si>
     <t>回顾性病例对照研究及前瞻性队列研究</t>
   </si>
   <si>
@@ -2782,9 +2359,6 @@
     <t>诊断性研究</t>
   </si>
   <si>
-    <t>两阶段、非随机、单臂II期临床试验</t>
-  </si>
-  <si>
     <t>病例对照研究</t>
   </si>
   <si>
@@ -2803,9 +2377,6 @@
     <t>前瞻性诊断准确性研究</t>
   </si>
   <si>
-    <t>多中心观察性队列研究</t>
-  </si>
-  <si>
     <t>I-II期临床试验</t>
   </si>
   <si>
@@ -2818,12 +2389,12 @@
     <t>Ib/II期</t>
   </si>
   <si>
+    <t>I-II期</t>
+  </si>
+  <si>
     <t>II期</t>
   </si>
   <si>
-    <t>I-II期</t>
-  </si>
-  <si>
     <t>Ib-II期</t>
   </si>
   <si>
@@ -2836,9 +2407,6 @@
     <t>HPV疫苗接种使常规接种队列的宫颈癌和CIN3发病率分别降低83.9%和94.3%；疫苗接种在所有五个剥夺水平群体中均大幅降低发病率；疫苗接种消除了未接种组中存在的从高到低剥夺水平的宫颈癌发病率梯度。</t>
   </si>
   <si>
-    <t>评估LLMs生成防晒霜致癌和碱性饮食治癌虚假信息的能力；发现Claude 2防护有效而GPT-4等模型易生成虚假内容；揭示开发者对漏洞报告无响应，需加强透明度和监管</t>
-  </si>
-  <si>
     <t>非筛查检出导管原位癌患者发生浸润性乳腺癌的风险是普通人群的4.21倍；非筛查检出导管原位癌患者乳腺癌死亡风险是普通人群的3.83倍；与保乳手术相比，乳房切除术可降低同侧浸润性乳腺癌风险，但未显著降低乳腺癌死亡风险。</t>
   </si>
   <si>
@@ -2848,18 +2416,9 @@
     <t>乳腺癌死亡率随时间推移显著下降；雌激素受体阳性疾病死亡率降幅更大；不同特征患者预后差异显著</t>
   </si>
   <si>
-    <t>HPV初筛阴性后CIN3+及宫颈癌风险显著低于细胞学筛查；50岁以上女性风险更低，支持更长筛查间隔；不同HPV检测方法（APTIMA mRNA与cobas/RealTime DNA）效果相似。</t>
-  </si>
-  <si>
     <t>61%的加速批准药物在验证性试验失败后被自愿撤回；33%的适应症在验证性试验失败后仍保留在标签中；临床指南对验证性试验失败的药物仍提供高级别推荐</t>
   </si>
   <si>
-    <t>红肉摄入与冠心病风险呈正相关；植物蛋白替代红肉可降低冠心病风险；替代分析量化了不同食物替代的效果。</t>
-  </si>
-  <si>
-    <t>使用自我报告种族数据估算AI/AN预期寿命为72.7年，比美国平均低6.5年；死亡证明中AI/AN种族报告率仅59.0%，导致死亡率低估42%；AI/AN种族在心脏病和癌症死亡中最常被漏报，差距在官方统计中被低估2.9倍。</t>
-  </si>
-  <si>
     <t>在平均风险人群中验证了基于血液ctDNA检测筛查结直肠癌的临床性能；检测对结直肠癌的敏感性为79.2%，对晚期结直肠肿瘤的特异性为91.5%；对晚期癌前病变的敏感性仅为12.5%，提示检测癌前病变仍是挑战。</t>
   </si>
   <si>
@@ -2902,9 +2461,6 @@
     <t>模拟量化了筛查、I-III期治疗和转移性治疗对死亡率下降的贡献比例；发现转移性乳腺癌治疗后中位生存期从2000年的1.9年提升至2019年的3.2年；ER+/ERBB2+亚型生存改善（2.5年）显著优于ER-/ERBB2-亚型（0.5年）。</t>
   </si>
   <si>
-    <t>比较丁丙诺啡/纳洛酮与美沙酮治疗阿片类药物使用障碍的停药和死亡风险；美沙酮组停药风险显著低于丁丙诺啡/纳洛酮组；两种药物治疗期间的死亡风险无显著差异。</t>
-  </si>
-  <si>
     <t>首次系统评估子宫内膜异位症亚型与卵巢癌组织学亚型的关联；发现深部浸润型及卵巢子宫内膜异位囊肿患者卵巢癌风险最高（aHR达9.66）；明确I型卵巢癌风险增幅最大（aHR达18.96），为高风险人群的针对性筛查提供依据。</t>
   </si>
   <si>
@@ -2950,9 +2506,6 @@
     <t>深度学习方法在癌症易感基因中检测出更多携带致病性变异的患者；深度学习方法在黑色素瘤队列的ACMG基因中敏感性显著更高；深度学习方法在孟德尔基因中敏感性更高。</t>
   </si>
   <si>
-    <t>近半数受访者认为医生在征得患者同意后将其姓名提供给募捐部门是可接受的；超过八成受访者认为医生与患者讨论捐赠可能干扰医患关系；对于大额捐赠者，提供更优病房是相对最被接受的感谢方式。</t>
-  </si>
-  <si>
     <t>汇总4个大型前瞻性队列数据，样本量达252,745名女性；发现生殖区使用爽身粉与卵巢癌风险无显著关联（HR 1.08，95% CI 0.99-1.17）；研究提示可能统计效能不足，无法排除微小风险增加。</t>
   </si>
   <si>
@@ -2962,12 +2515,6 @@
     <t>首次全面量化美国多种成人首发癌幸存者的继发癌风险；发现喉癌和胆囊癌幸存者的继发癌风险及死亡率最高；揭示吸烟或肥胖相关癌症占继发癌总死亡率的很大比例。</t>
   </si>
   <si>
-    <t>首次在广泛诊断和无麸质食品普及时代证实乳糜泻与死亡风险关联；发现诊断后第一年死亡风险最高（HR 2.34）；风险在18-39岁诊断患者中相对增幅最大（HR 1.69）。</t>
-  </si>
-  <si>
-    <t>发现46%未吸氧患儿接受持续脉搏血氧监测，存在过度医疗；监测使用率在2%-92%间，医院间差异显著；27%的变异归因于医院因素，而非临床指征。</t>
-  </si>
-  <si>
     <t>提供了1990-2023年全球癌症发病率、死亡率及DALYs的详细估计，并预测至2050年；评估了44种风险因素导致的癌症死亡负担；揭示了癌症负担增长在低收入和中等收入国家更为显著。</t>
   </si>
   <si>
@@ -2977,12 +2524,6 @@
     <t>首次在人体试验中评估iPSC来源的CAR-NK细胞疗法；疗法耐受性良好，未观察到神经毒性；初步确定推荐II期剂量为每周期1.8×10^9细胞分三次给药</t>
   </si>
   <si>
-    <t>首次证明无需基因毒性预处理即可实现基因矫正细胞的持续植入；在62.5%的患者中达到主要疗效终点；治疗相关不良事件多为非严重性且未观察到基因毒性事件</t>
-  </si>
-  <si>
-    <t>首次系统评估妊娠期猴痘病毒I分支感染结局；孕早期感染不良结局风险最高；高病毒载量、HIV阳性等是风险因素。</t>
-  </si>
-  <si>
     <t>延长5年芳香化酶抑制剂治疗使复发风险降低27%；淋巴结阳性患者的绝对复发风险降低更显著；延长治疗导致5年骨折风险增加35%</t>
   </si>
   <si>
@@ -2998,9 +2539,6 @@
     <t>首次系统估算全球/区域/国家层面HPV基因型对宫颈癌的归因分数；鉴定17种致癌HPV基因型，HPV16归因最高（61.7%）；发现HPV35在非洲归因分数显著高于其他地区。</t>
   </si>
   <si>
-    <t>首次在县级层面系统量化了美国多种族、多死因的死亡率差异；揭示了种族健康差异在全国各县普遍存在，但程度因地区和死因而异；发现美洲印第安人/阿拉斯加原住民和黑人群体在所有死因中的死亡率均显著高于白人群体。</t>
-  </si>
-  <si>
     <t>首次大规模前瞻性评估多癌种早期检测血液测试的可行性；检测到癌症信号的参与者中38%确诊为癌症（真阳性）；假阳性结果导致更长的诊断解决时间（中位162天）。</t>
   </si>
   <si>
@@ -3010,9 +2548,6 @@
     <t>使用加速度计客观测量总活动量和步数，而非自我报告；发现总体力活动每增加1个标准差，相关癌症风险降低15%；证明每日步数从5000步增至10000步，相关癌症风险降低19%</t>
   </si>
   <si>
-    <t>行为科学信息显著提高筛查参与率；干预组参与率比对照组高37.5%；年龄、社会经济地位、性别和吸烟状态影响参与可能性</t>
-  </si>
-  <si>
     <t>发现年龄作为癌症风险因素在公众中认知度低（仅2-4%）；测试的健康信息（Message 2）最受青睐，可能通过提升认知、提供社会线索和激发反思动机来促进行为改变；23%的参与者报告了行为改变，73%保持了持续意向。</t>
   </si>
   <si>
@@ -3022,9 +2557,6 @@
     <t>PRS高风险组捕获37%乳腺癌，高于年龄最老组（29%）；PRS分层筛查生存改善1.4%，但需额外基因检测且成本更高；研究基于理想化模型，需随机对照试验验证实际效果。</t>
   </si>
   <si>
-    <t>通过电话干预识别并解决就诊障碍（如交通、焦虑等）可降低阴道镜失约率；干预对年轻（25-39岁）和贫困地区人群效果更显著；研究为改善筛查项目效果和减少医疗不平等提供了实践依据。</t>
-  </si>
-  <si>
     <t>采用基于信仰的综合性干预，整合精神、文化和健康教育；参与者认为伊斯兰信仰有助于克服文化障碍；强调仅靠信仰方法不足，需结合医生和宗教领袖等可信来源。</t>
   </si>
   <si>
@@ -3040,15 +2572,9 @@
     <t>首次全面评估中国儿童及青少年癌症发病率及卫生服务可及性；发现癌症发病率与地区社会经济水平呈正相关；揭示卫生服务地理分布不平等高于人口分布不平等。</t>
   </si>
   <si>
-    <t>开发了包含23个指标的全球择期手术准备指数；该指数与计划手术量比呈正相关，每提高10分对应增加3.6%；指数适用于不同收入国家，可用于医院年度自评以改进手术系统。</t>
-  </si>
-  <si>
     <t>社区路演显著提升癌症症状认知（62%→82%）和风险因素意识（49%→61%）；73%参与者表示可能改变生活方式以降低癌症风险；年轻人群（≤40岁）更倾向于在出现症状时咨询医疗专业人员或联系癌症协会。</t>
   </si>
   <si>
-    <t>项目暂停后恢复期间总体参与率仍高于威尔士60%标准；暂停未加剧参与率不平等现象；男性、年轻者、贫困地区居民及少数族裔参与率持续低于标准</t>
-  </si>
-  <si>
     <t>发现黑人患者在多种原发性脑肿瘤（如脑膜瘤、胶质母细胞瘤等）中被建议不手术的几率显著高于白人；研究控制了临床、人口统计学及社会经济等混杂因素；使用两个独立数据库（SEER和NCDB）进行验证，结果一致。</t>
   </si>
   <si>
@@ -3082,9 +2608,6 @@
     <t>HPV疫苗接种使12-13岁接种人群宫颈癌风险降低87%；疫苗接种计划成功几乎消除了1995年9月后出生女性的宫颈癌；研究估计至2019年6月，接种队列中宫颈癌病例减少448例，CIN3病例减少17235例。</t>
   </si>
   <si>
-    <t>71%的患者达到完全缓解或伴不完全血液学恢复的完全缓解；缓解患者中97%达到微小残留病灶阴性；中位总生存期在缓解患者中尚未达到</t>
-  </si>
-  <si>
     <t>客观缓解率达73%，完全缓解率达53%；3级以上细胞因子释放综合征发生率仅2%；推荐目标剂量为100×10⁶ CAR⁺ T细胞。</t>
   </si>
   <si>
@@ -3151,15 +2674,9 @@
     <t>发现48.6%产前cfDNA筛查结果异常孕妇存在隐匿性癌症；全身体部MRI检测隐匿性癌症灵敏度达98.0%；多染色体拷贝数异常组合模式预测癌症准确率达95.9%</t>
   </si>
   <si>
-    <t>创新性免GVHD预防的序贯CAR-T与HSCT联合方案；实现68%一年总生存率且安全性可控；为不适合常规移植的CD7阳性患者提供可行治疗路径</t>
-  </si>
-  <si>
     <t>阿特珠单抗在晚期肺泡软组织肉瘤中客观缓解率达37%；中位无进展生存期达20.8个月，疗效持久；安全性良好，无4-5级治疗相关不良事件</t>
   </si>
   <si>
-    <t>首次在冰岛人群评估ACMG可操作基因型与寿命关联；发现4.0%人群携带至少一种可操作基因型；癌症基因型携带者中位生存期缩短3年，死因主要为癌症。</t>
-  </si>
-  <si>
     <t>Tarlatamab作为靶向DLL3和CD3的双特异性T细胞衔接器，在经治小细胞肺癌中显示出抗肿瘤活性；10mg剂量组客观缓解率达40%，且缓解持久；最常见不良事件为细胞因子释放综合征，但多为1-2级，安全性可控。</t>
   </si>
   <si>
@@ -3172,15 +2689,9 @@
     <t>首次大规模评估带薪病假政策与癌症筛查的关联；发现政策实施后结直肠癌和乳腺癌筛查率均有小幅但统计显著的提高；研究结果为带薪病假作为促进预防性医疗服务的政策工具提供了证据支持。</t>
   </si>
   <si>
-    <t>首次发现POT1基因突变与长端粒综合征及家族性克隆性造血相关；揭示了长端粒通过延长细胞寿命增加多种肿瘤风险的新机制；观察到该综合征具有常染色体显性遗传和遗传早现现象。</t>
-  </si>
-  <si>
     <t>非共价BTK抑制剂Pirtobrutinib在既往共价BTK抑制剂治疗失败的CLL/SLL患者中显示出疗效；总体缓解率（ORR）达73.3%，中位无进展生存期（PFS）为19.6个月；安全性方面，典型BTK抑制剂相关不良事件（如高血压、房颤）发生率较低。</t>
   </si>
   <si>
-    <t>首次在未放疗的乳头状颅咽管瘤患者中评估BRAF-MEK抑制剂疗效；客观缓解率高达94%，肿瘤体积中位减少91%；12个月无进展生存率为87%，24个月为58%</t>
-  </si>
-  <si>
     <t>联合治疗客观缓解率显著高于单药治疗（46% vs 19%）；联合治疗中位缓解持续时间超过6个月；联合治疗组3-4级不良事件发生率低于单药组（16% vs 34%）</t>
   </si>
   <si>
@@ -3193,9 +2704,6 @@
     <t>发现新型生物标志物P85-Ab；P85-Ab筛查敏感性达97.9%，高于标准方法的72.3%；联合P85-Ab与标准方法可将阳性预测值提升至44.6%。</t>
   </si>
   <si>
-    <t>首次大规模证实成人胸腺切除增加全因死亡和癌症风险；发现胸腺切除患者T细胞新生减少且促炎细胞因子水平升高；在排除术前疾病患者后，胸腺切除与自身免疫病风险增加相关。</t>
-  </si>
-  <si>
     <t>首次报道Divarasib单药治疗KRAS G12C突变实体瘤的I期临床数据；在非小细胞肺癌中观察到53.4%的客观缓解率；通过循环肿瘤DNA监测发现与疗效相关的KRAS G12C等位基因频率下降及耐药机制</t>
   </si>
   <si>
@@ -3208,9 +2716,6 @@
     <t>新辅助cemiplimab治疗可切除皮肤鳞癌的病理完全缓解率达51%；独立评审与研究者评估结果一致；影像学客观缓解率达68%</t>
   </si>
   <si>
-    <t>首次证实低甲基化药物可导致癌基因SALL4去甲基化并上调表达；发现SALL4表达上调与骨髓增生异常综合征患者不良预后相关；利用CRISPR-DiR技术精确定位调控SALL4表达的关键CpG岛区域</t>
-  </si>
-  <si>
     <t>首次评估溶瘤病毒DNX-2401在DIPG患儿中的安全性与疗效；中位生存期17.8个月，优于历史数据；病毒治疗改变了肿瘤微环境与T细胞活性。</t>
   </si>
   <si>
@@ -3241,9 +2746,6 @@
     <t>Sotorasib在经治KRAS p.G12C突变晚期NSCLC中客观缓解率达37.1%；中位缓解持续时间达11.1个月，显示持久疗效；在PD-L1表达、肿瘤突变负荷等不同亚组中均观察到疗效。</t>
   </si>
   <si>
-    <t>首次在人体试验中证实DPP-4抑制剂西格列汀可有效预防急性GVHD；联合方案使II-IV级急性GVHD发生率显著低于预设目标（5% vs 15%）；治疗组1年非复发死亡率为0，且未增加复发风险。</t>
-  </si>
-  <si>
     <t>明确了ATM、BRCA1、BRCA2、CHEK2、PALB2等5个基因的截短变异与乳腺癌风险高度相关；发现了BARD1、RAD51C、RAD51D、TP53等4个基因的截短变异也与风险相关；揭示了不同基因变异与雌激素受体状态（ER阳性/阴性）乳腺癌的风险关联存在差异。</t>
   </si>
   <si>
@@ -3277,9 +2779,6 @@
     <t>CAR-NK细胞治疗未引发细胞因子释放综合征、神经毒性或移植物抗宿主病；73%患者（8/11）获得缓解，其中7例完全缓解；CAR-NK细胞在体内低水平持续存在至少12个月</t>
   </si>
   <si>
-    <t>首次在多中心、跨地域队列中验证肠道菌群多样性是异基因造血干细胞移植患者死亡风险的独立预测因子；发现移植前菌群多样性已与生存结局相关；明确了菌群紊乱（多样性丧失和单一菌群优势）是跨中心的共同特征。</t>
-  </si>
-  <si>
     <t>在既往接受过vandetanib/cabozantinib治疗的RET突变甲状腺髓样癌患者中，客观缓解率达69%；在未接受过上述治疗的RET突变甲状腺髓样癌患者中，客观缓解率达73%；在既往治疗过的RET融合阳性甲状腺癌患者中，客观缓解率达79%</t>
   </si>
   <si>
@@ -3289,9 +2788,6 @@
     <t>首次在人群层面评估肺癌亚型死亡率趋势；发现NSCLC死亡率下降快于发病率，与靶向治疗批准时间相符；SCLC死亡率下降仅因发病率降低，生存率无改善。</t>
   </si>
   <si>
-    <t>首次大规模评估10类精神障碍与9类内科疾病（含31种具体疾病）的关联；发现76/90对组合存在风险升高，中位风险比为1.37；风险随时间变化，绝对风险在0.6%至54.1%之间。</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -3400,9 +2896,6 @@
     <t>研究针对胆管癌患者</t>
   </si>
   <si>
-    <t>研究评估癌症风险</t>
-  </si>
-  <si>
     <t>研究针对儿童脑癌治疗</t>
   </si>
   <si>
@@ -3422,9 +2915,6 @@
   </si>
   <si>
     <t>研究肝癌发病率和死亡率</t>
-  </si>
-  <si>
-    <t>研究针对癌症移植患者</t>
   </si>
   <si>
     <t>肺癌死亡率与治疗研究</t>
@@ -3785,7 +3275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3846,34 +3336,34 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="G2">
         <v>38749552</v>
       </c>
       <c r="H2" t="s">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="I2" t="s">
-        <v>610</v>
+        <v>513</v>
       </c>
       <c r="J2" t="s">
-        <v>763</v>
+        <v>641</v>
       </c>
       <c r="K2" t="s">
-        <v>842</v>
+        <v>712</v>
       </c>
       <c r="M2" t="s">
-        <v>939</v>
+        <v>796</v>
       </c>
       <c r="N2" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O2" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3884,34 +3374,34 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="G3">
-        <v>38508682</v>
+        <v>38267073</v>
       </c>
       <c r="H3" t="s">
-        <v>458</v>
+        <v>386</v>
       </c>
       <c r="I3" t="s">
-        <v>611</v>
+        <v>514</v>
       </c>
       <c r="J3" t="s">
-        <v>764</v>
+        <v>642</v>
       </c>
       <c r="K3" t="s">
-        <v>843</v>
+        <v>713</v>
       </c>
       <c r="M3" t="s">
-        <v>940</v>
+        <v>797</v>
       </c>
       <c r="N3" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O3" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3922,34 +3412,31 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="G4">
-        <v>38267073</v>
+        <v>38418086</v>
       </c>
       <c r="H4" t="s">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="I4" t="s">
-        <v>612</v>
-      </c>
-      <c r="J4" t="s">
-        <v>765</v>
+        <v>515</v>
       </c>
       <c r="K4" t="s">
-        <v>844</v>
+        <v>714</v>
       </c>
       <c r="M4" t="s">
-        <v>941</v>
+        <v>798</v>
       </c>
       <c r="N4" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O4" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3960,31 +3447,34 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="G5">
-        <v>38418086</v>
+        <v>37311588</v>
       </c>
       <c r="H5" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="I5" t="s">
-        <v>613</v>
+        <v>516</v>
+      </c>
+      <c r="J5" t="s">
+        <v>643</v>
       </c>
       <c r="K5" t="s">
-        <v>845</v>
+        <v>715</v>
       </c>
       <c r="M5" t="s">
-        <v>942</v>
+        <v>799</v>
       </c>
       <c r="N5" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O5" t="s">
-        <v>1093</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3995,145 +3485,148 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="G6">
-        <v>37311588</v>
+        <v>34497044</v>
       </c>
       <c r="H6" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
       <c r="I6" t="s">
-        <v>614</v>
+        <v>517</v>
       </c>
       <c r="J6" t="s">
-        <v>766</v>
+        <v>644</v>
       </c>
       <c r="K6" t="s">
-        <v>846</v>
+        <v>716</v>
       </c>
       <c r="M6" t="s">
-        <v>943</v>
+        <v>800</v>
       </c>
       <c r="N6" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O6" t="s">
-        <v>1094</v>
+        <v>927</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="G7">
-        <v>35640960</v>
+        <v>40455622</v>
       </c>
       <c r="H7" t="s">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="I7" t="s">
-        <v>615</v>
+        <v>518</v>
       </c>
       <c r="J7" t="s">
-        <v>763</v>
+        <v>645</v>
       </c>
       <c r="K7" t="s">
-        <v>842</v>
+        <v>717</v>
       </c>
       <c r="M7" t="s">
-        <v>944</v>
+        <v>801</v>
       </c>
       <c r="N7" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O7" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="G8">
-        <v>34497044</v>
+        <v>39680377</v>
       </c>
       <c r="H8" t="s">
-        <v>463</v>
+        <v>391</v>
       </c>
       <c r="I8" t="s">
-        <v>616</v>
+        <v>519</v>
       </c>
       <c r="J8" t="s">
-        <v>767</v>
+        <v>645</v>
       </c>
       <c r="K8" t="s">
-        <v>847</v>
+        <v>712</v>
       </c>
       <c r="M8" t="s">
-        <v>945</v>
+        <v>802</v>
       </c>
       <c r="N8" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O8" t="s">
-        <v>1095</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="G9">
-        <v>33268459</v>
+        <v>41468027</v>
       </c>
       <c r="H9" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
       <c r="I9" t="s">
-        <v>617</v>
+        <v>520</v>
+      </c>
+      <c r="J9" t="s">
+        <v>646</v>
       </c>
       <c r="K9" t="s">
-        <v>848</v>
+        <v>718</v>
       </c>
       <c r="M9" t="s">
-        <v>946</v>
+        <v>803</v>
       </c>
       <c r="N9" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O9" t="s">
-        <v>1093</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4144,31 +3637,34 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="G10">
-        <v>40522635</v>
+        <v>41385349</v>
       </c>
       <c r="H10" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="I10" t="s">
-        <v>618</v>
+        <v>521</v>
+      </c>
+      <c r="J10" t="s">
+        <v>647</v>
       </c>
       <c r="K10" t="s">
-        <v>849</v>
+        <v>718</v>
       </c>
       <c r="M10" t="s">
-        <v>947</v>
+        <v>804</v>
       </c>
       <c r="N10" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O10" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4179,34 +3675,34 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="G11">
-        <v>40455622</v>
+        <v>38873722</v>
       </c>
       <c r="H11" t="s">
-        <v>466</v>
+        <v>394</v>
       </c>
       <c r="I11" t="s">
-        <v>619</v>
+        <v>522</v>
       </c>
       <c r="J11" t="s">
-        <v>768</v>
+        <v>648</v>
       </c>
       <c r="K11" t="s">
-        <v>850</v>
+        <v>719</v>
       </c>
       <c r="M11" t="s">
-        <v>948</v>
+        <v>805</v>
       </c>
       <c r="N11" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O11" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4217,34 +3713,34 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="G12">
-        <v>39680377</v>
+        <v>39259563</v>
       </c>
       <c r="H12" t="s">
-        <v>467</v>
+        <v>395</v>
       </c>
       <c r="I12" t="s">
-        <v>620</v>
+        <v>523</v>
       </c>
       <c r="J12" t="s">
-        <v>768</v>
+        <v>649</v>
       </c>
       <c r="K12" t="s">
-        <v>842</v>
+        <v>718</v>
       </c>
       <c r="M12" t="s">
-        <v>949</v>
+        <v>806</v>
       </c>
       <c r="N12" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O12" t="s">
-        <v>1096</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4255,34 +3751,34 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="G13">
-        <v>41468027</v>
+        <v>38583175</v>
       </c>
       <c r="H13" t="s">
-        <v>468</v>
+        <v>396</v>
       </c>
       <c r="I13" t="s">
-        <v>621</v>
+        <v>524</v>
       </c>
       <c r="J13" t="s">
-        <v>769</v>
+        <v>644</v>
       </c>
       <c r="K13" t="s">
-        <v>851</v>
+        <v>720</v>
       </c>
       <c r="M13" t="s">
-        <v>950</v>
+        <v>807</v>
       </c>
       <c r="N13" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O13" t="s">
-        <v>1097</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4293,34 +3789,34 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="G14">
-        <v>41385349</v>
+        <v>38814624</v>
       </c>
       <c r="H14" t="s">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="I14" t="s">
-        <v>622</v>
+        <v>525</v>
       </c>
       <c r="J14" t="s">
-        <v>770</v>
+        <v>650</v>
       </c>
       <c r="K14" t="s">
-        <v>851</v>
+        <v>721</v>
       </c>
       <c r="M14" t="s">
-        <v>951</v>
+        <v>808</v>
       </c>
       <c r="N14" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O14" t="s">
-        <v>1093</v>
+        <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4331,34 +3827,34 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="G15">
-        <v>38873722</v>
+        <v>38687505</v>
       </c>
       <c r="H15" t="s">
-        <v>470</v>
+        <v>398</v>
       </c>
       <c r="I15" t="s">
-        <v>623</v>
+        <v>526</v>
       </c>
       <c r="J15" t="s">
-        <v>771</v>
+        <v>647</v>
       </c>
       <c r="K15" t="s">
-        <v>852</v>
+        <v>722</v>
       </c>
       <c r="M15" t="s">
-        <v>952</v>
+        <v>809</v>
       </c>
       <c r="N15" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O15" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4369,34 +3865,34 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="G16">
-        <v>39259563</v>
+        <v>38583868</v>
       </c>
       <c r="H16" t="s">
-        <v>471</v>
+        <v>399</v>
       </c>
       <c r="I16" t="s">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="J16" t="s">
-        <v>772</v>
+        <v>651</v>
       </c>
       <c r="K16" t="s">
-        <v>851</v>
+        <v>723</v>
       </c>
       <c r="M16" t="s">
-        <v>953</v>
+        <v>810</v>
       </c>
       <c r="N16" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O16" t="s">
-        <v>1093</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="3:15">
@@ -4407,34 +3903,34 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="G17">
-        <v>38583175</v>
+        <v>38261044</v>
       </c>
       <c r="H17" t="s">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="I17" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="J17" t="s">
-        <v>767</v>
+        <v>652</v>
       </c>
       <c r="K17" t="s">
-        <v>853</v>
+        <v>721</v>
       </c>
       <c r="M17" t="s">
-        <v>954</v>
+        <v>811</v>
       </c>
       <c r="N17" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O17" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" spans="3:15">
@@ -4445,34 +3941,34 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="G18">
-        <v>38814624</v>
+        <v>38261043</v>
       </c>
       <c r="H18" t="s">
-        <v>473</v>
+        <v>401</v>
       </c>
       <c r="I18" t="s">
-        <v>626</v>
+        <v>529</v>
       </c>
       <c r="J18" t="s">
-        <v>773</v>
+        <v>653</v>
       </c>
       <c r="K18" t="s">
-        <v>848</v>
+        <v>724</v>
       </c>
       <c r="M18" t="s">
-        <v>955</v>
+        <v>812</v>
       </c>
       <c r="N18" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O18" t="s">
-        <v>1098</v>
+        <v>925</v>
       </c>
     </row>
     <row r="19" spans="3:15">
@@ -4483,34 +3979,34 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="G19">
-        <v>38687505</v>
+        <v>38059899</v>
       </c>
       <c r="H19" t="s">
-        <v>474</v>
+        <v>402</v>
       </c>
       <c r="I19" t="s">
-        <v>627</v>
+        <v>530</v>
       </c>
       <c r="J19" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
       <c r="K19" t="s">
-        <v>854</v>
+        <v>714</v>
       </c>
       <c r="M19" t="s">
-        <v>956</v>
+        <v>813</v>
       </c>
       <c r="N19" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O19" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="20" spans="3:15">
@@ -4521,34 +4017,34 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="G20">
-        <v>38583868</v>
+        <v>38227031</v>
       </c>
       <c r="H20" t="s">
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="I20" t="s">
-        <v>628</v>
+        <v>531</v>
       </c>
       <c r="J20" t="s">
-        <v>774</v>
+        <v>647</v>
       </c>
       <c r="K20" t="s">
-        <v>855</v>
+        <v>725</v>
       </c>
       <c r="M20" t="s">
-        <v>957</v>
+        <v>814</v>
       </c>
       <c r="N20" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O20" t="s">
-        <v>1099</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21" spans="3:15">
@@ -4559,34 +4055,34 @@
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="F21" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="G21">
-        <v>38261044</v>
+        <v>39018030</v>
       </c>
       <c r="H21" t="s">
-        <v>476</v>
+        <v>404</v>
       </c>
       <c r="I21" t="s">
-        <v>629</v>
+        <v>532</v>
       </c>
       <c r="J21" t="s">
-        <v>775</v>
+        <v>654</v>
       </c>
       <c r="K21" t="s">
-        <v>848</v>
+        <v>713</v>
       </c>
       <c r="M21" t="s">
-        <v>958</v>
+        <v>815</v>
       </c>
       <c r="N21" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O21" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="22" spans="3:15">
@@ -4597,34 +4093,34 @@
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F22" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="G22">
-        <v>38261043</v>
+        <v>38563834</v>
       </c>
       <c r="H22" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="I22" t="s">
-        <v>630</v>
+        <v>533</v>
       </c>
       <c r="J22" t="s">
-        <v>776</v>
+        <v>655</v>
       </c>
       <c r="K22" t="s">
-        <v>856</v>
+        <v>726</v>
       </c>
       <c r="M22" t="s">
-        <v>959</v>
+        <v>816</v>
       </c>
       <c r="N22" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O22" t="s">
-        <v>1093</v>
+        <v>932</v>
       </c>
     </row>
     <row r="23" spans="3:15">
@@ -4635,34 +4131,34 @@
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F23" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="G23">
-        <v>38059899</v>
+        <v>37276540</v>
       </c>
       <c r="H23" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
       <c r="I23" t="s">
-        <v>631</v>
+        <v>534</v>
       </c>
       <c r="J23" t="s">
-        <v>770</v>
+        <v>656</v>
       </c>
       <c r="K23" t="s">
-        <v>845</v>
+        <v>712</v>
       </c>
       <c r="M23" t="s">
-        <v>960</v>
+        <v>817</v>
       </c>
       <c r="N23" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O23" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="3:15">
@@ -4673,34 +4169,34 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="G24">
-        <v>38227031</v>
+        <v>37552302</v>
       </c>
       <c r="H24" t="s">
-        <v>479</v>
+        <v>407</v>
       </c>
       <c r="I24" t="s">
-        <v>632</v>
+        <v>535</v>
       </c>
       <c r="J24" t="s">
-        <v>770</v>
+        <v>657</v>
       </c>
       <c r="K24" t="s">
-        <v>857</v>
+        <v>721</v>
       </c>
       <c r="M24" t="s">
-        <v>961</v>
+        <v>818</v>
       </c>
       <c r="N24" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O24" t="s">
-        <v>1094</v>
+        <v>925</v>
       </c>
     </row>
     <row r="25" spans="3:15">
@@ -4711,31 +4207,34 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="G25">
-        <v>39418046</v>
+        <v>35670788</v>
       </c>
       <c r="H25" t="s">
-        <v>480</v>
+        <v>408</v>
       </c>
       <c r="I25" t="s">
-        <v>633</v>
+        <v>536</v>
+      </c>
+      <c r="J25" t="s">
+        <v>645</v>
       </c>
       <c r="K25" t="s">
-        <v>845</v>
+        <v>714</v>
       </c>
       <c r="M25" t="s">
-        <v>962</v>
+        <v>819</v>
       </c>
       <c r="N25" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O25" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="26" spans="3:15">
@@ -4746,34 +4245,34 @@
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="G26">
-        <v>39018030</v>
+        <v>35657620</v>
       </c>
       <c r="H26" t="s">
-        <v>481</v>
+        <v>409</v>
       </c>
       <c r="I26" t="s">
-        <v>634</v>
+        <v>537</v>
       </c>
       <c r="J26" t="s">
-        <v>777</v>
+        <v>658</v>
       </c>
       <c r="K26" t="s">
-        <v>844</v>
+        <v>727</v>
       </c>
       <c r="M26" t="s">
-        <v>963</v>
+        <v>820</v>
       </c>
       <c r="N26" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O26" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -4784,34 +4283,34 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="G27">
-        <v>38563834</v>
+        <v>35699706</v>
       </c>
       <c r="H27" t="s">
-        <v>482</v>
+        <v>410</v>
       </c>
       <c r="I27" t="s">
-        <v>635</v>
+        <v>538</v>
       </c>
       <c r="J27" t="s">
-        <v>778</v>
+        <v>647</v>
       </c>
       <c r="K27" t="s">
-        <v>858</v>
+        <v>720</v>
       </c>
       <c r="M27" t="s">
-        <v>964</v>
+        <v>821</v>
       </c>
       <c r="N27" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O27" t="s">
-        <v>1100</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="3:15">
@@ -4822,34 +4321,34 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="G28">
-        <v>37276540</v>
+        <v>34982120</v>
       </c>
       <c r="H28" t="s">
-        <v>483</v>
+        <v>411</v>
       </c>
       <c r="I28" t="s">
-        <v>636</v>
+        <v>539</v>
       </c>
       <c r="J28" t="s">
-        <v>779</v>
+        <v>659</v>
       </c>
       <c r="K28" t="s">
-        <v>842</v>
+        <v>728</v>
       </c>
       <c r="M28" t="s">
-        <v>965</v>
+        <v>822</v>
       </c>
       <c r="N28" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O28" t="s">
-        <v>1093</v>
+        <v>934</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -4860,34 +4359,34 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="G29">
-        <v>37552302</v>
+        <v>34751709</v>
       </c>
       <c r="H29" t="s">
-        <v>484</v>
+        <v>412</v>
       </c>
       <c r="I29" t="s">
-        <v>637</v>
+        <v>540</v>
       </c>
       <c r="J29" t="s">
-        <v>780</v>
+        <v>646</v>
       </c>
       <c r="K29" t="s">
-        <v>848</v>
+        <v>729</v>
       </c>
       <c r="M29" t="s">
-        <v>966</v>
+        <v>823</v>
       </c>
       <c r="N29" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O29" t="s">
-        <v>1093</v>
+        <v>935</v>
       </c>
     </row>
     <row r="30" spans="3:15">
@@ -4898,34 +4397,34 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="G30">
-        <v>35670788</v>
+        <v>34003219</v>
       </c>
       <c r="H30" t="s">
-        <v>485</v>
+        <v>413</v>
       </c>
       <c r="I30" t="s">
-        <v>638</v>
+        <v>541</v>
       </c>
       <c r="J30" t="s">
-        <v>768</v>
+        <v>645</v>
       </c>
       <c r="K30" t="s">
-        <v>845</v>
+        <v>730</v>
       </c>
       <c r="M30" t="s">
-        <v>967</v>
+        <v>824</v>
       </c>
       <c r="N30" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O30" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="31" spans="3:15">
@@ -4936,34 +4435,34 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="G31">
-        <v>35657620</v>
+        <v>33687469</v>
       </c>
       <c r="H31" t="s">
-        <v>486</v>
+        <v>414</v>
       </c>
       <c r="I31" t="s">
-        <v>639</v>
+        <v>542</v>
       </c>
       <c r="J31" t="s">
-        <v>781</v>
+        <v>660</v>
       </c>
       <c r="K31" t="s">
-        <v>859</v>
+        <v>731</v>
       </c>
       <c r="M31" t="s">
-        <v>968</v>
+        <v>825</v>
       </c>
       <c r="N31" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O31" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="32" spans="3:15">
@@ -4974,34 +4473,34 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="G32">
-        <v>35699706</v>
+        <v>33079153</v>
       </c>
       <c r="H32" t="s">
-        <v>487</v>
+        <v>415</v>
       </c>
       <c r="I32" t="s">
-        <v>640</v>
+        <v>543</v>
       </c>
       <c r="J32" t="s">
-        <v>770</v>
+        <v>641</v>
       </c>
       <c r="K32" t="s">
-        <v>853</v>
+        <v>732</v>
       </c>
       <c r="M32" t="s">
-        <v>969</v>
+        <v>826</v>
       </c>
       <c r="N32" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O32" t="s">
-        <v>1101</v>
+        <v>925</v>
       </c>
     </row>
     <row r="33" spans="3:15">
@@ -5012,34 +4511,34 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="G33">
-        <v>34982120</v>
+        <v>33141207</v>
       </c>
       <c r="H33" t="s">
-        <v>488</v>
+        <v>416</v>
       </c>
       <c r="I33" t="s">
-        <v>641</v>
+        <v>544</v>
       </c>
       <c r="J33" t="s">
-        <v>782</v>
+        <v>650</v>
       </c>
       <c r="K33" t="s">
-        <v>860</v>
+        <v>714</v>
       </c>
       <c r="M33" t="s">
-        <v>970</v>
+        <v>827</v>
       </c>
       <c r="N33" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O33" t="s">
-        <v>1102</v>
+        <v>936</v>
       </c>
     </row>
     <row r="34" spans="3:15">
@@ -5050,34 +4549,34 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="G34">
-        <v>34751709</v>
+        <v>33231665</v>
       </c>
       <c r="H34" t="s">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="I34" t="s">
-        <v>642</v>
+        <v>545</v>
       </c>
       <c r="J34" t="s">
-        <v>769</v>
+        <v>661</v>
       </c>
       <c r="K34" t="s">
-        <v>861</v>
+        <v>720</v>
       </c>
       <c r="M34" t="s">
-        <v>971</v>
+        <v>828</v>
       </c>
       <c r="N34" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O34" t="s">
-        <v>1103</v>
+        <v>925</v>
       </c>
     </row>
     <row r="35" spans="3:15">
@@ -5088,34 +4587,34 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="G35">
-        <v>34003219</v>
+        <v>33201204</v>
       </c>
       <c r="H35" t="s">
-        <v>490</v>
+        <v>418</v>
       </c>
       <c r="I35" t="s">
-        <v>643</v>
+        <v>546</v>
       </c>
       <c r="J35" t="s">
-        <v>768</v>
+        <v>662</v>
       </c>
       <c r="K35" t="s">
-        <v>862</v>
+        <v>732</v>
       </c>
       <c r="M35" t="s">
-        <v>972</v>
+        <v>829</v>
       </c>
       <c r="N35" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O35" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="36" spans="3:15">
@@ -5126,34 +4625,34 @@
         <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="G36">
-        <v>33687469</v>
+        <v>31910280</v>
       </c>
       <c r="H36" t="s">
-        <v>491</v>
+        <v>419</v>
       </c>
       <c r="I36" t="s">
-        <v>644</v>
+        <v>547</v>
       </c>
       <c r="J36" t="s">
-        <v>783</v>
+        <v>654</v>
       </c>
       <c r="K36" t="s">
-        <v>863</v>
+        <v>721</v>
       </c>
       <c r="M36" t="s">
-        <v>973</v>
+        <v>830</v>
       </c>
       <c r="N36" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O36" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="37" spans="3:15">
@@ -5164,34 +4663,34 @@
         <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="G37">
-        <v>33079153</v>
+        <v>31935027</v>
       </c>
       <c r="H37" t="s">
-        <v>492</v>
+        <v>420</v>
       </c>
       <c r="I37" t="s">
-        <v>645</v>
+        <v>548</v>
       </c>
       <c r="J37" t="s">
-        <v>763</v>
+        <v>650</v>
       </c>
       <c r="K37" t="s">
-        <v>864</v>
+        <v>721</v>
       </c>
       <c r="M37" t="s">
-        <v>974</v>
+        <v>831</v>
       </c>
       <c r="N37" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O37" t="s">
-        <v>1093</v>
+        <v>937</v>
       </c>
     </row>
     <row r="38" spans="3:15">
@@ -5202,329 +4701,341 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="G38">
-        <v>33141207</v>
+        <v>33351041</v>
       </c>
       <c r="H38" t="s">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="I38" t="s">
-        <v>646</v>
+        <v>549</v>
       </c>
       <c r="J38" t="s">
-        <v>773</v>
+        <v>663</v>
       </c>
       <c r="K38" t="s">
-        <v>845</v>
+        <v>714</v>
       </c>
       <c r="M38" t="s">
-        <v>975</v>
+        <v>832</v>
       </c>
       <c r="N38" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O38" t="s">
-        <v>1104</v>
+        <v>938</v>
       </c>
     </row>
     <row r="39" spans="3:15">
       <c r="C39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
         <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="G39">
-        <v>33231665</v>
+        <v>41015051</v>
       </c>
       <c r="H39" t="s">
-        <v>494</v>
+        <v>422</v>
       </c>
       <c r="I39" t="s">
-        <v>647</v>
-      </c>
-      <c r="J39" t="s">
-        <v>784</v>
+        <v>550</v>
       </c>
       <c r="K39" t="s">
-        <v>853</v>
+        <v>733</v>
       </c>
       <c r="M39" t="s">
-        <v>976</v>
+        <v>833</v>
       </c>
       <c r="N39" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O39" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="40" spans="3:15">
       <c r="C40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
         <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="G40">
-        <v>33201204</v>
+        <v>41138738</v>
       </c>
       <c r="H40" t="s">
-        <v>495</v>
+        <v>423</v>
       </c>
       <c r="I40" t="s">
-        <v>648</v>
+        <v>551</v>
       </c>
       <c r="J40" t="s">
-        <v>785</v>
+        <v>664</v>
       </c>
       <c r="K40" t="s">
-        <v>864</v>
+        <v>734</v>
       </c>
       <c r="M40" t="s">
-        <v>977</v>
+        <v>834</v>
       </c>
       <c r="N40" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O40" t="s">
-        <v>1093</v>
+        <v>939</v>
       </c>
     </row>
     <row r="41" spans="3:15">
       <c r="C41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F41" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="G41">
-        <v>32692387</v>
+        <v>39798981</v>
       </c>
       <c r="H41" t="s">
-        <v>496</v>
+        <v>424</v>
       </c>
       <c r="I41" t="s">
-        <v>649</v>
+        <v>552</v>
+      </c>
+      <c r="J41" t="s">
+        <v>665</v>
       </c>
       <c r="K41" t="s">
-        <v>865</v>
+        <v>735</v>
+      </c>
+      <c r="L41" t="s">
+        <v>788</v>
       </c>
       <c r="M41" t="s">
-        <v>978</v>
+        <v>835</v>
       </c>
       <c r="N41" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O41" t="s">
-        <v>1093</v>
+        <v>940</v>
       </c>
     </row>
     <row r="42" spans="3:15">
       <c r="C42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="G42">
-        <v>31910280</v>
+        <v>40783288</v>
       </c>
       <c r="H42" t="s">
-        <v>497</v>
+        <v>425</v>
       </c>
       <c r="I42" t="s">
-        <v>650</v>
+        <v>553</v>
       </c>
       <c r="J42" t="s">
-        <v>777</v>
+        <v>666</v>
       </c>
       <c r="K42" t="s">
-        <v>848</v>
+        <v>718</v>
       </c>
       <c r="M42" t="s">
-        <v>979</v>
+        <v>836</v>
       </c>
       <c r="N42" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O42" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="43" spans="3:15">
       <c r="C43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="G43">
-        <v>31935027</v>
+        <v>39396348</v>
       </c>
       <c r="H43" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="I43" t="s">
-        <v>651</v>
+        <v>554</v>
       </c>
       <c r="J43" t="s">
-        <v>773</v>
+        <v>666</v>
       </c>
       <c r="K43" t="s">
-        <v>848</v>
+        <v>718</v>
       </c>
       <c r="M43" t="s">
-        <v>980</v>
+        <v>837</v>
       </c>
       <c r="N43" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O43" t="s">
-        <v>1105</v>
+        <v>925</v>
       </c>
     </row>
     <row r="44" spans="3:15">
       <c r="C44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F44" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="G44">
-        <v>33351041</v>
+        <v>38996463</v>
       </c>
       <c r="H44" t="s">
-        <v>499</v>
+        <v>427</v>
       </c>
       <c r="I44" t="s">
-        <v>652</v>
+        <v>555</v>
       </c>
       <c r="J44" t="s">
-        <v>786</v>
+        <v>667</v>
       </c>
       <c r="K44" t="s">
-        <v>845</v>
+        <v>736</v>
+      </c>
+      <c r="L44" t="s">
+        <v>788</v>
       </c>
       <c r="M44" t="s">
-        <v>981</v>
+        <v>838</v>
       </c>
       <c r="N44" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O44" t="s">
-        <v>1106</v>
+        <v>925</v>
       </c>
     </row>
     <row r="45" spans="3:15">
       <c r="C45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="G45">
-        <v>32259229</v>
+        <v>38065194</v>
       </c>
       <c r="H45" t="s">
-        <v>500</v>
+        <v>428</v>
       </c>
       <c r="I45" t="s">
-        <v>653</v>
+        <v>556</v>
+      </c>
+      <c r="J45" t="s">
+        <v>666</v>
       </c>
       <c r="K45" t="s">
-        <v>845</v>
+        <v>737</v>
       </c>
       <c r="M45" t="s">
-        <v>982</v>
+        <v>839</v>
       </c>
       <c r="N45" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O45" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="3:15">
       <c r="C46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
         <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="G46">
-        <v>32315058</v>
+        <v>39097395</v>
       </c>
       <c r="H46" t="s">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="I46" t="s">
-        <v>654</v>
+        <v>557</v>
+      </c>
+      <c r="J46" t="s">
+        <v>668</v>
       </c>
       <c r="K46" t="s">
-        <v>866</v>
+        <v>738</v>
       </c>
       <c r="M46" t="s">
-        <v>983</v>
+        <v>840</v>
       </c>
       <c r="N46" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O46" t="s">
-        <v>1093</v>
+        <v>941</v>
       </c>
     </row>
     <row r="47" spans="3:15">
@@ -5535,31 +5046,34 @@
         <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="G47">
-        <v>41015051</v>
+        <v>37805216</v>
       </c>
       <c r="H47" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="I47" t="s">
-        <v>655</v>
+        <v>558</v>
+      </c>
+      <c r="J47" t="s">
+        <v>644</v>
       </c>
       <c r="K47" t="s">
-        <v>867</v>
+        <v>721</v>
       </c>
       <c r="M47" t="s">
-        <v>984</v>
+        <v>841</v>
       </c>
       <c r="N47" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O47" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="48" spans="3:15">
@@ -5570,34 +5084,34 @@
         <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F48" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="G48">
-        <v>41138738</v>
+        <v>37931633</v>
       </c>
       <c r="H48" t="s">
-        <v>503</v>
+        <v>431</v>
       </c>
       <c r="I48" t="s">
-        <v>656</v>
+        <v>559</v>
       </c>
       <c r="J48" t="s">
-        <v>787</v>
+        <v>666</v>
       </c>
       <c r="K48" t="s">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="M48" t="s">
-        <v>985</v>
+        <v>842</v>
       </c>
       <c r="N48" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O48" t="s">
-        <v>1107</v>
+        <v>942</v>
       </c>
     </row>
     <row r="49" spans="3:15">
@@ -5608,37 +5122,34 @@
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="F49" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="G49">
-        <v>39798981</v>
+        <v>37997129</v>
       </c>
       <c r="H49" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="I49" t="s">
-        <v>657</v>
+        <v>560</v>
       </c>
       <c r="J49" t="s">
-        <v>788</v>
+        <v>669</v>
       </c>
       <c r="K49" t="s">
-        <v>869</v>
-      </c>
-      <c r="L49" t="s">
-        <v>931</v>
+        <v>721</v>
       </c>
       <c r="M49" t="s">
-        <v>986</v>
+        <v>843</v>
       </c>
       <c r="N49" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O49" t="s">
-        <v>1108</v>
+        <v>925</v>
       </c>
     </row>
     <row r="50" spans="3:15">
@@ -5649,37 +5160,34 @@
         <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="F50" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="G50">
-        <v>39642902</v>
+        <v>37997099</v>
       </c>
       <c r="H50" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
       <c r="I50" t="s">
-        <v>658</v>
+        <v>561</v>
       </c>
       <c r="J50" t="s">
-        <v>789</v>
+        <v>670</v>
       </c>
       <c r="K50" t="s">
-        <v>870</v>
-      </c>
-      <c r="L50" t="s">
-        <v>932</v>
+        <v>739</v>
       </c>
       <c r="M50" t="s">
-        <v>987</v>
+        <v>844</v>
       </c>
       <c r="N50" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O50" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="51" spans="3:15">
@@ -5690,31 +5198,34 @@
         <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="G51">
-        <v>41429130</v>
+        <v>37997098</v>
       </c>
       <c r="H51" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="I51" t="s">
-        <v>659</v>
+        <v>562</v>
+      </c>
+      <c r="J51" t="s">
+        <v>646</v>
       </c>
       <c r="K51" t="s">
-        <v>848</v>
+        <v>732</v>
       </c>
       <c r="M51" t="s">
-        <v>988</v>
+        <v>845</v>
       </c>
       <c r="N51" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O51" t="s">
-        <v>1093</v>
+        <v>943</v>
       </c>
     </row>
     <row r="52" spans="3:15">
@@ -5725,34 +5236,34 @@
         <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="G52">
-        <v>40783288</v>
+        <v>37997097</v>
       </c>
       <c r="H52" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
       <c r="I52" t="s">
-        <v>660</v>
+        <v>563</v>
       </c>
       <c r="J52" t="s">
-        <v>790</v>
+        <v>647</v>
       </c>
       <c r="K52" t="s">
-        <v>851</v>
+        <v>740</v>
       </c>
       <c r="M52" t="s">
-        <v>989</v>
+        <v>846</v>
       </c>
       <c r="N52" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O52" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="53" spans="3:15">
@@ -5763,34 +5274,34 @@
         <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="G53">
-        <v>39396348</v>
+        <v>37997051</v>
       </c>
       <c r="H53" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
       <c r="I53" t="s">
-        <v>661</v>
+        <v>564</v>
       </c>
       <c r="J53" t="s">
-        <v>790</v>
+        <v>671</v>
       </c>
       <c r="K53" t="s">
-        <v>851</v>
+        <v>739</v>
       </c>
       <c r="M53" t="s">
-        <v>990</v>
+        <v>847</v>
       </c>
       <c r="N53" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O53" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="54" spans="3:15">
@@ -5801,37 +5312,34 @@
         <v>71</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="G54">
-        <v>38996463</v>
+        <v>37105210</v>
       </c>
       <c r="H54" t="s">
-        <v>509</v>
+        <v>437</v>
       </c>
       <c r="I54" t="s">
-        <v>662</v>
+        <v>565</v>
       </c>
       <c r="J54" t="s">
-        <v>791</v>
+        <v>672</v>
       </c>
       <c r="K54" t="s">
-        <v>871</v>
-      </c>
-      <c r="L54" t="s">
-        <v>931</v>
+        <v>741</v>
       </c>
       <c r="M54" t="s">
-        <v>991</v>
+        <v>848</v>
       </c>
       <c r="N54" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O54" t="s">
-        <v>1093</v>
+        <v>944</v>
       </c>
     </row>
     <row r="55" spans="3:15">
@@ -5842,34 +5350,34 @@
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="F55" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="G55">
-        <v>38065194</v>
+        <v>37030315</v>
       </c>
       <c r="H55" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
       <c r="I55" t="s">
-        <v>663</v>
+        <v>566</v>
       </c>
       <c r="J55" t="s">
-        <v>790</v>
+        <v>673</v>
       </c>
       <c r="K55" t="s">
-        <v>872</v>
+        <v>742</v>
       </c>
       <c r="M55" t="s">
-        <v>992</v>
+        <v>849</v>
       </c>
       <c r="N55" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O55" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="3:15">
@@ -5880,34 +5388,34 @@
         <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="F56" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="G56">
-        <v>39097395</v>
+        <v>37061269</v>
       </c>
       <c r="H56" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="I56" t="s">
-        <v>664</v>
+        <v>567</v>
       </c>
       <c r="J56" t="s">
-        <v>792</v>
+        <v>666</v>
       </c>
       <c r="K56" t="s">
-        <v>873</v>
+        <v>718</v>
       </c>
       <c r="M56" t="s">
-        <v>993</v>
+        <v>850</v>
       </c>
       <c r="N56" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O56" t="s">
-        <v>1109</v>
+        <v>925</v>
       </c>
     </row>
     <row r="57" spans="3:15">
@@ -5918,31 +5426,34 @@
         <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="F57" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="G57">
-        <v>37544309</v>
+        <v>36154677</v>
       </c>
       <c r="H57" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="I57" t="s">
-        <v>665</v>
+        <v>568</v>
+      </c>
+      <c r="J57" t="s">
+        <v>674</v>
       </c>
       <c r="K57" t="s">
-        <v>874</v>
+        <v>732</v>
       </c>
       <c r="M57" t="s">
-        <v>994</v>
+        <v>851</v>
       </c>
       <c r="N57" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O57" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="58" spans="3:15">
@@ -5953,34 +5464,34 @@
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="F58" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="G58">
-        <v>37805216</v>
+        <v>36930014</v>
       </c>
       <c r="H58" t="s">
-        <v>513</v>
+        <v>441</v>
       </c>
       <c r="I58" t="s">
-        <v>666</v>
+        <v>569</v>
       </c>
       <c r="J58" t="s">
-        <v>767</v>
+        <v>646</v>
       </c>
       <c r="K58" t="s">
-        <v>848</v>
+        <v>743</v>
       </c>
       <c r="M58" t="s">
-        <v>995</v>
+        <v>852</v>
       </c>
       <c r="N58" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O58" t="s">
-        <v>1093</v>
+        <v>945</v>
       </c>
     </row>
     <row r="59" spans="3:15">
@@ -5991,34 +5502,34 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="F59" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="G59">
-        <v>37931633</v>
+        <v>36502844</v>
       </c>
       <c r="H59" t="s">
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="I59" t="s">
-        <v>667</v>
+        <v>570</v>
       </c>
       <c r="J59" t="s">
-        <v>790</v>
+        <v>675</v>
       </c>
       <c r="K59" t="s">
-        <v>851</v>
+        <v>744</v>
       </c>
       <c r="M59" t="s">
-        <v>996</v>
+        <v>853</v>
       </c>
       <c r="N59" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O59" t="s">
-        <v>1110</v>
+        <v>946</v>
       </c>
     </row>
     <row r="60" spans="3:15">
@@ -6029,34 +5540,31 @@
         <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="F60" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="G60">
-        <v>37997129</v>
+        <v>35988567</v>
       </c>
       <c r="H60" t="s">
-        <v>515</v>
+        <v>443</v>
       </c>
       <c r="I60" t="s">
-        <v>668</v>
-      </c>
-      <c r="J60" t="s">
-        <v>793</v>
+        <v>571</v>
       </c>
       <c r="K60" t="s">
-        <v>848</v>
+        <v>745</v>
       </c>
       <c r="M60" t="s">
-        <v>997</v>
+        <v>854</v>
       </c>
       <c r="N60" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O60" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="61" spans="3:15">
@@ -6067,34 +5575,37 @@
         <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="F61" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="G61">
-        <v>37997128</v>
+        <v>35964611</v>
       </c>
       <c r="H61" t="s">
-        <v>516</v>
+        <v>444</v>
       </c>
       <c r="I61" t="s">
-        <v>669</v>
+        <v>572</v>
       </c>
       <c r="J61" t="s">
-        <v>783</v>
+        <v>676</v>
       </c>
       <c r="K61" t="s">
-        <v>875</v>
+        <v>714</v>
+      </c>
+      <c r="L61" t="s">
+        <v>788</v>
       </c>
       <c r="M61" t="s">
-        <v>998</v>
+        <v>855</v>
       </c>
       <c r="N61" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O61" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="62" spans="3:15">
@@ -6105,34 +5616,37 @@
         <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="F62" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="G62">
-        <v>37997099</v>
+        <v>33676628</v>
       </c>
       <c r="H62" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
       <c r="I62" t="s">
-        <v>670</v>
+        <v>573</v>
       </c>
       <c r="J62" t="s">
-        <v>794</v>
+        <v>677</v>
       </c>
       <c r="K62" t="s">
-        <v>876</v>
+        <v>746</v>
+      </c>
+      <c r="L62" t="s">
+        <v>789</v>
       </c>
       <c r="M62" t="s">
-        <v>999</v>
+        <v>856</v>
       </c>
       <c r="N62" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O62" t="s">
-        <v>1093</v>
+        <v>947</v>
       </c>
     </row>
     <row r="63" spans="3:15">
@@ -6143,34 +5657,37 @@
         <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="G63">
-        <v>37997098</v>
+        <v>34175021</v>
       </c>
       <c r="H63" t="s">
-        <v>518</v>
+        <v>446</v>
       </c>
       <c r="I63" t="s">
-        <v>671</v>
+        <v>574</v>
       </c>
       <c r="J63" t="s">
-        <v>769</v>
+        <v>678</v>
       </c>
       <c r="K63" t="s">
-        <v>864</v>
+        <v>747</v>
+      </c>
+      <c r="L63" t="s">
+        <v>790</v>
       </c>
       <c r="M63" t="s">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="N63" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O63" t="s">
-        <v>1111</v>
+        <v>948</v>
       </c>
     </row>
     <row r="64" spans="3:15">
@@ -6181,34 +5698,34 @@
         <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F64" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="G64">
-        <v>37997097</v>
+        <v>34227971</v>
       </c>
       <c r="H64" t="s">
-        <v>519</v>
+        <v>447</v>
       </c>
       <c r="I64" t="s">
-        <v>672</v>
+        <v>575</v>
       </c>
       <c r="J64" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
       <c r="K64" t="s">
-        <v>877</v>
+        <v>748</v>
       </c>
       <c r="M64" t="s">
-        <v>1001</v>
+        <v>858</v>
       </c>
       <c r="N64" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O64" t="s">
-        <v>1093</v>
+        <v>949</v>
       </c>
     </row>
     <row r="65" spans="3:15">
@@ -6219,34 +5736,34 @@
         <v>82</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F65" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="G65">
-        <v>37997076</v>
+        <v>34227952</v>
       </c>
       <c r="H65" t="s">
-        <v>520</v>
+        <v>448</v>
       </c>
       <c r="I65" t="s">
-        <v>673</v>
+        <v>576</v>
       </c>
       <c r="J65" t="s">
-        <v>763</v>
+        <v>644</v>
       </c>
       <c r="K65" t="s">
-        <v>878</v>
+        <v>714</v>
       </c>
       <c r="M65" t="s">
-        <v>1002</v>
+        <v>859</v>
       </c>
       <c r="N65" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O65" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="66" spans="3:15">
@@ -6257,34 +5774,34 @@
         <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F66" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="G66">
-        <v>37997051</v>
+        <v>34227947</v>
       </c>
       <c r="H66" t="s">
-        <v>521</v>
+        <v>449</v>
       </c>
       <c r="I66" t="s">
-        <v>674</v>
+        <v>577</v>
       </c>
       <c r="J66" t="s">
-        <v>795</v>
+        <v>679</v>
       </c>
       <c r="K66" t="s">
-        <v>876</v>
+        <v>739</v>
       </c>
       <c r="M66" t="s">
-        <v>1003</v>
+        <v>860</v>
       </c>
       <c r="N66" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O66" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="67" spans="3:15">
@@ -6295,34 +5812,34 @@
         <v>84</v>
       </c>
       <c r="E67" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="F67" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="G67">
-        <v>37105210</v>
+        <v>34227942</v>
       </c>
       <c r="H67" t="s">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="I67" t="s">
-        <v>675</v>
+        <v>578</v>
       </c>
       <c r="J67" t="s">
-        <v>796</v>
+        <v>646</v>
       </c>
       <c r="K67" t="s">
-        <v>879</v>
+        <v>732</v>
       </c>
       <c r="M67" t="s">
-        <v>1004</v>
+        <v>861</v>
       </c>
       <c r="N67" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O67" t="s">
-        <v>1112</v>
+        <v>925</v>
       </c>
     </row>
     <row r="68" spans="3:15">
@@ -6333,34 +5850,34 @@
         <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F68" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="G68">
-        <v>37030315</v>
+        <v>33485461</v>
       </c>
       <c r="H68" t="s">
-        <v>523</v>
+        <v>451</v>
       </c>
       <c r="I68" t="s">
-        <v>676</v>
+        <v>579</v>
       </c>
       <c r="J68" t="s">
-        <v>797</v>
+        <v>680</v>
       </c>
       <c r="K68" t="s">
-        <v>880</v>
+        <v>749</v>
       </c>
       <c r="M68" t="s">
-        <v>1005</v>
+        <v>862</v>
       </c>
       <c r="N68" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O68" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="69" spans="3:15">
@@ -6371,34 +5888,34 @@
         <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="G69">
-        <v>37061269</v>
+        <v>34741816</v>
       </c>
       <c r="H69" t="s">
-        <v>524</v>
+        <v>452</v>
       </c>
       <c r="I69" t="s">
-        <v>677</v>
+        <v>580</v>
       </c>
       <c r="J69" t="s">
-        <v>790</v>
+        <v>641</v>
       </c>
       <c r="K69" t="s">
-        <v>851</v>
+        <v>712</v>
       </c>
       <c r="M69" t="s">
-        <v>1006</v>
+        <v>863</v>
       </c>
       <c r="N69" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O69" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="70" spans="3:15">
@@ -6409,34 +5926,37 @@
         <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="F70" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="G70">
-        <v>36154677</v>
+        <v>32888407</v>
       </c>
       <c r="H70" t="s">
-        <v>525</v>
+        <v>453</v>
       </c>
       <c r="I70" t="s">
-        <v>678</v>
+        <v>581</v>
       </c>
       <c r="J70" t="s">
-        <v>798</v>
+        <v>667</v>
       </c>
       <c r="K70" t="s">
+        <v>750</v>
+      </c>
+      <c r="L70" t="s">
+        <v>789</v>
+      </c>
+      <c r="M70" t="s">
         <v>864</v>
       </c>
-      <c r="M70" t="s">
-        <v>1007</v>
-      </c>
       <c r="N70" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O70" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="71" spans="3:15">
@@ -6447,31 +5967,34 @@
         <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="F71" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="G71">
-        <v>36328042</v>
+        <v>33002431</v>
       </c>
       <c r="H71" t="s">
-        <v>526</v>
+        <v>454</v>
       </c>
       <c r="I71" t="s">
-        <v>679</v>
+        <v>582</v>
+      </c>
+      <c r="J71" t="s">
+        <v>650</v>
       </c>
       <c r="K71" t="s">
-        <v>864</v>
+        <v>718</v>
       </c>
       <c r="M71" t="s">
-        <v>1008</v>
+        <v>865</v>
       </c>
       <c r="N71" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O71" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="72" spans="3:15">
@@ -6482,34 +6005,34 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F72" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="G72">
-        <v>36930014</v>
+        <v>32473682</v>
       </c>
       <c r="H72" t="s">
-        <v>527</v>
+        <v>455</v>
       </c>
       <c r="I72" t="s">
-        <v>680</v>
+        <v>583</v>
       </c>
       <c r="J72" t="s">
-        <v>769</v>
+        <v>646</v>
       </c>
       <c r="K72" t="s">
-        <v>881</v>
+        <v>721</v>
       </c>
       <c r="M72" t="s">
-        <v>1009</v>
+        <v>866</v>
       </c>
       <c r="N72" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O72" t="s">
-        <v>1113</v>
+        <v>925</v>
       </c>
     </row>
     <row r="73" spans="3:15">
@@ -6520,34 +6043,34 @@
         <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F73" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="G73">
-        <v>36929968</v>
+        <v>32473681</v>
       </c>
       <c r="H73" t="s">
-        <v>528</v>
+        <v>456</v>
       </c>
       <c r="I73" t="s">
+        <v>584</v>
+      </c>
+      <c r="J73" t="s">
         <v>681</v>
       </c>
-      <c r="J73" t="s">
-        <v>768</v>
-      </c>
       <c r="K73" t="s">
-        <v>882</v>
+        <v>720</v>
       </c>
       <c r="M73" t="s">
-        <v>1010</v>
+        <v>867</v>
       </c>
       <c r="N73" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O73" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="74" spans="3:15">
@@ -6558,34 +6081,34 @@
         <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="F74" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="G74">
-        <v>36502844</v>
+        <v>31929014</v>
       </c>
       <c r="H74" t="s">
-        <v>529</v>
+        <v>457</v>
       </c>
       <c r="I74" t="s">
-        <v>682</v>
+        <v>585</v>
       </c>
       <c r="J74" t="s">
-        <v>799</v>
+        <v>645</v>
       </c>
       <c r="K74" t="s">
-        <v>883</v>
+        <v>713</v>
       </c>
       <c r="M74" t="s">
-        <v>1011</v>
+        <v>868</v>
       </c>
       <c r="N74" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O74" t="s">
-        <v>1114</v>
+        <v>925</v>
       </c>
     </row>
     <row r="75" spans="3:15">
@@ -6596,31 +6119,34 @@
         <v>92</v>
       </c>
       <c r="E75" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="G75">
-        <v>35988567</v>
+        <v>32007142</v>
       </c>
       <c r="H75" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="I75" t="s">
-        <v>683</v>
+        <v>586</v>
+      </c>
+      <c r="J75" t="s">
+        <v>641</v>
       </c>
       <c r="K75" t="s">
-        <v>884</v>
+        <v>751</v>
       </c>
       <c r="M75" t="s">
-        <v>1012</v>
+        <v>869</v>
       </c>
       <c r="N75" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O75" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="76" spans="3:15">
@@ -6631,657 +6157,669 @@
         <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="G76">
-        <v>35964611</v>
+        <v>32007141</v>
       </c>
       <c r="H76" t="s">
-        <v>531</v>
+        <v>459</v>
       </c>
       <c r="I76" t="s">
-        <v>684</v>
+        <v>587</v>
       </c>
       <c r="J76" t="s">
-        <v>800</v>
+        <v>641</v>
       </c>
       <c r="K76" t="s">
-        <v>845</v>
-      </c>
-      <c r="L76" t="s">
-        <v>931</v>
+        <v>751</v>
       </c>
       <c r="M76" t="s">
-        <v>1013</v>
+        <v>870</v>
       </c>
       <c r="N76" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O76" t="s">
-        <v>1093</v>
+        <v>950</v>
       </c>
     </row>
     <row r="77" spans="3:15">
       <c r="C77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>94</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="G77">
-        <v>33676628</v>
+        <v>40961449</v>
       </c>
       <c r="H77" t="s">
-        <v>532</v>
+        <v>460</v>
       </c>
       <c r="I77" t="s">
-        <v>685</v>
+        <v>588</v>
       </c>
       <c r="J77" t="s">
-        <v>801</v>
+        <v>682</v>
       </c>
       <c r="K77" t="s">
-        <v>885</v>
-      </c>
-      <c r="L77" t="s">
-        <v>932</v>
+        <v>714</v>
       </c>
       <c r="M77" t="s">
-        <v>1014</v>
+        <v>871</v>
       </c>
       <c r="N77" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O77" t="s">
-        <v>1115</v>
+        <v>925</v>
       </c>
     </row>
     <row r="78" spans="3:15">
       <c r="C78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="F78" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="G78">
-        <v>34175021</v>
+        <v>41104928</v>
       </c>
       <c r="H78" t="s">
-        <v>533</v>
+        <v>461</v>
       </c>
       <c r="I78" t="s">
-        <v>686</v>
+        <v>589</v>
       </c>
       <c r="J78" t="s">
-        <v>802</v>
+        <v>649</v>
       </c>
       <c r="K78" t="s">
-        <v>886</v>
+        <v>752</v>
       </c>
       <c r="L78" t="s">
-        <v>933</v>
+        <v>791</v>
       </c>
       <c r="M78" t="s">
-        <v>1015</v>
+        <v>872</v>
       </c>
       <c r="N78" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O78" t="s">
-        <v>1116</v>
+        <v>951</v>
       </c>
     </row>
     <row r="79" spans="3:15">
       <c r="C79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="F79" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="G79">
-        <v>34227971</v>
+        <v>40532152</v>
       </c>
       <c r="H79" t="s">
-        <v>534</v>
+        <v>462</v>
       </c>
       <c r="I79" t="s">
-        <v>687</v>
+        <v>590</v>
       </c>
       <c r="J79" t="s">
-        <v>770</v>
+        <v>683</v>
       </c>
       <c r="K79" t="s">
-        <v>887</v>
+        <v>753</v>
+      </c>
+      <c r="L79" t="s">
+        <v>792</v>
       </c>
       <c r="M79" t="s">
-        <v>1016</v>
+        <v>873</v>
       </c>
       <c r="N79" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O79" t="s">
-        <v>1117</v>
+        <v>925</v>
       </c>
     </row>
     <row r="80" spans="3:15">
       <c r="C80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="F80" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="G80">
-        <v>34227952</v>
+        <v>40293177</v>
       </c>
       <c r="H80" t="s">
-        <v>535</v>
+        <v>463</v>
       </c>
       <c r="I80" t="s">
-        <v>688</v>
+        <v>591</v>
       </c>
       <c r="J80" t="s">
-        <v>767</v>
+        <v>684</v>
       </c>
       <c r="K80" t="s">
-        <v>845</v>
+        <v>754</v>
+      </c>
+      <c r="L80" t="s">
+        <v>792</v>
       </c>
       <c r="M80" t="s">
-        <v>1017</v>
+        <v>874</v>
       </c>
       <c r="N80" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O80" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="81" spans="3:15">
       <c r="C81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F81" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="G81">
-        <v>34227947</v>
+        <v>39908431</v>
       </c>
       <c r="H81" t="s">
-        <v>536</v>
+        <v>464</v>
       </c>
       <c r="I81" t="s">
-        <v>689</v>
+        <v>592</v>
       </c>
       <c r="J81" t="s">
-        <v>803</v>
+        <v>685</v>
       </c>
       <c r="K81" t="s">
-        <v>876</v>
+        <v>755</v>
+      </c>
+      <c r="L81" t="s">
+        <v>792</v>
       </c>
       <c r="M81" t="s">
-        <v>1018</v>
+        <v>875</v>
       </c>
       <c r="N81" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O81" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="82" spans="3:15">
       <c r="C82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
         <v>99</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="F82" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="G82">
-        <v>34227942</v>
+        <v>40267425</v>
       </c>
       <c r="H82" t="s">
-        <v>537</v>
+        <v>465</v>
       </c>
       <c r="I82" t="s">
-        <v>690</v>
+        <v>593</v>
       </c>
       <c r="J82" t="s">
-        <v>769</v>
+        <v>649</v>
       </c>
       <c r="K82" t="s">
-        <v>864</v>
+        <v>756</v>
       </c>
       <c r="M82" t="s">
-        <v>1019</v>
+        <v>876</v>
       </c>
       <c r="N82" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O82" t="s">
-        <v>1093</v>
+        <v>952</v>
       </c>
     </row>
     <row r="83" spans="3:15">
       <c r="C83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
         <v>100</v>
       </c>
       <c r="E83" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="F83" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="G83">
-        <v>33485461</v>
+        <v>40214032</v>
       </c>
       <c r="H83" t="s">
-        <v>538</v>
+        <v>466</v>
       </c>
       <c r="I83" t="s">
-        <v>691</v>
+        <v>594</v>
       </c>
       <c r="J83" t="s">
-        <v>804</v>
+        <v>650</v>
       </c>
       <c r="K83" t="s">
-        <v>888</v>
+        <v>721</v>
       </c>
       <c r="M83" t="s">
-        <v>1020</v>
+        <v>877</v>
       </c>
       <c r="N83" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O83" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="84" spans="3:15">
       <c r="C84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
         <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="F84" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="G84">
-        <v>34741816</v>
+        <v>38477986</v>
       </c>
       <c r="H84" t="s">
-        <v>539</v>
+        <v>467</v>
       </c>
       <c r="I84" t="s">
-        <v>692</v>
+        <v>595</v>
       </c>
       <c r="J84" t="s">
-        <v>763</v>
+        <v>645</v>
       </c>
       <c r="K84" t="s">
-        <v>842</v>
+        <v>757</v>
       </c>
       <c r="M84" t="s">
-        <v>1021</v>
+        <v>878</v>
       </c>
       <c r="N84" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O84" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="85" spans="3:15">
       <c r="C85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
         <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="F85" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="G85">
-        <v>34097852</v>
+        <v>38477985</v>
       </c>
       <c r="H85" t="s">
-        <v>540</v>
+        <v>468</v>
       </c>
       <c r="I85" t="s">
-        <v>693</v>
+        <v>596</v>
       </c>
       <c r="J85" t="s">
-        <v>805</v>
+        <v>645</v>
       </c>
       <c r="K85" t="s">
-        <v>889</v>
-      </c>
-      <c r="L85" t="s">
-        <v>934</v>
+        <v>758</v>
       </c>
       <c r="M85" t="s">
-        <v>1022</v>
+        <v>879</v>
       </c>
       <c r="N85" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O85" t="s">
-        <v>1093</v>
+        <v>953</v>
       </c>
     </row>
     <row r="86" spans="3:15">
       <c r="C86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
         <v>103</v>
       </c>
       <c r="E86" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="F86" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="G86">
-        <v>32888407</v>
+        <v>38838311</v>
       </c>
       <c r="H86" t="s">
-        <v>541</v>
+        <v>469</v>
       </c>
       <c r="I86" t="s">
-        <v>694</v>
+        <v>597</v>
       </c>
       <c r="J86" t="s">
-        <v>791</v>
+        <v>686</v>
       </c>
       <c r="K86" t="s">
-        <v>890</v>
+        <v>759</v>
       </c>
       <c r="L86" t="s">
-        <v>932</v>
+        <v>792</v>
       </c>
       <c r="M86" t="s">
-        <v>1023</v>
+        <v>880</v>
       </c>
       <c r="N86" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O86" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="87" spans="3:15">
       <c r="C87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
         <v>104</v>
       </c>
       <c r="E87" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="F87" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="G87">
-        <v>33002431</v>
+        <v>38904277</v>
       </c>
       <c r="H87" t="s">
-        <v>542</v>
+        <v>470</v>
       </c>
       <c r="I87" t="s">
-        <v>695</v>
+        <v>598</v>
       </c>
       <c r="J87" t="s">
-        <v>773</v>
+        <v>687</v>
       </c>
       <c r="K87" t="s">
-        <v>851</v>
+        <v>760</v>
+      </c>
+      <c r="L87" t="s">
+        <v>792</v>
       </c>
       <c r="M87" t="s">
-        <v>1024</v>
+        <v>881</v>
       </c>
       <c r="N87" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O87" t="s">
-        <v>1093</v>
+        <v>954</v>
       </c>
     </row>
     <row r="88" spans="3:15">
       <c r="C88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>105</v>
       </c>
       <c r="E88" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F88" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="G88">
-        <v>32473682</v>
+        <v>38899693</v>
       </c>
       <c r="H88" t="s">
-        <v>543</v>
+        <v>471</v>
       </c>
       <c r="I88" t="s">
-        <v>696</v>
+        <v>599</v>
       </c>
       <c r="J88" t="s">
-        <v>769</v>
+        <v>688</v>
       </c>
       <c r="K88" t="s">
-        <v>848</v>
+        <v>761</v>
+      </c>
+      <c r="L88" t="s">
+        <v>793</v>
       </c>
       <c r="M88" t="s">
-        <v>1025</v>
+        <v>882</v>
       </c>
       <c r="N88" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O88" t="s">
-        <v>1093</v>
+        <v>955</v>
       </c>
     </row>
     <row r="89" spans="3:15">
       <c r="C89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
         <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="F89" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="G89">
-        <v>32473681</v>
+        <v>38865660</v>
       </c>
       <c r="H89" t="s">
-        <v>544</v>
+        <v>472</v>
       </c>
       <c r="I89" t="s">
-        <v>697</v>
+        <v>600</v>
       </c>
       <c r="J89" t="s">
-        <v>806</v>
+        <v>688</v>
       </c>
       <c r="K89" t="s">
-        <v>853</v>
+        <v>714</v>
       </c>
       <c r="M89" t="s">
-        <v>1026</v>
+        <v>883</v>
       </c>
       <c r="N89" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O89" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="90" spans="3:15">
       <c r="C90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
       </c>
       <c r="E90" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="F90" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="G90">
-        <v>31929014</v>
+        <v>38197815</v>
       </c>
       <c r="H90" t="s">
-        <v>545</v>
+        <v>473</v>
       </c>
       <c r="I90" t="s">
-        <v>698</v>
+        <v>601</v>
       </c>
       <c r="J90" t="s">
-        <v>768</v>
+        <v>649</v>
       </c>
       <c r="K90" t="s">
-        <v>844</v>
+        <v>762</v>
+      </c>
+      <c r="L90" t="s">
+        <v>791</v>
       </c>
       <c r="M90" t="s">
-        <v>1027</v>
+        <v>884</v>
       </c>
       <c r="N90" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O90" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="91" spans="3:15">
       <c r="C91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
         <v>108</v>
       </c>
       <c r="E91" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="F91" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="G91">
-        <v>32007142</v>
+        <v>39774314</v>
       </c>
       <c r="H91" t="s">
-        <v>546</v>
+        <v>474</v>
       </c>
       <c r="I91" t="s">
-        <v>699</v>
+        <v>602</v>
       </c>
       <c r="J91" t="s">
-        <v>763</v>
+        <v>646</v>
       </c>
       <c r="K91" t="s">
-        <v>891</v>
+        <v>721</v>
       </c>
       <c r="M91" t="s">
-        <v>1028</v>
+        <v>885</v>
       </c>
       <c r="N91" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O91" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="92" spans="3:15">
       <c r="C92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
         <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="F92" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="G92">
-        <v>32007141</v>
+        <v>37672694</v>
       </c>
       <c r="H92" t="s">
-        <v>547</v>
+        <v>475</v>
       </c>
       <c r="I92" t="s">
-        <v>700</v>
+        <v>603</v>
       </c>
       <c r="J92" t="s">
+        <v>689</v>
+      </c>
+      <c r="K92" t="s">
         <v>763</v>
       </c>
-      <c r="K92" t="s">
-        <v>891</v>
+      <c r="L92" t="s">
+        <v>792</v>
       </c>
       <c r="M92" t="s">
-        <v>1029</v>
+        <v>886</v>
       </c>
       <c r="N92" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O92" t="s">
-        <v>1118</v>
+        <v>956</v>
       </c>
     </row>
     <row r="93" spans="3:15">
@@ -7292,34 +6830,37 @@
         <v>110</v>
       </c>
       <c r="E93" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="F93" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="G93">
-        <v>40961449</v>
+        <v>37861218</v>
       </c>
       <c r="H93" t="s">
-        <v>548</v>
+        <v>476</v>
       </c>
       <c r="I93" t="s">
-        <v>701</v>
+        <v>604</v>
       </c>
       <c r="J93" t="s">
-        <v>807</v>
+        <v>690</v>
       </c>
       <c r="K93" t="s">
-        <v>845</v>
+        <v>754</v>
+      </c>
+      <c r="L93" t="s">
+        <v>792</v>
       </c>
       <c r="M93" t="s">
-        <v>1030</v>
+        <v>887</v>
       </c>
       <c r="N93" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O93" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="94" spans="3:15">
@@ -7330,37 +6871,34 @@
         <v>111</v>
       </c>
       <c r="E94" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="F94" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="G94">
-        <v>41104928</v>
+        <v>37133584</v>
       </c>
       <c r="H94" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
       <c r="I94" t="s">
-        <v>702</v>
+        <v>605</v>
       </c>
       <c r="J94" t="s">
-        <v>772</v>
+        <v>647</v>
       </c>
       <c r="K94" t="s">
-        <v>892</v>
-      </c>
-      <c r="L94" t="s">
-        <v>935</v>
+        <v>764</v>
       </c>
       <c r="M94" t="s">
-        <v>1031</v>
+        <v>888</v>
       </c>
       <c r="N94" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O94" t="s">
-        <v>1119</v>
+        <v>925</v>
       </c>
     </row>
     <row r="95" spans="3:15">
@@ -7371,37 +6909,34 @@
         <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="F95" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="G95">
-        <v>40532152</v>
+        <v>36988593</v>
       </c>
       <c r="H95" t="s">
-        <v>550</v>
+        <v>478</v>
       </c>
       <c r="I95" t="s">
-        <v>703</v>
+        <v>606</v>
       </c>
       <c r="J95" t="s">
-        <v>808</v>
+        <v>691</v>
       </c>
       <c r="K95" t="s">
-        <v>893</v>
-      </c>
-      <c r="L95" t="s">
-        <v>934</v>
+        <v>714</v>
       </c>
       <c r="M95" t="s">
-        <v>1032</v>
+        <v>889</v>
       </c>
       <c r="N95" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O95" t="s">
-        <v>1093</v>
+        <v>957</v>
       </c>
     </row>
     <row r="96" spans="3:15">
@@ -7412,37 +6947,34 @@
         <v>113</v>
       </c>
       <c r="E96" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="F96" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="G96">
-        <v>40293177</v>
+        <v>36856618</v>
       </c>
       <c r="H96" t="s">
-        <v>551</v>
+        <v>479</v>
       </c>
       <c r="I96" t="s">
-        <v>704</v>
+        <v>607</v>
       </c>
       <c r="J96" t="s">
-        <v>809</v>
+        <v>692</v>
       </c>
       <c r="K96" t="s">
-        <v>894</v>
-      </c>
-      <c r="L96" t="s">
-        <v>934</v>
+        <v>765</v>
       </c>
       <c r="M96" t="s">
-        <v>1033</v>
+        <v>890</v>
       </c>
       <c r="N96" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O96" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="97" spans="3:15">
@@ -7453,37 +6985,37 @@
         <v>114</v>
       </c>
       <c r="E97" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="F97" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="G97">
-        <v>39908431</v>
+        <v>37407001</v>
       </c>
       <c r="H97" t="s">
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="I97" t="s">
-        <v>705</v>
+        <v>608</v>
       </c>
       <c r="J97" t="s">
-        <v>810</v>
+        <v>693</v>
       </c>
       <c r="K97" t="s">
-        <v>895</v>
+        <v>766</v>
       </c>
       <c r="L97" t="s">
-        <v>934</v>
+        <v>791</v>
       </c>
       <c r="M97" t="s">
-        <v>1034</v>
+        <v>891</v>
       </c>
       <c r="N97" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O97" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="98" spans="3:15">
@@ -7494,34 +7026,37 @@
         <v>115</v>
       </c>
       <c r="E98" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="F98" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="G98">
-        <v>40267425</v>
+        <v>36546659</v>
       </c>
       <c r="H98" t="s">
-        <v>553</v>
+        <v>481</v>
       </c>
       <c r="I98" t="s">
-        <v>706</v>
+        <v>609</v>
       </c>
       <c r="J98" t="s">
-        <v>772</v>
+        <v>645</v>
       </c>
       <c r="K98" t="s">
-        <v>896</v>
+        <v>767</v>
+      </c>
+      <c r="L98" t="s">
+        <v>791</v>
       </c>
       <c r="M98" t="s">
-        <v>1035</v>
+        <v>892</v>
       </c>
       <c r="N98" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O98" t="s">
-        <v>1120</v>
+        <v>958</v>
       </c>
     </row>
     <row r="99" spans="3:15">
@@ -7532,34 +7067,37 @@
         <v>116</v>
       </c>
       <c r="E99" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F99" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="G99">
-        <v>40214032</v>
+        <v>36546651</v>
       </c>
       <c r="H99" t="s">
-        <v>554</v>
+        <v>482</v>
       </c>
       <c r="I99" t="s">
-        <v>707</v>
+        <v>610</v>
       </c>
       <c r="J99" t="s">
-        <v>773</v>
+        <v>694</v>
       </c>
       <c r="K99" t="s">
-        <v>848</v>
+        <v>768</v>
+      </c>
+      <c r="L99" t="s">
+        <v>791</v>
       </c>
       <c r="M99" t="s">
-        <v>1036</v>
+        <v>893</v>
       </c>
       <c r="N99" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O99" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="100" spans="3:15">
@@ -7570,34 +7108,37 @@
         <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="F100" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="G100">
-        <v>38477986</v>
+        <v>36652354</v>
       </c>
       <c r="H100" t="s">
-        <v>555</v>
+        <v>483</v>
       </c>
       <c r="I100" t="s">
-        <v>708</v>
+        <v>611</v>
       </c>
       <c r="J100" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
       <c r="K100" t="s">
-        <v>897</v>
+        <v>769</v>
+      </c>
+      <c r="L100" t="s">
+        <v>792</v>
       </c>
       <c r="M100" t="s">
-        <v>1037</v>
+        <v>894</v>
       </c>
       <c r="N100" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O100" t="s">
-        <v>1093</v>
+        <v>959</v>
       </c>
     </row>
     <row r="101" spans="3:15">
@@ -7608,34 +7149,34 @@
         <v>118</v>
       </c>
       <c r="E101" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="F101" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="G101">
-        <v>38477985</v>
+        <v>37646678</v>
       </c>
       <c r="H101" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="I101" t="s">
-        <v>709</v>
+        <v>612</v>
       </c>
       <c r="J101" t="s">
-        <v>768</v>
+        <v>696</v>
       </c>
       <c r="K101" t="s">
-        <v>898</v>
+        <v>770</v>
       </c>
       <c r="M101" t="s">
-        <v>1038</v>
+        <v>895</v>
       </c>
       <c r="N101" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O101" t="s">
-        <v>1121</v>
+        <v>925</v>
       </c>
     </row>
     <row r="102" spans="3:15">
@@ -7646,37 +7187,37 @@
         <v>119</v>
       </c>
       <c r="E102" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="G102">
-        <v>38838311</v>
+        <v>37611121</v>
       </c>
       <c r="H102" t="s">
-        <v>557</v>
+        <v>485</v>
       </c>
       <c r="I102" t="s">
-        <v>710</v>
+        <v>613</v>
       </c>
       <c r="J102" t="s">
-        <v>811</v>
+        <v>697</v>
       </c>
       <c r="K102" t="s">
-        <v>899</v>
+        <v>771</v>
       </c>
       <c r="L102" t="s">
-        <v>934</v>
+        <v>788</v>
       </c>
       <c r="M102" t="s">
-        <v>1039</v>
+        <v>896</v>
       </c>
       <c r="N102" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O102" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="103" spans="3:15">
@@ -7687,37 +7228,34 @@
         <v>120</v>
       </c>
       <c r="E103" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="F103" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="G103">
-        <v>38904277</v>
+        <v>37585627</v>
       </c>
       <c r="H103" t="s">
-        <v>558</v>
+        <v>486</v>
       </c>
       <c r="I103" t="s">
-        <v>711</v>
+        <v>614</v>
       </c>
       <c r="J103" t="s">
-        <v>812</v>
+        <v>647</v>
       </c>
       <c r="K103" t="s">
-        <v>900</v>
-      </c>
-      <c r="L103" t="s">
-        <v>934</v>
+        <v>721</v>
       </c>
       <c r="M103" t="s">
-        <v>1040</v>
+        <v>897</v>
       </c>
       <c r="N103" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O103" t="s">
-        <v>1122</v>
+        <v>925</v>
       </c>
     </row>
     <row r="104" spans="3:15">
@@ -7728,37 +7266,37 @@
         <v>121</v>
       </c>
       <c r="E104" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F104" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="G104">
-        <v>38899693</v>
+        <v>37018492</v>
       </c>
       <c r="H104" t="s">
-        <v>559</v>
+        <v>487</v>
       </c>
       <c r="I104" t="s">
-        <v>712</v>
+        <v>615</v>
       </c>
       <c r="J104" t="s">
-        <v>813</v>
+        <v>698</v>
       </c>
       <c r="K104" t="s">
-        <v>901</v>
+        <v>772</v>
       </c>
       <c r="L104" t="s">
-        <v>936</v>
+        <v>794</v>
       </c>
       <c r="M104" t="s">
-        <v>1041</v>
+        <v>898</v>
       </c>
       <c r="N104" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O104" t="s">
-        <v>1123</v>
+        <v>925</v>
       </c>
     </row>
     <row r="105" spans="3:15">
@@ -7769,34 +7307,37 @@
         <v>122</v>
       </c>
       <c r="E105" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="F105" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="G105">
-        <v>38865660</v>
+        <v>36094839</v>
       </c>
       <c r="H105" t="s">
-        <v>560</v>
+        <v>488</v>
       </c>
       <c r="I105" t="s">
-        <v>713</v>
+        <v>616</v>
       </c>
       <c r="J105" t="s">
-        <v>813</v>
+        <v>699</v>
       </c>
       <c r="K105" t="s">
-        <v>845</v>
+        <v>773</v>
+      </c>
+      <c r="L105" t="s">
+        <v>792</v>
       </c>
       <c r="M105" t="s">
-        <v>1042</v>
+        <v>899</v>
       </c>
       <c r="N105" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O105" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="106" spans="3:15">
@@ -7807,37 +7348,37 @@
         <v>123</v>
       </c>
       <c r="E106" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="F106" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="G106">
-        <v>38197815</v>
+        <v>35767439</v>
       </c>
       <c r="H106" t="s">
-        <v>561</v>
+        <v>489</v>
       </c>
       <c r="I106" t="s">
-        <v>714</v>
+        <v>617</v>
       </c>
       <c r="J106" t="s">
-        <v>772</v>
+        <v>700</v>
       </c>
       <c r="K106" t="s">
-        <v>902</v>
+        <v>774</v>
       </c>
       <c r="L106" t="s">
-        <v>935</v>
+        <v>788</v>
       </c>
       <c r="M106" t="s">
-        <v>1043</v>
+        <v>900</v>
       </c>
       <c r="N106" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O106" t="s">
-        <v>1093</v>
+        <v>960</v>
       </c>
     </row>
     <row r="107" spans="3:15">
@@ -7848,34 +7389,37 @@
         <v>124</v>
       </c>
       <c r="E107" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="F107" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="G107">
-        <v>39774314</v>
+        <v>35660797</v>
       </c>
       <c r="H107" t="s">
-        <v>562</v>
+        <v>490</v>
       </c>
       <c r="I107" t="s">
-        <v>715</v>
+        <v>618</v>
       </c>
       <c r="J107" t="s">
-        <v>769</v>
+        <v>701</v>
       </c>
       <c r="K107" t="s">
-        <v>848</v>
+        <v>775</v>
+      </c>
+      <c r="L107" t="s">
+        <v>792</v>
       </c>
       <c r="M107" t="s">
-        <v>1044</v>
+        <v>901</v>
       </c>
       <c r="N107" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O107" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="108" spans="3:15">
@@ -7886,37 +7430,37 @@
         <v>125</v>
       </c>
       <c r="E108" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="F108" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="G108">
-        <v>38657244</v>
+        <v>35658005</v>
       </c>
       <c r="H108" t="s">
-        <v>563</v>
+        <v>491</v>
       </c>
       <c r="I108" t="s">
-        <v>716</v>
+        <v>619</v>
       </c>
       <c r="J108" t="s">
-        <v>814</v>
+        <v>649</v>
       </c>
       <c r="K108" t="s">
-        <v>903</v>
+        <v>776</v>
       </c>
       <c r="L108" t="s">
-        <v>932</v>
+        <v>792</v>
       </c>
       <c r="M108" t="s">
-        <v>1045</v>
+        <v>902</v>
       </c>
       <c r="N108" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O108" t="s">
-        <v>1093</v>
+        <v>961</v>
       </c>
     </row>
     <row r="109" spans="3:15">
@@ -7927,37 +7471,37 @@
         <v>126</v>
       </c>
       <c r="E109" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="F109" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="G109">
-        <v>37672694</v>
+        <v>34534430</v>
       </c>
       <c r="H109" t="s">
-        <v>564</v>
+        <v>492</v>
       </c>
       <c r="I109" t="s">
-        <v>717</v>
+        <v>620</v>
       </c>
       <c r="J109" t="s">
-        <v>815</v>
+        <v>649</v>
       </c>
       <c r="K109" t="s">
-        <v>904</v>
+        <v>777</v>
       </c>
       <c r="L109" t="s">
-        <v>934</v>
+        <v>792</v>
       </c>
       <c r="M109" t="s">
-        <v>1046</v>
+        <v>903</v>
       </c>
       <c r="N109" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O109" t="s">
-        <v>1124</v>
+        <v>925</v>
       </c>
     </row>
     <row r="110" spans="3:15">
@@ -7968,34 +7512,37 @@
         <v>127</v>
       </c>
       <c r="E110" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="F110" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="G110">
-        <v>37937776</v>
+        <v>36507690</v>
       </c>
       <c r="H110" t="s">
-        <v>565</v>
+        <v>493</v>
       </c>
       <c r="I110" t="s">
-        <v>718</v>
+        <v>621</v>
       </c>
       <c r="J110" t="s">
-        <v>769</v>
+        <v>688</v>
       </c>
       <c r="K110" t="s">
-        <v>856</v>
+        <v>778</v>
+      </c>
+      <c r="L110" t="s">
+        <v>792</v>
       </c>
       <c r="M110" t="s">
-        <v>1047</v>
+        <v>904</v>
       </c>
       <c r="N110" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O110" t="s">
-        <v>1093</v>
+        <v>962</v>
       </c>
     </row>
     <row r="111" spans="3:15">
@@ -8006,37 +7553,37 @@
         <v>128</v>
       </c>
       <c r="E111" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="F111" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="G111">
-        <v>37861218</v>
+        <v>34818478</v>
       </c>
       <c r="H111" t="s">
-        <v>566</v>
+        <v>494</v>
       </c>
       <c r="I111" t="s">
-        <v>719</v>
+        <v>622</v>
       </c>
       <c r="J111" t="s">
-        <v>816</v>
+        <v>702</v>
       </c>
       <c r="K111" t="s">
-        <v>894</v>
+        <v>768</v>
       </c>
       <c r="L111" t="s">
-        <v>934</v>
+        <v>792</v>
       </c>
       <c r="M111" t="s">
-        <v>1048</v>
+        <v>905</v>
       </c>
       <c r="N111" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O111" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="112" spans="3:15">
@@ -8047,34 +7594,37 @@
         <v>129</v>
       </c>
       <c r="E112" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F112" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="G112">
-        <v>37133584</v>
+        <v>33979489</v>
       </c>
       <c r="H112" t="s">
-        <v>567</v>
+        <v>495</v>
       </c>
       <c r="I112" t="s">
-        <v>720</v>
+        <v>623</v>
       </c>
       <c r="J112" t="s">
-        <v>770</v>
+        <v>703</v>
       </c>
       <c r="K112" t="s">
-        <v>905</v>
+        <v>779</v>
+      </c>
+      <c r="L112" t="s">
+        <v>792</v>
       </c>
       <c r="M112" t="s">
-        <v>1049</v>
+        <v>906</v>
       </c>
       <c r="N112" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O112" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="113" spans="3:15">
@@ -8085,34 +7635,34 @@
         <v>130</v>
       </c>
       <c r="E113" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="F113" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="G113">
-        <v>36988593</v>
+        <v>33704937</v>
       </c>
       <c r="H113" t="s">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="I113" t="s">
-        <v>721</v>
+        <v>624</v>
       </c>
       <c r="J113" t="s">
-        <v>817</v>
+        <v>704</v>
       </c>
       <c r="K113" t="s">
-        <v>845</v>
+        <v>780</v>
       </c>
       <c r="M113" t="s">
-        <v>1050</v>
+        <v>907</v>
       </c>
       <c r="N113" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O113" t="s">
-        <v>1125</v>
+        <v>925</v>
       </c>
     </row>
     <row r="114" spans="3:15">
@@ -8123,34 +7673,34 @@
         <v>131</v>
       </c>
       <c r="E114" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="F114" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="G114">
-        <v>36856618</v>
+        <v>34161704</v>
       </c>
       <c r="H114" t="s">
-        <v>569</v>
+        <v>497</v>
       </c>
       <c r="I114" t="s">
-        <v>722</v>
+        <v>625</v>
       </c>
       <c r="J114" t="s">
-        <v>818</v>
+        <v>705</v>
       </c>
       <c r="K114" t="s">
-        <v>906</v>
+        <v>714</v>
       </c>
       <c r="M114" t="s">
-        <v>1051</v>
+        <v>908</v>
       </c>
       <c r="N114" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O114" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="115" spans="3:15">
@@ -8161,34 +7711,37 @@
         <v>132</v>
       </c>
       <c r="E115" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="F115" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="G115">
-        <v>37140166</v>
+        <v>34096690</v>
       </c>
       <c r="H115" t="s">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="I115" t="s">
-        <v>723</v>
+        <v>626</v>
       </c>
       <c r="J115" t="s">
-        <v>819</v>
+        <v>649</v>
       </c>
       <c r="K115" t="s">
-        <v>856</v>
+        <v>768</v>
+      </c>
+      <c r="L115" t="s">
+        <v>792</v>
       </c>
       <c r="M115" t="s">
-        <v>1052</v>
+        <v>909</v>
       </c>
       <c r="N115" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O115" t="s">
-        <v>1093</v>
+        <v>961</v>
       </c>
     </row>
     <row r="116" spans="3:15">
@@ -8199,37 +7752,34 @@
         <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="F116" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="G116">
-        <v>37407001</v>
+        <v>33471991</v>
       </c>
       <c r="H116" t="s">
-        <v>571</v>
+        <v>499</v>
       </c>
       <c r="I116" t="s">
-        <v>724</v>
+        <v>627</v>
       </c>
       <c r="J116" t="s">
-        <v>820</v>
+        <v>647</v>
       </c>
       <c r="K116" t="s">
-        <v>907</v>
-      </c>
-      <c r="L116" t="s">
-        <v>935</v>
+        <v>781</v>
       </c>
       <c r="M116" t="s">
-        <v>1053</v>
+        <v>910</v>
       </c>
       <c r="N116" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O116" t="s">
-        <v>1093</v>
+        <v>963</v>
       </c>
     </row>
     <row r="117" spans="3:15">
@@ -8240,37 +7790,34 @@
         <v>134</v>
       </c>
       <c r="E117" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="F117" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="G117">
-        <v>37437144</v>
+        <v>33471974</v>
       </c>
       <c r="H117" t="s">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="I117" t="s">
-        <v>725</v>
+        <v>628</v>
       </c>
       <c r="J117" t="s">
-        <v>821</v>
+        <v>647</v>
       </c>
       <c r="K117" t="s">
-        <v>908</v>
-      </c>
-      <c r="L117" t="s">
-        <v>934</v>
+        <v>782</v>
       </c>
       <c r="M117" t="s">
-        <v>1054</v>
+        <v>911</v>
       </c>
       <c r="N117" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O117" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="118" spans="3:15">
@@ -8281,37 +7828,37 @@
         <v>135</v>
       </c>
       <c r="E118" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="F118" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="G118">
-        <v>36546659</v>
+        <v>33838625</v>
       </c>
       <c r="H118" t="s">
-        <v>573</v>
+        <v>501</v>
       </c>
       <c r="I118" t="s">
-        <v>726</v>
+        <v>629</v>
       </c>
       <c r="J118" t="s">
-        <v>768</v>
+        <v>706</v>
       </c>
       <c r="K118" t="s">
-        <v>909</v>
+        <v>783</v>
       </c>
       <c r="L118" t="s">
-        <v>935</v>
+        <v>788</v>
       </c>
       <c r="M118" t="s">
-        <v>1055</v>
+        <v>912</v>
       </c>
       <c r="N118" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O118" t="s">
-        <v>1126</v>
+        <v>925</v>
       </c>
     </row>
     <row r="119" spans="3:15">
@@ -8322,37 +7869,37 @@
         <v>136</v>
       </c>
       <c r="E119" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="F119" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="G119">
-        <v>36546651</v>
+        <v>32877583</v>
       </c>
       <c r="H119" t="s">
-        <v>574</v>
+        <v>502</v>
       </c>
       <c r="I119" t="s">
-        <v>727</v>
+        <v>630</v>
       </c>
       <c r="J119" t="s">
-        <v>822</v>
+        <v>649</v>
       </c>
       <c r="K119" t="s">
-        <v>910</v>
+        <v>784</v>
       </c>
       <c r="L119" t="s">
-        <v>935</v>
+        <v>792</v>
       </c>
       <c r="M119" t="s">
-        <v>1056</v>
+        <v>913</v>
       </c>
       <c r="N119" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O119" t="s">
-        <v>1093</v>
+        <v>961</v>
       </c>
     </row>
     <row r="120" spans="3:15">
@@ -8363,37 +7910,37 @@
         <v>137</v>
       </c>
       <c r="E120" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F120" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="G120">
-        <v>36652354</v>
+        <v>32469185</v>
       </c>
       <c r="H120" t="s">
-        <v>575</v>
+        <v>503</v>
       </c>
       <c r="I120" t="s">
-        <v>728</v>
+        <v>631</v>
       </c>
       <c r="J120" t="s">
-        <v>823</v>
+        <v>649</v>
       </c>
       <c r="K120" t="s">
-        <v>889</v>
+        <v>753</v>
       </c>
       <c r="L120" t="s">
-        <v>934</v>
+        <v>792</v>
       </c>
       <c r="M120" t="s">
-        <v>1057</v>
+        <v>914</v>
       </c>
       <c r="N120" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O120" t="s">
-        <v>1127</v>
+        <v>925</v>
       </c>
     </row>
     <row r="121" spans="3:15">
@@ -8404,34 +7951,37 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="F121" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="G121">
-        <v>37646678</v>
+        <v>32955176</v>
       </c>
       <c r="H121" t="s">
-        <v>576</v>
+        <v>504</v>
       </c>
       <c r="I121" t="s">
-        <v>729</v>
+        <v>632</v>
       </c>
       <c r="J121" t="s">
-        <v>824</v>
+        <v>707</v>
       </c>
       <c r="K121" t="s">
-        <v>911</v>
+        <v>785</v>
+      </c>
+      <c r="L121" t="s">
+        <v>788</v>
       </c>
       <c r="M121" t="s">
-        <v>1058</v>
+        <v>915</v>
       </c>
       <c r="N121" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O121" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="122" spans="3:15">
@@ -8442,34 +7992,34 @@
         <v>139</v>
       </c>
       <c r="E122" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="F122" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="G122">
-        <v>37530823</v>
+        <v>32997908</v>
       </c>
       <c r="H122" t="s">
-        <v>577</v>
+        <v>505</v>
       </c>
       <c r="I122" t="s">
-        <v>730</v>
+        <v>633</v>
       </c>
       <c r="J122" t="s">
-        <v>769</v>
+        <v>641</v>
       </c>
       <c r="K122" t="s">
-        <v>845</v>
+        <v>734</v>
       </c>
       <c r="M122" t="s">
-        <v>1059</v>
+        <v>916</v>
       </c>
       <c r="N122" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O122" t="s">
-        <v>1128</v>
+        <v>964</v>
       </c>
     </row>
     <row r="123" spans="3:15">
@@ -8480,37 +8030,34 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="F123" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="G123">
-        <v>37611121</v>
+        <v>32459922</v>
       </c>
       <c r="H123" t="s">
-        <v>578</v>
+        <v>506</v>
       </c>
       <c r="I123" t="s">
-        <v>731</v>
+        <v>634</v>
       </c>
       <c r="J123" t="s">
-        <v>825</v>
+        <v>708</v>
       </c>
       <c r="K123" t="s">
-        <v>912</v>
-      </c>
-      <c r="L123" t="s">
-        <v>931</v>
+        <v>721</v>
       </c>
       <c r="M123" t="s">
-        <v>1060</v>
+        <v>917</v>
       </c>
       <c r="N123" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O123" t="s">
-        <v>1093</v>
+        <v>965</v>
       </c>
     </row>
     <row r="124" spans="3:15">
@@ -8521,34 +8068,34 @@
         <v>141</v>
       </c>
       <c r="E124" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="F124" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="G124">
-        <v>37585627</v>
+        <v>32130814</v>
       </c>
       <c r="H124" t="s">
-        <v>579</v>
+        <v>507</v>
       </c>
       <c r="I124" t="s">
-        <v>732</v>
+        <v>635</v>
       </c>
       <c r="J124" t="s">
-        <v>770</v>
+        <v>650</v>
       </c>
       <c r="K124" t="s">
-        <v>848</v>
+        <v>786</v>
       </c>
       <c r="M124" t="s">
-        <v>1061</v>
+        <v>918</v>
       </c>
       <c r="N124" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O124" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="125" spans="3:15">
@@ -8559,37 +8106,34 @@
         <v>142</v>
       </c>
       <c r="E125" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="F125" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="G125">
-        <v>37018492</v>
+        <v>32160663</v>
       </c>
       <c r="H125" t="s">
-        <v>580</v>
+        <v>508</v>
       </c>
       <c r="I125" t="s">
-        <v>733</v>
+        <v>636</v>
       </c>
       <c r="J125" t="s">
-        <v>826</v>
+        <v>709</v>
       </c>
       <c r="K125" t="s">
-        <v>913</v>
-      </c>
-      <c r="L125" t="s">
-        <v>937</v>
+        <v>714</v>
       </c>
       <c r="M125" t="s">
-        <v>1062</v>
+        <v>919</v>
       </c>
       <c r="N125" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O125" t="s">
-        <v>1093</v>
+        <v>966</v>
       </c>
     </row>
     <row r="126" spans="3:15">
@@ -8600,37 +8144,37 @@
         <v>143</v>
       </c>
       <c r="E126" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="F126" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="G126">
-        <v>36094839</v>
+        <v>32023374</v>
       </c>
       <c r="H126" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="I126" t="s">
-        <v>734</v>
+        <v>637</v>
       </c>
       <c r="J126" t="s">
-        <v>827</v>
+        <v>710</v>
       </c>
       <c r="K126" t="s">
-        <v>914</v>
+        <v>766</v>
       </c>
       <c r="L126" t="s">
-        <v>934</v>
+        <v>795</v>
       </c>
       <c r="M126" t="s">
-        <v>1063</v>
+        <v>920</v>
       </c>
       <c r="N126" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O126" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="127" spans="3:15">
@@ -8641,34 +8185,37 @@
         <v>144</v>
       </c>
       <c r="E127" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="F127" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="G127">
-        <v>35613022</v>
+        <v>32846061</v>
       </c>
       <c r="H127" t="s">
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="I127" t="s">
-        <v>735</v>
+        <v>638</v>
       </c>
       <c r="J127" t="s">
-        <v>828</v>
+        <v>711</v>
       </c>
       <c r="K127" t="s">
-        <v>853</v>
+        <v>787</v>
+      </c>
+      <c r="L127" t="s">
+        <v>791</v>
       </c>
       <c r="M127" t="s">
-        <v>1064</v>
+        <v>921</v>
       </c>
       <c r="N127" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O127" t="s">
-        <v>1093</v>
+        <v>925</v>
       </c>
     </row>
     <row r="128" spans="3:15">
@@ -8679,37 +8226,37 @@
         <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="F128" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="G128">
-        <v>35767439</v>
+        <v>32846060</v>
       </c>
       <c r="H128" t="s">
-        <v>583</v>
+        <v>511</v>
       </c>
       <c r="I128" t="s">
-        <v>736</v>
+        <v>639</v>
       </c>
       <c r="J128" t="s">
-        <v>829</v>
+        <v>649</v>
       </c>
       <c r="K128" t="s">
-        <v>915</v>
+        <v>785</v>
       </c>
       <c r="L128" t="s">
-        <v>931</v>
+        <v>791</v>
       </c>
       <c r="M128" t="s">
-        <v>1065</v>
+        <v>922</v>
       </c>
       <c r="N128" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O128" t="s">
-        <v>1129</v>
+        <v>925</v>
       </c>
     </row>
     <row r="129" spans="3:15">
@@ -8720,1026 +8267,34 @@
         <v>146</v>
       </c>
       <c r="E129" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="F129" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="G129">
-        <v>35660797</v>
+        <v>32786189</v>
       </c>
       <c r="H129" t="s">
-        <v>584</v>
+        <v>512</v>
       </c>
       <c r="I129" t="s">
-        <v>737</v>
+        <v>640</v>
       </c>
       <c r="J129" t="s">
-        <v>830</v>
+        <v>649</v>
       </c>
       <c r="K129" t="s">
-        <v>916</v>
-      </c>
-      <c r="L129" t="s">
-        <v>934</v>
+        <v>734</v>
       </c>
       <c r="M129" t="s">
-        <v>1066</v>
+        <v>923</v>
       </c>
       <c r="N129" t="s">
-        <v>1092</v>
+        <v>924</v>
       </c>
       <c r="O129" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="130" spans="3:15">
-      <c r="C130" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" t="s">
-        <v>147</v>
-      </c>
-      <c r="E130" t="s">
-        <v>283</v>
-      </c>
-      <c r="F130" t="s">
-        <v>432</v>
-      </c>
-      <c r="G130">
-        <v>35658005</v>
-      </c>
-      <c r="H130" t="s">
-        <v>585</v>
-      </c>
-      <c r="I130" t="s">
-        <v>738</v>
-      </c>
-      <c r="J130" t="s">
-        <v>772</v>
-      </c>
-      <c r="K130" t="s">
-        <v>917</v>
-      </c>
-      <c r="L130" t="s">
-        <v>934</v>
-      </c>
-      <c r="M130" t="s">
-        <v>1067</v>
-      </c>
-      <c r="N130" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O130" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="131" spans="3:15">
-      <c r="C131" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" t="s">
-        <v>148</v>
-      </c>
-      <c r="E131" t="s">
-        <v>284</v>
-      </c>
-      <c r="F131" t="s">
-        <v>433</v>
-      </c>
-      <c r="G131">
-        <v>34534430</v>
-      </c>
-      <c r="H131" t="s">
-        <v>586</v>
-      </c>
-      <c r="I131" t="s">
-        <v>739</v>
-      </c>
-      <c r="J131" t="s">
-        <v>772</v>
-      </c>
-      <c r="K131" t="s">
-        <v>918</v>
-      </c>
-      <c r="L131" t="s">
-        <v>934</v>
-      </c>
-      <c r="M131" t="s">
-        <v>1068</v>
-      </c>
-      <c r="N131" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O131" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="132" spans="3:15">
-      <c r="C132" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" t="s">
-        <v>149</v>
-      </c>
-      <c r="E132" t="s">
-        <v>285</v>
-      </c>
-      <c r="F132" t="s">
-        <v>434</v>
-      </c>
-      <c r="G132">
-        <v>36507690</v>
-      </c>
-      <c r="H132" t="s">
-        <v>587</v>
-      </c>
-      <c r="I132" t="s">
-        <v>740</v>
-      </c>
-      <c r="J132" t="s">
-        <v>813</v>
-      </c>
-      <c r="K132" t="s">
-        <v>919</v>
-      </c>
-      <c r="L132" t="s">
-        <v>934</v>
-      </c>
-      <c r="M132" t="s">
-        <v>1069</v>
-      </c>
-      <c r="N132" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O132" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="133" spans="3:15">
-      <c r="C133" t="s">
-        <v>18</v>
-      </c>
-      <c r="D133" t="s">
-        <v>150</v>
-      </c>
-      <c r="E133" t="s">
-        <v>286</v>
-      </c>
-      <c r="F133" t="s">
-        <v>435</v>
-      </c>
-      <c r="G133">
-        <v>34818478</v>
-      </c>
-      <c r="H133" t="s">
-        <v>588</v>
-      </c>
-      <c r="I133" t="s">
-        <v>741</v>
-      </c>
-      <c r="J133" t="s">
-        <v>831</v>
-      </c>
-      <c r="K133" t="s">
-        <v>910</v>
-      </c>
-      <c r="L133" t="s">
-        <v>934</v>
-      </c>
-      <c r="M133" t="s">
-        <v>1070</v>
-      </c>
-      <c r="N133" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O133" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="134" spans="3:15">
-      <c r="C134" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" t="s">
-        <v>151</v>
-      </c>
-      <c r="E134" t="s">
-        <v>287</v>
-      </c>
-      <c r="F134" t="s">
-        <v>436</v>
-      </c>
-      <c r="G134">
-        <v>33979489</v>
-      </c>
-      <c r="H134" t="s">
-        <v>589</v>
-      </c>
-      <c r="I134" t="s">
-        <v>742</v>
-      </c>
-      <c r="J134" t="s">
-        <v>832</v>
-      </c>
-      <c r="K134" t="s">
-        <v>920</v>
-      </c>
-      <c r="L134" t="s">
-        <v>934</v>
-      </c>
-      <c r="M134" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N134" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O134" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="135" spans="3:15">
-      <c r="C135" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" t="s">
-        <v>152</v>
-      </c>
-      <c r="E135" t="s">
-        <v>288</v>
-      </c>
-      <c r="F135" t="s">
-        <v>437</v>
-      </c>
-      <c r="G135">
-        <v>33704937</v>
-      </c>
-      <c r="H135" t="s">
-        <v>590</v>
-      </c>
-      <c r="I135" t="s">
-        <v>743</v>
-      </c>
-      <c r="J135" t="s">
-        <v>833</v>
-      </c>
-      <c r="K135" t="s">
-        <v>921</v>
-      </c>
-      <c r="M135" t="s">
-        <v>1072</v>
-      </c>
-      <c r="N135" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O135" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="136" spans="3:15">
-      <c r="C136" t="s">
-        <v>18</v>
-      </c>
-      <c r="D136" t="s">
-        <v>153</v>
-      </c>
-      <c r="E136" t="s">
-        <v>289</v>
-      </c>
-      <c r="F136" t="s">
-        <v>438</v>
-      </c>
-      <c r="G136">
-        <v>34161704</v>
-      </c>
-      <c r="H136" t="s">
-        <v>591</v>
-      </c>
-      <c r="I136" t="s">
-        <v>744</v>
-      </c>
-      <c r="J136" t="s">
-        <v>834</v>
-      </c>
-      <c r="K136" t="s">
-        <v>845</v>
-      </c>
-      <c r="M136" t="s">
-        <v>1073</v>
-      </c>
-      <c r="N136" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O136" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="137" spans="3:15">
-      <c r="C137" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" t="s">
-        <v>154</v>
-      </c>
-      <c r="E137" t="s">
-        <v>289</v>
-      </c>
-      <c r="F137" t="s">
-        <v>439</v>
-      </c>
-      <c r="G137">
-        <v>34096690</v>
-      </c>
-      <c r="H137" t="s">
-        <v>592</v>
-      </c>
-      <c r="I137" t="s">
-        <v>745</v>
-      </c>
-      <c r="J137" t="s">
-        <v>772</v>
-      </c>
-      <c r="K137" t="s">
-        <v>910</v>
-      </c>
-      <c r="L137" t="s">
-        <v>934</v>
-      </c>
-      <c r="M137" t="s">
-        <v>1074</v>
-      </c>
-      <c r="N137" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O137" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="138" spans="3:15">
-      <c r="C138" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" t="s">
-        <v>155</v>
-      </c>
-      <c r="E138" t="s">
-        <v>290</v>
-      </c>
-      <c r="F138" t="s">
-        <v>440</v>
-      </c>
-      <c r="G138">
-        <v>33406328</v>
-      </c>
-      <c r="H138" t="s">
-        <v>593</v>
-      </c>
-      <c r="I138" t="s">
-        <v>746</v>
-      </c>
-      <c r="J138" t="s">
-        <v>835</v>
-      </c>
-      <c r="K138" t="s">
-        <v>922</v>
-      </c>
-      <c r="L138" t="s">
-        <v>934</v>
-      </c>
-      <c r="M138" t="s">
-        <v>1075</v>
-      </c>
-      <c r="N138" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O138" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="139" spans="3:15">
-      <c r="C139" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" t="s">
-        <v>156</v>
-      </c>
-      <c r="E139" t="s">
-        <v>291</v>
-      </c>
-      <c r="F139" t="s">
-        <v>441</v>
-      </c>
-      <c r="G139">
-        <v>33471991</v>
-      </c>
-      <c r="H139" t="s">
-        <v>594</v>
-      </c>
-      <c r="I139" t="s">
-        <v>747</v>
-      </c>
-      <c r="J139" t="s">
-        <v>770</v>
-      </c>
-      <c r="K139" t="s">
-        <v>923</v>
-      </c>
-      <c r="M139" t="s">
-        <v>1076</v>
-      </c>
-      <c r="N139" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O139" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="140" spans="3:15">
-      <c r="C140" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" t="s">
-        <v>157</v>
-      </c>
-      <c r="E140" t="s">
-        <v>291</v>
-      </c>
-      <c r="F140" t="s">
-        <v>442</v>
-      </c>
-      <c r="G140">
-        <v>33471974</v>
-      </c>
-      <c r="H140" t="s">
-        <v>595</v>
-      </c>
-      <c r="I140" t="s">
-        <v>748</v>
-      </c>
-      <c r="J140" t="s">
-        <v>770</v>
-      </c>
-      <c r="K140" t="s">
-        <v>924</v>
-      </c>
-      <c r="M140" t="s">
-        <v>1077</v>
-      </c>
-      <c r="N140" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O140" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="141" spans="3:15">
-      <c r="C141" t="s">
-        <v>18</v>
-      </c>
-      <c r="D141" t="s">
-        <v>158</v>
-      </c>
-      <c r="E141" t="s">
-        <v>292</v>
-      </c>
-      <c r="F141" t="s">
-        <v>443</v>
-      </c>
-      <c r="G141">
-        <v>33838625</v>
-      </c>
-      <c r="H141" t="s">
-        <v>596</v>
-      </c>
-      <c r="I141" t="s">
-        <v>749</v>
-      </c>
-      <c r="J141" t="s">
-        <v>836</v>
-      </c>
-      <c r="K141" t="s">
-        <v>925</v>
-      </c>
-      <c r="L141" t="s">
-        <v>931</v>
-      </c>
-      <c r="M141" t="s">
-        <v>1078</v>
-      </c>
-      <c r="N141" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O141" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="142" spans="3:15">
-      <c r="C142" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" t="s">
-        <v>159</v>
-      </c>
-      <c r="E142" t="s">
-        <v>293</v>
-      </c>
-      <c r="F142" t="s">
-        <v>444</v>
-      </c>
-      <c r="G142">
-        <v>32877583</v>
-      </c>
-      <c r="H142" t="s">
-        <v>597</v>
-      </c>
-      <c r="I142" t="s">
-        <v>750</v>
-      </c>
-      <c r="J142" t="s">
-        <v>772</v>
-      </c>
-      <c r="K142" t="s">
-        <v>926</v>
-      </c>
-      <c r="L142" t="s">
-        <v>934</v>
-      </c>
-      <c r="M142" t="s">
-        <v>1079</v>
-      </c>
-      <c r="N142" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O142" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="143" spans="3:15">
-      <c r="C143" t="s">
-        <v>18</v>
-      </c>
-      <c r="D143" t="s">
-        <v>160</v>
-      </c>
-      <c r="E143" t="s">
-        <v>293</v>
-      </c>
-      <c r="F143" t="s">
-        <v>445</v>
-      </c>
-      <c r="G143">
-        <v>32469185</v>
-      </c>
-      <c r="H143" t="s">
-        <v>598</v>
-      </c>
-      <c r="I143" t="s">
-        <v>751</v>
-      </c>
-      <c r="J143" t="s">
-        <v>772</v>
-      </c>
-      <c r="K143" t="s">
-        <v>893</v>
-      </c>
-      <c r="L143" t="s">
-        <v>934</v>
-      </c>
-      <c r="M143" t="s">
-        <v>1080</v>
-      </c>
-      <c r="N143" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O143" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="144" spans="3:15">
-      <c r="C144" t="s">
-        <v>18</v>
-      </c>
-      <c r="D144" t="s">
-        <v>161</v>
-      </c>
-      <c r="E144" t="s">
-        <v>294</v>
-      </c>
-      <c r="F144" t="s">
-        <v>446</v>
-      </c>
-      <c r="G144">
-        <v>32955176</v>
-      </c>
-      <c r="H144" t="s">
-        <v>599</v>
-      </c>
-      <c r="I144" t="s">
-        <v>752</v>
-      </c>
-      <c r="J144" t="s">
-        <v>837</v>
-      </c>
-      <c r="K144" t="s">
-        <v>927</v>
-      </c>
-      <c r="L144" t="s">
-        <v>931</v>
-      </c>
-      <c r="M144" t="s">
-        <v>1081</v>
-      </c>
-      <c r="N144" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O144" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="145" spans="3:15">
-      <c r="C145" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" t="s">
-        <v>162</v>
-      </c>
-      <c r="E145" t="s">
-        <v>295</v>
-      </c>
-      <c r="F145" t="s">
-        <v>447</v>
-      </c>
-      <c r="G145">
-        <v>32997908</v>
-      </c>
-      <c r="H145" t="s">
-        <v>600</v>
-      </c>
-      <c r="I145" t="s">
-        <v>753</v>
-      </c>
-      <c r="J145" t="s">
-        <v>763</v>
-      </c>
-      <c r="K145" t="s">
-        <v>868</v>
-      </c>
-      <c r="M145" t="s">
-        <v>1082</v>
-      </c>
-      <c r="N145" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O145" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="146" spans="3:15">
-      <c r="C146" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" t="s">
-        <v>163</v>
-      </c>
-      <c r="E146" t="s">
-        <v>296</v>
-      </c>
-      <c r="F146" t="s">
-        <v>448</v>
-      </c>
-      <c r="G146">
-        <v>32459922</v>
-      </c>
-      <c r="H146" t="s">
-        <v>601</v>
-      </c>
-      <c r="I146" t="s">
-        <v>754</v>
-      </c>
-      <c r="J146" t="s">
-        <v>838</v>
-      </c>
-      <c r="K146" t="s">
-        <v>848</v>
-      </c>
-      <c r="M146" t="s">
-        <v>1083</v>
-      </c>
-      <c r="N146" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O146" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="147" spans="3:15">
-      <c r="C147" t="s">
-        <v>18</v>
-      </c>
-      <c r="D147" t="s">
-        <v>164</v>
-      </c>
-      <c r="E147" t="s">
-        <v>297</v>
-      </c>
-      <c r="F147" t="s">
-        <v>449</v>
-      </c>
-      <c r="G147">
-        <v>32130814</v>
-      </c>
-      <c r="H147" t="s">
-        <v>602</v>
-      </c>
-      <c r="I147" t="s">
-        <v>755</v>
-      </c>
-      <c r="J147" t="s">
-        <v>773</v>
-      </c>
-      <c r="K147" t="s">
-        <v>928</v>
-      </c>
-      <c r="M147" t="s">
-        <v>1084</v>
-      </c>
-      <c r="N147" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O147" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="148" spans="3:15">
-      <c r="C148" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" t="s">
-        <v>165</v>
-      </c>
-      <c r="E148" t="s">
-        <v>298</v>
-      </c>
-      <c r="F148" t="s">
-        <v>450</v>
-      </c>
-      <c r="G148">
-        <v>32160663</v>
-      </c>
-      <c r="H148" t="s">
-        <v>603</v>
-      </c>
-      <c r="I148" t="s">
-        <v>756</v>
-      </c>
-      <c r="J148" t="s">
-        <v>839</v>
-      </c>
-      <c r="K148" t="s">
-        <v>845</v>
-      </c>
-      <c r="M148" t="s">
-        <v>1085</v>
-      </c>
-      <c r="N148" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O148" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="149" spans="3:15">
-      <c r="C149" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" t="s">
-        <v>166</v>
-      </c>
-      <c r="E149" t="s">
-        <v>299</v>
-      </c>
-      <c r="F149" t="s">
-        <v>451</v>
-      </c>
-      <c r="G149">
-        <v>32023374</v>
-      </c>
-      <c r="H149" t="s">
-        <v>604</v>
-      </c>
-      <c r="I149" t="s">
-        <v>757</v>
-      </c>
-      <c r="J149" t="s">
-        <v>840</v>
-      </c>
-      <c r="K149" t="s">
-        <v>907</v>
-      </c>
-      <c r="L149" t="s">
-        <v>938</v>
-      </c>
-      <c r="M149" t="s">
-        <v>1086</v>
-      </c>
-      <c r="N149" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O149" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="150" spans="3:15">
-      <c r="C150" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" t="s">
-        <v>167</v>
-      </c>
-      <c r="E150" t="s">
-        <v>300</v>
-      </c>
-      <c r="F150" t="s">
-        <v>452</v>
-      </c>
-      <c r="G150">
-        <v>32101664</v>
-      </c>
-      <c r="H150" t="s">
-        <v>605</v>
-      </c>
-      <c r="I150" t="s">
-        <v>758</v>
-      </c>
-      <c r="J150" t="s">
-        <v>835</v>
-      </c>
-      <c r="K150" t="s">
-        <v>929</v>
-      </c>
-      <c r="M150" t="s">
-        <v>1087</v>
-      </c>
-      <c r="N150" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O150" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="151" spans="3:15">
-      <c r="C151" t="s">
-        <v>18</v>
-      </c>
-      <c r="D151" t="s">
-        <v>168</v>
-      </c>
-      <c r="E151" t="s">
-        <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>453</v>
-      </c>
-      <c r="G151">
-        <v>32846061</v>
-      </c>
-      <c r="H151" t="s">
-        <v>606</v>
-      </c>
-      <c r="I151" t="s">
-        <v>759</v>
-      </c>
-      <c r="J151" t="s">
-        <v>841</v>
-      </c>
-      <c r="K151" t="s">
-        <v>930</v>
-      </c>
-      <c r="L151" t="s">
-        <v>935</v>
-      </c>
-      <c r="M151" t="s">
-        <v>1088</v>
-      </c>
-      <c r="N151" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O151" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="152" spans="3:15">
-      <c r="C152" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" t="s">
-        <v>169</v>
-      </c>
-      <c r="E152" t="s">
-        <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>454</v>
-      </c>
-      <c r="G152">
-        <v>32846060</v>
-      </c>
-      <c r="H152" t="s">
-        <v>607</v>
-      </c>
-      <c r="I152" t="s">
-        <v>760</v>
-      </c>
-      <c r="J152" t="s">
-        <v>772</v>
-      </c>
-      <c r="K152" t="s">
-        <v>927</v>
-      </c>
-      <c r="L152" t="s">
-        <v>935</v>
-      </c>
-      <c r="M152" t="s">
-        <v>1089</v>
-      </c>
-      <c r="N152" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O152" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="153" spans="3:15">
-      <c r="C153" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153" t="s">
-        <v>170</v>
-      </c>
-      <c r="E153" t="s">
-        <v>302</v>
-      </c>
-      <c r="F153" t="s">
-        <v>455</v>
-      </c>
-      <c r="G153">
-        <v>32786189</v>
-      </c>
-      <c r="H153" t="s">
-        <v>608</v>
-      </c>
-      <c r="I153" t="s">
-        <v>761</v>
-      </c>
-      <c r="J153" t="s">
-        <v>772</v>
-      </c>
-      <c r="K153" t="s">
-        <v>868</v>
-      </c>
-      <c r="M153" t="s">
-        <v>1090</v>
-      </c>
-      <c r="N153" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O153" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="154" spans="3:15">
-      <c r="C154" t="s">
-        <v>18</v>
-      </c>
-      <c r="D154" t="s">
-        <v>171</v>
-      </c>
-      <c r="E154" t="s">
-        <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>456</v>
-      </c>
-      <c r="G154">
-        <v>32348643</v>
-      </c>
-      <c r="H154" t="s">
-        <v>609</v>
-      </c>
-      <c r="I154" t="s">
-        <v>762</v>
-      </c>
-      <c r="K154" t="s">
-        <v>845</v>
-      </c>
-      <c r="M154" t="s">
-        <v>1091</v>
-      </c>
-      <c r="N154" t="s">
-        <v>1092</v>
-      </c>
-      <c r="O154" t="s">
-        <v>1093</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>

--- a/Literature_Screening_List.xlsx
+++ b/Literature_Screening_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1012">
   <si>
     <t>Select? (Y/N)</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Breast cancer mortality in 500 000 women with early invasive breast cancer diagnosed in England, 1993-2015: population based observational cohort study.</t>
   </si>
   <si>
+    <t>Extension of cervical screening intervals with primary human papillomavirus testing: observational study of English screening pilot data.</t>
+  </si>
+  <si>
     <t>Regulatory and clinical consequences of negative confirmatory trials of accelerated approval cancer drugs: retrospective observational study.</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
     <t>Evaluation of community outreach feasibility programmes on improving cancer-related, preventive, health behaviour.</t>
   </si>
   <si>
+    <t>Impact of the temporary suspension of the Bowel Screening Wales programme on inequalities during the COVID-19 pandemic: a retrospective register-based study.</t>
+  </si>
+  <si>
     <t>Racial disparities in recommendations for surgical resection of primary brain tumours: a registry-based cohort analysis.</t>
   </si>
   <si>
@@ -277,6 +283,9 @@
     <t>The effects of the national HPV vaccination programme in England, UK, on cervical cancer and grade 3 cervical intraepithelial neoplasia incidence: a register-based observational study.</t>
   </si>
   <si>
+    <t>KTE-X19 for relapsed or refractory adult B-cell acute lymphoblastic leukaemia: phase 2 results of the single-arm, open-label, multicentre ZUMA-3 study.</t>
+  </si>
+  <si>
     <t>Lisocabtagene maraleucel for patients with relapsed or refractory large B-cell lymphomas (TRANSCEND NHL 001): a multicentre seamless design study.</t>
   </si>
   <si>
@@ -343,6 +352,9 @@
     <t>Prenatal cfDNA Sequencing and Incidental Detection of Maternal Cancer.</t>
   </si>
   <si>
+    <t>Sequential CD7 CAR T-Cell Therapy and Allogeneic HSCT without GVHD Prophylaxis.</t>
+  </si>
+  <si>
     <t>Atezolizumab for Advanced Alveolar Soft Part Sarcoma.</t>
   </si>
   <si>
@@ -361,6 +373,9 @@
     <t>Pirtobrutinib after a Covalent BTK Inhibitor in Chronic Lymphocytic Leukemia.</t>
   </si>
   <si>
+    <t>BRAF-MEK Inhibition in Newly Diagnosed Papillary Craniopharyngiomas.</t>
+  </si>
+  <si>
     <t>Adagrasib with or without Cetuximab in Colorectal Cancer with Mutated KRAS G12C.</t>
   </si>
   <si>
@@ -448,6 +463,9 @@
     <t>Use of CAR-Transduced Natural Killer Cells in CD19-Positive Lymphoid Tumors.</t>
   </si>
   <si>
+    <t>Microbiota as Predictor of Mortality in Allogeneic Hematopoietic-Cell Transplantation.</t>
+  </si>
+  <si>
     <t>Efficacy of Selpercatinib in RET-Altered Thyroid Cancers.</t>
   </si>
   <si>
@@ -469,6 +487,9 @@
     <t>2023 Jun 13</t>
   </si>
   <si>
+    <t>2022 May 31</t>
+  </si>
+  <si>
     <t>2021 Sep 8</t>
   </si>
   <si>
@@ -634,6 +655,9 @@
     <t>2021 Dec 4</t>
   </si>
   <si>
+    <t>2021 Aug 7</t>
+  </si>
+  <si>
     <t>2020 Sep 19</t>
   </si>
   <si>
@@ -688,6 +712,9 @@
     <t>2024 Dec 5</t>
   </si>
   <si>
+    <t>2024 Apr 25</t>
+  </si>
+  <si>
     <t>2023 Sep 7</t>
   </si>
   <si>
@@ -706,6 +733,9 @@
     <t>2023 Jul 6</t>
   </si>
   <si>
+    <t>2023 Jul 13</t>
+  </si>
+  <si>
     <t>2023 Jan 5</t>
   </si>
   <si>
@@ -781,6 +811,9 @@
     <t>2020 Feb 6</t>
   </si>
   <si>
+    <t>2020 Feb 27</t>
+  </si>
+  <si>
     <t>2020 Aug 27</t>
   </si>
   <si>
@@ -799,6 +832,9 @@
     <t>10.1136/bmj-2022-074684 e074684</t>
   </si>
   <si>
+    <t>10.1136/bmj-2021-068776 e068776</t>
+  </si>
+  <si>
     <t>10.1136/bmj.n1959 n1959</t>
   </si>
   <si>
@@ -958,6 +994,9 @@
     <t>S0140-6736(22)02277-2 [pii] 10.1016/S0140-6736(22)02277-2</t>
   </si>
   <si>
+    <t>S0140-6736(22)02235-8 [pii] 10.1016/S0140-6736(22)02235-8</t>
+  </si>
+  <si>
     <t>S0140-6736(22)00839-X [pii] 10.1016/S0140-6736(22)00839-X</t>
   </si>
   <si>
@@ -991,6 +1030,9 @@
     <t>S0140-6736(21)02178-4 [pii] 10.1016/S0140-6736(21)02178-4</t>
   </si>
   <si>
+    <t>S0140-6736(21)01222-8 [pii] 10.1016/S0140-6736(21)01222-8</t>
+  </si>
+  <si>
     <t>S0140-6736(20)31366-0 [pii] 10.1016/S0140-6736(20)31366-0</t>
   </si>
   <si>
@@ -1057,6 +1099,9 @@
     <t>10.1056/NEJMoa2401029</t>
   </si>
   <si>
+    <t>10.1056/NEJMoa2313812</t>
+  </si>
+  <si>
     <t>10.1056/NEJMoa2303383</t>
   </si>
   <si>
@@ -1075,6 +1120,9 @@
     <t>10.1056/NEJMoa2300696</t>
   </si>
   <si>
+    <t>10.1056/NEJMoa2213329</t>
+  </si>
+  <si>
     <t>10.1056/NEJMoa2212419</t>
   </si>
   <si>
@@ -1162,6 +1210,9 @@
     <t>10.1056/NEJMoa1910607</t>
   </si>
   <si>
+    <t>10.1056/NEJMoa1900623</t>
+  </si>
+  <si>
     <t>10.1056/NEJMoa2005651</t>
   </si>
   <si>
@@ -1183,6 +1234,9 @@
     <t>OBJECTIVES: To describe long term breast cancer mortality among women with a diagnosis of breast cancer in the past and estimate absolute breast cancer mortality risks for groups of patients with a recent diagnosis. DESIGN: Population based observational cohort study. SETTING: Routinely collected data from the National Cancer Registration and Analysis Service. PARTICIPANTS: All 512 447 women registered with early invasive breast cancer (involving only breast and possibly axillary nodes) in England during January 1993 to December 2015, with follow-up to December 2020. MAIN OUTCOME MEASURES: Annual breast cancer mortality rates and cumulative risks by time since diagnosis, calendar period of diagnosis, and nine characteristics of patients and tumours. RESULTS: For women with a diagnosis made within each of the calendar periods 1993-99, 2000-04, 2005-09, and 2010-15, the crude annual breast cancer mortality rate was highest during the five years after diagnosis and then declined. For any given time since diagnosis, crude annual breast cancer mortality rates and risks decreased with increasing calendar period. Crude five year breast cancer mortality risk was 14.4% (95% confidence interval 14.2% to 14.6%) for women with a diagnosis made during 1993-99 and 4.9% (4.8% to 5.0%) for women with a diagnosis made during 2010-15. Adjusted annual breast cancer mortality rates also decreased with increasing calendar period in nearly every patient group, by a factor of about three in oestrogen receptor positive disease and about two in oestrogen receptor negative disease. Considering just the women with a diagnosis made during 2010-15, cumulative five year breast cancer mortality risk varied substantially between women with different characteristics: it was &lt;3% for 62.8% (96 085/153 006) of women but &gt;/=20% for 4.6% (6962/153 006) of women. CONCLUSIONS: These five year breast cancer mortality risks for patients with a recent diagnosis may be used to estimate breast cancer mortality risks for patients today. The prognosis for women with early invasive breast cancer has improved substantially since the 1990s. Most can expect to become long term cancer survivors, although for a few the risk remains appreciable.</t>
   </si>
   <si>
+    <t>OBJECTIVES: To provide updated evidence about the risk of cervical intraepithelial neoplasia grade 3 or higher (CIN3+) and cervical cancer after a negative human papillomavirus (HPV) test in primary cervical screening, by age group and test assay. DESIGN: Observational study. SETTING: Real world data from the English HPV screening pilot's first and second rounds (2013-16, follow-up to end of 2019). PARTICIPANTS: 1 341 584 women. INTERVENTIONS: Cervical screening with HPV testing or liquid based cytological testing (cytology or smear tests). Women screened with cytology were referred to colposcopy after high grade cytological abnormalities or after borderline or low grade abnormalities combined with a positive HPV triage test. Women screened with HPV testing who were positive were referred at baseline if their cytology triage test showed at least borderline abnormalities or after a retest (early recall) at 12 and 24 months if they had persistent abnormalities. MAIN OUTCOME MEASURES: Detection of CIN3+ and cervical cancer after a negative HPV test. RESULTS: For women younger than 50 years, second round detection of CIN3+ in this study was significantly lower after a negative HPV screen in the first round than after cytology testing (1.21/1000 v 4.52/1000 women screened, adjusted odds ratio 0.26, 95% confidence interval 0.23 to 0.30), as was the risk of interval cervical cancer (1.31/100 000 v 2.90/100 000 woman years, adjusted hazard ratio 0.44, 0.23 to 0.84). Risk of an incident CIN3+ detected at the second screening round in the pilot five years after a negative HPV test was even lower in women older than 50 years, than in three years in women younger than 50 years (0.57/1000 v 1.21/1000 women screened, adjusted odds ratio 0.46, 0.27 to 0.79). Women with negative HPV tests at early recall after a positive HPV screening test without cytological abnormalities had a higher detection rate of CIN3+ at the second routine recall than women who initially tested HPV negative (5.39/1000 v 1.21/1000 women screened, adjusted odds ratio 3.27, 95% confidence interval 2.21 to 4.84). Detection after a negative result on a clinically validated APTIMA mRNA HPV test was similar to that after clinically validated cobas and RealTime DNA tests (for CIN3+ at the second round 1.32/1000 v 1.14/1000 women screened, adjusted odds ratio 1.05, 0.73 to 1.50). CONCLUSIONS: These data support an extension of the screening intervals, regardless of the test assay used: to five years after a negative HPV test in women aged 25-49 years, and even longer for women aged 50 years and older. The screening interval for HPV positive women who have negative HPV tests at early recall should be kept at three years.</t>
+  </si>
+  <si>
     <t>OBJECTIVES: To investigate the regulatory handling of cancer drugs that were granted accelerated approval by the US Food and Drug Administration (FDA) but failed to improve the primary endpoint in post-approval trials and to evaluate the extent to which negative post-approval trials changed the recommendations in treatment guidelines. DESIGN: Retrospective observational study. SETTING: FDA and National Comprehensive Cancer Network (NCCN) reports. INCLUDED DRUGS: Cancer drugs that received accelerated approval from the FDA and had negative post-approval trials. MAIN OUTCOME MEASURES: Regulatory outcomes, including withdrawal, conversion to regular approval, and no action. RESULTS: 18 indications for 10 cancer drugs that received accelerated approval but failed to improve the primary endpoint in post-approval trials were identified. Of these, 11 (61%) were voluntarily withdrawn by the manufacturer and one (bevacizumab for breast cancer) was revoked by the FDA. Of the 11 withdrawals, six occurred in 2021 alone. The remaining six (33%) indications remain on the label. The NCCN guidelines provide a high level of endorsement (category 1 endorsement for one and category 2A endorsement for seven) for accelerated approval drugs that have failed post-approval trials, sometimes even after the approval has been withdrawn or revoked. CONCLUSION: Cancer drug indications that received accelerated approval often remained on formal FDA approved drug labelling and continued to be recommended in clinical guidelines several years after statutorily required post-approval trials showed no improvement in the primary efficacy endpoint. Clinical guidelines should better align with the results of post-approval trials of cancer drugs that received accelerated approval.</t>
   </si>
   <si>
@@ -1342,6 +1396,9 @@
     <t>BACKGROUND: The COVID-19 pandemic had a negative impact on cancer services and will have likely led to delayed early detection and diagnosis. In response, the Irish Cancer Society (ICS) planned and delivered seven cancer roadshow events run on 15 days across seven shopping centres in four deprived areas based on Trinity National Deprivation Index, 2016, in Limerick, Cork, Waterford and Dublin regions in Ireland to educate and promote awareness about cancer signs and symptoms, importance of screening, positive lifestyle changes, and encourage medical care-seeking behaviour. METHODS: ICS nurses and trained ICS volunteers conducted health checks such as blood pressure, BMI, and CO(2), monitoring (one health check per person maximum), provided health information and conducted motivational interviews in aforementioned regions. Data were collected via an anonymous questionnaire from participants and volunteers. SPSS was used for descriptive and pre-post event comparative analysis. FINDINGS: 98 people, all adults (54 men and 44 women) participated; 88% (n=86) found the information provided useful, 85% (n=83) approved of the health check and 73% (n=71) stated that they would probably make changes to their current lifestyle to reduce their cancer risk. Moderate or high understanding of cancer signs and symptoms (from 62% to 82%; p&lt;0.0001) and moderate or high awareness of cancer risk factors (from 49% to 61%; p&lt;0.0001) both rose after the events. If symptomatic for cancer, 78% (n=76) of participants would probably visit their general practitioner and 74% (n=72) would probably contact ICS. Younger people (aged &lt;/=40 years) were more likely to consider consulting a health-care professional if symptomatic (p=0.0270) and to contact the ICS (p=0.0070) for more information. High numbers of participants (99%; n=97) and volunteers (95%; n=42) recommended a nationwide roll out. INTERPRETATION: With moderate to high levels of public engagement, volunteers reported people discussed cancer screening, information on making lifestyle changes, and ICS services. Such community outreach programmes to promote cancer-related health are feasible and acceptable and might lead to improved knowledge of cancer prevention, early detection, and improved intention to seek help for health concerns. Determination of effectiveness in preventive behaviour, early diagnosis, and cost effectiveness would require longer term follow up. FUNDING: Irish Cancer Society.</t>
   </si>
   <si>
+    <t>BACKGROUND: Response to the COVID-19 pandemic resulted in the temporary disruption of routine services in the UK National Health Service, including cancer screening. Following the reintroduction of services, we explored the impact on inequalities in uptake of the Bowel Screening Wales (BSW) programme to identify groups who might benefit from tailored intervention. METHODS: BSW records were linked to electronic health record and administrative data within the Secured Anonymised Information Linkage (SAIL) Databank Trusted Research Environment. We examined uptake in the first 3 months (from August to October, 2020) of invitations following the reintroduction of the BSW programme compared with the same period in the preceding 3 years. We analysed inequalities in uptake by sex, age group, income deprivation quintile, urban and rural location, ethnic group, and uptake between different periods using logistic regression models. FINDINGS: Overall uptake remained above the 60% Welsh standard during the COVID-19 pandemic period of 2020-21 but declined compared with the pre-pandemic period of 2019-20 (60.4% vs 62.7%; p&lt;0.001). During the COVID-19 pandemic period of 2020-21, uptake declined for most demographic groups, except for older individuals (70-74 years) and those in the most deprived quintile. Variation by sex, age, income deprivation, and ethnic groups was observed in all periods studied. Among low-uptake groups, including males, younger individuals (60-64 years), those living in most deprived areas, and ethnic minorities, uptake remains below the 60% Welsh standard. INTERPRETATION: Despite the disruption, uptake remained above the Welsh standard and inequalities did not worsen after the programme resumed activities. However, variations associated with sex, age, deprivation, and ethnicity remain. These findings need to be considered in targeting strategies to improve uptake and informed choice in colorectal cancer screening such as co-producing information products with low-uptake groups and upscaling the use of GP-endorsed invitations and reminder letters for bowel screening. FUNDING: Health Data Research UK, UK Medical Research Council, Administrative Data Research UK, and Health and Care Research Wales.</t>
+  </si>
+  <si>
     <t>BACKGROUND: Disparities in treatment and outcomes disproportionately affect minority ethnic and racial populations in many surgical fields. Although substantial research in racial disparities has focused on outcomes, little is known about how surgeon recommendations can be influenced by patient race. The aim of this study was to investigate racial and socioeconomic disparities in the surgical management of primary brain tumors. METHODS: In this registry-based cohort study, we used data from the Surveillance, Epidemiology, and End Results (SEER) database (1975-2016) and the American College of Surgeons National Cancer Database (NCDB) in the USA for independent analysis. Adults (aged &gt;/=20 years) with a new diagnosis of meningioma, glioblastoma, pituitary adenoma, vestibular schwannoma, astrocytoma, and oligodendroglioma, with information on tumour size and surgical recommendation were included in the analysis. The primary outcome of this study was the odds of a surgeon recommending against surgical resection at diagnosis of primary brain neoplasms. This outcome was determined using multivariable logistic regression with clinical, demographic, and socioeconomic factors. FINDINGS: This study included US national data from the SEER (1975-2016) and NCDB (2004-17) databases of adults with a new diagnosis of meningioma (SEER n=63 674; NCDB n=222 673), glioblastoma (n=35 258; n=104 047), pituitary adenoma (n=27 506; n=87 772), vestibular schwannoma (n=11 525; n=30 745), astrocytoma (n=5402; n=10 631), and oligodendroglioma (n=3977; n=9187). Independent of clinical and demographic factors, including insurance status and rural-urban continuum code, Black patients had significantly higher odds of recommendation against surgical resection of meningioma (adjusted odds ratio 1.13, 95% CI 1.06-1.21, p&lt;0.0001), glioblastoma (1.14, 1.01-1.28, p=0.038), pituitary adenoma (1.13, 1.05-1.22, p&lt;0.0001), and vestibular schwannoma (1.48, 1.19-1.84, p&lt;0.0001) when compared with White patients in the SEER dataset. Additionally, patients of unknown race had significantly higher odds of recommendation against surgical resection for pituitary adenoma (1.80, 1.41-2.30, p&lt;0.0001) and vestibular schwannoma (1.49, 1.10-2.04, p=0.011). Performing a validation analysis using the NCDB dataset confirmed these significant results for Black patients with meningioma (1.18, 1.14-1.22, p&lt;0.0001), glioblastoma (1.19, 1.12-1.28, p&lt;0.0001), pituitary adenoma (1.21, 1.16-1.25, p&lt;0.0001), and vestibular schwannoma (1.19, 1.04-1.35, p=0.0085), and indicated and indicated that the findings are independent of patient comorbidities. When further restricted to the most recent decade in SEER, these inequities held true for Black patients, except those with glioblastoma (meningioma [1.18, 1.08-1.28, p&lt;0.0001], pituitary adenoma [1.20, 1.09-1.31, p&lt;0.0001], and vestibular schwannoma [1.54, 1.16-2.04, p=0.0031]). INTERPRETATION: Racial disparities in surgery recommendations in the USA exist for patients with primary brain tumours, independent of potential confounders including clinical, demographic, and select socioeconomic factors. Further studies are needed to understand drivers of this bias and enhance equality in surgical care. FUNDING: None.</t>
   </si>
   <si>
@@ -1375,6 +1432,9 @@
     <t>BACKGROUND: Human papillomavirus (HPV) immunisation with a bivalent vaccine (Cervarix) was introduced in England, UK, in Sept 1, 2008: routine vaccination was offered to girls aged 12-13 years with a catch-up programme for females aged 14-18 years in 2008-10. We quantified the early effect of this immunisation programme on cervical cancer and cervical carcinoma in situ, namely grade 3 cervical intraepithelial neoplasia (CIN3), registrations. METHODS: In this observational study, we used an extension of the age-period-cohort Poisson model to estimate the relative risk of cervical cancer in three vaccinated cohorts compared with earlier cohorts that were not eligible for HPV vaccination. Data from a population-based cancer registry were extracted on Jan 26, 2021, and were assessed for diagnoses of cervical cancer and CIN3 from Jan 1, 2006 to June 30, 2019 in women aged 20-64 years and who were a resident in England. We used three vaccinated cohorts to account for differences in the school year in which the vaccine was offered and its national coverage. Adjustment for confounding was made using information on changes in cervical screening policy and historical events that affected cervical cancer incidence. Results were compared across models with different adjustments for confounders. FINDINGS: We used data from a total of 13.7 million-years of follow-up of women aged 20 years to younger than 30 years. The estimated relative reduction in cervical cancer rates by age at vaccine offer were 34% (95% CI 25-41) for age 16-18 years (school year 12-13), 62% (52-71) for age 14-16 years (school year 10-11), and 87% (72-94) for age 12-13 years (school year 8), compared with the reference unvaccinated cohort. The corresponding risk reductions for CIN3 were 39% (95% CI 36-41) for those offered at age 16-18 years, 75% (72-77) for age 14-16 years, and 97% (96-98) for age 12-13 years. These results remained similar across models. We estimated that by June 30, 2019 there had been 448 (339-556) fewer than expected cervical cancers and 17 235 (15 919-18 552) fewer than expected cases of CIN3 in vaccinated cohorts in England. INTERPRETATION: We observed a substantial reduction in cervical cancer and incidence of CIN3 in young women after the introduction of the HPV immunisation programme in England, especially in individuals who were offered the vaccine at age 12-13 years. The HPV immunisation programme has successfully almost eliminated cervical cancer in women born since Sept 1, 1995. FUNDING: Cancer Research UK.</t>
   </si>
   <si>
+    <t>BACKGROUND: Despite treatment with novel therapies and allogeneic stem-cell transplant (allo-SCT) consolidation, outcomes in adult patients with relapsed or refractory B-precursor acute lymphoblastic leukaemia remain poor, underlining the need for more effective therapies. METHODS: We report the pivotal phase 2 results of ZUMA-3, an international, multicentre, single-arm, open-label study evaluating the efficacy and safety of the autologous anti-CD19 chimeric antigen receptor (CAR) T-cell therapy KTE-X19 in adult patients with relapsed or refractory B-precursor acute lymphoblastic leukaemia. Patients were enrolled at 25 sites in the USA, Canada, and Europe. Eligible patients were aged 18 years or older, with Eastern Cooperative Oncology Group performance status of 0-1, and morphological disease in the bone marrow (&gt;5% blasts). After leukapheresis and conditioning chemotherapy, patients received a single KTE-X19 infusion (1 x 10(6) CAR T cells per kg bodyweight). The primary endpoint was the rate of overall complete remission or complete remission with incomplete haematological recovery by central assessment. Duration of remission and relapse-free survival, overall survival, minimal residual disease (MRD) negativity rate, and allo-SCT rate were assessed as secondary endpoints. Efficacy and safety analyses were done in the treated population (all patients who received a dose of KTE-X19). This study is registered with ClinicalTrials.gov, NCT02614066. FINDINGS: Between Oct 1, 2018, and Oct 9, 2019, 71 patients were enrolled and underwent leukapheresis. KTE-X19 was successfully manufactured for 65 (92%) patients and administered to 55 (77%). The median age of treated patients was 40 years (IQR 28-52). At the median follow-up of 16.4 months (13.8-19.6), 39 patients (71%; 95% CI 57-82, p&lt;0.0001) had complete remission or complete remission with incomplete haematological recovery, with 31 (56%) patients reaching complete remission. Median duration of remission was 12.8 months (95% CI 8.7-not estimable), median relapse-free survival was 11.6 months (2.7-15.5), and median overall survival was 18.2 months (15.9-not estimable). Among responders, the median overall survival was not reached, and 38 (97%) patients had MRD negativity. Ten (18%) patients received allo-SCT consolidation after KTE-X19 infusion. The most common adverse events of grade 3 or higher were anaemia (27 [49%] patients) and pyrexia (20 [36%] patients). 14 (25%) patients had infections of grade 3 or higher. Two grade 5 KTE-X19-related events occurred (brain herniation and septic shock). Cytokine release syndrome of grade 3 or higher occurred in 13 (24%) patients and neurological events of grade 3 or higher occurred in 14 (25%) patients. INTERPRETATION: KTE-X19 showed a high rate of complete remission or complete remission with incomplete haematological recovery in adult patients with relapsed or refractory B-precursor acute lymphoblastic leukaemia, with the median overall survival not reached in responding patients, and a manageable safety profile. These findings indicate that KTE-X19 has the potential to confer long-term clinical benefit to these patients. FUNDING: Kite, a Gilead Company.</t>
+  </si>
+  <si>
     <t>BACKGROUND: Lisocabtagene maraleucel (liso-cel) is an autologous, CD19-directed, chimeric antigen receptor (CAR) T-cell product. We aimed to assess the activity and safety of liso-cel in patients with relapsed or refractory large B-cell lymphomas. METHODS: We did a seamless design study at 14 cancer centres in the USA. We enrolled adult patients (aged &gt;/=18 years) with relapsed or refractory large B-cell lymphomas. Eligible histological subgroups included diffuse large B-cell lymphoma, high-grade B-cell lymphoma with rearrangements of MYC and either BCL2, BCL6, or both (double-hit or triple-hit lymphoma), diffuse large B-cell lymphoma transformed from any indolent lymphoma, primary mediastinal B-cell lymphoma, and follicular lymphoma grade 3B. Patients were assigned to one of three target dose levels of liso-cel as they were sequentially tested in the trial (50 x 10(6) CAR(+) T cells [one or two doses], 100 x 10(6) CAR(+) T cells, and 150 x 10(6) CAR(+) T cells), which were administered as a sequential infusion of two components (CD8(+) and CD4(+) CAR(+) T cells) at equal target doses. Primary endpoints were adverse events, dose-limiting toxicities, and the objective response rate (assessed per Lugano criteria); endpoints were assessed by an independent review committee in the efficacy-evaluable set (comprising all patients who had confirmed PET-positive disease and received at least one dose of liso-cel). This trial is registered with ClinicalTrials.gov, NCT02631044. FINDINGS: Between Jan 11, 2016, and July 5, 2019, 344 patients underwent leukapheresis for manufacture of CAR(+) T cells (liso-cel), of whom 269 patients received at least one dose of liso-cel. Patients had received a median of three (range 1-8) previous lines of systemic treatment, with 260 (97%) patients having had at least two lines. 112 (42%) patients were aged 65 years or older, 181 (67%) had chemotherapy-refractory disease, and seven (3%) had secondary CNS involvement. Median follow-up for overall survival for all 344 patients who had leukapheresis was 18.8 months (95% CI 15.0-19.3). Overall safety and activity of liso-cel did not differ by dose level. The recommended target dose was 100 x 10(6) CAR(+) T cells (50 x 10(6) CD8(+) and 50 x 10(6) CD4(+) CAR(+) T cells). Of 256 patients included in the efficacy-evaluable set, an objective response was achieved by 186 (73%, 95% CI 66.8-78.0) patients and a complete response by 136 (53%, 46.8-59.4). The most common grade 3 or worse adverse events were neutropenia in 161 (60%) patients, anaemia in 101 (37%), and thrombocytopenia in 72 (27%). Cytokine release syndrome and neurological events occurred in 113 (42%) and 80 (30%) patients, respectively; grade 3 or worse cytokine release syndrome and neurological events occurred in six (2%) and 27 (10%) patients, respectively. Nine (6%) patients had a dose-limiting toxicity, including one patient who died from diffuse alveolar damage following a dose of 50 x 10(6) CAR(+) T cells. INTERPRETATION: Use of liso-cel resulted in a high objective response rate, with a low incidence of grade 3 or worse cytokine release syndrome and neurological events in patients with relapsed or refractory large B-cell lymphomas, including those with diverse histological subtypes and high-risk features. Liso-cel is under further evaluation at first relapse in large B-cell lymphomas and as a treatment for other relapsed or refractory B-cell malignancies. FUNDING: Juno Therapeutics, a Bristol-Myers Squibb Company.</t>
   </si>
   <si>
@@ -1441,6 +1501,9 @@
     <t>BACKGROUND: Cell-free DNA (cfDNA) sequence analysis to screen for fetal aneuploidy can incidentally detect maternal cancer. Additional data are needed to identify DNA-sequencing patterns and other biomarkers that can identify pregnant persons who are most likely to have cancer and to determine the best approach for follow-up. METHODS: In this ongoing study we performed cancer screening in pregnant or postpartum persons who did not perceive signs or symptoms of cancer but received unusual clinical cfDNA-sequencing results or results that were nonreportable (i.e., the fetal aneuploidy status could not be assessed) from one of 12 different commercial laboratories in North America. We used a uniform cancer-screening protocol including rapid whole-body magnetic resonance imaging (MRI), laboratory tests, and standardized cfDNA sequencing for research purposes with the use of a genomewide platform. The primary outcome was the presence of cancer in participants after the initial cancer-screening evaluation. Secondary analyses included test performance. RESULTS: Cancer was present in 52 of the 107 participants in the initial cohort (48.6%). The sensitivity and specificity of whole-body MRI in detecting occult cancer were 98.0% and 88.5%, respectively. Physical examination and laboratory tests were of limited use in identifying participants with cancer. Research sequencing showed that 49 participants had a combination of copy-number gains and losses across multiple (&gt;/=3) chromosomes; cancer was present in 47 of the participants (95.9%) with this sequencing pattern. Sequencing patterns of cfDNA in which there were only chromosomal gains (multiple trisomies) or only chromosomal losses (one or more monosomies) were found in participants with nonmalignant conditions, such as fibroids. CONCLUSIONS: In this study, 48.6% of participants who received unusual or nonreportable clinical cfDNA-sequencing results had an occult cancer. Further study of DNA-sequencing patterns that are suggestive of occult cancer during prenatal screening is warranted. (Funded by the NIH Intramural Research Programs; ClinicalTrials.gov number, NCT04049604.).</t>
   </si>
   <si>
+    <t>BACKGROUND: Patients with relapsed or refractory hematologic cancers have a poor prognosis. Chimeric antigen receptor (CAR) T-cell therapy as a bridge to allogeneic hematopoietic stem-cell transplantation (HSCT) has the potential for long-term tumor elimination. However, pre-HSCT myeloablation and graft-versus-host disease (GVHD) prophylaxis agents have toxic effects and could eradicate residual CAR T cells and compromise antitumor effects. Whether the integration of CAR T-cell therapy and allogeneic HSCT can preserve CAR T-cell function and improve tumor control is unclear. METHODS: We tested a novel "all-in-one" strategy consisting of sequential CD7 CAR T-cell therapy and haploidentical HSCT in 10 patients with relapsed or refractory CD7-positive leukemia or lymphoma. After CAR T-cell therapy led to complete remission with incomplete hematologic recovery, patients received haploidentical HSCT without pharmacologic myeloablation or GVHD prophylaxis drugs. Toxic effects and efficacy were closely monitored. RESULTS: After CAR T-cell therapy, all 10 patients had complete remission with incomplete hematologic recovery and grade 4 pancytopenia. After haploidentical HSCT, 1 patient died on day 13 of septic shock and encephalitis, 8 patients had full donor chimerism, and 1 patient had autologous hematopoiesis. Three patients had grade 2 HSCT-associated acute GVHD. The median follow-up was 15.1 months (range, 3.1 to 24.0) after CAR T-cell therapy. Six patients remained in minimal residual disease-negative complete remission, 2 had a relapse of CD7-negative leukemia, and 1 died of septic shock at 3.7 months. The estimated 1-year overall survival was 68% (95% confidence interval [CI], 43 to 100), and the estimated 1-year disease-free survival was 54% (95% CI, 29 to 100). CONCLUSIONS: Our findings suggest that sequential CD7 CAR T-cell therapy and haploidentical HSCT is safe and effective, with remission and serious but reversible adverse events. This strategy offers a feasible approach for patients with CD7-positive tumors who are ineligible for conventional allogeneic HSCT. (Funded by the National Natural Science Foundation of China and the Key Project of Science and Technology Department of Zhejiang Province; ClinicalTrials.gov numbers, NCT04599556 and NCT04538599.).</t>
+  </si>
+  <si>
     <t>BACKGROUND: Alveolar soft part sarcoma (ASPS) is a rare soft-tissue sarcoma with a poor prognosis and no established therapy. Recently, encouraging responses to immune checkpoint inhibitors have been reported. METHODS: We conducted an investigator-initiated, multicenter, single-group, phase 2 study of the anti-programmed death ligand 1 (PD-L1) agent atezolizumab in adult and pediatric patients with advanced ASPS. Atezolizumab was administered intravenously at a dose of 1200 mg (in patients &gt;/=18 years of age) or 15 mg per kilogram of body weight with a 1200-mg cap (in patients &lt;18 years of age) once every 21 days. Study end points included objective response, duration of response, and progression-free survival according to Response Evaluation Criteria in Solid Tumors (RECIST), version 1.1, as well as pharmacodynamic biomarkers of multistep drug action. RESULTS: A total of 52 patients were evaluated. An objective response was observed in 19 of 52 patients (37%), with 1 complete response and 18 partial responses. The median time to response was 3.6 months (range, 2.1 to 19.1), the median duration of response was 24.7 months (range, 4.1 to 55.8), and the median progression-free survival was 20.8 months. Seven patients took a treatment break after 2 years of treatment, and their responses were maintained through the data-cutoff date. No treatment-related grade 4 or 5 adverse events were recorded. Responses were noted despite variable baseline expression of programmed death 1 and PD-L1. CONCLUSIONS: Atezolizumab was effective at inducing sustained responses in approximately one third of patients with advanced ASPS. (Funded by the National Cancer Institute and others; ClinicalTrials.gov number, NCT03141684.).</t>
   </si>
   <si>
@@ -1459,6 +1522,9 @@
     <t>BACKGROUND: Patients with chronic lymphocytic leukemia (CLL) or small lymphocytic lymphoma (SLL) have poor outcomes after the failure of covalent Bruton's tyrosine kinase (BTK) inhibitor treatment, and new therapeutic options are needed. Pirtobrutinib, a highly selective, noncovalent (reversible) BTK inhibitor, was designed to reestablish BTK inhibition. METHODS: We conducted a phase 1-2 trial in which patients with relapsed or refractory B-cell cancers received pirtobrutinib. Here, we report efficacy results among patients with CLL or SLL who had previously received a BTK inhibitor as well as safety results among all the patients with CLL or SLL. The primary end point was an overall response (partial response or better) as assessed by independent review. Secondary end points included progression-free survival and safety. RESULTS: A total of 317 patients with CLL or SLL received pirtobrutinib, including 247 who had previously received a BTK inhibitor. Among these 247 patients, the median number of previous lines of therapy was 3 (range, 1 to 11), and 100 patients (40.5%) had also received a B-cell lymphoma 2 (BCL2) inhibitor such as venetoclax. The percentage of patients with an overall response to pirtobrutinib was 73.3% (95% confidence interval [CI], 67.3 to 78.7), and the percentage was 82.2% (95% CI, 76.8 to 86.7) when partial response with lymphocytosis was included. The median progression-free survival was 19.6 months (95% CI, 16.9 to 22.1). Among all 317 patients with CLL or SLL who received pirtobrutinib, the most common adverse events were infections (in 71.0%), bleeding (in 42.6%), and neutropenia (in 32.5%). At a median duration of treatment of 16.5 months (range, 0.2 to 39.9), some adverse events that are typically associated with BTK inhibitors occurred relatively infrequently, including hypertension (in 14.2% of patients), atrial fibrillation or flutter (in 3.8%), and major hemorrhage (in 2.2%). Only 9 of 317 patients (2.8%) discontinued pirtobrutinib owing to a treatment-related adverse event. CONCLUSIONS: In this trial, pirtobrutinib showed efficacy in patients with heavily pretreated CLL or SLL who had received a covalent BTK inhibitor. The most common adverse events were infections, bleeding, and neutropenia. (Funded by Loxo Oncology; BRUIN ClinicalTrials.gov number, NCT03740529.).</t>
   </si>
   <si>
+    <t>BACKGROUND: Craniopharyngiomas, primary brain tumors of the pituitary-hypothalamic axis, can cause clinically significant sequelae. Treatment with the use of surgery, radiation, or both is often associated with substantial morbidity related to vision loss, neuroendocrine dysfunction, and memory loss. Genotyping has shown that more than 90% of papillary craniopharyngiomas carry BRAF V600E mutations, but data are lacking with regard to the safety and efficacy of BRAF-MEK inhibition in patients with papillary craniopharyngiomas who have not undergone previous radiation therapy. METHODS: Eligible patients who had papillary craniopharyngiomas that tested positive for BRAF mutations, had not undergone radiation therapy previously, and had measurable disease received the BRAF-MEK inhibitor combination vemurafenib-cobimetinib in 28-day cycles. The primary end point of this single-group, phase 2 study was objective response at 4 months as determined with the use of centrally determined volumetric data. RESULTS: Of the 16 patients in the study, 15 (94%; 95% confidence interval [CI], 70 to 100) had a durable objective partial response or better to therapy. The median reduction in the volume of the tumor was 91% (range, 68 to 99). The median follow-up was 22 months (95% CI, 19 to 30) and the median number of treatment cycles was 8. Progression-free survival was 87% (95% CI, 57 to 98) at 12 months and 58% (95% CI, 10 to 89) at 24 months. Three patients had disease progression during follow-up after therapy had been discontinued; none have died. The sole patient who did not have a response stopped treatment after 8 days owing to toxic effects. Grade 3 adverse events that were at least possibly related to treatment occurred in 12 patients, including rash in 6 patients. In 2 patients, grade 4 adverse events (hyperglycemia in 1 patient and increased creatine kinase levels in 1 patient) were reported; 3 patients discontinued treatment owing to adverse events. CONCLUSIONS: In this small, single-group study involving patients with papillary craniopharyngiomas, 15 of 16 patients had a partial response or better to the BRAF-MEK inhibitor combination vemurafenib-cobimetinib. (Funded by the National Cancer Institute and others; ClinicalTrials.gov number, NCT03224767.).</t>
+  </si>
+  <si>
     <t>BACKGROUND: Adagrasib, an oral small-molecule inhibitor of mutant KRAS G12C protein, has shown clinical activity in pretreated patients with several tumor types, including colorectal cancer. Preclinical studies suggest that combining a KRAS G12C inhibitor with an epidermal growth factor receptor antibody could be an effective clinical strategy. METHODS: In this phase 1-2, open-label, nonrandomized clinical trial, we assigned heavily pretreated patients with metastatic colorectal cancer with mutant KRAS G12C to receive adagrasib monotherapy (600 mg orally twice daily) or adagrasib (at the same dose) in combination with intravenous cetuximab once a week (with an initial loading dose of 400 mg per square meter of body-surface area, followed by a dose of 250 mg per square meter) or every 2 weeks (with a dose of 500 mg per square meter). The primary end points were objective response (complete or partial response) and safety. RESULTS: As of June 16, 2022, a total of 44 patients had received adagrasib, and 32 had received combination therapy with adagrasib and cetuximab, with a median follow-up of 20.1 months and 17.5 months, respectively. In the monotherapy group (43 evaluable patients), a response was reported in 19% of the patients (95% confidence interval [CI], 8 to 33). The median response duration was 4.3 months (95% CI, 2.3 to 8.3), and the median progression-free survival was 5.6 months (95% CI, 4.1 to 8.3). In the combination-therapy group (28 evaluable patients), the response was 46% (95% CI, 28 to 66). The median response duration was 7.6 months (95% CI, 5.7 to not estimable), and the median progression-free survival was 6.9 months (95% CI, 5.4 to 8.1). The percentage of grade 3 or 4 treatment-related adverse events was 34% in the monotherapy group and 16% in the combination-therapy group. No grade 5 adverse events were observed. CONCLUSIONS: Adagrasib had antitumor activity in heavily pretreated patients with metastatic colorectal cancer with mutant KRAS G12C, both as oral monotherapy and in combination with cetuximab. The median response duration was more than 6 months in the combination-therapy group. Reversible adverse events were common in the two groups. (Funded by Mirati Therapeutics; KRYSTAL-1 ClinicalTrials.gov number, NCT03785249.).</t>
   </si>
   <si>
@@ -1546,6 +1612,9 @@
     <t>BACKGROUND: Anti-CD19 chimeric antigen receptor (CAR) T-cell therapy has shown remarkable clinical efficacy in B-cell cancers. However, CAR T cells can induce substantial toxic effects, and the manufacture of the cells is complex. Natural killer (NK) cells that have been modified to express an anti-CD19 CAR have the potential to overcome these limitations. METHODS: In this phase 1 and 2 trial, we administered HLA-mismatched anti-CD19 CAR-NK cells derived from cord blood to 11 patients with relapsed or refractory CD19-positive cancers (non-Hodgkin's lymphoma or chronic lymphocytic leukemia [CLL]). NK cells were transduced with a retroviral vector expressing genes that encode anti-CD19 CAR, interleukin-15, and inducible caspase 9 as a safety switch. The cells were expanded ex vivo and administered in a single infusion at one of three doses (1x10(5), 1x10(6), or 1x10(7) CAR-NK cells per kilogram of body weight) after lymphodepleting chemotherapy. RESULTS: The administration of CAR-NK cells was not associated with the development of cytokine release syndrome, neurotoxicity, or graft-versus-host disease, and there was no increase in the levels of inflammatory cytokines, including interleukin-6, over baseline. The maximum tolerated dose was not reached. Of the 11 patients who were treated, 8 (73%) had a response; of these patients, 7 (4 with lymphoma and 3 with CLL) had a complete remission, and 1 had remission of the Richter's transformation component but had persistent CLL. Responses were rapid and seen within 30 days after infusion at all dose levels. The infused CAR-NK cells expanded and persisted at low levels for at least 12 months. CONCLUSIONS: Among 11 patients with relapsed or refractory CD19-positive cancers, a majority had a response to treatment with CAR-NK cells without the development of major toxic effects. (Funded by the M.D. Anderson Cancer Center CLL and Lymphoma Moonshot and the National Institutes of Health; ClinicalTrials.gov number, NCT03056339.).</t>
   </si>
   <si>
+    <t>BACKGROUND: Relationships between microbiota composition and clinical outcomes after allogeneic hematopoietic-cell transplantation have been described in single-center studies. Geographic variations in the composition of human microbial communities and differences in clinical practices across institutions raise the question of whether these associations are generalizable. METHODS: The microbiota composition of fecal samples obtained from patients who were undergoing allogeneic hematopoietic-cell transplantation at four centers was profiled by means of 16S ribosomal RNA gene sequencing. In an observational study, we examined associations between microbiota diversity and mortality using Cox proportional-hazards analysis. For stratification of the cohorts into higher- and lower-diversity groups, the median diversity value that was observed at the study center in New York was used. In the analysis of independent cohorts, the New York center was cohort 1, and three centers in Germany, Japan, and North Carolina composed cohort 2. Cohort 1 and subgroups within it were analyzed for additional outcomes, including transplantation-related death. RESULTS: We profiled 8767 fecal samples obtained from 1362 patients undergoing allogeneic hematopoietic-cell transplantation at the four centers. We observed patterns of microbiota disruption characterized by loss of diversity and domination by single taxa. Higher diversity of intestinal microbiota was associated with a lower risk of death in independent cohorts (cohort 1: 104 deaths among 354 patients in the higher-diversity group vs. 136 deaths among 350 patients in the lower-diversity group; adjusted hazard ratio, 0.71; 95% confidence interval [CI], 0.55 to 0.92; cohort 2: 18 deaths among 87 patients in the higher-diversity group vs. 35 deaths among 92 patients in the lower-diversity group; adjusted hazard ratio, 0.49; 95% CI, 0.27 to 0.90). Subgroup analyses identified an association between lower intestinal diversity and higher risks of transplantation-related death and death attributable to graft-versus-host disease. Baseline samples obtained before transplantation already showed evidence of microbiome disruption, and lower diversity before transplantation was associated with poor survival. CONCLUSIONS: Patterns of microbiota disruption during allogeneic hematopoietic-cell transplantation were similar across transplantation centers and geographic locations; patterns were characterized by loss of diversity and domination by single taxa. Higher diversity of intestinal microbiota at the time of neutrophil engraftment was associated with lower mortality. (Funded by the National Cancer Institute and others.).</t>
+  </si>
+  <si>
     <t>BACKGROUND: RET mutations occur in 70% of medullary thyroid cancers, and RET fusions occur rarely in other thyroid cancers. In patients with RET-altered thyroid cancers, the efficacy and safety of selective RET inhibition are unknown. METHODS: We enrolled patients with RET-mutant medullary thyroid cancer with or without previous vandetanib or cabozantinib treatment, as well as those with previously treated RET fusion-positive thyroid cancer, in a phase 1-2 trial of selpercatinib. The primary end point was an objective response (a complete or partial response), as determined by an independent review committee. Secondary end points included the duration of response, progression-free survival, and safety. RESULTS: In the first 55 consecutively enrolled patients with RET-mutant medullary thyroid cancer who had previously received vandetanib, cabozantinib, or both, the percentage who had a response was 69% (95% confidence interval [CI], 55 to 81), and 1-year progression-free survival was 82% (95% CI, 69 to 90). In 88 patients with RET-mutant medullary thyroid cancer who had not previously received vandetanib or cabozantinib, the percentage who had a response was 73% (95% CI, 62 to 82), and 1-year progression-free survival was 92% (95% CI, 82 to 97). In 19 patients with previously treated RET fusion-positive thyroid cancer, the percentage who had a response was 79% (95% CI, 54 to 94), and 1-year progression-free survival was 64% (95% CI, 37 to 82). The most common adverse events of grade 3 or higher were hypertension (in 21% of the patients), increased alanine aminotransferase level (in 11%), increased aspartate aminotransferase level (in 9%), hyponatremia (in 8%), and diarrhea (in 6%). Of all 531 patients treated, 12 (2%) discontinued selpercatinib owing to drug-related adverse events. CONCLUSIONS: In this phase 1-2 trial, selpercatinib showed durable efficacy with mainly low-grade toxic effects in patients with medullary thyroid cancer with and without previous vandetanib or cabozantinib treatment. (Funded by Loxo Oncology and others; LIBRETTO-001 ClinicalTrials.gov number, NCT03157128.).</t>
   </si>
   <si>
@@ -1567,6 +1636,9 @@
     <t>英国1993-2015年队列研究显示，早期浸润性乳腺癌患者5年死亡率从14.4%降至4.9%，预后显著改善。</t>
   </si>
   <si>
+    <t>真实世界观察性研究显示，HPV初筛阴性后宫颈癌风险显著降低，支持将筛查间隔延长至5年及以上。</t>
+  </si>
+  <si>
     <t>回顾性研究显示，FDA加速批准的癌症药物在验证性试验失败后，多数仍保留在标签和指南中，提示临床指南需与验证性试验结果更好对齐。</t>
   </si>
   <si>
@@ -1726,6 +1798,9 @@
     <t>社区癌症路演项目评估显示，该干预能有效提升公众对癌症症状、风险因素的认知及就医意愿，具有推广可行性。</t>
   </si>
   <si>
+    <t>回顾性研究显示，威尔士肠癌筛查项目暂停后恢复期间，总体参与率仍超标准，但部分群体参与率持续偏低，需针对性干预。</t>
+  </si>
+  <si>
     <t>基于美国SEER和NCDB数据库的队列分析发现，黑人原发性脑肿瘤患者被建议不进行手术切除的几率显著高于白人患者，提示存在种族差异。</t>
   </si>
   <si>
@@ -1759,6 +1834,9 @@
     <t>英国HPV疫苗接种观察性研究显示，该计划显著降低了年轻女性宫颈癌及CIN3发病率，尤其在12-13岁接种人群中效果最显著。</t>
   </si>
   <si>
+    <t>ZUMA-3 II期研究显示，KTE-X19 CAR-T疗法在复发/难治性成人B细胞前体急性淋巴细胞白血病患者中诱导了高缓解率，且安全性可控，具有长期临床获益潜力。</t>
+  </si>
+  <si>
     <t>多中心I/II期研究显示，liso-cel治疗复发/难治性大B细胞淋巴瘤客观缓解率达73%，且3级以上细胞因子释放综合征发生率低。</t>
   </si>
   <si>
@@ -1825,6 +1903,9 @@
     <t>前瞻性队列研究发现，48.6%产前cfDNA筛查结果异常孕妇存在隐匿性癌症，全身体部MRI检测灵敏度达98.0%。</t>
   </si>
   <si>
+    <t>研究探索序贯CD7 CAR-T与单倍体相合HSCT免GVHD预防方案，在10例患者中显示68%一年总生存率，为CD7阳性肿瘤提供新治疗选择。</t>
+  </si>
+  <si>
     <t>一项多中心II期研究显示，阿特珠单抗治疗晚期肺泡软组织肉瘤的客观缓解率达37%，中位无进展生存期20.8个月，为罕见肉瘤提供了新治疗选择。</t>
   </si>
   <si>
@@ -1843,6 +1924,9 @@
     <t>I-II期试验显示，非共价BTK抑制剂Pirtobrutinib对既往接受过共价BTK抑制剂治疗的CLL/SLL患者有效，总体缓解率达73.3%，中位无进展生存期19.6个月。</t>
   </si>
   <si>
+    <t>一项II期单臂研究显示，BRAF-MEK抑制剂联合治疗在未放疗的乳头状颅咽管瘤患者中客观缓解率达94%，肿瘤体积中位减少91%。</t>
+  </si>
+  <si>
     <t>一项I-II期非随机试验显示，Adagrasib联合西妥昔单抗治疗KRAS G12C突变转移性结直肠癌的客观缓解率达46%，优于单药治疗。</t>
   </si>
   <si>
@@ -1930,6 +2014,9 @@
     <t>I/II期试验显示，CAR-NK细胞治疗复发/难治性CD19阳性淋巴瘤和CLL患者有效且安全性良好，无严重毒性反应。</t>
   </si>
   <si>
+    <t>多中心观察性研究证实，异基因造血干细胞移植患者肠道菌群多样性越高，其总死亡及移植相关死亡风险越低。</t>
+  </si>
+  <si>
     <t>I-II期试验显示，Selpercatinib在RET突变甲状腺髓样癌和RET融合阳性甲状腺癌患者中均表现出持久疗效和可控毒性。</t>
   </si>
   <si>
@@ -2059,6 +2146,9 @@
     <t>乳腺癌；结直肠癌；胃癌</t>
   </si>
   <si>
+    <t>B细胞前体急性淋巴细胞白血病</t>
+  </si>
+  <si>
     <t>多种癌症（包括乳腺癌、前列腺癌等）</t>
   </si>
   <si>
@@ -2083,6 +2173,9 @@
     <t>弥漫性大B细胞淋巴瘤</t>
   </si>
   <si>
+    <t>CD7阳性白血病或淋巴瘤</t>
+  </si>
+  <si>
     <t>肺泡软组织肉瘤</t>
   </si>
   <si>
@@ -2098,6 +2191,9 @@
     <t>慢性淋巴细胞白血病/小淋巴细胞淋巴瘤</t>
   </si>
   <si>
+    <t>乳头状颅咽管瘤</t>
+  </si>
+  <si>
     <t>胰腺癌</t>
   </si>
   <si>
@@ -2149,6 +2245,9 @@
     <t>非霍奇金淋巴瘤；慢性淋巴细胞白血病</t>
   </si>
   <si>
+    <t>血液系统恶性肿瘤（接受异基因造血干细胞移植）</t>
+  </si>
+  <si>
     <t>甲状腺髓样癌</t>
   </si>
   <si>
@@ -2248,6 +2347,9 @@
     <t>社区干预项目评估</t>
   </si>
   <si>
+    <t>回顾性登记研究</t>
+  </si>
+  <si>
     <t>基于注册登记的队列分析</t>
   </si>
   <si>
@@ -2266,6 +2368,9 @@
     <t>多中心国际前瞻性队列研究</t>
   </si>
   <si>
+    <t>单臂、开放标签、多中心研究</t>
+  </si>
+  <si>
     <t>多中心无缝设计研究</t>
   </si>
   <si>
@@ -2305,6 +2410,9 @@
     <t>注册性I-II期临床试验</t>
   </si>
   <si>
+    <t>单臂前瞻性研究</t>
+  </si>
+  <si>
     <t>多中心单臂II期研究</t>
   </si>
   <si>
@@ -2317,15 +2425,15 @@
     <t>干预性临床试验</t>
   </si>
   <si>
+    <t>单臂研究</t>
+  </si>
+  <si>
     <t>非随机对照试验</t>
   </si>
   <si>
     <t>单臂试验</t>
   </si>
   <si>
-    <t>单臂、开放标签、多中心研究</t>
-  </si>
-  <si>
     <t>回顾性病例对照研究及前瞻性队列研究</t>
   </si>
   <si>
@@ -2377,6 +2485,9 @@
     <t>前瞻性诊断准确性研究</t>
   </si>
   <si>
+    <t>多中心观察性队列研究</t>
+  </si>
+  <si>
     <t>I-II期临床试验</t>
   </si>
   <si>
@@ -2389,12 +2500,12 @@
     <t>Ib/II期</t>
   </si>
   <si>
+    <t>II期</t>
+  </si>
+  <si>
     <t>I-II期</t>
   </si>
   <si>
-    <t>II期</t>
-  </si>
-  <si>
     <t>Ib-II期</t>
   </si>
   <si>
@@ -2416,6 +2527,9 @@
     <t>乳腺癌死亡率随时间推移显著下降；雌激素受体阳性疾病死亡率降幅更大；不同特征患者预后差异显著</t>
   </si>
   <si>
+    <t>HPV初筛阴性后CIN3+及宫颈癌风险显著低于细胞学筛查；50岁以上女性风险更低，支持更长筛查间隔；不同HPV检测方法（APTIMA mRNA与cobas/RealTime DNA）效果相似。</t>
+  </si>
+  <si>
     <t>61%的加速批准药物在验证性试验失败后被自愿撤回；33%的适应症在验证性试验失败后仍保留在标签中；临床指南对验证性试验失败的药物仍提供高级别推荐</t>
   </si>
   <si>
@@ -2575,6 +2689,9 @@
     <t>社区路演显著提升癌症症状认知（62%→82%）和风险因素意识（49%→61%）；73%参与者表示可能改变生活方式以降低癌症风险；年轻人群（≤40岁）更倾向于在出现症状时咨询医疗专业人员或联系癌症协会。</t>
   </si>
   <si>
+    <t>项目暂停后恢复期间总体参与率仍高于威尔士60%标准；暂停未加剧参与率不平等现象；男性、年轻者、贫困地区居民及少数族裔参与率持续低于标准</t>
+  </si>
+  <si>
     <t>发现黑人患者在多种原发性脑肿瘤（如脑膜瘤、胶质母细胞瘤等）中被建议不手术的几率显著高于白人；研究控制了临床、人口统计学及社会经济等混杂因素；使用两个独立数据库（SEER和NCDB）进行验证，结果一致。</t>
   </si>
   <si>
@@ -2608,6 +2725,9 @@
     <t>HPV疫苗接种使12-13岁接种人群宫颈癌风险降低87%；疫苗接种计划成功几乎消除了1995年9月后出生女性的宫颈癌；研究估计至2019年6月，接种队列中宫颈癌病例减少448例，CIN3病例减少17235例。</t>
   </si>
   <si>
+    <t>71%的患者达到完全缓解或伴不完全血液学恢复的完全缓解；缓解患者中97%达到微小残留病灶阴性；中位总生存期在缓解患者中尚未达到</t>
+  </si>
+  <si>
     <t>客观缓解率达73%，完全缓解率达53%；3级以上细胞因子释放综合征发生率仅2%；推荐目标剂量为100×10⁶ CAR⁺ T细胞。</t>
   </si>
   <si>
@@ -2674,6 +2794,9 @@
     <t>发现48.6%产前cfDNA筛查结果异常孕妇存在隐匿性癌症；全身体部MRI检测隐匿性癌症灵敏度达98.0%；多染色体拷贝数异常组合模式预测癌症准确率达95.9%</t>
   </si>
   <si>
+    <t>创新性免GVHD预防的序贯CAR-T与HSCT联合方案；实现68%一年总生存率且安全性可控；为不适合常规移植的CD7阳性患者提供可行治疗路径</t>
+  </si>
+  <si>
     <t>阿特珠单抗在晚期肺泡软组织肉瘤中客观缓解率达37%；中位无进展生存期达20.8个月，疗效持久；安全性良好，无4-5级治疗相关不良事件</t>
   </si>
   <si>
@@ -2692,6 +2815,9 @@
     <t>非共价BTK抑制剂Pirtobrutinib在既往共价BTK抑制剂治疗失败的CLL/SLL患者中显示出疗效；总体缓解率（ORR）达73.3%，中位无进展生存期（PFS）为19.6个月；安全性方面，典型BTK抑制剂相关不良事件（如高血压、房颤）发生率较低。</t>
   </si>
   <si>
+    <t>首次在未放疗的乳头状颅咽管瘤患者中评估BRAF-MEK抑制剂疗效；客观缓解率高达94%，肿瘤体积中位减少91%；12个月无进展生存率为87%，24个月为58%</t>
+  </si>
+  <si>
     <t>联合治疗客观缓解率显著高于单药治疗（46% vs 19%）；联合治疗中位缓解持续时间超过6个月；联合治疗组3-4级不良事件发生率低于单药组（16% vs 34%）</t>
   </si>
   <si>
@@ -2779,6 +2905,9 @@
     <t>CAR-NK细胞治疗未引发细胞因子释放综合征、神经毒性或移植物抗宿主病；73%患者（8/11）获得缓解，其中7例完全缓解；CAR-NK细胞在体内低水平持续存在至少12个月</t>
   </si>
   <si>
+    <t>首次在多中心、跨地域队列中验证肠道菌群多样性是异基因造血干细胞移植患者死亡风险的独立预测因子；发现移植前菌群多样性已与生存结局相关；明确了菌群紊乱（多样性丧失和单一菌群优势）是跨中心的共同特征。</t>
+  </si>
+  <si>
     <t>在既往接受过vandetanib/cabozantinib治疗的RET突变甲状腺髓样癌患者中，客观缓解率达69%；在未接受过上述治疗的RET突变甲状腺髓样癌患者中，客观缓解率达73%；在既往治疗过的RET融合阳性甲状腺癌患者中，客观缓解率达79%</t>
   </si>
   <si>
@@ -2915,6 +3044,9 @@
   </si>
   <si>
     <t>研究肝癌发病率和死亡率</t>
+  </si>
+  <si>
+    <t>研究针对癌症移植患者</t>
   </si>
   <si>
     <t>肺癌死亡率与治疗研究</t>
@@ -3275,7 +3407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3336,34 +3468,34 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="G2">
         <v>38749552</v>
       </c>
       <c r="H2" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="I2" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="J2" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="K2" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
       <c r="M2" t="s">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="N2" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O2" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3374,34 +3506,34 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="G3">
         <v>38267073</v>
       </c>
       <c r="H3" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="I3" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="J3" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="K3" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="M3" t="s">
-        <v>797</v>
+        <v>834</v>
       </c>
       <c r="N3" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O3" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3412,31 +3544,31 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G4">
         <v>38418086</v>
       </c>
       <c r="H4" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="I4" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="K4" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="M4" t="s">
-        <v>798</v>
+        <v>835</v>
       </c>
       <c r="N4" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O4" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3447,34 +3579,34 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G5">
         <v>37311588</v>
       </c>
       <c r="H5" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="I5" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="J5" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="K5" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
       <c r="M5" t="s">
-        <v>799</v>
+        <v>836</v>
       </c>
       <c r="N5" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O5" t="s">
-        <v>926</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3485,72 +3617,72 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G6">
-        <v>34497044</v>
+        <v>35640960</v>
       </c>
       <c r="H6" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="I6" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="J6" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="K6" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="M6" t="s">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="N6" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O6" t="s">
-        <v>927</v>
+        <v>968</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="G7">
-        <v>40455622</v>
+        <v>34497044</v>
       </c>
       <c r="H7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="I7" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="J7" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="K7" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="M7" t="s">
-        <v>801</v>
+        <v>838</v>
       </c>
       <c r="N7" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O7" t="s">
-        <v>925</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -3561,34 +3693,34 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="G8">
-        <v>39680377</v>
+        <v>40455622</v>
       </c>
       <c r="H8" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="I8" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="J8" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="K8" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
       <c r="M8" t="s">
-        <v>802</v>
+        <v>839</v>
       </c>
       <c r="N8" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O8" t="s">
-        <v>928</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3599,34 +3731,34 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G9">
-        <v>41468027</v>
+        <v>39680377</v>
       </c>
       <c r="H9" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="I9" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="J9" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="K9" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="M9" t="s">
-        <v>803</v>
+        <v>840</v>
       </c>
       <c r="N9" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O9" t="s">
-        <v>929</v>
+        <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3637,34 +3769,34 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="G10">
-        <v>41385349</v>
+        <v>41468027</v>
       </c>
       <c r="H10" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="I10" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="J10" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="K10" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="M10" t="s">
-        <v>804</v>
+        <v>841</v>
       </c>
       <c r="N10" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O10" t="s">
-        <v>925</v>
+        <v>972</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -3675,34 +3807,34 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G11">
-        <v>38873722</v>
+        <v>41385349</v>
       </c>
       <c r="H11" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="I11" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="J11" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="K11" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="M11" t="s">
-        <v>805</v>
+        <v>842</v>
       </c>
       <c r="N11" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O11" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3713,34 +3845,34 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="G12">
-        <v>39259563</v>
+        <v>38873722</v>
       </c>
       <c r="H12" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="I12" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="J12" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="K12" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="M12" t="s">
-        <v>806</v>
+        <v>843</v>
       </c>
       <c r="N12" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O12" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -3751,34 +3883,34 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G13">
-        <v>38583175</v>
+        <v>39259563</v>
       </c>
       <c r="H13" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="I13" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="J13" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="K13" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="M13" t="s">
-        <v>807</v>
+        <v>844</v>
       </c>
       <c r="N13" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O13" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -3789,34 +3921,34 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G14">
-        <v>38814624</v>
+        <v>38583175</v>
       </c>
       <c r="H14" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="I14" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="J14" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="K14" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="M14" t="s">
-        <v>808</v>
+        <v>845</v>
       </c>
       <c r="N14" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O14" t="s">
-        <v>930</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -3827,34 +3959,34 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="G15">
-        <v>38687505</v>
+        <v>38814624</v>
       </c>
       <c r="H15" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="I15" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="J15" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="K15" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="M15" t="s">
-        <v>809</v>
+        <v>846</v>
       </c>
       <c r="N15" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O15" t="s">
-        <v>925</v>
+        <v>973</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3865,34 +3997,34 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G16">
-        <v>38583868</v>
+        <v>38687505</v>
       </c>
       <c r="H16" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="I16" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="J16" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="K16" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="M16" t="s">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="N16" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O16" t="s">
-        <v>931</v>
+        <v>968</v>
       </c>
     </row>
     <row r="17" spans="3:15">
@@ -3903,34 +4035,34 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G17">
-        <v>38261044</v>
+        <v>38583868</v>
       </c>
       <c r="H17" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="I17" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="J17" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="K17" t="s">
-        <v>721</v>
+        <v>756</v>
       </c>
       <c r="M17" t="s">
-        <v>811</v>
+        <v>848</v>
       </c>
       <c r="N17" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O17" t="s">
-        <v>925</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="3:15">
@@ -3941,34 +4073,34 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="G18">
-        <v>38261043</v>
+        <v>38261044</v>
       </c>
       <c r="H18" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="I18" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="J18" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="K18" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="M18" t="s">
-        <v>812</v>
+        <v>849</v>
       </c>
       <c r="N18" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O18" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="19" spans="3:15">
@@ -3979,34 +4111,34 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G19">
-        <v>38059899</v>
+        <v>38261043</v>
       </c>
       <c r="H19" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="I19" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="J19" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="K19" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="M19" t="s">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="N19" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O19" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="20" spans="3:15">
@@ -4017,34 +4149,34 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="G20">
-        <v>38227031</v>
+        <v>38059899</v>
       </c>
       <c r="H20" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="I20" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="J20" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="K20" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="M20" t="s">
-        <v>814</v>
+        <v>851</v>
       </c>
       <c r="N20" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O20" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="3:15">
@@ -4055,34 +4187,34 @@
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G21">
-        <v>39018030</v>
+        <v>38227031</v>
       </c>
       <c r="H21" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="I21" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="J21" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="K21" t="s">
-        <v>713</v>
+        <v>758</v>
       </c>
       <c r="M21" t="s">
-        <v>815</v>
+        <v>852</v>
       </c>
       <c r="N21" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O21" t="s">
-        <v>925</v>
+        <v>969</v>
       </c>
     </row>
     <row r="22" spans="3:15">
@@ -4093,34 +4225,34 @@
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G22">
-        <v>38563834</v>
+        <v>39018030</v>
       </c>
       <c r="H22" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="I22" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="J22" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="K22" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="M22" t="s">
-        <v>816</v>
+        <v>853</v>
       </c>
       <c r="N22" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O22" t="s">
-        <v>932</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="3:15">
@@ -4131,34 +4263,34 @@
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="G23">
-        <v>37276540</v>
+        <v>38563834</v>
       </c>
       <c r="H23" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="I23" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="J23" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="K23" t="s">
-        <v>712</v>
+        <v>759</v>
       </c>
       <c r="M23" t="s">
-        <v>817</v>
+        <v>854</v>
       </c>
       <c r="N23" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O23" t="s">
-        <v>925</v>
+        <v>975</v>
       </c>
     </row>
     <row r="24" spans="3:15">
@@ -4169,34 +4301,34 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G24">
-        <v>37552302</v>
+        <v>37276540</v>
       </c>
       <c r="H24" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="I24" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="J24" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="K24" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="M24" t="s">
-        <v>818</v>
+        <v>855</v>
       </c>
       <c r="N24" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O24" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="3:15">
@@ -4207,34 +4339,34 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G25">
-        <v>35670788</v>
+        <v>37552302</v>
       </c>
       <c r="H25" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="I25" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="J25" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
       <c r="K25" t="s">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="M25" t="s">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="N25" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O25" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="26" spans="3:15">
@@ -4245,34 +4377,34 @@
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G26">
-        <v>35657620</v>
+        <v>35670788</v>
       </c>
       <c r="H26" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="I26" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="J26" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="K26" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="M26" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="N26" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O26" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="27" spans="3:15">
@@ -4283,34 +4415,34 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G27">
-        <v>35699706</v>
+        <v>35657620</v>
       </c>
       <c r="H27" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="I27" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="J27" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="K27" t="s">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="M27" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="N27" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O27" t="s">
-        <v>933</v>
+        <v>968</v>
       </c>
     </row>
     <row r="28" spans="3:15">
@@ -4321,34 +4453,34 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G28">
-        <v>34982120</v>
+        <v>35699706</v>
       </c>
       <c r="H28" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="I28" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="J28" t="s">
-        <v>659</v>
+        <v>676</v>
       </c>
       <c r="K28" t="s">
-        <v>728</v>
+        <v>753</v>
       </c>
       <c r="M28" t="s">
-        <v>822</v>
+        <v>859</v>
       </c>
       <c r="N28" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O28" t="s">
-        <v>934</v>
+        <v>976</v>
       </c>
     </row>
     <row r="29" spans="3:15">
@@ -4359,34 +4491,34 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F29" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="G29">
-        <v>34751709</v>
+        <v>34982120</v>
       </c>
       <c r="H29" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="I29" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="J29" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="K29" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="M29" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="N29" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O29" t="s">
-        <v>935</v>
+        <v>977</v>
       </c>
     </row>
     <row r="30" spans="3:15">
@@ -4397,34 +4529,34 @@
         <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F30" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G30">
-        <v>34003219</v>
+        <v>34751709</v>
       </c>
       <c r="H30" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="I30" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="J30" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="K30" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="M30" t="s">
-        <v>824</v>
+        <v>861</v>
       </c>
       <c r="N30" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O30" t="s">
-        <v>925</v>
+        <v>978</v>
       </c>
     </row>
     <row r="31" spans="3:15">
@@ -4435,34 +4567,34 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G31">
-        <v>33687469</v>
+        <v>34003219</v>
       </c>
       <c r="H31" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="I31" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="J31" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="K31" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="M31" t="s">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="N31" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O31" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="32" spans="3:15">
@@ -4473,34 +4605,34 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G32">
-        <v>33079153</v>
+        <v>33687469</v>
       </c>
       <c r="H32" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="I32" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="J32" t="s">
-        <v>641</v>
+        <v>689</v>
       </c>
       <c r="K32" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="M32" t="s">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="N32" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O32" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="33" spans="3:15">
@@ -4511,34 +4643,34 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G33">
-        <v>33141207</v>
+        <v>33079153</v>
       </c>
       <c r="H33" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="I33" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="J33" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="K33" t="s">
-        <v>714</v>
+        <v>765</v>
       </c>
       <c r="M33" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
       <c r="N33" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O33" t="s">
-        <v>936</v>
+        <v>968</v>
       </c>
     </row>
     <row r="34" spans="3:15">
@@ -4549,34 +4681,34 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G34">
-        <v>33231665</v>
+        <v>33141207</v>
       </c>
       <c r="H34" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="I34" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="J34" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="K34" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
       <c r="M34" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="N34" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O34" t="s">
-        <v>925</v>
+        <v>979</v>
       </c>
     </row>
     <row r="35" spans="3:15">
@@ -4587,34 +4719,34 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="G35">
-        <v>33201204</v>
+        <v>33231665</v>
       </c>
       <c r="H35" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="I35" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="J35" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="K35" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="M35" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="N35" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O35" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="36" spans="3:15">
@@ -4625,34 +4757,34 @@
         <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="G36">
-        <v>31910280</v>
+        <v>33201204</v>
       </c>
       <c r="H36" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="I36" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="J36" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="K36" t="s">
-        <v>721</v>
+        <v>765</v>
       </c>
       <c r="M36" t="s">
-        <v>830</v>
+        <v>867</v>
       </c>
       <c r="N36" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O36" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="37" spans="3:15">
@@ -4663,34 +4795,34 @@
         <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="G37">
-        <v>31935027</v>
+        <v>31910280</v>
       </c>
       <c r="H37" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="I37" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="J37" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="K37" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
       <c r="M37" t="s">
-        <v>831</v>
+        <v>868</v>
       </c>
       <c r="N37" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O37" t="s">
-        <v>937</v>
+        <v>968</v>
       </c>
     </row>
     <row r="38" spans="3:15">
@@ -4701,69 +4833,72 @@
         <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="G38">
-        <v>33351041</v>
+        <v>31935027</v>
       </c>
       <c r="H38" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="J38" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="K38" t="s">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="M38" t="s">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="N38" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O38" t="s">
-        <v>938</v>
+        <v>980</v>
       </c>
     </row>
     <row r="39" spans="3:15">
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
         <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G39">
-        <v>41015051</v>
+        <v>33351041</v>
       </c>
       <c r="H39" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="I39" t="s">
-        <v>550</v>
+        <v>573</v>
+      </c>
+      <c r="J39" t="s">
+        <v>692</v>
       </c>
       <c r="K39" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="M39" t="s">
-        <v>833</v>
+        <v>870</v>
       </c>
       <c r="N39" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O39" t="s">
-        <v>925</v>
+        <v>981</v>
       </c>
     </row>
     <row r="40" spans="3:15">
@@ -4774,34 +4909,31 @@
         <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="G40">
-        <v>41138738</v>
+        <v>41015051</v>
       </c>
       <c r="H40" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="I40" t="s">
-        <v>551</v>
-      </c>
-      <c r="J40" t="s">
-        <v>664</v>
+        <v>574</v>
       </c>
       <c r="K40" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="M40" t="s">
-        <v>834</v>
+        <v>871</v>
       </c>
       <c r="N40" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O40" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
     </row>
     <row r="41" spans="3:15">
@@ -4812,37 +4944,34 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F41" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G41">
-        <v>39798981</v>
+        <v>41138738</v>
       </c>
       <c r="H41" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="I41" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="J41" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="K41" t="s">
-        <v>735</v>
-      </c>
-      <c r="L41" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="M41" t="s">
-        <v>835</v>
+        <v>872</v>
       </c>
       <c r="N41" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O41" t="s">
-        <v>940</v>
+        <v>982</v>
       </c>
     </row>
     <row r="42" spans="3:15">
@@ -4853,34 +4982,37 @@
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F42" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="G42">
-        <v>40783288</v>
+        <v>39798981</v>
       </c>
       <c r="H42" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="I42" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="J42" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="K42" t="s">
-        <v>718</v>
+        <v>768</v>
+      </c>
+      <c r="L42" t="s">
+        <v>825</v>
       </c>
       <c r="M42" t="s">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="N42" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O42" t="s">
-        <v>925</v>
+        <v>983</v>
       </c>
     </row>
     <row r="43" spans="3:15">
@@ -4891,34 +5023,34 @@
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="G43">
-        <v>39396348</v>
+        <v>40783288</v>
       </c>
       <c r="H43" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="I43" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="J43" t="s">
-        <v>666</v>
+        <v>695</v>
       </c>
       <c r="K43" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="M43" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="N43" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O43" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="44" spans="3:15">
@@ -4929,37 +5061,34 @@
         <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G44">
-        <v>38996463</v>
+        <v>39396348</v>
       </c>
       <c r="H44" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="I44" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="J44" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="K44" t="s">
-        <v>736</v>
-      </c>
-      <c r="L44" t="s">
-        <v>788</v>
+        <v>751</v>
       </c>
       <c r="M44" t="s">
-        <v>838</v>
+        <v>875</v>
       </c>
       <c r="N44" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O44" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="45" spans="3:15">
@@ -4970,34 +5099,37 @@
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="G45">
-        <v>38065194</v>
+        <v>38996463</v>
       </c>
       <c r="H45" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="I45" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="J45" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="K45" t="s">
-        <v>737</v>
+        <v>769</v>
+      </c>
+      <c r="L45" t="s">
+        <v>825</v>
       </c>
       <c r="M45" t="s">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="N45" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O45" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="46" spans="3:15">
@@ -5008,34 +5140,34 @@
         <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="G46">
-        <v>39097395</v>
+        <v>38065194</v>
       </c>
       <c r="H46" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="I46" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="J46" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="K46" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="M46" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
       <c r="N46" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O46" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
     </row>
     <row r="47" spans="3:15">
@@ -5046,34 +5178,34 @@
         <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F47" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G47">
-        <v>37805216</v>
+        <v>39097395</v>
       </c>
       <c r="H47" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="I47" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="J47" t="s">
-        <v>644</v>
+        <v>697</v>
       </c>
       <c r="K47" t="s">
-        <v>721</v>
+        <v>771</v>
       </c>
       <c r="M47" t="s">
-        <v>841</v>
+        <v>878</v>
       </c>
       <c r="N47" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O47" t="s">
-        <v>925</v>
+        <v>984</v>
       </c>
     </row>
     <row r="48" spans="3:15">
@@ -5084,34 +5216,34 @@
         <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G48">
-        <v>37931633</v>
+        <v>37805216</v>
       </c>
       <c r="H48" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="I48" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="J48" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="K48" t="s">
-        <v>718</v>
+        <v>754</v>
       </c>
       <c r="M48" t="s">
-        <v>842</v>
+        <v>879</v>
       </c>
       <c r="N48" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O48" t="s">
-        <v>942</v>
+        <v>968</v>
       </c>
     </row>
     <row r="49" spans="3:15">
@@ -5122,34 +5254,34 @@
         <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G49">
-        <v>37997129</v>
+        <v>37931633</v>
       </c>
       <c r="H49" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="I49" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="J49" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="K49" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="M49" t="s">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="N49" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O49" t="s">
-        <v>925</v>
+        <v>985</v>
       </c>
     </row>
     <row r="50" spans="3:15">
@@ -5160,34 +5292,34 @@
         <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F50" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="G50">
-        <v>37997099</v>
+        <v>37997129</v>
       </c>
       <c r="H50" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="I50" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="J50" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="K50" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="M50" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
       <c r="N50" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O50" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="51" spans="3:15">
@@ -5198,34 +5330,34 @@
         <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="G51">
-        <v>37997098</v>
+        <v>37997099</v>
       </c>
       <c r="H51" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="I51" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="J51" t="s">
-        <v>646</v>
+        <v>699</v>
       </c>
       <c r="K51" t="s">
-        <v>732</v>
+        <v>772</v>
       </c>
       <c r="M51" t="s">
-        <v>845</v>
+        <v>882</v>
       </c>
       <c r="N51" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O51" t="s">
-        <v>943</v>
+        <v>968</v>
       </c>
     </row>
     <row r="52" spans="3:15">
@@ -5236,34 +5368,34 @@
         <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F52" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G52">
-        <v>37997097</v>
+        <v>37997098</v>
       </c>
       <c r="H52" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="I52" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="J52" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="K52" t="s">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="M52" t="s">
-        <v>846</v>
+        <v>883</v>
       </c>
       <c r="N52" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O52" t="s">
-        <v>925</v>
+        <v>986</v>
       </c>
     </row>
     <row r="53" spans="3:15">
@@ -5274,34 +5406,34 @@
         <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G53">
-        <v>37997051</v>
+        <v>37997097</v>
       </c>
       <c r="H53" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="I53" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="J53" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="K53" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
       <c r="M53" t="s">
-        <v>847</v>
+        <v>884</v>
       </c>
       <c r="N53" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O53" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="54" spans="3:15">
@@ -5312,34 +5444,34 @@
         <v>71</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F54" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="G54">
-        <v>37105210</v>
+        <v>37997051</v>
       </c>
       <c r="H54" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="I54" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="J54" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="K54" t="s">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="M54" t="s">
-        <v>848</v>
+        <v>885</v>
       </c>
       <c r="N54" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O54" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
     </row>
     <row r="55" spans="3:15">
@@ -5350,34 +5482,34 @@
         <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="G55">
-        <v>37030315</v>
+        <v>37105210</v>
       </c>
       <c r="H55" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="I55" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="J55" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="K55" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="M55" t="s">
-        <v>849</v>
+        <v>886</v>
       </c>
       <c r="N55" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O55" t="s">
-        <v>925</v>
+        <v>987</v>
       </c>
     </row>
     <row r="56" spans="3:15">
@@ -5388,34 +5520,34 @@
         <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F56" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="G56">
-        <v>37061269</v>
+        <v>37030315</v>
       </c>
       <c r="H56" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="I56" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="J56" t="s">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="K56" t="s">
-        <v>718</v>
+        <v>775</v>
       </c>
       <c r="M56" t="s">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="N56" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O56" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="57" spans="3:15">
@@ -5426,34 +5558,34 @@
         <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="G57">
-        <v>36154677</v>
+        <v>37061269</v>
       </c>
       <c r="H57" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="I57" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="J57" t="s">
-        <v>674</v>
+        <v>695</v>
       </c>
       <c r="K57" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="M57" t="s">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="N57" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O57" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="58" spans="3:15">
@@ -5464,34 +5596,34 @@
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F58" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G58">
-        <v>36930014</v>
+        <v>36154677</v>
       </c>
       <c r="H58" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="I58" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="J58" t="s">
-        <v>646</v>
+        <v>703</v>
       </c>
       <c r="K58" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="M58" t="s">
-        <v>852</v>
+        <v>889</v>
       </c>
       <c r="N58" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O58" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
     </row>
     <row r="59" spans="3:15">
@@ -5502,34 +5634,34 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F59" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G59">
-        <v>36502844</v>
+        <v>36930014</v>
       </c>
       <c r="H59" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="I59" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="J59" t="s">
         <v>675</v>
       </c>
       <c r="K59" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="M59" t="s">
-        <v>853</v>
+        <v>890</v>
       </c>
       <c r="N59" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O59" t="s">
-        <v>946</v>
+        <v>988</v>
       </c>
     </row>
     <row r="60" spans="3:15">
@@ -5540,31 +5672,34 @@
         <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F60" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G60">
-        <v>35988567</v>
+        <v>36929968</v>
       </c>
       <c r="H60" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="I60" t="s">
-        <v>571</v>
+        <v>594</v>
+      </c>
+      <c r="J60" t="s">
+        <v>674</v>
       </c>
       <c r="K60" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="M60" t="s">
-        <v>854</v>
+        <v>891</v>
       </c>
       <c r="N60" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O60" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="61" spans="3:15">
@@ -5575,37 +5710,34 @@
         <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G61">
-        <v>35964611</v>
+        <v>36502844</v>
       </c>
       <c r="H61" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="I61" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="J61" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="K61" t="s">
-        <v>714</v>
-      </c>
-      <c r="L61" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="M61" t="s">
-        <v>855</v>
+        <v>892</v>
       </c>
       <c r="N61" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O61" t="s">
-        <v>925</v>
+        <v>989</v>
       </c>
     </row>
     <row r="62" spans="3:15">
@@ -5616,37 +5748,31 @@
         <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G62">
-        <v>33676628</v>
+        <v>35988567</v>
       </c>
       <c r="H62" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="I62" t="s">
-        <v>573</v>
-      </c>
-      <c r="J62" t="s">
-        <v>677</v>
+        <v>596</v>
       </c>
       <c r="K62" t="s">
-        <v>746</v>
-      </c>
-      <c r="L62" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="M62" t="s">
-        <v>856</v>
+        <v>893</v>
       </c>
       <c r="N62" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O62" t="s">
-        <v>947</v>
+        <v>968</v>
       </c>
     </row>
     <row r="63" spans="3:15">
@@ -5657,37 +5783,37 @@
         <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F63" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="G63">
-        <v>34175021</v>
+        <v>35964611</v>
       </c>
       <c r="H63" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="I63" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="J63" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="K63" t="s">
         <v>747</v>
       </c>
       <c r="L63" t="s">
-        <v>790</v>
+        <v>825</v>
       </c>
       <c r="M63" t="s">
-        <v>857</v>
+        <v>894</v>
       </c>
       <c r="N63" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O63" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
     </row>
     <row r="64" spans="3:15">
@@ -5698,34 +5824,37 @@
         <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F64" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G64">
-        <v>34227971</v>
+        <v>33676628</v>
       </c>
       <c r="H64" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="I64" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="J64" t="s">
-        <v>647</v>
+        <v>706</v>
       </c>
       <c r="K64" t="s">
-        <v>748</v>
+        <v>780</v>
+      </c>
+      <c r="L64" t="s">
+        <v>826</v>
       </c>
       <c r="M64" t="s">
-        <v>858</v>
+        <v>895</v>
       </c>
       <c r="N64" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O64" t="s">
-        <v>949</v>
+        <v>990</v>
       </c>
     </row>
     <row r="65" spans="3:15">
@@ -5736,34 +5865,37 @@
         <v>82</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F65" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="G65">
-        <v>34227952</v>
+        <v>34175021</v>
       </c>
       <c r="H65" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="I65" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="J65" t="s">
-        <v>644</v>
+        <v>707</v>
       </c>
       <c r="K65" t="s">
-        <v>714</v>
+        <v>781</v>
+      </c>
+      <c r="L65" t="s">
+        <v>827</v>
       </c>
       <c r="M65" t="s">
-        <v>859</v>
+        <v>896</v>
       </c>
       <c r="N65" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O65" t="s">
-        <v>925</v>
+        <v>991</v>
       </c>
     </row>
     <row r="66" spans="3:15">
@@ -5774,34 +5906,34 @@
         <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F66" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G66">
-        <v>34227947</v>
+        <v>34227971</v>
       </c>
       <c r="H66" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="I66" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="J66" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K66" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="M66" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="N66" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O66" t="s">
-        <v>925</v>
+        <v>992</v>
       </c>
     </row>
     <row r="67" spans="3:15">
@@ -5812,34 +5944,34 @@
         <v>84</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F67" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="G67">
-        <v>34227942</v>
+        <v>34227952</v>
       </c>
       <c r="H67" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="I67" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="J67" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="K67" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="M67" t="s">
-        <v>861</v>
+        <v>898</v>
       </c>
       <c r="N67" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O67" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="3:15">
@@ -5850,34 +5982,34 @@
         <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F68" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="G68">
-        <v>33485461</v>
+        <v>34227947</v>
       </c>
       <c r="H68" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="I68" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="J68" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="K68" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="M68" t="s">
-        <v>862</v>
+        <v>899</v>
       </c>
       <c r="N68" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O68" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="69" spans="3:15">
@@ -5888,34 +6020,34 @@
         <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G69">
-        <v>34741816</v>
+        <v>34227942</v>
       </c>
       <c r="H69" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="I69" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="J69" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="K69" t="s">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c r="M69" t="s">
-        <v>863</v>
+        <v>900</v>
       </c>
       <c r="N69" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O69" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="70" spans="3:15">
@@ -5926,37 +6058,34 @@
         <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F70" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G70">
-        <v>32888407</v>
+        <v>33485461</v>
       </c>
       <c r="H70" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="I70" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="J70" t="s">
-        <v>667</v>
+        <v>709</v>
       </c>
       <c r="K70" t="s">
-        <v>750</v>
-      </c>
-      <c r="L70" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="M70" t="s">
-        <v>864</v>
+        <v>901</v>
       </c>
       <c r="N70" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O70" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="71" spans="3:15">
@@ -5967,34 +6096,34 @@
         <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G71">
-        <v>33002431</v>
+        <v>34741816</v>
       </c>
       <c r="H71" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="I71" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="J71" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="K71" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="M71" t="s">
-        <v>865</v>
+        <v>902</v>
       </c>
       <c r="N71" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O71" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="72" spans="3:15">
@@ -6005,34 +6134,37 @@
         <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F72" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G72">
-        <v>32473682</v>
+        <v>34097852</v>
       </c>
       <c r="H72" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="I72" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="J72" t="s">
-        <v>646</v>
+        <v>710</v>
       </c>
       <c r="K72" t="s">
-        <v>721</v>
+        <v>784</v>
+      </c>
+      <c r="L72" t="s">
+        <v>828</v>
       </c>
       <c r="M72" t="s">
-        <v>866</v>
+        <v>903</v>
       </c>
       <c r="N72" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O72" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="73" spans="3:15">
@@ -6043,34 +6175,37 @@
         <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F73" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="G73">
-        <v>32473681</v>
+        <v>32888407</v>
       </c>
       <c r="H73" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="I73" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="J73" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="K73" t="s">
-        <v>720</v>
+        <v>785</v>
+      </c>
+      <c r="L73" t="s">
+        <v>826</v>
       </c>
       <c r="M73" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
       <c r="N73" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O73" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="74" spans="3:15">
@@ -6081,34 +6216,34 @@
         <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F74" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G74">
-        <v>31929014</v>
+        <v>33002431</v>
       </c>
       <c r="H74" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="I74" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="J74" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="K74" t="s">
-        <v>713</v>
+        <v>751</v>
       </c>
       <c r="M74" t="s">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="N74" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O74" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="75" spans="3:15">
@@ -6119,34 +6254,34 @@
         <v>92</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F75" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="G75">
-        <v>32007142</v>
+        <v>32473682</v>
       </c>
       <c r="H75" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="I75" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="J75" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="K75" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="M75" t="s">
-        <v>869</v>
+        <v>906</v>
       </c>
       <c r="N75" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O75" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="76" spans="3:15">
@@ -6157,154 +6292,148 @@
         <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F76" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="G76">
-        <v>32007141</v>
+        <v>32473681</v>
       </c>
       <c r="H76" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="I76" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="J76" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="K76" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M76" t="s">
-        <v>870</v>
+        <v>907</v>
       </c>
       <c r="N76" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O76" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
     </row>
     <row r="77" spans="3:15">
       <c r="C77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>94</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F77" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="G77">
-        <v>40961449</v>
+        <v>31929014</v>
       </c>
       <c r="H77" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="I77" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="J77" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="K77" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="M77" t="s">
-        <v>871</v>
+        <v>908</v>
       </c>
       <c r="N77" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O77" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="78" spans="3:15">
       <c r="C78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
         <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F78" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G78">
-        <v>41104928</v>
+        <v>32007142</v>
       </c>
       <c r="H78" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="I78" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="J78" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
       <c r="K78" t="s">
-        <v>752</v>
-      </c>
-      <c r="L78" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="M78" t="s">
-        <v>872</v>
+        <v>909</v>
       </c>
       <c r="N78" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O78" t="s">
-        <v>951</v>
+        <v>968</v>
       </c>
     </row>
     <row r="79" spans="3:15">
       <c r="C79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
         <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F79" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G79">
-        <v>40532152</v>
+        <v>32007141</v>
       </c>
       <c r="H79" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="I79" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="J79" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="K79" t="s">
-        <v>753</v>
-      </c>
-      <c r="L79" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="M79" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="N79" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O79" t="s">
-        <v>925</v>
+        <v>993</v>
       </c>
     </row>
     <row r="80" spans="3:15">
@@ -6315,37 +6444,34 @@
         <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F80" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G80">
-        <v>40293177</v>
+        <v>40961449</v>
       </c>
       <c r="H80" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="I80" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="J80" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="K80" t="s">
-        <v>754</v>
-      </c>
-      <c r="L80" t="s">
-        <v>792</v>
+        <v>747</v>
       </c>
       <c r="M80" t="s">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="N80" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O80" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="81" spans="3:15">
@@ -6356,37 +6482,37 @@
         <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F81" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G81">
-        <v>39908431</v>
+        <v>41104928</v>
       </c>
       <c r="H81" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="I81" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="J81" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="K81" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="L81" t="s">
-        <v>792</v>
+        <v>829</v>
       </c>
       <c r="M81" t="s">
-        <v>875</v>
+        <v>912</v>
       </c>
       <c r="N81" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O81" t="s">
-        <v>925</v>
+        <v>994</v>
       </c>
     </row>
     <row r="82" spans="3:15">
@@ -6397,34 +6523,37 @@
         <v>99</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F82" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G82">
-        <v>40267425</v>
+        <v>40532152</v>
       </c>
       <c r="H82" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="I82" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="J82" t="s">
-        <v>649</v>
+        <v>713</v>
       </c>
       <c r="K82" t="s">
-        <v>756</v>
+        <v>788</v>
+      </c>
+      <c r="L82" t="s">
+        <v>828</v>
       </c>
       <c r="M82" t="s">
-        <v>876</v>
+        <v>913</v>
       </c>
       <c r="N82" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O82" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
     </row>
     <row r="83" spans="3:15">
@@ -6435,34 +6564,37 @@
         <v>100</v>
       </c>
       <c r="E83" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F83" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G83">
-        <v>40214032</v>
+        <v>40293177</v>
       </c>
       <c r="H83" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="I83" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="J83" t="s">
-        <v>650</v>
+        <v>714</v>
       </c>
       <c r="K83" t="s">
-        <v>721</v>
+        <v>789</v>
+      </c>
+      <c r="L83" t="s">
+        <v>828</v>
       </c>
       <c r="M83" t="s">
-        <v>877</v>
+        <v>914</v>
       </c>
       <c r="N83" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O83" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="84" spans="3:15">
@@ -6473,34 +6605,37 @@
         <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F84" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="G84">
-        <v>38477986</v>
+        <v>39908431</v>
       </c>
       <c r="H84" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="I84" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="J84" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="K84" t="s">
-        <v>757</v>
+        <v>790</v>
+      </c>
+      <c r="L84" t="s">
+        <v>828</v>
       </c>
       <c r="M84" t="s">
-        <v>878</v>
+        <v>915</v>
       </c>
       <c r="N84" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O84" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="85" spans="3:15">
@@ -6511,34 +6646,34 @@
         <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F85" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G85">
-        <v>38477985</v>
+        <v>40267425</v>
       </c>
       <c r="H85" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="I85" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="J85" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="K85" t="s">
-        <v>758</v>
+        <v>791</v>
       </c>
       <c r="M85" t="s">
-        <v>879</v>
+        <v>916</v>
       </c>
       <c r="N85" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O85" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
     </row>
     <row r="86" spans="3:15">
@@ -6549,37 +6684,34 @@
         <v>103</v>
       </c>
       <c r="E86" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F86" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G86">
-        <v>38838311</v>
+        <v>40214032</v>
       </c>
       <c r="H86" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="I86" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="J86" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="K86" t="s">
-        <v>759</v>
-      </c>
-      <c r="L86" t="s">
-        <v>792</v>
+        <v>754</v>
       </c>
       <c r="M86" t="s">
-        <v>880</v>
+        <v>917</v>
       </c>
       <c r="N86" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O86" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="87" spans="3:15">
@@ -6590,37 +6722,34 @@
         <v>104</v>
       </c>
       <c r="E87" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F87" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="G87">
-        <v>38904277</v>
+        <v>38477986</v>
       </c>
       <c r="H87" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="I87" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="J87" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="K87" t="s">
-        <v>760</v>
-      </c>
-      <c r="L87" t="s">
         <v>792</v>
       </c>
       <c r="M87" t="s">
-        <v>881</v>
+        <v>918</v>
       </c>
       <c r="N87" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O87" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
     </row>
     <row r="88" spans="3:15">
@@ -6631,37 +6760,34 @@
         <v>105</v>
       </c>
       <c r="E88" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F88" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G88">
-        <v>38899693</v>
+        <v>38477985</v>
       </c>
       <c r="H88" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="I88" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="J88" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="K88" t="s">
-        <v>761</v>
-      </c>
-      <c r="L88" t="s">
         <v>793</v>
       </c>
       <c r="M88" t="s">
-        <v>882</v>
+        <v>919</v>
       </c>
       <c r="N88" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O88" t="s">
-        <v>955</v>
+        <v>996</v>
       </c>
     </row>
     <row r="89" spans="3:15">
@@ -6672,34 +6798,37 @@
         <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F89" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="G89">
-        <v>38865660</v>
+        <v>38838311</v>
       </c>
       <c r="H89" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="I89" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="J89" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="K89" t="s">
-        <v>714</v>
+        <v>794</v>
+      </c>
+      <c r="L89" t="s">
+        <v>828</v>
       </c>
       <c r="M89" t="s">
-        <v>883</v>
+        <v>920</v>
       </c>
       <c r="N89" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O89" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="90" spans="3:15">
@@ -6710,37 +6839,37 @@
         <v>107</v>
       </c>
       <c r="E90" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F90" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G90">
-        <v>38197815</v>
+        <v>38904277</v>
       </c>
       <c r="H90" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="I90" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="J90" t="s">
-        <v>649</v>
+        <v>717</v>
       </c>
       <c r="K90" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
       <c r="L90" t="s">
-        <v>791</v>
+        <v>828</v>
       </c>
       <c r="M90" t="s">
-        <v>884</v>
+        <v>921</v>
       </c>
       <c r="N90" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O90" t="s">
-        <v>925</v>
+        <v>997</v>
       </c>
     </row>
     <row r="91" spans="3:15">
@@ -6751,34 +6880,37 @@
         <v>108</v>
       </c>
       <c r="E91" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F91" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="G91">
-        <v>39774314</v>
+        <v>38899693</v>
       </c>
       <c r="H91" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="I91" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="J91" t="s">
-        <v>646</v>
+        <v>718</v>
       </c>
       <c r="K91" t="s">
-        <v>721</v>
+        <v>796</v>
+      </c>
+      <c r="L91" t="s">
+        <v>830</v>
       </c>
       <c r="M91" t="s">
-        <v>885</v>
+        <v>922</v>
       </c>
       <c r="N91" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O91" t="s">
-        <v>925</v>
+        <v>998</v>
       </c>
     </row>
     <row r="92" spans="3:15">
@@ -6789,37 +6921,34 @@
         <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F92" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="G92">
-        <v>37672694</v>
+        <v>38865660</v>
       </c>
       <c r="H92" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="I92" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="J92" t="s">
-        <v>689</v>
+        <v>718</v>
       </c>
       <c r="K92" t="s">
-        <v>763</v>
-      </c>
-      <c r="L92" t="s">
-        <v>792</v>
+        <v>747</v>
       </c>
       <c r="M92" t="s">
-        <v>886</v>
+        <v>923</v>
       </c>
       <c r="N92" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O92" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
     </row>
     <row r="93" spans="3:15">
@@ -6830,37 +6959,37 @@
         <v>110</v>
       </c>
       <c r="E93" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F93" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G93">
-        <v>37861218</v>
+        <v>38197815</v>
       </c>
       <c r="H93" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="I93" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="J93" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="K93" t="s">
-        <v>754</v>
+        <v>797</v>
       </c>
       <c r="L93" t="s">
-        <v>792</v>
+        <v>829</v>
       </c>
       <c r="M93" t="s">
-        <v>887</v>
+        <v>924</v>
       </c>
       <c r="N93" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O93" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="94" spans="3:15">
@@ -6871,34 +7000,34 @@
         <v>111</v>
       </c>
       <c r="E94" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F94" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="G94">
-        <v>37133584</v>
+        <v>39774314</v>
       </c>
       <c r="H94" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="I94" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="J94" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="K94" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="M94" t="s">
-        <v>888</v>
+        <v>925</v>
       </c>
       <c r="N94" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O94" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="95" spans="3:15">
@@ -6909,34 +7038,37 @@
         <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F95" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G95">
-        <v>36988593</v>
+        <v>38657244</v>
       </c>
       <c r="H95" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="I95" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="J95" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="K95" t="s">
-        <v>714</v>
+        <v>798</v>
+      </c>
+      <c r="L95" t="s">
+        <v>826</v>
       </c>
       <c r="M95" t="s">
-        <v>889</v>
+        <v>926</v>
       </c>
       <c r="N95" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O95" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
     </row>
     <row r="96" spans="3:15">
@@ -6947,34 +7079,37 @@
         <v>113</v>
       </c>
       <c r="E96" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F96" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="G96">
-        <v>36856618</v>
+        <v>37672694</v>
       </c>
       <c r="H96" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="I96" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="J96" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="K96" t="s">
-        <v>765</v>
+        <v>799</v>
+      </c>
+      <c r="L96" t="s">
+        <v>828</v>
       </c>
       <c r="M96" t="s">
-        <v>890</v>
+        <v>927</v>
       </c>
       <c r="N96" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O96" t="s">
-        <v>925</v>
+        <v>999</v>
       </c>
     </row>
     <row r="97" spans="3:15">
@@ -6985,37 +7120,37 @@
         <v>114</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F97" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="G97">
-        <v>37407001</v>
+        <v>37861218</v>
       </c>
       <c r="H97" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="I97" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="J97" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="K97" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="L97" t="s">
-        <v>791</v>
+        <v>828</v>
       </c>
       <c r="M97" t="s">
-        <v>891</v>
+        <v>928</v>
       </c>
       <c r="N97" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O97" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="98" spans="3:15">
@@ -7026,37 +7161,34 @@
         <v>115</v>
       </c>
       <c r="E98" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F98" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G98">
-        <v>36546659</v>
+        <v>37133584</v>
       </c>
       <c r="H98" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="I98" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="J98" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="K98" t="s">
-        <v>767</v>
-      </c>
-      <c r="L98" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="M98" t="s">
-        <v>892</v>
+        <v>929</v>
       </c>
       <c r="N98" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O98" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
     </row>
     <row r="99" spans="3:15">
@@ -7067,37 +7199,34 @@
         <v>116</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F99" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="G99">
-        <v>36546651</v>
+        <v>36988593</v>
       </c>
       <c r="H99" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="I99" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="J99" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="K99" t="s">
-        <v>768</v>
-      </c>
-      <c r="L99" t="s">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="M99" t="s">
-        <v>893</v>
+        <v>930</v>
       </c>
       <c r="N99" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O99" t="s">
-        <v>925</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="3:15">
@@ -7108,37 +7237,34 @@
         <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F100" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G100">
-        <v>36652354</v>
+        <v>36856618</v>
       </c>
       <c r="H100" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="I100" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="J100" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="K100" t="s">
-        <v>769</v>
-      </c>
-      <c r="L100" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="M100" t="s">
-        <v>894</v>
+        <v>931</v>
       </c>
       <c r="N100" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O100" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
     </row>
     <row r="101" spans="3:15">
@@ -7149,34 +7275,37 @@
         <v>118</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F101" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="G101">
-        <v>37646678</v>
+        <v>37407001</v>
       </c>
       <c r="H101" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="I101" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="J101" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="K101" t="s">
-        <v>770</v>
+        <v>802</v>
+      </c>
+      <c r="L101" t="s">
+        <v>829</v>
       </c>
       <c r="M101" t="s">
-        <v>895</v>
+        <v>932</v>
       </c>
       <c r="N101" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O101" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="102" spans="3:15">
@@ -7187,37 +7316,37 @@
         <v>119</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F102" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="G102">
-        <v>37611121</v>
+        <v>37437144</v>
       </c>
       <c r="H102" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="I102" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="J102" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="K102" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="L102" t="s">
-        <v>788</v>
+        <v>828</v>
       </c>
       <c r="M102" t="s">
-        <v>896</v>
+        <v>933</v>
       </c>
       <c r="N102" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O102" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="103" spans="3:15">
@@ -7228,34 +7357,37 @@
         <v>120</v>
       </c>
       <c r="E103" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F103" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="G103">
-        <v>37585627</v>
+        <v>36546659</v>
       </c>
       <c r="H103" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="I103" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="J103" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="K103" t="s">
-        <v>721</v>
+        <v>804</v>
+      </c>
+      <c r="L103" t="s">
+        <v>829</v>
       </c>
       <c r="M103" t="s">
-        <v>897</v>
+        <v>934</v>
       </c>
       <c r="N103" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O103" t="s">
-        <v>925</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="104" spans="3:15">
@@ -7266,37 +7398,37 @@
         <v>121</v>
       </c>
       <c r="E104" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F104" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="G104">
-        <v>37018492</v>
+        <v>36546651</v>
       </c>
       <c r="H104" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="I104" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="J104" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="K104" t="s">
-        <v>772</v>
+        <v>805</v>
       </c>
       <c r="L104" t="s">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="M104" t="s">
-        <v>898</v>
+        <v>935</v>
       </c>
       <c r="N104" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O104" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="105" spans="3:15">
@@ -7307,37 +7439,37 @@
         <v>122</v>
       </c>
       <c r="E105" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F105" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="G105">
-        <v>36094839</v>
+        <v>36652354</v>
       </c>
       <c r="H105" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="I105" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="J105" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="K105" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="L105" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="M105" t="s">
-        <v>899</v>
+        <v>936</v>
       </c>
       <c r="N105" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O105" t="s">
-        <v>925</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="106" spans="3:15">
@@ -7348,37 +7480,34 @@
         <v>123</v>
       </c>
       <c r="E106" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F106" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G106">
-        <v>35767439</v>
+        <v>37646678</v>
       </c>
       <c r="H106" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="I106" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="J106" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="K106" t="s">
-        <v>774</v>
-      </c>
-      <c r="L106" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="M106" t="s">
-        <v>900</v>
+        <v>937</v>
       </c>
       <c r="N106" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O106" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
     </row>
     <row r="107" spans="3:15">
@@ -7389,37 +7518,37 @@
         <v>124</v>
       </c>
       <c r="E107" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F107" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G107">
-        <v>35660797</v>
+        <v>37611121</v>
       </c>
       <c r="H107" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="I107" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="J107" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="K107" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="L107" t="s">
-        <v>792</v>
+        <v>825</v>
       </c>
       <c r="M107" t="s">
-        <v>901</v>
+        <v>938</v>
       </c>
       <c r="N107" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O107" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="108" spans="3:15">
@@ -7430,37 +7559,34 @@
         <v>125</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F108" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G108">
-        <v>35658005</v>
+        <v>37585627</v>
       </c>
       <c r="H108" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="I108" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="J108" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="K108" t="s">
-        <v>776</v>
-      </c>
-      <c r="L108" t="s">
-        <v>792</v>
+        <v>754</v>
       </c>
       <c r="M108" t="s">
-        <v>902</v>
+        <v>939</v>
       </c>
       <c r="N108" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O108" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
     </row>
     <row r="109" spans="3:15">
@@ -7471,37 +7597,37 @@
         <v>126</v>
       </c>
       <c r="E109" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F109" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G109">
-        <v>34534430</v>
+        <v>37018492</v>
       </c>
       <c r="H109" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="I109" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="J109" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="K109" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
       <c r="L109" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="M109" t="s">
-        <v>903</v>
+        <v>940</v>
       </c>
       <c r="N109" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O109" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="110" spans="3:15">
@@ -7512,37 +7638,37 @@
         <v>127</v>
       </c>
       <c r="E110" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F110" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="G110">
-        <v>36507690</v>
+        <v>36094839</v>
       </c>
       <c r="H110" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="I110" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="J110" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
       <c r="K110" t="s">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="L110" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="M110" t="s">
-        <v>904</v>
+        <v>941</v>
       </c>
       <c r="N110" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O110" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="111" spans="3:15">
@@ -7553,37 +7679,37 @@
         <v>128</v>
       </c>
       <c r="E111" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F111" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="G111">
-        <v>34818478</v>
+        <v>35767439</v>
       </c>
       <c r="H111" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="I111" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="J111" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="K111" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="L111" t="s">
-        <v>792</v>
+        <v>825</v>
       </c>
       <c r="M111" t="s">
-        <v>905</v>
+        <v>942</v>
       </c>
       <c r="N111" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O111" t="s">
-        <v>925</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="112" spans="3:15">
@@ -7594,37 +7720,37 @@
         <v>129</v>
       </c>
       <c r="E112" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F112" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="G112">
-        <v>33979489</v>
+        <v>35660797</v>
       </c>
       <c r="H112" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="I112" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="J112" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
       <c r="K112" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
       <c r="L112" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="M112" t="s">
-        <v>906</v>
+        <v>943</v>
       </c>
       <c r="N112" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O112" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="113" spans="3:15">
@@ -7635,34 +7761,37 @@
         <v>130</v>
       </c>
       <c r="E113" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F113" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="G113">
-        <v>33704937</v>
+        <v>35658005</v>
       </c>
       <c r="H113" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="I113" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="J113" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="K113" t="s">
-        <v>780</v>
+        <v>812</v>
+      </c>
+      <c r="L113" t="s">
+        <v>828</v>
       </c>
       <c r="M113" t="s">
-        <v>907</v>
+        <v>944</v>
       </c>
       <c r="N113" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O113" t="s">
-        <v>925</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="114" spans="3:15">
@@ -7673,34 +7802,37 @@
         <v>131</v>
       </c>
       <c r="E114" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F114" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G114">
-        <v>34161704</v>
+        <v>34534430</v>
       </c>
       <c r="H114" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="I114" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="J114" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
       <c r="K114" t="s">
-        <v>714</v>
+        <v>813</v>
+      </c>
+      <c r="L114" t="s">
+        <v>828</v>
       </c>
       <c r="M114" t="s">
-        <v>908</v>
+        <v>945</v>
       </c>
       <c r="N114" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O114" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="115" spans="3:15">
@@ -7711,37 +7843,37 @@
         <v>132</v>
       </c>
       <c r="E115" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F115" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="G115">
-        <v>34096690</v>
+        <v>36507690</v>
       </c>
       <c r="H115" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="I115" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="J115" t="s">
-        <v>649</v>
+        <v>718</v>
       </c>
       <c r="K115" t="s">
-        <v>768</v>
+        <v>814</v>
       </c>
       <c r="L115" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="M115" t="s">
-        <v>909</v>
+        <v>946</v>
       </c>
       <c r="N115" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O115" t="s">
-        <v>961</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="116" spans="3:15">
@@ -7752,34 +7884,37 @@
         <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F116" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G116">
-        <v>33471991</v>
+        <v>34818478</v>
       </c>
       <c r="H116" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="I116" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="J116" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="K116" t="s">
-        <v>781</v>
+        <v>805</v>
+      </c>
+      <c r="L116" t="s">
+        <v>828</v>
       </c>
       <c r="M116" t="s">
-        <v>910</v>
+        <v>947</v>
       </c>
       <c r="N116" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O116" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="117" spans="3:15">
@@ -7790,34 +7925,37 @@
         <v>134</v>
       </c>
       <c r="E117" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F117" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="G117">
-        <v>33471974</v>
+        <v>33979489</v>
       </c>
       <c r="H117" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="I117" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="J117" t="s">
-        <v>647</v>
+        <v>735</v>
       </c>
       <c r="K117" t="s">
-        <v>782</v>
+        <v>815</v>
+      </c>
+      <c r="L117" t="s">
+        <v>828</v>
       </c>
       <c r="M117" t="s">
-        <v>911</v>
+        <v>948</v>
       </c>
       <c r="N117" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O117" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="118" spans="3:15">
@@ -7828,37 +7966,34 @@
         <v>135</v>
       </c>
       <c r="E118" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F118" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G118">
-        <v>33838625</v>
+        <v>33704937</v>
       </c>
       <c r="H118" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="I118" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="J118" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="K118" t="s">
-        <v>783</v>
-      </c>
-      <c r="L118" t="s">
-        <v>788</v>
+        <v>816</v>
       </c>
       <c r="M118" t="s">
-        <v>912</v>
+        <v>949</v>
       </c>
       <c r="N118" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O118" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="119" spans="3:15">
@@ -7869,37 +8004,34 @@
         <v>136</v>
       </c>
       <c r="E119" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F119" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="G119">
-        <v>32877583</v>
+        <v>34161704</v>
       </c>
       <c r="H119" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="I119" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="J119" t="s">
-        <v>649</v>
+        <v>737</v>
       </c>
       <c r="K119" t="s">
-        <v>784</v>
-      </c>
-      <c r="L119" t="s">
-        <v>792</v>
+        <v>747</v>
       </c>
       <c r="M119" t="s">
-        <v>913</v>
+        <v>950</v>
       </c>
       <c r="N119" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O119" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
     </row>
     <row r="120" spans="3:15">
@@ -7910,37 +8042,37 @@
         <v>137</v>
       </c>
       <c r="E120" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F120" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="G120">
-        <v>32469185</v>
+        <v>34096690</v>
       </c>
       <c r="H120" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="I120" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="J120" t="s">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="K120" t="s">
-        <v>753</v>
+        <v>805</v>
       </c>
       <c r="L120" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="M120" t="s">
-        <v>914</v>
+        <v>951</v>
       </c>
       <c r="N120" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O120" t="s">
-        <v>925</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="121" spans="3:15">
@@ -7951,37 +8083,34 @@
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F121" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="G121">
-        <v>32955176</v>
+        <v>33471991</v>
       </c>
       <c r="H121" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="I121" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="J121" t="s">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="K121" t="s">
-        <v>785</v>
-      </c>
-      <c r="L121" t="s">
-        <v>788</v>
+        <v>817</v>
       </c>
       <c r="M121" t="s">
-        <v>915</v>
+        <v>952</v>
       </c>
       <c r="N121" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O121" t="s">
-        <v>925</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="122" spans="3:15">
@@ -7992,34 +8121,34 @@
         <v>139</v>
       </c>
       <c r="E122" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F122" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="G122">
-        <v>32997908</v>
+        <v>33471974</v>
       </c>
       <c r="H122" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="I122" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="J122" t="s">
-        <v>641</v>
+        <v>676</v>
       </c>
       <c r="K122" t="s">
-        <v>734</v>
+        <v>818</v>
       </c>
       <c r="M122" t="s">
-        <v>916</v>
+        <v>953</v>
       </c>
       <c r="N122" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O122" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
     </row>
     <row r="123" spans="3:15">
@@ -8030,34 +8159,37 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F123" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G123">
-        <v>32459922</v>
+        <v>33838625</v>
       </c>
       <c r="H123" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="I123" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="J123" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="K123" t="s">
-        <v>721</v>
+        <v>819</v>
+      </c>
+      <c r="L123" t="s">
+        <v>825</v>
       </c>
       <c r="M123" t="s">
-        <v>917</v>
+        <v>954</v>
       </c>
       <c r="N123" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O123" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="124" spans="3:15">
@@ -8068,34 +8200,37 @@
         <v>141</v>
       </c>
       <c r="E124" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F124" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G124">
-        <v>32130814</v>
+        <v>32877583</v>
       </c>
       <c r="H124" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="I124" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="J124" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="K124" t="s">
-        <v>786</v>
+        <v>820</v>
+      </c>
+      <c r="L124" t="s">
+        <v>828</v>
       </c>
       <c r="M124" t="s">
-        <v>918</v>
+        <v>955</v>
       </c>
       <c r="N124" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O124" t="s">
-        <v>925</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="125" spans="3:15">
@@ -8106,34 +8241,37 @@
         <v>142</v>
       </c>
       <c r="E125" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F125" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G125">
-        <v>32160663</v>
+        <v>32469185</v>
       </c>
       <c r="H125" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="I125" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="J125" t="s">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="K125" t="s">
-        <v>714</v>
+        <v>788</v>
+      </c>
+      <c r="L125" t="s">
+        <v>828</v>
       </c>
       <c r="M125" t="s">
-        <v>919</v>
+        <v>956</v>
       </c>
       <c r="N125" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O125" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="126" spans="3:15">
@@ -8144,37 +8282,37 @@
         <v>143</v>
       </c>
       <c r="E126" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F126" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="G126">
-        <v>32023374</v>
+        <v>32955176</v>
       </c>
       <c r="H126" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="I126" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="J126" t="s">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="K126" t="s">
-        <v>766</v>
+        <v>821</v>
       </c>
       <c r="L126" t="s">
-        <v>795</v>
+        <v>825</v>
       </c>
       <c r="M126" t="s">
-        <v>920</v>
+        <v>957</v>
       </c>
       <c r="N126" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O126" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
     </row>
     <row r="127" spans="3:15">
@@ -8185,37 +8323,34 @@
         <v>144</v>
       </c>
       <c r="E127" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F127" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="G127">
-        <v>32846061</v>
+        <v>32997908</v>
       </c>
       <c r="H127" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="I127" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="J127" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="K127" t="s">
-        <v>787</v>
-      </c>
-      <c r="L127" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="M127" t="s">
-        <v>921</v>
+        <v>958</v>
       </c>
       <c r="N127" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O127" t="s">
-        <v>925</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="128" spans="3:15">
@@ -8226,37 +8361,34 @@
         <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F128" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="G128">
-        <v>32846060</v>
+        <v>32459922</v>
       </c>
       <c r="H128" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="I128" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="J128" t="s">
-        <v>649</v>
+        <v>740</v>
       </c>
       <c r="K128" t="s">
-        <v>785</v>
-      </c>
-      <c r="L128" t="s">
-        <v>791</v>
+        <v>754</v>
       </c>
       <c r="M128" t="s">
-        <v>922</v>
+        <v>959</v>
       </c>
       <c r="N128" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="O128" t="s">
-        <v>925</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="129" spans="3:15">
@@ -8267,34 +8399,271 @@
         <v>146</v>
       </c>
       <c r="E129" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F129" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="G129">
+        <v>32130814</v>
+      </c>
+      <c r="H129" t="s">
+        <v>529</v>
+      </c>
+      <c r="I129" t="s">
+        <v>663</v>
+      </c>
+      <c r="J129" t="s">
+        <v>679</v>
+      </c>
+      <c r="K129" t="s">
+        <v>822</v>
+      </c>
+      <c r="M129" t="s">
+        <v>960</v>
+      </c>
+      <c r="N129" t="s">
+        <v>967</v>
+      </c>
+      <c r="O129" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="130" spans="3:15">
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>147</v>
+      </c>
+      <c r="E130" t="s">
+        <v>263</v>
+      </c>
+      <c r="F130" t="s">
+        <v>396</v>
+      </c>
+      <c r="G130">
+        <v>32160663</v>
+      </c>
+      <c r="H130" t="s">
+        <v>530</v>
+      </c>
+      <c r="I130" t="s">
+        <v>664</v>
+      </c>
+      <c r="J130" t="s">
+        <v>741</v>
+      </c>
+      <c r="K130" t="s">
+        <v>747</v>
+      </c>
+      <c r="M130" t="s">
+        <v>961</v>
+      </c>
+      <c r="N130" t="s">
+        <v>967</v>
+      </c>
+      <c r="O130" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="131" spans="3:15">
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" t="s">
+        <v>264</v>
+      </c>
+      <c r="F131" t="s">
+        <v>397</v>
+      </c>
+      <c r="G131">
+        <v>32023374</v>
+      </c>
+      <c r="H131" t="s">
+        <v>531</v>
+      </c>
+      <c r="I131" t="s">
+        <v>665</v>
+      </c>
+      <c r="J131" t="s">
+        <v>742</v>
+      </c>
+      <c r="K131" t="s">
+        <v>802</v>
+      </c>
+      <c r="L131" t="s">
+        <v>832</v>
+      </c>
+      <c r="M131" t="s">
+        <v>962</v>
+      </c>
+      <c r="N131" t="s">
+        <v>967</v>
+      </c>
+      <c r="O131" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="132" spans="3:15">
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>149</v>
+      </c>
+      <c r="E132" t="s">
+        <v>265</v>
+      </c>
+      <c r="F132" t="s">
+        <v>398</v>
+      </c>
+      <c r="G132">
+        <v>32101664</v>
+      </c>
+      <c r="H132" t="s">
+        <v>532</v>
+      </c>
+      <c r="I132" t="s">
+        <v>666</v>
+      </c>
+      <c r="J132" t="s">
+        <v>743</v>
+      </c>
+      <c r="K132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M132" t="s">
+        <v>963</v>
+      </c>
+      <c r="N132" t="s">
+        <v>967</v>
+      </c>
+      <c r="O132" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="133" spans="3:15">
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>150</v>
+      </c>
+      <c r="E133" t="s">
+        <v>266</v>
+      </c>
+      <c r="F133" t="s">
+        <v>399</v>
+      </c>
+      <c r="G133">
+        <v>32846061</v>
+      </c>
+      <c r="H133" t="s">
+        <v>533</v>
+      </c>
+      <c r="I133" t="s">
+        <v>667</v>
+      </c>
+      <c r="J133" t="s">
+        <v>744</v>
+      </c>
+      <c r="K133" t="s">
+        <v>824</v>
+      </c>
+      <c r="L133" t="s">
+        <v>829</v>
+      </c>
+      <c r="M133" t="s">
+        <v>964</v>
+      </c>
+      <c r="N133" t="s">
+        <v>967</v>
+      </c>
+      <c r="O133" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="134" spans="3:15">
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
+        <v>400</v>
+      </c>
+      <c r="G134">
+        <v>32846060</v>
+      </c>
+      <c r="H134" t="s">
+        <v>534</v>
+      </c>
+      <c r="I134" t="s">
+        <v>668</v>
+      </c>
+      <c r="J134" t="s">
+        <v>678</v>
+      </c>
+      <c r="K134" t="s">
+        <v>821</v>
+      </c>
+      <c r="L134" t="s">
+        <v>829</v>
+      </c>
+      <c r="M134" t="s">
+        <v>965</v>
+      </c>
+      <c r="N134" t="s">
+        <v>967</v>
+      </c>
+      <c r="O134" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="135" spans="3:15">
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" t="s">
+        <v>152</v>
+      </c>
+      <c r="E135" t="s">
+        <v>267</v>
+      </c>
+      <c r="F135" t="s">
+        <v>401</v>
+      </c>
+      <c r="G135">
         <v>32786189</v>
       </c>
-      <c r="H129" t="s">
-        <v>512</v>
-      </c>
-      <c r="I129" t="s">
-        <v>640</v>
-      </c>
-      <c r="J129" t="s">
-        <v>649</v>
-      </c>
-      <c r="K129" t="s">
-        <v>734</v>
-      </c>
-      <c r="M129" t="s">
-        <v>923</v>
-      </c>
-      <c r="N129" t="s">
-        <v>924</v>
-      </c>
-      <c r="O129" t="s">
-        <v>967</v>
+      <c r="H135" t="s">
+        <v>535</v>
+      </c>
+      <c r="I135" t="s">
+        <v>669</v>
+      </c>
+      <c r="J135" t="s">
+        <v>678</v>
+      </c>
+      <c r="K135" t="s">
+        <v>767</v>
+      </c>
+      <c r="M135" t="s">
+        <v>966</v>
+      </c>
+      <c r="N135" t="s">
+        <v>967</v>
+      </c>
+      <c r="O135" t="s">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>

--- a/Literature_Screening_List.xlsx
+++ b/Literature_Screening_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1005">
   <si>
     <t>Select? (Y/N)</t>
   </si>
@@ -484,6 +484,9 @@
     <t>The Effect of Advances in Lung-Cancer Treatment on Population Mortality.</t>
   </si>
   <si>
+    <t>Selumetinib in Children with Inoperable Plexiform Neurofibromas.</t>
+  </si>
+  <si>
     <t>2024 May 15</t>
   </si>
   <si>
@@ -841,6 +844,9 @@
     <t>2020 Aug 13</t>
   </si>
   <si>
+    <t>2020 Apr 9</t>
+  </si>
+  <si>
     <t>10.1136/bmj-2023-077341 e077341</t>
   </si>
   <si>
@@ -1258,6 +1264,9 @@
     <t>10.1056/NEJMoa1916623</t>
   </si>
   <si>
+    <t>10.1056/NEJMoa1912735</t>
+  </si>
+  <si>
     <t>OBJECTIVES: To replicate previous analyses on the effectiveness of the English human papillomavirus (HPV) vaccination programme on incidence of cervical cancer and grade 3 cervical intraepithelial neoplasia (CIN3) using 12 additional months of follow-up, and to investigate effectiveness across levels of socioeconomic deprivation. DESIGN: Observational study. SETTING: England, UK. PARTICIPANTS: Women aged 20-64 years resident in England between January 2006 and June 2020 including 29 968 with a diagnosis of cervical cancer and 335 228 with a diagnosis of CIN3. In England, HPV vaccination was introduced nationally in 2008 and was offered routinely to girls aged 12-13 years, with catch-up campaigns during 2008-10 targeting older teenagers aged &lt;19 years. MAIN OUTCOME MEASURES: Incidence of invasive cervical cancer and CIN3. RESULTS: In England, 29 968 women aged 20-64 years received a diagnosis of cervical cancer and 335 228 a diagnosis of CIN3 between 1 January 2006 and 30 June 2020. In the birth cohort of women offered vaccination routinely at age 12-13 years, adjusted age standardised incidence rates of cervical cancer and CIN3 in the additional 12 months of follow-up (1 July 2019 to 30 June 2020) were, respectively, 83.9% (95% confidence interval (CI) 63.8% to 92.8%) and 94.3% (92.6% to 95.7%) lower than in the reference cohort of women who were never offered HPV vaccination. By mid-2020, HPV vaccination had prevented an estimated 687 (95% CI 556 to 819) cervical cancers and 23 192 (22 163 to 24 220) CIN3s. The highest rates remained among women living in the most deprived areas, but the HPV vaccination programme had a large effect in all five levels of deprivation. In women offered catch-up vaccination, CIN3 rates decreased more in those from the least deprived areas than from the most deprived areas (reductions of 40.6% v 29.6% and 72.8% v 67.7% for women offered vaccination at age 16-18 and 14-16, respectively). The strong downward gradient in cervical cancer incidence from high to low deprivation in the reference unvaccinated group was no longer present among those offered the vaccine. CONCLUSIONS: The high effectiveness of the national HPV vaccination programme previously seen in England continued during the additional 12 months of follow-up. HPV vaccination was associated with a substantially reduced incidence of cervical cancer and CIN3 across all five deprivation groups, especially in women offered routine vaccination.</t>
   </si>
   <si>
@@ -1675,6 +1684,9 @@
     <t>BACKGROUND: Lung cancer is made up of distinct subtypes, including non-small-cell lung cancer (NSCLC) and small-cell lung cancer (SCLC). Although overall mortality from lung cancer has been declining in the United States, little is known about mortality trends according to cancer subtype at the population level because death certificates do not record subtype information. METHODS: Using data from Surveillance, Epidemiology, and End Results (SEER) areas, we assessed lung-cancer mortality and linked deaths from lung cancer to incident cases in SEER cancer registries. This allowed us to evaluate population-level mortality trends attributed to specific subtypes (incidence-based mortality). We also evaluated lung-cancer incidence and survival according to cancer subtype, sex, and calendar year. Joinpoint software was used to assess changes in incidence and trends in incidence-based mortality. RESULTS: Mortality from NSCLC decreased even faster than the incidence of this subtype, and this decrease was associated with a substantial improvement in survival over time that corresponded to the timing of approval of targeted therapy. Among men, incidence-based mortality from NSCLC decreased 6.3% annually from 2013 through 2016, whereas the incidence decreased 3.1% annually from 2008 through 2016. Corresponding lung cancer-specific survival improved from 26% among men with NSCLC that was diagnosed in 2001 to 35% among those in whom it was diagnosed in 2014. This improvement in survival was found across all races and ethnic groups. Similar patterns were found among women with NSCLC. In contrast, mortality from SCLC declined almost entirely as a result of declining incidence, with no improvement in survival. This result correlates with limited treatment advances for SCLC in the time frame we examined. CONCLUSIONS: Population-level mortality from NSCLC in the United States fell sharply from 2013 to 2016, and survival after diagnosis improved substantially. Our analysis suggests that a reduction in incidence along with treatment advances - particularly approvals for and use of targeted therapies - is likely to explain the reduction in mortality observed during this period.</t>
   </si>
   <si>
+    <t>BACKGROUND: No approved therapies exist for inoperable plexiform neurofibromas in patients with neurofibromatosis type 1. METHODS: We conducted an open-label, phase 2 trial of selumetinib to determine the objective response rate among patients with plexiform neurofibromas and to assess clinical benefit. Children with neurofibromatosis type 1 and symptomatic inoperable plexiform neurofibromas received oral selumetinib twice daily at a dose of 25 mg per square meter of body-surface area on a continuous dosing schedule (28-day cycles). Volumetric magnetic resonance imaging and clinical outcome assessments (pain, quality of life, disfigurement, and function) were performed at least every four cycles. Children rated tumor pain intensity on a scale from 0 (no pain) to 10 (worst pain imaginable). RESULTS: A total of 50 children (median age, 10.2 years; range, 3.5 to 17.4) were enrolled from August 2015 through August 2016. The most frequent neurofibroma-related symptoms were disfigurement (44 patients), motor dysfunction (33), and pain (26). A total of 35 patients (70%) had a confirmed partial response as of March 29, 2019, and 28 of these patients had a durable response (lasting &gt;/=1 year). After 1 year of treatment, the mean decrease in child-reported tumor pain-intensity scores was 2 points, considered a clinically meaningful improvement. In addition, clinically meaningful improvements were seen in child-reported and parent-reported interference of pain in daily functioning (38% and 50%, respectively) and overall health-related quality of life (48% and 58%, respectively) as well as in functional outcomes of strength (56% of patients) and range of motion (38% of patients). Five patients discontinued treatment because of toxic effects possibly related to selumetinib, and 6 patients had disease progression. The most frequent toxic effects were nausea, vomiting, or diarrhea; an asymptomatic increase in the creatine phosphokinase level; acneiform rash; and paronychia. CONCLUSIONS: In this phase 2 trial, most children with neurofibromatosis type 1 and inoperable plexiform neurofibromas had durable tumor shrinkage and clinical benefit from selumetinib. (Funded by the Intramural Research Program of the National Institutes of Health and others; ClinicalTrials.gov number, NCT01362803.).</t>
+  </si>
+  <si>
     <t>英格兰HPV疫苗接种观察性研究显示，该计划显著降低了宫颈癌和CIN3发病率，且在不同社会经济剥夺水平群体中均有效。</t>
   </si>
   <si>
@@ -2092,6 +2104,9 @@
     <t>真实世界研究显示，2013-2016年美国非小细胞肺癌死亡率大幅下降，生存率显著提高，主要归因于靶向治疗的应用。</t>
   </si>
   <si>
+    <t>一项II期临床试验显示，Selumetinib治疗儿童不可手术丛状神经纤维瘤，70%患者获得部分缓解，并显著改善疼痛和生活质量。</t>
+  </si>
+  <si>
     <t>宫颈癌</t>
   </si>
   <si>
@@ -2320,6 +2335,9 @@
     <t>甲状腺髓样癌</t>
   </si>
   <si>
+    <t>神经纤维瘤病1型相关的不可手术丛状神经纤维瘤</t>
+  </si>
+  <si>
     <t>观察性研究</t>
   </si>
   <si>
@@ -3008,6 +3026,9 @@
   </si>
   <si>
     <t>首次在人群层面评估肺癌亚型死亡率趋势；发现NSCLC死亡率下降快于发病率，与靶向治疗批准时间相符；SCLC死亡率下降仅因发病率降低，生存率无改善。</t>
+  </si>
+  <si>
+    <t>70%患者获得确认的部分缓解，其中28例缓解持续≥1年；治疗后儿童报告的肿瘤疼痛强度平均降低2分，具有临床意义；在疼痛对日常功能的干扰、总体健康相关生活质量及功能结局方面观察到有临床意义的改善</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3420,28 +3441,28 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G2">
         <v>38749552</v>
       </c>
       <c r="H2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="J2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K2" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="M2" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3452,28 +3473,28 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G3">
         <v>38267073</v>
       </c>
       <c r="H3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="J3" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="K3" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="M3" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3484,25 +3505,25 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G4">
         <v>38418086</v>
       </c>
       <c r="H4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K4" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M4" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3513,28 +3534,28 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G5">
         <v>37311588</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="I5" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="J5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="K5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="M5" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3545,28 +3566,28 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G6">
         <v>35640960</v>
       </c>
       <c r="H6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I6" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="J6" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K6" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="M6" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3577,28 +3598,28 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G7">
         <v>34497044</v>
       </c>
       <c r="H7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="I7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="K7" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="M7" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3609,28 +3630,28 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G8">
         <v>40455622</v>
       </c>
       <c r="H8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="I8" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J8" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K8" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="M8" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3641,28 +3662,28 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G9">
         <v>39680377</v>
       </c>
       <c r="H9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J9" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K9" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="M9" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3673,28 +3694,28 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G10">
         <v>41468027</v>
       </c>
       <c r="H10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="I10" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="J10" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K10" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M10" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3705,28 +3726,28 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G11">
         <v>41385349</v>
       </c>
       <c r="H11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I11" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J11" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K11" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M11" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3737,28 +3758,28 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G12">
         <v>38873722</v>
       </c>
       <c r="H12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="I12" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="J12" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K12" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="M12" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3769,28 +3790,28 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G13">
         <v>39259563</v>
       </c>
       <c r="H13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I13" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="J13" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K13" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M13" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3801,28 +3822,28 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G14">
         <v>38583175</v>
       </c>
       <c r="H14" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I14" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J14" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="K14" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="M14" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3833,28 +3854,28 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G15">
         <v>38814624</v>
       </c>
       <c r="H15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="I15" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="J15" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="K15" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M15" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3865,28 +3886,28 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G16">
         <v>38687505</v>
       </c>
       <c r="H16" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I16" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="J16" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K16" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="M16" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="17" spans="3:13">
@@ -3897,28 +3918,28 @@
         <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G17">
         <v>38583868</v>
       </c>
       <c r="H17" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I17" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="J17" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="K17" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="M17" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="18" spans="3:13">
@@ -3929,28 +3950,28 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G18">
         <v>38261044</v>
       </c>
       <c r="H18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I18" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="J18" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="K18" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M18" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19" spans="3:13">
@@ -3961,28 +3982,28 @@
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G19">
         <v>38261043</v>
       </c>
       <c r="H19" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I19" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J19" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="K19" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="M19" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="20" spans="3:13">
@@ -3993,28 +4014,28 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G20">
         <v>38059899</v>
       </c>
       <c r="H20" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="I20" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="J20" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K20" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M20" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="21" spans="3:13">
@@ -4025,28 +4046,28 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G21">
         <v>38227031</v>
       </c>
       <c r="H21" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I21" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="J21" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K21" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="M21" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22" spans="3:13">
@@ -4057,28 +4078,28 @@
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G22">
         <v>39018030</v>
       </c>
       <c r="H22" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="I22" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="J22" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="K22" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="M22" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="23" spans="3:13">
@@ -4089,28 +4110,28 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F23" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G23">
         <v>38563834</v>
       </c>
       <c r="H23" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="J23" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K23" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="M23" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="24" spans="3:13">
@@ -4121,28 +4142,28 @@
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G24">
         <v>37787794</v>
       </c>
       <c r="H24" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I24" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="J24" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="K24" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="M24" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="25" spans="3:13">
@@ -4153,28 +4174,28 @@
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G25">
         <v>37276540</v>
       </c>
       <c r="H25" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I25" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J25" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="K25" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="M25" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="26" spans="3:13">
@@ -4185,28 +4206,28 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G26">
         <v>37552302</v>
       </c>
       <c r="H26" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I26" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="J26" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="K26" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M26" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="27" spans="3:13">
@@ -4217,28 +4238,28 @@
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G27">
         <v>35670788</v>
       </c>
       <c r="H27" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="I27" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="J27" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K27" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M27" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
     </row>
     <row r="28" spans="3:13">
@@ -4249,28 +4270,28 @@
         <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G28">
         <v>35657620</v>
       </c>
       <c r="H28" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I28" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="J28" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="K28" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="M28" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="29" spans="3:13">
@@ -4281,28 +4302,28 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G29">
         <v>35699706</v>
       </c>
       <c r="H29" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I29" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="J29" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K29" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="M29" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
     </row>
     <row r="30" spans="3:13">
@@ -4313,28 +4334,28 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G30">
         <v>34982120</v>
       </c>
       <c r="H30" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="I30" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="J30" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="K30" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="M30" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="31" spans="3:13">
@@ -4345,28 +4366,28 @@
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G31">
         <v>35471506</v>
       </c>
       <c r="H31" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I31" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="J31" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K31" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="M31" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="32" spans="3:13">
@@ -4377,28 +4398,28 @@
         <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G32">
         <v>34751709</v>
       </c>
       <c r="H32" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I32" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="J32" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K32" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="M32" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="33" spans="3:13">
@@ -4409,28 +4430,28 @@
         <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G33">
         <v>34003219</v>
       </c>
       <c r="H33" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="I33" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="J33" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K33" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="M33" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="3:13">
@@ -4441,28 +4462,28 @@
         <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G34">
         <v>33687469</v>
       </c>
       <c r="H34" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I34" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="J34" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="K34" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="M34" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
     </row>
     <row r="35" spans="3:13">
@@ -4473,28 +4494,28 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G35">
         <v>33079153</v>
       </c>
       <c r="H35" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I35" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="J35" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K35" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="M35" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
     </row>
     <row r="36" spans="3:13">
@@ -4505,28 +4526,28 @@
         <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G36">
         <v>33141207</v>
       </c>
       <c r="H36" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I36" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="J36" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="K36" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M36" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="37" spans="3:13">
@@ -4537,28 +4558,28 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G37">
         <v>33231665</v>
       </c>
       <c r="H37" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I37" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="J37" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="K37" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="M37" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="3:13">
@@ -4569,28 +4590,28 @@
         <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G38">
         <v>33201204</v>
       </c>
       <c r="H38" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="I38" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="J38" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="K38" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="M38" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="39" spans="3:13">
@@ -4601,28 +4622,28 @@
         <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G39">
         <v>31910280</v>
       </c>
       <c r="H39" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="I39" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="J39" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="K39" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M39" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="40" spans="3:13">
@@ -4633,28 +4654,28 @@
         <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F40" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G40">
         <v>31935027</v>
       </c>
       <c r="H40" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I40" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="J40" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="K40" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M40" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="41" spans="3:13">
@@ -4665,28 +4686,28 @@
         <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G41">
         <v>33351041</v>
       </c>
       <c r="H41" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I41" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="J41" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="K41" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M41" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="42" spans="3:13">
@@ -4697,25 +4718,25 @@
         <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F42" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G42">
         <v>41015051</v>
       </c>
       <c r="H42" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I42" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K42" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="M42" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="43" spans="3:13">
@@ -4726,28 +4747,28 @@
         <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F43" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G43">
         <v>41138738</v>
       </c>
       <c r="H43" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="I43" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="J43" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="K43" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="M43" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="44" spans="3:13">
@@ -4758,31 +4779,31 @@
         <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F44" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G44">
         <v>39798981</v>
       </c>
       <c r="H44" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I44" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="J44" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="K44" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="L44" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="M44" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="45" spans="3:13">
@@ -4793,28 +4814,28 @@
         <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F45" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G45">
         <v>40783288</v>
       </c>
       <c r="H45" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="I45" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="J45" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K45" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M45" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
     </row>
     <row r="46" spans="3:13">
@@ -4825,28 +4846,28 @@
         <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G46">
         <v>39396348</v>
       </c>
       <c r="H46" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I46" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="J46" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K46" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M46" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="47" spans="3:13">
@@ -4857,31 +4878,31 @@
         <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G47">
         <v>38996463</v>
       </c>
       <c r="H47" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I47" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="J47" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="K47" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="L47" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="M47" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="48" spans="3:13">
@@ -4892,28 +4913,28 @@
         <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F48" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G48">
         <v>38065194</v>
       </c>
       <c r="H48" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I48" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="J48" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K48" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="M48" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="3:13">
@@ -4924,28 +4945,28 @@
         <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G49">
         <v>39097395</v>
       </c>
       <c r="H49" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I49" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="J49" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="K49" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="M49" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="50" spans="3:13">
@@ -4956,28 +4977,28 @@
         <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G50">
         <v>37805216</v>
       </c>
       <c r="H50" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I50" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="J50" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="K50" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M50" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="51" spans="3:13">
@@ -4988,28 +5009,28 @@
         <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F51" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G51">
         <v>37931633</v>
       </c>
       <c r="H51" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I51" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J51" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K51" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M51" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row r="52" spans="3:13">
@@ -5020,28 +5041,28 @@
         <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G52">
         <v>37997143</v>
       </c>
       <c r="H52" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="I52" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="J52" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K52" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="M52" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
     </row>
     <row r="53" spans="3:13">
@@ -5052,28 +5073,28 @@
         <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F53" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G53">
         <v>37997129</v>
       </c>
       <c r="H53" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I53" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="J53" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="K53" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M53" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
     </row>
     <row r="54" spans="3:13">
@@ -5084,28 +5105,28 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F54" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G54">
         <v>37997099</v>
       </c>
       <c r="H54" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I54" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="J54" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="K54" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="M54" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="55" spans="3:13">
@@ -5116,28 +5137,28 @@
         <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G55">
         <v>37997098</v>
       </c>
       <c r="H55" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I55" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="J55" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K55" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="M55" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="56" spans="3:13">
@@ -5148,28 +5169,28 @@
         <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G56">
         <v>37997097</v>
       </c>
       <c r="H56" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I56" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="J56" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K56" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="M56" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
     </row>
     <row r="57" spans="3:13">
@@ -5180,28 +5201,28 @@
         <v>72</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G57">
         <v>37997051</v>
       </c>
       <c r="H57" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="I57" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="J57" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="K57" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="M57" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="58" spans="3:13">
@@ -5212,28 +5233,28 @@
         <v>73</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F58" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G58">
         <v>37105210</v>
       </c>
       <c r="H58" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I58" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="J58" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="K58" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="M58" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
     </row>
     <row r="59" spans="3:13">
@@ -5244,28 +5265,28 @@
         <v>74</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F59" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G59">
         <v>36702148</v>
       </c>
       <c r="H59" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I59" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="J59" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K59" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="M59" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
     </row>
     <row r="60" spans="3:13">
@@ -5276,28 +5297,28 @@
         <v>75</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F60" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G60">
         <v>37030315</v>
       </c>
       <c r="H60" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="I60" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="J60" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="K60" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="M60" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="61" spans="3:13">
@@ -5308,28 +5329,28 @@
         <v>76</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G61">
         <v>37061269</v>
       </c>
       <c r="H61" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I61" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J61" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K61" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M61" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row r="62" spans="3:13">
@@ -5340,28 +5361,28 @@
         <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F62" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G62">
         <v>36154677</v>
       </c>
       <c r="H62" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="I62" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="J62" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="K62" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="M62" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="63" spans="3:13">
@@ -5372,28 +5393,28 @@
         <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G63">
         <v>36930014</v>
       </c>
       <c r="H63" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="I63" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="J63" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K63" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="M63" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
     </row>
     <row r="64" spans="3:13">
@@ -5404,28 +5425,28 @@
         <v>79</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G64">
         <v>36929968</v>
       </c>
       <c r="H64" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="I64" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="J64" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K64" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="M64" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="65" spans="3:13">
@@ -5436,28 +5457,28 @@
         <v>80</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F65" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G65">
         <v>36502844</v>
       </c>
       <c r="H65" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="I65" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="J65" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="K65" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="M65" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
     </row>
     <row r="66" spans="3:13">
@@ -5468,25 +5489,25 @@
         <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F66" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G66">
         <v>35988567</v>
       </c>
       <c r="H66" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I66" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="K66" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="M66" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
     </row>
     <row r="67" spans="3:13">
@@ -5497,31 +5518,31 @@
         <v>82</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G67">
         <v>35964611</v>
       </c>
       <c r="H67" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="I67" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="J67" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="K67" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="L67" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="M67" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
     </row>
     <row r="68" spans="3:13">
@@ -5532,31 +5553,31 @@
         <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F68" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G68">
         <v>33676628</v>
       </c>
       <c r="H68" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="I68" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="J68" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="K68" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="L68" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="M68" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="69" spans="3:13">
@@ -5567,31 +5588,31 @@
         <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G69">
         <v>34175021</v>
       </c>
       <c r="H69" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="I69" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="J69" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="K69" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="L69" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="M69" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="70" spans="3:13">
@@ -5602,28 +5623,28 @@
         <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F70" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G70">
         <v>34227971</v>
       </c>
       <c r="H70" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I70" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="J70" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K70" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="M70" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="71" spans="3:13">
@@ -5634,28 +5655,28 @@
         <v>86</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G71">
         <v>34227952</v>
       </c>
       <c r="H71" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I71" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="J71" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="K71" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M71" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
     </row>
     <row r="72" spans="3:13">
@@ -5666,28 +5687,28 @@
         <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F72" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G72">
         <v>34227947</v>
       </c>
       <c r="H72" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="I72" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="J72" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="K72" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="M72" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
     </row>
     <row r="73" spans="3:13">
@@ -5698,28 +5719,28 @@
         <v>88</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G73">
         <v>34227942</v>
       </c>
       <c r="H73" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="I73" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="J73" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K73" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="M73" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="74" spans="3:13">
@@ -5730,28 +5751,28 @@
         <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F74" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G74">
         <v>33485461</v>
       </c>
       <c r="H74" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I74" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="J74" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="K74" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="M74" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="75" spans="3:13">
@@ -5762,28 +5783,28 @@
         <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F75" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G75">
         <v>34741816</v>
       </c>
       <c r="H75" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="I75" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="J75" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K75" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="M75" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="76" spans="3:13">
@@ -5794,31 +5815,31 @@
         <v>91</v>
       </c>
       <c r="E76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F76" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G76">
         <v>34097852</v>
       </c>
       <c r="H76" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="I76" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="J76" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="K76" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="L76" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M76" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="77" spans="3:13">
@@ -5829,31 +5850,31 @@
         <v>92</v>
       </c>
       <c r="E77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F77" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G77">
         <v>32888407</v>
       </c>
       <c r="H77" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I77" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="J77" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="K77" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="L77" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="M77" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="78" spans="3:13">
@@ -5864,28 +5885,28 @@
         <v>93</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F78" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G78">
         <v>33002431</v>
       </c>
       <c r="H78" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="I78" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="J78" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="K78" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M78" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="79" spans="3:13">
@@ -5896,28 +5917,28 @@
         <v>94</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F79" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G79">
         <v>32473682</v>
       </c>
       <c r="H79" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="I79" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="J79" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K79" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M79" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="80" spans="3:13">
@@ -5928,28 +5949,28 @@
         <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F80" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G80">
         <v>32473681</v>
       </c>
       <c r="H80" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I80" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="J80" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="K80" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="M80" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="81" spans="3:13">
@@ -5960,28 +5981,28 @@
         <v>96</v>
       </c>
       <c r="E81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F81" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G81">
         <v>31929014</v>
       </c>
       <c r="H81" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="I81" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="J81" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K81" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="M81" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="82" spans="3:13">
@@ -5992,28 +6013,28 @@
         <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F82" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G82">
         <v>32007142</v>
       </c>
       <c r="H82" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="I82" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="J82" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K82" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="M82" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
     </row>
     <row r="83" spans="3:13">
@@ -6024,28 +6045,28 @@
         <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F83" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G83">
         <v>32007141</v>
       </c>
       <c r="H83" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="I83" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="J83" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K83" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="M83" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
     </row>
     <row r="84" spans="3:13">
@@ -6056,28 +6077,28 @@
         <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F84" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G84">
         <v>40961449</v>
       </c>
       <c r="H84" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I84" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="J84" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="K84" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M84" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
     </row>
     <row r="85" spans="3:13">
@@ -6088,31 +6109,31 @@
         <v>100</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F85" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G85">
         <v>41104928</v>
       </c>
       <c r="H85" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="I85" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J85" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K85" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="L85" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="M85" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="86" spans="3:13">
@@ -6123,31 +6144,31 @@
         <v>101</v>
       </c>
       <c r="E86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F86" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G86">
         <v>40532152</v>
       </c>
       <c r="H86" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="I86" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="J86" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="K86" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="L86" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M86" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
     </row>
     <row r="87" spans="3:13">
@@ -6158,31 +6179,31 @@
         <v>102</v>
       </c>
       <c r="E87" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F87" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G87">
         <v>40293177</v>
       </c>
       <c r="H87" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="I87" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J87" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="K87" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="L87" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M87" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="88" spans="3:13">
@@ -6193,31 +6214,31 @@
         <v>103</v>
       </c>
       <c r="E88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F88" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G88">
         <v>39908431</v>
       </c>
       <c r="H88" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I88" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="J88" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="K88" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="L88" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M88" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
     </row>
     <row r="89" spans="3:13">
@@ -6228,28 +6249,28 @@
         <v>104</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F89" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G89">
         <v>40267425</v>
       </c>
       <c r="H89" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="I89" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="J89" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K89" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="M89" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="90" spans="3:13">
@@ -6260,28 +6281,28 @@
         <v>105</v>
       </c>
       <c r="E90" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F90" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G90">
         <v>40214032</v>
       </c>
       <c r="H90" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="I90" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="J90" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="K90" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M90" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
     </row>
     <row r="91" spans="3:13">
@@ -6292,25 +6313,25 @@
         <v>106</v>
       </c>
       <c r="E91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F91" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G91">
         <v>39413376</v>
       </c>
       <c r="H91" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="I91" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="K91" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="M91" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="92" spans="3:13">
@@ -6321,28 +6342,28 @@
         <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F92" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G92">
         <v>38477986</v>
       </c>
       <c r="H92" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I92" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="J92" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K92" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="M92" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
     </row>
     <row r="93" spans="3:13">
@@ -6353,28 +6374,28 @@
         <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F93" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G93">
         <v>38477985</v>
       </c>
       <c r="H93" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I93" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="J93" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K93" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="M93" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="94" spans="3:13">
@@ -6385,31 +6406,31 @@
         <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F94" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G94">
         <v>38838311</v>
       </c>
       <c r="H94" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I94" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="J94" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="K94" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="L94" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M94" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
     </row>
     <row r="95" spans="3:13">
@@ -6420,31 +6441,31 @@
         <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F95" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G95">
         <v>38904277</v>
       </c>
       <c r="H95" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="I95" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J95" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="K95" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="L95" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M95" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
     </row>
     <row r="96" spans="3:13">
@@ -6455,31 +6476,31 @@
         <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F96" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G96">
         <v>38899693</v>
       </c>
       <c r="H96" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="I96" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="J96" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="K96" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="L96" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="M96" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
     </row>
     <row r="97" spans="3:13">
@@ -6490,28 +6511,28 @@
         <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F97" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G97">
         <v>38865660</v>
       </c>
       <c r="H97" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="I97" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="J97" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="K97" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M97" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
     </row>
     <row r="98" spans="3:13">
@@ -6522,31 +6543,31 @@
         <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F98" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G98">
         <v>38197815</v>
       </c>
       <c r="H98" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="I98" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="J98" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K98" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="L98" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="M98" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
     </row>
     <row r="99" spans="3:13">
@@ -6557,28 +6578,28 @@
         <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F99" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G99">
         <v>39774314</v>
       </c>
       <c r="H99" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I99" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="J99" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="K99" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M99" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="100" spans="3:13">
@@ -6589,31 +6610,31 @@
         <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F100" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G100">
         <v>38657244</v>
       </c>
       <c r="H100" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="I100" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="J100" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="K100" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="L100" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="M100" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
     </row>
     <row r="101" spans="3:13">
@@ -6624,31 +6645,31 @@
         <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F101" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G101">
         <v>37672694</v>
       </c>
       <c r="H101" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="I101" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="J101" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="K101" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="L101" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M101" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
     </row>
     <row r="102" spans="3:13">
@@ -6659,31 +6680,31 @@
         <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F102" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G102">
         <v>37861218</v>
       </c>
       <c r="H102" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="I102" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="J102" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="K102" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="L102" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M102" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
     </row>
     <row r="103" spans="3:13">
@@ -6694,28 +6715,28 @@
         <v>118</v>
       </c>
       <c r="E103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F103" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G103">
         <v>37133584</v>
       </c>
       <c r="H103" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I103" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="J103" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K103" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="M103" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="104" spans="3:13">
@@ -6726,28 +6747,28 @@
         <v>119</v>
       </c>
       <c r="E104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F104" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G104">
         <v>36988593</v>
       </c>
       <c r="H104" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="I104" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="J104" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="K104" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M104" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
     </row>
     <row r="105" spans="3:13">
@@ -6758,28 +6779,28 @@
         <v>120</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F105" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G105">
         <v>36856618</v>
       </c>
       <c r="H105" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I105" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="J105" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="K105" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="M105" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="106" spans="3:13">
@@ -6790,31 +6811,31 @@
         <v>121</v>
       </c>
       <c r="E106" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F106" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G106">
         <v>37407001</v>
       </c>
       <c r="H106" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="I106" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="J106" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="K106" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="L106" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="M106" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
     </row>
     <row r="107" spans="3:13">
@@ -6825,31 +6846,31 @@
         <v>122</v>
       </c>
       <c r="E107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F107" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G107">
         <v>37437144</v>
       </c>
       <c r="H107" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I107" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="J107" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="K107" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="L107" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M107" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
     </row>
     <row r="108" spans="3:13">
@@ -6860,31 +6881,31 @@
         <v>123</v>
       </c>
       <c r="E108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F108" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G108">
         <v>36546659</v>
       </c>
       <c r="H108" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I108" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J108" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K108" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="L108" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="M108" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
     </row>
     <row r="109" spans="3:13">
@@ -6895,31 +6916,31 @@
         <v>124</v>
       </c>
       <c r="E109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F109" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G109">
         <v>36546651</v>
       </c>
       <c r="H109" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="I109" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J109" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="K109" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="L109" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="M109" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="110" spans="3:13">
@@ -6930,31 +6951,31 @@
         <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F110" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G110">
         <v>36652354</v>
       </c>
       <c r="H110" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="I110" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="J110" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="K110" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="L110" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M110" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
     </row>
     <row r="111" spans="3:13">
@@ -6965,28 +6986,28 @@
         <v>126</v>
       </c>
       <c r="E111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F111" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G111">
         <v>37646678</v>
       </c>
       <c r="H111" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I111" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J111" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="K111" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="M111" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
     </row>
     <row r="112" spans="3:13">
@@ -6997,31 +7018,31 @@
         <v>127</v>
       </c>
       <c r="E112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F112" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G112">
         <v>37611121</v>
       </c>
       <c r="H112" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="I112" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="J112" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="K112" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="L112" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="M112" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
     </row>
     <row r="113" spans="3:13">
@@ -7032,28 +7053,28 @@
         <v>128</v>
       </c>
       <c r="E113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F113" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G113">
         <v>37585627</v>
       </c>
       <c r="H113" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="I113" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="J113" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K113" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M113" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
     </row>
     <row r="114" spans="3:13">
@@ -7064,31 +7085,31 @@
         <v>129</v>
       </c>
       <c r="E114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F114" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G114">
         <v>37018492</v>
       </c>
       <c r="H114" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="I114" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="J114" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="K114" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="L114" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="M114" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
     </row>
     <row r="115" spans="3:13">
@@ -7099,31 +7120,31 @@
         <v>130</v>
       </c>
       <c r="E115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F115" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G115">
         <v>36094839</v>
       </c>
       <c r="H115" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I115" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="J115" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="K115" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="L115" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M115" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="116" spans="3:13">
@@ -7134,31 +7155,31 @@
         <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F116" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G116">
         <v>35767439</v>
       </c>
       <c r="H116" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="I116" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="J116" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="K116" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="L116" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="M116" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="117" spans="3:13">
@@ -7169,31 +7190,31 @@
         <v>132</v>
       </c>
       <c r="E117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F117" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G117">
         <v>35660797</v>
       </c>
       <c r="H117" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="I117" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="J117" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="K117" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="L117" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M117" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="118" spans="3:13">
@@ -7204,31 +7225,31 @@
         <v>133</v>
       </c>
       <c r="E118" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F118" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G118">
         <v>35658005</v>
       </c>
       <c r="H118" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="I118" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="J118" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K118" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="L118" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M118" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="119" spans="3:13">
@@ -7239,31 +7260,31 @@
         <v>134</v>
       </c>
       <c r="E119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F119" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G119">
         <v>34534430</v>
       </c>
       <c r="H119" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="I119" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="J119" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K119" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="L119" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M119" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
     </row>
     <row r="120" spans="3:13">
@@ -7274,31 +7295,31 @@
         <v>135</v>
       </c>
       <c r="E120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F120" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G120">
         <v>36507690</v>
       </c>
       <c r="H120" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="I120" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="J120" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="K120" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="L120" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M120" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="121" spans="3:13">
@@ -7309,31 +7330,31 @@
         <v>136</v>
       </c>
       <c r="E121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F121" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G121">
         <v>34818478</v>
       </c>
       <c r="H121" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="I121" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="J121" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="K121" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="L121" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M121" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
     </row>
     <row r="122" spans="3:13">
@@ -7344,31 +7365,31 @@
         <v>137</v>
       </c>
       <c r="E122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F122" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G122">
         <v>33979489</v>
       </c>
       <c r="H122" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I122" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="J122" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="K122" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="L122" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M122" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="123" spans="3:13">
@@ -7379,28 +7400,28 @@
         <v>138</v>
       </c>
       <c r="E123" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F123" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G123">
         <v>33704937</v>
       </c>
       <c r="H123" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="I123" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="J123" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="K123" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="M123" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
     </row>
     <row r="124" spans="3:13">
@@ -7411,28 +7432,28 @@
         <v>139</v>
       </c>
       <c r="E124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F124" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G124">
         <v>34161704</v>
       </c>
       <c r="H124" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I124" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="J124" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="K124" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M124" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row r="125" spans="3:13">
@@ -7443,31 +7464,31 @@
         <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F125" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G125">
         <v>34096690</v>
       </c>
       <c r="H125" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I125" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="J125" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K125" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="L125" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M125" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="126" spans="3:13">
@@ -7478,28 +7499,28 @@
         <v>141</v>
       </c>
       <c r="E126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F126" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G126">
         <v>33471991</v>
       </c>
       <c r="H126" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I126" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="J126" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K126" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="M126" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
     </row>
     <row r="127" spans="3:13">
@@ -7510,28 +7531,28 @@
         <v>142</v>
       </c>
       <c r="E127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F127" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G127">
         <v>33471974</v>
       </c>
       <c r="H127" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="I127" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="J127" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="K127" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="M127" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="128" spans="3:13">
@@ -7542,31 +7563,31 @@
         <v>143</v>
       </c>
       <c r="E128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F128" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G128">
         <v>33838625</v>
       </c>
       <c r="H128" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="I128" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="J128" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="K128" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="L128" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="M128" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
     </row>
     <row r="129" spans="3:13">
@@ -7577,31 +7598,31 @@
         <v>144</v>
       </c>
       <c r="E129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F129" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G129">
         <v>32877583</v>
       </c>
       <c r="H129" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I129" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="J129" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K129" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="L129" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M129" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="130" spans="3:13">
@@ -7612,31 +7633,31 @@
         <v>145</v>
       </c>
       <c r="E130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F130" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G130">
         <v>32469185</v>
       </c>
       <c r="H130" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I130" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="J130" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K130" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="L130" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="M130" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
     </row>
     <row r="131" spans="3:13">
@@ -7647,31 +7668,31 @@
         <v>146</v>
       </c>
       <c r="E131" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F131" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G131">
         <v>32955176</v>
       </c>
       <c r="H131" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I131" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="J131" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="K131" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="L131" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="M131" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
     </row>
     <row r="132" spans="3:13">
@@ -7682,28 +7703,28 @@
         <v>147</v>
       </c>
       <c r="E132" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F132" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G132">
         <v>32997908</v>
       </c>
       <c r="H132" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="I132" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="J132" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K132" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="M132" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
     </row>
     <row r="133" spans="3:13">
@@ -7714,28 +7735,28 @@
         <v>148</v>
       </c>
       <c r="E133" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F133" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G133">
         <v>32459922</v>
       </c>
       <c r="H133" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="I133" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="J133" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="K133" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="M133" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="134" spans="3:13">
@@ -7746,28 +7767,28 @@
         <v>149</v>
       </c>
       <c r="E134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F134" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G134">
         <v>32130814</v>
       </c>
       <c r="H134" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I134" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="J134" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="K134" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="M134" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
     </row>
     <row r="135" spans="3:13">
@@ -7778,28 +7799,28 @@
         <v>150</v>
       </c>
       <c r="E135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F135" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G135">
         <v>32160663</v>
       </c>
       <c r="H135" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I135" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="J135" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="K135" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="M135" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
     </row>
     <row r="136" spans="3:13">
@@ -7810,31 +7831,31 @@
         <v>151</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F136" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G136">
         <v>32023374</v>
       </c>
       <c r="H136" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="I136" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="J136" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="K136" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="L136" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="M136" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
     </row>
     <row r="137" spans="3:13">
@@ -7845,28 +7866,28 @@
         <v>152</v>
       </c>
       <c r="E137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F137" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G137">
         <v>32101664</v>
       </c>
       <c r="H137" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I137" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="J137" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="K137" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="M137" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="138" spans="3:13">
@@ -7877,31 +7898,31 @@
         <v>153</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F138" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G138">
         <v>32846061</v>
       </c>
       <c r="H138" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="I138" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="J138" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="K138" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="L138" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="M138" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="139" spans="3:13">
@@ -7912,31 +7933,31 @@
         <v>154</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F139" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G139">
         <v>32846060</v>
       </c>
       <c r="H139" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="I139" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="J139" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K139" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="L139" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="M139" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="140" spans="3:13">
@@ -7947,28 +7968,63 @@
         <v>155</v>
       </c>
       <c r="E140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G140">
         <v>32786189</v>
       </c>
       <c r="H140" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I140" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="J140" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="K140" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="M140" t="s">
-        <v>997</v>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="141" spans="3:13">
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>156</v>
+      </c>
+      <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
+        <v>416</v>
+      </c>
+      <c r="G141">
+        <v>32187457</v>
+      </c>
+      <c r="H141" t="s">
+        <v>556</v>
+      </c>
+      <c r="I141" t="s">
+        <v>696</v>
+      </c>
+      <c r="J141" t="s">
+        <v>773</v>
+      </c>
+      <c r="K141" t="s">
+        <v>820</v>
+      </c>
+      <c r="L141" t="s">
+        <v>860</v>
+      </c>
+      <c r="M141" t="s">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
